--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
     <definedName name="PAD_Cons">#REF!</definedName>
     <definedName name="PAD_Curr" localSheetId="0">Summary!#REF!</definedName>
     <definedName name="PAD_Curr">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$V$706</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$W$706</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$A:$A</definedName>
     <definedName name="PROD_GR_Cons" localSheetId="0">Summary!$A$387:$A$419</definedName>
     <definedName name="PROD_GR_Cons">#REF!</definedName>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="111">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -503,13 +503,16 @@
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
+    <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2001 to 2020</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -692,12 +695,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -986,12 +1018,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V706"/>
+  <dimension ref="A1:W706"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A647" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight" activeCell="A647" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1004,47 +1036,47 @@
     <col min="12" max="12" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.33203125" style="3"/>
+    <col min="22" max="23" width="13.88671875" style="37" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>46</v>
@@ -1069,8 +1101,9 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
@@ -1134,11 +1167,14 @@
       <c r="U10" s="9">
         <v>2019</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1202,11 +1238,14 @@
       <c r="U12" s="11">
         <v>14288332.662963083</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="39">
         <v>13478489.311557382</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="39">
+        <v>14609478.693250742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1270,11 +1309,14 @@
       <c r="U13" s="11">
         <v>2433439.2503182534</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="39">
         <v>2740783.3242552066</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="39">
+        <v>3018972.4465099713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1338,11 +1380,14 @@
       <c r="U14" s="10">
         <v>5153068.8510214183</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="40">
         <v>3118277.4509477457</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="40">
+        <v>4095203.8828170528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -1406,11 +1451,14 @@
       <c r="U15" s="10">
         <v>5300100.1831724886</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="40">
         <v>3817050.8770898473</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="40">
+        <v>4303187.310942566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1474,11 +1522,14 @@
       <c r="U16" s="11">
         <v>3290529.0946104117</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="39">
         <v>2322937.294954577</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="39">
+        <v>2659141.8397773365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
@@ -1542,11 +1593,14 @@
       <c r="U17" s="11">
         <v>1451964.5545496624</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="39">
         <v>943816.60007213906</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="39">
+        <v>1069982.6415624758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
@@ -1610,11 +1664,14 @@
       <c r="U18" s="11">
         <v>418118.7717598374</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="39">
         <v>423311.73303947051</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="39">
+        <v>427935.49279770855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
@@ -1678,11 +1735,14 @@
       <c r="U19" s="11">
         <v>139487.76225257709</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="39">
         <v>126985.24902366122</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="39">
+        <v>146127.3368050452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1746,11 +1806,14 @@
       <c r="U20" s="11">
         <v>-148526.29994967015</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="39">
         <v>-699712.36222029733</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="39">
+        <v>-209041.88625446652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -1814,11 +1877,14 @@
       <c r="U21" s="11">
         <v>1494.9677985999999</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="39">
         <v>938.93607819525414</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="39">
+        <v>1058.4581289535126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1882,11 +1948,14 @@
       <c r="U22" s="10">
         <v>5539739.4922342617</v>
       </c>
-      <c r="V22" s="10">
+      <c r="V22" s="40">
         <v>4518389.6774400938</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="40">
+        <v>4983439.5718536265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
@@ -1950,11 +2019,14 @@
       <c r="U23" s="11">
         <v>2941577.1974197887</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="39">
         <v>2551888.408456523</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="39">
+        <v>2915779.7936528134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -2018,11 +2090,14 @@
       <c r="U24" s="11">
         <v>2598162.2948144726</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="39">
         <v>1966501.2689835713</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="39">
+        <v>2067659.7782008126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2086,11 +2161,14 @@
       <c r="U25" s="10">
         <v>7896717.0848549996</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="40">
         <v>5917357.3400180917</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="40">
+        <v>7322839.4799272353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
@@ -2154,11 +2232,14 @@
       <c r="U26" s="11">
         <v>6344798.771988635</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="39">
         <v>4790019.9859151989</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="39">
+        <v>6299493.6734813266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
@@ -2222,11 +2303,14 @@
       <c r="U27" s="11">
         <v>1551918.3128663641</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="39">
         <v>1127337.3541028923</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="39">
+        <v>1023345.8064459088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2290,11 +2374,14 @@
       <c r="U28" s="10">
         <v>0</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="40">
+        <v>2954.5292262583971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2315,9 +2402,10 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
@@ -2381,11 +2469,14 @@
       <c r="U30" s="10">
         <v>19517863.171682019</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="40">
         <v>17938582.424182337</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="40">
+        <v>19387209.643730417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2406,9 +2497,10 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -2472,11 +2564,14 @@
       <c r="U32" s="10">
         <v>1954197.181119096</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V32" s="40">
         <v>1381265.1268567161</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="40">
+        <v>716076.99300644803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2497,9 +2592,10 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -2563,11 +2659,14 @@
       <c r="U34" s="10">
         <v>21472060.352801114</v>
       </c>
-      <c r="V34" s="10">
+      <c r="V34" s="40">
         <v>19319847.551039051</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="40">
+        <v>20103286.636736866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2589,50 +2688,51 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>46</v>
@@ -2657,8 +2757,9 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
@@ -2722,11 +2823,14 @@
       <c r="U48" s="9">
         <v>2019</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -2790,11 +2894,14 @@
       <c r="U50" s="11">
         <v>14027455.562030775</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V50" s="39">
         <v>12913708.620432813</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="39">
+        <v>13456457.87743534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -2858,11 +2965,14 @@
       <c r="U51" s="11">
         <v>2399867.4438101714</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V51" s="39">
         <v>2652951.8897215407</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="39">
+        <v>2838332.8543382445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
@@ -2926,11 +3036,14 @@
       <c r="U52" s="10">
         <v>5132349.1670051683</v>
       </c>
-      <c r="V52" s="10">
+      <c r="V52" s="40">
         <v>3366706.948228477</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="40">
+        <v>4005983.323743117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>1</v>
       </c>
@@ -2994,11 +3107,14 @@
       <c r="U53" s="10">
         <v>5175519.9704533266</v>
       </c>
-      <c r="V53" s="10">
+      <c r="V53" s="40">
         <v>3754622.5827839216</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="40">
+        <v>4114271.2967971666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>2</v>
       </c>
@@ -3062,11 +3178,14 @@
       <c r="U54" s="11">
         <v>3205990.7124282913</v>
       </c>
-      <c r="V54" s="11">
+      <c r="V54" s="39">
         <v>2233732.372217305</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="39">
+        <v>2470246.223102496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
@@ -3130,11 +3249,14 @@
       <c r="U55" s="11">
         <v>1424524.9749697736</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V55" s="39">
         <v>1001452.1417954667</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="39">
+        <v>1120658.871117024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>4</v>
       </c>
@@ -3198,11 +3320,14 @@
       <c r="U56" s="11">
         <v>403626.95001732698</v>
       </c>
-      <c r="V56" s="11">
+      <c r="V56" s="39">
         <v>391191.34984940384</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="39">
+        <v>376988.22567491524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>5</v>
       </c>
@@ -3266,11 +3391,14 @@
       <c r="U57" s="11">
         <v>141377.33303793459</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V57" s="39">
         <v>128246.71892174601</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="39">
+        <v>146377.97690273167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>6</v>
       </c>
@@ -3334,11 +3462,14 @@
       <c r="U58" s="11">
         <v>-44600.240770418081</v>
       </c>
-      <c r="V58" s="11">
+      <c r="V58" s="39">
         <v>-388620.31349751179</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="39">
+        <v>-109049.73480167803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
@@ -3402,11 +3533,14 @@
       <c r="U59" s="11">
         <v>1429.4373222597128</v>
       </c>
-      <c r="V59" s="11">
+      <c r="V59" s="39">
         <v>704.67894206692563</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="39">
+        <v>761.76174762841083</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -3470,11 +3604,14 @@
       <c r="U60" s="10">
         <v>5664043.0295025399</v>
       </c>
-      <c r="V60" s="10">
+      <c r="V60" s="40">
         <v>4743507.7095598336</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60" s="40">
+        <v>5115043.7620609542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>7</v>
       </c>
@@ -3538,11 +3675,14 @@
       <c r="U61" s="11">
         <v>3116492.1700701611</v>
       </c>
-      <c r="V61" s="11">
+      <c r="V61" s="39">
         <v>2849277.293077284</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61" s="39">
+        <v>3180341.5570697566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
@@ -3606,11 +3746,14 @@
       <c r="U62" s="11">
         <v>2547550.8594323788</v>
       </c>
-      <c r="V62" s="11">
+      <c r="V62" s="39">
         <v>1894230.4164825501</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="39">
+        <v>1934702.2049911977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -3674,11 +3817,14 @@
       <c r="U63" s="10">
         <v>7840964.5909254057</v>
       </c>
-      <c r="V63" s="10">
+      <c r="V63" s="40">
         <v>6149641.0630721813</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="40">
+        <v>6943662.1826956924</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>9</v>
       </c>
@@ -3742,11 +3888,14 @@
       <c r="U64" s="11">
         <v>6311705.6914733509</v>
       </c>
-      <c r="V64" s="11">
+      <c r="V64" s="39">
         <v>5030860.4230751758</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="39">
+        <v>5928952.5106063634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>10</v>
       </c>
@@ -3810,11 +3959,14 @@
       <c r="U65" s="11">
         <v>1529258.8994520551</v>
       </c>
-      <c r="V65" s="11">
+      <c r="V65" s="39">
         <v>1118780.6399970057</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W65" s="39">
+        <v>1014709.6720893285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -3878,11 +4030,14 @@
       <c r="U66" s="10">
         <v>0</v>
       </c>
-      <c r="V66" s="10">
+      <c r="V66" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="40">
+        <v>36257.639121033251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -3903,9 +4058,10 @@
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>28</v>
       </c>
@@ -3969,11 +4125,14 @@
       <c r="U68" s="10">
         <v>19382750.611423243</v>
       </c>
-      <c r="V68" s="10">
+      <c r="V68" s="40">
         <v>17527234.104870483</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="40">
+        <v>18508413.274002999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -3994,9 +4153,10 @@
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
@@ -4060,11 +4220,14 @@
       <c r="U70" s="10">
         <v>1916281.8226589335</v>
       </c>
-      <c r="V70" s="10">
+      <c r="V70" s="40">
         <v>1340175.7553090123</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="40">
+        <v>667056.57210391737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4085,9 +4248,10 @@
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>27</v>
       </c>
@@ -4151,11 +4315,14 @@
       <c r="U72" s="10">
         <v>21299032.434082177</v>
       </c>
-      <c r="V72" s="10">
+      <c r="V72" s="40">
         <v>18867409.860179495</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W72" s="40">
+        <v>19175469.846106917</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4177,50 +4344,51 @@
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
         <v>46</v>
@@ -4244,8 +4412,10 @@
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="7"/>
+      <c r="W85" s="42"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>96</v>
       </c>
@@ -4309,8 +4479,12 @@
       <c r="U86" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W86" s="38"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -4374,8 +4548,11 @@
       <c r="U88" s="17">
         <v>-5.6678646172964875</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="43">
+        <v>8.391069322016449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>13</v>
       </c>
@@ -4439,8 +4616,11 @@
       <c r="U89" s="17">
         <v>12.630028627045348</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V89" s="43">
+        <v>10.149985947187616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>14</v>
       </c>
@@ -4504,8 +4684,11 @@
       <c r="U90" s="17">
         <v>-39.486982590390681</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="43">
+        <v>31.329041345323134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>1</v>
       </c>
@@ -4569,8 +4752,11 @@
       <c r="U91" s="17">
         <v>-27.981533458390786</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="43">
+        <v>12.735917060224082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>2</v>
       </c>
@@ -4634,8 +4820,11 @@
       <c r="U92" s="17">
         <v>-29.40535615505307</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="43">
+        <v>14.473250980687084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>3</v>
       </c>
@@ -4699,8 +4888,11 @@
       <c r="U93" s="17">
         <v>-34.997269932331733</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="43">
+        <v>13.367643828334181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>4</v>
       </c>
@@ -4764,8 +4956,11 @@
       <c r="U94" s="17">
         <v>1.2419823338177878</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="43">
+        <v>1.0922824475094046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>5</v>
       </c>
@@ -4829,8 +5024,11 @@
       <c r="U95" s="17">
         <v>-8.9631613748860417</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95" s="43">
+        <v>15.074260930745751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>6</v>
       </c>
@@ -4854,8 +5052,9 @@
       <c r="S96" s="17"/>
       <c r="T96" s="17"/>
       <c r="U96" s="17"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="43"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>19</v>
       </c>
@@ -4919,8 +5118,11 @@
       <c r="U97" s="17">
         <v>-37.193558344564728</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V97" s="43">
+        <v>12.729519456531463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>15</v>
       </c>
@@ -4984,8 +5186,11 @@
       <c r="U98" s="17">
         <v>-18.436784188605259</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="43">
+        <v>10.292381304239527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>7</v>
       </c>
@@ -5049,8 +5254,11 @@
       <c r="U99" s="17">
         <v>-13.247613875477484</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="43">
+        <v>14.259690352854633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>8</v>
       </c>
@@ -5114,8 +5322,11 @@
       <c r="U100" s="17">
         <v>-24.311838682733494</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V100" s="43">
+        <v>5.1440856313063676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5179,8 +5390,11 @@
       <c r="U101" s="17">
         <v>-25.065602877341192</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="43">
+        <v>23.751855079024949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>9</v>
       </c>
@@ -5244,8 +5458,11 @@
       <c r="U102" s="17">
         <v>-24.504776935362528</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V102" s="43">
+        <v>31.512889132084126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>10</v>
       </c>
@@ -5309,8 +5526,11 @@
       <c r="U103" s="17">
         <v>-27.358460509385878</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V103" s="43">
+        <v>-9.2245278024817594</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -5331,7 +5551,7 @@
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -5352,7 +5572,7 @@
       <c r="S105" s="17"/>
       <c r="T105" s="17"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>28</v>
       </c>
@@ -5416,8 +5636,11 @@
       <c r="U106" s="17">
         <v>-8.0914633615785476</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V106" s="43">
+        <v>8.0754832533212806</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -5438,7 +5661,7 @@
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
@@ -5502,8 +5725,11 @@
       <c r="U108" s="17">
         <v>-29.31802684999694</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V108" s="43">
+        <v>-48.157889525815165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -5524,7 +5750,7 @@
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>27</v>
       </c>
@@ -5588,8 +5814,11 @@
       <c r="U110" s="17">
         <v>-10.023317587598427</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V110" s="43">
+        <v>4.0550997290642812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -5611,54 +5840,56 @@
       <c r="S111" s="15"/>
       <c r="T111" s="15"/>
       <c r="U111" s="15"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111" s="41"/>
+      <c r="W111" s="41"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
         <v>46</v>
@@ -5682,8 +5913,10 @@
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123" s="7"/>
+      <c r="W123" s="42"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>96</v>
       </c>
@@ -5747,8 +5980,12 @@
       <c r="U124" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W124" s="38"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -5812,8 +6049,11 @@
       <c r="U126" s="17">
         <v>-7.9397645330107451</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126" s="43">
+        <v>4.202892236113783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>13</v>
       </c>
@@ -5877,8 +6117,11 @@
       <c r="U127" s="17">
         <v>10.545767707467931</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V127" s="43">
+        <v>6.9877243283202404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>14</v>
       </c>
@@ -5942,8 +6185,11 @@
       <c r="U128" s="17">
         <v>-34.402223257288242</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128" s="43">
+        <v>18.988180003341839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>1</v>
       </c>
@@ -6007,8 +6253,11 @@
       <c r="U129" s="17">
         <v>-27.454195825370334</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129" s="43">
+        <v>9.5788246643575548</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>2</v>
       </c>
@@ -6072,8 +6321,11 @@
       <c r="U130" s="17">
         <v>-30.326299338358837</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130" s="43">
+        <v>10.588280575905173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>3</v>
       </c>
@@ -6137,8 +6389,11 @@
       <c r="U131" s="17">
         <v>-29.699221888565617</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131" s="43">
+        <v>11.903387525622151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>4</v>
       </c>
@@ -6202,8 +6457,11 @@
       <c r="U132" s="17">
         <v>-3.080963787821716</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132" s="43">
+        <v>-3.6307357460629675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>5</v>
       </c>
@@ -6267,8 +6525,11 @@
       <c r="U133" s="17">
         <v>-9.2876374409081137</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133" s="43">
+        <v>14.137794817229633</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>6</v>
       </c>
@@ -6292,8 +6553,9 @@
       <c r="S134" s="17"/>
       <c r="T134" s="17"/>
       <c r="U134" s="17"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134" s="43"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>19</v>
       </c>
@@ -6357,8 +6619,11 @@
       <c r="U135" s="17">
         <v>-50.702354619302895</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V135" s="43">
+        <v>8.1005408497170492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>15</v>
       </c>
@@ -6422,8 +6687,11 @@
       <c r="U136" s="17">
         <v>-16.252265654548793</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136" s="43">
+        <v>7.8325171002114047</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>7</v>
       </c>
@@ -6487,8 +6755,11 @@
       <c r="U137" s="17">
         <v>-8.5742194239769702</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137" s="43">
+        <v>11.619236386603689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>8</v>
       </c>
@@ -6552,8 +6823,11 @@
       <c r="U138" s="17">
         <v>-25.645040236621426</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V138" s="43">
+        <v>2.1365821262547797</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>16</v>
       </c>
@@ -6617,8 +6891,11 @@
       <c r="U139" s="17">
         <v>-21.570350283313942</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139" s="43">
+        <v>12.911666087172264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>9</v>
       </c>
@@ -6682,8 +6959,11 @@
       <c r="U140" s="17">
         <v>-20.293171624407364</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140" s="43">
+        <v>17.851659795844981</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>10</v>
       </c>
@@ -6747,8 +7027,11 @@
       <c r="U141" s="17">
         <v>-26.841645950344102</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V141" s="43">
+        <v>-9.302178120275272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -6769,7 +7052,7 @@
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -6790,7 +7073,7 @@
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>28</v>
       </c>
@@ -6854,8 +7137,11 @@
       <c r="U144" s="17">
         <v>-9.5730298746103131</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V144" s="43">
+        <v>5.5980262673610497</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -6876,7 +7162,7 @@
       <c r="S145" s="17"/>
       <c r="T145" s="17"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>11</v>
       </c>
@@ -6940,8 +7226,11 @@
       <c r="U146" s="17">
         <v>-30.063744306176545</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V146" s="43">
+        <v>-50.226187165271455</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -6962,7 +7251,7 @@
       <c r="S147" s="17"/>
       <c r="T147" s="17"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>27</v>
       </c>
@@ -7026,8 +7315,11 @@
       <c r="U148" s="17">
         <v>-11.416587027735872</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V148" s="43">
+        <v>1.6327624629472552</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -7049,49 +7341,51 @@
       <c r="S149" s="15"/>
       <c r="T149" s="15"/>
       <c r="U149" s="15"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V149" s="41"/>
+      <c r="W149" s="41"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
         <v>46</v>
@@ -7116,8 +7410,9 @@
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W160" s="7"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>96</v>
       </c>
@@ -7181,11 +7476,14 @@
       <c r="U161" s="9">
         <v>2019</v>
       </c>
-      <c r="V161" s="9">
+      <c r="V161" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W161" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
@@ -7249,11 +7547,14 @@
       <c r="U163" s="17">
         <v>101.85976066563664</v>
       </c>
-      <c r="V163" s="17">
+      <c r="V163" s="43">
         <v>104.37349724796286</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W163" s="43">
+        <v>108.56853137963492</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>13</v>
       </c>
@@ -7317,11 +7618,14 @@
       <c r="U164" s="17">
         <v>101.39890253499924</v>
       </c>
-      <c r="V164" s="17">
+      <c r="V164" s="43">
         <v>103.31070589232905</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W164" s="43">
+        <v>106.36428500257213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>14</v>
       </c>
@@ -7385,11 +7689,14 @@
       <c r="U165" s="17">
         <v>100.40370760721918</v>
       </c>
-      <c r="V165" s="17">
+      <c r="V165" s="43">
         <v>92.620994309841791</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W165" s="43">
+        <v>102.22718248838265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
@@ -7453,11 +7760,14 @@
       <c r="U166" s="17">
         <v>102.40710524605028</v>
       </c>
-      <c r="V166" s="17">
+      <c r="V166" s="43">
         <v>101.66270491719136</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W166" s="43">
+        <v>104.5917247676998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>2</v>
       </c>
@@ -7521,11 +7831,14 @@
       <c r="U167" s="17">
         <v>102.63688793153393</v>
       </c>
-      <c r="V167" s="17">
+      <c r="V167" s="43">
         <v>103.99353673012865</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W167" s="43">
+        <v>107.64683353862587</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>3</v>
       </c>
@@ -7589,11 +7902,14 @@
       <c r="U168" s="17">
         <v>101.92622664130344</v>
       </c>
-      <c r="V168" s="17">
+      <c r="V168" s="43">
         <v>94.244803189496906</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W168" s="43">
+        <v>95.477996840908759</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>4</v>
       </c>
@@ -7657,11 +7973,14 @@
       <c r="U169" s="17">
         <v>103.59039993288069</v>
       </c>
-      <c r="V169" s="17">
+      <c r="V169" s="43">
         <v>108.21091345768048</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W169" s="43">
+        <v>113.51428603150227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>5</v>
       </c>
@@ -7725,11 +8044,14 @@
       <c r="U170" s="17">
         <v>98.663455629870683</v>
       </c>
-      <c r="V170" s="17">
+      <c r="V170" s="43">
         <v>99.016372575695669</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W170" s="43">
+        <v>99.828771989482391</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>6</v>
       </c>
@@ -7753,9 +8075,10 @@
       <c r="S171" s="17"/>
       <c r="T171" s="17"/>
       <c r="U171" s="17"/>
-      <c r="V171" s="17"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V171" s="43"/>
+      <c r="W171" s="43"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>19</v>
       </c>
@@ -7819,11 +8142,14 @@
       <c r="U172" s="17">
         <v>104.58435464919118</v>
       </c>
-      <c r="V172" s="17">
+      <c r="V172" s="43">
         <v>133.24310152382563</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W172" s="43">
+        <v>138.94871096491852</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>15</v>
       </c>
@@ -7887,11 +8213,14 @@
       <c r="U173" s="17">
         <v>97.805392073809941</v>
       </c>
-      <c r="V173" s="17">
+      <c r="V173" s="43">
         <v>95.254186439582512</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W173" s="43">
+        <v>97.427115068233519</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>7</v>
       </c>
@@ -7955,11 +8284,14 @@
       <c r="U174" s="17">
         <v>94.387440651056266</v>
       </c>
-      <c r="V174" s="17">
+      <c r="V174" s="43">
         <v>89.562655577843941</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W174" s="43">
+        <v>91.681341180829008</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>8</v>
       </c>
@@ -8023,11 +8355,14 @@
       <c r="U175" s="17">
         <v>101.98667026390085</v>
       </c>
-      <c r="V175" s="17">
+      <c r="V175" s="43">
         <v>103.81531475116014</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W175" s="43">
+        <v>106.87225004791989</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>16</v>
       </c>
@@ -8091,11 +8426,14 @@
       <c r="U176" s="17">
         <v>100.71104126645487</v>
       </c>
-      <c r="V176" s="17">
+      <c r="V176" s="43">
         <v>96.222808442448397</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W176" s="43">
+        <v>105.46076821214734</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>9</v>
       </c>
@@ -8159,11 +8497,14 @@
       <c r="U177" s="17">
         <v>100.52431279487557</v>
       </c>
-      <c r="V177" s="17">
+      <c r="V177" s="43">
         <v>95.212738638994878</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W177" s="43">
+        <v>106.24969018072076</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
@@ -8227,11 +8568,14 @@
       <c r="U178" s="17">
         <v>101.48172512989318</v>
       </c>
-      <c r="V178" s="17">
+      <c r="V178" s="43">
         <v>100.76482500679576</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W178" s="43">
+        <v>100.85109412023226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -8252,9 +8596,10 @@
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
       <c r="U179" s="17"/>
-      <c r="V179" s="17"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V179" s="43"/>
+      <c r="W179" s="43"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -8275,9 +8620,10 @@
       <c r="S180" s="17"/>
       <c r="T180" s="17"/>
       <c r="U180" s="17"/>
-      <c r="V180" s="17"/>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V180" s="43"/>
+      <c r="W180" s="43"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>28</v>
       </c>
@@ -8341,11 +8687,14 @@
       <c r="U181" s="17">
         <v>100.69707629720597</v>
       </c>
-      <c r="V181" s="17">
+      <c r="V181" s="43">
         <v>102.34690948298311</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W181" s="43">
+        <v>104.74809135022815</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
@@ -8366,9 +8715,10 @@
       <c r="S182" s="17"/>
       <c r="T182" s="17"/>
       <c r="U182" s="17"/>
-      <c r="V182" s="17"/>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V182" s="43"/>
+      <c r="W182" s="43"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>11</v>
       </c>
@@ -8432,11 +8782,14 @@
       <c r="U183" s="17">
         <v>101.97858989277231</v>
       </c>
-      <c r="V183" s="17">
+      <c r="V183" s="43">
         <v>103.06596887646498</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W183" s="43">
+        <v>107.34876515014591</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
@@ -8457,9 +8810,10 @@
       <c r="S184" s="17"/>
       <c r="T184" s="17"/>
       <c r="U184" s="17"/>
-      <c r="V184" s="17"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V184" s="43"/>
+      <c r="W184" s="43"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>27</v>
       </c>
@@ -8523,11 +8877,14 @@
       <c r="U185" s="17">
         <v>100.81237454919344</v>
       </c>
-      <c r="V185" s="17">
+      <c r="V185" s="43">
         <v>102.39798517238154</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W185" s="43">
+        <v>104.8385609222416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -8549,50 +8906,51 @@
       <c r="S186" s="15"/>
       <c r="T186" s="15"/>
       <c r="U186" s="15"/>
-      <c r="V186" s="15"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V186" s="41"/>
+      <c r="W186" s="41"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7" t="s">
         <v>46</v>
@@ -8617,8 +8975,9 @@
       <c r="T198" s="7"/>
       <c r="U198" s="7"/>
       <c r="V198" s="7"/>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W198" s="7"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>96</v>
       </c>
@@ -8682,11 +9041,14 @@
       <c r="U199" s="9">
         <v>2019</v>
       </c>
-      <c r="V199" s="9">
+      <c r="V199" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W199" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
@@ -8750,11 +9112,14 @@
       <c r="U201" s="17">
         <v>73.20643933857302</v>
       </c>
-      <c r="V201" s="17">
+      <c r="V201" s="43">
         <v>75.136869752804614</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W201" s="43">
+        <v>75.356273345789432</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>13</v>
       </c>
@@ -8818,11 +9183,14 @@
       <c r="U202" s="17">
         <v>12.467754430458708</v>
       </c>
-      <c r="V202" s="17">
+      <c r="V202" s="43">
         <v>15.278706307140849</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W202" s="43">
+        <v>15.571980197192891</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>14</v>
       </c>
@@ -8886,11 +9254,14 @@
       <c r="U203" s="17">
         <v>26.401808464862476</v>
       </c>
-      <c r="V203" s="17">
+      <c r="V203" s="43">
         <v>17.383076194159646</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W203" s="43">
+        <v>21.123224837780565</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>1</v>
       </c>
@@ -8954,11 +9325,14 @@
       <c r="U204" s="17">
         <v>27.155125213001142</v>
       </c>
-      <c r="V204" s="17">
+      <c r="V204" s="43">
         <v>21.278442113375821</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W204" s="43">
+        <v>22.196011649021205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>2</v>
       </c>
@@ -9022,11 +9396,14 @@
       <c r="U205" s="17">
         <v>16.859064261627566</v>
       </c>
-      <c r="V205" s="17">
+      <c r="V205" s="43">
         <v>12.9493916521693</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W205" s="43">
+        <v>13.715959586980944</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>3</v>
       </c>
@@ -9090,11 +9467,14 @@
       <c r="U206" s="17">
         <v>7.4391573594812455</v>
       </c>
-      <c r="V206" s="17">
+      <c r="V206" s="43">
         <v>5.261377837748288</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W206" s="43">
+        <v>5.5190131082556011</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>4</v>
       </c>
@@ -9158,11 +9538,14 @@
       <c r="U207" s="17">
         <v>2.1422364122650244</v>
       </c>
-      <c r="V207" s="17">
+      <c r="V207" s="43">
         <v>2.3597836385823872</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W207" s="43">
+        <v>2.2073083267869729</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>5</v>
       </c>
@@ -9226,11 +9609,14 @@
       <c r="U208" s="17">
         <v>0.71466717962730875</v>
       </c>
-      <c r="V208" s="17">
+      <c r="V208" s="43">
         <v>0.70788898487584573</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W208" s="43">
+        <v>0.75373062699768645</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>6</v>
       </c>
@@ -9294,11 +9680,14 @@
       <c r="U209" s="17">
         <v>-0.76097623312147844</v>
       </c>
-      <c r="V209" s="17">
+      <c r="V209" s="43">
         <v>-3.9006000902113711</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W209" s="43">
+        <v>-1.0782463804535589</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>19</v>
       </c>
@@ -9362,11 +9751,14 @@
       <c r="U210" s="17">
         <v>7.6594849828080132E-3</v>
       </c>
-      <c r="V210" s="17">
+      <c r="V210" s="43">
         <v>5.234170995192515E-3</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W210" s="43">
+        <v>5.4595692129207713E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>15</v>
       </c>
@@ -9430,11 +9822,14 @@
       <c r="U211" s="17">
         <v>28.382920012841012</v>
       </c>
-      <c r="V211" s="17">
+      <c r="V211" s="43">
         <v>25.188108907362828</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W211" s="43">
+        <v>25.704779921566534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>7</v>
       </c>
@@ -9498,11 +9893,14 @@
       <c r="U212" s="17">
         <v>15.071205139339483</v>
       </c>
-      <c r="V212" s="17">
+      <c r="V212" s="43">
         <v>14.225697148824965</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W212" s="43">
+        <v>15.039708381116828</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>8</v>
       </c>
@@ -9566,11 +9964,14 @@
       <c r="U213" s="17">
         <v>13.311714873501529</v>
       </c>
-      <c r="V213" s="17">
+      <c r="V213" s="43">
         <v>10.962411758537865</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W213" s="43">
+        <v>10.665071540449702</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>16</v>
       </c>
@@ -9634,11 +10035,14 @@
       <c r="U214" s="17">
         <v>40.458922246735234</v>
       </c>
-      <c r="V214" s="17">
+      <c r="V214" s="43">
         <v>32.986761161467932</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W214" s="43">
+        <v>37.771497881828239</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
@@ -9702,11 +10106,14 @@
       <c r="U215" s="17">
         <v>32.507650638693612</v>
       </c>
-      <c r="V215" s="17">
+      <c r="V215" s="43">
         <v>26.702332841294922</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W215" s="43">
+        <v>32.493039427767805</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>10</v>
       </c>
@@ -9770,11 +10177,14 @@
       <c r="U216" s="17">
         <v>7.9512716080416208</v>
       </c>
-      <c r="V216" s="17">
+      <c r="V216" s="43">
         <v>6.2844283201730082</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W216" s="43">
+        <v>5.2784584540604387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
@@ -9795,9 +10205,10 @@
       <c r="S217" s="17"/>
       <c r="T217" s="17"/>
       <c r="U217" s="17"/>
-      <c r="V217" s="17"/>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V217" s="43"/>
+      <c r="W217" s="43"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -9818,9 +10229,10 @@
       <c r="S218" s="17"/>
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
-      <c r="V218" s="17"/>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V218" s="43"/>
+      <c r="W218" s="43"/>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>28</v>
       </c>
@@ -9884,11 +10296,14 @@
       <c r="U219" s="17">
         <v>100</v>
       </c>
-      <c r="V219" s="17">
+      <c r="V219" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W219" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>49</v>
       </c>
@@ -9952,11 +10367,14 @@
       <c r="U220" s="17">
         <v>90.898883716745132</v>
       </c>
-      <c r="V220" s="17">
+      <c r="V220" s="43">
         <v>92.850538166992791</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W220" s="43">
+        <v>96.438010331614691</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>11</v>
       </c>
@@ -10020,11 +10438,14 @@
       <c r="U221" s="17">
         <v>9.1011162832548731</v>
       </c>
-      <c r="V221" s="17">
+      <c r="V221" s="43">
         <v>7.1494618330072148</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W221" s="43">
+        <v>3.5619896683852912</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
       <c r="D222" s="17"/>
@@ -10045,9 +10466,10 @@
       <c r="S222" s="17"/>
       <c r="T222" s="17"/>
       <c r="U222" s="17"/>
-      <c r="V222" s="17"/>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V222" s="43"/>
+      <c r="W222" s="43"/>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>27</v>
       </c>
@@ -10111,11 +10533,14 @@
       <c r="U223" s="17">
         <v>100</v>
       </c>
-      <c r="V223" s="17">
+      <c r="V223" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W223" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -10137,50 +10562,51 @@
       <c r="S224" s="15"/>
       <c r="T224" s="15"/>
       <c r="U224" s="15"/>
-      <c r="V224" s="15"/>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V224" s="41"/>
+      <c r="W224" s="41"/>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="7" t="s">
         <v>46</v>
@@ -10205,8 +10631,9 @@
       <c r="T236" s="7"/>
       <c r="U236" s="7"/>
       <c r="V236" s="7"/>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W236" s="7"/>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>96</v>
       </c>
@@ -10270,11 +10697,14 @@
       <c r="U237" s="9">
         <v>2019</v>
       </c>
-      <c r="V237" s="9">
+      <c r="V237" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W237" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -10338,11 +10768,14 @@
       <c r="U239" s="17">
         <v>72.370820030897377</v>
       </c>
-      <c r="V239" s="17">
+      <c r="V239" s="43">
         <v>73.677960499451189</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W239" s="43">
+        <v>72.704546187848209</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>13</v>
       </c>
@@ -10406,11 +10839,14 @@
       <c r="U240" s="17">
         <v>12.381459638632544</v>
       </c>
-      <c r="V240" s="17">
+      <c r="V240" s="43">
         <v>15.136169653740952</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W240" s="43">
+        <v>15.335365664894567</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>14</v>
       </c>
@@ -10474,11 +10910,14 @@
       <c r="U241" s="17">
         <v>26.478951671495032</v>
       </c>
-      <c r="V241" s="17">
+      <c r="V241" s="43">
         <v>19.208432591728396</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W241" s="43">
+        <v>21.644120781385077</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>1</v>
       </c>
@@ -10542,11 +10981,14 @@
       <c r="U242" s="17">
         <v>26.701679623340606</v>
       </c>
-      <c r="V242" s="17">
+      <c r="V242" s="43">
         <v>21.421649076625179</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W242" s="43">
+        <v>22.22919510110621</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>2</v>
       </c>
@@ -10610,11 +11052,14 @@
       <c r="U243" s="17">
         <v>16.540432143510312</v>
       </c>
-      <c r="V243" s="17">
+      <c r="V243" s="43">
         <v>12.744351783357496</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W243" s="43">
+        <v>13.346612627092217</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>3</v>
       </c>
@@ -10678,11 +11123,14 @@
       <c r="U244" s="17">
         <v>7.3494469568742655</v>
       </c>
-      <c r="V244" s="17">
+      <c r="V244" s="43">
         <v>5.7136918226999791</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W244" s="43">
+        <v>6.0548619404944155</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>4</v>
       </c>
@@ -10746,11 +11194,14 @@
       <c r="U245" s="17">
         <v>2.0824028442044189</v>
       </c>
-      <c r="V245" s="17">
+      <c r="V245" s="43">
         <v>2.2319057730888594</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W245" s="43">
+        <v>2.0368478923281588</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>5</v>
       </c>
@@ -10814,11 +11265,14 @@
       <c r="U246" s="17">
         <v>0.72939767875160977</v>
       </c>
-      <c r="V246" s="17">
+      <c r="V246" s="43">
         <v>0.73169969747884345</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W246" s="43">
+        <v>0.7908726411914242</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>6</v>
       </c>
@@ -10882,11 +11336,14 @@
       <c r="U247" s="17">
         <v>-0.23010274271461187</v>
       </c>
-      <c r="V247" s="17">
+      <c r="V247" s="43">
         <v>-2.2172369648986523</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W247" s="43">
+        <v>-0.58919007905907195</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>19</v>
       </c>
@@ -10950,11 +11407,14 @@
       <c r="U248" s="17">
         <v>7.3747908690383326E-3</v>
       </c>
-      <c r="V248" s="17">
+      <c r="V248" s="43">
         <v>4.0204800018681149E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W248" s="43">
+        <v>4.1157593379351695E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -11018,11 +11478,14 @@
       <c r="U249" s="17">
         <v>29.222080720392857</v>
       </c>
-      <c r="V249" s="17">
+      <c r="V249" s="43">
         <v>27.063640966840875</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W249" s="43">
+        <v>27.636316989126065</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>7</v>
       </c>
@@ -11086,11 +11549,14 @@
       <c r="U250" s="17">
         <v>16.078688894823078</v>
       </c>
-      <c r="V250" s="17">
+      <c r="V250" s="43">
         <v>16.256285937811057</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W250" s="43">
+        <v>17.183221003266006</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
         <v>8</v>
       </c>
@@ -11154,11 +11620,14 @@
       <c r="U251" s="17">
         <v>13.143391825569777</v>
       </c>
-      <c r="V251" s="17">
+      <c r="V251" s="43">
         <v>10.807355029029821</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W251" s="43">
+        <v>10.453095985860058</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>16</v>
       </c>
@@ -11222,11 +11691,14 @@
       <c r="U252" s="17">
         <v>40.453312061417776</v>
       </c>
-      <c r="V252" s="17">
+      <c r="V252" s="43">
         <v>35.086203711761421</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W252" s="43">
+        <v>37.516247772837403</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>9</v>
       </c>
@@ -11290,11 +11762,14 @@
       <c r="U253" s="17">
         <v>32.563519069133257</v>
       </c>
-      <c r="V253" s="17">
+      <c r="V253" s="43">
         <v>28.703105081920459</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W253" s="43">
+        <v>32.033823876918703</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
         <v>10</v>
       </c>
@@ -11358,11 +11833,14 @@
       <c r="U254" s="17">
         <v>7.8897929922845149</v>
       </c>
-      <c r="V254" s="17">
+      <c r="V254" s="43">
         <v>6.383098629840962</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W254" s="43">
+        <v>5.4824238959186973</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
@@ -11383,9 +11861,10 @@
       <c r="S255" s="17"/>
       <c r="T255" s="17"/>
       <c r="U255" s="17"/>
-      <c r="V255" s="17"/>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V255" s="43"/>
+      <c r="W255" s="43"/>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
@@ -11406,9 +11885,10 @@
       <c r="S256" s="17"/>
       <c r="T256" s="17"/>
       <c r="U256" s="17"/>
-      <c r="V256" s="17"/>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V256" s="43"/>
+      <c r="W256" s="43"/>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
         <v>28</v>
       </c>
@@ -11472,11 +11952,14 @@
       <c r="U257" s="17">
         <v>100</v>
       </c>
-      <c r="V257" s="17">
+      <c r="V257" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="258" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W257" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>49</v>
       </c>
@@ -11540,11 +12023,14 @@
       <c r="U258" s="17">
         <v>91.002963028533884</v>
       </c>
-      <c r="V258" s="17">
+      <c r="V258" s="43">
         <v>92.896874741998829</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W258" s="43">
+        <v>96.521302594109088</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>11</v>
       </c>
@@ -11608,11 +12094,14 @@
       <c r="U259" s="17">
         <v>8.9970369714661178</v>
       </c>
-      <c r="V259" s="17">
+      <c r="V259" s="43">
         <v>7.1031252580011666</v>
       </c>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W259" s="43">
+        <v>3.4786974058909221</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
@@ -11633,9 +12122,10 @@
       <c r="S260" s="17"/>
       <c r="T260" s="17"/>
       <c r="U260" s="17"/>
-      <c r="V260" s="17"/>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V260" s="43"/>
+      <c r="W260" s="43"/>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -11699,11 +12189,14 @@
       <c r="U261" s="17">
         <v>100</v>
       </c>
-      <c r="V261" s="17">
+      <c r="V261" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="262" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W261" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -11725,50 +12218,51 @@
       <c r="S262" s="15"/>
       <c r="T262" s="15"/>
       <c r="U262" s="15"/>
-      <c r="V262" s="15"/>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V262" s="41"/>
+      <c r="W262" s="41"/>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="7" t="s">
         <v>46</v>
@@ -11793,8 +12287,9 @@
       <c r="T274" s="7"/>
       <c r="U274" s="7"/>
       <c r="V274" s="7"/>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W274" s="7"/>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>33</v>
       </c>
@@ -11858,11 +12353,14 @@
       <c r="U275" s="9">
         <v>2019</v>
       </c>
-      <c r="V275" s="9">
+      <c r="V275" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W275" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
         <v>50</v>
       </c>
@@ -11926,11 +12424,14 @@
       <c r="U277" s="11">
         <v>1721538.7202586958</v>
       </c>
-      <c r="V277" s="11">
+      <c r="V277" s="39">
         <v>1827010.1925432752</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W277" s="39">
+        <v>1953776.0783524239</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
         <v>33</v>
       </c>
@@ -11994,11 +12495,14 @@
       <c r="U278" s="19">
         <v>5919281.4913050616</v>
       </c>
-      <c r="V278" s="19">
+      <c r="V278" s="44">
         <v>5094221.5462210681</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W278" s="44">
+        <v>5595945.8269927409</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
         <v>51</v>
       </c>
@@ -12062,11 +12566,14 @@
       <c r="U279" s="11">
         <v>161656.37307356353</v>
       </c>
-      <c r="V279" s="11">
+      <c r="V279" s="39">
         <v>136038.60476567756</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W279" s="39">
+        <v>179865.61675629864</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
         <v>52</v>
       </c>
@@ -12130,11 +12637,14 @@
       <c r="U280" s="11">
         <v>3614016.2341033733</v>
       </c>
-      <c r="V280" s="11">
+      <c r="V280" s="39">
         <v>3170116.5732869897</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W280" s="39">
+        <v>3425695.6826569373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="s">
         <v>53</v>
       </c>
@@ -12198,11 +12708,14 @@
       <c r="U281" s="11">
         <v>607881.48300037195</v>
       </c>
-      <c r="V281" s="11">
+      <c r="V281" s="39">
         <v>610952.76336989261</v>
       </c>
-    </row>
-    <row r="282" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W281" s="39">
+        <v>650878.2717242263</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
         <v>54</v>
       </c>
@@ -12266,11 +12779,14 @@
       <c r="U282" s="11">
         <v>1535727.4011277531</v>
       </c>
-      <c r="V282" s="11">
+      <c r="V282" s="39">
         <v>1177113.6047985088</v>
       </c>
-    </row>
-    <row r="283" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W282" s="39">
+        <v>1339506.2558552786</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
         <v>55</v>
       </c>
@@ -12334,11 +12850,14 @@
       <c r="U283" s="19">
         <v>11877042.96011826</v>
       </c>
-      <c r="V283" s="19">
+      <c r="V283" s="44">
         <v>11017350.685417993</v>
       </c>
-    </row>
-    <row r="284" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W283" s="44">
+        <v>11837487.738385253</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
         <v>56</v>
       </c>
@@ -12402,11 +12921,14 @@
       <c r="U284" s="11">
         <v>3517653.0828562537</v>
       </c>
-      <c r="V284" s="11">
+      <c r="V284" s="39">
         <v>3321007.3908340735</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W284" s="39">
+        <v>3512790.0259652114</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
         <v>57</v>
       </c>
@@ -12470,11 +12992,14 @@
       <c r="U285" s="11">
         <v>757661.34826561401</v>
       </c>
-      <c r="V285" s="11">
+      <c r="V285" s="39">
         <v>548973.31998328003</v>
       </c>
-    </row>
-    <row r="286" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W285" s="39">
+        <v>602112.80233723461</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
         <v>58</v>
       </c>
@@ -12538,11 +13063,14 @@
       <c r="U286" s="11">
         <v>431777.67931157432</v>
       </c>
-      <c r="V286" s="11">
+      <c r="V286" s="39">
         <v>253656.17820532768</v>
       </c>
-    </row>
-    <row r="287" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W286" s="39">
+        <v>287715.97265334794</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
         <v>59</v>
       </c>
@@ -12606,11 +13134,14 @@
       <c r="U287" s="11">
         <v>562833.69035834156</v>
       </c>
-      <c r="V287" s="11">
+      <c r="V287" s="39">
         <v>592818.4840500612</v>
       </c>
-    </row>
-    <row r="288" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W287" s="39">
+        <v>638752.83705136471</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
         <v>60</v>
       </c>
@@ -12674,11 +13205,14 @@
       <c r="U288" s="11">
         <v>1681870.098085878</v>
       </c>
-      <c r="V288" s="11">
+      <c r="V288" s="39">
         <v>1822567.8775339834</v>
       </c>
-    </row>
-    <row r="289" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W288" s="39">
+        <v>1957059.5656067664</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>61</v>
       </c>
@@ -12742,11 +13276,14 @@
       <c r="U289" s="11">
         <v>1255643.6165043227</v>
       </c>
-      <c r="V289" s="11">
+      <c r="V289" s="39">
         <v>1078017.2360857935</v>
       </c>
-    </row>
-    <row r="290" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W289" s="39">
+        <v>1134609.3932581136</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="s">
         <v>62</v>
       </c>
@@ -12810,11 +13347,14 @@
       <c r="U290" s="11">
         <v>1219756.8056329405</v>
       </c>
-      <c r="V290" s="11">
+      <c r="V290" s="39">
         <v>1132869.1223102962</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W290" s="39">
+        <v>1214733.8362008277</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="s">
         <v>63</v>
       </c>
@@ -12878,11 +13418,14 @@
       <c r="U291" s="11">
         <v>890687.72424688854</v>
       </c>
-      <c r="V291" s="11">
+      <c r="V291" s="39">
         <v>950763.26706530317</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W291" s="39">
+        <v>1025251.9365432287</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
         <v>64</v>
       </c>
@@ -12946,11 +13489,14 @@
       <c r="U292" s="11">
         <v>778867.60580924491</v>
       </c>
-      <c r="V292" s="11">
+      <c r="V292" s="39">
         <v>715250.14171456581</v>
       </c>
-    </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W292" s="39">
+        <v>789519.36903500161</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
         <v>65</v>
       </c>
@@ -13014,11 +13560,14 @@
       <c r="U293" s="11">
         <v>329862.2022173648</v>
       </c>
-      <c r="V293" s="11">
+      <c r="V293" s="39">
         <v>329707.74073466816</v>
       </c>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W293" s="39">
+        <v>393899.99419311207</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="s">
         <v>66</v>
       </c>
@@ -13082,11 +13631,14 @@
       <c r="U294" s="11">
         <v>450429.10682983557</v>
       </c>
-      <c r="V294" s="11">
+      <c r="V294" s="39">
         <v>271719.92690063943</v>
       </c>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W294" s="39">
+        <v>281042.00554104499</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" s="21"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -13108,9 +13660,10 @@
       <c r="S295" s="19"/>
       <c r="T295" s="19"/>
       <c r="U295" s="19"/>
-      <c r="V295" s="19"/>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V295" s="44"/>
+      <c r="W295" s="44"/>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>28</v>
       </c>
@@ -13174,11 +13727,14 @@
       <c r="U296" s="19">
         <v>19517863.171682019</v>
       </c>
-      <c r="V296" s="19">
+      <c r="V296" s="44">
         <v>17938582.424182337</v>
       </c>
-    </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W296" s="44">
+        <v>19387209.643730417</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
@@ -13199,9 +13755,10 @@
       <c r="S297" s="19"/>
       <c r="T297" s="19"/>
       <c r="U297" s="19"/>
-      <c r="V297" s="19"/>
-    </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V297" s="44"/>
+      <c r="W297" s="44"/>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>11</v>
       </c>
@@ -13265,11 +13822,14 @@
       <c r="U298" s="19">
         <v>1954197.181119096</v>
       </c>
-      <c r="V298" s="19">
+      <c r="V298" s="44">
         <v>1381265.1268567161</v>
       </c>
-    </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W298" s="44">
+        <v>716076.99300644803</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
@@ -13290,9 +13850,10 @@
       <c r="S299" s="19"/>
       <c r="T299" s="19"/>
       <c r="U299" s="19"/>
-      <c r="V299" s="19"/>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V299" s="44"/>
+      <c r="W299" s="44"/>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>27</v>
       </c>
@@ -13356,11 +13917,14 @@
       <c r="U300" s="19">
         <v>21472060.352801114</v>
       </c>
-      <c r="V300" s="19">
+      <c r="V300" s="44">
         <v>19319847.551039051</v>
       </c>
-    </row>
-    <row r="301" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W300" s="44">
+        <v>20103286.636736866</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -13382,26 +13946,27 @@
       <c r="S301" s="15"/>
       <c r="T301" s="15"/>
       <c r="U301" s="15"/>
-      <c r="V301" s="15"/>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V301" s="41"/>
+      <c r="W301" s="41"/>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -13423,9 +13988,10 @@
       <c r="S307" s="3"/>
       <c r="T307" s="3"/>
       <c r="U307" s="3"/>
-      <c r="V307" s="3"/>
-    </row>
-    <row r="308" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V307" s="37"/>
+      <c r="W307" s="37"/>
+    </row>
+    <row r="308" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -13447,9 +14013,10 @@
       <c r="S308" s="3"/>
       <c r="T308" s="3"/>
       <c r="U308" s="3"/>
-      <c r="V308" s="3"/>
-    </row>
-    <row r="309" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V308" s="37"/>
+      <c r="W308" s="37"/>
+    </row>
+    <row r="309" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>35</v>
       </c>
@@ -13473,11 +14040,12 @@
       <c r="S309" s="3"/>
       <c r="T309" s="3"/>
       <c r="U309" s="3"/>
-      <c r="V309" s="3"/>
-    </row>
-    <row r="310" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V309" s="37"/>
+      <c r="W309" s="37"/>
+    </row>
+    <row r="310" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -13499,9 +14067,10 @@
       <c r="S310" s="3"/>
       <c r="T310" s="3"/>
       <c r="U310" s="3"/>
-      <c r="V310" s="3"/>
-    </row>
-    <row r="311" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V310" s="37"/>
+      <c r="W310" s="37"/>
+    </row>
+    <row r="311" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>30</v>
       </c>
@@ -13525,9 +14094,10 @@
       <c r="S311" s="3"/>
       <c r="T311" s="3"/>
       <c r="U311" s="3"/>
-      <c r="V311" s="3"/>
-    </row>
-    <row r="312" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V311" s="37"/>
+      <c r="W311" s="37"/>
+    </row>
+    <row r="312" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -13549,9 +14119,10 @@
       <c r="S312" s="3"/>
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
-      <c r="V312" s="3"/>
-    </row>
-    <row r="313" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V312" s="37"/>
+      <c r="W312" s="37"/>
+    </row>
+    <row r="313" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="7" t="s">
         <v>46</v>
@@ -13576,8 +14147,9 @@
       <c r="T313" s="7"/>
       <c r="U313" s="7"/>
       <c r="V313" s="7"/>
-    </row>
-    <row r="314" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W313" s="7"/>
+    </row>
+    <row r="314" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>33</v>
       </c>
@@ -13641,11 +14213,14 @@
       <c r="U314" s="9">
         <v>2019</v>
       </c>
-      <c r="V314" s="9">
+      <c r="V314" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="316" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W314" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="18" t="s">
         <v>50</v>
       </c>
@@ -13709,11 +14284,14 @@
       <c r="U316" s="11">
         <v>1783855.1472581755</v>
       </c>
-      <c r="V316" s="11">
+      <c r="V316" s="39">
         <v>1780544.4867078124</v>
       </c>
-    </row>
-    <row r="317" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W316" s="39">
+        <v>1775566.4208060256</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="s">
         <v>33</v>
       </c>
@@ -13777,11 +14355,14 @@
       <c r="U317" s="19">
         <v>5887868.6968866969</v>
       </c>
-      <c r="V317" s="19">
+      <c r="V317" s="44">
         <v>5112114.5948900562</v>
       </c>
-    </row>
-    <row r="318" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W317" s="44">
+        <v>5531828.6026823465</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
         <v>51</v>
       </c>
@@ -13845,11 +14426,14 @@
       <c r="U318" s="11">
         <v>168857.01559815076</v>
       </c>
-      <c r="V318" s="11">
+      <c r="V318" s="39">
         <v>136939.92115443319</v>
       </c>
-    </row>
-    <row r="319" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W318" s="39">
+        <v>140505.61146043096</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
         <v>52</v>
       </c>
@@ -13913,11 +14497,14 @@
       <c r="U319" s="11">
         <v>3620455.9375859774</v>
       </c>
-      <c r="V319" s="11">
+      <c r="V319" s="39">
         <v>3266647.5771492883</v>
       </c>
-    </row>
-    <row r="320" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W319" s="39">
+        <v>3546627.2274559317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="s">
         <v>53</v>
       </c>
@@ -13981,11 +14568,14 @@
       <c r="U320" s="11">
         <v>591311.99595093704</v>
       </c>
-      <c r="V320" s="11">
+      <c r="V320" s="39">
         <v>589089.16445885168</v>
       </c>
-    </row>
-    <row r="321" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W320" s="39">
+        <v>615475.43669912044</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
         <v>54</v>
       </c>
@@ -14049,11 +14639,14 @@
       <c r="U321" s="11">
         <v>1507243.747751632</v>
       </c>
-      <c r="V321" s="11">
+      <c r="V321" s="39">
         <v>1119437.9321274832</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W321" s="39">
+        <v>1229220.3270668632</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="18" t="s">
         <v>55</v>
       </c>
@@ -14117,11 +14710,14 @@
       <c r="U322" s="19">
         <v>11711026.767278371</v>
       </c>
-      <c r="V322" s="19">
+      <c r="V322" s="44">
         <v>10634575.023272617</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W322" s="44">
+        <v>11201018.250514627</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="s">
         <v>56</v>
       </c>
@@ -14185,11 +14781,14 @@
       <c r="U323" s="11">
         <v>3489299.3986241054</v>
       </c>
-      <c r="V323" s="11">
+      <c r="V323" s="39">
         <v>3279284.9597977269</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W323" s="39">
+        <v>3420956.2617217642</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
         <v>57</v>
       </c>
@@ -14253,11 +14852,14 @@
       <c r="U324" s="11">
         <v>742346.50223086798</v>
       </c>
-      <c r="V324" s="11">
+      <c r="V324" s="39">
         <v>512769.34071302519</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W324" s="39">
+        <v>544995.25743696524</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
         <v>58</v>
       </c>
@@ -14321,11 +14923,14 @@
       <c r="U325" s="11">
         <v>425692.44564928289</v>
       </c>
-      <c r="V325" s="11">
+      <c r="V325" s="39">
         <v>232388.79055821348</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W325" s="39">
+        <v>250451.79306264716</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
         <v>59</v>
       </c>
@@ -14389,11 +14994,14 @@
       <c r="U326" s="11">
         <v>557007.14226321713</v>
       </c>
-      <c r="V326" s="11">
+      <c r="V326" s="39">
         <v>584980.59714844998</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W326" s="39">
+        <v>637941.44418481179</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
         <v>60</v>
       </c>
@@ -14457,11 +15065,14 @@
       <c r="U327" s="11">
         <v>1676448.1015052404</v>
       </c>
-      <c r="V327" s="11">
+      <c r="V327" s="39">
         <v>1768603.5228635638</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W327" s="39">
+        <v>1848603.5468981566</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
         <v>61</v>
       </c>
@@ -14525,11 +15136,14 @@
       <c r="U328" s="11">
         <v>1238469.4807894267</v>
       </c>
-      <c r="V328" s="11">
+      <c r="V328" s="39">
         <v>1027859.7302618109</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" s="20" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W328" s="39">
+        <v>1050031.2029718352</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" s="20" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="s">
         <v>62</v>
       </c>
@@ -14593,11 +15207,14 @@
       <c r="U329" s="11">
         <v>1182158.5827597622</v>
       </c>
-      <c r="V329" s="11">
+      <c r="V329" s="39">
         <v>1064317.5151590216</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W329" s="39">
+        <v>1129810.0961403633</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="s">
         <v>63</v>
       </c>
@@ -14661,11 +15278,14 @@
       <c r="U330" s="11">
         <v>871564.28334569244</v>
       </c>
-      <c r="V330" s="11">
+      <c r="V330" s="39">
         <v>911353.7275870617</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W330" s="39">
+        <v>958708.03764278023</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
         <v>64</v>
       </c>
@@ -14729,11 +15349,14 @@
       <c r="U331" s="11">
         <v>766089.01603823481</v>
       </c>
-      <c r="V331" s="11">
+      <c r="V331" s="39">
         <v>683563.40506413975</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W331" s="39">
+        <v>738027.17115230742</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
         <v>65</v>
       </c>
@@ -14797,11 +15420,14 @@
       <c r="U332" s="11">
         <v>323261.21682743798</v>
       </c>
-      <c r="V332" s="11">
+      <c r="V332" s="39">
         <v>310930.2562458078</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W332" s="39">
+        <v>357597.76931364287</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="s">
         <v>66</v>
       </c>
@@ -14865,11 +15491,14 @@
       <c r="U333" s="11">
         <v>438690.59724510444</v>
       </c>
-      <c r="V333" s="11">
+      <c r="V333" s="39">
         <v>258523.17787379521</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W333" s="39">
+        <v>263895.66998935421</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="21"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -14891,9 +15520,10 @@
       <c r="S334" s="19"/>
       <c r="T334" s="19"/>
       <c r="U334" s="19"/>
-      <c r="V334" s="19"/>
-    </row>
-    <row r="335" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V334" s="44"/>
+      <c r="W334" s="44"/>
+    </row>
+    <row r="335" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>28</v>
       </c>
@@ -14957,11 +15587,14 @@
       <c r="U335" s="19">
         <v>19382750.611423243</v>
       </c>
-      <c r="V335" s="19">
+      <c r="V335" s="44">
         <v>17527234.104870483</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W335" s="44">
+        <v>18508413.274002999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -14983,9 +15616,10 @@
       <c r="S336" s="19"/>
       <c r="T336" s="19"/>
       <c r="U336" s="19"/>
-      <c r="V336" s="19"/>
-    </row>
-    <row r="337" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V336" s="44"/>
+      <c r="W336" s="44"/>
+    </row>
+    <row r="337" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>11</v>
       </c>
@@ -15049,11 +15683,14 @@
       <c r="U337" s="19">
         <v>1916281.8226589335</v>
       </c>
-      <c r="V337" s="19">
+      <c r="V337" s="44">
         <v>1340175.7553090123</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W337" s="44">
+        <v>667056.57210391737</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -15075,9 +15712,10 @@
       <c r="S338" s="19"/>
       <c r="T338" s="19"/>
       <c r="U338" s="19"/>
-      <c r="V338" s="19"/>
-    </row>
-    <row r="339" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V338" s="44"/>
+      <c r="W338" s="44"/>
+    </row>
+    <row r="339" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>27</v>
       </c>
@@ -15141,11 +15779,14 @@
       <c r="U339" s="19">
         <v>21299032.434082177</v>
       </c>
-      <c r="V339" s="19">
+      <c r="V339" s="44">
         <v>18867409.860179495</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W339" s="44">
+        <v>19175469.846106917</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -15167,50 +15808,51 @@
       <c r="S340" s="15"/>
       <c r="T340" s="15"/>
       <c r="U340" s="15"/>
-      <c r="V340" s="15"/>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V340" s="41"/>
+      <c r="W340" s="41"/>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
     </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
     </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="7" t="s">
         <v>46</v>
@@ -15234,8 +15876,10 @@
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
       <c r="U352" s="7"/>
-    </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V352" s="7"/>
+      <c r="W352" s="42"/>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>33</v>
       </c>
@@ -15299,8 +15943,12 @@
       <c r="U353" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V353" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W353" s="38"/>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" s="18" t="s">
         <v>50</v>
       </c>
@@ -15364,8 +16012,12 @@
       <c r="U355" s="17">
         <v>6.1265814729238457</v>
       </c>
-    </row>
-    <row r="356" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V355" s="43">
+        <v>6.9384334212544871</v>
+      </c>
+      <c r="W355" s="43"/>
+    </row>
+    <row r="356" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="18" t="s">
         <v>33</v>
       </c>
@@ -15429,8 +16081,12 @@
       <c r="U356" s="17">
         <v>-13.938515110253476</v>
       </c>
-    </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V356" s="43">
+        <v>9.848890084960189</v>
+      </c>
+      <c r="W356" s="43"/>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
         <v>51</v>
       </c>
@@ -15494,8 +16150,12 @@
       <c r="U357" s="17">
         <v>-15.84705126115152</v>
       </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V357" s="43">
+        <v>32.216599152947651</v>
+      </c>
+      <c r="W357" s="43"/>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
         <v>52</v>
       </c>
@@ -15559,8 +16219,12 @@
       <c r="U358" s="17">
         <v>-12.282724593972773</v>
       </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V358" s="43">
+        <v>8.0621359959941685</v>
+      </c>
+      <c r="W358" s="43"/>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="s">
         <v>53</v>
       </c>
@@ -15624,8 +16288,12 @@
       <c r="U359" s="17">
         <v>0.5052432843259993</v>
       </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V359" s="43">
+        <v>6.5349583057964509</v>
+      </c>
+      <c r="W359" s="43"/>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
         <v>54</v>
       </c>
@@ -15689,8 +16357,12 @@
       <c r="U360" s="17">
         <v>-23.351396612829731</v>
       </c>
-    </row>
-    <row r="361" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V360" s="43">
+        <v>13.795835031960848</v>
+      </c>
+      <c r="W360" s="43"/>
+    </row>
+    <row r="361" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="18" t="s">
         <v>55</v>
       </c>
@@ -15754,8 +16426,12 @@
       <c r="U361" s="17">
         <v>-7.2382686295487417</v>
       </c>
-    </row>
-    <row r="362" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="V361" s="43">
+        <v>7.4440496303049599</v>
+      </c>
+      <c r="W361" s="43"/>
+    </row>
+    <row r="362" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
         <v>56</v>
       </c>
@@ -15819,8 +16495,12 @@
       <c r="U362" s="17">
         <v>-5.5902525743814522</v>
       </c>
-    </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V362" s="43">
+        <v>5.7748331322734998</v>
+      </c>
+      <c r="W362" s="43"/>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
         <v>57</v>
       </c>
@@ -15884,8 +16564,12 @@
       <c r="U363" s="17">
         <v>-27.543707853125696</v>
       </c>
-    </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V363" s="43">
+        <v>9.6797932467051311</v>
+      </c>
+      <c r="W363" s="43"/>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
         <v>58</v>
       </c>
@@ -15949,8 +16633,12 @@
       <c r="U364" s="17">
         <v>-41.253059072030609</v>
       </c>
-    </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V364" s="43">
+        <v>13.427543807133205</v>
+      </c>
+      <c r="W364" s="43"/>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
         <v>59</v>
       </c>
@@ -16014,8 +16702,12 @@
       <c r="U365" s="17">
         <v>5.3274695892189925</v>
       </c>
-    </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V365" s="43">
+        <v>7.7484684160800299</v>
+      </c>
+      <c r="W365" s="43"/>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
         <v>60</v>
       </c>
@@ -16079,8 +16771,12 @@
       <c r="U366" s="17">
         <v>8.3655556756869913</v>
       </c>
-    </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V366" s="43">
+        <v>7.3792416584646645</v>
+      </c>
+      <c r="W366" s="43"/>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
         <v>61</v>
       </c>
@@ -16144,8 +16840,12 @@
       <c r="U367" s="17">
         <v>-14.146241663142945</v>
       </c>
-    </row>
-    <row r="368" spans="1:21" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V367" s="43">
+        <v>5.2496523504394332</v>
+      </c>
+      <c r="W367" s="43"/>
+    </row>
+    <row r="368" spans="1:23" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="s">
         <v>62</v>
       </c>
@@ -16209,8 +16909,12 @@
       <c r="U368" s="17">
         <v>-7.1233612242530313</v>
       </c>
-    </row>
-    <row r="369" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="V368" s="43">
+        <v>7.2263169926974626</v>
+      </c>
+      <c r="W368" s="43"/>
+    </row>
+    <row r="369" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="s">
         <v>63</v>
       </c>
@@ -16274,8 +16978,12 @@
       <c r="U369" s="17">
         <v>6.7448490849260025</v>
       </c>
-    </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V369" s="43">
+        <v>7.8346179388953203</v>
+      </c>
+      <c r="W369" s="43"/>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
         <v>64</v>
       </c>
@@ -16339,8 +17047,12 @@
       <c r="U370" s="17">
         <v>-8.1679432576452342</v>
       </c>
-    </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V370" s="43">
+        <v>10.383671807795935</v>
+      </c>
+      <c r="W370" s="43"/>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
         <v>65</v>
       </c>
@@ -16404,8 +17116,12 @@
       <c r="U371" s="17">
         <v>-4.682606302218062E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V371" s="43">
+        <v>19.469440819135201</v>
+      </c>
+      <c r="W371" s="43"/>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="s">
         <v>66</v>
       </c>
@@ -16469,8 +17185,12 @@
       <c r="U372" s="17">
         <v>-39.675317873431617</v>
       </c>
-    </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V372" s="43">
+        <v>3.4307673885892029</v>
+      </c>
+      <c r="W372" s="43"/>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" s="21"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -16492,8 +17212,10 @@
       <c r="S373" s="17"/>
       <c r="T373" s="17"/>
       <c r="U373" s="17"/>
-    </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V373" s="43"/>
+      <c r="W373" s="43"/>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>28</v>
       </c>
@@ -16557,8 +17279,12 @@
       <c r="U374" s="17">
         <v>-8.0914633615785476</v>
       </c>
-    </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V374" s="43">
+        <v>8.0754832533212806</v>
+      </c>
+      <c r="W374" s="43"/>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
       <c r="D375" s="17"/>
@@ -16579,8 +17305,10 @@
       <c r="S375" s="17"/>
       <c r="T375" s="17"/>
       <c r="U375" s="17"/>
-    </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V375" s="43"/>
+      <c r="W375" s="43"/>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>11</v>
       </c>
@@ -16644,8 +17372,12 @@
       <c r="U376" s="17">
         <v>-29.31802684999694</v>
       </c>
-    </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V376" s="43">
+        <v>-48.157889525815165</v>
+      </c>
+      <c r="W376" s="43"/>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
       <c r="D377" s="17"/>
@@ -16666,8 +17398,10 @@
       <c r="S377" s="17"/>
       <c r="T377" s="17"/>
       <c r="U377" s="17"/>
-    </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V377" s="43"/>
+      <c r="W377" s="43"/>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>27</v>
       </c>
@@ -16731,8 +17465,12 @@
       <c r="U378" s="17">
         <v>-10.023317587598427</v>
       </c>
-    </row>
-    <row r="379" spans="1:21" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V378" s="43">
+        <v>4.0550997290642812</v>
+      </c>
+      <c r="W378" s="43"/>
+    </row>
+    <row r="379" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -16754,49 +17492,51 @@
       <c r="S379" s="15"/>
       <c r="T379" s="15"/>
       <c r="U379" s="15"/>
-    </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V379" s="41"/>
+      <c r="W379" s="41"/>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="7" t="s">
         <v>46</v>
@@ -16820,8 +17560,10 @@
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
       <c r="U391" s="7"/>
-    </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V391" s="7"/>
+      <c r="W391" s="42"/>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
         <v>33</v>
       </c>
@@ -16885,8 +17627,12 @@
       <c r="U392" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V392" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W392" s="38"/>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="18" t="s">
         <v>50</v>
       </c>
@@ -16950,8 +17696,12 @@
       <c r="U394" s="17">
         <v>-0.18559021204450232</v>
       </c>
-    </row>
-    <row r="395" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V394" s="43">
+        <v>-0.2795811022386232</v>
+      </c>
+      <c r="W394" s="43"/>
+    </row>
+    <row r="395" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="18" t="s">
         <v>33</v>
       </c>
@@ -17015,8 +17765,12 @@
       <c r="U395" s="17">
         <v>-13.17546538371063</v>
       </c>
-    </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V395" s="43">
+        <v>8.210183868175136</v>
+      </c>
+      <c r="W395" s="43"/>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
         <v>51</v>
       </c>
@@ -17080,8 +17834,12 @@
       <c r="U396" s="17">
         <v>-18.901846826236991</v>
       </c>
-    </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V396" s="43">
+        <v>2.6038355184800963</v>
+      </c>
+      <c r="W396" s="43"/>
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
         <v>52</v>
       </c>
@@ -17145,8 +17903,12 @@
       <c r="U397" s="17">
         <v>-9.7724807741369517</v>
       </c>
-    </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V397" s="43">
+        <v>8.5708557073969303</v>
+      </c>
+      <c r="W397" s="43"/>
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="s">
         <v>53</v>
       </c>
@@ -17210,8 +17972,12 @@
       <c r="U398" s="17">
         <v>-0.37591516953932569</v>
       </c>
-    </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V398" s="43">
+        <v>4.4791644172419467</v>
+      </c>
+      <c r="W398" s="43"/>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
         <v>54</v>
       </c>
@@ -17275,8 +18041,12 @@
       <c r="U399" s="17">
         <v>-25.729469185235772</v>
       </c>
-    </row>
-    <row r="400" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V399" s="43">
+        <v>9.8069211153797085</v>
+      </c>
+      <c r="W399" s="43"/>
+    </row>
+    <row r="400" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="18" t="s">
         <v>55</v>
       </c>
@@ -17340,8 +18110,12 @@
       <c r="U400" s="17">
         <v>-9.1917793836271926</v>
       </c>
-    </row>
-    <row r="401" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="V400" s="43">
+        <v>5.3264303087091776</v>
+      </c>
+      <c r="W400" s="43"/>
+    </row>
+    <row r="401" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
         <v>56</v>
       </c>
@@ -17405,8 +18179,12 @@
       <c r="U401" s="17">
         <v>-6.0188139461231316</v>
       </c>
-    </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V401" s="43">
+        <v>4.3201888113064655</v>
+      </c>
+      <c r="W401" s="43"/>
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
         <v>57</v>
       </c>
@@ -17470,8 +18248,12 @@
       <c r="U402" s="17">
         <v>-30.925876370121955</v>
       </c>
-    </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V402" s="43">
+        <v>6.2846808818812576</v>
+      </c>
+      <c r="W402" s="43"/>
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
         <v>58</v>
       </c>
@@ -17535,8 +18317,12 @@
       <c r="U403" s="17">
         <v>-45.409228438675967</v>
       </c>
-    </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V403" s="43">
+        <v>7.7727511989907612</v>
+      </c>
+      <c r="W403" s="43"/>
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
         <v>59</v>
       </c>
@@ -17600,8 +18386,12 @@
       <c r="U404" s="17">
         <v>5.0220998552319855</v>
       </c>
-    </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V404" s="43">
+        <v>9.0534365232838496</v>
+      </c>
+      <c r="W404" s="43"/>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
         <v>60</v>
       </c>
@@ -17665,8 +18455,12 @@
       <c r="U405" s="17">
         <v>5.4970637788058809</v>
       </c>
-    </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V405" s="43">
+        <v>4.5233441526263647</v>
+      </c>
+      <c r="W405" s="43"/>
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
         <v>61</v>
       </c>
@@ -17730,8 +18524,12 @@
       <c r="U406" s="17">
         <v>-17.005647195550495</v>
       </c>
-    </row>
-    <row r="407" spans="1:21" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V406" s="43">
+        <v>2.1570523737102434</v>
+      </c>
+      <c r="W406" s="43"/>
+    </row>
+    <row r="407" spans="1:23" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
         <v>62</v>
       </c>
@@ -17795,8 +18593,12 @@
       <c r="U407" s="17">
         <v>-9.9682960745959548</v>
       </c>
-    </row>
-    <row r="408" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="V407" s="43">
+        <v>6.153481460986427</v>
+      </c>
+      <c r="W407" s="43"/>
+    </row>
+    <row r="408" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
         <v>63</v>
       </c>
@@ -17860,8 +18662,12 @@
       <c r="U408" s="17">
         <v>4.5652908226836217</v>
       </c>
-    </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V408" s="43">
+        <v>5.196040639576438</v>
+      </c>
+      <c r="W408" s="43"/>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
         <v>64</v>
       </c>
@@ -17925,8 +18731,12 @@
       <c r="U409" s="17">
         <v>-10.772326615628742</v>
       </c>
-    </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V409" s="43">
+        <v>7.9676246101935817</v>
+      </c>
+      <c r="W409" s="43"/>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
         <v>65</v>
       </c>
@@ -17990,8 +18800,12 @@
       <c r="U410" s="17">
         <v>-3.8145499490007353</v>
       </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V410" s="43">
+        <v>15.008997075839986</v>
+      </c>
+      <c r="W410" s="43"/>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="s">
         <v>66</v>
       </c>
@@ -18055,8 +18869,12 @@
       <c r="U411" s="17">
         <v>-41.069359704248775</v>
       </c>
-    </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V411" s="43">
+        <v>2.0781471741700983</v>
+      </c>
+      <c r="W411" s="43"/>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" s="21"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -18078,8 +18896,10 @@
       <c r="S412" s="17"/>
       <c r="T412" s="17"/>
       <c r="U412" s="17"/>
-    </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V412" s="43"/>
+      <c r="W412" s="43"/>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>28</v>
       </c>
@@ -18143,8 +18963,12 @@
       <c r="U413" s="17">
         <v>-9.5730298746103131</v>
       </c>
-    </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V413" s="43">
+        <v>5.5980262673610497</v>
+      </c>
+      <c r="W413" s="43"/>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="D414" s="17"/>
@@ -18165,8 +18989,10 @@
       <c r="S414" s="17"/>
       <c r="T414" s="17"/>
       <c r="U414" s="17"/>
-    </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V414" s="43"/>
+      <c r="W414" s="43"/>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>11</v>
       </c>
@@ -18230,8 +19056,12 @@
       <c r="U415" s="17">
         <v>-30.063744306176545</v>
       </c>
-    </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V415" s="43">
+        <v>-50.226187165271455</v>
+      </c>
+      <c r="W415" s="43"/>
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
       <c r="D416" s="17"/>
@@ -18252,8 +19082,10 @@
       <c r="S416" s="17"/>
       <c r="T416" s="17"/>
       <c r="U416" s="17"/>
-    </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V416" s="43"/>
+      <c r="W416" s="43"/>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>27</v>
       </c>
@@ -18317,8 +19149,12 @@
       <c r="U417" s="17">
         <v>-11.416587027735872</v>
       </c>
-    </row>
-    <row r="418" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V417" s="43">
+        <v>1.6327624629472552</v>
+      </c>
+      <c r="W417" s="43"/>
+    </row>
+    <row r="418" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -18340,26 +19176,28 @@
       <c r="S418" s="15"/>
       <c r="T418" s="15"/>
       <c r="U418" s="15"/>
-    </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V418" s="41"/>
+      <c r="W418" s="41"/>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
     </row>
-    <row r="425" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>38</v>
       </c>
@@ -18383,11 +19221,12 @@
       <c r="S425" s="3"/>
       <c r="T425" s="3"/>
       <c r="U425" s="3"/>
-      <c r="V425" s="3"/>
-    </row>
-    <row r="426" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V425" s="37"/>
+      <c r="W425" s="37"/>
+    </row>
+    <row r="426" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -18409,9 +19248,10 @@
       <c r="S426" s="3"/>
       <c r="T426" s="3"/>
       <c r="U426" s="3"/>
-      <c r="V426" s="3"/>
-    </row>
-    <row r="427" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V426" s="37"/>
+      <c r="W426" s="37"/>
+    </row>
+    <row r="427" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>31</v>
       </c>
@@ -18435,9 +19275,10 @@
       <c r="S427" s="3"/>
       <c r="T427" s="3"/>
       <c r="U427" s="3"/>
-      <c r="V427" s="3"/>
-    </row>
-    <row r="428" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V427" s="37"/>
+      <c r="W427" s="37"/>
+    </row>
+    <row r="428" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -18459,9 +19300,10 @@
       <c r="S428" s="3"/>
       <c r="T428" s="3"/>
       <c r="U428" s="3"/>
-      <c r="V428" s="3"/>
-    </row>
-    <row r="429" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V428" s="37"/>
+      <c r="W428" s="37"/>
+    </row>
+    <row r="429" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="7" t="s">
         <v>46</v>
@@ -18486,8 +19328,9 @@
       <c r="T429" s="7"/>
       <c r="U429" s="7"/>
       <c r="V429" s="7"/>
-    </row>
-    <row r="430" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W429" s="7"/>
+    </row>
+    <row r="430" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="s">
         <v>33</v>
       </c>
@@ -18551,11 +19394,14 @@
       <c r="U430" s="9">
         <v>2019</v>
       </c>
-      <c r="V430" s="9">
+      <c r="V430" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="432" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W430" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="18" t="s">
         <v>50</v>
       </c>
@@ -18619,11 +19465,14 @@
       <c r="U432" s="17">
         <v>96.506643092895658</v>
       </c>
-      <c r="V432" s="17">
+      <c r="V432" s="43">
         <v>102.60963464728572</v>
       </c>
-    </row>
-    <row r="433" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W432" s="43">
+        <v>110.03677786750998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="18" t="s">
         <v>33</v>
       </c>
@@ -18687,11 +19536,14 @@
       <c r="U433" s="17">
         <v>100.53351723748484</v>
       </c>
-      <c r="V433" s="17">
+      <c r="V433" s="43">
         <v>99.649987332309152</v>
       </c>
-    </row>
-    <row r="434" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W433" s="43">
+        <v>101.15906021165053</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
         <v>51</v>
       </c>
@@ -18755,11 +19607,14 @@
       <c r="U434" s="17">
         <v>95.735656881604811</v>
       </c>
-      <c r="V434" s="17">
+      <c r="V434" s="43">
         <v>99.341816191248441</v>
       </c>
-    </row>
-    <row r="435" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W434" s="43">
+        <v>128.01311982258602</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
         <v>52</v>
       </c>
@@ -18823,11 +19678,14 @@
       <c r="U435" s="17">
         <v>99.822130041253914</v>
       </c>
-      <c r="V435" s="17">
+      <c r="V435" s="43">
         <v>97.044952001019396</v>
       </c>
-    </row>
-    <row r="436" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W435" s="43">
+        <v>96.590238075690266</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="s">
         <v>53</v>
       </c>
@@ -18891,11 +19749,14 @@
       <c r="U436" s="17">
         <v>102.80215641875965</v>
       </c>
-      <c r="V436" s="17">
+      <c r="V436" s="43">
         <v>103.71142438702385</v>
       </c>
-    </row>
-    <row r="437" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W436" s="43">
+        <v>105.75211176825773</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
         <v>54</v>
       </c>
@@ -18959,11 +19820,14 @@
       <c r="U437" s="17">
         <v>101.88978414530565</v>
       </c>
-      <c r="V437" s="17">
+      <c r="V437" s="43">
         <v>105.1521992435448</v>
       </c>
-    </row>
-    <row r="438" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W437" s="43">
+        <v>108.97202286359655</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="18" t="s">
         <v>55</v>
       </c>
@@ -19027,11 +19891,14 @@
       <c r="U438" s="17">
         <v>101.41760578418071</v>
       </c>
-      <c r="V438" s="17">
+      <c r="V438" s="43">
         <v>103.59935080910816</v>
       </c>
-    </row>
-    <row r="439" spans="1:22" s="22" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W438" s="43">
+        <v>105.68224668182631</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" s="22" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="s">
         <v>56</v>
       </c>
@@ -19095,11 +19962,14 @@
       <c r="U439" s="17">
         <v>100.81258960590567</v>
       </c>
-      <c r="V439" s="17">
+      <c r="V439" s="43">
         <v>101.27230269854073</v>
       </c>
-    </row>
-    <row r="440" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W439" s="43">
+        <v>102.68444719013236</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
         <v>57</v>
       </c>
@@ -19163,11 +20033,14 @@
       <c r="U440" s="17">
         <v>102.06303201924203</v>
       </c>
-      <c r="V440" s="17">
+      <c r="V440" s="43">
         <v>107.06048049204966</v>
       </c>
-    </row>
-    <row r="441" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W440" s="43">
+        <v>110.48037466764116</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
         <v>58</v>
       </c>
@@ -19231,11 +20104,14 @@
       <c r="U441" s="17">
         <v>101.42949063918904</v>
       </c>
-      <c r="V441" s="17">
+      <c r="V441" s="43">
         <v>109.15164091866416</v>
       </c>
-    </row>
-    <row r="442" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W441" s="43">
+        <v>114.87878331195643</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
         <v>59</v>
       </c>
@@ -19299,11 +20175,14 @@
       <c r="U442" s="17">
         <v>101.04604549080827</v>
       </c>
-      <c r="V442" s="17">
+      <c r="V442" s="43">
         <v>101.33985416607283</v>
       </c>
-    </row>
-    <row r="443" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W442" s="43">
+        <v>100.12718923875367</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
         <v>60</v>
       </c>
@@ -19367,11 +20246,14 @@
       <c r="U443" s="17">
         <v>100.32342167799702</v>
       </c>
-      <c r="V443" s="17">
+      <c r="V443" s="43">
         <v>103.05124093516704</v>
       </c>
-    </row>
-    <row r="444" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W443" s="43">
+        <v>105.86691607784655</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
         <v>61</v>
       </c>
@@ -19435,11 +20317,14 @@
       <c r="U444" s="17">
         <v>101.38672256210535</v>
       </c>
-      <c r="V444" s="17">
+      <c r="V444" s="43">
         <v>104.87980065248851</v>
       </c>
-    </row>
-    <row r="445" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W444" s="43">
+        <v>108.0548263753403</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="s">
         <v>62</v>
       </c>
@@ -19503,11 +20388,14 @@
       <c r="U445" s="17">
         <v>103.18047201293459</v>
       </c>
-      <c r="V445" s="17">
+      <c r="V445" s="43">
         <v>106.44089815068318</v>
       </c>
-    </row>
-    <row r="446" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W445" s="43">
+        <v>107.51663844663624</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="s">
         <v>63</v>
       </c>
@@ -19571,11 +20459,14 @@
       <c r="U446" s="17">
         <v>102.19415151201315</v>
       </c>
-      <c r="V446" s="17">
+      <c r="V446" s="43">
         <v>104.3242857614226</v>
       </c>
-    </row>
-    <row r="447" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W446" s="43">
+        <v>106.94099728881621</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
         <v>64</v>
       </c>
@@ -19639,11 +20530,14 @@
       <c r="U447" s="17">
         <v>101.6680293678003</v>
       </c>
-      <c r="V447" s="17">
+      <c r="V447" s="43">
         <v>104.63552267656178</v>
       </c>
-    </row>
-    <row r="448" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W447" s="43">
+        <v>106.97700571136122</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
         <v>65</v>
       </c>
@@ -19707,11 +20601,14 @@
       <c r="U448" s="17">
         <v>102.04199732176673</v>
       </c>
-      <c r="V448" s="17">
+      <c r="V448" s="43">
         <v>106.03913067695017</v>
       </c>
-    </row>
-    <row r="449" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W448" s="43">
+        <v>110.1516922069022</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="s">
         <v>66</v>
       </c>
@@ -19775,11 +20672,14 @@
       <c r="U449" s="17">
         <v>102.67580605977125</v>
       </c>
-      <c r="V449" s="17">
+      <c r="V449" s="43">
         <v>105.1046676492916</v>
       </c>
-    </row>
-    <row r="450" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W449" s="43">
+        <v>106.49739177318918</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="21"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -19801,9 +20701,10 @@
       <c r="S450" s="17"/>
       <c r="T450" s="17"/>
       <c r="U450" s="17"/>
-      <c r="V450" s="17"/>
-    </row>
-    <row r="451" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V450" s="43"/>
+      <c r="W450" s="43"/>
+    </row>
+    <row r="451" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>28</v>
       </c>
@@ -19867,11 +20768,14 @@
       <c r="U451" s="17">
         <v>100.69707629720597</v>
       </c>
-      <c r="V451" s="17">
+      <c r="V451" s="43">
         <v>102.34690948298311</v>
       </c>
-    </row>
-    <row r="452" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W451" s="43">
+        <v>104.74809135022815</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -19893,9 +20797,10 @@
       <c r="S452" s="17"/>
       <c r="T452" s="17"/>
       <c r="U452" s="17"/>
-      <c r="V452" s="17"/>
-    </row>
-    <row r="453" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V452" s="43"/>
+      <c r="W452" s="43"/>
+    </row>
+    <row r="453" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>11</v>
       </c>
@@ -19959,11 +20864,14 @@
       <c r="U453" s="17">
         <v>101.97858989277231</v>
       </c>
-      <c r="V453" s="17">
+      <c r="V453" s="43">
         <v>103.06596887646498</v>
       </c>
-    </row>
-    <row r="454" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W453" s="43">
+        <v>107.34876515014591</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -19985,9 +20893,10 @@
       <c r="S454" s="17"/>
       <c r="T454" s="17"/>
       <c r="U454" s="17"/>
-      <c r="V454" s="17"/>
-    </row>
-    <row r="455" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V454" s="43"/>
+      <c r="W454" s="43"/>
+    </row>
+    <row r="455" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>27</v>
       </c>
@@ -20051,11 +20960,14 @@
       <c r="U455" s="17">
         <v>100.81237454919344</v>
       </c>
-      <c r="V455" s="17">
+      <c r="V455" s="43">
         <v>102.39798517238154</v>
       </c>
-    </row>
-    <row r="456" spans="1:22" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W455" s="43">
+        <v>104.8385609222416</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -20077,9 +20989,10 @@
       <c r="S456" s="15"/>
       <c r="T456" s="15"/>
       <c r="U456" s="15"/>
-      <c r="V456" s="15"/>
-    </row>
-    <row r="457" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V456" s="41"/>
+      <c r="W456" s="41"/>
+    </row>
+    <row r="457" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>0</v>
       </c>
@@ -20103,45 +21016,46 @@
       <c r="S457" s="3"/>
       <c r="T457" s="3"/>
       <c r="U457" s="3"/>
-      <c r="V457" s="3"/>
-    </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V457" s="37"/>
+      <c r="W457" s="37"/>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="465" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="466" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
     </row>
-    <row r="468" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="7" t="s">
         <v>46</v>
@@ -20166,8 +21080,9 @@
       <c r="T468" s="7"/>
       <c r="U468" s="7"/>
       <c r="V468" s="7"/>
-    </row>
-    <row r="469" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W468" s="7"/>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
         <v>33</v>
       </c>
@@ -20231,11 +21146,14 @@
       <c r="U469" s="9">
         <v>2019</v>
       </c>
-      <c r="V469" s="9">
+      <c r="V469" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="471" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W469" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A471" s="18" t="s">
         <v>50</v>
       </c>
@@ -20299,11 +21217,14 @@
       <c r="U471" s="17">
         <v>8.8203237471017495</v>
       </c>
-      <c r="V471" s="17">
+      <c r="V471" s="43">
         <v>10.184808082049731</v>
       </c>
-    </row>
-    <row r="472" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W471" s="43">
+        <v>10.077654877911998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="18" t="s">
         <v>33</v>
       </c>
@@ -20367,11 +21288,14 @@
       <c r="U472" s="17">
         <v>30.327507879516236</v>
       </c>
-      <c r="V472" s="17">
+      <c r="V472" s="43">
         <v>28.398127710212695</v>
       </c>
-    </row>
-    <row r="473" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W472" s="43">
+        <v>28.864111596391595</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A473" s="12" t="s">
         <v>51</v>
       </c>
@@ -20435,11 +21359,14 @@
       <c r="U473" s="17">
         <v>0.82824831617892858</v>
       </c>
-      <c r="V473" s="17">
+      <c r="V473" s="43">
         <v>0.75835760902873228</v>
       </c>
-    </row>
-    <row r="474" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W473" s="43">
+        <v>0.92775401959128734</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>52</v>
       </c>
@@ -20503,11 +21430,14 @@
       <c r="U474" s="17">
         <v>18.516454400330357</v>
       </c>
-      <c r="V474" s="17">
+      <c r="V474" s="43">
         <v>17.672057347259912</v>
       </c>
-    </row>
-    <row r="475" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W474" s="43">
+        <v>17.669874858782293</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A475" s="21" t="s">
         <v>53</v>
       </c>
@@ -20571,11 +21501,14 @@
       <c r="U475" s="17">
         <v>3.1144878804270544</v>
       </c>
-      <c r="V475" s="17">
+      <c r="V475" s="43">
         <v>3.4058029164349684</v>
       </c>
-    </row>
-    <row r="476" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W475" s="43">
+        <v>3.3572560656489947</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
         <v>54</v>
       </c>
@@ -20639,11 +21572,14 @@
       <c r="U476" s="17">
         <v>7.8683172825798966</v>
       </c>
-      <c r="V476" s="17">
+      <c r="V476" s="43">
         <v>6.5619098374890852</v>
       </c>
-    </row>
-    <row r="477" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W476" s="43">
+        <v>6.9092266523690187</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="18" t="s">
         <v>55</v>
       </c>
@@ -20707,11 +21643,14 @@
       <c r="U477" s="17">
         <v>60.852168373382007</v>
       </c>
-      <c r="V477" s="17">
+      <c r="V477" s="43">
         <v>61.417064207737567</v>
       </c>
-    </row>
-    <row r="478" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W477" s="43">
+        <v>61.058233525696402</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A478" s="21" t="s">
         <v>56</v>
       </c>
@@ -20775,11 +21714,14 @@
       <c r="U478" s="17">
         <v>18.022736669042384</v>
       </c>
-      <c r="V478" s="17">
+      <c r="V478" s="43">
         <v>18.513209752612038</v>
       </c>
-    </row>
-    <row r="479" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W478" s="43">
+        <v>18.119110952623366</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="12" t="s">
         <v>57</v>
       </c>
@@ -20843,11 +21785,14 @@
       <c r="U479" s="17">
         <v>3.8818867700890847</v>
       </c>
-      <c r="V479" s="17">
+      <c r="V479" s="43">
         <v>3.0602937679358067</v>
       </c>
-    </row>
-    <row r="480" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W479" s="43">
+        <v>3.1057218310524144</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
         <v>58</v>
       </c>
@@ -20911,11 +21856,14 @@
       <c r="U480" s="17">
         <v>2.2122179846922476</v>
       </c>
-      <c r="V480" s="17">
+      <c r="V480" s="43">
         <v>1.4140257697474645</v>
       </c>
-    </row>
-    <row r="481" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W480" s="43">
+        <v>1.4840504535751575</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12" t="s">
         <v>59</v>
       </c>
@@ -20979,11 +21927,14 @@
       <c r="U481" s="17">
         <v>2.883684988502957</v>
       </c>
-      <c r="V481" s="17">
+      <c r="V481" s="43">
         <v>3.3047119891196344</v>
       </c>
-    </row>
-    <row r="482" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W481" s="43">
+        <v>3.2947125903594352</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
         <v>60</v>
       </c>
@@ -21047,11 +21998,14 @@
       <c r="U482" s="17">
         <v>8.6170810979250092</v>
       </c>
-      <c r="V482" s="17">
+      <c r="V482" s="43">
         <v>10.160044057199565</v>
       </c>
-    </row>
-    <row r="483" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W482" s="43">
+        <v>10.094591236029963</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="12" t="s">
         <v>61</v>
       </c>
@@ -21115,11 +22069,14 @@
       <c r="U483" s="17">
         <v>6.4333047396607679</v>
       </c>
-      <c r="V483" s="17">
+      <c r="V483" s="43">
         <v>6.0094895493668359</v>
       </c>
-    </row>
-    <row r="484" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W483" s="43">
+        <v>5.8523604691355482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="21" t="s">
         <v>62</v>
       </c>
@@ -21183,11 +22140,14 @@
       <c r="U484" s="17">
         <v>6.2494382448722936</v>
       </c>
-      <c r="V484" s="17">
+      <c r="V484" s="43">
         <v>6.3152655852176887</v>
       </c>
-    </row>
-    <row r="485" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W484" s="43">
+        <v>6.2656455391127297</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A485" s="21" t="s">
         <v>63</v>
       </c>
@@ -21251,11 +22211,14 @@
       <c r="U485" s="17">
         <v>4.5634489616627967</v>
       </c>
-      <c r="V485" s="17">
+      <c r="V485" s="43">
         <v>5.3001025643119632</v>
       </c>
-    </row>
-    <row r="486" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W485" s="43">
+        <v>5.2882903490693023</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="12" t="s">
         <v>64</v>
       </c>
@@ -21319,11 +22282,14 @@
       <c r="U486" s="17">
         <v>3.9905372783803736</v>
       </c>
-      <c r="V486" s="17">
+      <c r="V486" s="43">
         <v>3.9872166306205088</v>
       </c>
-    </row>
-    <row r="487" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W486" s="43">
+        <v>4.0723723709787318</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="12" t="s">
         <v>65</v>
       </c>
@@ -21387,11 +22353,14 @@
       <c r="U487" s="17">
         <v>1.690052847055274</v>
       </c>
-      <c r="V487" s="17">
+      <c r="V487" s="43">
         <v>1.8379810229051399</v>
       </c>
-    </row>
-    <row r="488" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W487" s="43">
+        <v>2.0317518685340796</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="21" t="s">
         <v>66</v>
       </c>
@@ -21455,11 +22424,14 @@
       <c r="U488" s="17">
         <v>2.3077787914988148</v>
       </c>
-      <c r="V488" s="17">
+      <c r="V488" s="43">
         <v>1.5147235187009196</v>
       </c>
-    </row>
-    <row r="489" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W488" s="43">
+        <v>1.4496258652256875</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="21"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -21481,9 +22453,10 @@
       <c r="S489" s="17"/>
       <c r="T489" s="17"/>
       <c r="U489" s="17"/>
-      <c r="V489" s="17"/>
-    </row>
-    <row r="490" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V489" s="43"/>
+      <c r="W489" s="43"/>
+    </row>
+    <row r="490" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
         <v>28</v>
       </c>
@@ -21547,11 +22520,14 @@
       <c r="U490" s="17">
         <v>100</v>
       </c>
-      <c r="V490" s="17">
+      <c r="V490" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="491" spans="1:22" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W490" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>49</v>
       </c>
@@ -21615,11 +22591,14 @@
       <c r="U491" s="17">
         <v>90.898883716745132</v>
       </c>
-      <c r="V491" s="17">
+      <c r="V491" s="43">
         <v>92.850538166992791</v>
       </c>
-    </row>
-    <row r="492" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W491" s="43">
+        <v>96.438010331614691</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>11</v>
       </c>
@@ -21683,11 +22662,14 @@
       <c r="U492" s="17">
         <v>9.1011162832548731</v>
       </c>
-      <c r="V492" s="17">
+      <c r="V492" s="43">
         <v>7.1494618330072148</v>
       </c>
-    </row>
-    <row r="493" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W492" s="43">
+        <v>3.5619896683852912</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
       <c r="D493" s="17"/>
@@ -21708,9 +22690,10 @@
       <c r="S493" s="17"/>
       <c r="T493" s="17"/>
       <c r="U493" s="17"/>
-      <c r="V493" s="17"/>
-    </row>
-    <row r="494" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V493" s="43"/>
+      <c r="W493" s="43"/>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>27</v>
       </c>
@@ -21774,11 +22757,14 @@
       <c r="U494" s="17">
         <v>100</v>
       </c>
-      <c r="V494" s="17">
+      <c r="V494" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="495" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W494" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -21800,50 +22786,51 @@
       <c r="S495" s="15"/>
       <c r="T495" s="15"/>
       <c r="U495" s="15"/>
-      <c r="V495" s="15"/>
-    </row>
-    <row r="496" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V495" s="41"/>
+      <c r="W495" s="41"/>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="502" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
     </row>
-    <row r="503" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="504" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A504" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="505" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="506" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="7" t="s">
         <v>46</v>
@@ -21868,8 +22855,9 @@
       <c r="T507" s="7"/>
       <c r="U507" s="7"/>
       <c r="V507" s="7"/>
-    </row>
-    <row r="508" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W507" s="7"/>
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
         <v>33</v>
       </c>
@@ -21933,11 +22921,14 @@
       <c r="U508" s="9">
         <v>2019</v>
       </c>
-      <c r="V508" s="9">
+      <c r="V508" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="510" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W508" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="18" t="s">
         <v>50</v>
       </c>
@@ -22001,11 +22992,14 @@
       <c r="U510" s="17">
         <v>9.2033126929201607</v>
       </c>
-      <c r="V510" s="17">
+      <c r="V510" s="43">
         <v>10.158730556426089</v>
       </c>
-    </row>
-    <row r="511" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W510" s="43">
+        <v>9.593293571524006</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="18" t="s">
         <v>33</v>
       </c>
@@ -22069,11 +23063,14 @@
       <c r="U511" s="17">
         <v>30.37684802804343</v>
       </c>
-      <c r="V511" s="17">
+      <c r="V511" s="43">
         <v>29.166693183321474</v>
       </c>
-    </row>
-    <row r="512" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W511" s="43">
+        <v>29.888183934450925</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="12" t="s">
         <v>51</v>
       </c>
@@ -22137,11 +23134,14 @@
       <c r="U512" s="17">
         <v>0.87117158438098419</v>
       </c>
-      <c r="V512" s="17">
+      <c r="V512" s="43">
         <v>0.78129795229003196</v>
       </c>
-    </row>
-    <row r="513" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W512" s="43">
+        <v>0.75914455431890415</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="12" t="s">
         <v>52</v>
       </c>
@@ -22205,11 +23205,14 @@
       <c r="U513" s="17">
         <v>18.678752103699143</v>
       </c>
-      <c r="V513" s="17">
+      <c r="V513" s="43">
         <v>18.637553179263747</v>
       </c>
-    </row>
-    <row r="514" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W513" s="43">
+        <v>19.162243542711145</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="21" t="s">
         <v>53</v>
       </c>
@@ -22273,11 +23276,14 @@
       <c r="U514" s="17">
         <v>3.0507125010546581</v>
       </c>
-      <c r="V514" s="17">
+      <c r="V514" s="43">
         <v>3.3609933029601922</v>
       </c>
-    </row>
-    <row r="515" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W514" s="43">
+        <v>3.325381963258947</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="12" t="s">
         <v>54</v>
       </c>
@@ -22341,11 +23347,14 @@
       <c r="U515" s="17">
         <v>7.7762118389086448</v>
       </c>
-      <c r="V515" s="17">
+      <c r="V515" s="43">
         <v>6.3868487488075072</v>
       </c>
-    </row>
-    <row r="516" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W515" s="43">
+        <v>6.6414138741619277</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="18" t="s">
         <v>55</v>
       </c>
@@ -22409,11 +23418,14 @@
       <c r="U516" s="17">
         <v>60.419839279036417</v>
       </c>
-      <c r="V516" s="17">
+      <c r="V516" s="43">
         <v>60.674576260252444</v>
       </c>
-    </row>
-    <row r="517" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W516" s="43">
+        <v>60.518522494025071</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A517" s="21" t="s">
         <v>56</v>
       </c>
@@ -22477,11 +23489,14 @@
       <c r="U517" s="17">
         <v>18.002085816280808</v>
       </c>
-      <c r="V517" s="17">
+      <c r="V517" s="43">
         <v>18.709654587693766</v>
       </c>
-    </row>
-    <row r="518" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W517" s="43">
+        <v>18.483249812272426</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12" t="s">
         <v>57</v>
       </c>
@@ -22545,11 +23560,14 @@
       <c r="U518" s="17">
         <v>3.8299337236138471</v>
       </c>
-      <c r="V518" s="17">
+      <c r="V518" s="43">
         <v>2.9255576644037431</v>
       </c>
-    </row>
-    <row r="519" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W518" s="43">
+        <v>2.9445811986620596</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12" t="s">
         <v>58</v>
       </c>
@@ -22613,11 +23631,14 @@
       <c r="U519" s="17">
         <v>2.1962437333244158</v>
       </c>
-      <c r="V519" s="17">
+      <c r="V519" s="43">
         <v>1.3258725773146207</v>
       </c>
-    </row>
-    <row r="520" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W519" s="43">
+        <v>1.3531780890933145</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12" t="s">
         <v>59</v>
       </c>
@@ -22681,11 +23702,14 @@
       <c r="U520" s="17">
         <v>2.8737259918875728</v>
       </c>
-      <c r="V520" s="17">
+      <c r="V520" s="43">
         <v>3.3375522552408601</v>
       </c>
-    </row>
-    <row r="521" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W520" s="43">
+        <v>3.446764640169707</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12" t="s">
         <v>60</v>
       </c>
@@ -22749,11 +23773,14 @@
       <c r="U521" s="17">
         <v>8.6491754194950232</v>
       </c>
-      <c r="V521" s="17">
+      <c r="V521" s="43">
         <v>10.09060250055143</v>
       </c>
-    </row>
-    <row r="522" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W521" s="43">
+        <v>9.9879093876443399</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12" t="s">
         <v>61</v>
       </c>
@@ -22817,11 +23844,14 @@
       <c r="U522" s="17">
         <v>6.3895445265623625</v>
       </c>
-      <c r="V522" s="17">
+      <c r="V522" s="43">
         <v>5.8643578565324717</v>
       </c>
-    </row>
-    <row r="523" spans="1:22" s="20" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W522" s="43">
+        <v>5.673264301087948</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" s="20" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="21" t="s">
         <v>62</v>
       </c>
@@ -22885,11 +23915,14 @@
       <c r="U523" s="17">
         <v>6.0990238509443335</v>
       </c>
-      <c r="V523" s="17">
+      <c r="V523" s="43">
         <v>6.0723643490519033</v>
       </c>
-    </row>
-    <row r="524" spans="1:22" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="W523" s="43">
+        <v>6.1043055361601404</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A524" s="21" t="s">
         <v>63</v>
       </c>
@@ -22953,11 +23986,14 @@
       <c r="U524" s="17">
         <v>4.4965975202303596</v>
       </c>
-      <c r="V524" s="17">
+      <c r="V524" s="43">
         <v>5.1996437209326372</v>
       </c>
-    </row>
-    <row r="525" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W524" s="43">
+        <v>5.1798499603928008</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12" t="s">
         <v>64</v>
       </c>
@@ -23021,11 +24057,14 @@
       <c r="U525" s="17">
         <v>3.9524267292937232</v>
       </c>
-      <c r="V525" s="17">
+      <c r="V525" s="43">
         <v>3.9000072742463714</v>
       </c>
-    </row>
-    <row r="526" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W525" s="43">
+        <v>3.9875226483565922</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12" t="s">
         <v>65</v>
       </c>
@@ -23089,11 +24128,14 @@
       <c r="U526" s="17">
         <v>1.6677778263159599</v>
       </c>
-      <c r="V526" s="17">
+      <c r="V526" s="43">
         <v>1.7739835868307723</v>
       </c>
-    </row>
-    <row r="527" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W526" s="43">
+        <v>1.9320822591309128</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A527" s="21" t="s">
         <v>66</v>
       </c>
@@ -23157,11 +24199,14 @@
       <c r="U527" s="17">
         <v>2.263304141088013</v>
       </c>
-      <c r="V527" s="17">
+      <c r="V527" s="43">
         <v>1.4749798874538713</v>
       </c>
-    </row>
-    <row r="528" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W527" s="43">
+        <v>1.4258146610548366</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A528" s="21"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -23183,9 +24228,10 @@
       <c r="S528" s="17"/>
       <c r="T528" s="17"/>
       <c r="U528" s="17"/>
-      <c r="V528" s="17"/>
-    </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V528" s="43"/>
+      <c r="W528" s="43"/>
+    </row>
+    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A529" s="14" t="s">
         <v>28</v>
       </c>
@@ -23249,11 +24295,14 @@
       <c r="U529" s="17">
         <v>100</v>
       </c>
-      <c r="V529" s="17">
+      <c r="V529" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="530" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W529" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>49</v>
       </c>
@@ -23317,11 +24366,14 @@
       <c r="U530" s="17">
         <v>91.002963028533884</v>
       </c>
-      <c r="V530" s="17">
+      <c r="V530" s="43">
         <v>92.896874741998829</v>
       </c>
-    </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W530" s="43">
+        <v>96.521302594109088</v>
+      </c>
+    </row>
+    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>11</v>
       </c>
@@ -23385,11 +24437,14 @@
       <c r="U531" s="17">
         <v>8.9970369714661178</v>
       </c>
-      <c r="V531" s="17">
+      <c r="V531" s="43">
         <v>7.1031252580011666</v>
       </c>
-    </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W531" s="43">
+        <v>3.4786974058909221</v>
+      </c>
+    </row>
+    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
       <c r="D532" s="17"/>
@@ -23410,9 +24465,10 @@
       <c r="S532" s="17"/>
       <c r="T532" s="17"/>
       <c r="U532" s="17"/>
-      <c r="V532" s="17"/>
-    </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V532" s="43"/>
+      <c r="W532" s="43"/>
+    </row>
+    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>27</v>
       </c>
@@ -23476,11 +24532,14 @@
       <c r="U533" s="17">
         <v>100</v>
       </c>
-      <c r="V533" s="17">
+      <c r="V533" s="43">
         <v>100</v>
       </c>
-    </row>
-    <row r="534" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W533" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -23502,14 +24561,15 @@
       <c r="S534" s="15"/>
       <c r="T534" s="15"/>
       <c r="U534" s="15"/>
-      <c r="V534" s="15"/>
-    </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V534" s="41"/>
+      <c r="W534" s="41"/>
+    </row>
+    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B536" s="23"/>
       <c r="C536" s="23"/>
       <c r="D536" s="23"/>
@@ -23530,9 +24590,10 @@
       <c r="S536" s="23"/>
       <c r="T536" s="23"/>
       <c r="U536" s="23"/>
-      <c r="V536" s="23"/>
-    </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V536" s="45"/>
+      <c r="W536" s="45"/>
+    </row>
+    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B537" s="23"/>
       <c r="C537" s="23"/>
       <c r="D537" s="23"/>
@@ -23553,34 +24614,35 @@
       <c r="S537" s="23"/>
       <c r="T537" s="23"/>
       <c r="U537" s="23"/>
-      <c r="V537" s="23"/>
-    </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V537" s="45"/>
+      <c r="W537" s="45"/>
+    </row>
+    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A538" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A539" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A540" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A541" s="24"/>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A542" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="543" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -23602,9 +24664,10 @@
       <c r="S543" s="3"/>
       <c r="T543" s="3"/>
       <c r="U543" s="3"/>
-      <c r="V543" s="3"/>
-    </row>
-    <row r="544" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V543" s="37"/>
+      <c r="W543" s="37"/>
+    </row>
+    <row r="544" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="24" t="s">
         <v>29</v>
       </c>
@@ -23628,9 +24691,10 @@
       <c r="S544" s="3"/>
       <c r="T544" s="3"/>
       <c r="U544" s="3"/>
-      <c r="V544" s="3"/>
-    </row>
-    <row r="545" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V544" s="37"/>
+      <c r="W544" s="37"/>
+    </row>
+    <row r="545" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="24"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -23652,9 +24716,10 @@
       <c r="S545" s="3"/>
       <c r="T545" s="3"/>
       <c r="U545" s="3"/>
-      <c r="V545" s="3"/>
-    </row>
-    <row r="546" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V545" s="37"/>
+      <c r="W545" s="37"/>
+    </row>
+    <row r="546" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="25"/>
       <c r="B546" s="7" t="s">
         <v>46</v>
@@ -23679,8 +24744,9 @@
       <c r="T546" s="7"/>
       <c r="U546" s="7"/>
       <c r="V546" s="7"/>
-    </row>
-    <row r="547" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W546" s="7"/>
+    </row>
+    <row r="547" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="26"/>
       <c r="B547" s="9">
         <v>2000</v>
@@ -23742,11 +24808,14 @@
       <c r="U547" s="9">
         <v>2019</v>
       </c>
-      <c r="V547" s="9">
+      <c r="V547" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="548" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W547" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="27"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -23768,9 +24837,10 @@
       <c r="S548" s="3"/>
       <c r="T548" s="3"/>
       <c r="U548" s="3"/>
-      <c r="V548" s="3"/>
-    </row>
-    <row r="549" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V548" s="37"/>
+      <c r="W548" s="37"/>
+    </row>
+    <row r="549" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="24" t="s">
         <v>20</v>
       </c>
@@ -23834,11 +24904,14 @@
       <c r="U549" s="28">
         <v>2671641.5172542371</v>
       </c>
-      <c r="V549" s="28">
+      <c r="V549" s="46">
         <v>1919266.6618342462</v>
       </c>
-    </row>
-    <row r="550" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W549" s="46">
+        <v>1133747.1657756579</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="29" t="s">
         <v>21</v>
       </c>
@@ -23902,11 +24975,14 @@
       <c r="U550" s="30">
         <v>2430628.4430767801</v>
       </c>
-      <c r="V550" s="30">
+      <c r="V550" s="39">
         <v>1740559.0291181721</v>
       </c>
-    </row>
-    <row r="551" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W550" s="39">
+        <v>941740.52341519285</v>
+      </c>
+    </row>
+    <row r="551" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="29" t="s">
         <v>22</v>
       </c>
@@ -23970,11 +25046,14 @@
       <c r="U551" s="30">
         <v>241013.07417745717</v>
       </c>
-      <c r="V551" s="30">
+      <c r="V551" s="39">
         <v>178707.63271607403</v>
       </c>
-    </row>
-    <row r="552" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W551" s="39">
+        <v>192006.64236046499</v>
+      </c>
+    </row>
+    <row r="552" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="24"/>
       <c r="B552" s="31"/>
       <c r="C552" s="31"/>
@@ -23996,9 +25075,10 @@
       <c r="S552" s="31"/>
       <c r="T552" s="31"/>
       <c r="U552" s="31"/>
-      <c r="V552" s="31"/>
-    </row>
-    <row r="553" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V552" s="47"/>
+      <c r="W552" s="47"/>
+    </row>
+    <row r="553" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="24" t="s">
         <v>23</v>
       </c>
@@ -24062,11 +25142,14 @@
       <c r="U553" s="28">
         <v>717444.33613514109</v>
       </c>
-      <c r="V553" s="28">
+      <c r="V553" s="46">
         <v>538001.53497753013</v>
       </c>
-    </row>
-    <row r="554" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W553" s="46">
+        <v>417670.17276920978</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="29" t="s">
         <v>21</v>
       </c>
@@ -24130,11 +25213,14 @@
       <c r="U554" s="30">
         <v>306547.0492927545</v>
       </c>
-      <c r="V554" s="30">
+      <c r="V554" s="39">
         <v>192988.61009781866</v>
       </c>
-    </row>
-    <row r="555" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W554" s="39">
+        <v>41536.82155529641</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="29" t="s">
         <v>24</v>
       </c>
@@ -24198,11 +25284,14 @@
       <c r="U555" s="30">
         <v>410897.28684238659</v>
       </c>
-      <c r="V555" s="30">
+      <c r="V555" s="39">
         <v>345012.92487971141</v>
       </c>
-    </row>
-    <row r="556" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W555" s="39">
+        <v>376133.35121391335</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="24"/>
       <c r="B556" s="31"/>
       <c r="C556" s="31"/>
@@ -24224,9 +25313,10 @@
       <c r="S556" s="31"/>
       <c r="T556" s="31"/>
       <c r="U556" s="31"/>
-      <c r="V556" s="31"/>
-    </row>
-    <row r="557" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V556" s="47"/>
+      <c r="W556" s="47"/>
+    </row>
+    <row r="557" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="32" t="s">
         <v>32</v>
       </c>
@@ -24290,11 +25380,14 @@
       <c r="U557" s="31">
         <v>1954197.181119096</v>
       </c>
-      <c r="V557" s="31">
+      <c r="V557" s="47">
         <v>1381265.1268567161</v>
       </c>
-    </row>
-    <row r="558" spans="1:22" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W557" s="47">
+        <v>716076.99300644803</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -24316,9 +25409,10 @@
       <c r="S558" s="15"/>
       <c r="T558" s="15"/>
       <c r="U558" s="15"/>
-      <c r="V558" s="15"/>
-    </row>
-    <row r="559" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V558" s="41"/>
+      <c r="W558" s="41"/>
+    </row>
+    <row r="559" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>0</v>
       </c>
@@ -24342,9 +25436,10 @@
       <c r="S559" s="3"/>
       <c r="T559" s="3"/>
       <c r="U559" s="3"/>
-      <c r="V559" s="3"/>
-    </row>
-    <row r="560" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V559" s="37"/>
+      <c r="W559" s="37"/>
+    </row>
+    <row r="560" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="24"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -24366,9 +25461,10 @@
       <c r="S560" s="3"/>
       <c r="T560" s="3"/>
       <c r="U560" s="3"/>
-      <c r="V560" s="3"/>
-    </row>
-    <row r="561" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V560" s="37"/>
+      <c r="W560" s="37"/>
+    </row>
+    <row r="561" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="24"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -24390,9 +25486,10 @@
       <c r="S561" s="3"/>
       <c r="T561" s="3"/>
       <c r="U561" s="3"/>
-      <c r="V561" s="3"/>
-    </row>
-    <row r="562" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V561" s="37"/>
+      <c r="W561" s="37"/>
+    </row>
+    <row r="562" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="24" t="s">
         <v>25</v>
       </c>
@@ -24416,9 +25513,10 @@
       <c r="S562" s="3"/>
       <c r="T562" s="3"/>
       <c r="U562" s="3"/>
-      <c r="V562" s="3"/>
-    </row>
-    <row r="563" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V562" s="37"/>
+      <c r="W562" s="37"/>
+    </row>
+    <row r="563" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="24" t="s">
         <v>26</v>
       </c>
@@ -24442,11 +25540,12 @@
       <c r="S563" s="3"/>
       <c r="T563" s="3"/>
       <c r="U563" s="3"/>
-      <c r="V563" s="3"/>
-    </row>
-    <row r="564" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V563" s="37"/>
+      <c r="W563" s="37"/>
+    </row>
+    <row r="564" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -24468,9 +25567,10 @@
       <c r="S564" s="3"/>
       <c r="T564" s="3"/>
       <c r="U564" s="3"/>
-      <c r="V564" s="3"/>
-    </row>
-    <row r="565" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V564" s="37"/>
+      <c r="W564" s="37"/>
+    </row>
+    <row r="565" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="24"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -24492,9 +25592,10 @@
       <c r="S565" s="3"/>
       <c r="T565" s="3"/>
       <c r="U565" s="3"/>
-      <c r="V565" s="3"/>
-    </row>
-    <row r="566" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V565" s="37"/>
+      <c r="W565" s="37"/>
+    </row>
+    <row r="566" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="24" t="s">
         <v>40</v>
       </c>
@@ -24518,11 +25619,12 @@
       <c r="S566" s="3"/>
       <c r="T566" s="3"/>
       <c r="U566" s="3"/>
-      <c r="V566" s="3"/>
-    </row>
-    <row r="567" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V566" s="37"/>
+      <c r="W566" s="37"/>
+    </row>
+    <row r="567" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -24544,9 +25646,10 @@
       <c r="S567" s="3"/>
       <c r="T567" s="3"/>
       <c r="U567" s="3"/>
-      <c r="V567" s="3"/>
-    </row>
-    <row r="568" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V567" s="37"/>
+      <c r="W567" s="37"/>
+    </row>
+    <row r="568" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="24" t="s">
         <v>30</v>
       </c>
@@ -24570,9 +25673,10 @@
       <c r="S568" s="3"/>
       <c r="T568" s="3"/>
       <c r="U568" s="3"/>
-      <c r="V568" s="3"/>
-    </row>
-    <row r="569" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V568" s="37"/>
+      <c r="W568" s="37"/>
+    </row>
+    <row r="569" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="24"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -24594,9 +25698,10 @@
       <c r="S569" s="3"/>
       <c r="T569" s="3"/>
       <c r="U569" s="3"/>
-      <c r="V569" s="3"/>
-    </row>
-    <row r="570" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V569" s="37"/>
+      <c r="W569" s="37"/>
+    </row>
+    <row r="570" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="25"/>
       <c r="B570" s="7" t="s">
         <v>46</v>
@@ -24621,8 +25726,9 @@
       <c r="T570" s="7"/>
       <c r="U570" s="7"/>
       <c r="V570" s="7"/>
-    </row>
-    <row r="571" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W570" s="7"/>
+    </row>
+    <row r="571" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="26"/>
       <c r="B571" s="9">
         <v>2000</v>
@@ -24684,11 +25790,14 @@
       <c r="U571" s="9">
         <v>2019</v>
       </c>
-      <c r="V571" s="9">
+      <c r="V571" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="572" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W571" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -24710,9 +25819,10 @@
       <c r="S572" s="3"/>
       <c r="T572" s="3"/>
       <c r="U572" s="3"/>
-      <c r="V572" s="3"/>
-    </row>
-    <row r="573" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V572" s="37"/>
+      <c r="W572" s="37"/>
+    </row>
+    <row r="573" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="24" t="s">
         <v>20</v>
       </c>
@@ -24776,11 +25886,14 @@
       <c r="U573" s="28">
         <v>2620642.9124455201</v>
       </c>
-      <c r="V573" s="28">
+      <c r="V573" s="46">
         <v>1859408.5922328134</v>
       </c>
-    </row>
-    <row r="574" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W573" s="46">
+        <v>1058426.7447334179</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="29" t="s">
         <v>21</v>
       </c>
@@ -24844,11 +25957,14 @@
       <c r="U574" s="30">
         <v>2383283.5261953361</v>
       </c>
-      <c r="V574" s="30">
+      <c r="V574" s="39">
         <v>1686092.1464060075</v>
       </c>
-    </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W574" s="39">
+        <v>879222.15481678059</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A575" s="29" t="s">
         <v>22</v>
       </c>
@@ -24912,11 +26028,14 @@
       <c r="U575" s="30">
         <v>237359.38625018403</v>
       </c>
-      <c r="V575" s="30">
+      <c r="V575" s="39">
         <v>173316.44582680581</v>
       </c>
-    </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W575" s="39">
+        <v>179204.58991663728</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A576" s="24"/>
       <c r="B576" s="31"/>
       <c r="C576" s="31"/>
@@ -24938,9 +26057,10 @@
       <c r="S576" s="31"/>
       <c r="T576" s="31"/>
       <c r="U576" s="31"/>
-      <c r="V576" s="31"/>
-    </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V576" s="47"/>
+      <c r="W576" s="47"/>
+    </row>
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577" s="24" t="s">
         <v>23</v>
       </c>
@@ -25004,11 +26124,14 @@
       <c r="U577" s="28">
         <v>704361.08978658658</v>
       </c>
-      <c r="V577" s="28">
+      <c r="V577" s="46">
         <v>519232.83692380099</v>
       </c>
-    </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W577" s="46">
+        <v>391370.17262950051</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578" s="29" t="s">
         <v>21</v>
       </c>
@@ -25072,11 +26195,14 @@
       <c r="U578" s="30">
         <v>300959.81486343226</v>
       </c>
-      <c r="V578" s="30">
+      <c r="V578" s="39">
         <v>185593.07979440293</v>
       </c>
-    </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W578" s="39">
+        <v>38928.27495154518</v>
+      </c>
+    </row>
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579" s="29" t="s">
         <v>24</v>
       </c>
@@ -25140,11 +26266,14 @@
       <c r="U579" s="30">
         <v>403401.27492315439</v>
       </c>
-      <c r="V579" s="30">
+      <c r="V579" s="39">
         <v>333639.75712939806</v>
       </c>
-    </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W579" s="39">
+        <v>352441.89767795533</v>
+      </c>
+    </row>
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580" s="24"/>
       <c r="B580" s="31"/>
       <c r="C580" s="31"/>
@@ -25166,9 +26295,10 @@
       <c r="S580" s="31"/>
       <c r="T580" s="31"/>
       <c r="U580" s="31"/>
-      <c r="V580" s="31"/>
-    </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V580" s="47"/>
+      <c r="W580" s="47"/>
+    </row>
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" s="32" t="s">
         <v>32</v>
       </c>
@@ -25232,11 +26362,14 @@
       <c r="U581" s="31">
         <v>1916281.8226589335</v>
       </c>
-      <c r="V581" s="31">
+      <c r="V581" s="47">
         <v>1340175.7553090123</v>
       </c>
-    </row>
-    <row r="582" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W581" s="47">
+        <v>667056.57210391737</v>
+      </c>
+    </row>
+    <row r="582" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -25258,56 +26391,57 @@
       <c r="S582" s="15"/>
       <c r="T582" s="15"/>
       <c r="U582" s="15"/>
-      <c r="V582" s="15"/>
-    </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V582" s="41"/>
+      <c r="W582" s="41"/>
+    </row>
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584" s="24"/>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585" s="24"/>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589" s="24"/>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A593" s="24"/>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A594" s="25"/>
       <c r="B594" s="7" t="s">
         <v>46</v>
@@ -25331,8 +26465,10 @@
       <c r="S594" s="7"/>
       <c r="T594" s="7"/>
       <c r="U594" s="7"/>
-    </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V594" s="7"/>
+      <c r="W594" s="42"/>
+    </row>
+    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595" s="26"/>
       <c r="B595" s="9" t="s">
         <v>67</v>
@@ -25394,11 +26530,15 @@
       <c r="U595" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V595" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W595" s="38"/>
+    </row>
+    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596" s="27"/>
     </row>
-    <row r="597" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A597" s="24" t="s">
         <v>20</v>
       </c>
@@ -25462,8 +26602,12 @@
       <c r="U597" s="17">
         <v>-28.161519820714545</v>
       </c>
-    </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V597" s="43">
+        <v>-40.928106118816551</v>
+      </c>
+      <c r="W597" s="43"/>
+    </row>
+    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598" s="29" t="s">
         <v>21</v>
       </c>
@@ -25527,8 +26671,12 @@
       <c r="U598" s="17">
         <v>-28.390575940314946</v>
       </c>
-    </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V598" s="43">
+        <v>-45.89436453112932</v>
+      </c>
+      <c r="W598" s="43"/>
+    </row>
+    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599" s="29" t="s">
         <v>22</v>
       </c>
@@ -25592,8 +26740,12 @@
       <c r="U599" s="17">
         <v>-25.851477839541531</v>
       </c>
-    </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V599" s="43">
+        <v>7.4417692418991805</v>
+      </c>
+      <c r="W599" s="43"/>
+    </row>
+    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600" s="24"/>
       <c r="B600" s="31"/>
       <c r="C600" s="31"/>
@@ -25615,7 +26767,7 @@
       <c r="S600" s="31"/>
       <c r="T600" s="31"/>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A601" s="24" t="s">
         <v>23</v>
       </c>
@@ -25679,8 +26831,12 @@
       <c r="U601" s="17">
         <v>-25.011390029819722</v>
       </c>
-    </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V601" s="43">
+        <v>-22.366360388422692</v>
+      </c>
+      <c r="W601" s="43"/>
+    </row>
+    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602" s="29" t="s">
         <v>21</v>
       </c>
@@ -25744,8 +26900,12 @@
       <c r="U602" s="17">
         <v>-37.044375229489411</v>
       </c>
-    </row>
-    <row r="603" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V602" s="43">
+        <v>-78.477060623296396</v>
+      </c>
+      <c r="W602" s="43"/>
+    </row>
+    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603" s="29" t="s">
         <v>24</v>
       </c>
@@ -25809,8 +26969,12 @@
       <c r="U603" s="17">
         <v>-16.034265514132571</v>
       </c>
-    </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V603" s="43">
+        <v>9.0200755073312422</v>
+      </c>
+      <c r="W603" s="43"/>
+    </row>
+    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604" s="24"/>
       <c r="B604" s="31"/>
       <c r="C604" s="31"/>
@@ -25832,7 +26996,7 @@
       <c r="S604" s="31"/>
       <c r="T604" s="31"/>
     </row>
-    <row r="605" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A605" s="32" t="s">
         <v>32</v>
       </c>
@@ -25896,8 +27060,12 @@
       <c r="U605" s="17">
         <v>-29.31802684999694</v>
       </c>
-    </row>
-    <row r="606" spans="1:21" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V605" s="43">
+        <v>-48.157889525815165</v>
+      </c>
+      <c r="W605" s="43"/>
+    </row>
+    <row r="606" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -25919,55 +27087,57 @@
       <c r="S606" s="15"/>
       <c r="T606" s="15"/>
       <c r="U606" s="15"/>
-    </row>
-    <row r="607" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V606" s="41"/>
+      <c r="W606" s="41"/>
+    </row>
+    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A608" s="24"/>
     </row>
-    <row r="609" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A609" s="24"/>
     </row>
-    <row r="610" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A610" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A611" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A613" s="24"/>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A614" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A616" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A617" s="24"/>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A618" s="25"/>
       <c r="B618" s="7" t="s">
         <v>46</v>
@@ -25991,8 +27161,10 @@
       <c r="S618" s="7"/>
       <c r="T618" s="7"/>
       <c r="U618" s="7"/>
-    </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V618" s="7"/>
+      <c r="W618" s="42"/>
+    </row>
+    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619" s="26"/>
       <c r="B619" s="9" t="s">
         <v>67</v>
@@ -26054,11 +27226,15 @@
       <c r="U619" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V619" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W619" s="38"/>
+    </row>
+    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620" s="27"/>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A621" s="24" t="s">
         <v>20</v>
       </c>
@@ -26122,8 +27298,12 @@
       <c r="U621" s="17">
         <v>-29.047617155224756</v>
       </c>
-    </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V621" s="43">
+        <v>-43.077237076632045</v>
+      </c>
+      <c r="W621" s="43"/>
+    </row>
+    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622" s="29" t="s">
         <v>21</v>
       </c>
@@ -26187,8 +27367,12 @@
       <c r="U622" s="17">
         <v>-29.253396506387219</v>
       </c>
-    </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V622" s="43">
+        <v>-47.854442196952995</v>
+      </c>
+      <c r="W622" s="43"/>
+    </row>
+    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A623" s="29" t="s">
         <v>22</v>
       </c>
@@ -26252,8 +27436,12 @@
       <c r="U623" s="17">
         <v>-26.981423163891662</v>
       </c>
-    </row>
-    <row r="624" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V623" s="43">
+        <v>3.3973372011767822</v>
+      </c>
+      <c r="W623" s="43"/>
+    </row>
+    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A624" s="24"/>
       <c r="B624" s="31"/>
       <c r="C624" s="31"/>
@@ -26275,7 +27463,7 @@
       <c r="S624" s="31"/>
       <c r="T624" s="31"/>
     </row>
-    <row r="625" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A625" s="24" t="s">
         <v>23</v>
       </c>
@@ -26339,8 +27527,12 @@
       <c r="U625" s="17">
         <v>-26.283145895932066</v>
       </c>
-    </row>
-    <row r="626" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V625" s="43">
+        <v>-24.625303948768689</v>
+      </c>
+      <c r="W625" s="43"/>
+    </row>
+    <row r="626" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A626" s="29" t="s">
         <v>21</v>
       </c>
@@ -26404,8 +27596,12 @@
       <c r="U626" s="17">
         <v>-38.332936615268629</v>
       </c>
-    </row>
-    <row r="627" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V626" s="43">
+        <v>-79.024931859167751</v>
+      </c>
+      <c r="W626" s="43"/>
+    </row>
+    <row r="627" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A627" s="29" t="s">
         <v>24</v>
       </c>
@@ -26469,8 +27665,12 @@
       <c r="U627" s="17">
         <v>-17.293331015635857</v>
       </c>
-    </row>
-    <row r="628" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V627" s="43">
+        <v>5.6354616459168199</v>
+      </c>
+      <c r="W627" s="43"/>
+    </row>
+    <row r="628" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A628" s="24"/>
       <c r="B628" s="31"/>
       <c r="C628" s="31"/>
@@ -26492,7 +27692,7 @@
       <c r="S628" s="31"/>
       <c r="T628" s="31"/>
     </row>
-    <row r="629" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A629" s="32" t="s">
         <v>32</v>
       </c>
@@ -26556,8 +27756,12 @@
       <c r="U629" s="17">
         <v>-30.063744306176545</v>
       </c>
-    </row>
-    <row r="630" spans="1:22" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V629" s="43">
+        <v>-50.226187165271455</v>
+      </c>
+      <c r="W629" s="43"/>
+    </row>
+    <row r="630" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -26579,42 +27783,44 @@
       <c r="S630" s="15"/>
       <c r="T630" s="15"/>
       <c r="U630" s="15"/>
-    </row>
-    <row r="631" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V630" s="41"/>
+      <c r="W630" s="41"/>
+    </row>
+    <row r="631" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A632" s="24"/>
     </row>
-    <row r="633" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A633" s="24"/>
     </row>
-    <row r="634" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A634" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="635" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="24"/>
     </row>
-    <row r="636" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A636" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="637" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="637" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A637" s="24"/>
     </row>
-    <row r="638" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A638" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="639" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -26636,9 +27842,10 @@
       <c r="S639" s="3"/>
       <c r="T639" s="3"/>
       <c r="U639" s="3"/>
-      <c r="V639" s="3"/>
-    </row>
-    <row r="640" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V639" s="37"/>
+      <c r="W639" s="37"/>
+    </row>
+    <row r="640" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="24" t="s">
         <v>31</v>
       </c>
@@ -26662,9 +27869,10 @@
       <c r="S640" s="3"/>
       <c r="T640" s="3"/>
       <c r="U640" s="3"/>
-      <c r="V640" s="3"/>
-    </row>
-    <row r="641" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V640" s="37"/>
+      <c r="W640" s="37"/>
+    </row>
+    <row r="641" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="24"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -26686,9 +27894,10 @@
       <c r="S641" s="3"/>
       <c r="T641" s="3"/>
       <c r="U641" s="3"/>
-      <c r="V641" s="3"/>
-    </row>
-    <row r="642" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V641" s="37"/>
+      <c r="W641" s="37"/>
+    </row>
+    <row r="642" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="25"/>
       <c r="B642" s="7" t="s">
         <v>46</v>
@@ -26713,8 +27922,9 @@
       <c r="T642" s="7"/>
       <c r="U642" s="7"/>
       <c r="V642" s="7"/>
-    </row>
-    <row r="643" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W642" s="7"/>
+    </row>
+    <row r="643" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="26"/>
       <c r="B643" s="9">
         <v>2000</v>
@@ -26776,11 +27986,14 @@
       <c r="U643" s="9">
         <v>2019</v>
       </c>
-      <c r="V643" s="9">
+      <c r="V643" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="644" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W643" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="644" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="27"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -26802,9 +28015,10 @@
       <c r="S644" s="3"/>
       <c r="T644" s="3"/>
       <c r="U644" s="3"/>
-      <c r="V644" s="3"/>
-    </row>
-    <row r="645" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V644" s="37"/>
+      <c r="W644" s="37"/>
+    </row>
+    <row r="645" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="24" t="s">
         <v>20</v>
       </c>
@@ -26868,11 +28082,14 @@
       <c r="U645" s="33">
         <v>101.94603410355998</v>
       </c>
-      <c r="V645" s="33">
+      <c r="V645" s="48">
         <v>103.21919936540436</v>
       </c>
-    </row>
-    <row r="646" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W645" s="48">
+        <v>107.11626207642841</v>
+      </c>
+    </row>
+    <row r="646" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="29" t="s">
         <v>21</v>
       </c>
@@ -26936,11 +28153,14 @@
       <c r="U646" s="33">
         <v>101.98654152395477</v>
       </c>
-      <c r="V646" s="33">
+      <c r="V646" s="48">
         <v>103.23036216189392</v>
       </c>
-    </row>
-    <row r="647" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W646" s="48">
+        <v>107.11064527388308</v>
+      </c>
+    </row>
+    <row r="647" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="29" t="s">
         <v>22</v>
       </c>
@@ -27004,11 +28224,14 @@
       <c r="U647" s="33">
         <v>101.53930627517802</v>
       </c>
-      <c r="V647" s="33">
+      <c r="V647" s="48">
         <v>103.1106031880296</v>
       </c>
-    </row>
-    <row r="648" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W647" s="48">
+        <v>107.14381950249322</v>
+      </c>
+    </row>
+    <row r="648" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="24"/>
       <c r="B648" s="31"/>
       <c r="C648" s="31"/>
@@ -27030,9 +28253,10 @@
       <c r="S648" s="31"/>
       <c r="T648" s="31"/>
       <c r="U648" s="31"/>
-      <c r="V648" s="31"/>
-    </row>
-    <row r="649" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V648" s="47"/>
+      <c r="W648" s="47"/>
+    </row>
+    <row r="649" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="24" t="s">
         <v>23</v>
       </c>
@@ -27096,11 +28320,14 @@
       <c r="U649" s="33">
         <v>101.8574629601585</v>
       </c>
-      <c r="V649" s="33">
+      <c r="V649" s="48">
         <v>103.6146978232202</v>
       </c>
-    </row>
-    <row r="650" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W649" s="48">
+        <v>106.71998071876745</v>
+      </c>
+    </row>
+    <row r="650" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="29" t="s">
         <v>21</v>
       </c>
@@ -27164,11 +28391,14 @@
       <c r="U650" s="33">
         <v>101.85647191199183</v>
       </c>
-      <c r="V650" s="33">
+      <c r="V650" s="48">
         <v>103.9848092997909</v>
       </c>
-    </row>
-    <row r="651" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W650" s="48">
+        <v>106.70090469459062</v>
+      </c>
+    </row>
+    <row r="651" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="29" t="s">
         <v>24</v>
       </c>
@@ -27232,11 +28462,14 @@
       <c r="U651" s="33">
         <v>101.85820233727823</v>
       </c>
-      <c r="V651" s="33">
+      <c r="V651" s="48">
         <v>103.40881669743645</v>
       </c>
-    </row>
-    <row r="652" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W651" s="48">
+        <v>106.72208772340856</v>
+      </c>
+    </row>
+    <row r="652" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="24"/>
       <c r="B652" s="31"/>
       <c r="C652" s="31"/>
@@ -27258,9 +28491,10 @@
       <c r="S652" s="31"/>
       <c r="T652" s="31"/>
       <c r="U652" s="31"/>
-      <c r="V652" s="31"/>
-    </row>
-    <row r="653" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V652" s="47"/>
+      <c r="W652" s="47"/>
+    </row>
+    <row r="653" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="32" t="s">
         <v>32</v>
       </c>
@@ -27324,11 +28558,14 @@
       <c r="U653" s="33">
         <v>101.97858989277231</v>
       </c>
-      <c r="V653" s="33">
+      <c r="V653" s="48">
         <v>103.06596887646498</v>
       </c>
-    </row>
-    <row r="654" spans="1:22" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W653" s="48">
+        <v>107.34876515014591</v>
+      </c>
+    </row>
+    <row r="654" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -27350,54 +28587,55 @@
       <c r="S654" s="15"/>
       <c r="T654" s="15"/>
       <c r="U654" s="15"/>
-      <c r="V654" s="15"/>
-    </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V654" s="41"/>
+      <c r="W654" s="41"/>
+    </row>
+    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A656" s="24"/>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A657" s="24"/>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A658" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A659" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A660" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="661" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A661" s="24"/>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A662" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A663" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="664" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A664" s="24"/>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A665" s="24"/>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A666" s="25"/>
       <c r="B666" s="7" t="s">
         <v>46</v>
@@ -27422,8 +28660,9 @@
       <c r="T666" s="7"/>
       <c r="U666" s="7"/>
       <c r="V666" s="7"/>
-    </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W666" s="7"/>
+    </row>
+    <row r="667" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A667" s="26"/>
       <c r="B667" s="9">
         <v>2000</v>
@@ -27485,19 +28724,22 @@
       <c r="U667" s="9">
         <v>2019</v>
       </c>
-      <c r="V667" s="9">
+      <c r="V667" s="38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W667" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="668" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A668" s="27"/>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A669" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A670" s="29" t="s">
         <v>89</v>
       </c>
@@ -27561,11 +28803,14 @@
       <c r="U670" s="34">
         <v>181920.02725074501</v>
       </c>
-      <c r="V670" s="34">
+      <c r="V670" s="49">
         <v>164919.15246941944</v>
       </c>
-    </row>
-    <row r="671" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W670" s="49">
+        <v>175929.64106195359</v>
+      </c>
+    </row>
+    <row r="671" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="29" t="s">
         <v>90</v>
       </c>
@@ -27629,11 +28874,14 @@
       <c r="U671" s="34">
         <v>200134.50090062243</v>
       </c>
-      <c r="V671" s="34">
+      <c r="V671" s="49">
         <v>177617.87462428099</v>
       </c>
-    </row>
-    <row r="672" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W671" s="49">
+        <v>182427.69677329148</v>
+      </c>
+    </row>
+    <row r="672" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A672" s="29" t="s">
         <v>91</v>
       </c>
@@ -27697,11 +28945,14 @@
       <c r="U672" s="34">
         <v>133177.17439403216</v>
       </c>
-      <c r="V672" s="34">
+      <c r="V672" s="49">
         <v>123915.08878837693</v>
       </c>
-    </row>
-    <row r="673" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W672" s="49">
+        <v>132574.02121491195</v>
+      </c>
+    </row>
+    <row r="673" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="24"/>
       <c r="B673" s="34"/>
       <c r="C673" s="34"/>
@@ -27723,9 +28974,10 @@
       <c r="S673" s="34"/>
       <c r="T673" s="34"/>
       <c r="U673" s="34"/>
-      <c r="V673" s="34"/>
-    </row>
-    <row r="674" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V673" s="49"/>
+      <c r="W673" s="49"/>
+    </row>
+    <row r="674" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="24" t="s">
         <v>92</v>
       </c>
@@ -27749,9 +29001,10 @@
       <c r="S674" s="34"/>
       <c r="T674" s="34"/>
       <c r="U674" s="34"/>
-      <c r="V674" s="34"/>
-    </row>
-    <row r="675" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V674" s="49"/>
+      <c r="W674" s="49"/>
+    </row>
+    <row r="675" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="29" t="s">
         <v>89</v>
       </c>
@@ -27815,11 +29068,14 @@
       <c r="U675" s="34">
         <v>180660.68444113579</v>
       </c>
-      <c r="V675" s="34">
+      <c r="V675" s="49">
         <v>161137.4034668238</v>
       </c>
-    </row>
-    <row r="676" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W675" s="49">
+        <v>167954.9849492989</v>
+      </c>
+    </row>
+    <row r="676" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="29" t="s">
         <v>90</v>
       </c>
@@ -27883,11 +29139,14 @@
       <c r="U676" s="34">
         <v>198521.76064255164</v>
       </c>
-      <c r="V676" s="34">
+      <c r="V676" s="49">
         <v>173458.36866347594</v>
       </c>
-    </row>
-    <row r="677" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W676" s="49">
+        <v>174008.20382168112</v>
+      </c>
+    </row>
+    <row r="677" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="29" t="s">
         <v>91</v>
       </c>
@@ -27951,11 +29210,14 @@
       <c r="U677" s="34">
         <v>130745.61880348179</v>
       </c>
-      <c r="V677" s="34">
+      <c r="V677" s="49">
         <v>118722.75247612775</v>
       </c>
-    </row>
-    <row r="678" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W677" s="49">
+        <v>122110.90960725654</v>
+      </c>
+    </row>
+    <row r="678" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="24"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -27977,9 +29239,10 @@
       <c r="S678" s="3"/>
       <c r="T678" s="3"/>
       <c r="U678" s="3"/>
-      <c r="V678" s="3"/>
-    </row>
-    <row r="679" spans="1:22" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="V678" s="37"/>
+      <c r="W678" s="37"/>
+    </row>
+    <row r="679" spans="1:23" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A679" s="35"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -28001,9 +29264,10 @@
       <c r="S679" s="1"/>
       <c r="T679" s="1"/>
       <c r="U679" s="35"/>
-      <c r="V679" s="35"/>
-    </row>
-    <row r="680" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V679"/>
+      <c r="W679"/>
+    </row>
+    <row r="680" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="15"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15"/>
@@ -28025,9 +29289,10 @@
       <c r="S680" s="15"/>
       <c r="T680" s="15"/>
       <c r="U680" s="15"/>
-      <c r="V680" s="15"/>
-    </row>
-    <row r="681" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V680" s="41"/>
+      <c r="W680" s="41"/>
+    </row>
+    <row r="681" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>0</v>
       </c>
@@ -28051,9 +29316,10 @@
       <c r="S681" s="3"/>
       <c r="T681" s="3"/>
       <c r="U681" s="3"/>
-      <c r="V681" s="3"/>
-    </row>
-    <row r="682" spans="1:22" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V681" s="37"/>
+      <c r="W681" s="37"/>
+    </row>
+    <row r="682" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="24"/>
       <c r="B682" s="36"/>
       <c r="C682" s="36"/>
@@ -28075,9 +29341,10 @@
       <c r="S682" s="3"/>
       <c r="T682" s="3"/>
       <c r="U682" s="3"/>
-      <c r="V682" s="3"/>
-    </row>
-    <row r="683" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V682" s="37"/>
+      <c r="W682" s="37"/>
+    </row>
+    <row r="683" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="24"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -28099,9 +29366,10 @@
       <c r="S683" s="3"/>
       <c r="T683" s="3"/>
       <c r="U683" s="3"/>
-      <c r="V683" s="3"/>
-    </row>
-    <row r="684" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V683" s="37"/>
+      <c r="W683" s="37"/>
+    </row>
+    <row r="684" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="24" t="s">
         <v>25</v>
       </c>
@@ -28125,9 +29393,10 @@
       <c r="S684" s="3"/>
       <c r="T684" s="3"/>
       <c r="U684" s="3"/>
-      <c r="V684" s="3"/>
-    </row>
-    <row r="685" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V684" s="37"/>
+      <c r="W684" s="37"/>
+    </row>
+    <row r="685" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="24" t="s">
         <v>18</v>
       </c>
@@ -28151,11 +29420,12 @@
       <c r="S685" s="3"/>
       <c r="T685" s="3"/>
       <c r="U685" s="3"/>
-      <c r="V685" s="3"/>
-    </row>
-    <row r="686" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V685" s="37"/>
+      <c r="W685" s="37"/>
+    </row>
+    <row r="686" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -28177,30 +29447,31 @@
       <c r="S686" s="3"/>
       <c r="T686" s="3"/>
       <c r="U686" s="3"/>
-      <c r="V686" s="3"/>
-    </row>
-    <row r="687" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V686" s="37"/>
+      <c r="W686" s="37"/>
+    </row>
+    <row r="687" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A687" s="24"/>
     </row>
-    <row r="688" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A688" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A689" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A690" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A691" s="24"/>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A692" s="25"/>
       <c r="B692" s="7" t="s">
         <v>46</v>
@@ -28224,8 +29495,10 @@
       <c r="S692" s="7"/>
       <c r="T692" s="7"/>
       <c r="U692" s="7"/>
-    </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V692" s="7"/>
+      <c r="W692" s="42"/>
+    </row>
+    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A693" s="26"/>
       <c r="B693" s="9" t="s">
         <v>67</v>
@@ -28287,16 +29560,20 @@
       <c r="U693" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V693" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="W693" s="38"/>
+    </row>
+    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A694" s="27"/>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A695" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="696" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A696" s="29" t="s">
         <v>89</v>
       </c>
@@ -28360,8 +29637,11 @@
       <c r="U696" s="17">
         <v>-9.3452463910929566</v>
       </c>
-    </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V696" s="43">
+        <v>6.6762946738862183</v>
+      </c>
+    </row>
+    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A697" s="29" t="s">
         <v>90</v>
       </c>
@@ -28425,8 +29705,11 @@
       <c r="U697" s="17">
         <v>-11.250746960176627</v>
       </c>
-    </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V697" s="43">
+        <v>2.7079606482088678</v>
+      </c>
+    </row>
+    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A698" s="29" t="s">
         <v>91</v>
       </c>
@@ -28490,16 +29773,19 @@
       <c r="U698" s="17">
         <v>-6.9547095046869174</v>
       </c>
-    </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V698" s="43">
+        <v>6.9877950386839416</v>
+      </c>
+    </row>
+    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A699" s="24"/>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A700" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A701" s="29" t="s">
         <v>89</v>
       </c>
@@ -28563,8 +29849,11 @@
       <c r="U701" s="17">
         <v>-10.806601909378472</v>
       </c>
-    </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V701" s="43">
+        <v>4.2309118403280905</v>
+      </c>
+    </row>
+    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A702" s="29" t="s">
         <v>90</v>
       </c>
@@ -28628,8 +29917,11 @@
       <c r="U702" s="17">
         <v>-12.625009922314561</v>
       </c>
-    </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V702" s="43">
+        <v>0.31698393248002787</v>
+      </c>
+    </row>
+    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A703" s="29" t="s">
         <v>91</v>
       </c>
@@ -28693,8 +29985,11 @@
       <c r="U703" s="17">
         <v>-9.1956169831014449</v>
       </c>
-    </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V703" s="43">
+        <v>2.8538397741495061</v>
+      </c>
+    </row>
+    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -28716,6 +30011,8 @@
       <c r="S704" s="15"/>
       <c r="T704" s="15"/>
       <c r="U704" s="15"/>
+      <c r="V704" s="41"/>
+      <c r="W704" s="41"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
@@ -28725,6 +30022,16 @@
     <row r="706" spans="1:1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="U88:U103 U106 U108 U110 U126:U141 U144 U146 U148">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V88:V103 V106 V108 V110">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V126:V141 V144 V146 V148">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
@@ -28741,14 +30048,14 @@
     <brk id="265" max="16383" man="1"/>
     <brk id="304" max="16383" man="1"/>
     <brk id="343" max="16383" man="1"/>
-    <brk id="382" max="21" man="1"/>
-    <brk id="421" max="21" man="1"/>
-    <brk id="459" max="21" man="1"/>
-    <brk id="498" max="21" man="1"/>
-    <brk id="537" max="21" man="1"/>
-    <brk id="585" max="21" man="1"/>
-    <brk id="633" max="21" man="1"/>
-    <brk id="657" max="21" man="1"/>
+    <brk id="382" max="22" man="1"/>
+    <brk id="421" max="22" man="1"/>
+    <brk id="459" max="22" man="1"/>
+    <brk id="498" max="22" man="1"/>
+    <brk id="537" max="22" man="1"/>
+    <brk id="585" max="22" man="1"/>
+    <brk id="633" max="22" man="1"/>
+    <brk id="657" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="705" man="1"/>

--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30374257-0F4E-4B4D-A98F-FF9E58403537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="396" windowWidth="24240" windowHeight="13740" tabRatio="721"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -166,12 +167,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -506,19 +501,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -623,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -695,34 +690,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1017,13 +990,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W706"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1035,8 +1008,7 @@
     <col min="11" max="11" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.88671875" style="37" customWidth="1"/>
+    <col min="15" max="23" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
@@ -1052,7 +1024,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1065,7 +1037,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1167,10 +1139,10 @@
       <c r="U10" s="9">
         <v>2019</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="9">
         <v>2020</v>
       </c>
-      <c r="W10" s="38">
+      <c r="W10" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -1238,11 +1210,11 @@
       <c r="U12" s="11">
         <v>14288332.662963083</v>
       </c>
-      <c r="V12" s="39">
-        <v>13478489.311557382</v>
-      </c>
-      <c r="W12" s="39">
-        <v>14609478.693250742</v>
+      <c r="V12" s="11">
+        <v>13476075.391922019</v>
+      </c>
+      <c r="W12" s="11">
+        <v>14610149.17548511</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1309,11 +1281,11 @@
       <c r="U13" s="11">
         <v>2433439.2503182534</v>
       </c>
-      <c r="V13" s="39">
-        <v>2740783.3242552066</v>
-      </c>
-      <c r="W13" s="39">
-        <v>3018972.4465099713</v>
+      <c r="V13" s="11">
+        <v>2739671.2481264584</v>
+      </c>
+      <c r="W13" s="11">
+        <v>3021100.2193224891</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,11 +1352,11 @@
       <c r="U14" s="10">
         <v>5153068.8510214183</v>
       </c>
-      <c r="V14" s="40">
-        <v>3118277.4509477457</v>
-      </c>
-      <c r="W14" s="40">
-        <v>4095203.8828170528</v>
+      <c r="V14" s="10">
+        <v>3129565.8619586932</v>
+      </c>
+      <c r="W14" s="10">
+        <v>4111887.2375104711</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1451,11 +1423,11 @@
       <c r="U15" s="10">
         <v>5300100.1831724886</v>
       </c>
-      <c r="V15" s="40">
-        <v>3817050.8770898473</v>
-      </c>
-      <c r="W15" s="40">
-        <v>4303187.310942566</v>
+      <c r="V15" s="10">
+        <v>3824091.2465223367</v>
+      </c>
+      <c r="W15" s="10">
+        <v>4327283.2322114054</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1522,11 +1494,11 @@
       <c r="U16" s="11">
         <v>3290529.0946104117</v>
       </c>
-      <c r="V16" s="39">
-        <v>2322937.294954577</v>
-      </c>
-      <c r="W16" s="39">
-        <v>2659141.8397773365</v>
+      <c r="V16" s="11">
+        <v>2331973.0798953301</v>
+      </c>
+      <c r="W16" s="11">
+        <v>2682152.7807548912</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1593,11 +1565,11 @@
       <c r="U17" s="11">
         <v>1451964.5545496624</v>
       </c>
-      <c r="V17" s="39">
-        <v>943816.60007213906</v>
-      </c>
-      <c r="W17" s="39">
-        <v>1069982.6415624758</v>
+      <c r="V17" s="11">
+        <v>943928.0143166217</v>
+      </c>
+      <c r="W17" s="11">
+        <v>1072946.7745276184</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1664,11 +1636,11 @@
       <c r="U18" s="11">
         <v>418118.7717598374</v>
       </c>
-      <c r="V18" s="39">
-        <v>423311.73303947051</v>
-      </c>
-      <c r="W18" s="39">
-        <v>427935.49279770855</v>
+      <c r="V18" s="11">
+        <v>421946.17607183685</v>
+      </c>
+      <c r="W18" s="11">
+        <v>427892.17056024726</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1735,11 +1707,11 @@
       <c r="U19" s="11">
         <v>139487.76225257709</v>
       </c>
-      <c r="V19" s="39">
-        <v>126985.24902366122</v>
-      </c>
-      <c r="W19" s="39">
-        <v>146127.3368050452</v>
+      <c r="V19" s="11">
+        <v>126243.97623854823</v>
+      </c>
+      <c r="W19" s="11">
+        <v>144291.5063686478</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -1806,11 +1778,11 @@
       <c r="U20" s="11">
         <v>-148526.29994967015</v>
       </c>
-      <c r="V20" s="39">
-        <v>-699712.36222029733</v>
-      </c>
-      <c r="W20" s="39">
-        <v>-209041.88625446652</v>
+      <c r="V20" s="11">
+        <v>-695464.32064183906</v>
+      </c>
+      <c r="W20" s="11">
+        <v>-216438.32297674415</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -1877,11 +1849,11 @@
       <c r="U21" s="11">
         <v>1494.9677985999999</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="11">
         <v>938.93607819525414</v>
       </c>
-      <c r="W21" s="39">
-        <v>1058.4581289535126</v>
+      <c r="W21" s="11">
+        <v>1042.3282758097755</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1948,11 +1920,11 @@
       <c r="U22" s="10">
         <v>5539739.4922342617</v>
       </c>
-      <c r="V22" s="40">
-        <v>4518389.6774400938</v>
-      </c>
-      <c r="W22" s="40">
-        <v>4983439.5718536265</v>
+      <c r="V22" s="10">
+        <v>4524306.2404680271</v>
+      </c>
+      <c r="W22" s="10">
+        <v>4996723.5335842939</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2019,11 +1991,11 @@
       <c r="U23" s="11">
         <v>2941577.1974197887</v>
       </c>
-      <c r="V23" s="39">
+      <c r="V23" s="11">
         <v>2551888.408456523</v>
       </c>
-      <c r="W23" s="39">
-        <v>2915779.7936528134</v>
+      <c r="W23" s="11">
+        <v>2916133.8632261204</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2090,11 +2062,11 @@
       <c r="U24" s="11">
         <v>2598162.2948144726</v>
       </c>
-      <c r="V24" s="39">
-        <v>1966501.2689835713</v>
-      </c>
-      <c r="W24" s="39">
-        <v>2067659.7782008126</v>
+      <c r="V24" s="11">
+        <v>1972417.8320115046</v>
+      </c>
+      <c r="W24" s="11">
+        <v>2080589.6703581733</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2161,11 +2133,11 @@
       <c r="U25" s="10">
         <v>7896717.0848549996</v>
       </c>
-      <c r="V25" s="40">
-        <v>5917357.3400180917</v>
-      </c>
-      <c r="W25" s="40">
-        <v>7322839.4799272353</v>
+      <c r="V25" s="10">
+        <v>5918045.1724624811</v>
+      </c>
+      <c r="W25" s="10">
+        <v>7329292.1107769785</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2232,11 +2204,11 @@
       <c r="U26" s="11">
         <v>6344798.771988635</v>
       </c>
-      <c r="V26" s="39">
+      <c r="V26" s="11">
         <v>4790019.9859151989</v>
       </c>
-      <c r="W26" s="39">
-        <v>6299493.6734813266</v>
+      <c r="W26" s="11">
+        <v>6306995.5567250391</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2303,11 +2275,11 @@
       <c r="U27" s="11">
         <v>1551918.3128663641</v>
       </c>
-      <c r="V27" s="39">
-        <v>1127337.3541028923</v>
-      </c>
-      <c r="W27" s="39">
-        <v>1023345.8064459088</v>
+      <c r="V27" s="11">
+        <v>1128025.1865472819</v>
+      </c>
+      <c r="W27" s="11">
+        <v>1022296.5540519393</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,11 +2346,11 @@
       <c r="U28" s="10">
         <v>0</v>
       </c>
-      <c r="V28" s="40">
+      <c r="V28" s="10">
         <v>0</v>
       </c>
-      <c r="W28" s="40">
-        <v>2954.5292262583971</v>
+      <c r="W28" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2402,8 +2374,8 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -2469,11 +2441,11 @@
       <c r="U30" s="10">
         <v>19517863.171682019</v>
       </c>
-      <c r="V30" s="40">
-        <v>17938582.424182337</v>
-      </c>
-      <c r="W30" s="40">
-        <v>19387209.643730417</v>
+      <c r="V30" s="10">
+        <v>17951573.570012722</v>
+      </c>
+      <c r="W30" s="10">
+        <v>19410568.055125386</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2497,8 +2469,8 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2564,11 +2536,11 @@
       <c r="U32" s="10">
         <v>1954197.181119096</v>
       </c>
-      <c r="V32" s="40">
-        <v>1381265.1268567161</v>
-      </c>
-      <c r="W32" s="40">
-        <v>716076.99300644803</v>
+      <c r="V32" s="10">
+        <v>1360426.9400112671</v>
+      </c>
+      <c r="W32" s="10">
+        <v>693869.14626533468</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -2592,8 +2564,8 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -2659,11 +2631,11 @@
       <c r="U34" s="10">
         <v>21472060.352801114</v>
       </c>
-      <c r="V34" s="40">
-        <v>19319847.551039051</v>
-      </c>
-      <c r="W34" s="40">
-        <v>20103286.636736866</v>
+      <c r="V34" s="10">
+        <v>19312000.510023989</v>
+      </c>
+      <c r="W34" s="10">
+        <v>20104437.201390721</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2688,8 +2660,8 @@
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -2708,7 +2680,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -2721,7 +2693,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -2823,10 +2795,10 @@
       <c r="U48" s="9">
         <v>2019</v>
       </c>
-      <c r="V48" s="38">
+      <c r="V48" s="9">
         <v>2020</v>
       </c>
-      <c r="W48" s="38">
+      <c r="W48" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -2894,11 +2866,11 @@
       <c r="U50" s="11">
         <v>14027455.562030775</v>
       </c>
-      <c r="V50" s="39">
-        <v>12913708.620432813</v>
-      </c>
-      <c r="W50" s="39">
-        <v>13456457.87743534</v>
+      <c r="V50" s="11">
+        <v>12911356.953432048</v>
+      </c>
+      <c r="W50" s="11">
+        <v>13456531.513529724</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -2965,11 +2937,11 @@
       <c r="U51" s="11">
         <v>2399867.4438101714</v>
       </c>
-      <c r="V51" s="39">
-        <v>2652951.8897215407</v>
-      </c>
-      <c r="W51" s="39">
-        <v>2838332.8543382445</v>
+      <c r="V51" s="11">
+        <v>2651875.4513029442</v>
+      </c>
+      <c r="W51" s="11">
+        <v>2839962.4587960439</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,11 +3008,11 @@
       <c r="U52" s="10">
         <v>5132349.1670051683</v>
       </c>
-      <c r="V52" s="40">
-        <v>3366706.948228477</v>
-      </c>
-      <c r="W52" s="40">
-        <v>4005983.323743117</v>
+      <c r="V52" s="10">
+        <v>3375832.6409634682</v>
+      </c>
+      <c r="W52" s="10">
+        <v>4060996.7705110386</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -3107,11 +3079,11 @@
       <c r="U53" s="10">
         <v>5175519.9704533266</v>
       </c>
-      <c r="V53" s="40">
-        <v>3754622.5827839216</v>
-      </c>
-      <c r="W53" s="40">
-        <v>4114271.2967971666</v>
+      <c r="V53" s="10">
+        <v>3761791.2858315799</v>
+      </c>
+      <c r="W53" s="10">
+        <v>4136014.947380065</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -3178,11 +3150,11 @@
       <c r="U54" s="11">
         <v>3205990.7124282913</v>
       </c>
-      <c r="V54" s="39">
-        <v>2233732.372217305</v>
-      </c>
-      <c r="W54" s="39">
-        <v>2470246.223102496</v>
+      <c r="V54" s="11">
+        <v>2242533.866288078</v>
+      </c>
+      <c r="W54" s="11">
+        <v>2491427.9319774099</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -3249,11 +3221,11 @@
       <c r="U55" s="11">
         <v>1424524.9749697736</v>
       </c>
-      <c r="V55" s="39">
-        <v>1001452.1417954667</v>
-      </c>
-      <c r="W55" s="39">
-        <v>1120658.871117024</v>
+      <c r="V55" s="11">
+        <v>1001577.5808599009</v>
+      </c>
+      <c r="W55" s="11">
+        <v>1123295.8076404359</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -3320,11 +3292,11 @@
       <c r="U56" s="11">
         <v>403626.95001732698</v>
       </c>
-      <c r="V56" s="39">
-        <v>391191.34984940384</v>
-      </c>
-      <c r="W56" s="39">
-        <v>376988.22567491524</v>
+      <c r="V56" s="11">
+        <v>389874.78940033034</v>
+      </c>
+      <c r="W56" s="11">
+        <v>376942.85804991017</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -3391,11 +3363,11 @@
       <c r="U57" s="11">
         <v>141377.33303793459</v>
       </c>
-      <c r="V57" s="39">
-        <v>128246.71892174601</v>
-      </c>
-      <c r="W57" s="39">
-        <v>146377.97690273167</v>
+      <c r="V57" s="11">
+        <v>127805.04928327087</v>
+      </c>
+      <c r="W57" s="11">
+        <v>144348.34971230879</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -3462,11 +3434,11 @@
       <c r="U58" s="11">
         <v>-44600.240770418081</v>
       </c>
-      <c r="V58" s="39">
-        <v>-388620.31349751179</v>
-      </c>
-      <c r="W58" s="39">
-        <v>-109049.73480167803</v>
+      <c r="V58" s="11">
+        <v>-386663.3238101789</v>
+      </c>
+      <c r="W58" s="11">
+        <v>-75780.401101082709</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -3533,11 +3505,11 @@
       <c r="U59" s="11">
         <v>1429.4373222597128</v>
       </c>
-      <c r="V59" s="39">
+      <c r="V59" s="11">
         <v>704.67894206692563</v>
       </c>
-      <c r="W59" s="39">
-        <v>761.76174762841083</v>
+      <c r="W59" s="11">
+        <v>762.22423205606719</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,11 +3576,11 @@
       <c r="U60" s="10">
         <v>5664043.0295025399</v>
       </c>
-      <c r="V60" s="40">
-        <v>4743507.7095598336</v>
-      </c>
-      <c r="W60" s="40">
-        <v>5115043.7620609542</v>
+      <c r="V60" s="10">
+        <v>4749668.2746546278</v>
+      </c>
+      <c r="W60" s="10">
+        <v>5128006.1744800759</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -3675,11 +3647,11 @@
       <c r="U61" s="11">
         <v>3116492.1700701611</v>
       </c>
-      <c r="V61" s="39">
+      <c r="V61" s="11">
         <v>2849277.293077284</v>
       </c>
-      <c r="W61" s="39">
-        <v>3180341.5570697566</v>
+      <c r="W61" s="11">
+        <v>3180713.9083417542</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -3746,11 +3718,11 @@
       <c r="U62" s="11">
         <v>2547550.8594323788</v>
       </c>
-      <c r="V62" s="39">
-        <v>1894230.4164825501</v>
-      </c>
-      <c r="W62" s="39">
-        <v>1934702.2049911977</v>
+      <c r="V62" s="11">
+        <v>1900390.9815773438</v>
+      </c>
+      <c r="W62" s="11">
+        <v>1947292.266138322</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3817,11 +3789,11 @@
       <c r="U63" s="10">
         <v>7840964.5909254057</v>
       </c>
-      <c r="V63" s="40">
-        <v>6149641.0630721813</v>
-      </c>
-      <c r="W63" s="40">
-        <v>6943662.1826956924</v>
+      <c r="V63" s="10">
+        <v>6150890.0409797616</v>
+      </c>
+      <c r="W63" s="10">
+        <v>6947443.0822262354</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -3888,11 +3860,11 @@
       <c r="U64" s="11">
         <v>6311705.6914733509</v>
       </c>
-      <c r="V64" s="39">
+      <c r="V64" s="11">
         <v>5030860.4230751758</v>
       </c>
-      <c r="W64" s="39">
-        <v>5928952.5106063634</v>
+      <c r="W64" s="11">
+        <v>5936271.6548549403</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -3959,11 +3931,11 @@
       <c r="U65" s="11">
         <v>1529258.8994520551</v>
       </c>
-      <c r="V65" s="39">
-        <v>1118780.6399970057</v>
-      </c>
-      <c r="W65" s="39">
-        <v>1014709.6720893285</v>
+      <c r="V65" s="11">
+        <v>1120029.6179045853</v>
+      </c>
+      <c r="W65" s="11">
+        <v>1011171.4273712953</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4030,11 +4002,11 @@
       <c r="U66" s="10">
         <v>0</v>
       </c>
-      <c r="V66" s="40">
+      <c r="V66" s="10">
         <v>0</v>
       </c>
-      <c r="W66" s="40">
-        <v>36257.639121033251</v>
+      <c r="W66" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -4058,8 +4030,8 @@
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -4125,11 +4097,11 @@
       <c r="U68" s="10">
         <v>19382750.611423243</v>
       </c>
-      <c r="V68" s="40">
-        <v>17527234.104870483</v>
-      </c>
-      <c r="W68" s="40">
-        <v>18508413.274002999</v>
+      <c r="V68" s="10">
+        <v>17537843.279373322</v>
+      </c>
+      <c r="W68" s="10">
+        <v>18538053.835090648</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -4153,8 +4125,8 @@
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -4220,11 +4192,11 @@
       <c r="U70" s="10">
         <v>1916281.8226589335</v>
       </c>
-      <c r="V70" s="40">
-        <v>1340175.7553090123</v>
-      </c>
-      <c r="W70" s="40">
-        <v>667056.57210391737</v>
+      <c r="V70" s="10">
+        <v>1320172.5541665182</v>
+      </c>
+      <c r="W70" s="10">
+        <v>642515.15330013481</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -4248,8 +4220,8 @@
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -4315,11 +4287,11 @@
       <c r="U72" s="10">
         <v>21299032.434082177</v>
       </c>
-      <c r="V72" s="40">
-        <v>18867409.860179495</v>
-      </c>
-      <c r="W72" s="40">
-        <v>19175469.846106917</v>
+      <c r="V72" s="10">
+        <v>18858015.83353984</v>
+      </c>
+      <c r="W72" s="10">
+        <v>19180568.988390785</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,8 +4316,8 @@
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="41"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -4364,7 +4336,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -4377,7 +4349,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -4413,7 +4385,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="42"/>
+      <c r="W85" s="7"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
@@ -4479,10 +4451,10 @@
       <c r="U86" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V86" s="38" t="s">
+      <c r="V86" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W86" s="38"/>
+      <c r="W86" s="9"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -4546,11 +4518,12 @@
         <v>7.8357857803208475</v>
       </c>
       <c r="U88" s="17">
-        <v>-5.6678646172964875</v>
-      </c>
-      <c r="V88" s="43">
-        <v>8.391069322016449</v>
-      </c>
+        <v>-5.6847589582409626</v>
+      </c>
+      <c r="V88" s="17">
+        <v>8.4154603664720469</v>
+      </c>
+      <c r="W88" s="17"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4614,11 +4587,12 @@
         <v>10.629111401143447</v>
       </c>
       <c r="U89" s="17">
-        <v>12.630028627045348</v>
-      </c>
-      <c r="V89" s="43">
-        <v>10.149985947187616</v>
-      </c>
+        <v>12.584328857527666</v>
+      </c>
+      <c r="V89" s="17">
+        <v>10.272362838734324</v>
+      </c>
+      <c r="W89" s="17"/>
     </row>
     <row r="90" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -4682,11 +4656,12 @@
         <v>3.9112575080488341</v>
       </c>
       <c r="U90" s="17">
-        <v>-39.486982590390681</v>
-      </c>
-      <c r="V90" s="43">
-        <v>31.329041345323134</v>
-      </c>
+        <v>-39.267920681122582</v>
+      </c>
+      <c r="V90" s="17">
+        <v>31.388423151349656</v>
+      </c>
+      <c r="W90" s="17"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
@@ -4750,11 +4725,12 @@
         <v>6.3562450167742384</v>
       </c>
       <c r="U91" s="17">
-        <v>-27.981533458390786</v>
-      </c>
-      <c r="V91" s="43">
-        <v>12.735917060224082</v>
-      </c>
+        <v>-27.848698810192204</v>
+      </c>
+      <c r="V91" s="17">
+        <v>13.158472255249549</v>
+      </c>
+      <c r="W91" s="17"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
@@ -4818,11 +4794,12 @@
         <v>11.930911402108848</v>
       </c>
       <c r="U92" s="17">
-        <v>-29.40535615505307</v>
-      </c>
-      <c r="V92" s="43">
-        <v>14.473250980687084</v>
-      </c>
+        <v>-29.130756396748154</v>
+      </c>
+      <c r="V92" s="17">
+        <v>15.016455544816097</v>
+      </c>
+      <c r="W92" s="17"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
@@ -4886,11 +4863,12 @@
         <v>-4.9151644511897388</v>
       </c>
       <c r="U93" s="17">
-        <v>-34.997269932331733</v>
-      </c>
-      <c r="V93" s="43">
-        <v>13.367643828334181</v>
-      </c>
+        <v>-34.989596587680609</v>
+      </c>
+      <c r="V93" s="17">
+        <v>13.6682838367079</v>
+      </c>
+      <c r="W93" s="17"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
@@ -4954,11 +4932,12 @@
         <v>5.1183122059947692</v>
       </c>
       <c r="U94" s="17">
-        <v>1.2419823338177878</v>
-      </c>
-      <c r="V94" s="43">
-        <v>1.0922824475094046</v>
-      </c>
+        <v>0.91538686385452195</v>
+      </c>
+      <c r="V94" s="17">
+        <v>1.4091831673332109</v>
+      </c>
+      <c r="W94" s="17"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
@@ -5022,11 +5001,12 @@
         <v>17.43336191845539</v>
       </c>
       <c r="U95" s="17">
-        <v>-8.9631613748860417</v>
-      </c>
-      <c r="V95" s="43">
-        <v>15.074260930745751</v>
-      </c>
+        <v>-9.4945863351422162</v>
+      </c>
+      <c r="V95" s="17">
+        <v>14.295755463212984</v>
+      </c>
+      <c r="W95" s="17"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
@@ -5052,7 +5032,8 @@
       <c r="S96" s="17"/>
       <c r="T96" s="17"/>
       <c r="U96" s="17"/>
-      <c r="V96" s="43"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
@@ -5118,9 +5099,10 @@
       <c r="U97" s="17">
         <v>-37.193558344564728</v>
       </c>
-      <c r="V97" s="43">
-        <v>12.729519456531463</v>
-      </c>
+      <c r="V97" s="17">
+        <v>11.01163327467971</v>
+      </c>
+      <c r="W97" s="17"/>
     </row>
     <row r="98" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -5184,11 +5166,12 @@
         <v>0.38355909833028079</v>
       </c>
       <c r="U98" s="17">
-        <v>-18.436784188605259</v>
-      </c>
-      <c r="V98" s="43">
-        <v>10.292381304239527</v>
-      </c>
+        <v>-18.329981999870085</v>
+      </c>
+      <c r="V98" s="17">
+        <v>10.441762073722856</v>
+      </c>
+      <c r="W98" s="17"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
@@ -5254,9 +5237,10 @@
       <c r="U99" s="17">
         <v>-13.247613875477484</v>
       </c>
-      <c r="V99" s="43">
-        <v>14.259690352854633</v>
-      </c>
+      <c r="V99" s="17">
+        <v>14.273565159140574</v>
+      </c>
+      <c r="W99" s="17"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
@@ -5320,11 +5304,12 @@
         <v>6.6273485667943248</v>
       </c>
       <c r="U100" s="17">
-        <v>-24.311838682733494</v>
-      </c>
-      <c r="V100" s="43">
-        <v>5.1440856313063676</v>
-      </c>
+        <v>-24.084117610815014</v>
+      </c>
+      <c r="V100" s="17">
+        <v>5.4842253294958994</v>
+      </c>
+      <c r="W100" s="17"/>
     </row>
     <row r="101" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -5388,11 +5373,12 @@
         <v>3.060574032667688</v>
       </c>
       <c r="U101" s="17">
-        <v>-25.065602877341192</v>
-      </c>
-      <c r="V101" s="43">
-        <v>23.751855079024949</v>
-      </c>
+        <v>-25.056892517871574</v>
+      </c>
+      <c r="V101" s="17">
+        <v>23.846505006099534</v>
+      </c>
+      <c r="W101" s="17"/>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
@@ -5458,9 +5444,10 @@
       <c r="U102" s="17">
         <v>-24.504776935362528</v>
       </c>
-      <c r="V102" s="43">
-        <v>31.512889132084126</v>
-      </c>
+      <c r="V102" s="17">
+        <v>31.669503995190553</v>
+      </c>
+      <c r="W102" s="17"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
@@ -5524,11 +5511,12 @@
         <v>8.6574035507551486</v>
       </c>
       <c r="U103" s="17">
-        <v>-27.358460509385878</v>
-      </c>
-      <c r="V103" s="43">
-        <v>-9.2245278024817594</v>
-      </c>
+        <v>-27.314139075797073</v>
+      </c>
+      <c r="V103" s="17">
+        <v>-9.3728964349601398</v>
+      </c>
+      <c r="W103" s="17"/>
     </row>
     <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
@@ -5634,11 +5622,12 @@
         <v>6.8582527519006788</v>
       </c>
       <c r="U106" s="17">
-        <v>-8.0914633615785476</v>
-      </c>
-      <c r="V106" s="43">
-        <v>8.0754832533212806</v>
-      </c>
+        <v>-8.0249030741325669</v>
+      </c>
+      <c r="V106" s="17">
+        <v>8.1273905010190788</v>
+      </c>
+      <c r="W106" s="17"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
@@ -5723,11 +5712,12 @@
         <v>0.36147661017595567</v>
       </c>
       <c r="U108" s="17">
-        <v>-29.31802684999694</v>
-      </c>
-      <c r="V108" s="43">
-        <v>-48.157889525815165</v>
-      </c>
+        <v>-30.384356647561987</v>
+      </c>
+      <c r="V108" s="17">
+        <v>-48.996221270097159</v>
+      </c>
+      <c r="W108" s="17"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
@@ -5812,11 +5802,12 @@
         <v>6.2323851713457401</v>
       </c>
       <c r="U110" s="17">
-        <v>-10.023317587598427</v>
-      </c>
-      <c r="V110" s="43">
-        <v>4.0550997290642812</v>
-      </c>
+        <v>-10.059862944150751</v>
+      </c>
+      <c r="V110" s="17">
+        <v>4.1033381857846081</v>
+      </c>
+      <c r="W110" s="17"/>
     </row>
     <row r="111" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
@@ -5840,8 +5831,8 @@
       <c r="S111" s="15"/>
       <c r="T111" s="15"/>
       <c r="U111" s="15"/>
-      <c r="V111" s="41"/>
-      <c r="W111" s="41"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="15"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
@@ -5865,7 +5856,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
@@ -5878,7 +5869,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
@@ -5914,7 +5905,7 @@
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
       <c r="V123" s="7"/>
-      <c r="W123" s="42"/>
+      <c r="W123" s="7"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
@@ -5980,10 +5971,10 @@
       <c r="U124" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V124" s="38" t="s">
+      <c r="V124" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W124" s="38"/>
+      <c r="W124" s="9"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -6047,11 +6038,12 @@
         <v>5.8669145456771616</v>
       </c>
       <c r="U126" s="17">
-        <v>-7.9397645330107451</v>
-      </c>
-      <c r="V126" s="43">
-        <v>4.202892236113783</v>
-      </c>
+        <v>-7.9565292769114819</v>
+      </c>
+      <c r="V126" s="17">
+        <v>4.2224420102703277</v>
+      </c>
+      <c r="W126" s="17"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -6115,11 +6107,12 @@
         <v>9.1028686064509117</v>
       </c>
       <c r="U127" s="17">
-        <v>10.545767707467931</v>
-      </c>
-      <c r="V127" s="43">
-        <v>6.9877243283202404</v>
-      </c>
+        <v>10.500913629324032</v>
+      </c>
+      <c r="V127" s="17">
+        <v>7.0926033649388387</v>
+      </c>
+      <c r="W127" s="17"/>
     </row>
     <row r="128" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
@@ -6183,13 +6176,14 @@
         <v>3.4934465911869381</v>
       </c>
       <c r="U128" s="17">
-        <v>-34.402223257288242</v>
-      </c>
-      <c r="V128" s="43">
-        <v>18.988180003341839</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-34.224415932843939</v>
+      </c>
+      <c r="V128" s="17">
+        <v>20.296152162093662</v>
+      </c>
+      <c r="W128" s="17"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>1</v>
       </c>
@@ -6251,13 +6245,14 @@
         <v>3.8563142286226082</v>
       </c>
       <c r="U129" s="17">
-        <v>-27.454195825370334</v>
-      </c>
-      <c r="V129" s="43">
-        <v>9.5788246643575548</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-27.31568407991125</v>
+      </c>
+      <c r="V129" s="17">
+        <v>9.9480176627013179</v>
+      </c>
+      <c r="W129" s="17"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>2</v>
       </c>
@@ -6319,13 +6314,14 @@
         <v>9.0552467615490286</v>
       </c>
       <c r="U130" s="17">
-        <v>-30.326299338358837</v>
-      </c>
-      <c r="V130" s="43">
-        <v>10.588280575905173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-30.051766600735689</v>
+      </c>
+      <c r="V130" s="17">
+        <v>11.098787377570815</v>
+      </c>
+      <c r="W130" s="17"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>3</v>
       </c>
@@ -6387,13 +6383,14 @@
         <v>-6.712100818339195</v>
       </c>
       <c r="U131" s="17">
-        <v>-29.699221888565617</v>
-      </c>
-      <c r="V131" s="43">
-        <v>11.903387525622151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-29.690416211821557</v>
+      </c>
+      <c r="V131" s="17">
+        <v>12.152650888614573</v>
+      </c>
+      <c r="W131" s="17"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>4</v>
       </c>
@@ -6455,13 +6452,14 @@
         <v>1.4749554728083183</v>
       </c>
       <c r="U132" s="17">
-        <v>-3.080963787821716</v>
-      </c>
-      <c r="V132" s="43">
-        <v>-3.6307357460629675</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-3.4071462810910731</v>
+      </c>
+      <c r="V132" s="17">
+        <v>-3.3169447479050547</v>
+      </c>
+      <c r="W132" s="17"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>5</v>
       </c>
@@ -6523,13 +6521,14 @@
         <v>19.024172799094671</v>
       </c>
       <c r="U133" s="17">
-        <v>-9.2876374409081137</v>
-      </c>
-      <c r="V133" s="43">
-        <v>14.137794817229633</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-9.6000422861435482</v>
+      </c>
+      <c r="V133" s="17">
+        <v>12.944168107451588</v>
+      </c>
+      <c r="W133" s="17"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>6</v>
       </c>
@@ -6553,9 +6552,10 @@
       <c r="S134" s="17"/>
       <c r="T134" s="17"/>
       <c r="U134" s="17"/>
-      <c r="V134" s="43"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V134" s="17"/>
+      <c r="W134" s="17"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>19</v>
       </c>
@@ -6619,11 +6619,12 @@
       <c r="U135" s="17">
         <v>-50.702354619302895</v>
       </c>
-      <c r="V135" s="43">
-        <v>8.1005408497170492</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V135" s="17">
+        <v>8.1661713659773767</v>
+      </c>
+      <c r="W135" s="17"/>
+    </row>
+    <row r="136" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>15</v>
       </c>
@@ -6685,13 +6686,14 @@
         <v>2.6360172684290433</v>
       </c>
       <c r="U136" s="17">
-        <v>-16.252265654548793</v>
-      </c>
-      <c r="V136" s="43">
-        <v>7.8325171002114047</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-16.143499441744524</v>
+      </c>
+      <c r="V136" s="17">
+        <v>7.9655647078418212</v>
+      </c>
+      <c r="W136" s="17"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>7</v>
       </c>
@@ -6755,11 +6757,12 @@
       <c r="U137" s="17">
         <v>-8.5742194239769702</v>
       </c>
-      <c r="V137" s="43">
-        <v>11.619236386603689</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V137" s="17">
+        <v>11.632304657385987</v>
+      </c>
+      <c r="W137" s="17"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>8</v>
       </c>
@@ -6821,13 +6824,14 @@
         <v>4.5502792579513738</v>
       </c>
       <c r="U138" s="17">
-        <v>-25.645040236621426</v>
-      </c>
-      <c r="V138" s="43">
-        <v>2.1365821262547797</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-25.403217190302882</v>
+      </c>
+      <c r="V138" s="17">
+        <v>2.4679808005639785</v>
+      </c>
+      <c r="W138" s="17"/>
+    </row>
+    <row r="139" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>16</v>
       </c>
@@ -6889,13 +6893,14 @@
         <v>2.3329445676135521</v>
       </c>
       <c r="U139" s="17">
-        <v>-21.570350283313942</v>
-      </c>
-      <c r="V139" s="43">
-        <v>12.911666087172264</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-21.554421402458829</v>
+      </c>
+      <c r="V139" s="17">
+        <v>12.950207790084207</v>
+      </c>
+      <c r="W139" s="17"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>9</v>
       </c>
@@ -6959,11 +6964,12 @@
       <c r="U140" s="17">
         <v>-20.293171624407364</v>
       </c>
-      <c r="V140" s="43">
-        <v>17.851659795844981</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V140" s="17">
+        <v>17.997144735458988</v>
+      </c>
+      <c r="W140" s="17"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>10</v>
       </c>
@@ -7025,13 +7031,14 @@
         <v>7.0709070147135549</v>
       </c>
       <c r="U141" s="17">
-        <v>-26.841645950344102</v>
-      </c>
-      <c r="V141" s="43">
-        <v>-9.302178120275272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+        <v>-26.759973847077148</v>
+      </c>
+      <c r="V141" s="17">
+        <v>-9.7192242770283315</v>
+      </c>
+      <c r="W141" s="17"/>
+    </row>
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -7052,7 +7059,7 @@
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -7073,7 +7080,7 @@
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>28</v>
       </c>
@@ -7135,11 +7142,12 @@
         <v>6.1185256625625186</v>
       </c>
       <c r="U144" s="17">
-        <v>-9.5730298746103131</v>
-      </c>
-      <c r="V144" s="43">
-        <v>5.5980262673610497</v>
-      </c>
+        <v>-9.5182947406990905</v>
+      </c>
+      <c r="V144" s="17">
+        <v>5.7031559684063211</v>
+      </c>
+      <c r="W144" s="17"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
@@ -7224,11 +7232,12 @@
         <v>-1.5857380302045812</v>
       </c>
       <c r="U146" s="17">
-        <v>-30.063744306176545</v>
-      </c>
-      <c r="V146" s="43">
-        <v>-50.226187165271455</v>
-      </c>
+        <v>-31.107599176893771</v>
+      </c>
+      <c r="V146" s="17">
+        <v>-51.330971752720437</v>
+      </c>
+      <c r="W146" s="17"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
@@ -7313,11 +7322,12 @@
         <v>5.3763346477941951</v>
       </c>
       <c r="U148" s="17">
-        <v>-11.416587027735872</v>
-      </c>
-      <c r="V148" s="43">
-        <v>1.6327624629472552</v>
-      </c>
+        <v>-11.460692442705906</v>
+      </c>
+      <c r="V148" s="17">
+        <v>1.7104299715204832</v>
+      </c>
+      <c r="W148" s="17"/>
     </row>
     <row r="149" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
@@ -7341,8 +7351,8 @@
       <c r="S149" s="15"/>
       <c r="T149" s="15"/>
       <c r="U149" s="15"/>
-      <c r="V149" s="41"/>
-      <c r="W149" s="41"/>
+      <c r="V149" s="15"/>
+      <c r="W149" s="15"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
@@ -7361,7 +7371,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
@@ -7374,7 +7384,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
@@ -7476,10 +7486,10 @@
       <c r="U161" s="9">
         <v>2019</v>
       </c>
-      <c r="V161" s="38">
+      <c r="V161" s="9">
         <v>2020</v>
       </c>
-      <c r="W161" s="38">
+      <c r="W161" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -7547,11 +7557,11 @@
       <c r="U163" s="17">
         <v>101.85976066563664</v>
       </c>
-      <c r="V163" s="43">
-        <v>104.37349724796286</v>
-      </c>
-      <c r="W163" s="43">
-        <v>108.56853137963492</v>
+      <c r="V163" s="17">
+        <v>104.37381168011051</v>
+      </c>
+      <c r="W163" s="17">
+        <v>108.57291985527991</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
@@ -7618,11 +7628,11 @@
       <c r="U164" s="17">
         <v>101.39890253499924</v>
       </c>
-      <c r="V164" s="43">
+      <c r="V164" s="17">
         <v>103.31070589232905</v>
       </c>
-      <c r="W164" s="43">
-        <v>106.36428500257213</v>
+      <c r="W164" s="17">
+        <v>106.37817447077225</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7689,11 +7699,11 @@
       <c r="U165" s="17">
         <v>100.40370760721918</v>
       </c>
-      <c r="V165" s="43">
-        <v>92.620994309841791</v>
-      </c>
-      <c r="W165" s="43">
-        <v>102.22718248838265</v>
+      <c r="V165" s="17">
+        <v>92.705006284479495</v>
+      </c>
+      <c r="W165" s="17">
+        <v>101.25315211696237</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
@@ -7760,11 +7770,11 @@
       <c r="U166" s="17">
         <v>102.40710524605028</v>
       </c>
-      <c r="V166" s="43">
-        <v>101.66270491719136</v>
-      </c>
-      <c r="W166" s="43">
-        <v>104.5917247676998</v>
+      <c r="V166" s="17">
+        <v>101.65612486065889</v>
+      </c>
+      <c r="W166" s="17">
+        <v>104.62445825909063</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
@@ -7831,11 +7841,11 @@
       <c r="U167" s="17">
         <v>102.63688793153393</v>
       </c>
-      <c r="V167" s="43">
-        <v>103.99353673012865</v>
-      </c>
-      <c r="W167" s="43">
-        <v>107.64683353862587</v>
+      <c r="V167" s="17">
+        <v>103.98831049786084</v>
+      </c>
+      <c r="W167" s="17">
+        <v>107.65524245471975</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.25">
@@ -7902,11 +7912,11 @@
       <c r="U168" s="17">
         <v>101.92622664130344</v>
       </c>
-      <c r="V168" s="43">
-        <v>94.244803189496906</v>
-      </c>
-      <c r="W168" s="43">
-        <v>95.477996840908759</v>
+      <c r="V168" s="17">
+        <v>94.24412370594554</v>
+      </c>
+      <c r="W168" s="17">
+        <v>95.517740494502576</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
@@ -7973,11 +7983,11 @@
       <c r="U169" s="17">
         <v>103.59039993288069</v>
       </c>
-      <c r="V169" s="43">
-        <v>108.21091345768048</v>
-      </c>
-      <c r="W169" s="43">
-        <v>113.51428603150227</v>
+      <c r="V169" s="17">
+        <v>108.22607348396028</v>
+      </c>
+      <c r="W169" s="17">
+        <v>113.51645519268361</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
@@ -8044,11 +8054,11 @@
       <c r="U170" s="17">
         <v>98.663455629870683</v>
       </c>
-      <c r="V170" s="43">
-        <v>99.016372575695669</v>
-      </c>
-      <c r="W170" s="43">
-        <v>99.828771989482391</v>
+      <c r="V170" s="17">
+        <v>98.778551353426863</v>
+      </c>
+      <c r="W170" s="17">
+        <v>99.960620718023947</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
@@ -8075,8 +8085,8 @@
       <c r="S171" s="17"/>
       <c r="T171" s="17"/>
       <c r="U171" s="17"/>
-      <c r="V171" s="43"/>
-      <c r="W171" s="43"/>
+      <c r="V171" s="17"/>
+      <c r="W171" s="17"/>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
@@ -8142,11 +8152,11 @@
       <c r="U172" s="17">
         <v>104.58435464919118</v>
       </c>
-      <c r="V172" s="43">
+      <c r="V172" s="17">
         <v>133.24310152382563</v>
       </c>
-      <c r="W172" s="43">
-        <v>138.94871096491852</v>
+      <c r="W172" s="17">
+        <v>136.74824703462124</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8213,11 +8223,11 @@
       <c r="U173" s="17">
         <v>97.805392073809941</v>
       </c>
-      <c r="V173" s="43">
-        <v>95.254186439582512</v>
-      </c>
-      <c r="W173" s="43">
-        <v>97.427115068233519</v>
+      <c r="V173" s="17">
+        <v>95.255204760526397</v>
+      </c>
+      <c r="W173" s="17">
+        <v>97.439889180533356</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
@@ -8284,11 +8294,11 @@
       <c r="U174" s="17">
         <v>94.387440651056266</v>
       </c>
-      <c r="V174" s="43">
+      <c r="V174" s="17">
         <v>89.562655577843941</v>
       </c>
-      <c r="W174" s="43">
-        <v>91.681341180829008</v>
+      <c r="W174" s="17">
+        <v>91.681740240084309</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
@@ -8355,11 +8365,11 @@
       <c r="U175" s="17">
         <v>101.98667026390085</v>
       </c>
-      <c r="V175" s="43">
-        <v>103.81531475116014</v>
-      </c>
-      <c r="W175" s="43">
-        <v>106.87225004791989</v>
+      <c r="V175" s="17">
+        <v>103.79010693759332</v>
+      </c>
+      <c r="W175" s="17">
+        <v>106.84526953338103</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8426,11 +8436,11 @@
       <c r="U176" s="17">
         <v>100.71104126645487</v>
       </c>
-      <c r="V176" s="43">
-        <v>96.222808442448397</v>
-      </c>
-      <c r="W176" s="43">
-        <v>105.46076821214734</v>
+      <c r="V176" s="17">
+        <v>96.214452429388714</v>
+      </c>
+      <c r="W176" s="17">
+        <v>105.49625270810255</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
@@ -8497,11 +8507,11 @@
       <c r="U177" s="17">
         <v>100.52431279487557</v>
       </c>
-      <c r="V177" s="43">
+      <c r="V177" s="17">
         <v>95.212738638994878</v>
       </c>
-      <c r="W177" s="43">
-        <v>106.24969018072076</v>
+      <c r="W177" s="17">
+        <v>106.24506295238199</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
@@ -8568,11 +8578,11 @@
       <c r="U178" s="17">
         <v>101.48172512989318</v>
       </c>
-      <c r="V178" s="43">
-        <v>100.76482500679576</v>
-      </c>
-      <c r="W178" s="43">
-        <v>100.85109412023226</v>
+      <c r="V178" s="17">
+        <v>100.71387117937604</v>
+      </c>
+      <c r="W178" s="17">
+        <v>101.10022162212056</v>
       </c>
     </row>
     <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -8596,8 +8606,8 @@
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
       <c r="U179" s="17"/>
-      <c r="V179" s="43"/>
-      <c r="W179" s="43"/>
+      <c r="V179" s="17"/>
+      <c r="W179" s="17"/>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
@@ -8620,8 +8630,8 @@
       <c r="S180" s="17"/>
       <c r="T180" s="17"/>
       <c r="U180" s="17"/>
-      <c r="V180" s="43"/>
-      <c r="W180" s="43"/>
+      <c r="V180" s="17"/>
+      <c r="W180" s="17"/>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
@@ -8687,11 +8697,11 @@
       <c r="U181" s="17">
         <v>100.69707629720597</v>
       </c>
-      <c r="V181" s="43">
-        <v>102.34690948298311</v>
-      </c>
-      <c r="W181" s="43">
-        <v>104.74809135022815</v>
+      <c r="V181" s="17">
+        <v>102.35907166034491</v>
+      </c>
+      <c r="W181" s="17">
+        <v>104.70661175005954</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
@@ -8715,8 +8725,8 @@
       <c r="S182" s="17"/>
       <c r="T182" s="17"/>
       <c r="U182" s="17"/>
-      <c r="V182" s="43"/>
-      <c r="W182" s="43"/>
+      <c r="V182" s="17"/>
+      <c r="W182" s="17"/>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -8782,11 +8792,11 @@
       <c r="U183" s="17">
         <v>101.97858989277231</v>
       </c>
-      <c r="V183" s="43">
-        <v>103.06596887646498</v>
-      </c>
-      <c r="W183" s="43">
-        <v>107.34876515014591</v>
+      <c r="V183" s="17">
+        <v>103.04917608820941</v>
+      </c>
+      <c r="W183" s="17">
+        <v>107.99265086612068</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
@@ -8810,8 +8820,8 @@
       <c r="S184" s="17"/>
       <c r="T184" s="17"/>
       <c r="U184" s="17"/>
-      <c r="V184" s="43"/>
-      <c r="W184" s="43"/>
+      <c r="V184" s="17"/>
+      <c r="W184" s="17"/>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -8877,11 +8887,11 @@
       <c r="U185" s="17">
         <v>100.81237454919344</v>
       </c>
-      <c r="V185" s="43">
-        <v>102.39798517238154</v>
-      </c>
-      <c r="W185" s="43">
-        <v>104.8385609222416</v>
+      <c r="V185" s="17">
+        <v>102.40738304862762</v>
+      </c>
+      <c r="W185" s="17">
+        <v>104.81668825131891</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -8906,8 +8916,8 @@
       <c r="S186" s="15"/>
       <c r="T186" s="15"/>
       <c r="U186" s="15"/>
-      <c r="V186" s="41"/>
-      <c r="W186" s="41"/>
+      <c r="V186" s="15"/>
+      <c r="W186" s="15"/>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
@@ -8926,7 +8936,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
@@ -8939,7 +8949,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
@@ -9041,10 +9051,10 @@
       <c r="U199" s="9">
         <v>2019</v>
       </c>
-      <c r="V199" s="38">
+      <c r="V199" s="9">
         <v>2020</v>
       </c>
-      <c r="W199" s="38">
+      <c r="W199" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -9112,11 +9122,11 @@
       <c r="U201" s="17">
         <v>73.20643933857302</v>
       </c>
-      <c r="V201" s="43">
-        <v>75.136869752804614</v>
-      </c>
-      <c r="W201" s="43">
-        <v>75.356273345789432</v>
+      <c r="V201" s="17">
+        <v>75.069048066255235</v>
+      </c>
+      <c r="W201" s="17">
+        <v>75.269044852230806</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
@@ -9183,11 +9193,11 @@
       <c r="U202" s="17">
         <v>12.467754430458708</v>
       </c>
-      <c r="V202" s="43">
-        <v>15.278706307140849</v>
-      </c>
-      <c r="W202" s="43">
-        <v>15.571980197192891</v>
+      <c r="V202" s="17">
+        <v>15.261454587485037</v>
+      </c>
+      <c r="W202" s="17">
+        <v>15.564203019420464</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9254,11 +9264,11 @@
       <c r="U203" s="17">
         <v>26.401808464862476</v>
       </c>
-      <c r="V203" s="43">
-        <v>17.383076194159646</v>
-      </c>
-      <c r="W203" s="43">
-        <v>21.123224837780565</v>
+      <c r="V203" s="17">
+        <v>17.433379028045145</v>
+      </c>
+      <c r="W203" s="17">
+        <v>21.183755291616631</v>
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
@@ -9325,11 +9335,11 @@
       <c r="U204" s="17">
         <v>27.155125213001142</v>
       </c>
-      <c r="V204" s="43">
-        <v>21.278442113375821</v>
-      </c>
-      <c r="W204" s="43">
-        <v>22.196011649021205</v>
+      <c r="V204" s="17">
+        <v>21.302262064147431</v>
+      </c>
+      <c r="W204" s="17">
+        <v>22.293439429088632</v>
       </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
@@ -9396,11 +9406,11 @@
       <c r="U205" s="17">
         <v>16.859064261627566</v>
       </c>
-      <c r="V205" s="43">
-        <v>12.9493916521693</v>
-      </c>
-      <c r="W205" s="43">
-        <v>13.715959586980944</v>
+      <c r="V205" s="17">
+        <v>12.990354693979494</v>
+      </c>
+      <c r="W205" s="17">
+        <v>13.818002508415333</v>
       </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
@@ -9467,11 +9477,11 @@
       <c r="U206" s="17">
         <v>7.4391573594812455</v>
       </c>
-      <c r="V206" s="43">
-        <v>5.261377837748288</v>
-      </c>
-      <c r="W206" s="43">
-        <v>5.5190131082556011</v>
+      <c r="V206" s="17">
+        <v>5.2581909359378391</v>
+      </c>
+      <c r="W206" s="17">
+        <v>5.5276423208248433</v>
       </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
@@ -9538,11 +9548,11 @@
       <c r="U207" s="17">
         <v>2.1422364122650244</v>
       </c>
-      <c r="V207" s="43">
-        <v>2.3597836385823872</v>
-      </c>
-      <c r="W207" s="43">
-        <v>2.2073083267869729</v>
+      <c r="V207" s="17">
+        <v>2.3504690239338046</v>
+      </c>
+      <c r="W207" s="17">
+        <v>2.2044288932969263</v>
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
@@ -9609,11 +9619,11 @@
       <c r="U208" s="17">
         <v>0.71466717962730875</v>
       </c>
-      <c r="V208" s="43">
-        <v>0.70788898487584573</v>
-      </c>
-      <c r="W208" s="43">
-        <v>0.75373062699768645</v>
+      <c r="V208" s="17">
+        <v>0.7032474102962929</v>
+      </c>
+      <c r="W208" s="17">
+        <v>0.74336570655152689</v>
       </c>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
@@ -9680,11 +9690,11 @@
       <c r="U209" s="17">
         <v>-0.76097623312147844</v>
       </c>
-      <c r="V209" s="43">
-        <v>-3.9006000902113711</v>
-      </c>
-      <c r="W209" s="43">
-        <v>-1.0782463804535589</v>
+      <c r="V209" s="17">
+        <v>-3.8741134192468802</v>
+      </c>
+      <c r="W209" s="17">
+        <v>-1.1150540384086973</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
@@ -9751,11 +9761,11 @@
       <c r="U210" s="17">
         <v>7.6594849828080132E-3</v>
       </c>
-      <c r="V210" s="43">
-        <v>5.234170995192515E-3</v>
-      </c>
-      <c r="W210" s="43">
-        <v>5.4595692129207713E-3</v>
+      <c r="V210" s="17">
+        <v>5.2303831445935393E-3</v>
+      </c>
+      <c r="W210" s="17">
+        <v>5.3699009366938505E-3</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9822,11 +9832,11 @@
       <c r="U211" s="17">
         <v>28.382920012841012</v>
       </c>
-      <c r="V211" s="43">
-        <v>25.188108907362828</v>
-      </c>
-      <c r="W211" s="43">
-        <v>25.704779921566534</v>
+      <c r="V211" s="17">
+        <v>25.202839310007185</v>
+      </c>
+      <c r="W211" s="17">
+        <v>25.742283890887485</v>
       </c>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
@@ -9893,11 +9903,11 @@
       <c r="U212" s="17">
         <v>15.071205139339483</v>
       </c>
-      <c r="V212" s="43">
-        <v>14.225697148824965</v>
-      </c>
-      <c r="W212" s="43">
-        <v>15.039708381116828</v>
+      <c r="V212" s="17">
+        <v>14.215402335087409</v>
+      </c>
+      <c r="W212" s="17">
+        <v>15.023433909530079</v>
       </c>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
@@ -9964,11 +9974,11 @@
       <c r="U213" s="17">
         <v>13.311714873501529</v>
       </c>
-      <c r="V213" s="43">
-        <v>10.962411758537865</v>
-      </c>
-      <c r="W213" s="43">
-        <v>10.665071540449702</v>
+      <c r="V213" s="17">
+        <v>10.987436974919779</v>
+      </c>
+      <c r="W213" s="17">
+        <v>10.718849981357401</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10035,11 +10045,11 @@
       <c r="U214" s="17">
         <v>40.458922246735234</v>
       </c>
-      <c r="V214" s="43">
-        <v>32.986761161467932</v>
-      </c>
-      <c r="W214" s="43">
-        <v>37.771497881828239</v>
+      <c r="V214" s="17">
+        <v>32.966720991792627</v>
+      </c>
+      <c r="W214" s="17">
+        <v>37.759287054155379</v>
       </c>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
@@ -10106,11 +10116,11 @@
       <c r="U215" s="17">
         <v>32.507650638693612</v>
       </c>
-      <c r="V215" s="43">
-        <v>26.702332841294922</v>
-      </c>
-      <c r="W215" s="43">
-        <v>32.493039427767805</v>
+      <c r="V215" s="17">
+        <v>26.683008969847116</v>
+      </c>
+      <c r="W215" s="17">
+        <v>32.492586197443451</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
@@ -10177,11 +10187,11 @@
       <c r="U216" s="17">
         <v>7.9512716080416208</v>
       </c>
-      <c r="V216" s="43">
-        <v>6.2844283201730082</v>
-      </c>
-      <c r="W216" s="43">
-        <v>5.2784584540604387</v>
+      <c r="V216" s="17">
+        <v>6.2837120219455089</v>
+      </c>
+      <c r="W216" s="17">
+        <v>5.2667008567119211</v>
       </c>
     </row>
     <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -10205,8 +10215,8 @@
       <c r="S217" s="17"/>
       <c r="T217" s="17"/>
       <c r="U217" s="17"/>
-      <c r="V217" s="43"/>
-      <c r="W217" s="43"/>
+      <c r="V217" s="17"/>
+      <c r="W217" s="17"/>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B218" s="17"/>
@@ -10229,8 +10239,8 @@
       <c r="S218" s="17"/>
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
-      <c r="V218" s="43"/>
-      <c r="W218" s="43"/>
+      <c r="V218" s="17"/>
+      <c r="W218" s="17"/>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
@@ -10296,10 +10306,10 @@
       <c r="U219" s="17">
         <v>100</v>
       </c>
-      <c r="V219" s="43">
+      <c r="V219" s="17">
         <v>100</v>
       </c>
-      <c r="W219" s="43">
+      <c r="W219" s="17">
         <v>100</v>
       </c>
     </row>
@@ -10367,11 +10377,11 @@
       <c r="U220" s="17">
         <v>90.898883716745132</v>
       </c>
-      <c r="V220" s="43">
-        <v>92.850538166992791</v>
-      </c>
-      <c r="W220" s="43">
-        <v>96.438010331614691</v>
+      <c r="V220" s="17">
+        <v>92.955535915064161</v>
+      </c>
+      <c r="W220" s="17">
+        <v>96.548676596540901</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
@@ -10438,11 +10448,11 @@
       <c r="U221" s="17">
         <v>9.1011162832548731</v>
       </c>
-      <c r="V221" s="43">
-        <v>7.1494618330072148</v>
-      </c>
-      <c r="W221" s="43">
-        <v>3.5619896683852912</v>
+      <c r="V221" s="17">
+        <v>7.0444640849358446</v>
+      </c>
+      <c r="W221" s="17">
+        <v>3.4513234034590954</v>
       </c>
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
@@ -10466,8 +10476,8 @@
       <c r="S222" s="17"/>
       <c r="T222" s="17"/>
       <c r="U222" s="17"/>
-      <c r="V222" s="43"/>
-      <c r="W222" s="43"/>
+      <c r="V222" s="17"/>
+      <c r="W222" s="17"/>
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -10533,10 +10543,10 @@
       <c r="U223" s="17">
         <v>100</v>
       </c>
-      <c r="V223" s="43">
+      <c r="V223" s="17">
         <v>100</v>
       </c>
-      <c r="W223" s="43">
+      <c r="W223" s="17">
         <v>100</v>
       </c>
     </row>
@@ -10562,8 +10572,8 @@
       <c r="S224" s="15"/>
       <c r="T224" s="15"/>
       <c r="U224" s="15"/>
-      <c r="V224" s="41"/>
-      <c r="W224" s="41"/>
+      <c r="V224" s="15"/>
+      <c r="W224" s="15"/>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
@@ -10582,7 +10592,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
@@ -10595,7 +10605,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
@@ -10697,10 +10707,10 @@
       <c r="U237" s="9">
         <v>2019</v>
       </c>
-      <c r="V237" s="38">
+      <c r="V237" s="9">
         <v>2020</v>
       </c>
-      <c r="W237" s="38">
+      <c r="W237" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -10768,11 +10778,11 @@
       <c r="U239" s="17">
         <v>72.370820030897377</v>
       </c>
-      <c r="V239" s="43">
-        <v>73.677960499451189</v>
-      </c>
-      <c r="W239" s="43">
-        <v>72.704546187848209</v>
+      <c r="V239" s="17">
+        <v>73.619981361205362</v>
+      </c>
+      <c r="W239" s="17">
+        <v>72.588695842806743</v>
       </c>
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.25">
@@ -10839,11 +10849,11 @@
       <c r="U240" s="17">
         <v>12.381459638632544</v>
       </c>
-      <c r="V240" s="43">
-        <v>15.136169653740952</v>
-      </c>
-      <c r="W240" s="43">
-        <v>15.335365664894567</v>
+      <c r="V240" s="17">
+        <v>15.12087552077671</v>
+      </c>
+      <c r="W240" s="17">
+        <v>15.319636484280158</v>
       </c>
     </row>
     <row r="241" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10910,11 +10920,11 @@
       <c r="U241" s="17">
         <v>26.478951671495032</v>
       </c>
-      <c r="V241" s="43">
-        <v>19.208432591728396</v>
-      </c>
-      <c r="W241" s="43">
-        <v>21.644120781385077</v>
+      <c r="V241" s="17">
+        <v>19.248847119838651</v>
+      </c>
+      <c r="W241" s="17">
+        <v>21.906273477445541</v>
       </c>
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.25">
@@ -10981,11 +10991,11 @@
       <c r="U242" s="17">
         <v>26.701679623340606</v>
       </c>
-      <c r="V242" s="43">
-        <v>21.421649076625179</v>
-      </c>
-      <c r="W242" s="43">
-        <v>22.22919510110621</v>
+      <c r="V242" s="17">
+        <v>21.449566094913809</v>
+      </c>
+      <c r="W242" s="17">
+        <v>22.310944741950255</v>
       </c>
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.25">
@@ -11052,11 +11062,11 @@
       <c r="U243" s="17">
         <v>16.540432143510312</v>
       </c>
-      <c r="V243" s="43">
-        <v>12.744351783357496</v>
-      </c>
-      <c r="W243" s="43">
-        <v>13.346612627092217</v>
+      <c r="V243" s="17">
+        <v>12.786828064118785</v>
+      </c>
+      <c r="W243" s="17">
+        <v>13.439533373570157</v>
       </c>
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.25">
@@ -11123,11 +11133,11 @@
       <c r="U244" s="17">
         <v>7.3494469568742655</v>
       </c>
-      <c r="V244" s="43">
-        <v>5.7136918226999791</v>
-      </c>
-      <c r="W244" s="43">
-        <v>6.0548619404944155</v>
+      <c r="V244" s="17">
+        <v>5.7109506847850575</v>
+      </c>
+      <c r="W244" s="17">
+        <v>6.059405251667525</v>
       </c>
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.25">
@@ -11194,11 +11204,11 @@
       <c r="U245" s="17">
         <v>2.0824028442044189</v>
       </c>
-      <c r="V245" s="43">
-        <v>2.2319057730888594</v>
-      </c>
-      <c r="W245" s="43">
-        <v>2.0368478923281588</v>
+      <c r="V245" s="17">
+        <v>2.2230486564951315</v>
+      </c>
+      <c r="W245" s="17">
+        <v>2.0333464418815947</v>
       </c>
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.25">
@@ -11265,11 +11275,11 @@
       <c r="U246" s="17">
         <v>0.72939767875160977</v>
       </c>
-      <c r="V246" s="43">
-        <v>0.73169969747884345</v>
-      </c>
-      <c r="W246" s="43">
-        <v>0.7908726411914242</v>
+      <c r="V246" s="17">
+        <v>0.72873868951483589</v>
+      </c>
+      <c r="W246" s="17">
+        <v>0.77865967483097953</v>
       </c>
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.25">
@@ -11336,11 +11346,11 @@
       <c r="U247" s="17">
         <v>-0.23010274271461187</v>
       </c>
-      <c r="V247" s="43">
-        <v>-2.2172369648986523</v>
-      </c>
-      <c r="W247" s="43">
-        <v>-0.58919007905907195</v>
+      <c r="V247" s="17">
+        <v>-2.2047370229664609</v>
+      </c>
+      <c r="W247" s="17">
+        <v>-0.40878293792435821</v>
       </c>
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.25">
@@ -11407,11 +11417,11 @@
       <c r="U248" s="17">
         <v>7.3747908690383326E-3</v>
       </c>
-      <c r="V248" s="43">
-        <v>4.0204800018681149E-3</v>
-      </c>
-      <c r="W248" s="43">
-        <v>4.1157593379351695E-3</v>
+      <c r="V248" s="17">
+        <v>4.0180478913032338E-3</v>
+      </c>
+      <c r="W248" s="17">
+        <v>4.1116734196404931E-3</v>
       </c>
     </row>
     <row r="249" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11478,11 +11488,11 @@
       <c r="U249" s="17">
         <v>29.222080720392857</v>
       </c>
-      <c r="V249" s="43">
-        <v>27.063640966840875</v>
-      </c>
-      <c r="W249" s="43">
-        <v>27.636316989126065</v>
+      <c r="V249" s="17">
+        <v>27.082396615100478</v>
+      </c>
+      <c r="W249" s="17">
+        <v>27.662052446806918</v>
       </c>
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.25">
@@ -11549,11 +11559,11 @@
       <c r="U250" s="17">
         <v>16.078688894823078</v>
       </c>
-      <c r="V250" s="43">
-        <v>16.256285937811057</v>
-      </c>
-      <c r="W250" s="43">
-        <v>17.183221003266006</v>
+      <c r="V250" s="17">
+        <v>16.246452016300019</v>
+      </c>
+      <c r="W250" s="17">
+        <v>17.157755267281548</v>
       </c>
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.25">
@@ -11620,11 +11630,11 @@
       <c r="U251" s="17">
         <v>13.143391825569777</v>
       </c>
-      <c r="V251" s="43">
-        <v>10.807355029029821</v>
-      </c>
-      <c r="W251" s="43">
-        <v>10.453095985860058</v>
+      <c r="V251" s="17">
+        <v>10.835944598800465</v>
+      </c>
+      <c r="W251" s="17">
+        <v>10.504297179525372</v>
       </c>
     </row>
     <row r="252" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11691,11 +11701,11 @@
       <c r="U252" s="17">
         <v>40.453312061417776</v>
       </c>
-      <c r="V252" s="43">
-        <v>35.086203711761421</v>
-      </c>
-      <c r="W252" s="43">
-        <v>37.516247772837403</v>
+      <c r="V252" s="17">
+        <v>35.07210061692119</v>
+      </c>
+      <c r="W252" s="17">
+        <v>37.47665825133938</v>
       </c>
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.25">
@@ -11762,11 +11772,11 @@
       <c r="U253" s="17">
         <v>32.563519069133257</v>
       </c>
-      <c r="V253" s="43">
-        <v>28.703105081920459</v>
-      </c>
-      <c r="W253" s="43">
-        <v>32.033823876918703</v>
+      <c r="V253" s="17">
+        <v>28.685741701159412</v>
+      </c>
+      <c r="W253" s="17">
+        <v>32.022086609858597</v>
       </c>
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.25">
@@ -11833,11 +11843,11 @@
       <c r="U254" s="17">
         <v>7.8897929922845149</v>
       </c>
-      <c r="V254" s="43">
-        <v>6.383098629840962</v>
-      </c>
-      <c r="W254" s="43">
-        <v>5.4824238959186973</v>
+      <c r="V254" s="17">
+        <v>6.3863589157617753</v>
+      </c>
+      <c r="W254" s="17">
+        <v>5.4545716414807837</v>
       </c>
     </row>
     <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -11861,8 +11871,8 @@
       <c r="S255" s="17"/>
       <c r="T255" s="17"/>
       <c r="U255" s="17"/>
-      <c r="V255" s="43"/>
-      <c r="W255" s="43"/>
+      <c r="V255" s="17"/>
+      <c r="W255" s="17"/>
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B256" s="17"/>
@@ -11885,8 +11895,8 @@
       <c r="S256" s="17"/>
       <c r="T256" s="17"/>
       <c r="U256" s="17"/>
-      <c r="V256" s="43"/>
-      <c r="W256" s="43"/>
+      <c r="V256" s="17"/>
+      <c r="W256" s="17"/>
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
@@ -11952,10 +11962,10 @@
       <c r="U257" s="17">
         <v>100</v>
       </c>
-      <c r="V257" s="43">
+      <c r="V257" s="17">
         <v>100</v>
       </c>
-      <c r="W257" s="43">
+      <c r="W257" s="17">
         <v>100</v>
       </c>
     </row>
@@ -12023,11 +12033,11 @@
       <c r="U258" s="17">
         <v>91.002963028533884</v>
       </c>
-      <c r="V258" s="43">
-        <v>92.896874741998829</v>
-      </c>
-      <c r="W258" s="43">
-        <v>96.521302594109088</v>
+      <c r="V258" s="17">
+        <v>92.99940902680477</v>
+      </c>
+      <c r="W258" s="17">
+        <v>96.650176782091165</v>
       </c>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.25">
@@ -12094,11 +12104,11 @@
       <c r="U259" s="17">
         <v>8.9970369714661178</v>
       </c>
-      <c r="V259" s="43">
-        <v>7.1031252580011666</v>
-      </c>
-      <c r="W259" s="43">
-        <v>3.4786974058909221</v>
+      <c r="V259" s="17">
+        <v>7.0005909731952354</v>
+      </c>
+      <c r="W259" s="17">
+        <v>3.3498232179088276</v>
       </c>
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.25">
@@ -12122,8 +12132,8 @@
       <c r="S260" s="17"/>
       <c r="T260" s="17"/>
       <c r="U260" s="17"/>
-      <c r="V260" s="43"/>
-      <c r="W260" s="43"/>
+      <c r="V260" s="17"/>
+      <c r="W260" s="17"/>
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
@@ -12189,10 +12199,10 @@
       <c r="U261" s="17">
         <v>100</v>
       </c>
-      <c r="V261" s="43">
+      <c r="V261" s="17">
         <v>100</v>
       </c>
-      <c r="W261" s="43">
+      <c r="W261" s="17">
         <v>100</v>
       </c>
     </row>
@@ -12218,8 +12228,8 @@
       <c r="S262" s="15"/>
       <c r="T262" s="15"/>
       <c r="U262" s="15"/>
-      <c r="V262" s="41"/>
-      <c r="W262" s="41"/>
+      <c r="V262" s="15"/>
+      <c r="W262" s="15"/>
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
@@ -12238,7 +12248,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.25">
@@ -12251,7 +12261,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.25">
@@ -12353,10 +12363,10 @@
       <c r="U275" s="9">
         <v>2019</v>
       </c>
-      <c r="V275" s="38">
+      <c r="V275" s="9">
         <v>2020</v>
       </c>
-      <c r="W275" s="38">
+      <c r="W275" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -12424,11 +12434,11 @@
       <c r="U277" s="11">
         <v>1721538.7202586958</v>
       </c>
-      <c r="V277" s="39">
-        <v>1827010.1925432752</v>
-      </c>
-      <c r="W277" s="39">
-        <v>1953776.0783524239</v>
+      <c r="V277" s="11">
+        <v>1828423.6032281048</v>
+      </c>
+      <c r="W277" s="11">
+        <v>1954344.6438962959</v>
       </c>
     </row>
     <row r="278" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12495,11 +12505,11 @@
       <c r="U278" s="19">
         <v>5919281.4913050616</v>
       </c>
-      <c r="V278" s="44">
-        <v>5094221.5462210681</v>
-      </c>
-      <c r="W278" s="44">
-        <v>5595945.8269927409</v>
+      <c r="V278" s="19">
+        <v>5098232.0991026135</v>
+      </c>
+      <c r="W278" s="19">
+        <v>5607010.531934266</v>
       </c>
     </row>
     <row r="279" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -12566,11 +12576,11 @@
       <c r="U279" s="11">
         <v>161656.37307356353</v>
       </c>
-      <c r="V279" s="39">
-        <v>136038.60476567756</v>
-      </c>
-      <c r="W279" s="39">
-        <v>179865.61675629864</v>
+      <c r="V279" s="11">
+        <v>137060.31532439179</v>
+      </c>
+      <c r="W279" s="11">
+        <v>185284.0195989607</v>
       </c>
     </row>
     <row r="280" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -12637,11 +12647,11 @@
       <c r="U280" s="11">
         <v>3614016.2341033733</v>
       </c>
-      <c r="V280" s="39">
-        <v>3170116.5732869897</v>
-      </c>
-      <c r="W280" s="39">
-        <v>3425695.6826569373</v>
+      <c r="V280" s="11">
+        <v>3169921.0028569633</v>
+      </c>
+      <c r="W280" s="11">
+        <v>3423403.8608815088</v>
       </c>
     </row>
     <row r="281" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -12708,11 +12718,11 @@
       <c r="U281" s="11">
         <v>607881.48300037195</v>
       </c>
-      <c r="V281" s="39">
-        <v>610952.76336989261</v>
-      </c>
-      <c r="W281" s="39">
-        <v>650878.2717242263</v>
+      <c r="V281" s="11">
+        <v>611051.34682367067</v>
+      </c>
+      <c r="W281" s="11">
+        <v>650876.38772540353</v>
       </c>
     </row>
     <row r="282" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -12779,11 +12789,11 @@
       <c r="U282" s="11">
         <v>1535727.4011277531</v>
       </c>
-      <c r="V282" s="39">
-        <v>1177113.6047985088</v>
-      </c>
-      <c r="W282" s="39">
-        <v>1339506.2558552786</v>
+      <c r="V282" s="11">
+        <v>1180199.4340975878</v>
+      </c>
+      <c r="W282" s="11">
+        <v>1347446.2637283925</v>
       </c>
     </row>
     <row r="283" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12850,11 +12860,11 @@
       <c r="U283" s="19">
         <v>11877042.96011826</v>
       </c>
-      <c r="V283" s="44">
-        <v>11017350.685417993</v>
-      </c>
-      <c r="W283" s="44">
-        <v>11837487.738385253</v>
+      <c r="V283" s="19">
+        <v>11024917.867682004</v>
+      </c>
+      <c r="W283" s="19">
+        <v>11849212.879294824</v>
       </c>
     </row>
     <row r="284" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -12921,11 +12931,11 @@
       <c r="U284" s="11">
         <v>3517653.0828562537</v>
       </c>
-      <c r="V284" s="39">
-        <v>3321007.3908340735</v>
-      </c>
-      <c r="W284" s="39">
-        <v>3512790.0259652114</v>
+      <c r="V284" s="11">
+        <v>3317370.6808587098</v>
+      </c>
+      <c r="W284" s="11">
+        <v>3503236.4795489539</v>
       </c>
     </row>
     <row r="285" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -12992,11 +13002,11 @@
       <c r="U285" s="11">
         <v>757661.34826561401</v>
       </c>
-      <c r="V285" s="39">
-        <v>548973.31998328003</v>
-      </c>
-      <c r="W285" s="39">
-        <v>602112.80233723461</v>
+      <c r="V285" s="11">
+        <v>551044.59119243571</v>
+      </c>
+      <c r="W285" s="11">
+        <v>604918.63559708791</v>
       </c>
     </row>
     <row r="286" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -13063,11 +13073,11 @@
       <c r="U286" s="11">
         <v>431777.67931157432</v>
       </c>
-      <c r="V286" s="39">
-        <v>253656.17820532768</v>
-      </c>
-      <c r="W286" s="39">
-        <v>287715.97265334794</v>
+      <c r="V286" s="11">
+        <v>253013.23124708817</v>
+      </c>
+      <c r="W286" s="11">
+        <v>285243.90524709283</v>
       </c>
     </row>
     <row r="287" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -13134,11 +13144,11 @@
       <c r="U287" s="11">
         <v>562833.69035834156</v>
       </c>
-      <c r="V287" s="39">
-        <v>592818.4840500612</v>
-      </c>
-      <c r="W287" s="39">
-        <v>638752.83705136471</v>
+      <c r="V287" s="11">
+        <v>593039.37525735202</v>
+      </c>
+      <c r="W287" s="11">
+        <v>640192.21890989167</v>
       </c>
     </row>
     <row r="288" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -13205,11 +13215,11 @@
       <c r="U288" s="11">
         <v>1681870.098085878</v>
       </c>
-      <c r="V288" s="39">
-        <v>1822567.8775339834</v>
-      </c>
-      <c r="W288" s="39">
-        <v>1957059.5656067664</v>
+      <c r="V288" s="11">
+        <v>1823978.7216463271</v>
+      </c>
+      <c r="W288" s="11">
+        <v>1961921.5221756808</v>
       </c>
     </row>
     <row r="289" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -13276,11 +13286,11 @@
       <c r="U289" s="11">
         <v>1255643.6165043227</v>
       </c>
-      <c r="V289" s="39">
-        <v>1078017.2360857935</v>
-      </c>
-      <c r="W289" s="39">
-        <v>1134609.3932581136</v>
+      <c r="V289" s="11">
+        <v>1081612.1930010803</v>
+      </c>
+      <c r="W289" s="11">
+        <v>1138901.0906580149</v>
       </c>
     </row>
     <row r="290" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -13347,11 +13357,11 @@
       <c r="U290" s="11">
         <v>1219756.8056329405</v>
       </c>
-      <c r="V290" s="39">
-        <v>1132869.1223102962</v>
-      </c>
-      <c r="W290" s="39">
-        <v>1214733.8362008277</v>
+      <c r="V290" s="11">
+        <v>1137558.010549481</v>
+      </c>
+      <c r="W290" s="11">
+        <v>1220837.471216304</v>
       </c>
     </row>
     <row r="291" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
@@ -13418,11 +13428,11 @@
       <c r="U291" s="11">
         <v>890687.72424688854</v>
       </c>
-      <c r="V291" s="39">
-        <v>950763.26706530317</v>
-      </c>
-      <c r="W291" s="39">
-        <v>1025251.9365432287</v>
+      <c r="V291" s="11">
+        <v>950590.1342675566</v>
+      </c>
+      <c r="W291" s="11">
+        <v>1030438.4607416289</v>
       </c>
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.25">
@@ -13489,11 +13499,11 @@
       <c r="U292" s="11">
         <v>778867.60580924491</v>
       </c>
-      <c r="V292" s="39">
-        <v>715250.14171456581</v>
-      </c>
-      <c r="W292" s="39">
-        <v>789519.36903500161</v>
+      <c r="V292" s="11">
+        <v>719493.52100767673</v>
+      </c>
+      <c r="W292" s="11">
+        <v>796826.8370969845</v>
       </c>
     </row>
     <row r="293" spans="1:23" x14ac:dyDescent="0.25">
@@ -13560,11 +13570,11 @@
       <c r="U293" s="11">
         <v>329862.2022173648</v>
       </c>
-      <c r="V293" s="39">
-        <v>329707.74073466816</v>
-      </c>
-      <c r="W293" s="39">
-        <v>393899.99419311207</v>
+      <c r="V293" s="11">
+        <v>325260.09833732201</v>
+      </c>
+      <c r="W293" s="11">
+        <v>385686.11156712897</v>
       </c>
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.25">
@@ -13631,11 +13641,11 @@
       <c r="U294" s="11">
         <v>450429.10682983557</v>
       </c>
-      <c r="V294" s="39">
-        <v>271719.92690063943</v>
-      </c>
-      <c r="W294" s="39">
-        <v>281042.00554104499</v>
+      <c r="V294" s="11">
+        <v>271957.31031697243</v>
+      </c>
+      <c r="W294" s="11">
+        <v>281010.14653605589</v>
       </c>
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.25">
@@ -13660,8 +13670,8 @@
       <c r="S295" s="19"/>
       <c r="T295" s="19"/>
       <c r="U295" s="19"/>
-      <c r="V295" s="44"/>
-      <c r="W295" s="44"/>
+      <c r="V295" s="19"/>
+      <c r="W295" s="19"/>
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
@@ -13727,11 +13737,11 @@
       <c r="U296" s="19">
         <v>19517863.171682019</v>
       </c>
-      <c r="V296" s="44">
-        <v>17938582.424182337</v>
-      </c>
-      <c r="W296" s="44">
-        <v>19387209.643730417</v>
+      <c r="V296" s="19">
+        <v>17951573.570012722</v>
+      </c>
+      <c r="W296" s="19">
+        <v>19410568.055125386</v>
       </c>
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.25">
@@ -13755,8 +13765,8 @@
       <c r="S297" s="19"/>
       <c r="T297" s="19"/>
       <c r="U297" s="19"/>
-      <c r="V297" s="44"/>
-      <c r="W297" s="44"/>
+      <c r="V297" s="19"/>
+      <c r="W297" s="19"/>
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -13822,11 +13832,11 @@
       <c r="U298" s="19">
         <v>1954197.181119096</v>
       </c>
-      <c r="V298" s="44">
-        <v>1381265.1268567161</v>
-      </c>
-      <c r="W298" s="44">
-        <v>716076.99300644803</v>
+      <c r="V298" s="19">
+        <v>1360426.9400112671</v>
+      </c>
+      <c r="W298" s="19">
+        <v>693869.14626533468</v>
       </c>
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.25">
@@ -13850,8 +13860,8 @@
       <c r="S299" s="19"/>
       <c r="T299" s="19"/>
       <c r="U299" s="19"/>
-      <c r="V299" s="44"/>
-      <c r="W299" s="44"/>
+      <c r="V299" s="19"/>
+      <c r="W299" s="19"/>
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
@@ -13917,11 +13927,11 @@
       <c r="U300" s="19">
         <v>21472060.352801114</v>
       </c>
-      <c r="V300" s="44">
-        <v>19319847.551039051</v>
-      </c>
-      <c r="W300" s="44">
-        <v>20103286.636736866</v>
+      <c r="V300" s="19">
+        <v>19312000.510023989</v>
+      </c>
+      <c r="W300" s="19">
+        <v>20104437.201390721</v>
       </c>
     </row>
     <row r="301" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -13946,8 +13956,8 @@
       <c r="S301" s="15"/>
       <c r="T301" s="15"/>
       <c r="U301" s="15"/>
-      <c r="V301" s="41"/>
-      <c r="W301" s="41"/>
+      <c r="V301" s="15"/>
+      <c r="W301" s="15"/>
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
@@ -13966,7 +13976,7 @@
     </row>
     <row r="307" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -13988,8 +13998,8 @@
       <c r="S307" s="3"/>
       <c r="T307" s="3"/>
       <c r="U307" s="3"/>
-      <c r="V307" s="37"/>
-      <c r="W307" s="37"/>
+      <c r="V307" s="3"/>
+      <c r="W307" s="3"/>
     </row>
     <row r="308" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
@@ -14013,8 +14023,8 @@
       <c r="S308" s="3"/>
       <c r="T308" s="3"/>
       <c r="U308" s="3"/>
-      <c r="V308" s="37"/>
-      <c r="W308" s="37"/>
+      <c r="V308" s="3"/>
+      <c r="W308" s="3"/>
     </row>
     <row r="309" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
@@ -14040,12 +14050,12 @@
       <c r="S309" s="3"/>
       <c r="T309" s="3"/>
       <c r="U309" s="3"/>
-      <c r="V309" s="37"/>
-      <c r="W309" s="37"/>
+      <c r="V309" s="3"/>
+      <c r="W309" s="3"/>
     </row>
     <row r="310" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -14067,8 +14077,8 @@
       <c r="S310" s="3"/>
       <c r="T310" s="3"/>
       <c r="U310" s="3"/>
-      <c r="V310" s="37"/>
-      <c r="W310" s="37"/>
+      <c r="V310" s="3"/>
+      <c r="W310" s="3"/>
     </row>
     <row r="311" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
@@ -14094,8 +14104,8 @@
       <c r="S311" s="3"/>
       <c r="T311" s="3"/>
       <c r="U311" s="3"/>
-      <c r="V311" s="37"/>
-      <c r="W311" s="37"/>
+      <c r="V311" s="3"/>
+      <c r="W311" s="3"/>
     </row>
     <row r="312" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
@@ -14119,8 +14129,8 @@
       <c r="S312" s="3"/>
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
-      <c r="V312" s="37"/>
-      <c r="W312" s="37"/>
+      <c r="V312" s="3"/>
+      <c r="W312" s="3"/>
     </row>
     <row r="313" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
@@ -14213,10 +14223,10 @@
       <c r="U314" s="9">
         <v>2019</v>
       </c>
-      <c r="V314" s="38">
+      <c r="V314" s="9">
         <v>2020</v>
       </c>
-      <c r="W314" s="38">
+      <c r="W314" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -14284,11 +14294,11 @@
       <c r="U316" s="11">
         <v>1783855.1472581755</v>
       </c>
-      <c r="V316" s="39">
-        <v>1780544.4867078124</v>
-      </c>
-      <c r="W316" s="39">
-        <v>1775566.4208060256</v>
+      <c r="V316" s="11">
+        <v>1780390.5640921535</v>
+      </c>
+      <c r="W316" s="11">
+        <v>1775358.080234726</v>
       </c>
     </row>
     <row r="317" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14355,11 +14365,11 @@
       <c r="U317" s="19">
         <v>5887868.6968866969</v>
       </c>
-      <c r="V317" s="44">
-        <v>5112114.5948900562</v>
-      </c>
-      <c r="W317" s="44">
-        <v>5531828.6026823465</v>
+      <c r="V317" s="19">
+        <v>5115315.7129913447</v>
+      </c>
+      <c r="W317" s="19">
+        <v>5549484.2684873901</v>
       </c>
     </row>
     <row r="318" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14426,11 +14436,11 @@
       <c r="U318" s="11">
         <v>168857.01559815076</v>
       </c>
-      <c r="V318" s="39">
-        <v>136939.92115443319</v>
-      </c>
-      <c r="W318" s="39">
-        <v>140505.61146043096</v>
+      <c r="V318" s="11">
+        <v>137493.02513292991</v>
+      </c>
+      <c r="W318" s="11">
+        <v>144431.03620122332</v>
       </c>
     </row>
     <row r="319" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14497,11 +14507,11 @@
       <c r="U319" s="11">
         <v>3620455.9375859774</v>
       </c>
-      <c r="V319" s="39">
-        <v>3266647.5771492883</v>
-      </c>
-      <c r="W319" s="39">
-        <v>3546627.2274559317</v>
+      <c r="V319" s="11">
+        <v>3266301.6027311916</v>
+      </c>
+      <c r="W319" s="11">
+        <v>3554736.9219308542</v>
       </c>
     </row>
     <row r="320" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14568,11 +14578,11 @@
       <c r="U320" s="11">
         <v>591311.99595093704</v>
       </c>
-      <c r="V320" s="39">
-        <v>589089.16445885168</v>
-      </c>
-      <c r="W320" s="39">
-        <v>615475.43669912044</v>
+      <c r="V320" s="11">
+        <v>589213.0358613478</v>
+      </c>
+      <c r="W320" s="11">
+        <v>615505.42130178306</v>
       </c>
     </row>
     <row r="321" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14639,11 +14649,11 @@
       <c r="U321" s="11">
         <v>1507243.747751632</v>
       </c>
-      <c r="V321" s="39">
-        <v>1119437.9321274832</v>
-      </c>
-      <c r="W321" s="39">
-        <v>1229220.3270668632</v>
+      <c r="V321" s="11">
+        <v>1122308.0492658752</v>
+      </c>
+      <c r="W321" s="11">
+        <v>1234810.8890535296</v>
       </c>
     </row>
     <row r="322" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14710,11 +14720,11 @@
       <c r="U322" s="19">
         <v>11711026.767278371</v>
       </c>
-      <c r="V322" s="44">
-        <v>10634575.023272617</v>
-      </c>
-      <c r="W322" s="44">
-        <v>11201018.250514627</v>
+      <c r="V322" s="19">
+        <v>10642137.002289824</v>
+      </c>
+      <c r="W322" s="19">
+        <v>11213211.486368531</v>
       </c>
     </row>
     <row r="323" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -14781,11 +14791,11 @@
       <c r="U323" s="11">
         <v>3489299.3986241054</v>
       </c>
-      <c r="V323" s="39">
-        <v>3279284.9597977269</v>
-      </c>
-      <c r="W323" s="39">
-        <v>3420956.2617217642</v>
+      <c r="V323" s="11">
+        <v>3275536.8130151117</v>
+      </c>
+      <c r="W323" s="11">
+        <v>3414326.3282148382</v>
       </c>
     </row>
     <row r="324" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14852,11 +14862,11 @@
       <c r="U324" s="11">
         <v>742346.50223086798</v>
       </c>
-      <c r="V324" s="39">
-        <v>512769.34071302519</v>
-      </c>
-      <c r="W324" s="39">
-        <v>544995.25743696524</v>
+      <c r="V324" s="11">
+        <v>515149.36362272</v>
+      </c>
+      <c r="W324" s="11">
+        <v>547542.29235033551</v>
       </c>
     </row>
     <row r="325" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14923,11 +14933,11 @@
       <c r="U325" s="11">
         <v>425692.44564928289</v>
       </c>
-      <c r="V325" s="39">
-        <v>232388.79055821348</v>
-      </c>
-      <c r="W325" s="39">
-        <v>250451.79306264716</v>
+      <c r="V325" s="11">
+        <v>231810.68457593551</v>
+      </c>
+      <c r="W325" s="11">
+        <v>248456.87201087741</v>
       </c>
     </row>
     <row r="326" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -14994,11 +15004,11 @@
       <c r="U326" s="11">
         <v>557007.14226321713</v>
       </c>
-      <c r="V326" s="39">
-        <v>584980.59714844998</v>
-      </c>
-      <c r="W326" s="39">
-        <v>637941.44418481179</v>
+      <c r="V326" s="11">
+        <v>585185.11700217403</v>
+      </c>
+      <c r="W326" s="11">
+        <v>639123.12992489454</v>
       </c>
     </row>
     <row r="327" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15065,11 +15075,11 @@
       <c r="U327" s="11">
         <v>1676448.1015052404</v>
       </c>
-      <c r="V327" s="39">
-        <v>1768603.5228635638</v>
-      </c>
-      <c r="W327" s="39">
-        <v>1848603.5468981566</v>
+      <c r="V327" s="11">
+        <v>1769952.4973231703</v>
+      </c>
+      <c r="W327" s="11">
+        <v>1853154.422339136</v>
       </c>
     </row>
     <row r="328" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15136,11 +15146,11 @@
       <c r="U328" s="11">
         <v>1238469.4807894267</v>
       </c>
-      <c r="V328" s="39">
-        <v>1027859.7302618109</v>
-      </c>
-      <c r="W328" s="39">
-        <v>1050031.2029718352</v>
+      <c r="V328" s="11">
+        <v>1031274.7654062201</v>
+      </c>
+      <c r="W328" s="11">
+        <v>1053944.4695838783</v>
       </c>
     </row>
     <row r="329" spans="1:23" s="20" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -15207,11 +15217,11 @@
       <c r="U329" s="11">
         <v>1182158.5827597622</v>
       </c>
-      <c r="V329" s="39">
-        <v>1064317.5151590216</v>
-      </c>
-      <c r="W329" s="39">
-        <v>1129810.0961403633</v>
+      <c r="V329" s="11">
+        <v>1068769.3138266339</v>
+      </c>
+      <c r="W329" s="11">
+        <v>1135218.0985623091</v>
       </c>
     </row>
     <row r="330" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -15278,11 +15288,11 @@
       <c r="U330" s="11">
         <v>871564.28334569244</v>
       </c>
-      <c r="V330" s="39">
-        <v>911353.7275870617</v>
-      </c>
-      <c r="W330" s="39">
-        <v>958708.03764278023</v>
+      <c r="V330" s="11">
+        <v>911187.77121699601</v>
+      </c>
+      <c r="W330" s="11">
+        <v>962824.47294404032</v>
       </c>
     </row>
     <row r="331" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15349,11 +15359,11 @@
       <c r="U331" s="11">
         <v>766089.01603823481</v>
       </c>
-      <c r="V331" s="39">
-        <v>683563.40506413975</v>
-      </c>
-      <c r="W331" s="39">
-        <v>738027.17115230742</v>
+      <c r="V331" s="11">
+        <v>687609.85737305612</v>
+      </c>
+      <c r="W331" s="11">
+        <v>744503.02095490869</v>
       </c>
     </row>
     <row r="332" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15420,11 +15430,11 @@
       <c r="U332" s="11">
         <v>323261.21682743798</v>
       </c>
-      <c r="V332" s="39">
-        <v>310930.2562458078</v>
-      </c>
-      <c r="W332" s="39">
-        <v>357597.76931364287</v>
+      <c r="V332" s="11">
+        <v>306902.63750810525</v>
+      </c>
+      <c r="W332" s="11">
+        <v>350267.82724050398</v>
       </c>
     </row>
     <row r="333" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15491,11 +15501,11 @@
       <c r="U333" s="11">
         <v>438690.59724510444</v>
       </c>
-      <c r="V333" s="39">
-        <v>258523.17787379521</v>
-      </c>
-      <c r="W333" s="39">
-        <v>263895.66998935421</v>
+      <c r="V333" s="11">
+        <v>258758.18141969977</v>
+      </c>
+      <c r="W333" s="11">
+        <v>263850.55224280979</v>
       </c>
     </row>
     <row r="334" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15520,8 +15530,8 @@
       <c r="S334" s="19"/>
       <c r="T334" s="19"/>
       <c r="U334" s="19"/>
-      <c r="V334" s="44"/>
-      <c r="W334" s="44"/>
+      <c r="V334" s="19"/>
+      <c r="W334" s="19"/>
     </row>
     <row r="335" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
@@ -15587,11 +15597,11 @@
       <c r="U335" s="19">
         <v>19382750.611423243</v>
       </c>
-      <c r="V335" s="44">
-        <v>17527234.104870483</v>
-      </c>
-      <c r="W335" s="44">
-        <v>18508413.274002999</v>
+      <c r="V335" s="19">
+        <v>17537843.279373322</v>
+      </c>
+      <c r="W335" s="19">
+        <v>18538053.835090648</v>
       </c>
     </row>
     <row r="336" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15616,8 +15626,8 @@
       <c r="S336" s="19"/>
       <c r="T336" s="19"/>
       <c r="U336" s="19"/>
-      <c r="V336" s="44"/>
-      <c r="W336" s="44"/>
+      <c r="V336" s="19"/>
+      <c r="W336" s="19"/>
     </row>
     <row r="337" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
@@ -15683,11 +15693,11 @@
       <c r="U337" s="19">
         <v>1916281.8226589335</v>
       </c>
-      <c r="V337" s="44">
-        <v>1340175.7553090123</v>
-      </c>
-      <c r="W337" s="44">
-        <v>667056.57210391737</v>
+      <c r="V337" s="19">
+        <v>1320172.5541665182</v>
+      </c>
+      <c r="W337" s="19">
+        <v>642515.15330013481</v>
       </c>
     </row>
     <row r="338" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15712,8 +15722,8 @@
       <c r="S338" s="19"/>
       <c r="T338" s="19"/>
       <c r="U338" s="19"/>
-      <c r="V338" s="44"/>
-      <c r="W338" s="44"/>
+      <c r="V338" s="19"/>
+      <c r="W338" s="19"/>
     </row>
     <row r="339" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
@@ -15779,11 +15789,11 @@
       <c r="U339" s="19">
         <v>21299032.434082177</v>
       </c>
-      <c r="V339" s="44">
-        <v>18867409.860179495</v>
-      </c>
-      <c r="W339" s="44">
-        <v>19175469.846106917</v>
+      <c r="V339" s="19">
+        <v>18858015.83353984</v>
+      </c>
+      <c r="W339" s="19">
+        <v>19180568.988390785</v>
       </c>
     </row>
     <row r="340" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -15808,8 +15818,8 @@
       <c r="S340" s="15"/>
       <c r="T340" s="15"/>
       <c r="U340" s="15"/>
-      <c r="V340" s="41"/>
-      <c r="W340" s="41"/>
+      <c r="V340" s="15"/>
+      <c r="W340" s="15"/>
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
@@ -15828,7 +15838,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.25">
@@ -15841,7 +15851,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.25">
@@ -15877,7 +15887,7 @@
       <c r="T352" s="7"/>
       <c r="U352" s="7"/>
       <c r="V352" s="7"/>
-      <c r="W352" s="42"/>
+      <c r="W352" s="7"/>
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
@@ -15943,10 +15953,10 @@
       <c r="U353" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V353" s="38" t="s">
+      <c r="V353" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W353" s="38"/>
+      <c r="W353" s="9"/>
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A355" s="18" t="s">
@@ -16010,12 +16020,12 @@
         <v>-2.330499935733414</v>
       </c>
       <c r="U355" s="17">
-        <v>6.1265814729238457</v>
-      </c>
-      <c r="V355" s="43">
-        <v>6.9384334212544871</v>
-      </c>
-      <c r="W355" s="43"/>
+        <v>6.2086830642616775</v>
+      </c>
+      <c r="V355" s="17">
+        <v>6.886863659267803</v>
+      </c>
+      <c r="W355" s="17"/>
     </row>
     <row r="356" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="18" t="s">
@@ -16079,12 +16089,12 @@
         <v>6.0323273883342381</v>
       </c>
       <c r="U356" s="17">
-        <v>-13.938515110253476</v>
-      </c>
-      <c r="V356" s="43">
-        <v>9.848890084960189</v>
-      </c>
-      <c r="W356" s="43"/>
+        <v>-13.870761061262286</v>
+      </c>
+      <c r="V356" s="17">
+        <v>9.9795070711121099</v>
+      </c>
+      <c r="W356" s="17"/>
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
@@ -16148,12 +16158,12 @@
         <v>-1.0201384556127522</v>
       </c>
       <c r="U357" s="17">
-        <v>-15.84705126115152</v>
-      </c>
-      <c r="V357" s="43">
-        <v>32.216599152947651</v>
-      </c>
-      <c r="W357" s="43"/>
+        <v>-15.215025106358809</v>
+      </c>
+      <c r="V357" s="17">
+        <v>35.184293980671185</v>
+      </c>
+      <c r="W357" s="17"/>
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
@@ -16217,12 +16227,12 @@
         <v>3.6030137781072114</v>
       </c>
       <c r="U358" s="17">
-        <v>-12.282724593972773</v>
-      </c>
-      <c r="V358" s="43">
-        <v>8.0621359959941685</v>
-      </c>
-      <c r="W358" s="43"/>
+        <v>-12.288136037014468</v>
+      </c>
+      <c r="V358" s="17">
+        <v>7.996503944296677</v>
+      </c>
+      <c r="W358" s="17"/>
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="s">
@@ -16286,12 +16296,12 @@
         <v>9.1289989139083048</v>
       </c>
       <c r="U359" s="17">
-        <v>0.5052432843259993</v>
-      </c>
-      <c r="V359" s="43">
-        <v>6.5349583057964509</v>
-      </c>
-      <c r="W359" s="43"/>
+        <v>0.5214608294454024</v>
+      </c>
+      <c r="V359" s="17">
+        <v>6.5174622572634888</v>
+      </c>
+      <c r="W359" s="17"/>
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
@@ -16355,12 +16365,12 @@
         <v>11.78345486191435</v>
       </c>
       <c r="U360" s="17">
-        <v>-23.351396612829731</v>
-      </c>
-      <c r="V360" s="43">
-        <v>13.795835031960848</v>
-      </c>
-      <c r="W360" s="43"/>
+        <v>-23.150460607076823</v>
+      </c>
+      <c r="V360" s="17">
+        <v>14.171065058905569</v>
+      </c>
+      <c r="W360" s="17"/>
     </row>
     <row r="361" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="18" t="s">
@@ -16424,12 +16434,12 @@
         <v>8.7636468856581757</v>
       </c>
       <c r="U361" s="17">
-        <v>-7.2382686295487417</v>
-      </c>
-      <c r="V361" s="43">
-        <v>7.4440496303049599</v>
-      </c>
-      <c r="W361" s="43"/>
+        <v>-7.1745559504802117</v>
+      </c>
+      <c r="V361" s="17">
+        <v>7.4766544431965798</v>
+      </c>
+      <c r="W361" s="17"/>
     </row>
     <row r="362" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
@@ -16493,12 +16503,12 @@
         <v>8.6599386563079861</v>
       </c>
       <c r="U362" s="17">
-        <v>-5.5902525743814522</v>
-      </c>
-      <c r="V362" s="43">
-        <v>5.7748331322734998</v>
-      </c>
-      <c r="W362" s="43"/>
+        <v>-5.6936371290746735</v>
+      </c>
+      <c r="V362" s="17">
+        <v>5.6028046477498918</v>
+      </c>
+      <c r="W362" s="17"/>
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
@@ -16562,12 +16572,12 @@
         <v>8.5724959401556049</v>
       </c>
       <c r="U363" s="17">
-        <v>-27.543707853125696</v>
-      </c>
-      <c r="V363" s="43">
-        <v>9.6797932467051311</v>
-      </c>
-      <c r="W363" s="43"/>
+        <v>-27.270330939561731</v>
+      </c>
+      <c r="V363" s="17">
+        <v>9.7767123143466961</v>
+      </c>
+      <c r="W363" s="17"/>
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
@@ -16631,12 +16641,12 @@
         <v>7.0640168757777531</v>
       </c>
       <c r="U364" s="17">
-        <v>-41.253059072030609</v>
-      </c>
-      <c r="V364" s="43">
-        <v>13.427543807133205</v>
-      </c>
-      <c r="W364" s="43"/>
+        <v>-41.401966018601968</v>
+      </c>
+      <c r="V364" s="17">
+        <v>12.738730635208853</v>
+      </c>
+      <c r="W364" s="17"/>
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
@@ -16700,12 +16710,12 @@
         <v>9.0921864693506791</v>
       </c>
       <c r="U365" s="17">
-        <v>5.3274695892189925</v>
-      </c>
-      <c r="V365" s="43">
-        <v>7.7484684160800299</v>
-      </c>
-      <c r="W365" s="43"/>
+        <v>5.3667158552252374</v>
+      </c>
+      <c r="V365" s="17">
+        <v>7.9510477077643316</v>
+      </c>
+      <c r="W365" s="17"/>
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
@@ -16769,12 +16779,12 @@
         <v>12.263377781431899</v>
       </c>
       <c r="U366" s="17">
-        <v>8.3655556756869913</v>
-      </c>
-      <c r="V366" s="43">
-        <v>7.3792416584646645</v>
-      </c>
-      <c r="W366" s="43"/>
+        <v>8.4494411145177963</v>
+      </c>
+      <c r="V366" s="17">
+        <v>7.5627417629546869</v>
+      </c>
+      <c r="W366" s="17"/>
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
@@ -16838,12 +16848,12 @@
         <v>5.54530446958114</v>
       </c>
       <c r="U367" s="17">
-        <v>-14.146241663142945</v>
-      </c>
-      <c r="V367" s="43">
-        <v>5.2496523504394332</v>
-      </c>
-      <c r="W367" s="43"/>
+        <v>-13.859937741549714</v>
+      </c>
+      <c r="V367" s="17">
+        <v>5.2966209171494825</v>
+      </c>
+      <c r="W367" s="17"/>
     </row>
     <row r="368" spans="1:23" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="s">
@@ -16907,12 +16917,12 @@
         <v>5.218118065179425</v>
       </c>
       <c r="U368" s="17">
-        <v>-7.1233612242530313</v>
-      </c>
-      <c r="V368" s="43">
-        <v>7.2263169926974626</v>
-      </c>
-      <c r="W368" s="43"/>
+        <v>-6.7389494941826484</v>
+      </c>
+      <c r="V368" s="17">
+        <v>7.3208979141728321</v>
+      </c>
+      <c r="W368" s="17"/>
     </row>
     <row r="369" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="s">
@@ -16976,12 +16986,12 @@
         <v>16.019360984257077</v>
       </c>
       <c r="U369" s="17">
-        <v>6.7448490849260025</v>
-      </c>
-      <c r="V369" s="43">
-        <v>7.8346179388953203</v>
-      </c>
-      <c r="W369" s="43"/>
+        <v>6.7254109818699845</v>
+      </c>
+      <c r="V369" s="17">
+        <v>8.3998690493034047</v>
+      </c>
+      <c r="W369" s="17"/>
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
@@ -17045,12 +17055,12 @@
         <v>6.4597967661169662</v>
       </c>
       <c r="U370" s="17">
-        <v>-8.1679432576452342</v>
-      </c>
-      <c r="V370" s="43">
-        <v>10.383671807795935</v>
-      </c>
-      <c r="W370" s="43"/>
+        <v>-7.6231293173219683</v>
+      </c>
+      <c r="V370" s="17">
+        <v>10.748299162027152</v>
+      </c>
+      <c r="W370" s="17"/>
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
@@ -17114,12 +17124,12 @@
         <v>7.0049944317676278</v>
       </c>
       <c r="U371" s="17">
-        <v>-4.682606302218062E-2</v>
-      </c>
-      <c r="V371" s="43">
-        <v>19.469440819135201</v>
-      </c>
-      <c r="W371" s="43"/>
+        <v>-1.3951595087606279</v>
+      </c>
+      <c r="V371" s="17">
+        <v>18.5777516328302</v>
+      </c>
+      <c r="W371" s="17"/>
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="s">
@@ -17183,12 +17193,12 @@
         <v>9.5867923187563377</v>
       </c>
       <c r="U372" s="17">
-        <v>-39.675317873431617</v>
-      </c>
-      <c r="V372" s="43">
-        <v>3.4307673885892029</v>
-      </c>
-      <c r="W372" s="43"/>
+        <v>-39.622616257853579</v>
+      </c>
+      <c r="V372" s="17">
+        <v>3.3287710517993361</v>
+      </c>
+      <c r="W372" s="17"/>
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A373" s="21"/>
@@ -17212,8 +17222,8 @@
       <c r="S373" s="17"/>
       <c r="T373" s="17"/>
       <c r="U373" s="17"/>
-      <c r="V373" s="43"/>
-      <c r="W373" s="43"/>
+      <c r="V373" s="17"/>
+      <c r="W373" s="17"/>
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
@@ -17277,12 +17287,12 @@
         <v>6.8582527519006788</v>
       </c>
       <c r="U374" s="17">
-        <v>-8.0914633615785476</v>
-      </c>
-      <c r="V374" s="43">
-        <v>8.0754832533212806</v>
-      </c>
-      <c r="W374" s="43"/>
+        <v>-8.0249030741325669</v>
+      </c>
+      <c r="V374" s="17">
+        <v>8.1273905010190788</v>
+      </c>
+      <c r="W374" s="17"/>
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B375" s="17"/>
@@ -17305,8 +17315,8 @@
       <c r="S375" s="17"/>
       <c r="T375" s="17"/>
       <c r="U375" s="17"/>
-      <c r="V375" s="43"/>
-      <c r="W375" s="43"/>
+      <c r="V375" s="17"/>
+      <c r="W375" s="17"/>
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
@@ -17370,12 +17380,12 @@
         <v>0.36147661017595567</v>
       </c>
       <c r="U376" s="17">
-        <v>-29.31802684999694</v>
-      </c>
-      <c r="V376" s="43">
-        <v>-48.157889525815165</v>
-      </c>
-      <c r="W376" s="43"/>
+        <v>-30.384356647561987</v>
+      </c>
+      <c r="V376" s="17">
+        <v>-48.996221270097159</v>
+      </c>
+      <c r="W376" s="17"/>
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B377" s="17"/>
@@ -17398,8 +17408,8 @@
       <c r="S377" s="17"/>
       <c r="T377" s="17"/>
       <c r="U377" s="17"/>
-      <c r="V377" s="43"/>
-      <c r="W377" s="43"/>
+      <c r="V377" s="17"/>
+      <c r="W377" s="17"/>
     </row>
     <row r="378" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
@@ -17463,12 +17473,12 @@
         <v>6.2323851713457401</v>
       </c>
       <c r="U378" s="17">
-        <v>-10.023317587598427</v>
-      </c>
-      <c r="V378" s="43">
-        <v>4.0550997290642812</v>
-      </c>
-      <c r="W378" s="43"/>
+        <v>-10.059862944150751</v>
+      </c>
+      <c r="V378" s="17">
+        <v>4.1033381857846081</v>
+      </c>
+      <c r="W378" s="17"/>
     </row>
     <row r="379" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="15"/>
@@ -17492,8 +17502,8 @@
       <c r="S379" s="15"/>
       <c r="T379" s="15"/>
       <c r="U379" s="15"/>
-      <c r="V379" s="41"/>
-      <c r="W379" s="41"/>
+      <c r="V379" s="15"/>
+      <c r="W379" s="15"/>
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
@@ -17512,7 +17522,7 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.25">
@@ -17525,7 +17535,7 @@
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.25">
@@ -17561,7 +17571,7 @@
       <c r="T391" s="7"/>
       <c r="U391" s="7"/>
       <c r="V391" s="7"/>
-      <c r="W391" s="42"/>
+      <c r="W391" s="7"/>
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
@@ -17627,10 +17637,10 @@
       <c r="U392" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V392" s="38" t="s">
+      <c r="V392" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W392" s="38"/>
+      <c r="W392" s="9"/>
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="18" t="s">
@@ -17694,12 +17704,12 @@
         <v>1.2049501817730714</v>
       </c>
       <c r="U394" s="17">
-        <v>-0.18559021204450232</v>
-      </c>
-      <c r="V394" s="43">
-        <v>-0.2795811022386232</v>
-      </c>
-      <c r="W394" s="43"/>
+        <v>-0.19421886196013816</v>
+      </c>
+      <c r="V394" s="17">
+        <v>-0.28266179112186762</v>
+      </c>
+      <c r="W394" s="17"/>
     </row>
     <row r="395" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="18" t="s">
@@ -17763,12 +17773,12 @@
         <v>5.4696287387019566</v>
       </c>
       <c r="U395" s="17">
-        <v>-13.17546538371063</v>
-      </c>
-      <c r="V395" s="43">
-        <v>8.210183868175136</v>
-      </c>
-      <c r="W395" s="43"/>
+        <v>-13.121097355718064</v>
+      </c>
+      <c r="V395" s="17">
+        <v>8.4876199213547778</v>
+      </c>
+      <c r="W395" s="17"/>
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
@@ -17832,12 +17842,12 @@
         <v>3.3887109238666397</v>
       </c>
       <c r="U396" s="17">
-        <v>-18.901846826236991</v>
-      </c>
-      <c r="V396" s="43">
-        <v>2.6038355184800963</v>
-      </c>
-      <c r="W396" s="43"/>
+        <v>-18.574289231702096</v>
+      </c>
+      <c r="V396" s="17">
+        <v>5.0460822005957482</v>
+      </c>
+      <c r="W396" s="17"/>
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
@@ -17901,12 +17911,12 @@
         <v>3.7876207763656566</v>
       </c>
       <c r="U397" s="17">
-        <v>-9.7724807741369517</v>
-      </c>
-      <c r="V397" s="43">
-        <v>8.5708557073969303</v>
-      </c>
-      <c r="W397" s="43"/>
+        <v>-9.7820368749170967</v>
+      </c>
+      <c r="V397" s="17">
+        <v>8.8306394901952956</v>
+      </c>
+      <c r="W397" s="17"/>
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="s">
@@ -17970,12 +17980,12 @@
         <v>6.154386946297592</v>
       </c>
       <c r="U398" s="17">
-        <v>-0.37591516953932569</v>
-      </c>
-      <c r="V398" s="43">
-        <v>4.4791644172419467</v>
-      </c>
-      <c r="W398" s="43"/>
+        <v>-0.35496660036699268</v>
+      </c>
+      <c r="V398" s="17">
+        <v>4.4622884831458975</v>
+      </c>
+      <c r="W398" s="17"/>
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
@@ -18039,12 +18049,12 @@
         <v>9.7101694734177215</v>
       </c>
       <c r="U399" s="17">
-        <v>-25.729469185235772</v>
-      </c>
-      <c r="V399" s="43">
-        <v>9.8069211153797085</v>
-      </c>
-      <c r="W399" s="43"/>
+        <v>-25.539047619866963</v>
+      </c>
+      <c r="V399" s="17">
+        <v>10.024238876415865</v>
+      </c>
+      <c r="W399" s="17"/>
     </row>
     <row r="400" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="18" t="s">
@@ -18108,12 +18118,12 @@
         <v>7.2433588277661016</v>
       </c>
       <c r="U400" s="17">
-        <v>-9.1917793836271926</v>
-      </c>
-      <c r="V400" s="43">
-        <v>5.3264303087091776</v>
-      </c>
-      <c r="W400" s="43"/>
+        <v>-9.1272079402560848</v>
+      </c>
+      <c r="V400" s="17">
+        <v>5.366163618790381</v>
+      </c>
+      <c r="W400" s="17"/>
     </row>
     <row r="401" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
@@ -18177,12 +18187,12 @@
         <v>7.7840962930116291</v>
       </c>
       <c r="U401" s="17">
-        <v>-6.0188139461231316</v>
-      </c>
-      <c r="V401" s="43">
-        <v>4.3201888113064655</v>
-      </c>
-      <c r="W401" s="43"/>
+        <v>-6.1262322658033952</v>
+      </c>
+      <c r="V401" s="17">
+        <v>4.2371532705190731</v>
+      </c>
+      <c r="W401" s="17"/>
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
@@ -18246,12 +18256,12 @@
         <v>6.3778860887518505</v>
       </c>
       <c r="U402" s="17">
-        <v>-30.925876370121955</v>
-      </c>
-      <c r="V402" s="43">
-        <v>6.2846808818812576</v>
-      </c>
-      <c r="W402" s="43"/>
+        <v>-30.605268284471592</v>
+      </c>
+      <c r="V402" s="17">
+        <v>6.2880653680355039</v>
+      </c>
+      <c r="W402" s="17"/>
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
@@ -18315,12 +18325,12 @@
         <v>5.5551163681105038</v>
       </c>
       <c r="U403" s="17">
-        <v>-45.409228438675967</v>
-      </c>
-      <c r="V403" s="43">
-        <v>7.7727511989907612</v>
-      </c>
-      <c r="W403" s="43"/>
+        <v>-45.54503211294513</v>
+      </c>
+      <c r="V403" s="17">
+        <v>7.180940544390225</v>
+      </c>
+      <c r="W403" s="17"/>
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
@@ -18384,12 +18394,12 @@
         <v>7.9628459871537558</v>
       </c>
       <c r="U404" s="17">
-        <v>5.0220998552319855</v>
-      </c>
-      <c r="V404" s="43">
-        <v>9.0534365232838496</v>
-      </c>
-      <c r="W404" s="43"/>
+        <v>5.0588174910046746</v>
+      </c>
+      <c r="V404" s="17">
+        <v>9.2172564468210965</v>
+      </c>
+      <c r="W404" s="17"/>
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
@@ -18453,12 +18463,12 @@
         <v>11.901464188251026</v>
       </c>
       <c r="U405" s="17">
-        <v>5.4970637788058809</v>
-      </c>
-      <c r="V405" s="43">
-        <v>4.5233441526263647</v>
-      </c>
-      <c r="W405" s="43"/>
+        <v>5.5775300013149547</v>
+      </c>
+      <c r="V405" s="17">
+        <v>4.7007998882341724</v>
+      </c>
+      <c r="W405" s="17"/>
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
@@ -18522,12 +18532,12 @@
         <v>4.1017026711050733</v>
       </c>
       <c r="U406" s="17">
-        <v>-17.005647195550495</v>
-      </c>
-      <c r="V406" s="43">
-        <v>2.1570523737102434</v>
-      </c>
-      <c r="W406" s="43"/>
+        <v>-16.729900784566482</v>
+      </c>
+      <c r="V406" s="17">
+        <v>2.1982215543428651</v>
+      </c>
+      <c r="W406" s="17"/>
     </row>
     <row r="407" spans="1:23" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
@@ -18591,12 +18601,12 @@
         <v>1.9748369168047759</v>
       </c>
       <c r="U407" s="17">
-        <v>-9.9682960745959548</v>
-      </c>
-      <c r="V407" s="43">
-        <v>6.153481460986427</v>
-      </c>
-      <c r="W407" s="43"/>
+        <v>-9.5917138856632818</v>
+      </c>
+      <c r="V407" s="17">
+        <v>6.2173177949656093</v>
+      </c>
+      <c r="W407" s="17"/>
     </row>
     <row r="408" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
@@ -18660,12 +18670,12 @@
         <v>13.528376396978786</v>
       </c>
       <c r="U408" s="17">
-        <v>4.5652908226836217</v>
-      </c>
-      <c r="V408" s="43">
-        <v>5.196040639576438</v>
-      </c>
-      <c r="W408" s="43"/>
+        <v>4.5462496144518525</v>
+      </c>
+      <c r="V408" s="17">
+        <v>5.6669660588264321</v>
+      </c>
+      <c r="W408" s="17"/>
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
@@ -18729,12 +18739,12 @@
         <v>4.7131506611401761</v>
       </c>
       <c r="U409" s="17">
-        <v>-10.772326615628742</v>
-      </c>
-      <c r="V409" s="43">
-        <v>7.9676246101935817</v>
-      </c>
-      <c r="W409" s="43"/>
+        <v>-10.244130515149152</v>
+      </c>
+      <c r="V409" s="17">
+        <v>8.2740471172427732</v>
+      </c>
+      <c r="W409" s="17"/>
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
@@ -18798,12 +18808,12 @@
         <v>4.8636808767582096</v>
       </c>
       <c r="U410" s="17">
-        <v>-3.8145499490007353</v>
-      </c>
-      <c r="V410" s="43">
-        <v>15.008997075839986</v>
-      </c>
-      <c r="W410" s="43"/>
+        <v>-5.0604831225594182</v>
+      </c>
+      <c r="V410" s="17">
+        <v>14.129950164163546</v>
+      </c>
+      <c r="W410" s="17"/>
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="s">
@@ -18867,12 +18877,12 @@
         <v>6.7308809389448498</v>
       </c>
       <c r="U411" s="17">
-        <v>-41.069359704248775</v>
-      </c>
-      <c r="V411" s="43">
-        <v>2.0781471741700983</v>
-      </c>
-      <c r="W411" s="43"/>
+        <v>-41.015790389706744</v>
+      </c>
+      <c r="V411" s="17">
+        <v>1.9680037922551037</v>
+      </c>
+      <c r="W411" s="17"/>
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A412" s="21"/>
@@ -18896,8 +18906,8 @@
       <c r="S412" s="17"/>
       <c r="T412" s="17"/>
       <c r="U412" s="17"/>
-      <c r="V412" s="43"/>
-      <c r="W412" s="43"/>
+      <c r="V412" s="17"/>
+      <c r="W412" s="17"/>
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
@@ -18961,12 +18971,12 @@
         <v>6.1185256625625186</v>
       </c>
       <c r="U413" s="17">
-        <v>-9.5730298746103131</v>
-      </c>
-      <c r="V413" s="43">
-        <v>5.5980262673610497</v>
-      </c>
-      <c r="W413" s="43"/>
+        <v>-9.5182947406990905</v>
+      </c>
+      <c r="V413" s="17">
+        <v>5.7031559684063211</v>
+      </c>
+      <c r="W413" s="17"/>
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B414" s="17"/>
@@ -18989,8 +18999,8 @@
       <c r="S414" s="17"/>
       <c r="T414" s="17"/>
       <c r="U414" s="17"/>
-      <c r="V414" s="43"/>
-      <c r="W414" s="43"/>
+      <c r="V414" s="17"/>
+      <c r="W414" s="17"/>
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
@@ -19054,12 +19064,12 @@
         <v>-1.5857380302045812</v>
       </c>
       <c r="U415" s="17">
-        <v>-30.063744306176545</v>
-      </c>
-      <c r="V415" s="43">
-        <v>-50.226187165271455</v>
-      </c>
-      <c r="W415" s="43"/>
+        <v>-31.107599176893771</v>
+      </c>
+      <c r="V415" s="17">
+        <v>-51.330971752720437</v>
+      </c>
+      <c r="W415" s="17"/>
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B416" s="17"/>
@@ -19082,8 +19092,8 @@
       <c r="S416" s="17"/>
       <c r="T416" s="17"/>
       <c r="U416" s="17"/>
-      <c r="V416" s="43"/>
-      <c r="W416" s="43"/>
+      <c r="V416" s="17"/>
+      <c r="W416" s="17"/>
     </row>
     <row r="417" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
@@ -19147,12 +19157,12 @@
         <v>5.3763346477941951</v>
       </c>
       <c r="U417" s="17">
-        <v>-11.416587027735872</v>
-      </c>
-      <c r="V417" s="43">
-        <v>1.6327624629472552</v>
-      </c>
-      <c r="W417" s="43"/>
+        <v>-11.460692442705906</v>
+      </c>
+      <c r="V417" s="17">
+        <v>1.7104299715204832</v>
+      </c>
+      <c r="W417" s="17"/>
     </row>
     <row r="418" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="15"/>
@@ -19176,8 +19186,8 @@
       <c r="S418" s="15"/>
       <c r="T418" s="15"/>
       <c r="U418" s="15"/>
-      <c r="V418" s="41"/>
-      <c r="W418" s="41"/>
+      <c r="V418" s="15"/>
+      <c r="W418" s="15"/>
     </row>
     <row r="419" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
@@ -19191,7 +19201,7 @@
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.25">
@@ -19221,12 +19231,12 @@
       <c r="S425" s="3"/>
       <c r="T425" s="3"/>
       <c r="U425" s="3"/>
-      <c r="V425" s="37"/>
-      <c r="W425" s="37"/>
+      <c r="V425" s="3"/>
+      <c r="W425" s="3"/>
     </row>
     <row r="426" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -19248,8 +19258,8 @@
       <c r="S426" s="3"/>
       <c r="T426" s="3"/>
       <c r="U426" s="3"/>
-      <c r="V426" s="37"/>
-      <c r="W426" s="37"/>
+      <c r="V426" s="3"/>
+      <c r="W426" s="3"/>
     </row>
     <row r="427" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
@@ -19275,8 +19285,8 @@
       <c r="S427" s="3"/>
       <c r="T427" s="3"/>
       <c r="U427" s="3"/>
-      <c r="V427" s="37"/>
-      <c r="W427" s="37"/>
+      <c r="V427" s="3"/>
+      <c r="W427" s="3"/>
     </row>
     <row r="428" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
@@ -19300,8 +19310,8 @@
       <c r="S428" s="3"/>
       <c r="T428" s="3"/>
       <c r="U428" s="3"/>
-      <c r="V428" s="37"/>
-      <c r="W428" s="37"/>
+      <c r="V428" s="3"/>
+      <c r="W428" s="3"/>
     </row>
     <row r="429" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
@@ -19394,10 +19404,10 @@
       <c r="U430" s="9">
         <v>2019</v>
       </c>
-      <c r="V430" s="38">
+      <c r="V430" s="9">
         <v>2020</v>
       </c>
-      <c r="W430" s="38">
+      <c r="W430" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -19465,11 +19475,11 @@
       <c r="U432" s="17">
         <v>96.506643092895658</v>
       </c>
-      <c r="V432" s="43">
-        <v>102.60963464728572</v>
-      </c>
-      <c r="W432" s="43">
-        <v>110.03677786750998</v>
+      <c r="V432" s="17">
+        <v>102.69789337826805</v>
+      </c>
+      <c r="W432" s="17">
+        <v>110.08171622695437</v>
       </c>
     </row>
     <row r="433" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19536,11 +19546,11 @@
       <c r="U433" s="17">
         <v>100.53351723748484</v>
       </c>
-      <c r="V433" s="43">
-        <v>99.649987332309152</v>
-      </c>
-      <c r="W433" s="43">
-        <v>101.15906021165053</v>
+      <c r="V433" s="17">
+        <v>99.66603011725465</v>
+      </c>
+      <c r="W433" s="17">
+        <v>101.03660557745044</v>
       </c>
     </row>
     <row r="434" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -19607,11 +19617,11 @@
       <c r="U434" s="17">
         <v>95.735656881604811</v>
       </c>
-      <c r="V434" s="43">
-        <v>99.341816191248441</v>
-      </c>
-      <c r="W434" s="43">
-        <v>128.01311982258602</v>
+      <c r="V434" s="17">
+        <v>99.685285993147815</v>
+      </c>
+      <c r="W434" s="17">
+        <v>128.285460294573</v>
       </c>
     </row>
     <row r="435" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -19678,11 +19688,11 @@
       <c r="U435" s="17">
         <v>99.822130041253914</v>
       </c>
-      <c r="V435" s="43">
-        <v>97.044952001019396</v>
-      </c>
-      <c r="W435" s="43">
-        <v>96.590238075690266</v>
+      <c r="V435" s="17">
+        <v>97.049243713635093</v>
+      </c>
+      <c r="W435" s="17">
+        <v>96.305407012285784</v>
       </c>
     </row>
     <row r="436" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -19749,11 +19759,11 @@
       <c r="U436" s="17">
         <v>102.80215641875965</v>
       </c>
-      <c r="V436" s="43">
-        <v>103.71142438702385</v>
-      </c>
-      <c r="W436" s="43">
-        <v>105.75211176825773</v>
+      <c r="V436" s="17">
+        <v>103.70635230946618</v>
+      </c>
+      <c r="W436" s="17">
+        <v>105.74665392041737</v>
       </c>
     </row>
     <row r="437" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -19820,11 +19830,11 @@
       <c r="U437" s="17">
         <v>101.88978414530565</v>
       </c>
-      <c r="V437" s="43">
-        <v>105.1521992435448</v>
-      </c>
-      <c r="W437" s="43">
-        <v>108.97202286359655</v>
+      <c r="V437" s="17">
+        <v>105.1582437522016</v>
+      </c>
+      <c r="W437" s="17">
+        <v>109.12167002035405</v>
       </c>
     </row>
     <row r="438" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19891,11 +19901,11 @@
       <c r="U438" s="17">
         <v>101.41760578418071</v>
       </c>
-      <c r="V438" s="43">
-        <v>103.59935080910816</v>
-      </c>
-      <c r="W438" s="43">
-        <v>105.68224668182631</v>
+      <c r="V438" s="17">
+        <v>103.59684211272433</v>
+      </c>
+      <c r="W438" s="17">
+        <v>105.67189331708811</v>
       </c>
     </row>
     <row r="439" spans="1:23" s="22" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -19962,11 +19972,11 @@
       <c r="U439" s="17">
         <v>100.81258960590567</v>
       </c>
-      <c r="V439" s="43">
-        <v>101.27230269854073</v>
-      </c>
-      <c r="W439" s="43">
-        <v>102.68444719013236</v>
+      <c r="V439" s="17">
+        <v>101.27716066805826</v>
+      </c>
+      <c r="W439" s="17">
+        <v>102.60403203406166</v>
       </c>
     </row>
     <row r="440" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20033,11 +20043,11 @@
       <c r="U440" s="17">
         <v>102.06303201924203</v>
       </c>
-      <c r="V440" s="43">
-        <v>107.06048049204966</v>
-      </c>
-      <c r="W440" s="43">
-        <v>110.48037466764116</v>
+      <c r="V440" s="17">
+        <v>106.96792621799769</v>
+      </c>
+      <c r="W440" s="17">
+        <v>110.47888794132474</v>
       </c>
     </row>
     <row r="441" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20104,11 +20114,11 @@
       <c r="U441" s="17">
         <v>101.42949063918904</v>
       </c>
-      <c r="V441" s="43">
-        <v>109.15164091866416</v>
-      </c>
-      <c r="W441" s="43">
-        <v>114.87878331195643</v>
+      <c r="V441" s="17">
+        <v>109.14649241036483</v>
+      </c>
+      <c r="W441" s="17">
+        <v>114.80620477046209</v>
       </c>
     </row>
     <row r="442" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20175,11 +20185,11 @@
       <c r="U442" s="17">
         <v>101.04604549080827</v>
       </c>
-      <c r="V442" s="43">
-        <v>101.33985416607283</v>
-      </c>
-      <c r="W442" s="43">
-        <v>100.12718923875367</v>
+      <c r="V442" s="17">
+        <v>101.34218352910518</v>
+      </c>
+      <c r="W442" s="17">
+        <v>100.1672743380642</v>
       </c>
     </row>
     <row r="443" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20246,11 +20256,11 @@
       <c r="U443" s="17">
         <v>100.32342167799702</v>
       </c>
-      <c r="V443" s="43">
-        <v>103.05124093516704</v>
-      </c>
-      <c r="W443" s="43">
-        <v>105.86691607784655</v>
+      <c r="V443" s="17">
+        <v>103.05241097740559</v>
+      </c>
+      <c r="W443" s="17">
+        <v>105.86929499913202</v>
       </c>
     </row>
     <row r="444" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20317,11 +20327,11 @@
       <c r="U444" s="17">
         <v>101.38672256210535</v>
       </c>
-      <c r="V444" s="43">
-        <v>104.87980065248851</v>
-      </c>
-      <c r="W444" s="43">
-        <v>108.0548263753403</v>
+      <c r="V444" s="17">
+        <v>104.88108788107814</v>
+      </c>
+      <c r="W444" s="17">
+        <v>108.06082516925008</v>
       </c>
     </row>
     <row r="445" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20388,11 +20398,11 @@
       <c r="U445" s="17">
         <v>103.18047201293459</v>
       </c>
-      <c r="V445" s="43">
-        <v>106.44089815068318</v>
-      </c>
-      <c r="W445" s="43">
-        <v>107.51663844663624</v>
+      <c r="V445" s="17">
+        <v>106.43625297179943</v>
+      </c>
+      <c r="W445" s="17">
+        <v>107.54210779077846</v>
       </c>
     </row>
     <row r="446" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -20459,11 +20469,11 @@
       <c r="U446" s="17">
         <v>102.19415151201315</v>
       </c>
-      <c r="V446" s="43">
+      <c r="V446" s="17">
         <v>104.3242857614226</v>
       </c>
-      <c r="W446" s="43">
-        <v>106.94099728881621</v>
+      <c r="W446" s="17">
+        <v>107.02246252537022</v>
       </c>
     </row>
     <row r="447" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20530,11 +20540,11 @@
       <c r="U447" s="17">
         <v>101.6680293678003</v>
       </c>
-      <c r="V447" s="43">
-        <v>104.63552267656178</v>
-      </c>
-      <c r="W447" s="43">
-        <v>106.97700571136122</v>
+      <c r="V447" s="17">
+        <v>104.63688286209695</v>
+      </c>
+      <c r="W447" s="17">
+        <v>107.02801931884234</v>
       </c>
     </row>
     <row r="448" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20601,11 +20611,11 @@
       <c r="U448" s="17">
         <v>102.04199732176673</v>
       </c>
-      <c r="V448" s="43">
-        <v>106.03913067695017</v>
-      </c>
-      <c r="W448" s="43">
-        <v>110.1516922069022</v>
+      <c r="V448" s="17">
+        <v>105.98152592570402</v>
+      </c>
+      <c r="W448" s="17">
+        <v>110.11177207043505</v>
       </c>
     </row>
     <row r="449" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20672,11 +20682,11 @@
       <c r="U449" s="17">
         <v>102.67580605977125</v>
       </c>
-      <c r="V449" s="43">
-        <v>105.1046676492916</v>
-      </c>
-      <c r="W449" s="43">
-        <v>106.49739177318918</v>
+      <c r="V449" s="17">
+        <v>105.10095133025533</v>
+      </c>
+      <c r="W449" s="17">
+        <v>106.50352790524194</v>
       </c>
     </row>
     <row r="450" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20701,8 +20711,8 @@
       <c r="S450" s="17"/>
       <c r="T450" s="17"/>
       <c r="U450" s="17"/>
-      <c r="V450" s="43"/>
-      <c r="W450" s="43"/>
+      <c r="V450" s="17"/>
+      <c r="W450" s="17"/>
     </row>
     <row r="451" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
@@ -20768,11 +20778,11 @@
       <c r="U451" s="17">
         <v>100.69707629720597</v>
       </c>
-      <c r="V451" s="43">
-        <v>102.34690948298311</v>
-      </c>
-      <c r="W451" s="43">
-        <v>104.74809135022815</v>
+      <c r="V451" s="17">
+        <v>102.35907166034491</v>
+      </c>
+      <c r="W451" s="17">
+        <v>104.70661175005954</v>
       </c>
     </row>
     <row r="452" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20797,8 +20807,8 @@
       <c r="S452" s="17"/>
       <c r="T452" s="17"/>
       <c r="U452" s="17"/>
-      <c r="V452" s="43"/>
-      <c r="W452" s="43"/>
+      <c r="V452" s="17"/>
+      <c r="W452" s="17"/>
     </row>
     <row r="453" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
@@ -20864,11 +20874,11 @@
       <c r="U453" s="17">
         <v>101.97858989277231</v>
       </c>
-      <c r="V453" s="43">
-        <v>103.06596887646498</v>
-      </c>
-      <c r="W453" s="43">
-        <v>107.34876515014591</v>
+      <c r="V453" s="17">
+        <v>103.04917608820941</v>
+      </c>
+      <c r="W453" s="17">
+        <v>107.99265086612068</v>
       </c>
     </row>
     <row r="454" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -20893,8 +20903,8 @@
       <c r="S454" s="17"/>
       <c r="T454" s="17"/>
       <c r="U454" s="17"/>
-      <c r="V454" s="43"/>
-      <c r="W454" s="43"/>
+      <c r="V454" s="17"/>
+      <c r="W454" s="17"/>
     </row>
     <row r="455" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
@@ -20960,11 +20970,11 @@
       <c r="U455" s="17">
         <v>100.81237454919344</v>
       </c>
-      <c r="V455" s="43">
-        <v>102.39798517238154</v>
-      </c>
-      <c r="W455" s="43">
-        <v>104.8385609222416</v>
+      <c r="V455" s="17">
+        <v>102.40738304862762</v>
+      </c>
+      <c r="W455" s="17">
+        <v>104.81668825131891</v>
       </c>
     </row>
     <row r="456" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -20989,8 +20999,8 @@
       <c r="S456" s="15"/>
       <c r="T456" s="15"/>
       <c r="U456" s="15"/>
-      <c r="V456" s="41"/>
-      <c r="W456" s="41"/>
+      <c r="V456" s="15"/>
+      <c r="W456" s="15"/>
     </row>
     <row r="457" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
@@ -21016,8 +21026,8 @@
       <c r="S457" s="3"/>
       <c r="T457" s="3"/>
       <c r="U457" s="3"/>
-      <c r="V457" s="37"/>
-      <c r="W457" s="37"/>
+      <c r="V457" s="3"/>
+      <c r="W457" s="3"/>
     </row>
     <row r="460" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
@@ -21031,7 +21041,7 @@
     </row>
     <row r="462" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="463" spans="1:23" x14ac:dyDescent="0.25">
@@ -21044,7 +21054,7 @@
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.25">
@@ -21146,10 +21156,10 @@
       <c r="U469" s="9">
         <v>2019</v>
       </c>
-      <c r="V469" s="38">
+      <c r="V469" s="9">
         <v>2020</v>
       </c>
-      <c r="W469" s="38">
+      <c r="W469" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -21217,11 +21227,11 @@
       <c r="U471" s="17">
         <v>8.8203237471017495</v>
       </c>
-      <c r="V471" s="43">
-        <v>10.184808082049731</v>
-      </c>
-      <c r="W471" s="43">
-        <v>10.077654877911998</v>
+      <c r="V471" s="17">
+        <v>10.185311031910887</v>
+      </c>
+      <c r="W471" s="17">
+        <v>10.068456720823523</v>
       </c>
     </row>
     <row r="472" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -21288,11 +21298,11 @@
       <c r="U472" s="17">
         <v>30.327507879516236</v>
       </c>
-      <c r="V472" s="43">
-        <v>28.398127710212695</v>
-      </c>
-      <c r="W472" s="43">
-        <v>28.864111596391595</v>
+      <c r="V472" s="17">
+        <v>28.399917585046559</v>
+      </c>
+      <c r="W472" s="17">
+        <v>28.88638042951931</v>
       </c>
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.25">
@@ -21359,11 +21369,11 @@
       <c r="U473" s="17">
         <v>0.82824831617892858</v>
       </c>
-      <c r="V473" s="43">
-        <v>0.75835760902873228</v>
-      </c>
-      <c r="W473" s="43">
-        <v>0.92775401959128734</v>
+      <c r="V473" s="17">
+        <v>0.76350028475133092</v>
+      </c>
+      <c r="W473" s="17">
+        <v>0.95455227828861111</v>
       </c>
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.25">
@@ -21430,11 +21440,11 @@
       <c r="U474" s="17">
         <v>18.516454400330357</v>
       </c>
-      <c r="V474" s="43">
-        <v>17.672057347259912</v>
-      </c>
-      <c r="W474" s="43">
-        <v>17.669874858782293</v>
+      <c r="V474" s="17">
+        <v>17.6581790476138</v>
+      </c>
+      <c r="W474" s="17">
+        <v>17.636804091251491</v>
       </c>
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.25">
@@ -21501,11 +21511,11 @@
       <c r="U475" s="17">
         <v>3.1144878804270544</v>
       </c>
-      <c r="V475" s="43">
-        <v>3.4058029164349684</v>
-      </c>
-      <c r="W475" s="43">
-        <v>3.3572560656489947</v>
+      <c r="V475" s="17">
+        <v>3.4038873775634011</v>
+      </c>
+      <c r="W475" s="17">
+        <v>3.3532062836952305</v>
       </c>
     </row>
     <row r="476" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -21572,11 +21582,11 @@
       <c r="U476" s="17">
         <v>7.8683172825798966</v>
       </c>
-      <c r="V476" s="43">
-        <v>6.5619098374890852</v>
-      </c>
-      <c r="W476" s="43">
-        <v>6.9092266523690187</v>
+      <c r="V476" s="17">
+        <v>6.574350875118026</v>
+      </c>
+      <c r="W476" s="17">
+        <v>6.9418177762839743</v>
       </c>
     </row>
     <row r="477" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -21643,11 +21653,11 @@
       <c r="U477" s="17">
         <v>60.852168373382007</v>
       </c>
-      <c r="V477" s="43">
-        <v>61.417064207737567</v>
-      </c>
-      <c r="W477" s="43">
-        <v>61.058233525696402</v>
+      <c r="V477" s="17">
+        <v>61.414771383042556</v>
+      </c>
+      <c r="W477" s="17">
+        <v>61.045162849657167</v>
       </c>
     </row>
     <row r="478" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -21714,11 +21724,11 @@
       <c r="U478" s="17">
         <v>18.022736669042384</v>
       </c>
-      <c r="V478" s="43">
-        <v>18.513209752612038</v>
-      </c>
-      <c r="W478" s="43">
-        <v>18.119110952623366</v>
+      <c r="V478" s="17">
+        <v>18.479553716673756</v>
+      </c>
+      <c r="W478" s="17">
+        <v>18.04808838978785</v>
       </c>
     </row>
     <row r="479" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -21785,11 +21795,11 @@
       <c r="U479" s="17">
         <v>3.8818867700890847</v>
       </c>
-      <c r="V479" s="43">
-        <v>3.0602937679358067</v>
-      </c>
-      <c r="W479" s="43">
-        <v>3.1057218310524144</v>
+      <c r="V479" s="17">
+        <v>3.0696172067775183</v>
+      </c>
+      <c r="W479" s="17">
+        <v>3.1164396316436416</v>
       </c>
     </row>
     <row r="480" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -21856,11 +21866,11 @@
       <c r="U480" s="17">
         <v>2.2122179846922476</v>
       </c>
-      <c r="V480" s="43">
-        <v>1.4140257697474645</v>
-      </c>
-      <c r="W480" s="43">
-        <v>1.4840504535751575</v>
+      <c r="V480" s="17">
+        <v>1.4094209082023603</v>
+      </c>
+      <c r="W480" s="17">
+        <v>1.4695288898140919</v>
       </c>
     </row>
     <row r="481" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -21927,11 +21937,11 @@
       <c r="U481" s="17">
         <v>2.883684988502957</v>
       </c>
-      <c r="V481" s="43">
-        <v>3.3047119891196344</v>
-      </c>
-      <c r="W481" s="43">
-        <v>3.2947125903594352</v>
+      <c r="V481" s="17">
+        <v>3.3035509279698858</v>
+      </c>
+      <c r="W481" s="17">
+        <v>3.2981632329964095</v>
       </c>
     </row>
     <row r="482" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -21998,11 +22008,11 @@
       <c r="U482" s="17">
         <v>8.6170810979250092</v>
       </c>
-      <c r="V482" s="43">
-        <v>10.160044057199565</v>
-      </c>
-      <c r="W482" s="43">
-        <v>10.094591236029963</v>
+      <c r="V482" s="17">
+        <v>10.160550631022117</v>
+      </c>
+      <c r="W482" s="17">
+        <v>10.107491530406978</v>
       </c>
     </row>
     <row r="483" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22069,11 +22079,11 @@
       <c r="U483" s="17">
         <v>6.4333047396607679</v>
       </c>
-      <c r="V483" s="43">
-        <v>6.0094895493668359</v>
-      </c>
-      <c r="W483" s="43">
-        <v>5.8523604691355482</v>
+      <c r="V483" s="17">
+        <v>6.025166477928507</v>
+      </c>
+      <c r="W483" s="17">
+        <v>5.867427925981211</v>
       </c>
     </row>
     <row r="484" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22140,11 +22150,11 @@
       <c r="U484" s="17">
         <v>6.2494382448722936</v>
       </c>
-      <c r="V484" s="43">
-        <v>6.3152655852176887</v>
-      </c>
-      <c r="W484" s="43">
-        <v>6.2656455391127297</v>
+      <c r="V484" s="17">
+        <v>6.3368150213289347</v>
+      </c>
+      <c r="W484" s="17">
+        <v>6.2895504539030753</v>
       </c>
     </row>
     <row r="485" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -22211,11 +22221,11 @@
       <c r="U485" s="17">
         <v>4.5634489616627967</v>
       </c>
-      <c r="V485" s="43">
-        <v>5.3001025643119632</v>
-      </c>
-      <c r="W485" s="43">
-        <v>5.2882903490693023</v>
+      <c r="V485" s="17">
+        <v>5.295302556960654</v>
+      </c>
+      <c r="W485" s="17">
+        <v>5.3086465981583686</v>
       </c>
     </row>
     <row r="486" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22282,11 +22292,11 @@
       <c r="U486" s="17">
         <v>3.9905372783803736</v>
       </c>
-      <c r="V486" s="43">
-        <v>3.9872166306205088</v>
-      </c>
-      <c r="W486" s="43">
-        <v>4.0723723709787318</v>
+      <c r="V486" s="17">
+        <v>4.007969096422598</v>
+      </c>
+      <c r="W486" s="17">
+        <v>4.1051185871223455</v>
       </c>
     </row>
     <row r="487" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22353,11 +22363,11 @@
       <c r="U487" s="17">
         <v>1.690052847055274</v>
       </c>
-      <c r="V487" s="43">
-        <v>1.8379810229051399</v>
-      </c>
-      <c r="W487" s="43">
-        <v>2.0317518685340796</v>
+      <c r="V487" s="17">
+        <v>1.8118751376795961</v>
+      </c>
+      <c r="W487" s="17">
+        <v>1.9869903367680579</v>
       </c>
     </row>
     <row r="488" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22424,11 +22434,11 @@
       <c r="U488" s="17">
         <v>2.3077787914988148</v>
       </c>
-      <c r="V488" s="43">
-        <v>1.5147235187009196</v>
-      </c>
-      <c r="W488" s="43">
-        <v>1.4496258652256875</v>
+      <c r="V488" s="17">
+        <v>1.5149497020766169</v>
+      </c>
+      <c r="W488" s="17">
+        <v>1.4477172730751422</v>
       </c>
     </row>
     <row r="489" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22453,8 +22463,8 @@
       <c r="S489" s="17"/>
       <c r="T489" s="17"/>
       <c r="U489" s="17"/>
-      <c r="V489" s="43"/>
-      <c r="W489" s="43"/>
+      <c r="V489" s="17"/>
+      <c r="W489" s="17"/>
     </row>
     <row r="490" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
@@ -22520,10 +22530,10 @@
       <c r="U490" s="17">
         <v>100</v>
       </c>
-      <c r="V490" s="43">
+      <c r="V490" s="17">
         <v>100</v>
       </c>
-      <c r="W490" s="43">
+      <c r="W490" s="17">
         <v>100</v>
       </c>
     </row>
@@ -22591,11 +22601,11 @@
       <c r="U491" s="17">
         <v>90.898883716745132</v>
       </c>
-      <c r="V491" s="43">
-        <v>92.850538166992791</v>
-      </c>
-      <c r="W491" s="43">
-        <v>96.438010331614691</v>
+      <c r="V491" s="17">
+        <v>92.955535915064161</v>
+      </c>
+      <c r="W491" s="17">
+        <v>96.548676596540901</v>
       </c>
     </row>
     <row r="492" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -22662,11 +22672,11 @@
       <c r="U492" s="17">
         <v>9.1011162832548731</v>
       </c>
-      <c r="V492" s="43">
-        <v>7.1494618330072148</v>
-      </c>
-      <c r="W492" s="43">
-        <v>3.5619896683852912</v>
+      <c r="V492" s="17">
+        <v>7.0444640849358446</v>
+      </c>
+      <c r="W492" s="17">
+        <v>3.4513234034590954</v>
       </c>
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.25">
@@ -22690,8 +22700,8 @@
       <c r="S493" s="17"/>
       <c r="T493" s="17"/>
       <c r="U493" s="17"/>
-      <c r="V493" s="43"/>
-      <c r="W493" s="43"/>
+      <c r="V493" s="17"/>
+      <c r="W493" s="17"/>
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
@@ -22757,10 +22767,10 @@
       <c r="U494" s="17">
         <v>100</v>
       </c>
-      <c r="V494" s="43">
+      <c r="V494" s="17">
         <v>100</v>
       </c>
-      <c r="W494" s="43">
+      <c r="W494" s="17">
         <v>100</v>
       </c>
     </row>
@@ -22786,8 +22796,8 @@
       <c r="S495" s="15"/>
       <c r="T495" s="15"/>
       <c r="U495" s="15"/>
-      <c r="V495" s="41"/>
-      <c r="W495" s="41"/>
+      <c r="V495" s="15"/>
+      <c r="W495" s="15"/>
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
@@ -22806,7 +22816,7 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.25">
@@ -22819,7 +22829,7 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A504" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.25">
@@ -22921,10 +22931,10 @@
       <c r="U508" s="9">
         <v>2019</v>
       </c>
-      <c r="V508" s="38">
+      <c r="V508" s="9">
         <v>2020</v>
       </c>
-      <c r="W508" s="38">
+      <c r="W508" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -22992,11 +23002,11 @@
       <c r="U510" s="17">
         <v>9.2033126929201607</v>
       </c>
-      <c r="V510" s="43">
-        <v>10.158730556426089</v>
-      </c>
-      <c r="W510" s="43">
-        <v>9.593293571524006</v>
+      <c r="V510" s="17">
+        <v>10.151707571626629</v>
+      </c>
+      <c r="W510" s="17">
+        <v>9.5768309663345228</v>
       </c>
     </row>
     <row r="511" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -23063,11 +23073,11 @@
       <c r="U511" s="17">
         <v>30.37684802804343</v>
       </c>
-      <c r="V511" s="43">
-        <v>29.166693183321474</v>
-      </c>
-      <c r="W511" s="43">
-        <v>29.888183934450925</v>
+      <c r="V511" s="17">
+        <v>29.167301996634841</v>
+      </c>
+      <c r="W511" s="17">
+        <v>29.93563573530454</v>
       </c>
     </row>
     <row r="512" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23134,11 +23144,11 @@
       <c r="U512" s="17">
         <v>0.87117158438098419</v>
       </c>
-      <c r="V512" s="43">
-        <v>0.78129795229003196</v>
-      </c>
-      <c r="W512" s="43">
-        <v>0.75914455431890415</v>
+      <c r="V512" s="17">
+        <v>0.78397909562026213</v>
+      </c>
+      <c r="W512" s="17">
+        <v>0.77910571134403594</v>
       </c>
     </row>
     <row r="513" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23205,11 +23215,11 @@
       <c r="U513" s="17">
         <v>18.678752103699143</v>
       </c>
-      <c r="V513" s="43">
-        <v>18.637553179263747</v>
-      </c>
-      <c r="W513" s="43">
-        <v>19.162243542711145</v>
+      <c r="V513" s="17">
+        <v>18.624306026116493</v>
+      </c>
+      <c r="W513" s="17">
+        <v>19.175351164436147</v>
       </c>
     </row>
     <row r="514" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23276,11 +23286,11 @@
       <c r="U514" s="17">
         <v>3.0507125010546581</v>
       </c>
-      <c r="V514" s="43">
-        <v>3.3609933029601922</v>
-      </c>
-      <c r="W514" s="43">
-        <v>3.325381963258947</v>
+      <c r="V514" s="17">
+        <v>3.3596664451571154</v>
+      </c>
+      <c r="W514" s="17">
+        <v>3.3202267442804265</v>
       </c>
     </row>
     <row r="515" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23347,11 +23357,11 @@
       <c r="U515" s="17">
         <v>7.7762118389086448</v>
       </c>
-      <c r="V515" s="43">
-        <v>6.3868487488075072</v>
-      </c>
-      <c r="W515" s="43">
-        <v>6.6414138741619277</v>
+      <c r="V515" s="17">
+        <v>6.3993504297409745</v>
+      </c>
+      <c r="W515" s="17">
+        <v>6.6609521152439326</v>
       </c>
     </row>
     <row r="516" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -23418,11 +23428,11 @@
       <c r="U516" s="17">
         <v>60.419839279036417</v>
       </c>
-      <c r="V516" s="43">
-        <v>60.674576260252444</v>
-      </c>
-      <c r="W516" s="43">
-        <v>60.518522494025071</v>
+      <c r="V516" s="17">
+        <v>60.680990431738536</v>
+      </c>
+      <c r="W516" s="17">
+        <v>60.48753329836093</v>
       </c>
     </row>
     <row r="517" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -23489,11 +23499,11 @@
       <c r="U517" s="17">
         <v>18.002085816280808</v>
       </c>
-      <c r="V517" s="43">
-        <v>18.709654587693766</v>
-      </c>
-      <c r="W517" s="43">
-        <v>18.483249812272426</v>
+      <c r="V517" s="17">
+        <v>18.676964783164355</v>
+      </c>
+      <c r="W517" s="17">
+        <v>18.417932964202887</v>
       </c>
     </row>
     <row r="518" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23560,11 +23570,11 @@
       <c r="U518" s="17">
         <v>3.8299337236138471</v>
       </c>
-      <c r="V518" s="43">
-        <v>2.9255576644037431</v>
-      </c>
-      <c r="W518" s="43">
-        <v>2.9445811986620596</v>
+      <c r="V518" s="17">
+        <v>2.9373586900995949</v>
+      </c>
+      <c r="W518" s="17">
+        <v>2.9536125918131368</v>
       </c>
     </row>
     <row r="519" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23631,11 +23641,11 @@
       <c r="U519" s="17">
         <v>2.1962437333244158</v>
       </c>
-      <c r="V519" s="43">
-        <v>1.3258725773146207</v>
-      </c>
-      <c r="W519" s="43">
-        <v>1.3531780890933145</v>
+      <c r="V519" s="17">
+        <v>1.3217741821685316</v>
+      </c>
+      <c r="W519" s="17">
+        <v>1.3402532661792894</v>
       </c>
     </row>
     <row r="520" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23702,11 +23712,11 @@
       <c r="U520" s="17">
         <v>2.8737259918875728</v>
       </c>
-      <c r="V520" s="43">
-        <v>3.3375522552408601</v>
-      </c>
-      <c r="W520" s="43">
-        <v>3.446764640169707</v>
+      <c r="V520" s="17">
+        <v>3.3366994315111955</v>
+      </c>
+      <c r="W520" s="17">
+        <v>3.4476279743836948</v>
       </c>
     </row>
     <row r="521" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23773,11 +23783,11 @@
       <c r="U521" s="17">
         <v>8.6491754194950232</v>
       </c>
-      <c r="V521" s="43">
-        <v>10.09060250055143</v>
-      </c>
-      <c r="W521" s="43">
-        <v>9.9879093876443399</v>
+      <c r="V521" s="17">
+        <v>10.092190180561449</v>
+      </c>
+      <c r="W521" s="17">
+        <v>9.9964885139739064</v>
       </c>
     </row>
     <row r="522" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -23844,11 +23854,11 @@
       <c r="U522" s="17">
         <v>6.3895445265623625</v>
       </c>
-      <c r="V522" s="43">
-        <v>5.8643578565324717</v>
-      </c>
-      <c r="W522" s="43">
-        <v>5.673264301087948</v>
+      <c r="V522" s="17">
+        <v>5.880282706250016</v>
+      </c>
+      <c r="W522" s="17">
+        <v>5.6853026696301248</v>
       </c>
     </row>
     <row r="523" spans="1:23" s="20" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -23915,11 +23925,11 @@
       <c r="U523" s="17">
         <v>6.0990238509443335</v>
       </c>
-      <c r="V523" s="43">
-        <v>6.0723643490519033</v>
-      </c>
-      <c r="W523" s="43">
-        <v>6.1043055361601404</v>
+      <c r="V523" s="17">
+        <v>6.0940749486776351</v>
+      </c>
+      <c r="W523" s="17">
+        <v>6.1237177789043677</v>
       </c>
     </row>
     <row r="524" spans="1:23" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -23986,11 +23996,11 @@
       <c r="U524" s="17">
         <v>4.4965975202303596</v>
       </c>
-      <c r="V524" s="43">
-        <v>5.1996437209326372</v>
-      </c>
-      <c r="W524" s="43">
-        <v>5.1798499603928008</v>
+      <c r="V524" s="17">
+        <v>5.1955520225720448</v>
+      </c>
+      <c r="W524" s="17">
+        <v>5.1937732056938559</v>
       </c>
     </row>
     <row r="525" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -24057,11 +24067,11 @@
       <c r="U525" s="17">
         <v>3.9524267292937232</v>
       </c>
-      <c r="V525" s="43">
-        <v>3.9000072742463714</v>
-      </c>
-      <c r="W525" s="43">
-        <v>3.9875226483565922</v>
+      <c r="V525" s="17">
+        <v>3.9207207318460338</v>
+      </c>
+      <c r="W525" s="17">
+        <v>4.0160797221639326</v>
       </c>
     </row>
     <row r="526" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -24128,11 +24138,11 @@
       <c r="U526" s="17">
         <v>1.6677778263159599</v>
       </c>
-      <c r="V526" s="43">
-        <v>1.7739835868307723</v>
-      </c>
-      <c r="W526" s="43">
-        <v>1.9320822591309128</v>
+      <c r="V526" s="17">
+        <v>1.7499451478681007</v>
+      </c>
+      <c r="W526" s="17">
+        <v>1.8894530696500762</v>
       </c>
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.25">
@@ -24199,11 +24209,11 @@
       <c r="U527" s="17">
         <v>2.263304141088013</v>
       </c>
-      <c r="V527" s="43">
-        <v>1.4749798874538713</v>
-      </c>
-      <c r="W527" s="43">
-        <v>1.4258146610548366</v>
+      <c r="V527" s="17">
+        <v>1.4754276070195671</v>
+      </c>
+      <c r="W527" s="17">
+        <v>1.4232915417656602</v>
       </c>
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.25">
@@ -24228,8 +24238,8 @@
       <c r="S528" s="17"/>
       <c r="T528" s="17"/>
       <c r="U528" s="17"/>
-      <c r="V528" s="43"/>
-      <c r="W528" s="43"/>
+      <c r="V528" s="17"/>
+      <c r="W528" s="17"/>
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A529" s="14" t="s">
@@ -24295,10 +24305,10 @@
       <c r="U529" s="17">
         <v>100</v>
       </c>
-      <c r="V529" s="43">
+      <c r="V529" s="17">
         <v>100</v>
       </c>
-      <c r="W529" s="43">
+      <c r="W529" s="17">
         <v>100</v>
       </c>
     </row>
@@ -24366,11 +24376,11 @@
       <c r="U530" s="17">
         <v>91.002963028533884</v>
       </c>
-      <c r="V530" s="43">
-        <v>92.896874741998829</v>
-      </c>
-      <c r="W530" s="43">
-        <v>96.521302594109088</v>
+      <c r="V530" s="17">
+        <v>92.99940902680477</v>
+      </c>
+      <c r="W530" s="17">
+        <v>96.650176782091165</v>
       </c>
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.25">
@@ -24437,11 +24447,11 @@
       <c r="U531" s="17">
         <v>8.9970369714661178</v>
       </c>
-      <c r="V531" s="43">
-        <v>7.1031252580011666</v>
-      </c>
-      <c r="W531" s="43">
-        <v>3.4786974058909221</v>
+      <c r="V531" s="17">
+        <v>7.0005909731952354</v>
+      </c>
+      <c r="W531" s="17">
+        <v>3.3498232179088276</v>
       </c>
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.25">
@@ -24465,8 +24475,8 @@
       <c r="S532" s="17"/>
       <c r="T532" s="17"/>
       <c r="U532" s="17"/>
-      <c r="V532" s="43"/>
-      <c r="W532" s="43"/>
+      <c r="V532" s="17"/>
+      <c r="W532" s="17"/>
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
@@ -24532,10 +24542,10 @@
       <c r="U533" s="17">
         <v>100</v>
       </c>
-      <c r="V533" s="43">
+      <c r="V533" s="17">
         <v>100</v>
       </c>
-      <c r="W533" s="43">
+      <c r="W533" s="17">
         <v>100</v>
       </c>
     </row>
@@ -24561,8 +24571,8 @@
       <c r="S534" s="15"/>
       <c r="T534" s="15"/>
       <c r="U534" s="15"/>
-      <c r="V534" s="41"/>
-      <c r="W534" s="41"/>
+      <c r="V534" s="15"/>
+      <c r="W534" s="15"/>
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
@@ -24590,8 +24600,8 @@
       <c r="S536" s="23"/>
       <c r="T536" s="23"/>
       <c r="U536" s="23"/>
-      <c r="V536" s="45"/>
-      <c r="W536" s="45"/>
+      <c r="V536" s="23"/>
+      <c r="W536" s="23"/>
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B537" s="23"/>
@@ -24614,8 +24624,8 @@
       <c r="S537" s="23"/>
       <c r="T537" s="23"/>
       <c r="U537" s="23"/>
-      <c r="V537" s="45"/>
-      <c r="W537" s="45"/>
+      <c r="V537" s="23"/>
+      <c r="W537" s="23"/>
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A538" s="24" t="s">
@@ -24629,7 +24639,7 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A540" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.25">
@@ -24642,7 +24652,7 @@
     </row>
     <row r="543" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -24664,8 +24674,8 @@
       <c r="S543" s="3"/>
       <c r="T543" s="3"/>
       <c r="U543" s="3"/>
-      <c r="V543" s="37"/>
-      <c r="W543" s="37"/>
+      <c r="V543" s="3"/>
+      <c r="W543" s="3"/>
     </row>
     <row r="544" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="24" t="s">
@@ -24691,8 +24701,8 @@
       <c r="S544" s="3"/>
       <c r="T544" s="3"/>
       <c r="U544" s="3"/>
-      <c r="V544" s="37"/>
-      <c r="W544" s="37"/>
+      <c r="V544" s="3"/>
+      <c r="W544" s="3"/>
     </row>
     <row r="545" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="24"/>
@@ -24716,8 +24726,8 @@
       <c r="S545" s="3"/>
       <c r="T545" s="3"/>
       <c r="U545" s="3"/>
-      <c r="V545" s="37"/>
-      <c r="W545" s="37"/>
+      <c r="V545" s="3"/>
+      <c r="W545" s="3"/>
     </row>
     <row r="546" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="25"/>
@@ -24808,10 +24818,10 @@
       <c r="U547" s="9">
         <v>2019</v>
       </c>
-      <c r="V547" s="38">
+      <c r="V547" s="9">
         <v>2020</v>
       </c>
-      <c r="W547" s="38">
+      <c r="W547" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -24837,8 +24847,8 @@
       <c r="S548" s="3"/>
       <c r="T548" s="3"/>
       <c r="U548" s="3"/>
-      <c r="V548" s="37"/>
-      <c r="W548" s="37"/>
+      <c r="V548" s="3"/>
+      <c r="W548" s="3"/>
     </row>
     <row r="549" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="24" t="s">
@@ -24904,11 +24914,11 @@
       <c r="U549" s="28">
         <v>2671641.5172542371</v>
       </c>
-      <c r="V549" s="46">
-        <v>1919266.6618342462</v>
-      </c>
-      <c r="W549" s="46">
-        <v>1133747.1657756579</v>
+      <c r="V549" s="28">
+        <v>1906916.8971984382</v>
+      </c>
+      <c r="W549" s="28">
+        <v>1121886.3050013401</v>
       </c>
     </row>
     <row r="550" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -24975,10 +24985,10 @@
       <c r="U550" s="30">
         <v>2430628.4430767801</v>
       </c>
-      <c r="V550" s="39">
+      <c r="V550" s="30">
         <v>1740559.0291181721</v>
       </c>
-      <c r="W550" s="39">
+      <c r="W550" s="30">
         <v>941740.52341519285</v>
       </c>
     </row>
@@ -25046,11 +25056,11 @@
       <c r="U551" s="30">
         <v>241013.07417745717</v>
       </c>
-      <c r="V551" s="39">
-        <v>178707.63271607403</v>
-      </c>
-      <c r="W551" s="39">
-        <v>192006.64236046499</v>
+      <c r="V551" s="30">
+        <v>166357.86808026594</v>
+      </c>
+      <c r="W551" s="30">
+        <v>180145.78158614723</v>
       </c>
     </row>
     <row r="552" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -25075,8 +25085,8 @@
       <c r="S552" s="31"/>
       <c r="T552" s="31"/>
       <c r="U552" s="31"/>
-      <c r="V552" s="47"/>
-      <c r="W552" s="47"/>
+      <c r="V552" s="31"/>
+      <c r="W552" s="31"/>
     </row>
     <row r="553" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="24" t="s">
@@ -25142,11 +25152,11 @@
       <c r="U553" s="28">
         <v>717444.33613514109</v>
       </c>
-      <c r="V553" s="46">
-        <v>538001.53497753013</v>
-      </c>
-      <c r="W553" s="46">
-        <v>417670.17276920978</v>
+      <c r="V553" s="28">
+        <v>546489.95718717109</v>
+      </c>
+      <c r="W553" s="28">
+        <v>428017.15873600548</v>
       </c>
     </row>
     <row r="554" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -25213,10 +25223,10 @@
       <c r="U554" s="30">
         <v>306547.0492927545</v>
       </c>
-      <c r="V554" s="39">
+      <c r="V554" s="30">
         <v>192988.61009781866</v>
       </c>
-      <c r="W554" s="39">
+      <c r="W554" s="30">
         <v>41536.82155529641</v>
       </c>
     </row>
@@ -25284,11 +25294,11 @@
       <c r="U555" s="30">
         <v>410897.28684238659</v>
       </c>
-      <c r="V555" s="39">
-        <v>345012.92487971141</v>
-      </c>
-      <c r="W555" s="39">
-        <v>376133.35121391335</v>
+      <c r="V555" s="30">
+        <v>353501.34708935244</v>
+      </c>
+      <c r="W555" s="30">
+        <v>386480.33718070906</v>
       </c>
     </row>
     <row r="556" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -25313,8 +25323,8 @@
       <c r="S556" s="31"/>
       <c r="T556" s="31"/>
       <c r="U556" s="31"/>
-      <c r="V556" s="47"/>
-      <c r="W556" s="47"/>
+      <c r="V556" s="31"/>
+      <c r="W556" s="31"/>
     </row>
     <row r="557" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="32" t="s">
@@ -25380,11 +25390,11 @@
       <c r="U557" s="31">
         <v>1954197.181119096</v>
       </c>
-      <c r="V557" s="47">
-        <v>1381265.1268567161</v>
-      </c>
-      <c r="W557" s="47">
-        <v>716076.99300644803</v>
+      <c r="V557" s="31">
+        <v>1360426.9400112671</v>
+      </c>
+      <c r="W557" s="31">
+        <v>693869.14626533468</v>
       </c>
     </row>
     <row r="558" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -25409,8 +25419,8 @@
       <c r="S558" s="15"/>
       <c r="T558" s="15"/>
       <c r="U558" s="15"/>
-      <c r="V558" s="41"/>
-      <c r="W558" s="41"/>
+      <c r="V558" s="15"/>
+      <c r="W558" s="15"/>
     </row>
     <row r="559" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
@@ -25436,8 +25446,8 @@
       <c r="S559" s="3"/>
       <c r="T559" s="3"/>
       <c r="U559" s="3"/>
-      <c r="V559" s="37"/>
-      <c r="W559" s="37"/>
+      <c r="V559" s="3"/>
+      <c r="W559" s="3"/>
     </row>
     <row r="560" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="24"/>
@@ -25461,8 +25471,8 @@
       <c r="S560" s="3"/>
       <c r="T560" s="3"/>
       <c r="U560" s="3"/>
-      <c r="V560" s="37"/>
-      <c r="W560" s="37"/>
+      <c r="V560" s="3"/>
+      <c r="W560" s="3"/>
     </row>
     <row r="561" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="24"/>
@@ -25486,8 +25496,8 @@
       <c r="S561" s="3"/>
       <c r="T561" s="3"/>
       <c r="U561" s="3"/>
-      <c r="V561" s="37"/>
-      <c r="W561" s="37"/>
+      <c r="V561" s="3"/>
+      <c r="W561" s="3"/>
     </row>
     <row r="562" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="24" t="s">
@@ -25513,8 +25523,8 @@
       <c r="S562" s="3"/>
       <c r="T562" s="3"/>
       <c r="U562" s="3"/>
-      <c r="V562" s="37"/>
-      <c r="W562" s="37"/>
+      <c r="V562" s="3"/>
+      <c r="W562" s="3"/>
     </row>
     <row r="563" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="24" t="s">
@@ -25540,12 +25550,12 @@
       <c r="S563" s="3"/>
       <c r="T563" s="3"/>
       <c r="U563" s="3"/>
-      <c r="V563" s="37"/>
-      <c r="W563" s="37"/>
+      <c r="V563" s="3"/>
+      <c r="W563" s="3"/>
     </row>
     <row r="564" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -25567,8 +25577,8 @@
       <c r="S564" s="3"/>
       <c r="T564" s="3"/>
       <c r="U564" s="3"/>
-      <c r="V564" s="37"/>
-      <c r="W564" s="37"/>
+      <c r="V564" s="3"/>
+      <c r="W564" s="3"/>
     </row>
     <row r="565" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="24"/>
@@ -25592,8 +25602,8 @@
       <c r="S565" s="3"/>
       <c r="T565" s="3"/>
       <c r="U565" s="3"/>
-      <c r="V565" s="37"/>
-      <c r="W565" s="37"/>
+      <c r="V565" s="3"/>
+      <c r="W565" s="3"/>
     </row>
     <row r="566" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="24" t="s">
@@ -25619,12 +25629,12 @@
       <c r="S566" s="3"/>
       <c r="T566" s="3"/>
       <c r="U566" s="3"/>
-      <c r="V566" s="37"/>
-      <c r="W566" s="37"/>
+      <c r="V566" s="3"/>
+      <c r="W566" s="3"/>
     </row>
     <row r="567" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -25646,8 +25656,8 @@
       <c r="S567" s="3"/>
       <c r="T567" s="3"/>
       <c r="U567" s="3"/>
-      <c r="V567" s="37"/>
-      <c r="W567" s="37"/>
+      <c r="V567" s="3"/>
+      <c r="W567" s="3"/>
     </row>
     <row r="568" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="24" t="s">
@@ -25673,8 +25683,8 @@
       <c r="S568" s="3"/>
       <c r="T568" s="3"/>
       <c r="U568" s="3"/>
-      <c r="V568" s="37"/>
-      <c r="W568" s="37"/>
+      <c r="V568" s="3"/>
+      <c r="W568" s="3"/>
     </row>
     <row r="569" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="24"/>
@@ -25698,8 +25708,8 @@
       <c r="S569" s="3"/>
       <c r="T569" s="3"/>
       <c r="U569" s="3"/>
-      <c r="V569" s="37"/>
-      <c r="W569" s="37"/>
+      <c r="V569" s="3"/>
+      <c r="W569" s="3"/>
     </row>
     <row r="570" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="25"/>
@@ -25790,10 +25800,10 @@
       <c r="U571" s="9">
         <v>2019</v>
       </c>
-      <c r="V571" s="38">
+      <c r="V571" s="9">
         <v>2020</v>
       </c>
-      <c r="W571" s="38">
+      <c r="W571" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -25819,8 +25829,8 @@
       <c r="S572" s="3"/>
       <c r="T572" s="3"/>
       <c r="U572" s="3"/>
-      <c r="V572" s="37"/>
-      <c r="W572" s="37"/>
+      <c r="V572" s="3"/>
+      <c r="W572" s="3"/>
     </row>
     <row r="573" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="24" t="s">
@@ -25886,11 +25896,11 @@
       <c r="U573" s="28">
         <v>2620642.9124455201</v>
       </c>
-      <c r="V573" s="46">
-        <v>1859408.5922328134</v>
-      </c>
-      <c r="W573" s="46">
-        <v>1058426.7447334179</v>
+      <c r="V573" s="28">
+        <v>1847627.2404803413</v>
+      </c>
+      <c r="W573" s="28">
+        <v>1041448.6801206906</v>
       </c>
     </row>
     <row r="574" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -25957,11 +25967,11 @@
       <c r="U574" s="30">
         <v>2383283.5261953361</v>
       </c>
-      <c r="V574" s="39">
-        <v>1686092.1464060075</v>
-      </c>
-      <c r="W574" s="39">
-        <v>879222.15481678059</v>
+      <c r="V574" s="30">
+        <v>1686092.0341212533</v>
+      </c>
+      <c r="W574" s="30">
+        <v>874043.99062715471</v>
       </c>
     </row>
     <row r="575" spans="1:23" x14ac:dyDescent="0.25">
@@ -26028,11 +26038,11 @@
       <c r="U575" s="30">
         <v>237359.38625018403</v>
       </c>
-      <c r="V575" s="39">
-        <v>173316.44582680581</v>
-      </c>
-      <c r="W575" s="39">
-        <v>179204.58991663728</v>
+      <c r="V575" s="30">
+        <v>161535.20635908804</v>
+      </c>
+      <c r="W575" s="30">
+        <v>167404.68949353593</v>
       </c>
     </row>
     <row r="576" spans="1:23" x14ac:dyDescent="0.25">
@@ -26057,8 +26067,8 @@
       <c r="S576" s="31"/>
       <c r="T576" s="31"/>
       <c r="U576" s="31"/>
-      <c r="V576" s="47"/>
-      <c r="W576" s="47"/>
+      <c r="V576" s="31"/>
+      <c r="W576" s="31"/>
     </row>
     <row r="577" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A577" s="24" t="s">
@@ -26124,11 +26134,11 @@
       <c r="U577" s="28">
         <v>704361.08978658658</v>
       </c>
-      <c r="V577" s="46">
-        <v>519232.83692380099</v>
-      </c>
-      <c r="W577" s="46">
-        <v>391370.17262950051</v>
+      <c r="V577" s="28">
+        <v>527454.68631382321</v>
+      </c>
+      <c r="W577" s="28">
+        <v>398933.52682055579</v>
       </c>
     </row>
     <row r="578" spans="1:23" x14ac:dyDescent="0.25">
@@ -26195,11 +26205,11 @@
       <c r="U578" s="30">
         <v>300959.81486343226</v>
       </c>
-      <c r="V578" s="39">
-        <v>185593.07979440293</v>
-      </c>
-      <c r="W578" s="39">
-        <v>38928.27495154518</v>
+      <c r="V578" s="30">
+        <v>185591.6096175331</v>
+      </c>
+      <c r="W578" s="30">
+        <v>38663.565855127672</v>
       </c>
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.25">
@@ -26266,11 +26276,11 @@
       <c r="U579" s="30">
         <v>403401.27492315439</v>
       </c>
-      <c r="V579" s="39">
-        <v>333639.75712939806</v>
-      </c>
-      <c r="W579" s="39">
-        <v>352441.89767795533</v>
+      <c r="V579" s="30">
+        <v>341863.07669629011</v>
+      </c>
+      <c r="W579" s="30">
+        <v>360269.96096542815</v>
       </c>
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.25">
@@ -26295,8 +26305,8 @@
       <c r="S580" s="31"/>
       <c r="T580" s="31"/>
       <c r="U580" s="31"/>
-      <c r="V580" s="47"/>
-      <c r="W580" s="47"/>
+      <c r="V580" s="31"/>
+      <c r="W580" s="31"/>
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" s="32" t="s">
@@ -26362,11 +26372,11 @@
       <c r="U581" s="31">
         <v>1916281.8226589335</v>
       </c>
-      <c r="V581" s="47">
-        <v>1340175.7553090123</v>
-      </c>
-      <c r="W581" s="47">
-        <v>667056.57210391737</v>
+      <c r="V581" s="31">
+        <v>1320172.5541665182</v>
+      </c>
+      <c r="W581" s="31">
+        <v>642515.15330013481</v>
       </c>
     </row>
     <row r="582" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -26391,8 +26401,8 @@
       <c r="S582" s="15"/>
       <c r="T582" s="15"/>
       <c r="U582" s="15"/>
-      <c r="V582" s="41"/>
-      <c r="W582" s="41"/>
+      <c r="V582" s="15"/>
+      <c r="W582" s="15"/>
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
@@ -26417,7 +26427,7 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.25">
@@ -26430,7 +26440,7 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.25">
@@ -26466,7 +26476,7 @@
       <c r="T594" s="7"/>
       <c r="U594" s="7"/>
       <c r="V594" s="7"/>
-      <c r="W594" s="42"/>
+      <c r="W594" s="7"/>
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595" s="26"/>
@@ -26530,10 +26540,10 @@
       <c r="U595" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V595" s="38" t="s">
+      <c r="V595" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W595" s="38"/>
+      <c r="W595" s="9"/>
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596" s="27"/>
@@ -26600,12 +26610,12 @@
         <v>5.7620314133096144</v>
       </c>
       <c r="U597" s="17">
-        <v>-28.161519820714545</v>
-      </c>
-      <c r="V597" s="43">
-        <v>-40.928106118816551</v>
-      </c>
-      <c r="W597" s="43"/>
+        <v>-28.623773628197696</v>
+      </c>
+      <c r="V597" s="17">
+        <v>-41.167530339179017</v>
+      </c>
+      <c r="W597" s="17"/>
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598" s="29" t="s">
@@ -26671,10 +26681,10 @@
       <c r="U598" s="17">
         <v>-28.390575940314946</v>
       </c>
-      <c r="V598" s="43">
+      <c r="V598" s="17">
         <v>-45.89436453112932</v>
       </c>
-      <c r="W598" s="43"/>
+      <c r="W598" s="17"/>
     </row>
     <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599" s="29" t="s">
@@ -26738,12 +26748,12 @@
         <v>20.766281629940252</v>
       </c>
       <c r="U599" s="17">
-        <v>-25.851477839541531</v>
-      </c>
-      <c r="V599" s="43">
-        <v>7.4417692418991805</v>
-      </c>
-      <c r="W599" s="43"/>
+        <v>-30.975583524660919</v>
+      </c>
+      <c r="V599" s="17">
+        <v>8.2881042327548755</v>
+      </c>
+      <c r="W599" s="17"/>
     </row>
     <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600" s="24"/>
@@ -26829,12 +26839,12 @@
         <v>23.926156631796246</v>
       </c>
       <c r="U601" s="17">
-        <v>-25.011390029819722</v>
-      </c>
-      <c r="V601" s="43">
-        <v>-22.366360388422692</v>
-      </c>
-      <c r="W601" s="43"/>
+        <v>-23.828242880680889</v>
+      </c>
+      <c r="V601" s="17">
+        <v>-21.678861046405117</v>
+      </c>
+      <c r="W601" s="17"/>
     </row>
     <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602" s="29" t="s">
@@ -26900,10 +26910,10 @@
       <c r="U602" s="17">
         <v>-37.044375229489411</v>
       </c>
-      <c r="V602" s="43">
+      <c r="V602" s="17">
         <v>-78.477060623296396</v>
       </c>
-      <c r="W602" s="43"/>
+      <c r="W602" s="17"/>
     </row>
     <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603" s="29" t="s">
@@ -26967,12 +26977,12 @@
         <v>-4.1429074102677106</v>
       </c>
       <c r="U603" s="17">
-        <v>-16.034265514132571</v>
-      </c>
-      <c r="V603" s="43">
-        <v>9.0200755073312422</v>
-      </c>
-      <c r="W603" s="43"/>
+        <v>-13.968439702803465</v>
+      </c>
+      <c r="V603" s="17">
+        <v>9.3292402880209409</v>
+      </c>
+      <c r="W603" s="17"/>
     </row>
     <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604" s="24"/>
@@ -27058,12 +27068,12 @@
         <v>0.36147661017595567</v>
       </c>
       <c r="U605" s="17">
-        <v>-29.31802684999694</v>
-      </c>
-      <c r="V605" s="43">
-        <v>-48.157889525815165</v>
-      </c>
-      <c r="W605" s="43"/>
+        <v>-30.384356647561987</v>
+      </c>
+      <c r="V605" s="17">
+        <v>-48.996221270097159</v>
+      </c>
+      <c r="W605" s="17"/>
     </row>
     <row r="606" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="15"/>
@@ -27087,8 +27097,8 @@
       <c r="S606" s="15"/>
       <c r="T606" s="15"/>
       <c r="U606" s="15"/>
-      <c r="V606" s="41"/>
-      <c r="W606" s="41"/>
+      <c r="V606" s="15"/>
+      <c r="W606" s="15"/>
     </row>
     <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
@@ -27113,7 +27123,7 @@
     </row>
     <row r="612" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A612" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="613" spans="1:23" x14ac:dyDescent="0.25">
@@ -27126,7 +27136,7 @@
     </row>
     <row r="615" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A615" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.25">
@@ -27162,7 +27172,7 @@
       <c r="T618" s="7"/>
       <c r="U618" s="7"/>
       <c r="V618" s="7"/>
-      <c r="W618" s="42"/>
+      <c r="W618" s="7"/>
     </row>
     <row r="619" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A619" s="26"/>
@@ -27226,10 +27236,10 @@
       <c r="U619" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V619" s="38" t="s">
+      <c r="V619" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W619" s="38"/>
+      <c r="W619" s="9"/>
     </row>
     <row r="620" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A620" s="27"/>
@@ -27296,12 +27306,12 @@
         <v>3.7431542514675442</v>
       </c>
       <c r="U621" s="17">
-        <v>-29.047617155224756</v>
-      </c>
-      <c r="V621" s="43">
-        <v>-43.077237076632045</v>
-      </c>
-      <c r="W621" s="43"/>
+        <v>-29.497176753616515</v>
+      </c>
+      <c r="V621" s="17">
+        <v>-43.633182207795471</v>
+      </c>
+      <c r="W621" s="17"/>
     </row>
     <row r="622" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A622" s="29" t="s">
@@ -27365,12 +27375,12 @@
         <v>2.439947326617613</v>
       </c>
       <c r="U622" s="17">
-        <v>-29.253396506387219</v>
-      </c>
-      <c r="V622" s="43">
-        <v>-47.854442196952995</v>
-      </c>
-      <c r="W622" s="43"/>
+        <v>-29.253401217734108</v>
+      </c>
+      <c r="V622" s="17">
+        <v>-48.161549136154761</v>
+      </c>
+      <c r="W622" s="17"/>
     </row>
     <row r="623" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A623" s="29" t="s">
@@ -27434,12 +27444,12 @@
         <v>18.935500014797626</v>
       </c>
       <c r="U623" s="17">
-        <v>-26.981423163891662</v>
-      </c>
-      <c r="V623" s="43">
-        <v>3.3973372011767822</v>
-      </c>
-      <c r="W623" s="43"/>
+        <v>-31.94488370102836</v>
+      </c>
+      <c r="V623" s="17">
+        <v>3.6335627797448637</v>
+      </c>
+      <c r="W623" s="17"/>
     </row>
     <row r="624" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A624" s="24"/>
@@ -27525,12 +27535,12 @@
         <v>21.666251082918023</v>
       </c>
       <c r="U625" s="17">
-        <v>-26.283145895932066</v>
-      </c>
-      <c r="V625" s="43">
-        <v>-24.625303948768689</v>
-      </c>
-      <c r="W625" s="43"/>
+        <v>-25.115868272389093</v>
+      </c>
+      <c r="V625" s="17">
+        <v>-24.366293982797288</v>
+      </c>
+      <c r="W625" s="17"/>
     </row>
     <row r="626" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A626" s="29" t="s">
@@ -27594,12 +27604,12 @@
         <v>100.27565807756059</v>
       </c>
       <c r="U626" s="17">
-        <v>-38.332936615268629</v>
-      </c>
-      <c r="V626" s="43">
-        <v>-79.024931859167751</v>
-      </c>
-      <c r="W626" s="43"/>
+        <v>-38.333425111339281</v>
+      </c>
+      <c r="V626" s="17">
+        <v>-79.16739558711437</v>
+      </c>
+      <c r="W626" s="17"/>
     </row>
     <row r="627" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A627" s="29" t="s">
@@ -27663,12 +27673,12 @@
         <v>-5.8916313167145233</v>
       </c>
       <c r="U627" s="17">
-        <v>-17.293331015635857</v>
-      </c>
-      <c r="V627" s="43">
-        <v>5.6354616459168199</v>
-      </c>
-      <c r="W627" s="43"/>
+        <v>-15.254834838731469</v>
+      </c>
+      <c r="V627" s="17">
+        <v>5.3842855587152627</v>
+      </c>
+      <c r="W627" s="17"/>
     </row>
     <row r="628" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A628" s="24"/>
@@ -27754,12 +27764,12 @@
         <v>-1.5857380302045812</v>
       </c>
       <c r="U629" s="17">
-        <v>-30.063744306176545</v>
-      </c>
-      <c r="V629" s="43">
-        <v>-50.226187165271455</v>
-      </c>
-      <c r="W629" s="43"/>
+        <v>-31.107599176893771</v>
+      </c>
+      <c r="V629" s="17">
+        <v>-51.330971752720437</v>
+      </c>
+      <c r="W629" s="17"/>
     </row>
     <row r="630" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="15"/>
@@ -27783,8 +27793,8 @@
       <c r="S630" s="15"/>
       <c r="T630" s="15"/>
       <c r="U630" s="15"/>
-      <c r="V630" s="41"/>
-      <c r="W630" s="41"/>
+      <c r="V630" s="15"/>
+      <c r="W630" s="15"/>
     </row>
     <row r="631" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
@@ -27807,7 +27817,7 @@
     </row>
     <row r="636" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A636" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="637" spans="1:23" x14ac:dyDescent="0.25">
@@ -27820,7 +27830,7 @@
     </row>
     <row r="639" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -27842,8 +27852,8 @@
       <c r="S639" s="3"/>
       <c r="T639" s="3"/>
       <c r="U639" s="3"/>
-      <c r="V639" s="37"/>
-      <c r="W639" s="37"/>
+      <c r="V639" s="3"/>
+      <c r="W639" s="3"/>
     </row>
     <row r="640" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="24" t="s">
@@ -27869,8 +27879,8 @@
       <c r="S640" s="3"/>
       <c r="T640" s="3"/>
       <c r="U640" s="3"/>
-      <c r="V640" s="37"/>
-      <c r="W640" s="37"/>
+      <c r="V640" s="3"/>
+      <c r="W640" s="3"/>
     </row>
     <row r="641" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="24"/>
@@ -27894,8 +27904,8 @@
       <c r="S641" s="3"/>
       <c r="T641" s="3"/>
       <c r="U641" s="3"/>
-      <c r="V641" s="37"/>
-      <c r="W641" s="37"/>
+      <c r="V641" s="3"/>
+      <c r="W641" s="3"/>
     </row>
     <row r="642" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="25"/>
@@ -27986,10 +27996,10 @@
       <c r="U643" s="9">
         <v>2019</v>
       </c>
-      <c r="V643" s="38">
+      <c r="V643" s="9">
         <v>2020</v>
       </c>
-      <c r="W643" s="38">
+      <c r="W643" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -28015,8 +28025,8 @@
       <c r="S644" s="3"/>
       <c r="T644" s="3"/>
       <c r="U644" s="3"/>
-      <c r="V644" s="37"/>
-      <c r="W644" s="37"/>
+      <c r="V644" s="3"/>
+      <c r="W644" s="3"/>
     </row>
     <row r="645" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="24" t="s">
@@ -28082,11 +28092,11 @@
       <c r="U645" s="33">
         <v>101.94603410355998</v>
       </c>
-      <c r="V645" s="48">
-        <v>103.21919936540436</v>
-      </c>
-      <c r="W645" s="48">
-        <v>107.11626207642841</v>
+      <c r="V645" s="33">
+        <v>103.20896203623211</v>
+      </c>
+      <c r="W645" s="33">
+        <v>107.72362828971349</v>
       </c>
     </row>
     <row r="646" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28153,11 +28163,11 @@
       <c r="U646" s="33">
         <v>101.98654152395477</v>
       </c>
-      <c r="V646" s="48">
-        <v>103.23036216189392</v>
-      </c>
-      <c r="W646" s="48">
-        <v>107.11064527388308</v>
+      <c r="V646" s="33">
+        <v>103.23036903648652</v>
+      </c>
+      <c r="W646" s="33">
+        <v>107.74520888124448</v>
       </c>
     </row>
     <row r="647" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28224,11 +28234,11 @@
       <c r="U647" s="33">
         <v>101.53930627517802</v>
       </c>
-      <c r="V647" s="48">
-        <v>103.1106031880296</v>
-      </c>
-      <c r="W647" s="48">
-        <v>107.14381950249322</v>
+      <c r="V647" s="33">
+        <v>102.98551741745837</v>
+      </c>
+      <c r="W647" s="33">
+        <v>107.61095291365974</v>
       </c>
     </row>
     <row r="648" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28253,8 +28263,8 @@
       <c r="S648" s="31"/>
       <c r="T648" s="31"/>
       <c r="U648" s="31"/>
-      <c r="V648" s="47"/>
-      <c r="W648" s="47"/>
+      <c r="V648" s="31"/>
+      <c r="W648" s="31"/>
     </row>
     <row r="649" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="24" t="s">
@@ -28320,11 +28330,11 @@
       <c r="U649" s="33">
         <v>101.8574629601585</v>
       </c>
-      <c r="V649" s="48">
-        <v>103.6146978232202</v>
-      </c>
-      <c r="W649" s="48">
-        <v>106.71998071876745</v>
+      <c r="V649" s="33">
+        <v>103.60889216974789</v>
+      </c>
+      <c r="W649" s="33">
+        <v>107.29034537338642</v>
       </c>
     </row>
     <row r="650" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28391,11 +28401,11 @@
       <c r="U650" s="33">
         <v>101.85647191199183</v>
       </c>
-      <c r="V650" s="48">
-        <v>103.9848092997909</v>
-      </c>
-      <c r="W650" s="48">
-        <v>106.70090469459062</v>
+      <c r="V650" s="33">
+        <v>103.98563302270468</v>
+      </c>
+      <c r="W650" s="33">
+        <v>107.43142965895807</v>
       </c>
     </row>
     <row r="651" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28462,11 +28472,11 @@
       <c r="U651" s="33">
         <v>101.85820233727823</v>
       </c>
-      <c r="V651" s="48">
-        <v>103.40881669743645</v>
-      </c>
-      <c r="W651" s="48">
-        <v>106.72208772340856</v>
+      <c r="V651" s="33">
+        <v>103.40436601271266</v>
+      </c>
+      <c r="W651" s="33">
+        <v>107.27520444531207</v>
       </c>
     </row>
     <row r="652" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28491,8 +28501,8 @@
       <c r="S652" s="31"/>
       <c r="T652" s="31"/>
       <c r="U652" s="31"/>
-      <c r="V652" s="47"/>
-      <c r="W652" s="47"/>
+      <c r="V652" s="31"/>
+      <c r="W652" s="31"/>
     </row>
     <row r="653" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="32" t="s">
@@ -28558,11 +28568,11 @@
       <c r="U653" s="33">
         <v>101.97858989277231</v>
       </c>
-      <c r="V653" s="48">
-        <v>103.06596887646498</v>
-      </c>
-      <c r="W653" s="48">
-        <v>107.34876515014591</v>
+      <c r="V653" s="33">
+        <v>103.04917608820941</v>
+      </c>
+      <c r="W653" s="33">
+        <v>107.99265086612068</v>
       </c>
     </row>
     <row r="654" spans="1:23" s="20" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -28587,8 +28597,8 @@
       <c r="S654" s="15"/>
       <c r="T654" s="15"/>
       <c r="U654" s="15"/>
-      <c r="V654" s="41"/>
-      <c r="W654" s="41"/>
+      <c r="V654" s="15"/>
+      <c r="W654" s="15"/>
     </row>
     <row r="655" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
@@ -28613,7 +28623,7 @@
     </row>
     <row r="660" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A660" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="661" spans="1:23" x14ac:dyDescent="0.25">
@@ -28626,7 +28636,7 @@
     </row>
     <row r="663" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A663" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="664" spans="1:23" x14ac:dyDescent="0.25">
@@ -28724,10 +28734,10 @@
       <c r="U667" s="9">
         <v>2019</v>
       </c>
-      <c r="V667" s="38">
+      <c r="V667" s="9">
         <v>2020</v>
       </c>
-      <c r="W667" s="38">
+      <c r="W667" s="9">
         <v>2021</v>
       </c>
     </row>
@@ -28803,11 +28813,11 @@
       <c r="U670" s="34">
         <v>181920.02725074501</v>
       </c>
-      <c r="V670" s="49">
-        <v>164919.15246941944</v>
-      </c>
-      <c r="W670" s="49">
-        <v>175929.64106195359</v>
+      <c r="V670" s="34">
+        <v>165038.5871443169</v>
+      </c>
+      <c r="W670" s="34">
+        <v>176141.60745670617</v>
       </c>
     </row>
     <row r="671" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28874,11 +28884,11 @@
       <c r="U671" s="34">
         <v>200134.50090062243</v>
       </c>
-      <c r="V671" s="49">
-        <v>177617.87462428099</v>
-      </c>
-      <c r="W671" s="49">
-        <v>182427.69677329148</v>
+      <c r="V671" s="34">
+        <v>177545.73250496548</v>
+      </c>
+      <c r="W671" s="34">
+        <v>182438.13759640584</v>
       </c>
     </row>
     <row r="672" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28945,11 +28955,11 @@
       <c r="U672" s="34">
         <v>133177.17439403216</v>
       </c>
-      <c r="V672" s="49">
-        <v>123915.08878837693</v>
-      </c>
-      <c r="W672" s="49">
-        <v>132574.02121491195</v>
+      <c r="V672" s="34">
+        <v>123892.89631123577</v>
+      </c>
+      <c r="W672" s="34">
+        <v>132580.10552002848</v>
       </c>
     </row>
     <row r="673" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -28974,8 +28984,8 @@
       <c r="S673" s="34"/>
       <c r="T673" s="34"/>
       <c r="U673" s="34"/>
-      <c r="V673" s="49"/>
-      <c r="W673" s="49"/>
+      <c r="V673" s="34"/>
+      <c r="W673" s="34"/>
     </row>
     <row r="674" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="24" t="s">
@@ -29001,8 +29011,8 @@
       <c r="S674" s="34"/>
       <c r="T674" s="34"/>
       <c r="U674" s="34"/>
-      <c r="V674" s="49"/>
-      <c r="W674" s="49"/>
+      <c r="V674" s="34"/>
+      <c r="W674" s="34"/>
     </row>
     <row r="675" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="29" t="s">
@@ -29068,11 +29078,11 @@
       <c r="U675" s="34">
         <v>180660.68444113579</v>
       </c>
-      <c r="V675" s="49">
-        <v>161137.4034668238</v>
-      </c>
-      <c r="W675" s="49">
-        <v>167954.9849492989</v>
+      <c r="V675" s="34">
+        <v>161234.93938276384</v>
+      </c>
+      <c r="W675" s="34">
+        <v>168223.95884336889</v>
       </c>
     </row>
     <row r="676" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -29139,11 +29149,11 @@
       <c r="U676" s="34">
         <v>198521.76064255164</v>
       </c>
-      <c r="V676" s="49">
-        <v>173458.36866347594</v>
-      </c>
-      <c r="W676" s="49">
-        <v>174008.20382168112</v>
+      <c r="V676" s="34">
+        <v>173372.00426326567</v>
+      </c>
+      <c r="W676" s="34">
+        <v>174054.47609542296</v>
       </c>
     </row>
     <row r="677" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -29210,11 +29220,11 @@
       <c r="U677" s="34">
         <v>130745.61880348179</v>
       </c>
-      <c r="V677" s="49">
-        <v>118722.75247612775</v>
-      </c>
-      <c r="W677" s="49">
-        <v>122110.90960725654</v>
+      <c r="V677" s="34">
+        <v>118701.1323213415</v>
+      </c>
+      <c r="W677" s="34">
+        <v>122111.57781954145</v>
       </c>
     </row>
     <row r="678" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -29239,8 +29249,8 @@
       <c r="S678" s="3"/>
       <c r="T678" s="3"/>
       <c r="U678" s="3"/>
-      <c r="V678" s="37"/>
-      <c r="W678" s="37"/>
+      <c r="V678" s="3"/>
+      <c r="W678" s="3"/>
     </row>
     <row r="679" spans="1:23" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A679" s="35"/>
@@ -29263,9 +29273,9 @@
       <c r="R679" s="1"/>
       <c r="S679" s="1"/>
       <c r="T679" s="1"/>
-      <c r="U679" s="35"/>
-      <c r="V679"/>
-      <c r="W679"/>
+      <c r="U679" s="1"/>
+      <c r="V679" s="1"/>
+      <c r="W679" s="1"/>
     </row>
     <row r="680" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="15"/>
@@ -29289,8 +29299,8 @@
       <c r="S680" s="15"/>
       <c r="T680" s="15"/>
       <c r="U680" s="15"/>
-      <c r="V680" s="41"/>
-      <c r="W680" s="41"/>
+      <c r="V680" s="15"/>
+      <c r="W680" s="15"/>
     </row>
     <row r="681" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
@@ -29316,8 +29326,8 @@
       <c r="S681" s="3"/>
       <c r="T681" s="3"/>
       <c r="U681" s="3"/>
-      <c r="V681" s="37"/>
-      <c r="W681" s="37"/>
+      <c r="V681" s="3"/>
+      <c r="W681" s="3"/>
     </row>
     <row r="682" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="24"/>
@@ -29341,8 +29351,8 @@
       <c r="S682" s="3"/>
       <c r="T682" s="3"/>
       <c r="U682" s="3"/>
-      <c r="V682" s="37"/>
-      <c r="W682" s="37"/>
+      <c r="V682" s="3"/>
+      <c r="W682" s="3"/>
     </row>
     <row r="683" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="24"/>
@@ -29366,8 +29376,8 @@
       <c r="S683" s="3"/>
       <c r="T683" s="3"/>
       <c r="U683" s="3"/>
-      <c r="V683" s="37"/>
-      <c r="W683" s="37"/>
+      <c r="V683" s="3"/>
+      <c r="W683" s="3"/>
     </row>
     <row r="684" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="24" t="s">
@@ -29393,8 +29403,8 @@
       <c r="S684" s="3"/>
       <c r="T684" s="3"/>
       <c r="U684" s="3"/>
-      <c r="V684" s="37"/>
-      <c r="W684" s="37"/>
+      <c r="V684" s="3"/>
+      <c r="W684" s="3"/>
     </row>
     <row r="685" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="24" t="s">
@@ -29420,12 +29430,12 @@
       <c r="S685" s="3"/>
       <c r="T685" s="3"/>
       <c r="U685" s="3"/>
-      <c r="V685" s="37"/>
-      <c r="W685" s="37"/>
+      <c r="V685" s="3"/>
+      <c r="W685" s="3"/>
     </row>
     <row r="686" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -29447,8 +29457,8 @@
       <c r="S686" s="3"/>
       <c r="T686" s="3"/>
       <c r="U686" s="3"/>
-      <c r="V686" s="37"/>
-      <c r="W686" s="37"/>
+      <c r="V686" s="3"/>
+      <c r="W686" s="3"/>
     </row>
     <row r="687" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A687" s="24"/>
@@ -29460,7 +29470,7 @@
     </row>
     <row r="689" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A689" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="690" spans="1:23" x14ac:dyDescent="0.25">
@@ -29496,7 +29506,7 @@
       <c r="T692" s="7"/>
       <c r="U692" s="7"/>
       <c r="V692" s="7"/>
-      <c r="W692" s="42"/>
+      <c r="W692" s="7"/>
     </row>
     <row r="693" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A693" s="26"/>
@@ -29560,10 +29570,10 @@
       <c r="U693" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V693" s="38" t="s">
+      <c r="V693" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W693" s="38"/>
+      <c r="W693" s="9"/>
     </row>
     <row r="694" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A694" s="27"/>
@@ -29635,11 +29645,12 @@
         <v>5.3314252716889001</v>
       </c>
       <c r="U696" s="17">
-        <v>-9.3452463910929566</v>
-      </c>
-      <c r="V696" s="43">
-        <v>6.6762946738862183</v>
-      </c>
+        <v>-9.2795940950250611</v>
+      </c>
+      <c r="V696" s="17">
+        <v>6.727529909523696</v>
+      </c>
+      <c r="W696" s="17"/>
     </row>
     <row r="697" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A697" s="29" t="s">
@@ -29703,11 +29714,12 @@
         <v>4.7145003024565</v>
       </c>
       <c r="U697" s="17">
-        <v>-11.250746960176627</v>
-      </c>
-      <c r="V697" s="43">
-        <v>2.7079606482088678</v>
-      </c>
+        <v>-11.286793778186947</v>
+      </c>
+      <c r="V697" s="17">
+        <v>2.755574590509255</v>
+      </c>
+      <c r="W697" s="17"/>
     </row>
     <row r="698" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A698" s="29" t="s">
@@ -29771,11 +29783,12 @@
         <v>6.2949909718759329</v>
       </c>
       <c r="U698" s="17">
-        <v>-6.9547095046869174</v>
-      </c>
-      <c r="V698" s="43">
-        <v>6.9877950386839416</v>
-      </c>
+        <v>-6.9713733791399761</v>
+      </c>
+      <c r="V698" s="17">
+        <v>7.0118703068893069</v>
+      </c>
+      <c r="W698" s="17"/>
     </row>
     <row r="699" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A699" s="24"/>
@@ -29847,11 +29860,12 @@
         <v>4.6022676575084631</v>
       </c>
       <c r="U701" s="17">
-        <v>-10.806601909378472</v>
-      </c>
-      <c r="V701" s="43">
-        <v>4.2309118403280905</v>
-      </c>
+        <v>-10.752613452375897</v>
+      </c>
+      <c r="V701" s="17">
+        <v>4.3346804900725999</v>
+      </c>
+      <c r="W701" s="17"/>
     </row>
     <row r="702" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A702" s="29" t="s">
@@ -29915,11 +29929,12 @@
         <v>3.8706813233121409</v>
       </c>
       <c r="U702" s="17">
-        <v>-12.625009922314561</v>
-      </c>
-      <c r="V702" s="43">
-        <v>0.31698393248002787</v>
-      </c>
+        <v>-12.66851366715882</v>
+      </c>
+      <c r="V702" s="17">
+        <v>0.39364592631744699</v>
+      </c>
+      <c r="W702" s="17"/>
     </row>
     <row r="703" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A703" s="29" t="s">
@@ -29983,11 +29998,12 @@
         <v>4.3542516468287005</v>
       </c>
       <c r="U703" s="17">
-        <v>-9.1956169831014449</v>
-      </c>
-      <c r="V703" s="43">
-        <v>2.8538397741495061</v>
-      </c>
+        <v>-9.2121530284267834</v>
+      </c>
+      <c r="V703" s="17">
+        <v>2.8731364490840434</v>
+      </c>
+      <c r="W703" s="17"/>
     </row>
     <row r="704" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A704" s="15"/>
@@ -30011,8 +30027,8 @@
       <c r="S704" s="15"/>
       <c r="T704" s="15"/>
       <c r="U704" s="15"/>
-      <c r="V704" s="41"/>
-      <c r="W704" s="41"/>
+      <c r="V704" s="15"/>
+      <c r="W704" s="15"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
@@ -30022,16 +30038,11 @@
     <row r="706" spans="1:1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="U88:U103 U106 U108 U110 U126:U141 U144 U146 U148">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V88:V103 V106 V108 V110">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V126:V141 V144 V146 V148">
+  <conditionalFormatting sqref="V88:W103 V106:W106 V108:W108 V110:W110 V126:W141 V144:W144 V146:W146 V148:W148">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>

--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E892B62-5E55-4B7C-9928-E6C3B8EFE543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DDFD9-BB1B-4F03-865D-41BB0E27F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="1050" windowWidth="13830" windowHeight="9735" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -504,13 +504,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
@@ -689,11 +691,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 4" xfId="3" xr:uid="{F25B6650-00B1-4D4A-B6A5-223999E92A48}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{86872052-F4BE-4C30-BD75-CD271D7C7ACD}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -994,7 +1012,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1040,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1035,7 +1053,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1212,14 +1230,14 @@
       <c r="U12" s="11">
         <v>14288332.662963083</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="10">
         <v>13476075.391922019</v>
       </c>
-      <c r="W12" s="11">
-        <v>14610149.17548511</v>
+      <c r="W12" s="10">
+        <v>14608546.502977364</v>
       </c>
       <c r="X12" s="11">
-        <v>16727054.667503133</v>
+        <v>16724759.229938487</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1286,14 +1304,14 @@
       <c r="U13" s="11">
         <v>2433439.2503182534</v>
       </c>
-      <c r="V13" s="11">
-        <v>2739671.2481264584</v>
-      </c>
-      <c r="W13" s="11">
-        <v>3021100.2193224891</v>
+      <c r="V13" s="10">
+        <v>2739671.2481264588</v>
+      </c>
+      <c r="W13" s="10">
+        <v>3024017.4249472991</v>
       </c>
       <c r="X13" s="11">
-        <v>3303028.0573838586</v>
+        <v>3306160.9935843209</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1364,10 +1382,10 @@
         <v>3129565.8619586932</v>
       </c>
       <c r="W14" s="10">
-        <v>4111887.2375104711</v>
+        <v>4103546.9873818695</v>
       </c>
       <c r="X14" s="10">
-        <v>5458187.302079631</v>
+        <v>5439654.9355647871</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -1438,10 +1456,10 @@
         <v>3824091.2465223367</v>
       </c>
       <c r="W15" s="10">
-        <v>4327283.2322114054</v>
+        <v>4324545.0722124446</v>
       </c>
       <c r="X15" s="10">
-        <v>5156504.071239125</v>
+        <v>5139742.5425150488</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1508,14 +1526,14 @@
       <c r="U16" s="11">
         <v>3290529.0946104117</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="10">
         <v>2331973.0798953301</v>
       </c>
-      <c r="W16" s="11">
-        <v>2682152.7807548912</v>
+      <c r="W16" s="10">
+        <v>2681782.9878097195</v>
       </c>
       <c r="X16" s="11">
-        <v>3244109.1026891572</v>
+        <v>3233646.5384953744</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -1582,14 +1600,14 @@
       <c r="U17" s="11">
         <v>1451964.5545496624</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="10">
         <v>943928.0143166217</v>
       </c>
-      <c r="W17" s="11">
-        <v>1072946.7745276184</v>
+      <c r="W17" s="10">
+        <v>1071207.9001196469</v>
       </c>
       <c r="X17" s="11">
-        <v>1318547.4513414009</v>
+        <v>1313042.4617275929</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -1656,14 +1674,14 @@
       <c r="U18" s="11">
         <v>418118.7717598374</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="10">
         <v>421946.17607183685</v>
       </c>
-      <c r="W18" s="11">
-        <v>427892.17056024726</v>
+      <c r="W18" s="10">
+        <v>427222.98622018914</v>
       </c>
       <c r="X18" s="11">
-        <v>436831.26687764237</v>
+        <v>437101.12437569682</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -1730,14 +1748,14 @@
       <c r="U19" s="11">
         <v>139487.76225257709</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="10">
         <v>126243.97623854823</v>
       </c>
-      <c r="W19" s="11">
-        <v>144291.5063686478</v>
+      <c r="W19" s="10">
+        <v>144331.19806288916</v>
       </c>
       <c r="X19" s="11">
-        <v>157016.25033092452</v>
+        <v>155952.41791638473</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -1804,14 +1822,14 @@
       <c r="U20" s="11">
         <v>-148526.29994967015</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="10">
         <v>-695464.32064183906</v>
       </c>
-      <c r="W20" s="11">
-        <v>-216438.32297674415</v>
+      <c r="W20" s="10">
+        <v>-222040.41898328852</v>
       </c>
       <c r="X20" s="11">
-        <v>300537.66259664029</v>
+        <v>298781.63571063592</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -1878,14 +1896,14 @@
       <c r="U21" s="11">
         <v>1494.9677985999999</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="10">
         <v>938.93607819525414</v>
       </c>
-      <c r="W21" s="11">
-        <v>1042.3282758097755</v>
+      <c r="W21" s="10">
+        <v>1042.334152713604</v>
       </c>
       <c r="X21" s="11">
-        <v>1145.5682438658041</v>
+        <v>1130.7573391023006</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1956,10 +1974,10 @@
         <v>4524306.2404680271</v>
       </c>
       <c r="W22" s="10">
-        <v>4996723.5335842939</v>
+        <v>4998628.2199455341</v>
       </c>
       <c r="X22" s="10">
-        <v>6211822.7040861826</v>
+        <v>6251681.8589008963</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2026,14 +2044,14 @@
       <c r="U23" s="11">
         <v>2941577.1974197887</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="10">
         <v>2551888.408456523</v>
       </c>
-      <c r="W23" s="11">
-        <v>2916133.8632261204</v>
+      <c r="W23" s="10">
+        <v>2917951.4169858913</v>
       </c>
       <c r="X23" s="11">
-        <v>3551321.4825909287</v>
+        <v>3569036.5845206976</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2100,14 +2118,14 @@
       <c r="U24" s="11">
         <v>2598162.2948144726</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="10">
         <v>1972417.8320115046</v>
       </c>
-      <c r="W24" s="11">
-        <v>2080589.6703581733</v>
+      <c r="W24" s="10">
+        <v>2080676.8029596431</v>
       </c>
       <c r="X24" s="11">
-        <v>2660501.2214952535</v>
+        <v>2682645.2743801987</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2178,10 +2196,10 @@
         <v>5918045.1724624811</v>
       </c>
       <c r="W25" s="10">
-        <v>7329292.1107769785</v>
+        <v>7324124.6490688436</v>
       </c>
       <c r="X25" s="10">
-        <v>9747559.8183342256</v>
+        <v>9697742.017362494</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2248,14 +2266,14 @@
       <c r="U26" s="11">
         <v>6344798.771988635</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="10">
         <v>4790019.9859151989</v>
       </c>
-      <c r="W26" s="11">
-        <v>6306995.5567250391</v>
+      <c r="W26" s="10">
+        <v>6296809.2296851315</v>
       </c>
       <c r="X26" s="11">
-        <v>8220298.0102874339</v>
+        <v>8190201.5865573008</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2322,14 +2340,14 @@
       <c r="U27" s="11">
         <v>1551918.3128663641</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="10">
         <v>1128025.1865472819</v>
       </c>
-      <c r="W27" s="11">
-        <v>1022296.5540519393</v>
+      <c r="W27" s="10">
+        <v>1027315.4193837126</v>
       </c>
       <c r="X27" s="11">
-        <v>1527261.8080467915</v>
+        <v>1507540.4308051928</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="10">
-        <v>70745.080176148564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -2499,10 +2517,10 @@
         <v>17951573.570012722</v>
       </c>
       <c r="W30" s="10">
-        <v>19410568.055125386</v>
+        <v>19410614.486183222</v>
       </c>
       <c r="X30" s="10">
-        <v>22023277.992894731</v>
+        <v>22024515.000626005</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -2598,10 +2616,10 @@
         <v>1360426.9400112671</v>
       </c>
       <c r="W32" s="10">
-        <v>693869.14626533468</v>
+        <v>690387.60375562287</v>
       </c>
       <c r="X32" s="10">
-        <v>1296702.5334379813</v>
+        <v>1298326.988730005</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -2697,10 +2715,10 @@
         <v>19312000.510023989</v>
       </c>
       <c r="W34" s="10">
-        <v>20104437.201390721</v>
+        <v>20101002.089938845</v>
       </c>
       <c r="X34" s="10">
-        <v>23319980.526332714</v>
+        <v>23322841.989356011</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2746,7 +2764,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -2759,7 +2777,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -2936,14 +2954,14 @@
       <c r="U50" s="11">
         <v>14027455.562030775</v>
       </c>
-      <c r="V50" s="11">
+      <c r="V50" s="10">
         <v>12911356.953432048</v>
       </c>
-      <c r="W50" s="11">
-        <v>13456531.513529724</v>
+      <c r="W50" s="10">
+        <v>13455117.064156942</v>
       </c>
       <c r="X50" s="11">
-        <v>14578347.448409624</v>
+        <v>14570217.10145369</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -3010,14 +3028,14 @@
       <c r="U51" s="11">
         <v>2399867.4438101714</v>
       </c>
-      <c r="V51" s="11">
+      <c r="V51" s="10">
         <v>2651875.4513029442</v>
       </c>
-      <c r="W51" s="11">
-        <v>2839962.4587960439</v>
+      <c r="W51" s="10">
+        <v>2842704.7559254342</v>
       </c>
       <c r="X51" s="11">
-        <v>2981485.18025239</v>
+        <v>2981663.4923116378</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3088,10 +3106,10 @@
         <v>3375832.6409634682</v>
       </c>
       <c r="W52" s="10">
-        <v>4060996.7705110386</v>
+        <v>4051797.6976451259</v>
       </c>
       <c r="X52" s="10">
-        <v>4744252.8621808756</v>
+        <v>4609285.9921383802</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -3162,10 +3180,10 @@
         <v>3761791.2858315799</v>
       </c>
       <c r="W53" s="10">
-        <v>4136014.947380065</v>
+        <v>4132142.1709895888</v>
       </c>
       <c r="X53" s="10">
-        <v>4566303.6691338299</v>
+        <v>4534346.8928515324</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -3232,14 +3250,14 @@
       <c r="U54" s="11">
         <v>3205990.7124282913</v>
       </c>
-      <c r="V54" s="11">
+      <c r="V54" s="10">
         <v>2242533.866288078</v>
       </c>
-      <c r="W54" s="11">
-        <v>2491427.9319774099</v>
+      <c r="W54" s="10">
+        <v>2490376.6568596968</v>
       </c>
       <c r="X54" s="11">
-        <v>2807443.6815303373</v>
+        <v>2792709.1322139138</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -3306,14 +3324,14 @@
       <c r="U55" s="11">
         <v>1424524.9749697736</v>
       </c>
-      <c r="V55" s="11">
+      <c r="V55" s="10">
         <v>1001577.5808599009</v>
       </c>
-      <c r="W55" s="11">
-        <v>1123295.8076404359</v>
+      <c r="W55" s="10">
+        <v>1121002.9288967871</v>
       </c>
       <c r="X55" s="11">
-        <v>1227539.3556074756</v>
+        <v>1214086.9635181073</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -3380,14 +3398,14 @@
       <c r="U56" s="11">
         <v>403626.95001732698</v>
       </c>
-      <c r="V56" s="11">
+      <c r="V56" s="10">
         <v>389874.78940033034</v>
       </c>
-      <c r="W56" s="11">
-        <v>376942.85804991017</v>
+      <c r="W56" s="10">
+        <v>376350.12557621382</v>
       </c>
       <c r="X56" s="11">
-        <v>377903.197871071</v>
+        <v>378120.06045171467</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -3454,14 +3472,14 @@
       <c r="U57" s="11">
         <v>141377.33303793459</v>
       </c>
-      <c r="V57" s="11">
+      <c r="V57" s="10">
         <v>127805.04928327087</v>
       </c>
-      <c r="W57" s="11">
-        <v>144348.34971230879</v>
+      <c r="W57" s="10">
+        <v>144412.45965689089</v>
       </c>
       <c r="X57" s="11">
-        <v>153417.43412494581</v>
+        <v>149430.73666779656</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -3528,14 +3546,14 @@
       <c r="U58" s="11">
         <v>-44600.240770418081</v>
       </c>
-      <c r="V58" s="11">
+      <c r="V58" s="10">
         <v>-386663.3238101789</v>
       </c>
-      <c r="W58" s="11">
-        <v>-75780.401101082709</v>
+      <c r="W58" s="10">
+        <v>-81106.70183858597</v>
       </c>
       <c r="X58" s="11">
-        <v>177174.75098861501</v>
+        <v>74174.728636533429</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -3602,14 +3620,14 @@
       <c r="U59" s="11">
         <v>1429.4373222597128</v>
       </c>
-      <c r="V59" s="11">
+      <c r="V59" s="10">
         <v>704.67894206692563</v>
       </c>
-      <c r="W59" s="11">
-        <v>762.22423205606719</v>
+      <c r="W59" s="10">
+        <v>762.22849412329833</v>
       </c>
       <c r="X59" s="11">
-        <v>774.44205843061491</v>
+        <v>764.37065031454586</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3680,10 +3698,10 @@
         <v>4749668.2746546278</v>
       </c>
       <c r="W60" s="10">
-        <v>5128006.1744800759</v>
+        <v>5129673.6108313287</v>
       </c>
       <c r="X60" s="10">
-        <v>5675452.542854731</v>
+        <v>5688703.5893790871</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -3750,14 +3768,14 @@
       <c r="U61" s="11">
         <v>3116492.1700701611</v>
       </c>
-      <c r="V61" s="11">
+      <c r="V61" s="10">
         <v>2849277.293077284</v>
       </c>
-      <c r="W61" s="11">
-        <v>3180713.9083417542</v>
+      <c r="W61" s="10">
+        <v>3182306.3531660088</v>
       </c>
       <c r="X61" s="11">
-        <v>3334998.495803725</v>
+        <v>3340191.1535128965</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -3824,14 +3842,14 @@
       <c r="U62" s="11">
         <v>2547550.8594323788</v>
       </c>
-      <c r="V62" s="11">
+      <c r="V62" s="10">
         <v>1900390.9815773438</v>
       </c>
-      <c r="W62" s="11">
-        <v>1947292.266138322</v>
+      <c r="W62" s="10">
+        <v>1947367.2576653198</v>
       </c>
       <c r="X62" s="11">
-        <v>2340454.047051006</v>
+        <v>2348512.4358661906</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,10 +3920,10 @@
         <v>6150890.0409797616</v>
       </c>
       <c r="W63" s="10">
-        <v>6947443.0822262354</v>
+        <v>6939208.90862709</v>
       </c>
       <c r="X63" s="10">
-        <v>7858498.2178296</v>
+        <v>7906239.9363127304</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
@@ -3972,14 +3990,14 @@
       <c r="U64" s="11">
         <v>6311705.6914733509</v>
       </c>
-      <c r="V64" s="11">
+      <c r="V64" s="10">
         <v>5030860.4230751758</v>
       </c>
-      <c r="W64" s="11">
-        <v>5936271.6548549403</v>
+      <c r="W64" s="10">
+        <v>5923051.0510839047</v>
       </c>
       <c r="X64" s="11">
-        <v>6420768.239953218</v>
+        <v>6433852.8073768606</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -4046,14 +4064,14 @@
       <c r="U65" s="11">
         <v>1529258.8994520551</v>
       </c>
-      <c r="V65" s="11">
+      <c r="V65" s="10">
         <v>1120029.6179045853</v>
       </c>
-      <c r="W65" s="11">
-        <v>1011171.4273712953</v>
+      <c r="W65" s="10">
+        <v>1016157.8575431851</v>
       </c>
       <c r="X65" s="11">
-        <v>1437729.9778763824</v>
+        <v>1472387.1289358696</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="10">
-        <v>-174235.65911420435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -4223,10 +4241,10 @@
         <v>17537843.279373322</v>
       </c>
       <c r="W68" s="10">
-        <v>18538053.835090648</v>
+        <v>18540084.219931744</v>
       </c>
       <c r="X68" s="10">
-        <v>19946804.156753812</v>
+        <v>19943630.238970071</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
@@ -4322,10 +4340,10 @@
         <v>1320172.5541665182</v>
       </c>
       <c r="W70" s="10">
-        <v>642515.15330013481</v>
+        <v>639322.08928792004</v>
       </c>
       <c r="X70" s="10">
-        <v>1133553.5252234293</v>
+        <v>1133700.5595275369</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
@@ -4421,10 +4439,10 @@
         <v>18858015.83353984</v>
       </c>
       <c r="W72" s="10">
-        <v>19180568.988390785</v>
+        <v>19179406.309219666</v>
       </c>
       <c r="X72" s="10">
-        <v>21080357.681977242</v>
+        <v>21077330.79849761</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4470,7 +4488,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
@@ -4483,7 +4501,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -4659,10 +4677,10 @@
         <v>-5.6847589582409626</v>
       </c>
       <c r="V88" s="17">
-        <v>8.4154603664720469</v>
+        <v>8.4035676420612901</v>
       </c>
       <c r="W88" s="17">
-        <v>14.489280476136784</v>
+        <v>14.486127874048378</v>
       </c>
       <c r="X88" s="17"/>
     </row>
@@ -4731,10 +4749,10 @@
         <v>12.584328857527666</v>
       </c>
       <c r="V89" s="17">
-        <v>10.272362838734324</v>
+        <v>10.378842973049856</v>
       </c>
       <c r="W89" s="17">
-        <v>9.3319591405211355</v>
+        <v>9.3300907034931697</v>
       </c>
       <c r="X89" s="17"/>
     </row>
@@ -4803,10 +4821,10 @@
         <v>-39.267920681122582</v>
       </c>
       <c r="V90" s="17">
-        <v>31.388423151349656</v>
+        <v>31.121924521939718</v>
       </c>
       <c r="W90" s="17">
-        <v>32.741658192559612</v>
+        <v>32.559830612184044</v>
       </c>
       <c r="X90" s="17"/>
     </row>
@@ -4875,10 +4893,10 @@
         <v>-27.848698810192204</v>
       </c>
       <c r="V91" s="17">
-        <v>13.158472255249549</v>
+        <v>13.086869361321462</v>
       </c>
       <c r="W91" s="17">
-        <v>19.162619928715799</v>
+        <v>18.85047922244334</v>
       </c>
       <c r="X91" s="17"/>
     </row>
@@ -4947,10 +4965,10 @@
         <v>-29.130756396748154</v>
       </c>
       <c r="V92" s="17">
-        <v>15.016455544816097</v>
+        <v>15.000598031349938</v>
       </c>
       <c r="W92" s="17">
-        <v>20.951689477439217</v>
+        <v>20.578232958975406</v>
       </c>
       <c r="X92" s="17"/>
     </row>
@@ -5019,10 +5037,10 @@
         <v>-34.989596587680609</v>
       </c>
       <c r="V93" s="17">
-        <v>13.6682838367079</v>
+        <v>13.48406699160978</v>
       </c>
       <c r="W93" s="17">
-        <v>22.89029452760245</v>
+        <v>22.575875474866706</v>
       </c>
       <c r="X93" s="17"/>
     </row>
@@ -5091,10 +5109,10 @@
         <v>0.91538686385452195</v>
       </c>
       <c r="V94" s="17">
-        <v>1.4091831673332109</v>
+        <v>1.2505884512279408</v>
       </c>
       <c r="W94" s="17">
-        <v>2.0891002295487056</v>
+        <v>2.3121738469419597</v>
       </c>
       <c r="X94" s="17"/>
     </row>
@@ -5163,10 +5181,10 @@
         <v>-9.4945863351422162</v>
       </c>
       <c r="V95" s="17">
-        <v>14.295755463212984</v>
+        <v>14.327195929066477</v>
       </c>
       <c r="W95" s="17">
-        <v>8.818775465387759</v>
+        <v>8.051772596269771</v>
       </c>
       <c r="X95" s="17"/>
     </row>
@@ -5263,10 +5281,10 @@
         <v>-37.193558344564728</v>
       </c>
       <c r="V97" s="17">
-        <v>11.01163327467971</v>
+        <v>11.012259185640531</v>
       </c>
       <c r="W97" s="17">
-        <v>9.9047459856946176</v>
+        <v>8.4831899788082836</v>
       </c>
       <c r="X97" s="17"/>
     </row>
@@ -5335,10 +5353,10 @@
         <v>-18.329981999870085</v>
       </c>
       <c r="V98" s="17">
-        <v>10.441762073722856</v>
+        <v>10.483861044482239</v>
       </c>
       <c r="W98" s="17">
-        <v>24.317918778873548</v>
+        <v>25.067950321958847</v>
       </c>
       <c r="X98" s="17"/>
     </row>
@@ -5407,10 +5425,10 @@
         <v>-13.247613875477484</v>
       </c>
       <c r="V99" s="17">
-        <v>14.273565159140574</v>
+        <v>14.344789032165266</v>
       </c>
       <c r="W99" s="17">
-        <v>21.781840243167025</v>
+        <v>22.313091429306482</v>
       </c>
       <c r="X99" s="17"/>
     </row>
@@ -5479,10 +5497,10 @@
         <v>-24.084117610815014</v>
       </c>
       <c r="V100" s="17">
-        <v>5.4842253294958994</v>
+        <v>5.4886428824127051</v>
       </c>
       <c r="W100" s="17">
-        <v>27.872461321854416</v>
+        <v>28.931378028739971</v>
       </c>
       <c r="X100" s="17"/>
     </row>
@@ -5551,10 +5569,10 @@
         <v>-25.056892517871574</v>
       </c>
       <c r="V101" s="17">
-        <v>23.846505006099534</v>
+        <v>23.759187968842383</v>
       </c>
       <c r="W101" s="17">
-        <v>32.994560334161491</v>
+        <v>32.408205512933506</v>
       </c>
       <c r="X101" s="17"/>
     </row>
@@ -5623,10 +5641,10 @@
         <v>-24.504776935362528</v>
       </c>
       <c r="V102" s="17">
-        <v>31.669503995190553</v>
+        <v>31.456846697937948</v>
       </c>
       <c r="W102" s="17">
-        <v>30.336194727809385</v>
+        <v>30.0690760638916</v>
       </c>
       <c r="X102" s="17"/>
     </row>
@@ -5695,10 +5713,10 @@
         <v>-27.314139075797073</v>
       </c>
       <c r="V103" s="17">
-        <v>-9.3728964349601398</v>
+        <v>-8.9279714996282138</v>
       </c>
       <c r="W103" s="17">
-        <v>49.395183031126294</v>
+        <v>46.745624796478552</v>
       </c>
       <c r="X103" s="17"/>
     </row>
@@ -5722,6 +5740,8 @@
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="17"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
@@ -5743,6 +5763,8 @@
       <c r="R105" s="17"/>
       <c r="S105" s="17"/>
       <c r="T105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
@@ -5809,10 +5831,10 @@
         <v>-8.0249030741325669</v>
       </c>
       <c r="V106" s="17">
-        <v>8.1273905010190788</v>
+        <v>8.1276491471909793</v>
       </c>
       <c r="W106" s="17">
-        <v>13.46024459639375</v>
+        <v>13.466346036099978</v>
       </c>
       <c r="X106" s="17"/>
     </row>
@@ -5836,6 +5858,8 @@
       <c r="R107" s="17"/>
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="17"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
@@ -5902,10 +5926,10 @@
         <v>-30.384356647561987</v>
       </c>
       <c r="V108" s="17">
-        <v>-48.996221270097159</v>
+        <v>-49.252136704238957</v>
       </c>
       <c r="W108" s="17">
-        <v>86.879981682039499</v>
+        <v>88.05769131242613</v>
       </c>
       <c r="X108" s="17"/>
     </row>
@@ -5929,6 +5953,8 @@
       <c r="R109" s="17"/>
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
@@ -5995,10 +6021,10 @@
         <v>-10.059862944150751</v>
       </c>
       <c r="V110" s="17">
-        <v>4.1033381857846081</v>
+        <v>4.0855507408739129</v>
       </c>
       <c r="W110" s="17">
-        <v>15.99419716518878</v>
+        <v>16.028255133756701</v>
       </c>
       <c r="X110" s="17"/>
     </row>
@@ -6050,7 +6076,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
@@ -6063,7 +6089,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
@@ -6239,10 +6265,10 @@
         <v>-7.9565292769114819</v>
       </c>
       <c r="V126" s="17">
-        <v>4.2224420102703277</v>
+        <v>4.2114869311265863</v>
       </c>
       <c r="W126" s="17">
-        <v>8.3365905527140001</v>
+        <v>8.2875535900557935</v>
       </c>
       <c r="X126" s="17"/>
     </row>
@@ -6311,10 +6337,10 @@
         <v>10.500913629324032</v>
       </c>
       <c r="V127" s="17">
-        <v>7.0926033649388387</v>
+        <v>7.1960130906121549</v>
       </c>
       <c r="W127" s="17">
-        <v>4.9832602898681273</v>
+        <v>4.8882577797273257</v>
       </c>
       <c r="X127" s="17"/>
     </row>
@@ -6383,10 +6409,10 @@
         <v>-34.224415932843939</v>
       </c>
       <c r="V128" s="17">
-        <v>20.296152162093662</v>
+        <v>20.023654267669386</v>
       </c>
       <c r="W128" s="17">
-        <v>16.824837109729003</v>
+        <v>13.759035768672817</v>
       </c>
       <c r="X128" s="17"/>
     </row>
@@ -6455,10 +6481,10 @@
         <v>-27.31568407991125</v>
       </c>
       <c r="V129" s="17">
-        <v>9.9480176627013179</v>
+        <v>9.8450673367472348</v>
       </c>
       <c r="W129" s="17">
-        <v>10.403461477486402</v>
+        <v>9.7335644616898946</v>
       </c>
       <c r="X129" s="17"/>
     </row>
@@ -6527,10 +6553,10 @@
         <v>-30.051766600735689</v>
       </c>
       <c r="V130" s="17">
-        <v>11.098787377570815</v>
+        <v>11.051908481625603</v>
       </c>
       <c r="W130" s="17">
-        <v>12.684121643531171</v>
+        <v>12.140030084262449</v>
       </c>
       <c r="X130" s="17"/>
     </row>
@@ -6599,10 +6625,10 @@
         <v>-29.690416211821557</v>
       </c>
       <c r="V131" s="17">
-        <v>12.152650888614573</v>
+        <v>11.923724164667689</v>
       </c>
       <c r="W131" s="17">
-        <v>9.2801510748990381</v>
+        <v>8.3036388417760065</v>
       </c>
       <c r="X131" s="17"/>
     </row>
@@ -6671,10 +6697,10 @@
         <v>-3.4071462810910731</v>
       </c>
       <c r="V132" s="17">
-        <v>-3.3169447479050547</v>
+        <v>-3.4689762436086085</v>
       </c>
       <c r="W132" s="17">
-        <v>0.25477066368337375</v>
+        <v>0.4702894340186532</v>
       </c>
       <c r="X132" s="17"/>
     </row>
@@ -6743,10 +6769,10 @@
         <v>-9.6000422861435482</v>
       </c>
       <c r="V133" s="17">
-        <v>12.944168107451588</v>
+        <v>12.994330401462364</v>
       </c>
       <c r="W133" s="17">
-        <v>6.2827766515599421</v>
+        <v>3.4749612483774541</v>
       </c>
       <c r="X133" s="17"/>
     </row>
@@ -6843,10 +6869,10 @@
         <v>-50.702354619302895</v>
       </c>
       <c r="V135" s="17">
-        <v>8.1661713659773767</v>
+        <v>8.1667761899584406</v>
       </c>
       <c r="W135" s="17">
-        <v>1.6029176009782162</v>
+        <v>0.28103858721672736</v>
       </c>
       <c r="X135" s="17"/>
     </row>
@@ -6915,10 +6941,10 @@
         <v>-16.143499441744524</v>
       </c>
       <c r="V136" s="17">
-        <v>7.9655647078418212</v>
+        <v>8.0006710827470044</v>
       </c>
       <c r="W136" s="17">
-        <v>10.675618354343342</v>
+        <v>10.897963904903492</v>
       </c>
       <c r="X136" s="17"/>
     </row>
@@ -6987,10 +7013,10 @@
         <v>-8.5742194239769702</v>
       </c>
       <c r="V137" s="17">
-        <v>11.632304657385987</v>
+        <v>11.688194086895834</v>
       </c>
       <c r="W137" s="17">
-        <v>4.8506276234823673</v>
+        <v>4.9613325313514025</v>
       </c>
       <c r="X137" s="17"/>
     </row>
@@ -7059,10 +7085,10 @@
         <v>-25.403217190302882</v>
       </c>
       <c r="V138" s="17">
-        <v>2.4679808005639785</v>
+        <v>2.471926911007813</v>
       </c>
       <c r="W138" s="17">
-        <v>20.190178318345801</v>
+        <v>20.599359295061788</v>
       </c>
       <c r="X138" s="17"/>
     </row>
@@ -7131,10 +7157,10 @@
         <v>-21.554421402458829</v>
       </c>
       <c r="V139" s="17">
-        <v>12.950207790084207</v>
+        <v>12.816338162367131</v>
       </c>
       <c r="W139" s="17">
-        <v>13.113531479432083</v>
+        <v>13.935753202117752</v>
       </c>
       <c r="X139" s="17"/>
     </row>
@@ -7203,10 +7229,10 @@
         <v>-20.293171624407364</v>
       </c>
       <c r="V140" s="17">
-        <v>17.997144735458988</v>
+        <v>17.73435462284931</v>
       </c>
       <c r="W140" s="17">
-        <v>8.1616309574046539</v>
+        <v>8.6239634250574397</v>
       </c>
       <c r="X140" s="17"/>
     </row>
@@ -7275,10 +7301,10 @@
         <v>-26.759973847077148</v>
       </c>
       <c r="V141" s="17">
-        <v>-9.7192242770283315</v>
+        <v>-9.2740190706500556</v>
       </c>
       <c r="W141" s="17">
-        <v>42.184592934354896</v>
+        <v>44.897480052531648</v>
       </c>
       <c r="X141" s="17"/>
     </row>
@@ -7302,6 +7328,8 @@
       <c r="R142" s="17"/>
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
+      <c r="V142" s="17"/>
+      <c r="W142" s="17"/>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
@@ -7323,6 +7351,8 @@
       <c r="R143" s="17"/>
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
+      <c r="V143" s="17"/>
+      <c r="W143" s="17"/>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -7389,10 +7419,10 @@
         <v>-9.5182947406990905</v>
       </c>
       <c r="V144" s="17">
-        <v>5.7031559684063211</v>
+        <v>5.7147331321929471</v>
       </c>
       <c r="W144" s="17">
-        <v>7.5992352498002873</v>
+        <v>7.5703324881848602</v>
       </c>
       <c r="X144" s="17"/>
     </row>
@@ -7416,6 +7446,8 @@
       <c r="R145" s="17"/>
       <c r="S145" s="17"/>
       <c r="T145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="17"/>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
@@ -7482,10 +7514,10 @@
         <v>-31.107599176893771</v>
       </c>
       <c r="V146" s="17">
-        <v>-51.330971752720437</v>
+        <v>-51.572838923957818</v>
       </c>
       <c r="W146" s="17">
-        <v>76.424403284683024</v>
+        <v>77.32854511413143</v>
       </c>
       <c r="X146" s="17"/>
     </row>
@@ -7509,6 +7541,8 @@
       <c r="R147" s="17"/>
       <c r="S147" s="17"/>
       <c r="T147" s="17"/>
+      <c r="V147" s="17"/>
+      <c r="W147" s="17"/>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -7575,10 +7609,10 @@
         <v>-11.460692442705906</v>
       </c>
       <c r="V148" s="17">
-        <v>1.7104299715204832</v>
+        <v>1.704264534067363</v>
       </c>
       <c r="W148" s="17">
-        <v>9.9047567083975707</v>
+        <v>9.8956373241104956</v>
       </c>
       <c r="X148" s="17"/>
     </row>
@@ -7625,7 +7659,7 @@
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
@@ -7638,7 +7672,7 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
@@ -7819,10 +7853,10 @@
         <v>104.37381168011051</v>
       </c>
       <c r="W163" s="17">
-        <v>108.57291985527991</v>
+        <v>108.57242217455723</v>
       </c>
       <c r="X163" s="17">
-        <v>114.73903147594355</v>
+        <v>114.7873028485611</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.2">
@@ -7890,13 +7924,13 @@
         <v>101.39890253499924</v>
       </c>
       <c r="V164" s="17">
-        <v>103.31070589232905</v>
+        <v>103.31070589232907</v>
       </c>
       <c r="W164" s="17">
-        <v>106.37817447077225</v>
+        <v>106.37817447077227</v>
       </c>
       <c r="X164" s="17">
-        <v>110.78465454938969</v>
+        <v>110.88310274145341</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7967,10 +8001,10 @@
         <v>92.705006284479495</v>
       </c>
       <c r="W165" s="17">
-        <v>101.25315211696237</v>
+        <v>101.27719332499794</v>
       </c>
       <c r="X165" s="17">
-        <v>115.04840615874275</v>
+        <v>118.01513173282561</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.2">
@@ -8041,10 +8075,10 @@
         <v>101.65612486065889</v>
       </c>
       <c r="W166" s="17">
-        <v>104.62445825909063</v>
+        <v>104.6562507595613</v>
       </c>
       <c r="X166" s="17">
-        <v>112.92512379530923</v>
+        <v>113.35133072015138</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.2">
@@ -8115,10 +8149,10 @@
         <v>103.98831049786084</v>
       </c>
       <c r="W167" s="17">
-        <v>107.65524245471975</v>
+        <v>107.68583862295679</v>
       </c>
       <c r="X167" s="17">
-        <v>115.55384437563477</v>
+        <v>115.78887687211122</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
@@ -8189,10 +8223,10 @@
         <v>94.24412370594554</v>
       </c>
       <c r="W168" s="17">
-        <v>95.517740494502576</v>
+        <v>95.557992981682489</v>
       </c>
       <c r="X168" s="17">
-        <v>107.41386378515642</v>
+        <v>108.1506103914285</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
@@ -8263,10 +8297,10 @@
         <v>108.22607348396028</v>
       </c>
       <c r="W169" s="17">
-        <v>113.51645519268361</v>
+        <v>113.51742890110268</v>
       </c>
       <c r="X169" s="17">
-        <v>115.59342957099712</v>
+        <v>115.59850166466212</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
@@ -8337,10 +8371,10 @@
         <v>98.778551353426863</v>
       </c>
       <c r="W170" s="17">
-        <v>99.960620718023947</v>
+        <v>99.943729513232583</v>
       </c>
       <c r="X170" s="17">
-        <v>102.345767432825</v>
+        <v>104.36435059748564</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.2">
@@ -8439,10 +8473,10 @@
         <v>133.24310152382563</v>
       </c>
       <c r="W172" s="17">
-        <v>136.74824703462124</v>
+        <v>136.74825341087231</v>
       </c>
       <c r="X172" s="17">
-        <v>147.92174978038591</v>
+        <v>147.93311839445735</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8513,10 +8547,10 @@
         <v>95.255204760526397</v>
       </c>
       <c r="W173" s="17">
-        <v>97.439889180533356</v>
+        <v>97.445346413286572</v>
       </c>
       <c r="X173" s="17">
-        <v>109.450702955956</v>
+        <v>109.89642474206074</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.2">
@@ -8587,10 +8621,10 @@
         <v>89.562655577843941</v>
       </c>
       <c r="W174" s="17">
-        <v>91.681740240084309</v>
+        <v>91.692976513178365</v>
       </c>
       <c r="X174" s="17">
-        <v>106.48644930603095</v>
+        <v>106.85126750207463</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
@@ -8661,10 +8695,10 @@
         <v>103.79010693759332</v>
       </c>
       <c r="W175" s="17">
-        <v>106.84526953338103</v>
+        <v>106.84562938858009</v>
       </c>
       <c r="X175" s="17">
-        <v>113.67457630059047</v>
+        <v>114.22742470557843</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8735,10 +8769,10 @@
         <v>96.214452429388714</v>
       </c>
       <c r="W176" s="17">
-        <v>105.49625270810255</v>
+        <v>105.54696861717497</v>
       </c>
       <c r="X176" s="17">
-        <v>124.03845554381707</v>
+        <v>122.65934370169487</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.2">
@@ -8809,10 +8843,10 @@
         <v>95.212738638994878</v>
       </c>
       <c r="W177" s="17">
-        <v>106.24506295238199</v>
+        <v>106.31023057842512</v>
       </c>
       <c r="X177" s="17">
-        <v>128.02670495310272</v>
+        <v>127.2985539421521</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
@@ -8883,10 +8917,10 @@
         <v>100.71387117937604</v>
       </c>
       <c r="W178" s="17">
-        <v>101.10022162212056</v>
+        <v>101.0980146202386</v>
       </c>
       <c r="X178" s="17">
-        <v>106.2273049562932</v>
+        <v>102.38750401837113</v>
       </c>
     </row>
     <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
@@ -9007,10 +9041,10 @@
         <v>102.35907166034491</v>
       </c>
       <c r="W181" s="17">
-        <v>104.70661175005954</v>
+        <v>104.69539542498735</v>
       </c>
       <c r="X181" s="17">
-        <v>110.41005777077248</v>
+        <v>110.43383143751764</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
@@ -9106,10 +9140,10 @@
         <v>103.04917608820941</v>
       </c>
       <c r="W183" s="17">
-        <v>107.99265086612068</v>
+        <v>107.98744722313285</v>
       </c>
       <c r="X183" s="17">
-        <v>114.3927044100008</v>
+        <v>114.52115620998504</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
@@ -9205,10 +9239,10 @@
         <v>102.40738304862762</v>
       </c>
       <c r="W185" s="17">
-        <v>104.81668825131891</v>
+        <v>104.80513195174433</v>
       </c>
       <c r="X185" s="17">
-        <v>110.62421652489441</v>
+        <v>110.65367912249336</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9254,7 +9288,7 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
@@ -9267,7 +9301,7 @@
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.2">
@@ -9448,10 +9482,10 @@
         <v>75.069048066255235</v>
       </c>
       <c r="W201" s="17">
-        <v>75.269044852230806</v>
+        <v>75.260608124363884</v>
       </c>
       <c r="X201" s="17">
-        <v>75.951702888642217</v>
+        <v>75.93701486485908</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.2">
@@ -9519,13 +9553,13 @@
         <v>12.467754430458708</v>
       </c>
       <c r="V202" s="17">
-        <v>15.261454587485037</v>
+        <v>15.261454587485041</v>
       </c>
       <c r="W202" s="17">
-        <v>15.564203019420464</v>
+        <v>15.579194708646869</v>
       </c>
       <c r="X202" s="17">
-        <v>14.99789476593584</v>
+        <v>15.011277176774831</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9596,10 +9630,10 @@
         <v>17.433379028045145</v>
       </c>
       <c r="W203" s="17">
-        <v>21.183755291616631</v>
+        <v>21.140737148238344</v>
       </c>
       <c r="X203" s="17">
-        <v>24.783718862562516</v>
+        <v>24.698182617915425</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -9670,10 +9704,10 @@
         <v>21.302262064147431</v>
       </c>
       <c r="W204" s="17">
-        <v>22.293439429088632</v>
+        <v>22.279279593599281</v>
       </c>
       <c r="X204" s="17">
-        <v>23.413880862343671</v>
+        <v>23.3364618579295</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
@@ -9744,10 +9778,10 @@
         <v>12.990354693979494</v>
       </c>
       <c r="W205" s="17">
-        <v>13.818002508415333</v>
+        <v>13.81606434829075</v>
       </c>
       <c r="X205" s="17">
-        <v>14.73036440685982</v>
+        <v>14.682032900172667</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
@@ -9818,10 +9852,10 @@
         <v>5.2581909359378391</v>
       </c>
       <c r="W206" s="17">
-        <v>5.5276423208248433</v>
+        <v>5.5186707297811175</v>
       </c>
       <c r="X206" s="17">
-        <v>5.9870626514672241</v>
+        <v>5.9617315599924545</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
@@ -9892,10 +9926,10 @@
         <v>2.3504690239338046</v>
       </c>
       <c r="W207" s="17">
-        <v>2.2044288932969263</v>
+        <v>2.2009761026591566</v>
       </c>
       <c r="X207" s="17">
-        <v>1.9834979471202028</v>
+        <v>1.9846118035437923</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -9966,10 +10000,10 @@
         <v>0.7032474102962929</v>
       </c>
       <c r="W208" s="17">
-        <v>0.74336570655152689</v>
+        <v>0.74356841286826003</v>
       </c>
       <c r="X208" s="17">
-        <v>0.71295585689642549</v>
+        <v>0.70808559422058592</v>
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
@@ -10040,10 +10074,10 @@
         <v>-3.8741134192468802</v>
       </c>
       <c r="W209" s="17">
-        <v>-1.1150540384086973</v>
+        <v>-1.1439123637293416</v>
       </c>
       <c r="X209" s="17">
-        <v>1.3646363756276489</v>
+        <v>1.3565866749035953</v>
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
@@ -10114,10 +10148,10 @@
         <v>5.2303831445935393E-3</v>
       </c>
       <c r="W210" s="17">
-        <v>5.3699009366938505E-3</v>
+        <v>5.3699183684038114E-3</v>
       </c>
       <c r="X210" s="17">
-        <v>5.2016245911957045E-3</v>
+        <v>5.13408508232831E-3</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10188,10 +10222,10 @@
         <v>25.202839310007185</v>
       </c>
       <c r="W211" s="17">
-        <v>25.742283890887485</v>
+        <v>25.752034916275502</v>
       </c>
       <c r="X211" s="17">
-        <v>28.205713545868488</v>
+        <v>28.385105682114698</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -10262,10 +10296,10 @@
         <v>14.215402335087409</v>
       </c>
       <c r="W212" s="17">
-        <v>15.023433909530079</v>
+        <v>15.032761683371406</v>
       </c>
       <c r="X212" s="17">
-        <v>16.125308338462034</v>
+        <v>16.204836221906611</v>
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
@@ -10336,10 +10370,10 @@
         <v>10.987436974919779</v>
       </c>
       <c r="W213" s="17">
-        <v>10.718849981357401</v>
+        <v>10.719273232904095</v>
       </c>
       <c r="X213" s="17">
-        <v>12.080405207406448</v>
+        <v>12.180269460208089</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10410,10 +10444,10 @@
         <v>32.966720991792627</v>
       </c>
       <c r="W214" s="17">
-        <v>37.759287054155379</v>
+        <v>37.732574897524593</v>
       </c>
       <c r="X214" s="17">
-        <v>44.260258720246078</v>
+        <v>44.031580341664068</v>
       </c>
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
@@ -10484,10 +10518,10 @@
         <v>26.683008969847116</v>
       </c>
       <c r="W215" s="17">
-        <v>32.492586197443451</v>
+        <v>32.440030346114483</v>
       </c>
       <c r="X215" s="17">
-        <v>37.325497198643681</v>
+        <v>37.186751155812104</v>
       </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
@@ -10558,10 +10592,10 @@
         <v>6.2837120219455089</v>
       </c>
       <c r="W216" s="17">
-        <v>5.2667008567119211</v>
+        <v>5.2925445514101144</v>
       </c>
       <c r="X216" s="17">
-        <v>6.9347615216023923</v>
+        <v>6.8448291858519639</v>
       </c>
     </row>
     <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
@@ -10756,10 +10790,10 @@
         <v>92.955535915064161</v>
       </c>
       <c r="W220" s="17">
-        <v>96.548676596540901</v>
+        <v>96.56540703460162</v>
       </c>
       <c r="X220" s="17">
-        <v>94.439521371067372</v>
+        <v>94.433238499310974</v>
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
@@ -10830,10 +10864,10 @@
         <v>7.0444640849358446</v>
       </c>
       <c r="W221" s="17">
-        <v>3.4513234034590954</v>
+        <v>3.43459296539839</v>
       </c>
       <c r="X221" s="17">
-        <v>5.5604786289326285</v>
+        <v>5.5667615006890259</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
@@ -10978,7 +11012,7 @@
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.2">
@@ -10991,7 +11025,7 @@
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.2">
@@ -11172,10 +11206,10 @@
         <v>73.619981361205362</v>
       </c>
       <c r="W239" s="17">
-        <v>72.588695842806743</v>
+        <v>72.573117276845238</v>
       </c>
       <c r="X239" s="17">
-        <v>73.086131160883355</v>
+        <v>73.056995776943992</v>
       </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.2">
@@ -11246,10 +11280,10 @@
         <v>15.12087552077671</v>
       </c>
       <c r="W240" s="17">
-        <v>15.319636484280158</v>
+        <v>15.332749960592679</v>
       </c>
       <c r="X240" s="17">
-        <v>14.947182299591011</v>
+        <v>14.950455140736791</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11320,10 +11354,10 @@
         <v>19.248847119838651</v>
       </c>
       <c r="W241" s="17">
-        <v>21.906273477445541</v>
+        <v>21.854257238428247</v>
       </c>
       <c r="X241" s="17">
-        <v>23.784526207294785</v>
+        <v>23.111569643583667</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
@@ -11394,10 +11428,10 @@
         <v>21.449566094913809</v>
       </c>
       <c r="W242" s="17">
-        <v>22.310944741950255</v>
+        <v>22.287612731269469</v>
       </c>
       <c r="X242" s="17">
-        <v>22.892407391425255</v>
+        <v>22.735815087422594</v>
       </c>
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.2">
@@ -11468,10 +11502,10 @@
         <v>12.786828064118785</v>
       </c>
       <c r="W243" s="17">
-        <v>13.439533373570157</v>
+        <v>13.432391284298411</v>
       </c>
       <c r="X243" s="17">
-        <v>14.074654062213579</v>
+        <v>14.00301298585515</v>
       </c>
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.2">
@@ -11542,10 +11576,10 @@
         <v>5.7109506847850575</v>
       </c>
       <c r="W244" s="17">
-        <v>6.059405251667525</v>
+        <v>6.0463745234319877</v>
       </c>
       <c r="X244" s="17">
-        <v>6.1540653127224978</v>
+        <v>6.0875926246655343</v>
       </c>
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.2">
@@ -11616,10 +11650,10 @@
         <v>2.2230486564951315</v>
       </c>
       <c r="W245" s="17">
-        <v>2.0333464418815947</v>
+        <v>2.029926731247607</v>
       </c>
       <c r="X245" s="17">
-        <v>1.8945551121938315</v>
+        <v>1.8959439977625736</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.2">
@@ -11690,10 +11724,10 @@
         <v>0.72873868951483589</v>
       </c>
       <c r="W246" s="17">
-        <v>0.77865967483097953</v>
+        <v>0.77892019229145959</v>
       </c>
       <c r="X246" s="17">
-        <v>0.76913290429534809</v>
+        <v>0.74926547913933572</v>
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.2">
@@ -11764,10 +11798,10 @@
         <v>-2.2047370229664609</v>
       </c>
       <c r="W247" s="17">
-        <v>-0.40878293792435821</v>
+        <v>-0.43746673896654265</v>
       </c>
       <c r="X247" s="17">
-        <v>0.88823627883580136</v>
+        <v>0.37192190061564218</v>
       </c>
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.2">
@@ -11838,10 +11872,10 @@
         <v>4.0180478913032338E-3</v>
       </c>
       <c r="W248" s="17">
-        <v>4.1116734196404931E-3</v>
+        <v>4.1112461253215628E-3</v>
       </c>
       <c r="X248" s="17">
-        <v>3.8825370337252532E-3</v>
+        <v>3.8326555454330337E-3</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11912,10 +11946,10 @@
         <v>27.082396615100478</v>
       </c>
       <c r="W249" s="17">
-        <v>27.662052446806918</v>
+        <v>27.668016768319802</v>
       </c>
       <c r="X249" s="17">
-        <v>28.45294162540355</v>
+        <v>28.523912252761779</v>
       </c>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
@@ -11986,10 +12020,10 @@
         <v>16.246452016300019</v>
       </c>
       <c r="W250" s="17">
-        <v>17.157755267281548</v>
+        <v>17.164465465290775</v>
       </c>
       <c r="X250" s="17">
-        <v>16.719462775065768</v>
+        <v>16.748160257133762</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.2">
@@ -12060,10 +12094,10 @@
         <v>10.835944598800465</v>
       </c>
       <c r="W251" s="17">
-        <v>10.504297179525372</v>
+        <v>10.503551303029028</v>
       </c>
       <c r="X251" s="17">
-        <v>11.733478850337782</v>
+        <v>11.775751995628015</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12134,10 +12168,10 @@
         <v>35.07210061692119</v>
       </c>
       <c r="W252" s="17">
-        <v>37.47665825133938</v>
+        <v>37.42814124418598</v>
       </c>
       <c r="X252" s="17">
-        <v>39.397279664816793</v>
+        <v>39.64293281402626</v>
       </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
@@ -12208,10 +12242,10 @@
         <v>28.685741701159412</v>
       </c>
       <c r="W253" s="17">
-        <v>32.022086609858597</v>
+        <v>31.947271548617113</v>
       </c>
       <c r="X253" s="17">
-        <v>32.189458469111216</v>
+        <v>32.260188994103203</v>
       </c>
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.2">
@@ -12282,10 +12316,10 @@
         <v>6.3863589157617753</v>
       </c>
       <c r="W254" s="17">
-        <v>5.4545716414807837</v>
+        <v>5.4808696955688703</v>
       </c>
       <c r="X254" s="17">
-        <v>7.2078211957055771</v>
+        <v>7.3827438199230597</v>
       </c>
     </row>
     <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
@@ -12480,10 +12514,10 @@
         <v>92.99940902680477</v>
       </c>
       <c r="W258" s="17">
-        <v>96.650176782091165</v>
+        <v>96.66662211029653</v>
       </c>
       <c r="X258" s="17">
-        <v>94.622702601519109</v>
+        <v>94.621232781485077</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">
@@ -12554,10 +12588,10 @@
         <v>7.0005909731952354</v>
       </c>
       <c r="W259" s="17">
-        <v>3.3498232179088276</v>
+        <v>3.3333778897034665</v>
       </c>
       <c r="X259" s="17">
-        <v>5.3772973984808932</v>
+        <v>5.3787672185149127</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
@@ -12702,7 +12736,7 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
@@ -12715,7 +12749,7 @@
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
@@ -12892,14 +12926,14 @@
       <c r="U277" s="11">
         <v>1721538.7202586958</v>
       </c>
-      <c r="V277" s="11">
+      <c r="V277" s="19">
         <v>1828423.6032281048</v>
       </c>
-      <c r="W277" s="11">
-        <v>1954344.6438962959</v>
+      <c r="W277" s="19">
+        <v>1954486.610016682</v>
       </c>
       <c r="X277" s="11">
-        <v>2103372.175146543</v>
+        <v>2103198.0426698043</v>
       </c>
     </row>
     <row r="278" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12970,10 +13004,10 @@
         <v>5098232.0991026135</v>
       </c>
       <c r="W278" s="19">
-        <v>5607010.531934266</v>
+        <v>5607689.4737621192</v>
       </c>
       <c r="X278" s="19">
-        <v>6440975.2716105273</v>
+        <v>6436936.9340471178</v>
       </c>
     </row>
     <row r="279" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13040,14 +13074,14 @@
       <c r="U279" s="11">
         <v>161656.37307356353</v>
       </c>
-      <c r="V279" s="11">
+      <c r="V279" s="19">
         <v>137060.31532439179</v>
       </c>
-      <c r="W279" s="11">
-        <v>185284.0195989607</v>
+      <c r="W279" s="19">
+        <v>185371.03875113939</v>
       </c>
       <c r="X279" s="11">
-        <v>279983.61719018611</v>
+        <v>280249.62693325593</v>
       </c>
     </row>
     <row r="280" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13114,14 +13148,14 @@
       <c r="U280" s="11">
         <v>3614016.2341033733</v>
       </c>
-      <c r="V280" s="11">
+      <c r="V280" s="19">
         <v>3169921.0028569633</v>
       </c>
-      <c r="W280" s="11">
-        <v>3423403.8608815088</v>
+      <c r="W280" s="19">
+        <v>3424048.8354427675</v>
       </c>
       <c r="X280" s="11">
-        <v>3797133.8058041241</v>
+        <v>3796904.1090523209</v>
       </c>
     </row>
     <row r="281" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -13188,14 +13222,14 @@
       <c r="U281" s="11">
         <v>607881.48300037195</v>
       </c>
-      <c r="V281" s="11">
+      <c r="V281" s="19">
         <v>611051.34682367067</v>
       </c>
-      <c r="W281" s="11">
-        <v>650876.38772540353</v>
+      <c r="W281" s="19">
+        <v>650960.54315708519</v>
       </c>
       <c r="X281" s="11">
-        <v>745563.10881581879</v>
+        <v>746142.06936414971</v>
       </c>
     </row>
     <row r="282" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13262,14 +13296,14 @@
       <c r="U282" s="11">
         <v>1535727.4011277531</v>
       </c>
-      <c r="V282" s="11">
+      <c r="V282" s="19">
         <v>1180199.4340975878</v>
       </c>
-      <c r="W282" s="11">
-        <v>1347446.2637283925</v>
+      <c r="W282" s="19">
+        <v>1347309.0564111271</v>
       </c>
       <c r="X282" s="11">
-        <v>1618294.739800398</v>
+        <v>1613641.1286973907</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13340,10 +13374,10 @@
         <v>11024917.867682004</v>
       </c>
       <c r="W283" s="19">
-        <v>11849212.879294824</v>
+        <v>11848438.402404422</v>
       </c>
       <c r="X283" s="19">
-        <v>13478930.546137663</v>
+        <v>13484380.023909081</v>
       </c>
     </row>
     <row r="284" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -13410,14 +13444,14 @@
       <c r="U284" s="11">
         <v>3517653.0828562537</v>
       </c>
-      <c r="V284" s="11">
+      <c r="V284" s="19">
         <v>3317370.6808587098</v>
       </c>
-      <c r="W284" s="11">
-        <v>3503236.4795489539</v>
+      <c r="W284" s="19">
+        <v>3502794.4938180256</v>
       </c>
       <c r="X284" s="11">
-        <v>3987434.0002137925</v>
+        <v>3987519.0666681342</v>
       </c>
     </row>
     <row r="285" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13484,14 +13518,14 @@
       <c r="U285" s="11">
         <v>757661.34826561401</v>
       </c>
-      <c r="V285" s="11">
+      <c r="V285" s="19">
         <v>551044.59119243571</v>
       </c>
-      <c r="W285" s="11">
-        <v>604918.63559708791</v>
+      <c r="W285" s="19">
+        <v>605203.56675862649</v>
       </c>
       <c r="X285" s="11">
-        <v>806606.60351712862</v>
+        <v>806522.12230806344</v>
       </c>
     </row>
     <row r="286" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13558,14 +13592,14 @@
       <c r="U286" s="11">
         <v>431777.67931157432</v>
       </c>
-      <c r="V286" s="11">
+      <c r="V286" s="19">
         <v>253013.23124708817</v>
       </c>
-      <c r="W286" s="11">
-        <v>285243.90524709283</v>
+      <c r="W286" s="19">
+        <v>285187.01787847211</v>
       </c>
       <c r="X286" s="11">
-        <v>394345.16519327281</v>
+        <v>395073.23383201729</v>
       </c>
     </row>
     <row r="287" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13632,14 +13666,14 @@
       <c r="U287" s="11">
         <v>562833.69035834156</v>
       </c>
-      <c r="V287" s="11">
+      <c r="V287" s="19">
         <v>593039.37525735202</v>
       </c>
-      <c r="W287" s="11">
-        <v>640192.21890989167</v>
+      <c r="W287" s="19">
+        <v>640033.56072924484</v>
       </c>
       <c r="X287" s="11">
-        <v>695265.77517931862</v>
+        <v>695675.25208890578</v>
       </c>
     </row>
     <row r="288" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13706,14 +13740,14 @@
       <c r="U288" s="11">
         <v>1681870.098085878</v>
       </c>
-      <c r="V288" s="11">
+      <c r="V288" s="19">
         <v>1823978.7216463271</v>
       </c>
-      <c r="W288" s="11">
-        <v>1961921.5221756808</v>
+      <c r="W288" s="19">
+        <v>1963148.3992895908</v>
       </c>
       <c r="X288" s="11">
-        <v>2224585.9880876783</v>
+        <v>2224346.267759732</v>
       </c>
     </row>
     <row r="289" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13780,14 +13814,14 @@
       <c r="U289" s="11">
         <v>1255643.6165043227</v>
       </c>
-      <c r="V289" s="11">
+      <c r="V289" s="19">
         <v>1081612.1930010803</v>
       </c>
-      <c r="W289" s="11">
-        <v>1138901.0906580149</v>
+      <c r="W289" s="19">
+        <v>1139221.0893330369</v>
       </c>
       <c r="X289" s="11">
-        <v>1248939.9020872077</v>
+        <v>1249334.1429345785</v>
       </c>
     </row>
     <row r="290" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13854,14 +13888,14 @@
       <c r="U290" s="11">
         <v>1219756.8056329405</v>
       </c>
-      <c r="V290" s="11">
+      <c r="V290" s="19">
         <v>1137558.010549481</v>
       </c>
-      <c r="W290" s="11">
-        <v>1220837.471216304</v>
+      <c r="W290" s="19">
+        <v>1222488.8088335665</v>
       </c>
       <c r="X290" s="11">
-        <v>1343490.9590753098</v>
+        <v>1350600.5280751535</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
@@ -13928,14 +13962,14 @@
       <c r="U291" s="11">
         <v>890687.72424688854</v>
       </c>
-      <c r="V291" s="11">
+      <c r="V291" s="19">
         <v>950590.1342675566</v>
       </c>
-      <c r="W291" s="11">
-        <v>1030438.4607416289</v>
+      <c r="W291" s="19">
+        <v>1027078.9960668562</v>
       </c>
       <c r="X291" s="11">
-        <v>1115035.553492357</v>
+        <v>1114044.8961219341</v>
       </c>
     </row>
     <row r="292" spans="1:24" x14ac:dyDescent="0.2">
@@ -14002,14 +14036,14 @@
       <c r="U292" s="11">
         <v>778867.60580924491</v>
       </c>
-      <c r="V292" s="11">
+      <c r="V292" s="19">
         <v>719493.52100767673</v>
       </c>
-      <c r="W292" s="11">
-        <v>796826.8370969845</v>
+      <c r="W292" s="19">
+        <v>796472.21035602549</v>
       </c>
       <c r="X292" s="11">
-        <v>886493.48992364574</v>
+        <v>883972.32622222346</v>
       </c>
     </row>
     <row r="293" spans="1:24" x14ac:dyDescent="0.2">
@@ -14076,14 +14110,14 @@
       <c r="U293" s="11">
         <v>329862.2022173648</v>
       </c>
-      <c r="V293" s="11">
+      <c r="V293" s="19">
         <v>325260.09833732201</v>
       </c>
-      <c r="W293" s="11">
-        <v>385686.11156712897</v>
+      <c r="W293" s="19">
+        <v>385749.58321451931</v>
       </c>
       <c r="X293" s="11">
-        <v>411609.09854941181</v>
+        <v>411712.9941896472</v>
       </c>
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.2">
@@ -14150,14 +14184,14 @@
       <c r="U294" s="11">
         <v>450429.10682983557</v>
       </c>
-      <c r="V294" s="11">
+      <c r="V294" s="19">
         <v>271957.31031697243</v>
       </c>
-      <c r="W294" s="11">
-        <v>281010.14653605589</v>
+      <c r="W294" s="19">
+        <v>281060.67612645612</v>
       </c>
       <c r="X294" s="11">
-        <v>365124.01081854082</v>
+        <v>365579.19370868942</v>
       </c>
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.2">
@@ -14254,10 +14288,10 @@
         <v>17951573.570012722</v>
       </c>
       <c r="W296" s="19">
-        <v>19410568.055125386</v>
+        <v>19410614.486183222</v>
       </c>
       <c r="X296" s="19">
-        <v>22023277.992894731</v>
+        <v>22024515.000626005</v>
       </c>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.2">
@@ -14353,10 +14387,10 @@
         <v>1360426.9400112671</v>
       </c>
       <c r="W298" s="19">
-        <v>693869.14626533468</v>
+        <v>690387.60375562287</v>
       </c>
       <c r="X298" s="19">
-        <v>1296702.5334379813</v>
+        <v>1298326.988730005</v>
       </c>
     </row>
     <row r="299" spans="1:24" x14ac:dyDescent="0.2">
@@ -14452,10 +14486,10 @@
         <v>19312000.510023989</v>
       </c>
       <c r="W300" s="19">
-        <v>20104437.201390721</v>
+        <v>20101002.089938845</v>
       </c>
       <c r="X300" s="19">
-        <v>23319980.526332714</v>
+        <v>23322841.989356011</v>
       </c>
     </row>
     <row r="301" spans="1:24" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14501,7 +14535,7 @@
     </row>
     <row r="307" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -14583,7 +14617,7 @@
     </row>
     <row r="310" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -14829,14 +14863,14 @@
       <c r="U316" s="11">
         <v>1783855.1472581755</v>
       </c>
-      <c r="V316" s="11">
+      <c r="V316" s="19">
         <v>1780390.5640921535</v>
       </c>
-      <c r="W316" s="11">
-        <v>1775358.080234726</v>
+      <c r="W316" s="19">
+        <v>1775210.3171187984</v>
       </c>
       <c r="X316" s="11">
-        <v>1783729.463772893</v>
+        <v>1783498.9562229416</v>
       </c>
     </row>
     <row r="317" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14907,10 +14941,10 @@
         <v>5115315.7129913447</v>
       </c>
       <c r="W317" s="19">
-        <v>5549484.2684873901</v>
+        <v>5551621.8662187792</v>
       </c>
       <c r="X317" s="19">
-        <v>5923397.8983245566</v>
+        <v>5914703.2127513792</v>
       </c>
     </row>
     <row r="318" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14977,14 +15011,14 @@
       <c r="U318" s="11">
         <v>168857.01559815076</v>
       </c>
-      <c r="V318" s="11">
+      <c r="V318" s="19">
         <v>137493.02513292991</v>
       </c>
-      <c r="W318" s="11">
-        <v>144431.03620122332</v>
+      <c r="W318" s="19">
+        <v>144498.10094611297</v>
       </c>
       <c r="X318" s="11">
-        <v>152066.39889539586</v>
+        <v>152184.53734054259</v>
       </c>
     </row>
     <row r="319" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15051,14 +15085,14 @@
       <c r="U319" s="11">
         <v>3620455.9375859774</v>
       </c>
-      <c r="V319" s="11">
+      <c r="V319" s="19">
         <v>3266301.6027311916</v>
       </c>
-      <c r="W319" s="11">
-        <v>3554736.9219308542</v>
+      <c r="W319" s="19">
+        <v>3556426.2814807137</v>
       </c>
       <c r="X319" s="11">
-        <v>3732295.9997452842</v>
+        <v>3730402.8432111591</v>
       </c>
     </row>
     <row r="320" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -15125,14 +15159,14 @@
       <c r="U320" s="11">
         <v>591311.99595093704</v>
       </c>
-      <c r="V320" s="11">
+      <c r="V320" s="19">
         <v>589213.0358613478</v>
       </c>
-      <c r="W320" s="11">
-        <v>615505.42130178306</v>
+      <c r="W320" s="19">
+        <v>615591.38307166984</v>
       </c>
       <c r="X320" s="11">
-        <v>646877.72691473342</v>
+        <v>647256.73482704919</v>
       </c>
     </row>
     <row r="321" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15199,14 +15233,14 @@
       <c r="U321" s="11">
         <v>1507243.747751632</v>
       </c>
-      <c r="V321" s="11">
+      <c r="V321" s="19">
         <v>1122308.0492658752</v>
       </c>
-      <c r="W321" s="11">
-        <v>1234810.8890535296</v>
+      <c r="W321" s="19">
+        <v>1235106.1007202829</v>
       </c>
       <c r="X321" s="11">
-        <v>1392157.7727691429</v>
+        <v>1384859.0973726278</v>
       </c>
     </row>
     <row r="322" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15277,10 +15311,10 @@
         <v>10642137.002289824</v>
       </c>
       <c r="W322" s="19">
-        <v>11213211.486368531</v>
+        <v>11213252.036594167</v>
       </c>
       <c r="X322" s="19">
-        <v>12239676.794656362</v>
+        <v>12245428.06999575</v>
       </c>
     </row>
     <row r="323" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -15347,14 +15381,14 @@
       <c r="U323" s="11">
         <v>3489299.3986241054</v>
       </c>
-      <c r="V323" s="11">
+      <c r="V323" s="19">
         <v>3275536.8130151117</v>
       </c>
-      <c r="W323" s="11">
-        <v>3414326.3282148382</v>
+      <c r="W323" s="19">
+        <v>3413863.9018391548</v>
       </c>
       <c r="X323" s="11">
-        <v>3710633.0898959963</v>
+        <v>3710868.0551170409</v>
       </c>
     </row>
     <row r="324" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15421,14 +15455,14 @@
       <c r="U324" s="11">
         <v>742346.50223086798</v>
       </c>
-      <c r="V324" s="11">
+      <c r="V324" s="19">
         <v>515149.36362272</v>
       </c>
-      <c r="W324" s="11">
-        <v>547542.29235033551</v>
+      <c r="W324" s="19">
+        <v>547806.8943569262</v>
       </c>
       <c r="X324" s="11">
-        <v>678677.5310674021</v>
+        <v>678560.73440180533</v>
       </c>
     </row>
     <row r="325" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15495,14 +15529,14 @@
       <c r="U325" s="11">
         <v>425692.44564928289</v>
       </c>
-      <c r="V325" s="11">
+      <c r="V325" s="19">
         <v>231810.68457593551</v>
       </c>
-      <c r="W325" s="11">
-        <v>248456.87201087741</v>
+      <c r="W325" s="19">
+        <v>248404.00730113528</v>
       </c>
       <c r="X325" s="11">
-        <v>327468.04378505045</v>
+        <v>328180.25478560932</v>
       </c>
     </row>
     <row r="326" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15569,14 +15603,14 @@
       <c r="U326" s="11">
         <v>557007.14226321713</v>
       </c>
-      <c r="V326" s="11">
+      <c r="V326" s="19">
         <v>585185.11700217403</v>
       </c>
-      <c r="W326" s="11">
-        <v>639123.12992489454</v>
+      <c r="W326" s="19">
+        <v>638971.34971836535</v>
       </c>
       <c r="X326" s="11">
-        <v>689223.93068601377</v>
+        <v>689867.83648900688</v>
       </c>
     </row>
     <row r="327" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15643,14 +15677,14 @@
       <c r="U327" s="11">
         <v>1676448.1015052404</v>
       </c>
-      <c r="V327" s="11">
+      <c r="V327" s="19">
         <v>1769952.4973231703</v>
       </c>
-      <c r="W327" s="11">
-        <v>1853154.422339136</v>
+      <c r="W327" s="19">
+        <v>1854248.1201083027</v>
       </c>
       <c r="X327" s="11">
-        <v>1986932.4618910267</v>
+        <v>1986719.2835721944</v>
       </c>
     </row>
     <row r="328" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15717,14 +15751,14 @@
       <c r="U328" s="11">
         <v>1238469.4807894267</v>
       </c>
-      <c r="V328" s="11">
+      <c r="V328" s="19">
         <v>1031274.7654062201</v>
       </c>
-      <c r="W328" s="11">
-        <v>1053944.4695838783</v>
+      <c r="W328" s="19">
+        <v>1054235.2281024854</v>
       </c>
       <c r="X328" s="11">
-        <v>1109885.1147282864</v>
+        <v>1110215.538746024</v>
       </c>
     </row>
     <row r="329" spans="1:24" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -15791,14 +15825,14 @@
       <c r="U329" s="11">
         <v>1182158.5827597622</v>
       </c>
-      <c r="V329" s="11">
+      <c r="V329" s="19">
         <v>1068769.3138266339</v>
       </c>
-      <c r="W329" s="11">
-        <v>1135218.0985623091</v>
+      <c r="W329" s="19">
+        <v>1136506.7586497723</v>
       </c>
       <c r="X329" s="11">
-        <v>1234947.2118660733</v>
+        <v>1240113.3048010368</v>
       </c>
     </row>
     <row r="330" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -15865,14 +15899,14 @@
       <c r="U330" s="11">
         <v>871564.28334569244</v>
       </c>
-      <c r="V330" s="11">
+      <c r="V330" s="19">
         <v>911187.77121699601</v>
       </c>
-      <c r="W330" s="11">
-        <v>962824.47294404032</v>
+      <c r="W330" s="19">
+        <v>959685.44530862558</v>
       </c>
       <c r="X330" s="11">
-        <v>999285.71855917701</v>
+        <v>998320.66369767254</v>
       </c>
     </row>
     <row r="331" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15939,14 +15973,14 @@
       <c r="U331" s="11">
         <v>766089.01603823481</v>
       </c>
-      <c r="V331" s="11">
+      <c r="V331" s="19">
         <v>687609.85737305612</v>
       </c>
-      <c r="W331" s="11">
-        <v>744503.02095490869</v>
+      <c r="W331" s="19">
+        <v>744158.68466356071</v>
       </c>
       <c r="X331" s="11">
-        <v>801089.05943800521</v>
+        <v>799264.16233284434</v>
       </c>
     </row>
     <row r="332" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16013,14 +16047,14 @@
       <c r="U332" s="11">
         <v>323261.21682743798</v>
       </c>
-      <c r="V332" s="11">
+      <c r="V332" s="19">
         <v>306902.63750810525</v>
       </c>
-      <c r="W332" s="11">
-        <v>350267.82724050398</v>
+      <c r="W332" s="19">
+        <v>351472.44293169305</v>
       </c>
       <c r="X332" s="11">
-        <v>362995.3488251426</v>
+        <v>364343.4851822817</v>
       </c>
     </row>
     <row r="333" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16087,14 +16121,14 @@
       <c r="U333" s="11">
         <v>438690.59724510444</v>
       </c>
-      <c r="V333" s="11">
+      <c r="V333" s="19">
         <v>258758.18141969977</v>
       </c>
-      <c r="W333" s="11">
-        <v>263850.55224280979</v>
+      <c r="W333" s="19">
+        <v>263899.20361414546</v>
       </c>
       <c r="X333" s="11">
-        <v>338539.28391418856</v>
+        <v>338974.75087023288</v>
       </c>
     </row>
     <row r="334" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16191,10 +16225,10 @@
         <v>17537843.279373322</v>
       </c>
       <c r="W335" s="19">
-        <v>18538053.835090648</v>
+        <v>18540084.219931744</v>
       </c>
       <c r="X335" s="19">
-        <v>19946804.156753812</v>
+        <v>19943630.238970071</v>
       </c>
     </row>
     <row r="336" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16291,10 +16325,10 @@
         <v>1320172.5541665182</v>
       </c>
       <c r="W337" s="19">
-        <v>642515.15330013481</v>
+        <v>639322.08928792004</v>
       </c>
       <c r="X337" s="19">
-        <v>1133553.5252234293</v>
+        <v>1133700.5595275369</v>
       </c>
     </row>
     <row r="338" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16391,10 +16425,10 @@
         <v>18858015.83353984</v>
       </c>
       <c r="W339" s="19">
-        <v>19180568.988390785</v>
+        <v>19179406.309219666</v>
       </c>
       <c r="X339" s="19">
-        <v>21080357.681977242</v>
+        <v>21077330.79849761</v>
       </c>
     </row>
     <row r="340" spans="1:24" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16440,7 +16474,7 @@
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.2">
@@ -16453,7 +16487,7 @@
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:24" x14ac:dyDescent="0.2">
@@ -16629,10 +16663,10 @@
         <v>6.2086830642616775</v>
       </c>
       <c r="V355" s="17">
-        <v>6.886863659267803</v>
+        <v>6.8946280591658962</v>
       </c>
       <c r="W355" s="17">
-        <v>7.6254478305902751</v>
+        <v>7.6087209751645872</v>
       </c>
       <c r="X355" s="17"/>
     </row>
@@ -16701,10 +16735,10 @@
         <v>-13.870761061262286</v>
       </c>
       <c r="V356" s="17">
-        <v>9.9795070711121099</v>
+        <v>9.9928242723429577</v>
       </c>
       <c r="W356" s="17">
-        <v>14.87360751199742</v>
+        <v>14.787685091426226</v>
       </c>
       <c r="X356" s="17"/>
     </row>
@@ -16773,10 +16807,10 @@
         <v>-15.215025106358809</v>
       </c>
       <c r="V357" s="17">
-        <v>35.184293980671185</v>
+        <v>35.247783658170277</v>
       </c>
       <c r="W357" s="17">
-        <v>51.110504724691651</v>
+        <v>51.183069815717573</v>
       </c>
       <c r="X357" s="17"/>
     </row>
@@ -16845,10 +16879,10 @@
         <v>-12.288136037014468</v>
       </c>
       <c r="V358" s="17">
-        <v>7.996503944296677</v>
+        <v>8.0168506520120104</v>
       </c>
       <c r="W358" s="17">
-        <v>10.916910773898053</v>
+        <v>10.889309455813859</v>
       </c>
       <c r="X358" s="17"/>
     </row>
@@ -16917,10 +16951,10 @@
         <v>0.5214608294454024</v>
       </c>
       <c r="V359" s="17">
-        <v>6.5174622572634888</v>
+        <v>6.5312344929551358</v>
       </c>
       <c r="W359" s="17">
-        <v>14.547573529485973</v>
+        <v>14.621704373270433</v>
       </c>
       <c r="X359" s="17"/>
     </row>
@@ -16989,10 +17023,10 @@
         <v>-23.150460607076823</v>
       </c>
       <c r="V360" s="17">
-        <v>14.171065058905569</v>
+        <v>14.159439285048947</v>
       </c>
       <c r="W360" s="17">
-        <v>20.10087402836875</v>
+        <v>19.767704449022361</v>
       </c>
       <c r="X360" s="17"/>
     </row>
@@ -17061,10 +17095,10 @@
         <v>-7.1745559504802117</v>
       </c>
       <c r="V361" s="17">
-        <v>7.4766544431965798</v>
+        <v>7.4696296571646172</v>
       </c>
       <c r="W361" s="17">
-        <v>13.753805281788715</v>
+        <v>13.807234050123228</v>
       </c>
       <c r="X361" s="17"/>
     </row>
@@ -17133,10 +17167,10 @@
         <v>-5.6936371290746735</v>
       </c>
       <c r="V362" s="17">
-        <v>5.6028046477498918</v>
+        <v>5.5894812729012813</v>
       </c>
       <c r="W362" s="17">
-        <v>13.821434079356806</v>
+        <v>13.838224700466554</v>
       </c>
       <c r="X362" s="17"/>
     </row>
@@ -17205,10 +17239,10 @@
         <v>-27.270330939561731</v>
       </c>
       <c r="V363" s="17">
-        <v>9.7767123143466961</v>
+        <v>9.828419774340432</v>
       </c>
       <c r="W363" s="17">
-        <v>33.341338165415181</v>
+        <v>33.264601632747627</v>
       </c>
       <c r="X363" s="17"/>
     </row>
@@ -17277,10 +17311,10 @@
         <v>-41.401966018601968</v>
       </c>
       <c r="V364" s="17">
-        <v>12.738730635208853</v>
+        <v>12.716246685124389</v>
       </c>
       <c r="W364" s="17">
-        <v>38.248410549445708</v>
+        <v>38.531282654798616</v>
       </c>
       <c r="X364" s="17"/>
     </row>
@@ -17349,10 +17383,10 @@
         <v>5.3667158552252374</v>
       </c>
       <c r="V365" s="17">
-        <v>7.9510477077643316</v>
+        <v>7.9242943103903514</v>
       </c>
       <c r="W365" s="17">
-        <v>8.6026594267586205</v>
+        <v>8.6935583965727687</v>
       </c>
       <c r="X365" s="17"/>
     </row>
@@ -17421,10 +17455,10 @@
         <v>8.4494411145177963</v>
       </c>
       <c r="V366" s="17">
-        <v>7.5627417629546869</v>
+        <v>7.6300055473042363</v>
       </c>
       <c r="W366" s="17">
-        <v>13.388122967360829</v>
+        <v>13.305049611362122</v>
       </c>
       <c r="X366" s="17"/>
     </row>
@@ -17493,10 +17527,10 @@
         <v>-13.859937741549714</v>
       </c>
       <c r="V367" s="17">
-        <v>5.2966209171494825</v>
+        <v>5.3262062599454367</v>
       </c>
       <c r="W367" s="17">
-        <v>9.6618409036395292</v>
+        <v>9.6656438888440732</v>
       </c>
       <c r="X367" s="17"/>
     </row>
@@ -17565,10 +17599,10 @@
         <v>-6.7389494941826484</v>
       </c>
       <c r="V368" s="17">
-        <v>7.3208979141728321</v>
+        <v>7.4660630487812085</v>
       </c>
       <c r="W368" s="17">
-        <v>10.04666802509</v>
+        <v>10.479582170067019</v>
       </c>
       <c r="X368" s="17"/>
     </row>
@@ -17637,10 +17671,10 @@
         <v>6.7254109818699845</v>
       </c>
       <c r="V369" s="17">
-        <v>8.3998690493034047</v>
+        <v>8.0464607239202337</v>
       </c>
       <c r="W369" s="17">
-        <v>8.2098151392603995</v>
+        <v>8.4673039160677206</v>
       </c>
       <c r="X369" s="17"/>
     </row>
@@ -17709,10 +17743,10 @@
         <v>-7.6231293173219683</v>
       </c>
       <c r="V370" s="17">
-        <v>10.748299162027152</v>
+        <v>10.699010776433028</v>
       </c>
       <c r="W370" s="17">
-        <v>11.252965971042926</v>
+        <v>10.985959676745665</v>
       </c>
       <c r="X370" s="17"/>
     </row>
@@ -17781,10 +17815,10 @@
         <v>-1.3951595087606279</v>
       </c>
       <c r="V371" s="17">
-        <v>18.5777516328302</v>
+        <v>18.597265753287886</v>
       </c>
       <c r="W371" s="17">
-        <v>6.7212653514932015</v>
+        <v>6.7306387627875637</v>
       </c>
       <c r="X371" s="17"/>
     </row>
@@ -17853,10 +17887,10 @@
         <v>-39.622616257853579</v>
       </c>
       <c r="V372" s="17">
-        <v>3.3287710517993361</v>
+        <v>3.3473510231710719</v>
       </c>
       <c r="W372" s="17">
-        <v>29.932678701938755</v>
+        <v>30.071270996376001</v>
       </c>
       <c r="X372" s="17"/>
     </row>
@@ -17951,10 +17985,10 @@
         <v>-8.0249030741325669</v>
       </c>
       <c r="V374" s="17">
-        <v>8.1273905010190788</v>
+        <v>8.1276491471909793</v>
       </c>
       <c r="W374" s="17">
-        <v>13.46024459639375</v>
+        <v>13.466346036099978</v>
       </c>
       <c r="X374" s="17"/>
     </row>
@@ -18048,10 +18082,10 @@
         <v>-30.384356647561987</v>
       </c>
       <c r="V376" s="17">
-        <v>-48.996221270097159</v>
+        <v>-49.252136704238957</v>
       </c>
       <c r="W376" s="17">
-        <v>86.879981682039499</v>
+        <v>88.05769131242613</v>
       </c>
       <c r="X376" s="17"/>
     </row>
@@ -18145,10 +18179,10 @@
         <v>-10.059862944150751</v>
       </c>
       <c r="V378" s="17">
-        <v>4.1033381857846081</v>
+        <v>4.0855507408739129</v>
       </c>
       <c r="W378" s="17">
-        <v>15.99419716518878</v>
+        <v>16.028255133756701</v>
       </c>
       <c r="X378" s="17"/>
     </row>
@@ -18195,7 +18229,7 @@
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.2">
@@ -18208,7 +18242,7 @@
     </row>
     <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="389" spans="1:24" x14ac:dyDescent="0.2">
@@ -18384,10 +18418,10 @@
         <v>-0.19421886196013816</v>
       </c>
       <c r="V394" s="17">
-        <v>-0.28266179112186762</v>
+        <v>-0.2909612687144687</v>
       </c>
       <c r="W394" s="17">
-        <v>0.47153211689330021</v>
+        <v>0.46691025982745771</v>
       </c>
       <c r="X394" s="17"/>
     </row>
@@ -18456,10 +18490,10 @@
         <v>-13.121097355718064</v>
       </c>
       <c r="V395" s="17">
-        <v>8.4876199213547778</v>
+        <v>8.5294081090508342</v>
       </c>
       <c r="W395" s="17">
-        <v>6.7378086277390707</v>
+        <v>6.5400950439712773</v>
       </c>
       <c r="X395" s="17"/>
     </row>
@@ -18528,10 +18562,10 @@
         <v>-18.574289231702096</v>
       </c>
       <c r="V396" s="17">
-        <v>5.0460822005957482</v>
+        <v>5.0948590347841076</v>
       </c>
       <c r="W396" s="17">
-        <v>5.2865110539917879</v>
+        <v>5.319403053813204</v>
       </c>
       <c r="X396" s="17"/>
     </row>
@@ -18600,10 +18634,10 @@
         <v>-9.7820368749170967</v>
       </c>
       <c r="V397" s="17">
-        <v>8.8306394901952956</v>
+        <v>8.8823603584839788</v>
       </c>
       <c r="W397" s="17">
-        <v>4.9949991156584446</v>
+        <v>4.8918928148852387</v>
       </c>
       <c r="X397" s="17"/>
     </row>
@@ -18672,10 +18706,10 @@
         <v>-0.35496660036699268</v>
       </c>
       <c r="V398" s="17">
-        <v>4.4622884831458975</v>
+        <v>4.4768777343428212</v>
       </c>
       <c r="W398" s="17">
-        <v>5.0969990721768852</v>
+        <v>5.1438913256673544</v>
       </c>
       <c r="X398" s="17"/>
     </row>
@@ -18744,10 +18778,10 @@
         <v>-25.539047619866963</v>
       </c>
       <c r="V399" s="17">
-        <v>10.024238876415865</v>
+        <v>10.050542854806309</v>
       </c>
       <c r="W399" s="17">
-        <v>12.742589582783651</v>
+        <v>12.124707064843477</v>
       </c>
       <c r="X399" s="17"/>
     </row>
@@ -18816,10 +18850,10 @@
         <v>-9.1272079402560848</v>
       </c>
       <c r="V400" s="17">
-        <v>5.366163618790381</v>
+        <v>5.3665446534042758</v>
       </c>
       <c r="W400" s="17">
-        <v>9.1540707096772849</v>
+        <v>9.204965963781973</v>
       </c>
       <c r="X400" s="17"/>
     </row>
@@ -18888,10 +18922,10 @@
         <v>-6.1262322658033952</v>
       </c>
       <c r="V401" s="17">
-        <v>4.2371532705190731</v>
+        <v>4.2230356952304788</v>
       </c>
       <c r="W401" s="17">
-        <v>8.6783374873274255</v>
+        <v>8.6999412342677402</v>
       </c>
       <c r="X401" s="17"/>
     </row>
@@ -18960,10 +18994,10 @@
         <v>-30.605268284471592</v>
       </c>
       <c r="V402" s="17">
-        <v>6.2880653680355039</v>
+        <v>6.3394295014840765</v>
       </c>
       <c r="W402" s="17">
-        <v>23.949791741961363</v>
+        <v>23.868600667826897</v>
       </c>
       <c r="X402" s="17"/>
     </row>
@@ -19032,10 +19066,10 @@
         <v>-45.54503211294513</v>
       </c>
       <c r="V403" s="17">
-        <v>7.180940544390225</v>
+        <v>7.1581354222540909</v>
       </c>
       <c r="W403" s="17">
-        <v>31.80075927652905</v>
+        <v>32.11552355826646</v>
       </c>
       <c r="X403" s="17"/>
     </row>
@@ -19104,10 +19138,10 @@
         <v>5.0588174910046746</v>
       </c>
       <c r="V404" s="17">
-        <v>9.2172564468210965</v>
+        <v>9.1913193198984686</v>
       </c>
       <c r="W404" s="17">
-        <v>7.8389903940742585</v>
+        <v>7.9653785405362498</v>
       </c>
       <c r="X404" s="17"/>
     </row>
@@ -19176,10 +19210,10 @@
         <v>5.5775300013149547</v>
       </c>
       <c r="V405" s="17">
-        <v>4.7007998882341724</v>
+        <v>4.7625923810169439</v>
       </c>
       <c r="W405" s="17">
-        <v>7.2189364220942736</v>
+        <v>7.1441983425688704</v>
       </c>
       <c r="X405" s="17"/>
     </row>
@@ -19248,10 +19282,10 @@
         <v>-16.729900784566482</v>
       </c>
       <c r="V406" s="17">
-        <v>2.1982215543428651</v>
+        <v>2.2264156427042252</v>
       </c>
       <c r="W406" s="17">
-        <v>5.307741229146032</v>
+        <v>5.3100398422748043</v>
       </c>
       <c r="X406" s="17"/>
     </row>
@@ -19320,10 +19354,10 @@
         <v>-9.5917138856632818</v>
       </c>
       <c r="V407" s="17">
-        <v>6.2173177949656093</v>
+        <v>6.3378919984716333</v>
       </c>
       <c r="W407" s="17">
-        <v>8.7850179124227878</v>
+        <v>9.1162278941793886</v>
       </c>
       <c r="X407" s="17"/>
     </row>
@@ -19392,10 +19426,10 @@
         <v>4.5462496144518525</v>
       </c>
       <c r="V408" s="17">
-        <v>5.6669660588264321</v>
+        <v>5.3224676212297481</v>
       </c>
       <c r="W408" s="17">
-        <v>3.7869047411776648</v>
+        <v>4.025821020618082</v>
       </c>
       <c r="X408" s="17"/>
     </row>
@@ -19464,10 +19498,10 @@
         <v>-10.244130515149152</v>
       </c>
       <c r="V409" s="17">
-        <v>8.2740471172427732</v>
+        <v>8.2239698404766415</v>
       </c>
       <c r="W409" s="17">
-        <v>7.6005116017553007</v>
+        <v>7.4050708276282649</v>
       </c>
       <c r="X409" s="17"/>
     </row>
@@ -19536,10 +19570,10 @@
         <v>-5.0604831225594182</v>
       </c>
       <c r="V410" s="17">
-        <v>14.129950164163546</v>
+        <v>14.522457605927457</v>
       </c>
       <c r="W410" s="17">
-        <v>3.6336541911111624</v>
+        <v>3.6620345376806824</v>
       </c>
       <c r="X410" s="17"/>
     </row>
@@ -19608,10 +19642,10 @@
         <v>-41.015790389706744</v>
       </c>
       <c r="V411" s="17">
-        <v>1.9680037922551037</v>
+        <v>1.9868056601105337</v>
       </c>
       <c r="W411" s="17">
-        <v>28.307210667744243</v>
+        <v>28.448569085436702</v>
       </c>
       <c r="X411" s="17"/>
     </row>
@@ -19706,10 +19740,10 @@
         <v>-9.5182947406990905</v>
       </c>
       <c r="V413" s="17">
-        <v>5.7031559684063211</v>
+        <v>5.7147331321929471</v>
       </c>
       <c r="W413" s="17">
-        <v>7.5992352498002873</v>
+        <v>7.5703324881848602</v>
       </c>
       <c r="X413" s="17"/>
     </row>
@@ -19803,10 +19837,10 @@
         <v>-31.107599176893771</v>
       </c>
       <c r="V415" s="17">
-        <v>-51.330971752720437</v>
+        <v>-51.572838923957818</v>
       </c>
       <c r="W415" s="17">
-        <v>76.424403284683024</v>
+        <v>77.32854511413143</v>
       </c>
       <c r="X415" s="17"/>
     </row>
@@ -19900,10 +19934,10 @@
         <v>-11.460692442705906</v>
       </c>
       <c r="V417" s="17">
-        <v>1.7104299715204832</v>
+        <v>1.704264534067363</v>
       </c>
       <c r="W417" s="17">
-        <v>9.9047567083975707</v>
+        <v>9.8956373241104956</v>
       </c>
       <c r="X417" s="17"/>
     </row>
@@ -19945,7 +19979,7 @@
     </row>
     <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="424" spans="1:24" x14ac:dyDescent="0.2">
@@ -19981,7 +20015,7 @@
     </row>
     <row r="426" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -20231,10 +20265,10 @@
         <v>102.69789337826805</v>
       </c>
       <c r="W432" s="17">
-        <v>110.08171622695437</v>
+        <v>110.09887623844212</v>
       </c>
       <c r="X432" s="17">
-        <v>117.91990982183762</v>
+        <v>117.92538679831441</v>
       </c>
     </row>
     <row r="433" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20305,10 +20339,10 @@
         <v>99.66603011725465</v>
       </c>
       <c r="W433" s="17">
-        <v>101.03660557745044</v>
+        <v>101.00993203237611</v>
       </c>
       <c r="X433" s="17">
-        <v>108.73784577990899</v>
+        <v>108.82941548393951</v>
       </c>
     </row>
     <row r="434" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -20379,10 +20413,10 @@
         <v>99.685285993147815</v>
       </c>
       <c r="W434" s="17">
-        <v>128.285460294573</v>
+        <v>128.28614185059013</v>
       </c>
       <c r="X434" s="17">
-        <v>184.11931841878004</v>
+        <v>184.151183708068</v>
       </c>
     </row>
     <row r="435" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -20453,10 +20487,10 @@
         <v>97.049243713635093</v>
       </c>
       <c r="W435" s="17">
-        <v>96.305407012285784</v>
+        <v>96.277795866955771</v>
       </c>
       <c r="X435" s="17">
-        <v>101.73720964423146</v>
+        <v>101.78268322849328</v>
       </c>
     </row>
     <row r="436" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20527,10 +20561,10 @@
         <v>103.70635230946618</v>
       </c>
       <c r="W436" s="17">
-        <v>105.74665392041737</v>
+        <v>105.74555802079794</v>
       </c>
       <c r="X436" s="17">
-        <v>115.25564690127186</v>
+        <v>115.27760612078038</v>
       </c>
     </row>
     <row r="437" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -20601,10 +20635,10 @@
         <v>105.1582437522016</v>
       </c>
       <c r="W437" s="17">
-        <v>109.12167002035405</v>
+        <v>109.08447910875108</v>
       </c>
       <c r="X437" s="17">
-        <v>116.24363067567016</v>
+        <v>116.52023890075249</v>
       </c>
     </row>
     <row r="438" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20675,10 +20709,10 @@
         <v>103.59684211272433</v>
       </c>
       <c r="W438" s="17">
-        <v>105.67189331708811</v>
+        <v>105.66460437826011</v>
       </c>
       <c r="X438" s="17">
-        <v>110.12488950706883</v>
+        <v>110.11766960559804</v>
       </c>
     </row>
     <row r="439" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -20749,10 +20783,10 @@
         <v>101.27716066805826</v>
       </c>
       <c r="W439" s="17">
-        <v>102.60403203406166</v>
+        <v>102.60498351826391</v>
       </c>
       <c r="X439" s="17">
-        <v>107.45966803000601</v>
+        <v>107.45515624490096</v>
       </c>
     </row>
     <row r="440" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -20823,10 +20857,10 @@
         <v>106.96792621799769</v>
       </c>
       <c r="W440" s="17">
-        <v>110.47888794132474</v>
+        <v>110.47753743024329</v>
       </c>
       <c r="X440" s="17">
-        <v>118.8497580358265</v>
+        <v>118.85776488659697</v>
       </c>
     </row>
     <row r="441" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -20897,10 +20931,10 @@
         <v>109.14649241036483</v>
       </c>
       <c r="W441" s="17">
-        <v>114.80620477046209</v>
+        <v>114.80773638757988</v>
       </c>
       <c r="X441" s="17">
-        <v>120.42248783582694</v>
+        <v>120.38299930326619</v>
       </c>
     </row>
     <row r="442" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -20971,10 +21005,10 @@
         <v>101.34218352910518</v>
       </c>
       <c r="W442" s="17">
-        <v>100.1672743380642</v>
+        <v>100.16623765859731</v>
       </c>
       <c r="X442" s="17">
-        <v>100.87661559970664</v>
+        <v>100.8418156772542</v>
       </c>
     </row>
     <row r="443" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21045,10 +21079,10 @@
         <v>103.05241097740559</v>
       </c>
       <c r="W443" s="17">
-        <v>105.86929499913202</v>
+        <v>105.87301548268132</v>
       </c>
       <c r="X443" s="17">
-        <v>111.96082558188563</v>
+        <v>111.96077302678995</v>
       </c>
     </row>
     <row r="444" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21119,10 +21153,10 @@
         <v>104.88108788107814</v>
       </c>
       <c r="W444" s="17">
-        <v>108.06082516925008</v>
+        <v>108.06137557967183</v>
       </c>
       <c r="X444" s="17">
-        <v>112.52875504983808</v>
+        <v>112.53077437068548</v>
       </c>
     </row>
     <row r="445" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21193,10 +21227,10 @@
         <v>106.43625297179943</v>
       </c>
       <c r="W445" s="17">
-        <v>107.54210779077846</v>
+        <v>107.5654675636021</v>
       </c>
       <c r="X445" s="17">
-        <v>108.78934307201851</v>
+        <v>108.90944584227672</v>
       </c>
     </row>
     <row r="446" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -21270,7 +21304,7 @@
         <v>107.02246252537022</v>
       </c>
       <c r="X446" s="17">
-        <v>111.5832571989595</v>
+        <v>111.59188992398809</v>
       </c>
     </row>
     <row r="447" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21341,10 +21375,10 @@
         <v>104.63688286209695</v>
       </c>
       <c r="W447" s="17">
-        <v>107.02801931884234</v>
+        <v>107.02988848623276</v>
       </c>
       <c r="X447" s="17">
-        <v>110.66104067699476</v>
+        <v>110.59826874285694</v>
       </c>
     </row>
     <row r="448" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21415,10 +21449,10 @@
         <v>105.98152592570402</v>
       </c>
       <c r="W448" s="17">
-        <v>110.11177207043505</v>
+        <v>109.7524403327085</v>
       </c>
       <c r="X448" s="17">
-        <v>113.39238915363809</v>
+        <v>113.00133279003643</v>
       </c>
     </row>
     <row r="449" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21489,10 +21523,10 @@
         <v>105.10095133025533</v>
       </c>
       <c r="W449" s="17">
-        <v>106.50352790524194</v>
+        <v>106.50304065994945</v>
       </c>
       <c r="X449" s="17">
-        <v>107.85277460180687</v>
+        <v>107.84850280740861</v>
       </c>
     </row>
     <row r="450" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21589,10 +21623,10 @@
         <v>102.35907166034491</v>
       </c>
       <c r="W451" s="17">
-        <v>104.70661175005954</v>
+        <v>104.69539542498735</v>
       </c>
       <c r="X451" s="17">
-        <v>110.41005777077248</v>
+        <v>110.43383143751764</v>
       </c>
     </row>
     <row r="452" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21689,10 +21723,10 @@
         <v>103.04917608820941</v>
       </c>
       <c r="W453" s="17">
-        <v>107.99265086612068</v>
+        <v>107.98744722313285</v>
       </c>
       <c r="X453" s="17">
-        <v>114.3927044100008</v>
+        <v>114.52115620998504</v>
       </c>
     </row>
     <row r="454" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21789,10 +21823,10 @@
         <v>102.40738304862762</v>
       </c>
       <c r="W455" s="17">
-        <v>104.81668825131891</v>
+        <v>104.80513195174433</v>
       </c>
       <c r="X455" s="17">
-        <v>110.62421652489441</v>
+        <v>110.65367912249336</v>
       </c>
     </row>
     <row r="456" spans="1:24" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21861,7 +21895,7 @@
     </row>
     <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="463" spans="1:24" x14ac:dyDescent="0.2">
@@ -21874,7 +21908,7 @@
     </row>
     <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="466" spans="1:24" x14ac:dyDescent="0.2">
@@ -22055,10 +22089,10 @@
         <v>10.185311031910887</v>
       </c>
       <c r="W471" s="17">
-        <v>10.068456720823523</v>
+        <v>10.069164020582223</v>
       </c>
       <c r="X471" s="17">
-        <v>9.5506771327372082</v>
+        <v>9.5493500883448501</v>
       </c>
     </row>
     <row r="472" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -22129,10 +22163,10 @@
         <v>28.399917585046559</v>
       </c>
       <c r="W472" s="17">
-        <v>28.88638042951931</v>
+        <v>28.88980911837572</v>
       </c>
       <c r="X472" s="17">
-        <v>29.246215180540108</v>
+        <v>29.226236917653626</v>
       </c>
     </row>
     <row r="473" spans="1:24" x14ac:dyDescent="0.2">
@@ -22203,10 +22237,10 @@
         <v>0.76350028475133092</v>
       </c>
       <c r="W473" s="17">
-        <v>0.95455227828861111</v>
+        <v>0.95499830200166702</v>
       </c>
       <c r="X473" s="17">
-        <v>1.2713076467568358</v>
+        <v>1.2724440330481301</v>
       </c>
     </row>
     <row r="474" spans="1:24" x14ac:dyDescent="0.2">
@@ -22277,10 +22311,10 @@
         <v>17.6581790476138</v>
       </c>
       <c r="W474" s="17">
-        <v>17.636804091251491</v>
+        <v>17.640084696340029</v>
       </c>
       <c r="X474" s="17">
-        <v>17.241456094906379</v>
+        <v>17.23944481385584</v>
       </c>
     </row>
     <row r="475" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
@@ -22351,10 +22385,10 @@
         <v>3.4038873775634011</v>
       </c>
       <c r="W475" s="17">
-        <v>3.3532062836952305</v>
+        <v>3.3536318163469221</v>
       </c>
       <c r="X475" s="17">
-        <v>3.3853412242099306</v>
+        <v>3.3877797960270275</v>
       </c>
     </row>
     <row r="476" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22425,10 +22459,10 @@
         <v>6.574350875118026</v>
       </c>
       <c r="W476" s="17">
-        <v>6.9418177762839743</v>
+        <v>6.9410943036871027</v>
       </c>
       <c r="X476" s="17">
-        <v>7.3481102146669581</v>
+        <v>7.3265682747226268</v>
       </c>
     </row>
     <row r="477" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -22499,10 +22533,10 @@
         <v>61.414771383042556</v>
       </c>
       <c r="W477" s="17">
-        <v>61.045162849657167</v>
+        <v>61.041026861042056</v>
       </c>
       <c r="X477" s="17">
-        <v>61.203107686722689</v>
+        <v>61.224412994001518</v>
       </c>
     </row>
     <row r="478" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -22573,10 +22607,10 @@
         <v>18.479553716673756</v>
       </c>
       <c r="W478" s="17">
-        <v>18.04808838978785</v>
+        <v>18.045768186841119</v>
       </c>
       <c r="X478" s="17">
-        <v>18.105542696687749</v>
+        <v>18.104912033499019</v>
       </c>
     </row>
     <row r="479" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22647,10 +22681,10 @@
         <v>3.0696172067775183</v>
       </c>
       <c r="W479" s="17">
-        <v>3.1164396316436416</v>
+        <v>3.1179000911558972</v>
       </c>
       <c r="X479" s="17">
-        <v>3.6625183761352891</v>
+        <v>3.6619290925822412</v>
       </c>
     </row>
     <row r="480" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22721,10 +22755,10 @@
         <v>1.4094209082023603</v>
       </c>
       <c r="W480" s="17">
-        <v>1.4695288898140919</v>
+        <v>1.4692323011281929</v>
       </c>
       <c r="X480" s="17">
-        <v>1.7905834241410319</v>
+        <v>1.7937885752344063</v>
       </c>
     </row>
     <row r="481" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22795,10 +22829,10 @@
         <v>3.3035509279698858</v>
       </c>
       <c r="W481" s="17">
-        <v>3.2981632329964095</v>
+        <v>3.297337965188226</v>
       </c>
       <c r="X481" s="17">
-        <v>3.1569586298807515</v>
+        <v>3.1586405061320648</v>
       </c>
     </row>
     <row r="482" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22869,10 +22903,10 @@
         <v>10.160550631022117</v>
       </c>
       <c r="W482" s="17">
-        <v>10.107491530406978</v>
+        <v>10.113788003398811</v>
       </c>
       <c r="X482" s="17">
-        <v>10.101066647777802</v>
+        <v>10.099410895978908</v>
       </c>
     </row>
     <row r="483" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22943,10 +22977,10 @@
         <v>6.025166477928507</v>
       </c>
       <c r="W483" s="17">
-        <v>5.867427925981211</v>
+        <v>5.8690624665383586</v>
       </c>
       <c r="X483" s="17">
-        <v>5.6709991241546662</v>
+        <v>5.6724706214827814</v>
       </c>
     </row>
     <row r="484" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23017,10 +23051,10 @@
         <v>6.3368150213289347</v>
       </c>
       <c r="W484" s="17">
-        <v>6.2895504539030753</v>
+        <v>6.2980428038677134</v>
       </c>
       <c r="X484" s="17">
-        <v>6.1003223930095878</v>
+        <v>6.1322600204216311</v>
       </c>
     </row>
     <row r="485" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -23091,10 +23125,10 @@
         <v>5.295302556960654</v>
       </c>
       <c r="W485" s="17">
-        <v>5.3086465981583686</v>
+        <v>5.2913265409394796</v>
       </c>
       <c r="X485" s="17">
-        <v>5.062986326795202</v>
+        <v>5.0582039881026644</v>
       </c>
     </row>
     <row r="486" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23165,10 +23199,10 @@
         <v>4.007969096422598</v>
       </c>
       <c r="W486" s="17">
-        <v>4.1051185871223455</v>
+        <v>4.103281794210929</v>
       </c>
       <c r="X486" s="17">
-        <v>4.0252567769868364</v>
+        <v>4.0135836189677647</v>
       </c>
     </row>
     <row r="487" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23239,10 +23273,10 @@
         <v>1.8118751376795961</v>
       </c>
       <c r="W487" s="17">
-        <v>1.9869903367680579</v>
+        <v>1.9873125783271925</v>
       </c>
       <c r="X487" s="17">
-        <v>1.8689729053150368</v>
+        <v>1.8693396616358864</v>
       </c>
     </row>
     <row r="488" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23313,10 +23347,10 @@
         <v>1.5149497020766169</v>
       </c>
       <c r="W488" s="17">
-        <v>1.4477172730751422</v>
+        <v>1.447974129446131</v>
       </c>
       <c r="X488" s="17">
-        <v>1.6579003858387433</v>
+        <v>1.6598739799641378</v>
       </c>
     </row>
     <row r="489" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23487,10 +23521,10 @@
         <v>92.955535915064161</v>
       </c>
       <c r="W491" s="17">
-        <v>96.548676596540901</v>
+        <v>96.56540703460162</v>
       </c>
       <c r="X491" s="17">
-        <v>94.439521371067372</v>
+        <v>94.433238499310974</v>
       </c>
     </row>
     <row r="492" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23561,10 +23595,10 @@
         <v>7.0444640849358446</v>
       </c>
       <c r="W492" s="17">
-        <v>3.4513234034590954</v>
+        <v>3.43459296539839</v>
       </c>
       <c r="X492" s="17">
-        <v>5.5604786289326285</v>
+        <v>5.5667615006890259</v>
       </c>
     </row>
     <row r="493" spans="1:24" x14ac:dyDescent="0.2">
@@ -23709,7 +23743,7 @@
     </row>
     <row r="501" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="502" spans="1:24" x14ac:dyDescent="0.2">
@@ -23722,7 +23756,7 @@
     </row>
     <row r="504" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="505" spans="1:24" x14ac:dyDescent="0.2">
@@ -23903,10 +23937,10 @@
         <v>10.151707571626629</v>
       </c>
       <c r="W510" s="17">
-        <v>9.5768309663345228</v>
+        <v>9.5749851837800009</v>
       </c>
       <c r="X510" s="17">
-        <v>8.9424323302885487</v>
+        <v>8.9426996732920028</v>
       </c>
     </row>
     <row r="511" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23977,10 +24011,10 @@
         <v>29.167301996634841</v>
       </c>
       <c r="W511" s="17">
-        <v>29.93563573530454</v>
+        <v>29.943886987581429</v>
       </c>
       <c r="X511" s="17">
-        <v>29.695974612148312</v>
+        <v>29.657104257749346</v>
       </c>
     </row>
     <row r="512" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24051,10 +24085,10 @@
         <v>0.78397909562026213</v>
       </c>
       <c r="W512" s="17">
-        <v>0.77910571134403594</v>
+        <v>0.7793821173194484</v>
       </c>
       <c r="X512" s="17">
-        <v>0.76235971286612103</v>
+        <v>0.76307339996292323</v>
       </c>
     </row>
     <row r="513" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24125,10 +24159,10 @@
         <v>18.624306026116493</v>
       </c>
       <c r="W513" s="17">
-        <v>19.175351164436147</v>
+        <v>19.182363139738783</v>
       </c>
       <c r="X513" s="17">
-        <v>18.711248029582531</v>
+        <v>18.704733283321264</v>
       </c>
     </row>
     <row r="514" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -24199,10 +24233,10 @@
         <v>3.3596664451571154</v>
       </c>
       <c r="W514" s="17">
-        <v>3.3202267442804265</v>
+        <v>3.3203267890761294</v>
       </c>
       <c r="X514" s="17">
-        <v>3.243014378800658</v>
+        <v>3.245430882298963</v>
       </c>
     </row>
     <row r="515" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24273,10 +24307,10 @@
         <v>6.3993504297409745</v>
       </c>
       <c r="W515" s="17">
-        <v>6.6609521152439326</v>
+        <v>6.6618149414470667</v>
       </c>
       <c r="X515" s="17">
-        <v>6.9793524908990019</v>
+        <v>6.9438666921661936</v>
       </c>
     </row>
     <row r="516" spans="1:24" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24347,10 +24381,10 @@
         <v>60.680990431738536</v>
       </c>
       <c r="W516" s="17">
-        <v>60.48753329836093</v>
+        <v>60.481127828638584</v>
       </c>
       <c r="X516" s="17">
-        <v>61.361593057563134</v>
+        <v>61.400196068958643</v>
       </c>
     </row>
     <row r="517" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -24421,10 +24455,10 @@
         <v>18.676964783164355</v>
       </c>
       <c r="W517" s="17">
-        <v>18.417932964202887</v>
+        <v>18.413421758726635</v>
       </c>
       <c r="X517" s="17">
-        <v>18.60264461783272</v>
+        <v>18.606783271913876</v>
       </c>
     </row>
     <row r="518" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24495,10 +24529,10 @@
         <v>2.9373586900995949</v>
       </c>
       <c r="W518" s="17">
-        <v>2.9536125918131368</v>
+        <v>2.9547163209107739</v>
       </c>
       <c r="X518" s="17">
-        <v>3.4024374317507293</v>
+        <v>3.4023932768061966</v>
       </c>
     </row>
     <row r="519" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24569,10 +24603,10 @@
         <v>1.3217741821685316</v>
       </c>
       <c r="W519" s="17">
-        <v>1.3402532661792894</v>
+        <v>1.3398213533144878</v>
       </c>
       <c r="X519" s="17">
-        <v>1.6417068178521854</v>
+        <v>1.6455392065198919</v>
       </c>
     </row>
     <row r="520" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24643,10 +24677,10 @@
         <v>3.3366994315111955</v>
       </c>
       <c r="W520" s="17">
-        <v>3.4476279743836948</v>
+        <v>3.4464317536995401</v>
       </c>
       <c r="X520" s="17">
-        <v>3.455310060046128</v>
+        <v>3.4590885822832678</v>
       </c>
     </row>
     <row r="521" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24717,10 +24751,10 @@
         <v>10.092190180561449</v>
       </c>
       <c r="W521" s="17">
-        <v>9.9964885139739064</v>
+        <v>10.001292864219412</v>
       </c>
       <c r="X521" s="17">
-        <v>9.9611569165493066</v>
+        <v>9.961673274959356</v>
       </c>
     </row>
     <row r="522" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24791,10 +24825,10 @@
         <v>5.880282706250016</v>
       </c>
       <c r="W522" s="17">
-        <v>5.6853026696301248</v>
+        <v>5.6862483233442758</v>
       </c>
       <c r="X522" s="17">
-        <v>5.5642252563676431</v>
+        <v>5.5667675615879135</v>
       </c>
     </row>
     <row r="523" spans="1:24" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -24865,10 +24899,10 @@
         <v>6.0940749486776351</v>
       </c>
       <c r="W523" s="17">
-        <v>6.1237177789043677</v>
+        <v>6.1299978207647881</v>
       </c>
       <c r="X523" s="17">
-        <v>6.1912033735385679</v>
+        <v>6.2180921424116757</v>
       </c>
     </row>
     <row r="524" spans="1:24" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -24939,10 +24973,10 @@
         <v>5.1955520225720448</v>
       </c>
       <c r="W524" s="17">
-        <v>5.1937732056938559</v>
+        <v>5.1762733864871224</v>
       </c>
       <c r="X524" s="17">
-        <v>5.0097534958793277</v>
+        <v>5.0057118575480963</v>
       </c>
     </row>
     <row r="525" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25013,10 +25047,10 @@
         <v>3.9207207318460338</v>
       </c>
       <c r="W525" s="17">
-        <v>4.0160797221639326</v>
+        <v>4.0137826551162252</v>
       </c>
       <c r="X525" s="17">
-        <v>4.0161273612683637</v>
+        <v>4.0076162301238085</v>
       </c>
     </row>
     <row r="526" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25087,10 +25121,10 @@
         <v>1.7499451478681007</v>
       </c>
       <c r="W526" s="17">
-        <v>1.8894530696500762</v>
+        <v>1.8957435077551499</v>
       </c>
       <c r="X526" s="17">
-        <v>1.8198170793301522</v>
+        <v>1.826866427107892</v>
       </c>
     </row>
     <row r="527" spans="1:24" x14ac:dyDescent="0.2">
@@ -25161,10 +25195,10 @@
         <v>1.4754276070195671</v>
       </c>
       <c r="W527" s="17">
-        <v>1.4232915417656602</v>
+        <v>1.4233980843001641</v>
       </c>
       <c r="X527" s="17">
-        <v>1.6972106471480151</v>
+        <v>1.6996642376966682</v>
       </c>
     </row>
     <row r="528" spans="1:24" x14ac:dyDescent="0.2">
@@ -25335,10 +25369,10 @@
         <v>92.99940902680477</v>
       </c>
       <c r="W530" s="17">
-        <v>96.650176782091165</v>
+        <v>96.66662211029653</v>
       </c>
       <c r="X530" s="17">
-        <v>94.622702601519109</v>
+        <v>94.621232781485077</v>
       </c>
     </row>
     <row r="531" spans="1:24" x14ac:dyDescent="0.2">
@@ -25409,10 +25443,10 @@
         <v>7.0005909731952354</v>
       </c>
       <c r="W531" s="17">
-        <v>3.3498232179088276</v>
+        <v>3.3333778897034665</v>
       </c>
       <c r="X531" s="17">
-        <v>5.3772973984808932</v>
+        <v>5.3787672185149127</v>
       </c>
     </row>
     <row r="532" spans="1:24" x14ac:dyDescent="0.2">
@@ -25607,7 +25641,7 @@
     </row>
     <row r="540" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="541" spans="1:24" x14ac:dyDescent="0.2">
@@ -25620,7 +25654,7 @@
     </row>
     <row r="543" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -25894,10 +25928,10 @@
         <v>1906916.8971984382</v>
       </c>
       <c r="W549" s="26">
-        <v>1121886.3050013401</v>
+        <v>1117657.8504454875</v>
       </c>
       <c r="X549" s="26">
-        <v>1725342.7534032061</v>
+        <v>1735462.27965805</v>
       </c>
     </row>
     <row r="550" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25971,7 +26005,7 @@
         <v>941740.52341519285</v>
       </c>
       <c r="X550" s="28">
-        <v>1450398.0539443595</v>
+        <v>1469235.1306790612</v>
       </c>
     </row>
     <row r="551" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26042,10 +26076,10 @@
         <v>166357.86808026594</v>
       </c>
       <c r="W551" s="28">
-        <v>180145.78158614723</v>
+        <v>175917.32703029475</v>
       </c>
       <c r="X551" s="28">
-        <v>274944.69945884659</v>
+        <v>266227.14897898887</v>
       </c>
     </row>
     <row r="552" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26142,10 +26176,10 @@
         <v>546489.95718717109</v>
       </c>
       <c r="W553" s="26">
-        <v>428017.15873600548</v>
+        <v>427270.24668986473</v>
       </c>
       <c r="X553" s="26">
-        <v>428640.21996522485</v>
+        <v>437135.29092804505</v>
       </c>
     </row>
     <row r="554" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26216,10 +26250,10 @@
         <v>192988.61009781866</v>
       </c>
       <c r="W554" s="28">
-        <v>41536.82155529641</v>
+        <v>42603.696845826271</v>
       </c>
       <c r="X554" s="28">
-        <v>20592.370898177796</v>
+        <v>21367.805939945876</v>
       </c>
     </row>
     <row r="555" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26290,10 +26324,10 @@
         <v>353501.34708935244</v>
       </c>
       <c r="W555" s="28">
-        <v>386480.33718070906</v>
+        <v>384666.54984403844</v>
       </c>
       <c r="X555" s="28">
-        <v>408047.84906704706</v>
+        <v>415767.4849880992</v>
       </c>
     </row>
     <row r="556" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26390,10 +26424,10 @@
         <v>1360426.9400112671</v>
       </c>
       <c r="W557" s="29">
-        <v>693869.14626533468</v>
+        <v>690387.60375562287</v>
       </c>
       <c r="X557" s="29">
-        <v>1296702.5334379813</v>
+        <v>1298326.988730005</v>
       </c>
     </row>
     <row r="558" spans="1:24" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26560,7 +26594,7 @@
     </row>
     <row r="564" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -26642,7 +26676,7 @@
     </row>
     <row r="567" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -26916,10 +26950,10 @@
         <v>1847627.2404803413</v>
       </c>
       <c r="W573" s="26">
-        <v>1041448.6801206906</v>
+        <v>1037503.8392732077</v>
       </c>
       <c r="X573" s="26">
-        <v>1511345.0962015821</v>
+        <v>1518443.1862386074</v>
       </c>
     </row>
     <row r="574" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26990,10 +27024,10 @@
         <v>1686092.0341212533</v>
       </c>
       <c r="W574" s="28">
-        <v>874043.99062715471</v>
+        <v>873983.91027083388</v>
       </c>
       <c r="X574" s="28">
-        <v>1271213.62554209</v>
+        <v>1286299.7677883483</v>
       </c>
     </row>
     <row r="575" spans="1:24" x14ac:dyDescent="0.2">
@@ -27064,10 +27098,10 @@
         <v>161535.20635908804</v>
       </c>
       <c r="W575" s="28">
-        <v>167404.68949353593</v>
+        <v>163519.9290023738</v>
       </c>
       <c r="X575" s="28">
-        <v>240131.47065949213</v>
+        <v>232143.4184502592</v>
       </c>
     </row>
     <row r="576" spans="1:24" x14ac:dyDescent="0.2">
@@ -27164,10 +27198,10 @@
         <v>527454.68631382321</v>
       </c>
       <c r="W577" s="26">
-        <v>398933.52682055579</v>
+        <v>398181.74998528766</v>
       </c>
       <c r="X577" s="26">
-        <v>377791.57097815274</v>
+        <v>384742.62671107065</v>
       </c>
     </row>
     <row r="578" spans="1:24" x14ac:dyDescent="0.2">
@@ -27238,10 +27272,10 @@
         <v>185591.6096175331</v>
       </c>
       <c r="W578" s="28">
-        <v>38663.565855127672</v>
+        <v>39656.234020403877</v>
       </c>
       <c r="X578" s="28">
-        <v>18016.928477090358</v>
+        <v>18687.828079557265</v>
       </c>
     </row>
     <row r="579" spans="1:24" x14ac:dyDescent="0.2">
@@ -27312,10 +27346,10 @@
         <v>341863.07669629011</v>
       </c>
       <c r="W579" s="28">
-        <v>360269.96096542815</v>
+        <v>358525.51596488379</v>
       </c>
       <c r="X579" s="28">
-        <v>359774.64250106236</v>
+        <v>366054.79863151337</v>
       </c>
     </row>
     <row r="580" spans="1:24" x14ac:dyDescent="0.2">
@@ -27412,10 +27446,10 @@
         <v>1320172.5541665182</v>
       </c>
       <c r="W581" s="29">
-        <v>642515.15330013481</v>
+        <v>639322.08928792004</v>
       </c>
       <c r="X581" s="29">
-        <v>1133553.5252234293</v>
+        <v>1133700.5595275369</v>
       </c>
     </row>
     <row r="582" spans="1:24" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27467,7 +27501,7 @@
     </row>
     <row r="588" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="589" spans="1:24" x14ac:dyDescent="0.2">
@@ -27480,7 +27514,7 @@
     </row>
     <row r="591" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="592" spans="1:24" x14ac:dyDescent="0.2">
@@ -27657,10 +27691,10 @@
         <v>-28.623773628197696</v>
       </c>
       <c r="V597" s="17">
-        <v>-41.167530339179017</v>
+        <v>-41.3892733297658</v>
       </c>
       <c r="W597" s="17">
-        <v>53.789447799805799</v>
+        <v>55.276704670066238</v>
       </c>
       <c r="X597" s="17"/>
     </row>
@@ -27732,7 +27766,7 @@
         <v>-45.89436453112932</v>
       </c>
       <c r="W598" s="17">
-        <v>54.012492600884997</v>
+        <v>56.012733247468788</v>
       </c>
       <c r="X598" s="17"/>
     </row>
@@ -27801,10 +27835,10 @@
         <v>-30.975583524660919</v>
       </c>
       <c r="V599" s="17">
-        <v>8.2881042327548755</v>
+        <v>5.7463221068789352</v>
       </c>
       <c r="W599" s="17">
-        <v>52.623445877008066</v>
+        <v>51.336513277706786</v>
       </c>
       <c r="X599" s="17"/>
     </row>
@@ -27829,6 +27863,8 @@
       <c r="R600" s="29"/>
       <c r="S600" s="29"/>
       <c r="T600" s="29"/>
+      <c r="V600" s="29"/>
+      <c r="W600" s="29"/>
     </row>
     <row r="601" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
@@ -27895,10 +27931,10 @@
         <v>-23.828242880680889</v>
       </c>
       <c r="V601" s="17">
-        <v>-21.678861046405117</v>
+        <v>-21.815535478628007</v>
       </c>
       <c r="W601" s="17">
-        <v>0.1455692176125325</v>
+        <v>2.3088535451758077</v>
       </c>
       <c r="X601" s="17"/>
     </row>
@@ -27967,10 +28003,10 @@
         <v>-37.044375229489411</v>
       </c>
       <c r="V602" s="17">
-        <v>-78.477060623296396</v>
+        <v>-77.924242874109481</v>
       </c>
       <c r="W602" s="17">
-        <v>-50.423816442565432</v>
+        <v>-49.84518358284393</v>
       </c>
       <c r="X602" s="17"/>
     </row>
@@ -28039,10 +28075,10 @@
         <v>-13.968439702803465</v>
       </c>
       <c r="V603" s="17">
-        <v>9.3292402880209409</v>
+        <v>8.8161482300684213</v>
       </c>
       <c r="W603" s="17">
-        <v>5.5804939634622457</v>
+        <v>8.0851675708923665</v>
       </c>
       <c r="X603" s="17"/>
     </row>
@@ -28067,6 +28103,8 @@
       <c r="R604" s="29"/>
       <c r="S604" s="29"/>
       <c r="T604" s="29"/>
+      <c r="V604" s="29"/>
+      <c r="W604" s="29"/>
     </row>
     <row r="605" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A605" s="30" t="s">
@@ -28133,10 +28171,10 @@
         <v>-30.384356647561987</v>
       </c>
       <c r="V605" s="17">
-        <v>-48.996221270097159</v>
+        <v>-49.252136704238957</v>
       </c>
       <c r="W605" s="17">
-        <v>86.879981682039499</v>
+        <v>88.05769131242613</v>
       </c>
       <c r="X605" s="17"/>
     </row>
@@ -28189,7 +28227,7 @@
     </row>
     <row r="612" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="613" spans="1:24" x14ac:dyDescent="0.2">
@@ -28202,7 +28240,7 @@
     </row>
     <row r="615" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="616" spans="1:24" x14ac:dyDescent="0.2">
@@ -28379,10 +28417,10 @@
         <v>-29.497176753616515</v>
       </c>
       <c r="V621" s="17">
-        <v>-43.633182207795471</v>
+        <v>-43.846690688351174</v>
       </c>
       <c r="W621" s="17">
-        <v>45.119497969543403</v>
+        <v>46.355428169047286</v>
       </c>
       <c r="X621" s="17"/>
     </row>
@@ -28451,10 +28489,10 @@
         <v>-29.253401217734108</v>
       </c>
       <c r="V622" s="17">
-        <v>-48.161549136154761</v>
+        <v>-48.165112426598277</v>
       </c>
       <c r="W622" s="17">
-        <v>45.440462857018588</v>
+        <v>47.176595892908864</v>
       </c>
       <c r="X622" s="17"/>
     </row>
@@ -28523,10 +28561,10 @@
         <v>-31.94488370102836</v>
       </c>
       <c r="V623" s="17">
-        <v>3.6335627797448637</v>
+        <v>1.2286625857113762</v>
       </c>
       <c r="W623" s="17">
-        <v>43.443694072121218</v>
+        <v>41.966437893260832</v>
       </c>
       <c r="X623" s="17"/>
     </row>
@@ -28551,6 +28589,8 @@
       <c r="R624" s="29"/>
       <c r="S624" s="29"/>
       <c r="T624" s="29"/>
+      <c r="V624" s="29"/>
+      <c r="W624" s="29"/>
     </row>
     <row r="625" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
@@ -28617,10 +28657,10 @@
         <v>-25.115868272389093</v>
       </c>
       <c r="V625" s="17">
-        <v>-24.366293982797288</v>
+        <v>-24.5088231620377</v>
       </c>
       <c r="W625" s="17">
-        <v>-5.2996187136492381</v>
+        <v>-3.3751228615358571</v>
       </c>
       <c r="X625" s="17"/>
     </row>
@@ -28689,10 +28729,10 @@
         <v>-38.333425111339281</v>
       </c>
       <c r="V626" s="17">
-        <v>-79.16739558711437</v>
+        <v>-78.632528646026955</v>
       </c>
       <c r="W626" s="17">
-        <v>-53.400758366158556</v>
+        <v>-52.875434238304052</v>
       </c>
       <c r="X626" s="17"/>
     </row>
@@ -28761,10 +28801,10 @@
         <v>-15.254834838731469</v>
       </c>
       <c r="V627" s="17">
-        <v>5.3842855587152627</v>
+        <v>4.8740096267829927</v>
       </c>
       <c r="W627" s="17">
-        <v>-0.13748536320888149</v>
+        <v>2.1000688462483197</v>
       </c>
       <c r="X627" s="17"/>
     </row>
@@ -28789,6 +28829,8 @@
       <c r="R628" s="29"/>
       <c r="S628" s="29"/>
       <c r="T628" s="29"/>
+      <c r="V628" s="29"/>
+      <c r="W628" s="29"/>
     </row>
     <row r="629" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A629" s="30" t="s">
@@ -28855,10 +28897,10 @@
         <v>-31.107599176893771</v>
       </c>
       <c r="V629" s="17">
-        <v>-51.330971752720437</v>
+        <v>-51.572838923957818</v>
       </c>
       <c r="W629" s="17">
-        <v>76.424403284683024</v>
+        <v>77.32854511413143</v>
       </c>
       <c r="X629" s="17"/>
     </row>
@@ -28909,7 +28951,7 @@
     </row>
     <row r="636" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="637" spans="1:24" x14ac:dyDescent="0.2">
@@ -28922,7 +28964,7 @@
     </row>
     <row r="639" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -29196,10 +29238,10 @@
         <v>103.20896203623211</v>
       </c>
       <c r="W645" s="31">
-        <v>107.72362828971349</v>
+        <v>107.72565923499901</v>
       </c>
       <c r="X645" s="31">
-        <v>114.15941718006415</v>
+        <v>114.29221029711547</v>
       </c>
     </row>
     <row r="646" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29270,10 +29312,10 @@
         <v>103.23036903648652</v>
       </c>
       <c r="W646" s="31">
-        <v>107.74520888124448</v>
+        <v>107.75261562004755</v>
       </c>
       <c r="X646" s="31">
-        <v>114.09554026183908</v>
+        <v>114.22182973765518</v>
       </c>
     </row>
     <row r="647" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29344,10 +29386,10 @@
         <v>102.98551741745837</v>
       </c>
       <c r="W647" s="31">
-        <v>107.61095291365974</v>
+        <v>107.58158232061182</v>
       </c>
       <c r="X647" s="31">
-        <v>114.49757031168973</v>
+        <v>114.68218688096587</v>
       </c>
     </row>
     <row r="648" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29444,10 +29486,10 @@
         <v>103.60889216974789</v>
       </c>
       <c r="W649" s="31">
-        <v>107.29034537338642</v>
+        <v>107.30533147379353</v>
       </c>
       <c r="X649" s="31">
-        <v>113.45944507322336</v>
+        <v>113.61758759741474</v>
       </c>
     </row>
     <row r="650" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29518,10 +29560,10 @@
         <v>103.98563302270468</v>
       </c>
       <c r="W650" s="31">
-        <v>107.43142965895807</v>
+        <v>107.43253336639549</v>
       </c>
       <c r="X650" s="31">
-        <v>114.2945698228323</v>
+        <v>114.34076688301866</v>
       </c>
     </row>
     <row r="651" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29592,10 +29634,10 @@
         <v>103.40436601271266</v>
       </c>
       <c r="W651" s="31">
-        <v>107.27520444531207</v>
+        <v>107.29126176941757</v>
       </c>
       <c r="X651" s="31">
-        <v>113.41762338512842</v>
+        <v>113.58066785148984</v>
       </c>
     </row>
     <row r="652" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29692,10 +29734,10 @@
         <v>103.04917608820941</v>
       </c>
       <c r="W653" s="31">
-        <v>107.99265086612068</v>
+        <v>107.98744722313285</v>
       </c>
       <c r="X653" s="31">
-        <v>114.3927044100008</v>
+        <v>114.52115620998504</v>
       </c>
     </row>
     <row r="654" spans="1:24" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29747,7 +29789,7 @@
     </row>
     <row r="660" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="661" spans="1:24" x14ac:dyDescent="0.2">
@@ -29760,7 +29802,7 @@
     </row>
     <row r="663" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="664" spans="1:24" x14ac:dyDescent="0.2">
@@ -29945,10 +29987,10 @@
         <v>165038.5871443169</v>
       </c>
       <c r="W670" s="32">
-        <v>176141.60745670617</v>
+        <v>176142.02879631563</v>
       </c>
       <c r="X670" s="32">
-        <v>197390.27583770722</v>
+        <v>197401.36289283898</v>
       </c>
     </row>
     <row r="671" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30019,10 +30061,10 @@
         <v>177545.73250496548</v>
       </c>
       <c r="W671" s="32">
-        <v>182438.13759640584</v>
+        <v>182406.96560539518</v>
       </c>
       <c r="X671" s="32">
-        <v>209012.36365030962</v>
+        <v>209038.01037627162</v>
       </c>
     </row>
     <row r="672" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30093,10 +30135,10 @@
         <v>123892.89631123577</v>
       </c>
       <c r="W672" s="32">
-        <v>132580.10552002848</v>
+        <v>132565.56203469928</v>
       </c>
       <c r="X672" s="32">
-        <v>149921.2758353267</v>
+        <v>149900.70228336955</v>
       </c>
     </row>
     <row r="673" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30221,10 +30263,10 @@
         <v>161234.93938276384</v>
       </c>
       <c r="W675" s="32">
-        <v>168223.95884336889</v>
+        <v>168242.38361324943</v>
       </c>
       <c r="X675" s="32">
-        <v>178779.25238253063</v>
+        <v>178750.80518647647</v>
       </c>
     </row>
     <row r="676" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30295,10 +30337,10 @@
         <v>173372.00426326567</v>
       </c>
       <c r="W676" s="32">
-        <v>174054.47609542296</v>
+        <v>174043.92533886727</v>
       </c>
       <c r="X676" s="32">
-        <v>188939.06796914976</v>
+        <v>188911.9386124225</v>
       </c>
     </row>
     <row r="677" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30369,10 +30411,10 @@
         <v>118701.1323213415</v>
       </c>
       <c r="W677" s="32">
-        <v>122111.57781954145</v>
+        <v>122098.74236900336</v>
       </c>
       <c r="X677" s="32">
-        <v>130662.83888474302</v>
+        <v>130589.9681963375</v>
       </c>
     </row>
     <row r="678" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30591,7 +30633,7 @@
     </row>
     <row r="686" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -30627,7 +30669,7 @@
     </row>
     <row r="689" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="690" spans="1:24" x14ac:dyDescent="0.2">
@@ -30809,10 +30851,10 @@
         <v>-9.2795940950250611</v>
       </c>
       <c r="V696" s="17">
-        <v>6.727529909523696</v>
+        <v>6.7277852071584903</v>
       </c>
       <c r="W696" s="17">
-        <v>12.063400969145661</v>
+        <v>12.069427292169379</v>
       </c>
       <c r="X696" s="17"/>
     </row>
@@ -30881,10 +30923,10 @@
         <v>-11.286793778186947</v>
       </c>
       <c r="V697" s="17">
-        <v>2.755574590509255</v>
+        <v>2.7380174289988872</v>
       </c>
       <c r="W697" s="17">
-        <v>14.566157276112918</v>
+        <v>14.599795946656968</v>
       </c>
       <c r="X697" s="17"/>
     </row>
@@ -30953,10 +30995,10 @@
         <v>-6.9713733791399761</v>
       </c>
       <c r="V698" s="17">
-        <v>7.0118703068893069</v>
+        <v>7.0001315504616173</v>
       </c>
       <c r="W698" s="17">
-        <v>13.079768074764829</v>
+        <v>13.076654285320927</v>
       </c>
       <c r="X698" s="17"/>
     </row>
@@ -31033,10 +31075,10 @@
         <v>-10.752613452375897</v>
       </c>
       <c r="V701" s="17">
-        <v>4.3346804900725999</v>
+        <v>4.3461077712506579</v>
       </c>
       <c r="W701" s="17">
-        <v>6.2745482936765455</v>
+        <v>6.2460013627621151</v>
       </c>
       <c r="X701" s="17"/>
     </row>
@@ -31105,10 +31147,10 @@
         <v>-12.66851366715882</v>
       </c>
       <c r="V702" s="17">
-        <v>0.39364592631744699</v>
+        <v>0.38756030909192418</v>
       </c>
       <c r="W702" s="17">
-        <v>8.5516857754158053</v>
+        <v>8.5426786626461535</v>
       </c>
       <c r="X702" s="17"/>
     </row>
@@ -31177,10 +31219,10 @@
         <v>-9.2121530284267834</v>
       </c>
       <c r="V703" s="17">
-        <v>2.8731364490840434</v>
+        <v>2.8623231987914295</v>
       </c>
       <c r="W703" s="17">
-        <v>7.002825790883449</v>
+        <v>6.9543925372074682</v>
       </c>
       <c r="X703" s="17"/>
     </row>
@@ -31217,13 +31259,18 @@
     </row>
     <row r="706" spans="1:1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="U88:U103 U106 U108 U110 U126:U141 U144 U146 U148">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="U126:U141 U144 U146 U148">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V88:X103 V106:X106 V108:X108 V110:X110 V126:X141 V144:X144 V146:X146 V148:X148">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="U88:U103 U106 U108 U110 X88:X103 X106 X108 X110">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X126:X141 X144 X146 X148">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823B52F-8BDF-40D4-BF3C-4FC07F430623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDFB91-1A98-400B-AA69-ADF5A93D0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="15225" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -163,17 +163,28 @@
     <definedName name="VAL_Curr" localSheetId="0">Summary!#REF!</definedName>
     <definedName name="VAL_Curr">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="115">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -507,13 +518,19 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
+  </si>
+  <si>
+    <t>Note: Population for 2000 to 2019 are based on the 2000, 2010 and 2015-based population projections. Population for 2020 onwards are based on 2020-based population projections.</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -620,14 +637,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -694,46 +712,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{BBAAB6FC-F23F-484F-B0E8-044D3DA1F4AE}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{F1D67B64-B92A-4084-B187-FF29E14376B7}"/>
     <cellStyle name="Comma 4" xfId="3" xr:uid="{F25B6650-00B1-4D4A-B6A5-223999E92A48}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{86872052-F4BE-4C30-BD75-CD271D7C7ACD}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1029,12 +1017,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y706"/>
+  <dimension ref="A1:AE706"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A653" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="AD686" sqref="AD686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1046,8 +1034,7 @@
     <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.85546875" style="34" customWidth="1"/>
+    <col min="15" max="25" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
@@ -1063,7 +1050,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1076,7 +1063,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1112,9 +1099,9 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -1183,13 +1170,13 @@
       <c r="V10" s="9">
         <v>2020</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="9">
         <v>2021</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="9">
         <v>2022</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -1260,14 +1247,14 @@
       <c r="V12" s="10">
         <v>13476075.391922019</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="10">
         <v>14608546.502977364</v>
       </c>
-      <c r="X12" s="37">
-        <v>16724759.229938487</v>
-      </c>
-      <c r="Y12" s="37">
-        <v>18611763.384858869</v>
+      <c r="X12" s="10">
+        <v>16725044.723724842</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>18608329.180382833</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1337,14 +1324,14 @@
       <c r="V13" s="10">
         <v>2739671.2481264588</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="10">
         <v>3024017.4249472991</v>
       </c>
-      <c r="X13" s="37">
-        <v>3306160.9935843209</v>
-      </c>
-      <c r="Y13" s="37">
-        <v>3449821.9792586342</v>
+      <c r="X13" s="10">
+        <v>3313862.1286355802</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>3465202.2571282908</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,14 +1401,14 @@
       <c r="V14" s="10">
         <v>3129565.8619586932</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="10">
         <v>4103546.9873818695</v>
       </c>
-      <c r="X14" s="37">
-        <v>5439654.9355647871</v>
-      </c>
-      <c r="Y14" s="37">
-        <v>5695591.5423738193</v>
+      <c r="X14" s="10">
+        <v>5437869.8263739794</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>5671386.7256698404</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -1491,14 +1478,14 @@
       <c r="V15" s="10">
         <v>3824091.2465223367</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="10">
         <v>4324545.0722124446</v>
       </c>
-      <c r="X15" s="37">
-        <v>5139742.5425150488</v>
-      </c>
-      <c r="Y15" s="37">
-        <v>5741426.0306272134</v>
+      <c r="X15" s="10">
+        <v>5142714.0733687067</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>5744028.6600849489</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -1568,14 +1555,14 @@
       <c r="V16" s="10">
         <v>2331973.0798953301</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="10">
         <v>2681782.9878097195</v>
       </c>
-      <c r="X16" s="37">
-        <v>3233646.5384953744</v>
-      </c>
-      <c r="Y16" s="37">
-        <v>3644094.2590712439</v>
+      <c r="X16" s="10">
+        <v>3235413.1045834022</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>3644960.2536660829</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -1645,14 +1632,14 @@
       <c r="V17" s="10">
         <v>943928.0143166217</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="10">
         <v>1071207.9001196469</v>
       </c>
-      <c r="X17" s="37">
-        <v>1313042.4617275929</v>
-      </c>
-      <c r="Y17" s="37">
-        <v>1481163.9745048676</v>
+      <c r="X17" s="10">
+        <v>1313676.57204714</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>1482058.4833376138</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -1722,14 +1709,14 @@
       <c r="V18" s="10">
         <v>421946.17607183685</v>
       </c>
-      <c r="W18" s="37">
+      <c r="W18" s="10">
         <v>427222.98622018914</v>
       </c>
-      <c r="X18" s="37">
-        <v>437101.12437569682</v>
-      </c>
-      <c r="Y18" s="37">
-        <v>451582.82086148608</v>
+      <c r="X18" s="10">
+        <v>437247.2149429986</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>451684.48688995198</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -1799,14 +1786,14 @@
       <c r="V19" s="10">
         <v>126243.97623854823</v>
       </c>
-      <c r="W19" s="37">
+      <c r="W19" s="10">
         <v>144331.19806288916</v>
       </c>
-      <c r="X19" s="37">
-        <v>155952.41791638473</v>
-      </c>
-      <c r="Y19" s="37">
-        <v>164584.9761896157</v>
+      <c r="X19" s="10">
+        <v>156377.18179516704</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>165325.43619129996</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -1876,14 +1863,14 @@
       <c r="V20" s="10">
         <v>-695464.32064183906</v>
       </c>
-      <c r="W20" s="37">
+      <c r="W20" s="10">
         <v>-222040.41898328852</v>
       </c>
-      <c r="X20" s="37">
-        <v>298781.63571063592</v>
-      </c>
-      <c r="Y20" s="37">
-        <v>-47292.278340353871</v>
+      <c r="X20" s="10">
+        <v>294024.87281235412</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>-74141.299978609823</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -1953,14 +1940,14 @@
       <c r="V21" s="10">
         <v>938.93607819525414</v>
       </c>
-      <c r="W21" s="37">
+      <c r="W21" s="10">
         <v>1042.334152713604</v>
       </c>
-      <c r="X21" s="37">
-        <v>1130.7573391023006</v>
-      </c>
-      <c r="Y21" s="37">
-        <v>1457.7900869590962</v>
+      <c r="X21" s="10">
+        <v>1130.8801929189103</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>1499.3655635017042</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2030,14 +2017,14 @@
       <c r="V22" s="10">
         <v>4524306.2404680271</v>
       </c>
-      <c r="W22" s="37">
+      <c r="W22" s="10">
         <v>4998628.2199455341</v>
       </c>
-      <c r="X22" s="37">
-        <v>6251681.8589008963</v>
-      </c>
-      <c r="Y22" s="37">
-        <v>6483702.7655758504</v>
+      <c r="X22" s="10">
+        <v>6253255.257619489</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>6481807.7288937625</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -2107,14 +2094,14 @@
       <c r="V23" s="10">
         <v>2551888.408456523</v>
       </c>
-      <c r="W23" s="37">
+      <c r="W23" s="10">
         <v>2917951.4169858913</v>
       </c>
-      <c r="X23" s="37">
-        <v>3569036.5845206976</v>
-      </c>
-      <c r="Y23" s="37">
-        <v>3316807.5157731078</v>
+      <c r="X23" s="10">
+        <v>3571498.5245334646</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>3318729.4860827397</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2184,14 +2171,14 @@
       <c r="V24" s="10">
         <v>1972417.8320115046</v>
       </c>
-      <c r="W24" s="37">
+      <c r="W24" s="10">
         <v>2080676.8029596431</v>
       </c>
-      <c r="X24" s="37">
-        <v>2682645.2743801987</v>
-      </c>
-      <c r="Y24" s="37">
-        <v>3166895.2498027422</v>
+      <c r="X24" s="10">
+        <v>2681756.7330860244</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>3163078.2428110228</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2261,14 +2248,14 @@
       <c r="V25" s="10">
         <v>5918045.1724624811</v>
       </c>
-      <c r="W25" s="37">
+      <c r="W25" s="10">
         <v>7324124.6490688436</v>
       </c>
-      <c r="X25" s="37">
-        <v>9697742.017362494</v>
-      </c>
-      <c r="Y25" s="37">
-        <v>9893595.0185023081</v>
+      <c r="X25" s="10">
+        <v>9701755.5986976214</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>9908114.4930058438</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -2338,14 +2325,14 @@
       <c r="V26" s="10">
         <v>4790019.9859151989</v>
       </c>
-      <c r="W26" s="37">
+      <c r="W26" s="10">
         <v>6296809.2296851315</v>
       </c>
-      <c r="X26" s="37">
-        <v>8190201.5865573008</v>
-      </c>
-      <c r="Y26" s="37">
-        <v>7905519.074372923</v>
+      <c r="X26" s="10">
+        <v>8197099.4009328969</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>7922602.8373487489</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -2415,14 +2402,14 @@
       <c r="V27" s="10">
         <v>1128025.1865472819</v>
       </c>
-      <c r="W27" s="37">
+      <c r="W27" s="10">
         <v>1027315.4193837126</v>
       </c>
-      <c r="X27" s="37">
-        <v>1507540.4308051928</v>
-      </c>
-      <c r="Y27" s="37">
-        <v>1988075.9441293858</v>
+      <c r="X27" s="10">
+        <v>1504656.197764725</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>1985511.6556570944</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2492,14 +2479,14 @@
       <c r="V28" s="10">
         <v>0</v>
       </c>
-      <c r="W28" s="37">
+      <c r="W28" s="10">
         <v>0</v>
       </c>
-      <c r="X28" s="37">
+      <c r="X28" s="10">
         <v>0</v>
       </c>
-      <c r="Y28" s="37">
-        <v>-57858.705587700009</v>
+      <c r="Y28" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -2524,9 +2511,9 @@
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
@@ -2595,14 +2582,14 @@
       <c r="V30" s="10">
         <v>17951573.570012722</v>
       </c>
-      <c r="W30" s="37">
+      <c r="W30" s="10">
         <v>19410614.486183222</v>
       </c>
-      <c r="X30" s="37">
-        <v>22024515.000626005</v>
-      </c>
-      <c r="Y30" s="37">
-        <v>24289425.947977163</v>
+      <c r="X30" s="10">
+        <v>22028276.337656274</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>24318611.399068885</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -2627,9 +2614,9 @@
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -2698,14 +2685,14 @@
       <c r="V32" s="10">
         <v>1360426.9400112671</v>
       </c>
-      <c r="W32" s="37">
+      <c r="W32" s="10">
         <v>690387.60375562287</v>
       </c>
-      <c r="X32" s="37">
-        <v>1298326.988730005</v>
-      </c>
-      <c r="Y32" s="37">
-        <v>2674093.9136142097</v>
+      <c r="X32" s="10">
+        <v>1294378.7136952721</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>2670713.283635254</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -2730,9 +2717,9 @@
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -2801,14 +2788,14 @@
       <c r="V34" s="10">
         <v>19312000.510023989</v>
       </c>
-      <c r="W34" s="37">
+      <c r="W34" s="10">
         <v>20101002.089938845</v>
       </c>
-      <c r="X34" s="37">
-        <v>23322841.989356011</v>
-      </c>
-      <c r="Y34" s="37">
-        <v>26963519.861591373</v>
+      <c r="X34" s="10">
+        <v>23322655.051351547</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>26989324.68270414</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2834,9 +2821,9 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -2855,7 +2842,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -2868,7 +2855,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
@@ -2904,9 +2891,9 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
@@ -2975,13 +2962,13 @@
       <c r="V48" s="9">
         <v>2020</v>
       </c>
-      <c r="W48" s="36">
+      <c r="W48" s="9">
         <v>2021</v>
       </c>
-      <c r="X48" s="36">
+      <c r="X48" s="9">
         <v>2022</v>
       </c>
-      <c r="Y48" s="36">
+      <c r="Y48" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -3052,14 +3039,14 @@
       <c r="V50" s="10">
         <v>12911356.953432048</v>
       </c>
-      <c r="W50" s="37">
+      <c r="W50" s="10">
         <v>13455117.064156942</v>
       </c>
-      <c r="X50" s="37">
-        <v>14570217.10145369</v>
-      </c>
-      <c r="Y50" s="37">
-        <v>15383960.243467605</v>
+      <c r="X50" s="10">
+        <v>14570348.202131875</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>15381271.647616927</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -3129,14 +3116,14 @@
       <c r="V51" s="10">
         <v>2651875.4513029442</v>
       </c>
-      <c r="W51" s="37">
+      <c r="W51" s="10">
         <v>2842704.7559254342</v>
       </c>
-      <c r="X51" s="37">
-        <v>2981663.4923116378</v>
-      </c>
-      <c r="Y51" s="37">
-        <v>2992504.2683373909</v>
+      <c r="X51" s="10">
+        <v>2988608.7660827152</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>3005102.527909623</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,14 +3193,14 @@
       <c r="V52" s="10">
         <v>3375832.6409634682</v>
       </c>
-      <c r="W52" s="37">
+      <c r="W52" s="10">
         <v>4051797.6976451259</v>
       </c>
-      <c r="X52" s="37">
-        <v>4609285.9921383802</v>
-      </c>
-      <c r="Y52" s="37">
-        <v>4856253.6034912914</v>
+      <c r="X52" s="10">
+        <v>4606648.2312439373</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>4878673.7830315512</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -3283,14 +3270,14 @@
       <c r="V53" s="10">
         <v>3761791.2858315799</v>
       </c>
-      <c r="W53" s="37">
+      <c r="W53" s="10">
         <v>4132142.1709895888</v>
       </c>
-      <c r="X53" s="37">
-        <v>4534346.8928515324</v>
-      </c>
-      <c r="Y53" s="37">
-        <v>4900560.3470952176</v>
+      <c r="X53" s="10">
+        <v>4535176.0436172327</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>4905932.7571878359</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -3360,14 +3347,14 @@
       <c r="V54" s="10">
         <v>2242533.866288078</v>
       </c>
-      <c r="W54" s="37">
+      <c r="W54" s="10">
         <v>2490376.6568596968</v>
       </c>
-      <c r="X54" s="37">
-        <v>2792709.1322139138</v>
-      </c>
-      <c r="Y54" s="37">
-        <v>3044661.0679169698</v>
+      <c r="X54" s="10">
+        <v>2792474.3334920201</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>3047156.3773942003</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
@@ -3437,14 +3424,14 @@
       <c r="V55" s="10">
         <v>1001577.5808599009</v>
       </c>
-      <c r="W55" s="37">
+      <c r="W55" s="10">
         <v>1121002.9288967871</v>
       </c>
-      <c r="X55" s="37">
-        <v>1214086.9635181073</v>
-      </c>
-      <c r="Y55" s="37">
-        <v>1320079.9388902686</v>
+      <c r="X55" s="10">
+        <v>1214725.4868574869</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>1322416.5794645459</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
@@ -3514,14 +3501,14 @@
       <c r="V56" s="10">
         <v>389874.78940033034</v>
       </c>
-      <c r="W56" s="37">
+      <c r="W56" s="10">
         <v>376350.12557621382</v>
       </c>
-      <c r="X56" s="37">
-        <v>378120.06045171467</v>
-      </c>
-      <c r="Y56" s="37">
-        <v>381595.64043908782</v>
+      <c r="X56" s="10">
+        <v>378240.624893634</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>381690.898016122</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
@@ -3591,14 +3578,14 @@
       <c r="V57" s="10">
         <v>127805.04928327087</v>
       </c>
-      <c r="W57" s="37">
+      <c r="W57" s="10">
         <v>144412.45965689089</v>
       </c>
-      <c r="X57" s="37">
-        <v>149430.73666779656</v>
-      </c>
-      <c r="Y57" s="37">
-        <v>154223.69984889211</v>
+      <c r="X57" s="10">
+        <v>149735.59837409202</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>154668.90231296723</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -3668,14 +3655,14 @@
       <c r="V58" s="10">
         <v>-386663.3238101789</v>
       </c>
-      <c r="W58" s="37">
+      <c r="W58" s="10">
         <v>-81106.70183858597</v>
       </c>
-      <c r="X58" s="37">
-        <v>74174.728636533429</v>
-      </c>
-      <c r="Y58" s="37">
-        <v>-45286.864510649393</v>
+      <c r="X58" s="10">
+        <v>70707.734345274788</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>-28248.96935975839</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
@@ -3745,14 +3732,14 @@
       <c r="V59" s="10">
         <v>704.67894206692563</v>
       </c>
-      <c r="W59" s="37">
+      <c r="W59" s="10">
         <v>762.22849412329833</v>
       </c>
-      <c r="X59" s="37">
-        <v>764.37065031454586</v>
-      </c>
-      <c r="Y59" s="37">
-        <v>980.12090672391059</v>
+      <c r="X59" s="10">
+        <v>764.4532814292038</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>989.99520347367593</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,14 +3809,14 @@
       <c r="V60" s="10">
         <v>4749668.2746546278</v>
       </c>
-      <c r="W60" s="37">
+      <c r="W60" s="10">
         <v>5129673.6108313287</v>
       </c>
-      <c r="X60" s="37">
-        <v>5688703.5893790871</v>
-      </c>
-      <c r="Y60" s="37">
-        <v>5764745.149739705</v>
+      <c r="X60" s="10">
+        <v>5691851.2968486836</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>5773779.8780201282</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
@@ -3899,14 +3886,14 @@
       <c r="V61" s="10">
         <v>2849277.293077284</v>
       </c>
-      <c r="W61" s="37">
+      <c r="W61" s="10">
         <v>3182306.3531660088</v>
       </c>
-      <c r="X61" s="37">
-        <v>3340191.1535128965</v>
-      </c>
-      <c r="Y61" s="37">
-        <v>3096401.1597588714</v>
+      <c r="X61" s="10">
+        <v>3343765.1208960977</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>3101252.6735432711</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
@@ -3976,14 +3963,14 @@
       <c r="V62" s="10">
         <v>1900390.9815773438</v>
       </c>
-      <c r="W62" s="37">
+      <c r="W62" s="10">
         <v>1947367.2576653198</v>
       </c>
-      <c r="X62" s="37">
-        <v>2348512.4358661906</v>
-      </c>
-      <c r="Y62" s="37">
-        <v>2668343.9899808331</v>
+      <c r="X62" s="10">
+        <v>2348086.1759525859</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>2672527.2044768566</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4053,14 +4040,14 @@
       <c r="V63" s="10">
         <v>6150890.0409797616</v>
       </c>
-      <c r="W63" s="37">
+      <c r="W63" s="10">
         <v>6939208.90862709</v>
       </c>
-      <c r="X63" s="37">
-        <v>7906239.9363127304</v>
-      </c>
-      <c r="Y63" s="37">
-        <v>8033561.899721982</v>
+      <c r="X63" s="10">
+        <v>7911851.8051987011</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>7987069.5941518527</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
@@ -4130,14 +4117,14 @@
       <c r="V64" s="10">
         <v>5030860.4230751758</v>
       </c>
-      <c r="W64" s="37">
+      <c r="W64" s="10">
         <v>5923051.0510839047</v>
       </c>
-      <c r="X64" s="37">
-        <v>6433852.8073768606</v>
-      </c>
-      <c r="Y64" s="37">
-        <v>6183485.8117807871</v>
+      <c r="X64" s="10">
+        <v>6442284.8087853184</v>
+      </c>
+      <c r="Y64" s="10">
+        <v>6147060.3809311297</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
@@ -4207,14 +4194,14 @@
       <c r="V65" s="10">
         <v>1120029.6179045853</v>
       </c>
-      <c r="W65" s="37">
+      <c r="W65" s="10">
         <v>1016157.8575431851</v>
       </c>
-      <c r="X65" s="37">
-        <v>1472387.1289358696</v>
-      </c>
-      <c r="Y65" s="37">
-        <v>1850076.0879411947</v>
+      <c r="X65" s="10">
+        <v>1469566.9964133829</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>1840009.213220723</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4284,14 +4271,14 @@
       <c r="V66" s="10">
         <v>0</v>
       </c>
-      <c r="W66" s="37">
+      <c r="W66" s="10">
         <v>0</v>
       </c>
-      <c r="X66" s="37">
+      <c r="X66" s="10">
         <v>0</v>
       </c>
-      <c r="Y66" s="37">
-        <v>90206.076607614756</v>
+      <c r="Y66" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -4316,9 +4303,9 @@
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -4387,14 +4374,14 @@
       <c r="V68" s="10">
         <v>17537843.279373322</v>
       </c>
-      <c r="W68" s="37">
+      <c r="W68" s="10">
         <v>18540084.219931744</v>
       </c>
-      <c r="X68" s="37">
-        <v>19943630.238970071</v>
-      </c>
-      <c r="Y68" s="37">
-        <v>21054107.441921622</v>
+      <c r="X68" s="10">
+        <v>19945604.69110851</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>21051758.242426377</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
@@ -4419,9 +4406,9 @@
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -4490,14 +4477,14 @@
       <c r="V70" s="10">
         <v>1320172.5541665182</v>
       </c>
-      <c r="W70" s="37">
+      <c r="W70" s="10">
         <v>639322.08928792004</v>
       </c>
-      <c r="X70" s="37">
-        <v>1133700.5595275369</v>
-      </c>
-      <c r="Y70" s="37">
-        <v>2229161.0870176707</v>
+      <c r="X70" s="10">
+        <v>1130110.6242379025</v>
+      </c>
+      <c r="Y70" s="10">
+        <v>2226469.1862269542</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
@@ -4522,9 +4509,9 @@
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
@@ -4593,14 +4580,14 @@
       <c r="V72" s="10">
         <v>18858015.83353984</v>
       </c>
-      <c r="W72" s="37">
+      <c r="W72" s="10">
         <v>19179406.309219666</v>
       </c>
-      <c r="X72" s="37">
-        <v>21077330.79849761</v>
-      </c>
-      <c r="Y72" s="37">
-        <v>23283268.528939292</v>
+      <c r="X72" s="10">
+        <v>21075715.315346412</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>23278227.42865333</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4626,9 +4613,9 @@
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
@@ -4647,7 +4634,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -4660,7 +4647,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
@@ -4696,9 +4683,9 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="35"/>
-      <c r="Y85" s="39"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
@@ -4767,13 +4754,13 @@
       <c r="V86" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W86" s="36" t="s">
+      <c r="W86" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X86" s="36" t="s">
+      <c r="X86" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y86" s="36"/>
+      <c r="Y86" s="9"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
@@ -4842,13 +4829,13 @@
       <c r="V88" s="17">
         <v>8.4035676420612901</v>
       </c>
-      <c r="W88" s="40">
-        <v>14.486127874048378</v>
-      </c>
-      <c r="X88" s="40">
-        <v>11.282698477013128</v>
-      </c>
-      <c r="Y88" s="40"/>
+      <c r="W88" s="17">
+        <v>14.488082166943258</v>
+      </c>
+      <c r="X88" s="17">
+        <v>11.260265594306659</v>
+      </c>
+      <c r="Y88" s="17"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -4917,13 +4904,13 @@
       <c r="V89" s="17">
         <v>10.378842973049856</v>
       </c>
-      <c r="W89" s="40">
-        <v>9.3300907034931697</v>
-      </c>
-      <c r="X89" s="40">
-        <v>4.3452507592065359</v>
-      </c>
-      <c r="Y89" s="40"/>
+      <c r="W89" s="17">
+        <v>9.5847564004474037</v>
+      </c>
+      <c r="X89" s="17">
+        <v>4.566880655201615</v>
+      </c>
+      <c r="Y89" s="17"/>
     </row>
     <row r="90" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
@@ -4992,13 +4979,13 @@
       <c r="V90" s="17">
         <v>31.121924521939718</v>
       </c>
-      <c r="W90" s="40">
-        <v>32.559830612184044</v>
-      </c>
-      <c r="X90" s="40">
-        <v>4.7050154805905748</v>
-      </c>
-      <c r="Y90" s="40"/>
+      <c r="W90" s="17">
+        <v>32.516328997695467</v>
+      </c>
+      <c r="X90" s="17">
+        <v>4.2942715944263909</v>
+      </c>
+      <c r="Y90" s="17"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
@@ -5067,13 +5054,13 @@
       <c r="V91" s="17">
         <v>13.086869361321462</v>
       </c>
-      <c r="W91" s="40">
-        <v>18.85047922244334</v>
-      </c>
-      <c r="X91" s="40">
-        <v>11.706490804454589</v>
-      </c>
-      <c r="Y91" s="40"/>
+      <c r="W91" s="17">
+        <v>18.919192365769135</v>
+      </c>
+      <c r="X91" s="17">
+        <v>11.692553350965397</v>
+      </c>
+      <c r="Y91" s="17"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -5142,13 +5129,13 @@
       <c r="V92" s="17">
         <v>15.000598031349938</v>
       </c>
-      <c r="W92" s="40">
-        <v>20.578232958975406</v>
-      </c>
-      <c r="X92" s="40">
-        <v>12.693029856220846</v>
-      </c>
-      <c r="Y92" s="40"/>
+      <c r="W92" s="17">
+        <v>20.644105779261679</v>
+      </c>
+      <c r="X92" s="17">
+        <v>12.658264519683797</v>
+      </c>
+      <c r="Y92" s="17"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
@@ -5217,13 +5204,13 @@
       <c r="V93" s="17">
         <v>13.48406699160978</v>
       </c>
-      <c r="W93" s="40">
-        <v>22.575875474866706</v>
-      </c>
-      <c r="X93" s="40">
-        <v>12.803966183703935</v>
-      </c>
-      <c r="Y93" s="40"/>
+      <c r="W93" s="17">
+        <v>22.635071296655937</v>
+      </c>
+      <c r="X93" s="17">
+        <v>12.817607839963173</v>
+      </c>
+      <c r="Y93" s="17"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
@@ -5292,13 +5279,13 @@
       <c r="V94" s="17">
         <v>1.2505884512279408</v>
       </c>
-      <c r="W94" s="40">
-        <v>2.3121738469419597</v>
-      </c>
-      <c r="X94" s="40">
-        <v>3.3131226799000331</v>
-      </c>
-      <c r="Y94" s="40"/>
+      <c r="W94" s="17">
+        <v>2.3463692371746561</v>
+      </c>
+      <c r="X94" s="17">
+        <v>3.3018556673563921</v>
+      </c>
+      <c r="Y94" s="17"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
@@ -5367,13 +5354,13 @@
       <c r="V95" s="17">
         <v>14.327195929066477</v>
       </c>
-      <c r="W95" s="40">
-        <v>8.051772596269771</v>
-      </c>
-      <c r="X95" s="40">
-        <v>5.5353795654899045</v>
-      </c>
-      <c r="Y95" s="40"/>
+      <c r="W95" s="17">
+        <v>8.3460706305708641</v>
+      </c>
+      <c r="X95" s="17">
+        <v>5.7222251311920473</v>
+      </c>
+      <c r="Y95" s="17"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
@@ -5400,9 +5387,9 @@
       <c r="T96" s="17"/>
       <c r="U96" s="17"/>
       <c r="V96" s="17"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
@@ -5471,13 +5458,13 @@
       <c r="V97" s="17">
         <v>11.012259185640531</v>
       </c>
-      <c r="W97" s="40">
-        <v>8.4831899788082836</v>
-      </c>
-      <c r="X97" s="40">
-        <v>28.921567567841237</v>
-      </c>
-      <c r="Y97" s="40"/>
+      <c r="W97" s="17">
+        <v>8.494976392626711</v>
+      </c>
+      <c r="X97" s="17">
+        <v>32.583944160494809</v>
+      </c>
+      <c r="Y97" s="17"/>
     </row>
     <row r="98" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
@@ -5546,13 +5533,13 @@
       <c r="V98" s="17">
         <v>10.483861044482239</v>
       </c>
-      <c r="W98" s="40">
-        <v>25.067950321958847</v>
-      </c>
-      <c r="X98" s="40">
-        <v>3.7113357958964599</v>
-      </c>
-      <c r="Y98" s="40"/>
+      <c r="W98" s="17">
+        <v>25.099426932127898</v>
+      </c>
+      <c r="X98" s="17">
+        <v>3.6549358991188683</v>
+      </c>
+      <c r="Y98" s="17"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
@@ -5621,13 +5608,13 @@
       <c r="V99" s="17">
         <v>14.344789032165266</v>
       </c>
-      <c r="W99" s="40">
-        <v>22.313091429306482</v>
-      </c>
-      <c r="X99" s="40">
-        <v>-7.0671471915288038</v>
-      </c>
-      <c r="Y99" s="40"/>
+      <c r="W99" s="17">
+        <v>22.397463636411644</v>
+      </c>
+      <c r="X99" s="17">
+        <v>-7.0773944526196715</v>
+      </c>
+      <c r="Y99" s="17"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
@@ -5696,13 +5683,13 @@
       <c r="V100" s="17">
         <v>5.4886428824127051</v>
       </c>
-      <c r="W100" s="40">
-        <v>28.931378028739971</v>
-      </c>
-      <c r="X100" s="40">
-        <v>18.05121161739973</v>
-      </c>
-      <c r="Y100" s="40"/>
+      <c r="W100" s="17">
+        <v>28.888673592716543</v>
+      </c>
+      <c r="X100" s="17">
+        <v>17.947992962475709</v>
+      </c>
+      <c r="Y100" s="17"/>
     </row>
     <row r="101" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -5771,13 +5758,13 @@
       <c r="V101" s="17">
         <v>23.759187968842383</v>
       </c>
-      <c r="W101" s="40">
-        <v>32.408205512933506</v>
-      </c>
-      <c r="X101" s="40">
-        <v>2.0195732242533069</v>
-      </c>
-      <c r="Y101" s="40"/>
+      <c r="W101" s="17">
+        <v>32.463004980821296</v>
+      </c>
+      <c r="X101" s="17">
+        <v>2.1270263119792929</v>
+      </c>
+      <c r="Y101" s="17"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
@@ -5846,13 +5833,13 @@
       <c r="V102" s="17">
         <v>31.456846697937948</v>
       </c>
-      <c r="W102" s="40">
-        <v>30.0690760638916</v>
-      </c>
-      <c r="X102" s="40">
-        <v>-3.4758913950497998</v>
-      </c>
-      <c r="Y102" s="40"/>
+      <c r="W102" s="17">
+        <v>30.178620662179213</v>
+      </c>
+      <c r="X102" s="17">
+        <v>-3.3487036103637848</v>
+      </c>
+      <c r="Y102" s="17"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
@@ -5921,13 +5908,13 @@
       <c r="V103" s="17">
         <v>-8.9279714996282138</v>
       </c>
-      <c r="W103" s="40">
-        <v>46.745624796478552</v>
-      </c>
-      <c r="X103" s="40">
-        <v>31.875464399156044</v>
-      </c>
-      <c r="Y103" s="40"/>
+      <c r="W103" s="17">
+        <v>46.464870416076252</v>
+      </c>
+      <c r="X103" s="17">
+        <v>31.957829210866549</v>
+      </c>
+      <c r="Y103" s="17"/>
     </row>
     <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
@@ -5950,9 +5937,9 @@
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
       <c r="V104" s="17"/>
-      <c r="W104" s="40"/>
-      <c r="X104" s="40"/>
-      <c r="Y104" s="40"/>
+      <c r="W104" s="17"/>
+      <c r="X104" s="17"/>
+      <c r="Y104" s="17"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
@@ -5975,9 +5962,9 @@
       <c r="S105" s="17"/>
       <c r="T105" s="17"/>
       <c r="V105" s="17"/>
-      <c r="W105" s="40"/>
-      <c r="X105" s="40"/>
-      <c r="Y105" s="40"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
@@ -6046,13 +6033,13 @@
       <c r="V106" s="17">
         <v>8.1276491471909793</v>
       </c>
-      <c r="W106" s="40">
-        <v>13.466346036099978</v>
-      </c>
-      <c r="X106" s="40">
-        <v>10.283590568449668</v>
-      </c>
-      <c r="Y106" s="40"/>
+      <c r="W106" s="17">
+        <v>13.485723769004565</v>
+      </c>
+      <c r="X106" s="17">
+        <v>10.397250453488255</v>
+      </c>
+      <c r="Y106" s="17"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
@@ -6075,9 +6062,9 @@
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
       <c r="V107" s="17"/>
-      <c r="W107" s="40"/>
-      <c r="X107" s="40"/>
-      <c r="Y107" s="40"/>
+      <c r="W107" s="17"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
@@ -6146,13 +6133,13 @@
       <c r="V108" s="17">
         <v>-49.252136704238957</v>
       </c>
-      <c r="W108" s="40">
-        <v>88.05769131242613</v>
-      </c>
-      <c r="X108" s="40">
-        <v>105.96459419132538</v>
-      </c>
-      <c r="Y108" s="40"/>
+      <c r="W108" s="17">
+        <v>87.485798796793659</v>
+      </c>
+      <c r="X108" s="17">
+        <v>106.33167521820081</v>
+      </c>
+      <c r="Y108" s="17"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
@@ -6175,9 +6162,9 @@
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
       <c r="V109" s="17"/>
-      <c r="W109" s="40"/>
-      <c r="X109" s="40"/>
-      <c r="Y109" s="40"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
@@ -6246,13 +6233,13 @@
       <c r="V110" s="17">
         <v>4.0855507408739129</v>
       </c>
-      <c r="W110" s="40">
-        <v>16.028255133756701</v>
-      </c>
-      <c r="X110" s="40">
-        <v>15.609923841600775</v>
-      </c>
-      <c r="Y110" s="40"/>
+      <c r="W110" s="17">
+        <v>16.027325140298515</v>
+      </c>
+      <c r="X110" s="17">
+        <v>15.721493214556247</v>
+      </c>
+      <c r="Y110" s="17"/>
     </row>
     <row r="111" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
@@ -6277,9 +6264,9 @@
       <c r="T111" s="15"/>
       <c r="U111" s="15"/>
       <c r="V111" s="15"/>
-      <c r="W111" s="38"/>
-      <c r="X111" s="38"/>
-      <c r="Y111" s="38"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
@@ -6303,7 +6290,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
@@ -6316,7 +6303,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
@@ -6352,9 +6339,9 @@
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
       <c r="V123" s="7"/>
-      <c r="W123" s="35"/>
-      <c r="X123" s="35"/>
-      <c r="Y123" s="39"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
@@ -6423,13 +6410,13 @@
       <c r="V124" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W124" s="36" t="s">
+      <c r="W124" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X124" s="36" t="s">
+      <c r="X124" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y124" s="36"/>
+      <c r="Y124" s="9"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
@@ -6498,13 +6485,13 @@
       <c r="V126" s="17">
         <v>4.2114869311265863</v>
       </c>
-      <c r="W126" s="40">
-        <v>8.2875535900557935</v>
-      </c>
-      <c r="X126" s="40">
-        <v>5.5849760943694378</v>
-      </c>
-      <c r="Y126" s="40"/>
+      <c r="W126" s="17">
+        <v>8.2885279455932448</v>
+      </c>
+      <c r="X126" s="17">
+        <v>5.5655735486568574</v>
+      </c>
+      <c r="Y126" s="17"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
@@ -6573,13 +6560,13 @@
       <c r="V127" s="17">
         <v>7.1960130906121549</v>
       </c>
-      <c r="W127" s="40">
-        <v>4.8882577797273257</v>
-      </c>
-      <c r="X127" s="40">
-        <v>0.36358147234609817</v>
-      </c>
-      <c r="Y127" s="40"/>
+      <c r="W127" s="17">
+        <v>5.1325769886286565</v>
+      </c>
+      <c r="X127" s="17">
+        <v>0.55188762122672586</v>
+      </c>
+      <c r="Y127" s="17"/>
     </row>
     <row r="128" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
@@ -6648,13 +6635,13 @@
       <c r="V128" s="17">
         <v>20.023654267669386</v>
       </c>
-      <c r="W128" s="40">
-        <v>13.759035768672817</v>
-      </c>
-      <c r="X128" s="40">
-        <v>5.3580448636543849</v>
-      </c>
-      <c r="Y128" s="40"/>
+      <c r="W128" s="17">
+        <v>13.693934766814394</v>
+      </c>
+      <c r="X128" s="17">
+        <v>5.9050645530656993</v>
+      </c>
+      <c r="Y128" s="17"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
@@ -6723,13 +6710,13 @@
       <c r="V129" s="17">
         <v>9.8450673367472348</v>
       </c>
-      <c r="W129" s="40">
-        <v>9.7335644616898946</v>
-      </c>
-      <c r="X129" s="40">
-        <v>8.0764322381471629</v>
-      </c>
-      <c r="Y129" s="40"/>
+      <c r="W129" s="17">
+        <v>9.7536303435349367</v>
+      </c>
+      <c r="X129" s="17">
+        <v>8.1751338868620849</v>
+      </c>
+      <c r="Y129" s="17"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -6798,13 +6785,13 @@
       <c r="V130" s="17">
         <v>11.051908481625603</v>
       </c>
-      <c r="W130" s="40">
-        <v>12.140030084262449</v>
-      </c>
-      <c r="X130" s="40">
-        <v>9.0217750497819225</v>
-      </c>
-      <c r="Y130" s="40"/>
+      <c r="W130" s="17">
+        <v>12.130601842906003</v>
+      </c>
+      <c r="X130" s="17">
+        <v>9.1203002601530727</v>
+      </c>
+      <c r="Y130" s="17"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
@@ -6873,13 +6860,13 @@
       <c r="V131" s="17">
         <v>11.923724164667689</v>
       </c>
-      <c r="W131" s="40">
-        <v>8.3036388417760065</v>
-      </c>
-      <c r="X131" s="40">
-        <v>8.7302622099673357</v>
-      </c>
-      <c r="Y131" s="40"/>
+      <c r="W131" s="17">
+        <v>8.3605988481167515</v>
+      </c>
+      <c r="X131" s="17">
+        <v>8.8654674469420769</v>
+      </c>
+      <c r="Y131" s="17"/>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
@@ -6948,13 +6935,13 @@
       <c r="V132" s="17">
         <v>-3.4689762436086085</v>
       </c>
-      <c r="W132" s="40">
-        <v>0.4702894340186532</v>
-      </c>
-      <c r="X132" s="40">
-        <v>0.91917365696522779</v>
-      </c>
-      <c r="Y132" s="40"/>
+      <c r="W132" s="17">
+        <v>0.50232461448649701</v>
+      </c>
+      <c r="X132" s="17">
+        <v>0.91218999108259879</v>
+      </c>
+      <c r="Y132" s="17"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
@@ -7023,13 +7010,13 @@
       <c r="V133" s="17">
         <v>12.994330401462364</v>
       </c>
-      <c r="W133" s="40">
-        <v>3.4749612483774541</v>
-      </c>
-      <c r="X133" s="40">
-        <v>3.2074814646406509</v>
-      </c>
-      <c r="Y133" s="40"/>
+      <c r="W133" s="17">
+        <v>3.6860660983466005</v>
+      </c>
+      <c r="X133" s="17">
+        <v>3.2946767451718983</v>
+      </c>
+      <c r="Y133" s="17"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
@@ -7056,9 +7043,9 @@
       <c r="T134" s="17"/>
       <c r="U134" s="17"/>
       <c r="V134" s="17"/>
-      <c r="W134" s="40"/>
-      <c r="X134" s="40"/>
-      <c r="Y134" s="40"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
@@ -7127,13 +7114,13 @@
       <c r="V135" s="17">
         <v>8.1667761899584406</v>
       </c>
-      <c r="W135" s="40">
-        <v>0.28103858721672736</v>
-      </c>
-      <c r="X135" s="40">
-        <v>28.22586873535522</v>
-      </c>
-      <c r="Y135" s="40"/>
+      <c r="W135" s="17">
+        <v>0.29187931480629459</v>
+      </c>
+      <c r="X135" s="17">
+        <v>29.50368943708429</v>
+      </c>
+      <c r="Y135" s="17"/>
     </row>
     <row r="136" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
@@ -7202,13 +7189,13 @@
       <c r="V136" s="17">
         <v>8.0006710827470044</v>
       </c>
-      <c r="W136" s="40">
-        <v>10.897963904903492</v>
-      </c>
-      <c r="X136" s="40">
-        <v>1.3367115928238746</v>
-      </c>
-      <c r="Y136" s="40"/>
+      <c r="W136" s="17">
+        <v>10.959326629092232</v>
+      </c>
+      <c r="X136" s="17">
+        <v>1.4394012931575446</v>
+      </c>
+      <c r="Y136" s="17"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
@@ -7277,13 +7264,13 @@
       <c r="V137" s="17">
         <v>11.688194086895834</v>
       </c>
-      <c r="W137" s="40">
-        <v>4.9613325313514025</v>
-      </c>
-      <c r="X137" s="40">
-        <v>-7.2986838941127701</v>
-      </c>
-      <c r="Y137" s="40"/>
+      <c r="W137" s="17">
+        <v>5.0736399897344029</v>
+      </c>
+      <c r="X137" s="17">
+        <v>-7.2526759082837629</v>
+      </c>
+      <c r="Y137" s="17"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
@@ -7352,13 +7339,13 @@
       <c r="V138" s="17">
         <v>2.471926911007813</v>
       </c>
-      <c r="W138" s="40">
-        <v>20.599359295061788</v>
-      </c>
-      <c r="X138" s="40">
-        <v>13.618473942492912</v>
-      </c>
-      <c r="Y138" s="40"/>
+      <c r="W138" s="17">
+        <v>20.577470259394431</v>
+      </c>
+      <c r="X138" s="17">
+        <v>13.817253891571909</v>
+      </c>
+      <c r="Y138" s="17"/>
     </row>
     <row r="139" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
@@ -7427,13 +7414,13 @@
       <c r="V139" s="17">
         <v>12.816338162367131</v>
       </c>
-      <c r="W139" s="40">
-        <v>13.935753202117752</v>
-      </c>
-      <c r="X139" s="40">
-        <v>1.6103984249766086</v>
-      </c>
-      <c r="Y139" s="40"/>
+      <c r="W139" s="17">
+        <v>14.01662508477564</v>
+      </c>
+      <c r="X139" s="17">
+        <v>0.95069764708848936</v>
+      </c>
+      <c r="Y139" s="17"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
@@ -7502,13 +7489,13 @@
       <c r="V140" s="17">
         <v>17.73435462284931</v>
       </c>
-      <c r="W140" s="40">
-        <v>8.6239634250574397</v>
-      </c>
-      <c r="X140" s="40">
-        <v>-3.8914007375022663</v>
-      </c>
-      <c r="Y140" s="40"/>
+      <c r="W140" s="17">
+        <v>8.7663225122193609</v>
+      </c>
+      <c r="X140" s="17">
+        <v>-4.5826044115837874</v>
+      </c>
+      <c r="Y140" s="17"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
@@ -7577,13 +7564,13 @@
       <c r="V141" s="17">
         <v>-9.2740190706500556</v>
       </c>
-      <c r="W141" s="40">
-        <v>44.897480052531648</v>
-      </c>
-      <c r="X141" s="40">
-        <v>25.651471109930867</v>
-      </c>
-      <c r="Y141" s="40"/>
+      <c r="W141" s="17">
+        <v>44.619951073982492</v>
+      </c>
+      <c r="X141" s="17">
+        <v>25.20757595342296</v>
+      </c>
+      <c r="Y141" s="17"/>
     </row>
     <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
@@ -7606,9 +7593,9 @@
       <c r="S142" s="17"/>
       <c r="T142" s="17"/>
       <c r="V142" s="17"/>
-      <c r="W142" s="40"/>
-      <c r="X142" s="40"/>
-      <c r="Y142" s="40"/>
+      <c r="W142" s="17"/>
+      <c r="X142" s="17"/>
+      <c r="Y142" s="17"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
@@ -7631,9 +7618,9 @@
       <c r="S143" s="17"/>
       <c r="T143" s="17"/>
       <c r="V143" s="17"/>
-      <c r="W143" s="40"/>
-      <c r="X143" s="40"/>
-      <c r="Y143" s="40"/>
+      <c r="W143" s="17"/>
+      <c r="X143" s="17"/>
+      <c r="Y143" s="17"/>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -7702,13 +7689,13 @@
       <c r="V144" s="17">
         <v>5.7147331321929471</v>
       </c>
-      <c r="W144" s="40">
-        <v>7.5703324881848602</v>
-      </c>
-      <c r="X144" s="40">
-        <v>5.5680795805252501</v>
-      </c>
-      <c r="Y144" s="40"/>
+      <c r="W144" s="17">
+        <v>7.5809821277173199</v>
+      </c>
+      <c r="X144" s="17">
+        <v>5.5458511709648945</v>
+      </c>
+      <c r="Y144" s="17"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
@@ -7731,9 +7718,9 @@
       <c r="S145" s="17"/>
       <c r="T145" s="17"/>
       <c r="V145" s="17"/>
-      <c r="W145" s="40"/>
-      <c r="X145" s="40"/>
-      <c r="Y145" s="40"/>
+      <c r="W145" s="17"/>
+      <c r="X145" s="17"/>
+      <c r="Y145" s="17"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
@@ -7802,13 +7789,13 @@
       <c r="V146" s="17">
         <v>-51.572838923957818</v>
       </c>
-      <c r="W146" s="40">
-        <v>77.32854511413143</v>
-      </c>
-      <c r="X146" s="40">
-        <v>96.626972464992065</v>
-      </c>
-      <c r="Y146" s="40"/>
+      <c r="W146" s="17">
+        <v>76.76702294091308</v>
+      </c>
+      <c r="X146" s="17">
+        <v>97.013384218769602</v>
+      </c>
+      <c r="Y146" s="17"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
@@ -7831,9 +7818,9 @@
       <c r="S147" s="17"/>
       <c r="T147" s="17"/>
       <c r="V147" s="17"/>
-      <c r="W147" s="40"/>
-      <c r="X147" s="40"/>
-      <c r="Y147" s="40"/>
+      <c r="W147" s="17"/>
+      <c r="X147" s="17"/>
+      <c r="Y147" s="17"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -7902,13 +7889,13 @@
       <c r="V148" s="17">
         <v>1.704264534067363</v>
       </c>
-      <c r="W148" s="40">
-        <v>9.8956373241104956</v>
-      </c>
-      <c r="X148" s="40">
-        <v>10.465925460537548</v>
-      </c>
-      <c r="Y148" s="40"/>
+      <c r="W148" s="17">
+        <v>9.8872143149455951</v>
+      </c>
+      <c r="X148" s="17">
+        <v>10.450473829009937</v>
+      </c>
+      <c r="Y148" s="17"/>
     </row>
     <row r="149" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
@@ -7933,9 +7920,9 @@
       <c r="T149" s="15"/>
       <c r="U149" s="15"/>
       <c r="V149" s="15"/>
-      <c r="W149" s="38"/>
-      <c r="X149" s="38"/>
-      <c r="Y149" s="38"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
+      <c r="Y149" s="15"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
@@ -7954,7 +7941,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
@@ -7967,7 +7954,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
@@ -8003,9 +7990,9 @@
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
-      <c r="W160" s="35"/>
-      <c r="X160" s="35"/>
-      <c r="Y160" s="35"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="7"/>
+      <c r="Y160" s="7"/>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
@@ -8074,13 +8061,13 @@
       <c r="V161" s="9">
         <v>2020</v>
       </c>
-      <c r="W161" s="36">
+      <c r="W161" s="9">
         <v>2021</v>
       </c>
-      <c r="X161" s="36">
+      <c r="X161" s="9">
         <v>2022</v>
       </c>
-      <c r="Y161" s="36">
+      <c r="Y161" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -8151,14 +8138,14 @@
       <c r="V163" s="17">
         <v>104.37381168011051</v>
       </c>
-      <c r="W163" s="40">
+      <c r="W163" s="17">
         <v>108.57242217455723</v>
       </c>
-      <c r="X163" s="40">
-        <v>114.7873028485611</v>
-      </c>
-      <c r="Y163" s="40">
-        <v>120.9816139037532</v>
+      <c r="X163" s="17">
+        <v>114.78822943488545</v>
+      </c>
+      <c r="Y163" s="17">
+        <v>120.98043391143077</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
@@ -8228,14 +8215,14 @@
       <c r="V164" s="17">
         <v>103.31070589232907</v>
       </c>
-      <c r="W164" s="40">
+      <c r="W164" s="17">
         <v>106.37817447077227</v>
       </c>
-      <c r="X164" s="40">
+      <c r="X164" s="17">
         <v>110.88310274145341</v>
       </c>
-      <c r="Y164" s="40">
-        <v>115.28210722236747</v>
+      <c r="Y164" s="17">
+        <v>115.31061669096255</v>
       </c>
     </row>
     <row r="165" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8305,14 +8292,14 @@
       <c r="V165" s="17">
         <v>92.705006284479495</v>
       </c>
-      <c r="W165" s="40">
+      <c r="W165" s="17">
         <v>101.27719332499794</v>
       </c>
-      <c r="X165" s="40">
-        <v>118.01513173282561</v>
-      </c>
-      <c r="Y165" s="40">
-        <v>117.28365129611653</v>
+      <c r="X165" s="17">
+        <v>118.04395633016647</v>
+      </c>
+      <c r="Y165" s="17">
+        <v>116.24853347226069</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
@@ -8382,14 +8369,14 @@
       <c r="V166" s="17">
         <v>101.65612486065889</v>
       </c>
-      <c r="W166" s="40">
+      <c r="W166" s="17">
         <v>104.6562507595613</v>
       </c>
-      <c r="X166" s="40">
-        <v>113.35133072015138</v>
-      </c>
-      <c r="Y166" s="40">
-        <v>117.15856195976475</v>
+      <c r="X166" s="17">
+        <v>113.39612892440014</v>
+      </c>
+      <c r="Y166" s="17">
+        <v>117.0833141092118</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
@@ -8459,14 +8446,14 @@
       <c r="V167" s="17">
         <v>103.98831049786084</v>
       </c>
-      <c r="W167" s="40">
+      <c r="W167" s="17">
         <v>107.68583862295679</v>
       </c>
-      <c r="X167" s="40">
-        <v>115.78887687211122</v>
-      </c>
-      <c r="Y167" s="40">
-        <v>119.68801051357684</v>
+      <c r="X167" s="17">
+        <v>115.86187438784737</v>
+      </c>
+      <c r="Y167" s="17">
+        <v>119.61841803416402</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
@@ -8536,14 +8523,14 @@
       <c r="V168" s="17">
         <v>94.24412370594554</v>
       </c>
-      <c r="W168" s="40">
+      <c r="W168" s="17">
         <v>95.557992981682489</v>
       </c>
-      <c r="X168" s="40">
-        <v>108.1506103914285</v>
-      </c>
-      <c r="Y168" s="40">
-        <v>112.20259704499524</v>
+      <c r="X168" s="17">
+        <v>108.1459627101133</v>
+      </c>
+      <c r="Y168" s="17">
+        <v>112.07198294033094</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
@@ -8613,14 +8600,14 @@
       <c r="V169" s="17">
         <v>108.22607348396028</v>
       </c>
-      <c r="W169" s="40">
+      <c r="W169" s="17">
         <v>113.51742890110268</v>
       </c>
-      <c r="X169" s="40">
-        <v>115.59850166466212</v>
-      </c>
-      <c r="Y169" s="40">
-        <v>118.3406656171089</v>
+      <c r="X169" s="17">
+        <v>115.60027827945716</v>
+      </c>
+      <c r="Y169" s="17">
+        <v>118.33776734987104</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
@@ -8690,14 +8677,14 @@
       <c r="V170" s="17">
         <v>98.778551353426863</v>
       </c>
-      <c r="W170" s="40">
+      <c r="W170" s="17">
         <v>99.943729513232583</v>
       </c>
-      <c r="X170" s="40">
-        <v>104.36435059748564</v>
-      </c>
-      <c r="Y170" s="40">
-        <v>106.71834247970678</v>
+      <c r="X170" s="17">
+        <v>104.43554070855083</v>
+      </c>
+      <c r="Y170" s="17">
+        <v>106.8899007615439</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
@@ -8725,9 +8712,9 @@
       <c r="T171" s="17"/>
       <c r="U171" s="17"/>
       <c r="V171" s="17"/>
-      <c r="W171" s="40"/>
-      <c r="X171" s="40"/>
-      <c r="Y171" s="40"/>
+      <c r="W171" s="17"/>
+      <c r="X171" s="17"/>
+      <c r="Y171" s="17"/>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
@@ -8796,14 +8783,14 @@
       <c r="V172" s="17">
         <v>133.24310152382563</v>
       </c>
-      <c r="W172" s="40">
+      <c r="W172" s="17">
         <v>136.74825341087231</v>
       </c>
-      <c r="X172" s="40">
-        <v>147.93311839445735</v>
-      </c>
-      <c r="Y172" s="40">
-        <v>148.73574035185231</v>
+      <c r="X172" s="17">
+        <v>147.93319884828585</v>
+      </c>
+      <c r="Y172" s="17">
+        <v>151.45180080072706</v>
       </c>
     </row>
     <row r="173" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8873,14 +8860,14 @@
       <c r="V173" s="17">
         <v>95.255204760526397</v>
       </c>
-      <c r="W173" s="40">
+      <c r="W173" s="17">
         <v>97.445346413286572</v>
       </c>
-      <c r="X173" s="40">
-        <v>109.89642474206074</v>
-      </c>
-      <c r="Y173" s="40">
-        <v>112.471628791233</v>
+      <c r="X173" s="17">
+        <v>109.86329282849726</v>
+      </c>
+      <c r="Y173" s="17">
+        <v>112.26281337064796</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
@@ -8950,14 +8937,14 @@
       <c r="V174" s="17">
         <v>89.562655577843941</v>
       </c>
-      <c r="W174" s="40">
+      <c r="W174" s="17">
         <v>91.692976513178365</v>
       </c>
-      <c r="X174" s="40">
-        <v>106.85126750207463</v>
-      </c>
-      <c r="Y174" s="40">
-        <v>107.1181460231529</v>
+      <c r="X174" s="17">
+        <v>106.81068781458958</v>
+      </c>
+      <c r="Y174" s="17">
+        <v>107.0125473617406</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
@@ -9027,14 +9014,14 @@
       <c r="V175" s="17">
         <v>103.79010693759332</v>
       </c>
-      <c r="W175" s="40">
+      <c r="W175" s="17">
         <v>106.84562938858009</v>
       </c>
-      <c r="X175" s="40">
-        <v>114.22742470557843</v>
-      </c>
-      <c r="Y175" s="40">
-        <v>118.68392012776022</v>
+      <c r="X175" s="17">
+        <v>114.21031990012347</v>
+      </c>
+      <c r="Y175" s="17">
+        <v>118.35532441025948</v>
       </c>
     </row>
     <row r="176" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9104,14 +9091,14 @@
       <c r="V176" s="17">
         <v>96.214452429388714</v>
       </c>
-      <c r="W176" s="40">
+      <c r="W176" s="17">
         <v>105.54696861717497</v>
       </c>
-      <c r="X176" s="40">
-        <v>122.65934370169487</v>
-      </c>
-      <c r="Y176" s="40">
-        <v>123.15328047506171</v>
+      <c r="X176" s="17">
+        <v>122.62307026937505</v>
+      </c>
+      <c r="Y176" s="17">
+        <v>124.05193639805748</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
@@ -9181,14 +9168,14 @@
       <c r="V177" s="17">
         <v>95.212738638994878</v>
       </c>
-      <c r="W177" s="40">
+      <c r="W177" s="17">
         <v>106.31023057842512</v>
       </c>
-      <c r="X177" s="40">
-        <v>127.2985539421521</v>
-      </c>
-      <c r="Y177" s="40">
-        <v>127.848907800699</v>
+      <c r="X177" s="17">
+        <v>127.23900982698785</v>
+      </c>
+      <c r="Y177" s="17">
+        <v>128.8844154179053</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
@@ -9258,14 +9245,14 @@
       <c r="V178" s="17">
         <v>100.71387117937604</v>
       </c>
-      <c r="W178" s="40">
+      <c r="W178" s="17">
         <v>101.0980146202386</v>
       </c>
-      <c r="X178" s="40">
-        <v>102.38750401837113</v>
-      </c>
-      <c r="Y178" s="40">
-        <v>107.45914490153538</v>
+      <c r="X178" s="17">
+        <v>102.38772382865025</v>
+      </c>
+      <c r="Y178" s="17">
+        <v>107.90770184143187</v>
       </c>
     </row>
     <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
@@ -9290,9 +9277,9 @@
       <c r="T179" s="17"/>
       <c r="U179" s="17"/>
       <c r="V179" s="17"/>
-      <c r="W179" s="40"/>
-      <c r="X179" s="40"/>
-      <c r="Y179" s="40"/>
+      <c r="W179" s="17"/>
+      <c r="X179" s="17"/>
+      <c r="Y179" s="17"/>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B180" s="17"/>
@@ -9316,9 +9303,9 @@
       <c r="T180" s="17"/>
       <c r="U180" s="17"/>
       <c r="V180" s="17"/>
-      <c r="W180" s="40"/>
-      <c r="X180" s="40"/>
-      <c r="Y180" s="40"/>
+      <c r="W180" s="17"/>
+      <c r="X180" s="17"/>
+      <c r="Y180" s="17"/>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
@@ -9387,14 +9374,14 @@
       <c r="V181" s="17">
         <v>102.35907166034491</v>
       </c>
-      <c r="W181" s="40">
+      <c r="W181" s="17">
         <v>104.69539542498735</v>
       </c>
-      <c r="X181" s="40">
-        <v>110.43383143751764</v>
-      </c>
-      <c r="Y181" s="40">
-        <v>115.36668564545072</v>
+      <c r="X181" s="17">
+        <v>110.44175736359696</v>
+      </c>
+      <c r="Y181" s="17">
+        <v>115.51819624290907</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
@@ -9419,9 +9406,9 @@
       <c r="T182" s="17"/>
       <c r="U182" s="17"/>
       <c r="V182" s="17"/>
-      <c r="W182" s="40"/>
-      <c r="X182" s="40"/>
-      <c r="Y182" s="40"/>
+      <c r="W182" s="17"/>
+      <c r="X182" s="17"/>
+      <c r="Y182" s="17"/>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
@@ -9490,14 +9477,14 @@
       <c r="V183" s="17">
         <v>103.04917608820941</v>
       </c>
-      <c r="W183" s="40">
+      <c r="W183" s="17">
         <v>107.98744722313285</v>
       </c>
-      <c r="X183" s="40">
-        <v>114.52115620998504</v>
-      </c>
-      <c r="Y183" s="40">
-        <v>119.95965339552026</v>
+      <c r="X183" s="17">
+        <v>114.53557606965646</v>
+      </c>
+      <c r="Y183" s="17">
+        <v>119.95285181382323</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
@@ -9522,9 +9509,9 @@
       <c r="T184" s="17"/>
       <c r="U184" s="17"/>
       <c r="V184" s="17"/>
-      <c r="W184" s="40"/>
-      <c r="X184" s="40"/>
-      <c r="Y184" s="40"/>
+      <c r="W184" s="17"/>
+      <c r="X184" s="17"/>
+      <c r="Y184" s="17"/>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
@@ -9593,14 +9580,14 @@
       <c r="V185" s="17">
         <v>102.40738304862762</v>
       </c>
-      <c r="W185" s="40">
+      <c r="W185" s="17">
         <v>104.80513195174433</v>
       </c>
-      <c r="X185" s="40">
-        <v>110.65367912249336</v>
-      </c>
-      <c r="Y185" s="40">
-        <v>115.8064205121279</v>
+      <c r="X185" s="17">
+        <v>110.66127389929686</v>
+      </c>
+      <c r="Y185" s="17">
+        <v>115.94235328022783</v>
       </c>
     </row>
     <row r="186" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9626,9 +9613,9 @@
       <c r="T186" s="15"/>
       <c r="U186" s="15"/>
       <c r="V186" s="15"/>
-      <c r="W186" s="38"/>
-      <c r="X186" s="38"/>
-      <c r="Y186" s="38"/>
+      <c r="W186" s="15"/>
+      <c r="X186" s="15"/>
+      <c r="Y186" s="15"/>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
@@ -9647,7 +9634,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
@@ -9660,7 +9647,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
@@ -9696,9 +9683,9 @@
       <c r="T198" s="7"/>
       <c r="U198" s="7"/>
       <c r="V198" s="7"/>
-      <c r="W198" s="35"/>
-      <c r="X198" s="35"/>
-      <c r="Y198" s="35"/>
+      <c r="W198" s="7"/>
+      <c r="X198" s="7"/>
+      <c r="Y198" s="7"/>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
@@ -9767,13 +9754,13 @@
       <c r="V199" s="9">
         <v>2020</v>
       </c>
-      <c r="W199" s="36">
+      <c r="W199" s="9">
         <v>2021</v>
       </c>
-      <c r="X199" s="36">
+      <c r="X199" s="9">
         <v>2022</v>
       </c>
-      <c r="Y199" s="36">
+      <c r="Y199" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -9844,14 +9831,14 @@
       <c r="V201" s="17">
         <v>75.069048066255235</v>
       </c>
-      <c r="W201" s="40">
+      <c r="W201" s="17">
         <v>75.260608124363884</v>
       </c>
-      <c r="X201" s="40">
-        <v>75.93701486485908</v>
-      </c>
-      <c r="Y201" s="40">
-        <v>76.624961926730379</v>
+      <c r="X201" s="17">
+        <v>75.925344622330641</v>
+      </c>
+      <c r="Y201" s="17">
+        <v>76.518880436961595</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
@@ -9921,14 +9908,14 @@
       <c r="V202" s="17">
         <v>15.261454587485041</v>
       </c>
-      <c r="W202" s="40">
+      <c r="W202" s="17">
         <v>15.579194708646869</v>
       </c>
-      <c r="X202" s="40">
-        <v>15.011277176774831</v>
-      </c>
-      <c r="Y202" s="40">
-        <v>14.202978640365673</v>
+      <c r="X202" s="17">
+        <v>15.04367422053215</v>
+      </c>
+      <c r="Y202" s="17">
+        <v>14.249178130544768</v>
       </c>
     </row>
     <row r="203" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9998,14 +9985,14 @@
       <c r="V203" s="17">
         <v>17.433379028045145</v>
       </c>
-      <c r="W203" s="40">
+      <c r="W203" s="17">
         <v>21.140737148238344</v>
       </c>
-      <c r="X203" s="40">
-        <v>24.698182617915425</v>
-      </c>
-      <c r="Y203" s="40">
-        <v>23.44885200075365</v>
+      <c r="X203" s="17">
+        <v>24.68586167624111</v>
+      </c>
+      <c r="Y203" s="17">
+        <v>23.321178304970928</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
@@ -10075,14 +10062,14 @@
       <c r="V204" s="17">
         <v>21.302262064147431</v>
       </c>
-      <c r="W204" s="40">
+      <c r="W204" s="17">
         <v>22.279279593599281</v>
       </c>
-      <c r="X204" s="40">
-        <v>23.3364618579295</v>
-      </c>
-      <c r="Y204" s="40">
-        <v>23.637553406672268</v>
+      <c r="X204" s="17">
+        <v>23.34596676807384</v>
+      </c>
+      <c r="Y204" s="17">
+        <v>23.619887524930299</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
@@ -10152,14 +10139,14 @@
       <c r="V205" s="17">
         <v>12.990354693979494</v>
       </c>
-      <c r="W205" s="40">
+      <c r="W205" s="17">
         <v>13.81606434829075</v>
       </c>
-      <c r="X205" s="40">
-        <v>14.682032900172667</v>
-      </c>
-      <c r="Y205" s="40">
-        <v>15.002801082562126</v>
+      <c r="X205" s="17">
+        <v>14.687545475596833</v>
+      </c>
+      <c r="Y205" s="17">
+        <v>14.988356834410544</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
@@ -10229,14 +10216,14 @@
       <c r="V206" s="17">
         <v>5.2581909359378391</v>
       </c>
-      <c r="W206" s="40">
+      <c r="W206" s="17">
         <v>5.5186707297811175</v>
       </c>
-      <c r="X206" s="40">
-        <v>5.9617315599924545</v>
-      </c>
-      <c r="Y206" s="40">
-        <v>6.0979785099788231</v>
+      <c r="X206" s="17">
+        <v>5.9635922117132392</v>
+      </c>
+      <c r="Y206" s="17">
+        <v>6.0943384431660395</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
@@ -10306,14 +10293,14 @@
       <c r="V207" s="17">
         <v>2.3504690239338046</v>
       </c>
-      <c r="W207" s="40">
+      <c r="W207" s="17">
         <v>2.2009761026591566</v>
       </c>
-      <c r="X207" s="40">
-        <v>1.9846118035437923</v>
-      </c>
-      <c r="Y207" s="40">
-        <v>1.859174530631895</v>
+      <c r="X207" s="17">
+        <v>1.9849361259171496</v>
+      </c>
+      <c r="Y207" s="17">
+        <v>1.8573613413932266</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
@@ -10383,14 +10370,14 @@
       <c r="V208" s="17">
         <v>0.7032474102962929</v>
       </c>
-      <c r="W208" s="40">
+      <c r="W208" s="17">
         <v>0.74356841286826003</v>
       </c>
-      <c r="X208" s="40">
-        <v>0.70808559422058592</v>
-      </c>
-      <c r="Y208" s="40">
-        <v>0.677599283499421</v>
+      <c r="X208" s="17">
+        <v>0.70989295484662052</v>
+      </c>
+      <c r="Y208" s="17">
+        <v>0.67983090596048568</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
@@ -10460,14 +10447,14 @@
       <c r="V209" s="17">
         <v>-3.8741134192468802</v>
       </c>
-      <c r="W209" s="40">
+      <c r="W209" s="17">
         <v>-1.1439123637293416</v>
       </c>
-      <c r="X209" s="40">
-        <v>1.3565866749035953</v>
-      </c>
-      <c r="Y209" s="40">
-        <v>-0.19470315371653482</v>
+      <c r="X209" s="17">
+        <v>1.3347611420224141</v>
+      </c>
+      <c r="Y209" s="17">
+        <v>-0.30487472644695723</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
@@ -10537,14 +10524,14 @@
       <c r="V210" s="17">
         <v>5.2303831445935393E-3</v>
       </c>
-      <c r="W210" s="40">
+      <c r="W210" s="17">
         <v>5.3699183684038114E-3</v>
       </c>
-      <c r="X210" s="40">
-        <v>5.13408508232831E-3</v>
-      </c>
-      <c r="Y210" s="40">
-        <v>6.0017477979157508E-3</v>
+      <c r="X210" s="17">
+        <v>5.1337661448604818E-3</v>
+      </c>
+      <c r="Y210" s="17">
+        <v>6.1655064875912775E-3</v>
       </c>
     </row>
     <row r="211" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10614,14 +10601,14 @@
       <c r="V211" s="17">
         <v>25.202839310007185</v>
       </c>
-      <c r="W211" s="40">
+      <c r="W211" s="17">
         <v>25.752034916275502</v>
       </c>
-      <c r="X211" s="40">
-        <v>28.385105682114698</v>
-      </c>
-      <c r="Y211" s="40">
-        <v>26.693519968164654</v>
+      <c r="X211" s="17">
+        <v>28.387401545938712</v>
+      </c>
+      <c r="Y211" s="17">
+        <v>26.65369178579801</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
@@ -10691,14 +10678,14 @@
       <c r="V212" s="17">
         <v>14.215402335087409</v>
       </c>
-      <c r="W212" s="40">
+      <c r="W212" s="17">
         <v>15.032761683371406</v>
       </c>
-      <c r="X212" s="40">
-        <v>16.204836221906611</v>
-      </c>
-      <c r="Y212" s="40">
-        <v>13.655355720950388</v>
+      <c r="X212" s="17">
+        <v>16.213245511307484</v>
+      </c>
+      <c r="Y212" s="17">
+        <v>13.646870833298516</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
@@ -10768,14 +10755,14 @@
       <c r="V213" s="17">
         <v>10.987436974919779</v>
       </c>
-      <c r="W213" s="40">
+      <c r="W213" s="17">
         <v>10.719273232904095</v>
       </c>
-      <c r="X213" s="40">
-        <v>12.180269460208089</v>
-      </c>
-      <c r="Y213" s="40">
-        <v>13.038164247214262</v>
+      <c r="X213" s="17">
+        <v>12.174156034631228</v>
+      </c>
+      <c r="Y213" s="17">
+        <v>13.006820952499499</v>
       </c>
     </row>
     <row r="214" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10845,14 +10832,14 @@
       <c r="V214" s="17">
         <v>32.966720991792627</v>
       </c>
-      <c r="W214" s="40">
+      <c r="W214" s="17">
         <v>37.732574897524593</v>
       </c>
-      <c r="X214" s="40">
-        <v>44.031580341664068</v>
-      </c>
-      <c r="Y214" s="40">
-        <v>40.732107212794183</v>
+      <c r="X214" s="17">
+        <v>44.042282065042642</v>
+      </c>
+      <c r="Y214" s="17">
+        <v>40.742928658275311</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
@@ -10922,14 +10909,14 @@
       <c r="V215" s="17">
         <v>26.683008969847116</v>
       </c>
-      <c r="W215" s="40">
+      <c r="W215" s="17">
         <v>32.440030346114483</v>
       </c>
-      <c r="X215" s="40">
-        <v>37.186751155812104</v>
-      </c>
-      <c r="Y215" s="40">
-        <v>32.547163079542848</v>
+      <c r="X215" s="17">
+        <v>37.211714958016714</v>
+      </c>
+      <c r="Y215" s="17">
+        <v>32.57835205858872</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
@@ -10999,14 +10986,14 @@
       <c r="V216" s="17">
         <v>6.2837120219455089</v>
       </c>
-      <c r="W216" s="40">
+      <c r="W216" s="17">
         <v>5.2925445514101144</v>
       </c>
-      <c r="X216" s="40">
-        <v>6.8448291858519639</v>
-      </c>
-      <c r="Y216" s="40">
-        <v>8.1849441332513422</v>
+      <c r="X216" s="17">
+        <v>6.8305671070259271</v>
+      </c>
+      <c r="Y216" s="17">
+        <v>8.164576599686594</v>
       </c>
     </row>
     <row r="217" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
@@ -11031,9 +11018,9 @@
       <c r="T217" s="17"/>
       <c r="U217" s="17"/>
       <c r="V217" s="17"/>
-      <c r="W217" s="40"/>
-      <c r="X217" s="40"/>
-      <c r="Y217" s="40"/>
+      <c r="W217" s="17"/>
+      <c r="X217" s="17"/>
+      <c r="Y217" s="17"/>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B218" s="17"/>
@@ -11057,9 +11044,9 @@
       <c r="T218" s="17"/>
       <c r="U218" s="17"/>
       <c r="V218" s="17"/>
-      <c r="W218" s="40"/>
-      <c r="X218" s="40"/>
-      <c r="Y218" s="40"/>
+      <c r="W218" s="17"/>
+      <c r="X218" s="17"/>
+      <c r="Y218" s="17"/>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
@@ -11128,13 +11115,13 @@
       <c r="V219" s="17">
         <v>100</v>
       </c>
-      <c r="W219" s="40">
+      <c r="W219" s="17">
         <v>100</v>
       </c>
-      <c r="X219" s="40">
+      <c r="X219" s="17">
         <v>100</v>
       </c>
-      <c r="Y219" s="40">
+      <c r="Y219" s="17">
         <v>100</v>
       </c>
     </row>
@@ -11205,14 +11192,14 @@
       <c r="V220" s="17">
         <v>92.955535915064161</v>
       </c>
-      <c r="W220" s="40">
+      <c r="W220" s="17">
         <v>96.56540703460162</v>
       </c>
-      <c r="X220" s="40">
-        <v>94.433238499310974</v>
-      </c>
-      <c r="Y220" s="40">
-        <v>90.082548838798431</v>
+      <c r="X220" s="17">
+        <v>94.450122806149963</v>
+      </c>
+      <c r="Y220" s="17">
+        <v>90.104556838553435</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
@@ -11282,14 +11269,14 @@
       <c r="V221" s="17">
         <v>7.0444640849358446</v>
       </c>
-      <c r="W221" s="40">
+      <c r="W221" s="17">
         <v>3.43459296539839</v>
       </c>
-      <c r="X221" s="40">
-        <v>5.5667615006890259</v>
-      </c>
-      <c r="Y221" s="40">
-        <v>9.917451161201571</v>
+      <c r="X221" s="17">
+        <v>5.5498771938500324</v>
+      </c>
+      <c r="Y221" s="17">
+        <v>9.8954431614465559</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
@@ -11314,9 +11301,9 @@
       <c r="T222" s="17"/>
       <c r="U222" s="17"/>
       <c r="V222" s="17"/>
-      <c r="W222" s="40"/>
-      <c r="X222" s="40"/>
-      <c r="Y222" s="40"/>
+      <c r="W222" s="17"/>
+      <c r="X222" s="17"/>
+      <c r="Y222" s="17"/>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
@@ -11385,13 +11372,13 @@
       <c r="V223" s="17">
         <v>100</v>
       </c>
-      <c r="W223" s="40">
+      <c r="W223" s="17">
         <v>100</v>
       </c>
-      <c r="X223" s="40">
+      <c r="X223" s="17">
         <v>100</v>
       </c>
-      <c r="Y223" s="40">
+      <c r="Y223" s="17">
         <v>100</v>
       </c>
     </row>
@@ -11418,9 +11405,9 @@
       <c r="T224" s="15"/>
       <c r="U224" s="15"/>
       <c r="V224" s="15"/>
-      <c r="W224" s="38"/>
-      <c r="X224" s="38"/>
-      <c r="Y224" s="38"/>
+      <c r="W224" s="15"/>
+      <c r="X224" s="15"/>
+      <c r="Y224" s="15"/>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
@@ -11439,7 +11426,7 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
@@ -11452,7 +11439,7 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
@@ -11488,9 +11475,9 @@
       <c r="T236" s="7"/>
       <c r="U236" s="7"/>
       <c r="V236" s="7"/>
-      <c r="W236" s="35"/>
-      <c r="X236" s="35"/>
-      <c r="Y236" s="35"/>
+      <c r="W236" s="7"/>
+      <c r="X236" s="7"/>
+      <c r="Y236" s="7"/>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
@@ -11559,13 +11546,13 @@
       <c r="V237" s="9">
         <v>2020</v>
       </c>
-      <c r="W237" s="36">
+      <c r="W237" s="9">
         <v>2021</v>
       </c>
-      <c r="X237" s="36">
+      <c r="X237" s="9">
         <v>2022</v>
       </c>
-      <c r="Y237" s="36">
+      <c r="Y237" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -11636,14 +11623,14 @@
       <c r="V239" s="17">
         <v>73.619981361205362</v>
       </c>
-      <c r="W239" s="40">
+      <c r="W239" s="17">
         <v>72.573117276845238</v>
       </c>
-      <c r="X239" s="40">
-        <v>73.056995776943992</v>
-      </c>
-      <c r="Y239" s="40">
-        <v>73.06868878628417</v>
+      <c r="X239" s="17">
+        <v>73.050421021465169</v>
+      </c>
+      <c r="Y239" s="17">
+        <v>73.064071278466841</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
@@ -11713,14 +11700,14 @@
       <c r="V240" s="17">
         <v>15.12087552077671</v>
       </c>
-      <c r="W240" s="40">
+      <c r="W240" s="17">
         <v>15.332749960592679</v>
       </c>
-      <c r="X240" s="40">
-        <v>14.950455140736791</v>
-      </c>
-      <c r="Y240" s="40">
-        <v>14.213398865719206</v>
+      <c r="X240" s="17">
+        <v>14.983796241660189</v>
+      </c>
+      <c r="Y240" s="17">
+        <v>14.274829177229151</v>
       </c>
     </row>
     <row r="241" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11790,14 +11777,14 @@
       <c r="V241" s="17">
         <v>19.248847119838651</v>
       </c>
-      <c r="W241" s="40">
+      <c r="W241" s="17">
         <v>21.854257238428247</v>
       </c>
-      <c r="X241" s="40">
-        <v>23.111569643583667</v>
-      </c>
-      <c r="Y241" s="40">
-        <v>23.06558763836183</v>
+      <c r="X241" s="17">
+        <v>23.096057013992265</v>
+      </c>
+      <c r="Y241" s="17">
+        <v>23.174661835130625</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
@@ -11867,14 +11854,14 @@
       <c r="V242" s="17">
         <v>21.449566094913809</v>
       </c>
-      <c r="W242" s="40">
+      <c r="W242" s="17">
         <v>22.287612731269469</v>
       </c>
-      <c r="X242" s="40">
-        <v>22.735815087422594</v>
-      </c>
-      <c r="Y242" s="40">
-        <v>23.27602991774198</v>
+      <c r="X242" s="17">
+        <v>22.737721487275614</v>
+      </c>
+      <c r="Y242" s="17">
+        <v>23.304147333882693</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
@@ -11944,14 +11931,14 @@
       <c r="V243" s="17">
         <v>12.786828064118785</v>
       </c>
-      <c r="W243" s="40">
+      <c r="W243" s="17">
         <v>13.432391284298411</v>
       </c>
-      <c r="X243" s="40">
-        <v>14.00301298585515</v>
-      </c>
-      <c r="Y243" s="40">
-        <v>14.461126297164379</v>
+      <c r="X243" s="17">
+        <v>14.000449606508388</v>
+      </c>
+      <c r="Y243" s="17">
+        <v>14.474593249190725</v>
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
@@ -12021,14 +12008,14 @@
       <c r="V244" s="17">
         <v>5.7109506847850575</v>
       </c>
-      <c r="W244" s="40">
+      <c r="W244" s="17">
         <v>6.0463745234319877</v>
       </c>
-      <c r="X244" s="40">
-        <v>6.0875926246655343</v>
-      </c>
-      <c r="Y244" s="40">
-        <v>6.2699401650331081</v>
+      <c r="X244" s="17">
+        <v>6.0901913262073002</v>
+      </c>
+      <c r="Y244" s="17">
+        <v>6.2817393408947266</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
@@ -12098,14 +12085,14 @@
       <c r="V245" s="17">
         <v>2.2230486564951315</v>
       </c>
-      <c r="W245" s="40">
+      <c r="W245" s="17">
         <v>2.029926731247607</v>
       </c>
-      <c r="X245" s="40">
-        <v>1.8959439977625736</v>
-      </c>
-      <c r="Y245" s="40">
-        <v>1.8124522328563712</v>
+      <c r="X245" s="17">
+        <v>1.8963607809907552</v>
+      </c>
+      <c r="Y245" s="17">
+        <v>1.8131069795723116</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
@@ -12175,14 +12162,14 @@
       <c r="V246" s="17">
         <v>0.72873868951483589</v>
       </c>
-      <c r="W246" s="40">
+      <c r="W246" s="17">
         <v>0.77892019229145959</v>
       </c>
-      <c r="X246" s="40">
-        <v>0.74926547913933572</v>
-      </c>
-      <c r="Y246" s="40">
-        <v>0.73251122268812752</v>
+      <c r="X246" s="17">
+        <v>0.7507197735691723</v>
+      </c>
+      <c r="Y246" s="17">
+        <v>0.73470776422492512</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
@@ -12252,14 +12239,14 @@
       <c r="V247" s="17">
         <v>-2.2047370229664609</v>
       </c>
-      <c r="W247" s="40">
+      <c r="W247" s="17">
         <v>-0.43746673896654265</v>
       </c>
-      <c r="X247" s="40">
-        <v>0.37192190061564218</v>
-      </c>
-      <c r="Y247" s="40">
-        <v>-0.21509752733795315</v>
+      <c r="X247" s="17">
+        <v>0.35450283629052054</v>
+      </c>
+      <c r="Y247" s="17">
+        <v>-0.13418817105179942</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
@@ -12329,14 +12316,14 @@
       <c r="V248" s="17">
         <v>4.0180478913032338E-3</v>
       </c>
-      <c r="W248" s="40">
+      <c r="W248" s="17">
         <v>4.1112461253215628E-3</v>
       </c>
-      <c r="X248" s="40">
-        <v>3.8326555454330337E-3</v>
-      </c>
-      <c r="Y248" s="40">
-        <v>4.6552479578039737E-3</v>
+      <c r="X248" s="17">
+        <v>3.8326904261267499E-3</v>
+      </c>
+      <c r="Y248" s="17">
+        <v>4.7026722997345772E-3</v>
       </c>
     </row>
     <row r="249" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12406,14 +12393,14 @@
       <c r="V249" s="17">
         <v>27.082396615100478</v>
       </c>
-      <c r="W249" s="40">
+      <c r="W249" s="17">
         <v>27.668016768319802</v>
       </c>
-      <c r="X249" s="40">
-        <v>28.523912252761779</v>
-      </c>
-      <c r="Y249" s="40">
-        <v>27.380619984209375</v>
+      <c r="X249" s="17">
+        <v>28.536870077376182</v>
+      </c>
+      <c r="Y249" s="17">
+        <v>27.42659217121361</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.2">
@@ -12483,14 +12470,14 @@
       <c r="V250" s="17">
         <v>16.246452016300019</v>
       </c>
-      <c r="W250" s="40">
+      <c r="W250" s="17">
         <v>17.164465465290775</v>
       </c>
-      <c r="X250" s="40">
-        <v>16.748160257133762</v>
-      </c>
-      <c r="Y250" s="40">
-        <v>14.706874505606024</v>
+      <c r="X250" s="17">
+        <v>16.764420897134819</v>
+      </c>
+      <c r="Y250" s="17">
+        <v>14.731561315829683</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.2">
@@ -12560,14 +12547,14 @@
       <c r="V251" s="17">
         <v>10.835944598800465</v>
       </c>
-      <c r="W251" s="40">
+      <c r="W251" s="17">
         <v>10.503551303029028</v>
       </c>
-      <c r="X251" s="40">
-        <v>11.775751995628015</v>
-      </c>
-      <c r="Y251" s="40">
-        <v>12.673745478603351</v>
+      <c r="X251" s="17">
+        <v>11.77244918024136</v>
+      </c>
+      <c r="Y251" s="17">
+        <v>12.695030855383923</v>
       </c>
     </row>
     <row r="252" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12637,14 +12624,14 @@
       <c r="V252" s="17">
         <v>35.07210061692119</v>
       </c>
-      <c r="W252" s="40">
+      <c r="W252" s="17">
         <v>37.42814124418598</v>
       </c>
-      <c r="X252" s="40">
-        <v>39.64293281402626</v>
-      </c>
-      <c r="Y252" s="40">
-        <v>38.156744102702049</v>
+      <c r="X252" s="17">
+        <v>39.667144354493807</v>
+      </c>
+      <c r="Y252" s="17">
+        <v>37.940154462040226</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.2">
@@ -12714,14 +12701,14 @@
       <c r="V253" s="17">
         <v>28.685741701159412</v>
       </c>
-      <c r="W253" s="40">
+      <c r="W253" s="17">
         <v>31.947271548617113</v>
       </c>
-      <c r="X253" s="40">
-        <v>32.260188994103203</v>
-      </c>
-      <c r="Y253" s="40">
-        <v>29.369498701562701</v>
+      <c r="X253" s="17">
+        <v>32.299270483673055</v>
+      </c>
+      <c r="Y253" s="17">
+        <v>29.199748116728486</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.2">
@@ -12791,14 +12778,14 @@
       <c r="V254" s="17">
         <v>6.3863589157617753</v>
       </c>
-      <c r="W254" s="40">
+      <c r="W254" s="17">
         <v>5.4808696955688703</v>
       </c>
-      <c r="X254" s="40">
-        <v>7.3827438199230597</v>
-      </c>
-      <c r="Y254" s="40">
-        <v>8.7872454011393479</v>
+      <c r="X254" s="17">
+        <v>7.3678738708207572</v>
+      </c>
+      <c r="Y254" s="17">
+        <v>8.7404063453117438</v>
       </c>
     </row>
     <row r="255" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
@@ -12823,9 +12810,9 @@
       <c r="T255" s="17"/>
       <c r="U255" s="17"/>
       <c r="V255" s="17"/>
-      <c r="W255" s="40"/>
-      <c r="X255" s="40"/>
-      <c r="Y255" s="40"/>
+      <c r="W255" s="17"/>
+      <c r="X255" s="17"/>
+      <c r="Y255" s="17"/>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B256" s="17"/>
@@ -12849,9 +12836,9 @@
       <c r="T256" s="17"/>
       <c r="U256" s="17"/>
       <c r="V256" s="17"/>
-      <c r="W256" s="40"/>
-      <c r="X256" s="40"/>
-      <c r="Y256" s="40"/>
+      <c r="W256" s="17"/>
+      <c r="X256" s="17"/>
+      <c r="Y256" s="17"/>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
@@ -12920,13 +12907,13 @@
       <c r="V257" s="17">
         <v>100</v>
       </c>
-      <c r="W257" s="40">
+      <c r="W257" s="17">
         <v>100</v>
       </c>
-      <c r="X257" s="40">
+      <c r="X257" s="17">
         <v>100</v>
       </c>
-      <c r="Y257" s="40">
+      <c r="Y257" s="17">
         <v>100</v>
       </c>
     </row>
@@ -12997,14 +12984,14 @@
       <c r="V258" s="17">
         <v>92.99940902680477</v>
       </c>
-      <c r="W258" s="40">
+      <c r="W258" s="17">
         <v>96.66662211029653</v>
       </c>
-      <c r="X258" s="40">
-        <v>94.621232781485077</v>
-      </c>
-      <c r="Y258" s="40">
-        <v>90.4259099866198</v>
+      <c r="X258" s="17">
+        <v>94.637854007189944</v>
+      </c>
+      <c r="Y258" s="17">
+        <v>90.435400663340999</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.2">
@@ -13074,14 +13061,14 @@
       <c r="V259" s="17">
         <v>7.0005909731952354</v>
       </c>
-      <c r="W259" s="40">
+      <c r="W259" s="17">
         <v>3.3333778897034665</v>
       </c>
-      <c r="X259" s="40">
-        <v>5.3787672185149127</v>
-      </c>
-      <c r="Y259" s="40">
-        <v>9.5740900133801965</v>
+      <c r="X259" s="17">
+        <v>5.3621459928100537</v>
+      </c>
+      <c r="Y259" s="17">
+        <v>9.5645993366590183</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.2">
@@ -13106,9 +13093,9 @@
       <c r="T260" s="17"/>
       <c r="U260" s="17"/>
       <c r="V260" s="17"/>
-      <c r="W260" s="40"/>
-      <c r="X260" s="40"/>
-      <c r="Y260" s="40"/>
+      <c r="W260" s="17"/>
+      <c r="X260" s="17"/>
+      <c r="Y260" s="17"/>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
@@ -13177,13 +13164,13 @@
       <c r="V261" s="17">
         <v>100</v>
       </c>
-      <c r="W261" s="40">
+      <c r="W261" s="17">
         <v>100</v>
       </c>
-      <c r="X261" s="40">
+      <c r="X261" s="17">
         <v>100</v>
       </c>
-      <c r="Y261" s="40">
+      <c r="Y261" s="17">
         <v>100</v>
       </c>
     </row>
@@ -13210,9 +13197,9 @@
       <c r="T262" s="15"/>
       <c r="U262" s="15"/>
       <c r="V262" s="15"/>
-      <c r="W262" s="38"/>
-      <c r="X262" s="38"/>
-      <c r="Y262" s="38"/>
+      <c r="W262" s="15"/>
+      <c r="X262" s="15"/>
+      <c r="Y262" s="15"/>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
@@ -13231,7 +13218,7 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.2">
@@ -13244,7 +13231,7 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.2">
@@ -13280,9 +13267,9 @@
       <c r="T274" s="7"/>
       <c r="U274" s="7"/>
       <c r="V274" s="7"/>
-      <c r="W274" s="35"/>
-      <c r="X274" s="35"/>
-      <c r="Y274" s="35"/>
+      <c r="W274" s="7"/>
+      <c r="X274" s="7"/>
+      <c r="Y274" s="7"/>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
@@ -13351,13 +13338,13 @@
       <c r="V275" s="9">
         <v>2020</v>
       </c>
-      <c r="W275" s="36">
+      <c r="W275" s="9">
         <v>2021</v>
       </c>
-      <c r="X275" s="36">
+      <c r="X275" s="9">
         <v>2022</v>
       </c>
-      <c r="Y275" s="36">
+      <c r="Y275" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -13428,14 +13415,14 @@
       <c r="V277" s="19">
         <v>1828423.6032281048</v>
       </c>
-      <c r="W277" s="37">
+      <c r="W277" s="19">
         <v>1954486.610016682</v>
       </c>
-      <c r="X277" s="37">
-        <v>2103198.0426698043</v>
-      </c>
-      <c r="Y277" s="37">
-        <v>2284664.6740361881</v>
+      <c r="X277" s="19">
+        <v>2104089.8599160332</v>
+      </c>
+      <c r="Y277" s="19">
+        <v>2285159.1602593842</v>
       </c>
     </row>
     <row r="278" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13505,14 +13492,14 @@
       <c r="V278" s="19">
         <v>5098232.0991026135</v>
       </c>
-      <c r="W278" s="37">
+      <c r="W278" s="19">
         <v>5607689.4737621192</v>
       </c>
-      <c r="X278" s="37">
-        <v>6436936.9340471178</v>
-      </c>
-      <c r="Y278" s="37">
-        <v>6833588.4297253685</v>
+      <c r="X278" s="19">
+        <v>6436935.4825338954</v>
+      </c>
+      <c r="Y278" s="19">
+        <v>6853151.6059861928</v>
       </c>
     </row>
     <row r="279" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13582,14 +13569,14 @@
       <c r="V279" s="19">
         <v>137060.31532439179</v>
       </c>
-      <c r="W279" s="37">
+      <c r="W279" s="19">
         <v>185371.03875113939</v>
       </c>
-      <c r="X279" s="37">
-        <v>280249.62693325593</v>
-      </c>
-      <c r="Y279" s="37">
-        <v>231749.45522512429</v>
+      <c r="X279" s="19">
+        <v>280249.3760596881</v>
+      </c>
+      <c r="Y279" s="19">
+        <v>232080.23793570866</v>
       </c>
     </row>
     <row r="280" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13659,14 +13646,14 @@
       <c r="V280" s="19">
         <v>3169921.0028569633</v>
       </c>
-      <c r="W280" s="37">
+      <c r="W280" s="19">
         <v>3424048.8354427675</v>
       </c>
-      <c r="X280" s="37">
-        <v>3796904.1090523209</v>
-      </c>
-      <c r="Y280" s="37">
-        <v>3922493.8716704138</v>
+      <c r="X280" s="19">
+        <v>3795335.3083644402</v>
+      </c>
+      <c r="Y280" s="19">
+        <v>3943986.5159432963</v>
       </c>
     </row>
     <row r="281" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -13736,14 +13723,14 @@
       <c r="V281" s="19">
         <v>611051.34682367067</v>
       </c>
-      <c r="W281" s="37">
+      <c r="W281" s="19">
         <v>650960.54315708519</v>
       </c>
-      <c r="X281" s="37">
-        <v>746142.06936414971</v>
-      </c>
-      <c r="Y281" s="37">
-        <v>847516.79589292221</v>
+      <c r="X281" s="19">
+        <v>746104.17027961905</v>
+      </c>
+      <c r="Y281" s="19">
+        <v>844360.23273107316</v>
       </c>
     </row>
     <row r="282" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -13813,14 +13800,14 @@
       <c r="V282" s="19">
         <v>1180199.4340975878</v>
       </c>
-      <c r="W282" s="37">
+      <c r="W282" s="19">
         <v>1347309.0564111271</v>
       </c>
-      <c r="X282" s="37">
-        <v>1613641.1286973907</v>
-      </c>
-      <c r="Y282" s="37">
-        <v>1831828.3069369076</v>
+      <c r="X282" s="19">
+        <v>1615246.627830148</v>
+      </c>
+      <c r="Y282" s="19">
+        <v>1832724.6193761146</v>
       </c>
     </row>
     <row r="283" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13890,14 +13877,14 @@
       <c r="V283" s="19">
         <v>11024917.867682004</v>
       </c>
-      <c r="W283" s="37">
+      <c r="W283" s="19">
         <v>11848438.402404422</v>
       </c>
-      <c r="X283" s="37">
-        <v>13484380.023909081</v>
-      </c>
-      <c r="Y283" s="37">
-        <v>15171172.844215605</v>
+      <c r="X283" s="19">
+        <v>13487250.995206343</v>
+      </c>
+      <c r="Y283" s="19">
+        <v>15180300.632823305</v>
       </c>
     </row>
     <row r="284" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -13967,14 +13954,14 @@
       <c r="V284" s="19">
         <v>3317370.6808587098</v>
       </c>
-      <c r="W284" s="37">
+      <c r="W284" s="19">
         <v>3502794.4938180256</v>
       </c>
-      <c r="X284" s="37">
-        <v>3987519.0666681342</v>
-      </c>
-      <c r="Y284" s="37">
-        <v>4436019.7135973545</v>
+      <c r="X284" s="19">
+        <v>3987549.7067140583</v>
+      </c>
+      <c r="Y284" s="19">
+        <v>4444025.4470289685</v>
       </c>
     </row>
     <row r="285" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14044,14 +14031,14 @@
       <c r="V285" s="19">
         <v>551044.59119243571</v>
       </c>
-      <c r="W285" s="37">
+      <c r="W285" s="19">
         <v>605203.56675862649</v>
       </c>
-      <c r="X285" s="37">
-        <v>806522.12230806344</v>
-      </c>
-      <c r="Y285" s="37">
-        <v>977851.17924861412</v>
+      <c r="X285" s="19">
+        <v>807323.23658586771</v>
+      </c>
+      <c r="Y285" s="19">
+        <v>977398.86522925191</v>
       </c>
     </row>
     <row r="286" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14121,14 +14108,14 @@
       <c r="V286" s="19">
         <v>253013.23124708817</v>
       </c>
-      <c r="W286" s="37">
+      <c r="W286" s="19">
         <v>285187.01787847211</v>
       </c>
-      <c r="X286" s="37">
-        <v>395073.23383201729</v>
-      </c>
-      <c r="Y286" s="37">
-        <v>509481.44541939278</v>
+      <c r="X286" s="19">
+        <v>396143.89756514801</v>
+      </c>
+      <c r="Y286" s="19">
+        <v>511145.62721815088</v>
       </c>
     </row>
     <row r="287" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14198,14 +14185,14 @@
       <c r="V287" s="19">
         <v>593039.37525735202</v>
       </c>
-      <c r="W287" s="37">
+      <c r="W287" s="19">
         <v>640033.56072924484</v>
       </c>
-      <c r="X287" s="37">
-        <v>695675.25208890578</v>
-      </c>
-      <c r="Y287" s="37">
-        <v>731026.29494317714</v>
+      <c r="X287" s="19">
+        <v>696021.65281555429</v>
+      </c>
+      <c r="Y287" s="19">
+        <v>733416.51703936071</v>
       </c>
     </row>
     <row r="288" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14275,14 +14262,14 @@
       <c r="V288" s="19">
         <v>1823978.7216463271</v>
       </c>
-      <c r="W288" s="37">
+      <c r="W288" s="19">
         <v>1963148.3992895908</v>
       </c>
-      <c r="X288" s="37">
-        <v>2224346.267759732</v>
-      </c>
-      <c r="Y288" s="37">
-        <v>2567422.8966389652</v>
+      <c r="X288" s="19">
+        <v>2224674.7830920857</v>
+      </c>
+      <c r="Y288" s="19">
+        <v>2565381.4562773211</v>
       </c>
     </row>
     <row r="289" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14352,14 +14339,14 @@
       <c r="V289" s="19">
         <v>1081612.1930010803</v>
       </c>
-      <c r="W289" s="37">
+      <c r="W289" s="19">
         <v>1139221.0893330369</v>
       </c>
-      <c r="X289" s="37">
-        <v>1249334.1429345785</v>
-      </c>
-      <c r="Y289" s="37">
-        <v>1366601.0006461828</v>
+      <c r="X289" s="19">
+        <v>1246861.4394502793</v>
+      </c>
+      <c r="Y289" s="19">
+        <v>1370154.0451491633</v>
       </c>
     </row>
     <row r="290" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14429,14 +14416,14 @@
       <c r="V290" s="19">
         <v>1137558.010549481</v>
       </c>
-      <c r="W290" s="37">
+      <c r="W290" s="19">
         <v>1222488.8088335665</v>
       </c>
-      <c r="X290" s="37">
-        <v>1350600.5280751535</v>
-      </c>
-      <c r="Y290" s="37">
-        <v>1485164.618292274</v>
+      <c r="X290" s="19">
+        <v>1350881.4367268961</v>
+      </c>
+      <c r="Y290" s="19">
+        <v>1487290.6098380145</v>
       </c>
     </row>
     <row r="291" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
@@ -14506,14 +14493,14 @@
       <c r="V291" s="19">
         <v>950590.1342675566</v>
       </c>
-      <c r="W291" s="37">
+      <c r="W291" s="19">
         <v>1027078.9960668562</v>
       </c>
-      <c r="X291" s="37">
-        <v>1114044.8961219341</v>
-      </c>
-      <c r="Y291" s="37">
-        <v>1191289.6814884213</v>
+      <c r="X291" s="19">
+        <v>1119710.013593711</v>
+      </c>
+      <c r="Y291" s="19">
+        <v>1188487.0626575199</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.2">
@@ -14583,14 +14570,14 @@
       <c r="V292" s="19">
         <v>719493.52100767673</v>
       </c>
-      <c r="W292" s="37">
+      <c r="W292" s="19">
         <v>796472.21035602549</v>
       </c>
-      <c r="X292" s="37">
-        <v>883972.32622222346</v>
-      </c>
-      <c r="Y292" s="37">
-        <v>980225.48110918771</v>
+      <c r="X292" s="19">
+        <v>880389.81249764538</v>
+      </c>
+      <c r="Y292" s="19">
+        <v>976644.11846215697</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.2">
@@ -14660,14 +14647,14 @@
       <c r="V293" s="19">
         <v>325260.09833732201</v>
       </c>
-      <c r="W293" s="37">
+      <c r="W293" s="19">
         <v>385749.58321451931</v>
       </c>
-      <c r="X293" s="37">
-        <v>411712.9941896472</v>
-      </c>
-      <c r="Y293" s="37">
-        <v>460609.53384598135</v>
+      <c r="X293" s="19">
+        <v>411576.76256723295</v>
+      </c>
+      <c r="Y293" s="19">
+        <v>460644.51028793817</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.2">
@@ -14737,14 +14724,14 @@
       <c r="V294" s="19">
         <v>271957.31031697243</v>
       </c>
-      <c r="W294" s="37">
+      <c r="W294" s="19">
         <v>281060.67612645612</v>
       </c>
-      <c r="X294" s="37">
-        <v>365579.19370868942</v>
-      </c>
-      <c r="Y294" s="37">
-        <v>465480.99898605654</v>
+      <c r="X294" s="19">
+        <v>366118.25359786442</v>
+      </c>
+      <c r="Y294" s="19">
+        <v>465712.37363546202</v>
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.2">
@@ -14770,9 +14757,9 @@
       <c r="T295" s="19"/>
       <c r="U295" s="19"/>
       <c r="V295" s="19"/>
-      <c r="W295" s="37"/>
-      <c r="X295" s="37"/>
-      <c r="Y295" s="37"/>
+      <c r="W295" s="19"/>
+      <c r="X295" s="19"/>
+      <c r="Y295" s="19"/>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
@@ -14841,14 +14828,14 @@
       <c r="V296" s="19">
         <v>17951573.570012722</v>
       </c>
-      <c r="W296" s="37">
+      <c r="W296" s="19">
         <v>19410614.486183222</v>
       </c>
-      <c r="X296" s="37">
-        <v>22024515.000626005</v>
-      </c>
-      <c r="Y296" s="37">
-        <v>24289425.947977163</v>
+      <c r="X296" s="19">
+        <v>22028276.337656274</v>
+      </c>
+      <c r="Y296" s="19">
+        <v>24318611.399068885</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.2">
@@ -14873,9 +14860,9 @@
       <c r="T297" s="19"/>
       <c r="U297" s="19"/>
       <c r="V297" s="19"/>
-      <c r="W297" s="37"/>
-      <c r="X297" s="37"/>
-      <c r="Y297" s="37"/>
+      <c r="W297" s="19"/>
+      <c r="X297" s="19"/>
+      <c r="Y297" s="19"/>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
@@ -14944,14 +14931,14 @@
       <c r="V298" s="19">
         <v>1360426.9400112671</v>
       </c>
-      <c r="W298" s="37">
+      <c r="W298" s="19">
         <v>690387.60375562287</v>
       </c>
-      <c r="X298" s="37">
-        <v>1298326.988730005</v>
-      </c>
-      <c r="Y298" s="37">
-        <v>2674093.9136142097</v>
+      <c r="X298" s="19">
+        <v>1294378.7136952721</v>
+      </c>
+      <c r="Y298" s="19">
+        <v>2670713.283635254</v>
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.2">
@@ -14976,9 +14963,9 @@
       <c r="T299" s="19"/>
       <c r="U299" s="19"/>
       <c r="V299" s="19"/>
-      <c r="W299" s="37"/>
-      <c r="X299" s="37"/>
-      <c r="Y299" s="37"/>
+      <c r="W299" s="19"/>
+      <c r="X299" s="19"/>
+      <c r="Y299" s="19"/>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
@@ -15047,14 +15034,14 @@
       <c r="V300" s="19">
         <v>19312000.510023989</v>
       </c>
-      <c r="W300" s="37">
+      <c r="W300" s="19">
         <v>20101002.089938845</v>
       </c>
-      <c r="X300" s="37">
-        <v>23322841.989356011</v>
-      </c>
-      <c r="Y300" s="37">
-        <v>26963519.861591373</v>
+      <c r="X300" s="19">
+        <v>23322655.051351547</v>
+      </c>
+      <c r="Y300" s="19">
+        <v>26989324.68270414</v>
       </c>
     </row>
     <row r="301" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15080,9 +15067,9 @@
       <c r="T301" s="15"/>
       <c r="U301" s="15"/>
       <c r="V301" s="15"/>
-      <c r="W301" s="38"/>
-      <c r="X301" s="38"/>
-      <c r="Y301" s="38"/>
+      <c r="W301" s="15"/>
+      <c r="X301" s="15"/>
+      <c r="Y301" s="15"/>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
@@ -15101,7 +15088,7 @@
     </row>
     <row r="307" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -15124,9 +15111,9 @@
       <c r="T307" s="3"/>
       <c r="U307" s="3"/>
       <c r="V307" s="3"/>
-      <c r="W307" s="34"/>
-      <c r="X307" s="34"/>
-      <c r="Y307" s="34"/>
+      <c r="W307" s="3"/>
+      <c r="X307" s="3"/>
+      <c r="Y307" s="3"/>
     </row>
     <row r="308" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
@@ -15151,9 +15138,9 @@
       <c r="T308" s="3"/>
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
-      <c r="W308" s="34"/>
-      <c r="X308" s="34"/>
-      <c r="Y308" s="34"/>
+      <c r="W308" s="3"/>
+      <c r="X308" s="3"/>
+      <c r="Y308" s="3"/>
     </row>
     <row r="309" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
@@ -15180,13 +15167,13 @@
       <c r="T309" s="3"/>
       <c r="U309" s="3"/>
       <c r="V309" s="3"/>
-      <c r="W309" s="34"/>
-      <c r="X309" s="34"/>
-      <c r="Y309" s="34"/>
+      <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
+      <c r="Y309" s="3"/>
     </row>
     <row r="310" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -15209,9 +15196,9 @@
       <c r="T310" s="3"/>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
-      <c r="W310" s="34"/>
-      <c r="X310" s="34"/>
-      <c r="Y310" s="34"/>
+      <c r="W310" s="3"/>
+      <c r="X310" s="3"/>
+      <c r="Y310" s="3"/>
     </row>
     <row r="311" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
@@ -15238,9 +15225,9 @@
       <c r="T311" s="3"/>
       <c r="U311" s="3"/>
       <c r="V311" s="3"/>
-      <c r="W311" s="34"/>
-      <c r="X311" s="34"/>
-      <c r="Y311" s="34"/>
+      <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
+      <c r="Y311" s="3"/>
     </row>
     <row r="312" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
@@ -15265,9 +15252,9 @@
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
-      <c r="W312" s="34"/>
-      <c r="X312" s="34"/>
-      <c r="Y312" s="34"/>
+      <c r="W312" s="3"/>
+      <c r="X312" s="3"/>
+      <c r="Y312" s="3"/>
     </row>
     <row r="313" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
@@ -15294,9 +15281,9 @@
       <c r="T313" s="7"/>
       <c r="U313" s="7"/>
       <c r="V313" s="7"/>
-      <c r="W313" s="35"/>
-      <c r="X313" s="35"/>
-      <c r="Y313" s="35"/>
+      <c r="W313" s="7"/>
+      <c r="X313" s="7"/>
+      <c r="Y313" s="7"/>
     </row>
     <row r="314" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
@@ -15365,13 +15352,13 @@
       <c r="V314" s="9">
         <v>2020</v>
       </c>
-      <c r="W314" s="36">
+      <c r="W314" s="9">
         <v>2021</v>
       </c>
-      <c r="X314" s="36">
+      <c r="X314" s="9">
         <v>2022</v>
       </c>
-      <c r="Y314" s="36">
+      <c r="Y314" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -15442,14 +15429,14 @@
       <c r="V316" s="19">
         <v>1780390.5640921535</v>
       </c>
-      <c r="W316" s="37">
+      <c r="W316" s="19">
         <v>1775210.3171187984</v>
       </c>
-      <c r="X316" s="37">
-        <v>1783498.9562229416</v>
-      </c>
-      <c r="Y316" s="37">
-        <v>1805024.8557710028</v>
+      <c r="X316" s="19">
+        <v>1783734.6554432951</v>
+      </c>
+      <c r="Y316" s="19">
+        <v>1804907.0542362379</v>
       </c>
     </row>
     <row r="317" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15519,14 +15506,14 @@
       <c r="V317" s="19">
         <v>5115315.7129913447</v>
       </c>
-      <c r="W317" s="37">
+      <c r="W317" s="19">
         <v>5551621.8662187792</v>
       </c>
-      <c r="X317" s="37">
-        <v>5914703.2127513792</v>
-      </c>
-      <c r="Y317" s="37">
-        <v>6127917.0578185515</v>
+      <c r="X317" s="19">
+        <v>5913747.6649654787</v>
+      </c>
+      <c r="Y317" s="19">
+        <v>6126102.2786791325</v>
       </c>
     </row>
     <row r="318" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15596,14 +15583,14 @@
       <c r="V318" s="19">
         <v>137493.02513292991</v>
       </c>
-      <c r="W318" s="37">
+      <c r="W318" s="19">
         <v>144498.10094611297</v>
       </c>
-      <c r="X318" s="37">
-        <v>152184.53734054259</v>
-      </c>
-      <c r="Y318" s="37">
-        <v>155085.59183652463</v>
+      <c r="X318" s="19">
+        <v>152183.17583905184</v>
+      </c>
+      <c r="Y318" s="19">
+        <v>155154.80491579018</v>
       </c>
     </row>
     <row r="319" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15673,14 +15660,14 @@
       <c r="V319" s="19">
         <v>3266301.6027311916</v>
       </c>
-      <c r="W319" s="37">
+      <c r="W319" s="19">
         <v>3556426.2814807137</v>
       </c>
-      <c r="X319" s="37">
-        <v>3730402.8432111591</v>
-      </c>
-      <c r="Y319" s="37">
-        <v>3778802.8446136904</v>
+      <c r="X319" s="19">
+        <v>3729156.6311298651</v>
+      </c>
+      <c r="Y319" s="19">
+        <v>3779244.9273082055</v>
       </c>
     </row>
     <row r="320" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -15750,14 +15737,14 @@
       <c r="V320" s="19">
         <v>589213.0358613478</v>
       </c>
-      <c r="W320" s="37">
+      <c r="W320" s="19">
         <v>615591.38307166984</v>
       </c>
-      <c r="X320" s="37">
-        <v>647256.73482704919</v>
-      </c>
-      <c r="Y320" s="37">
-        <v>687741.38748599519</v>
+      <c r="X320" s="19">
+        <v>647222.00058118661</v>
+      </c>
+      <c r="Y320" s="19">
+        <v>684918.4132137897</v>
       </c>
     </row>
     <row r="321" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -15827,14 +15814,14 @@
       <c r="V321" s="19">
         <v>1122308.0492658752</v>
       </c>
-      <c r="W321" s="37">
+      <c r="W321" s="19">
         <v>1235106.1007202829</v>
       </c>
-      <c r="X321" s="37">
-        <v>1384859.0973726278</v>
-      </c>
-      <c r="Y321" s="37">
-        <v>1506287.2338823418</v>
+      <c r="X321" s="19">
+        <v>1385185.8574153748</v>
+      </c>
+      <c r="Y321" s="19">
+        <v>1506784.133241347</v>
       </c>
     </row>
     <row r="322" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15904,14 +15891,14 @@
       <c r="V322" s="19">
         <v>10642137.002289824</v>
       </c>
-      <c r="W322" s="37">
+      <c r="W322" s="19">
         <v>11213252.036594167</v>
       </c>
-      <c r="X322" s="37">
-        <v>12245428.06999575</v>
-      </c>
-      <c r="Y322" s="37">
-        <v>13121165.52833207</v>
+      <c r="X322" s="19">
+        <v>12248122.370699735</v>
+      </c>
+      <c r="Y322" s="19">
+        <v>13120748.909511007</v>
       </c>
     </row>
     <row r="323" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -15981,14 +15968,14 @@
       <c r="V323" s="19">
         <v>3275536.8130151117</v>
       </c>
-      <c r="W323" s="37">
+      <c r="W323" s="19">
         <v>3413863.9018391548</v>
       </c>
-      <c r="X323" s="37">
-        <v>3710868.0551170409</v>
-      </c>
-      <c r="Y323" s="37">
-        <v>3913660.8732745922</v>
+      <c r="X323" s="19">
+        <v>3710784.5345398113</v>
+      </c>
+      <c r="Y323" s="19">
+        <v>3913419.823008324</v>
       </c>
     </row>
     <row r="324" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16058,14 +16045,14 @@
       <c r="V324" s="19">
         <v>515149.36362272</v>
       </c>
-      <c r="W324" s="37">
+      <c r="W324" s="19">
         <v>547806.8943569262</v>
       </c>
-      <c r="X324" s="37">
-        <v>678560.73440180533</v>
-      </c>
-      <c r="Y324" s="37">
-        <v>767741.18810245045</v>
+      <c r="X324" s="19">
+        <v>679371.4505441715</v>
+      </c>
+      <c r="Y324" s="19">
+        <v>767602.55304972793</v>
       </c>
     </row>
     <row r="325" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16135,14 +16122,14 @@
       <c r="V325" s="19">
         <v>231810.68457593551</v>
       </c>
-      <c r="W325" s="37">
+      <c r="W325" s="19">
         <v>248404.00730113528</v>
       </c>
-      <c r="X325" s="37">
-        <v>328180.25478560932</v>
-      </c>
-      <c r="Y325" s="37">
-        <v>405104.66644894012</v>
+      <c r="X325" s="19">
+        <v>329123.92652837408</v>
+      </c>
+      <c r="Y325" s="19">
+        <v>405418.26704823005</v>
       </c>
     </row>
     <row r="326" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16212,14 +16199,14 @@
       <c r="V326" s="19">
         <v>585185.11700217403</v>
       </c>
-      <c r="W326" s="37">
+      <c r="W326" s="19">
         <v>638971.34971836535</v>
       </c>
-      <c r="X326" s="37">
-        <v>689867.83648900688</v>
-      </c>
-      <c r="Y326" s="37">
-        <v>717570.36014371633</v>
+      <c r="X326" s="19">
+        <v>690071.89639740926</v>
+      </c>
+      <c r="Y326" s="19">
+        <v>719615.35314185033</v>
       </c>
     </row>
     <row r="327" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16289,14 +16276,14 @@
       <c r="V327" s="19">
         <v>1769952.4973231703</v>
       </c>
-      <c r="W327" s="37">
+      <c r="W327" s="19">
         <v>1854248.1201083027</v>
       </c>
-      <c r="X327" s="37">
-        <v>1986719.2835721944</v>
-      </c>
-      <c r="Y327" s="37">
-        <v>2162885.6748036025</v>
+      <c r="X327" s="19">
+        <v>1987007.5248913108</v>
+      </c>
+      <c r="Y327" s="19">
+        <v>2161095.0576006416</v>
       </c>
     </row>
     <row r="328" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16366,14 +16353,14 @@
       <c r="V328" s="19">
         <v>1031274.7654062201</v>
       </c>
-      <c r="W328" s="37">
+      <c r="W328" s="19">
         <v>1054235.2281024854</v>
       </c>
-      <c r="X328" s="37">
-        <v>1110215.538746024</v>
-      </c>
-      <c r="Y328" s="37">
-        <v>1149641.3032529519</v>
+      <c r="X328" s="19">
+        <v>1108166.8519775514</v>
+      </c>
+      <c r="Y328" s="19">
+        <v>1152506.3830110568</v>
       </c>
     </row>
     <row r="329" spans="1:25" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -16443,14 +16430,14 @@
       <c r="V329" s="19">
         <v>1068769.3138266339</v>
       </c>
-      <c r="W329" s="37">
+      <c r="W329" s="19">
         <v>1136506.7586497723</v>
       </c>
-      <c r="X329" s="37">
-        <v>1240113.3048010368</v>
-      </c>
-      <c r="Y329" s="37">
-        <v>1322724.4592609459</v>
+      <c r="X329" s="19">
+        <v>1240352.8065750757</v>
+      </c>
+      <c r="Y329" s="19">
+        <v>1323643.1546763808</v>
       </c>
     </row>
     <row r="330" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -16520,14 +16507,14 @@
       <c r="V330" s="19">
         <v>911187.77121699601</v>
       </c>
-      <c r="W330" s="37">
+      <c r="W330" s="19">
         <v>959685.44530862558</v>
       </c>
-      <c r="X330" s="37">
-        <v>998320.66369767254</v>
-      </c>
-      <c r="Y330" s="37">
-        <v>1025971.2566529943</v>
+      <c r="X330" s="19">
+        <v>1003397.3027577655</v>
+      </c>
+      <c r="Y330" s="19">
+        <v>1024588.1859950579</v>
       </c>
     </row>
     <row r="331" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16597,14 +16584,14 @@
       <c r="V331" s="19">
         <v>687609.85737305612</v>
       </c>
-      <c r="W331" s="37">
+      <c r="W331" s="19">
         <v>744158.68466356071</v>
       </c>
-      <c r="X331" s="37">
-        <v>799264.16233284434</v>
-      </c>
-      <c r="Y331" s="37">
-        <v>854814.87369663641</v>
+      <c r="X331" s="19">
+        <v>796153.64003592869</v>
+      </c>
+      <c r="Y331" s="19">
+        <v>851619.2218099155</v>
       </c>
     </row>
     <row r="332" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16674,14 +16661,14 @@
       <c r="V332" s="19">
         <v>306902.63750810525</v>
       </c>
-      <c r="W332" s="37">
+      <c r="W332" s="19">
         <v>351472.44293169305</v>
       </c>
-      <c r="X332" s="37">
-        <v>364343.4851822817</v>
-      </c>
-      <c r="Y332" s="37">
-        <v>391195.34986102488</v>
+      <c r="X332" s="19">
+        <v>364222.79238194891</v>
+      </c>
+      <c r="Y332" s="19">
+        <v>391151.41161939211</v>
       </c>
     </row>
     <row r="333" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16751,14 +16738,14 @@
       <c r="V333" s="19">
         <v>258758.18141969977</v>
       </c>
-      <c r="W333" s="37">
+      <c r="W333" s="19">
         <v>263899.20361414546</v>
       </c>
-      <c r="X333" s="37">
-        <v>338974.75087023288</v>
-      </c>
-      <c r="Y333" s="37">
-        <v>409855.52283421549</v>
+      <c r="X333" s="19">
+        <v>339469.64407038735</v>
+      </c>
+      <c r="Y333" s="19">
+        <v>410089.49855042988</v>
       </c>
     </row>
     <row r="334" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16784,9 +16771,9 @@
       <c r="T334" s="19"/>
       <c r="U334" s="19"/>
       <c r="V334" s="19"/>
-      <c r="W334" s="37"/>
-      <c r="X334" s="37"/>
-      <c r="Y334" s="37"/>
+      <c r="W334" s="19"/>
+      <c r="X334" s="19"/>
+      <c r="Y334" s="19"/>
     </row>
     <row r="335" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
@@ -16855,14 +16842,14 @@
       <c r="V335" s="19">
         <v>17537843.279373322</v>
       </c>
-      <c r="W335" s="37">
+      <c r="W335" s="19">
         <v>18540084.219931744</v>
       </c>
-      <c r="X335" s="37">
-        <v>19943630.238970071</v>
-      </c>
-      <c r="Y335" s="37">
-        <v>21054107.441921622</v>
+      <c r="X335" s="19">
+        <v>19945604.69110851</v>
+      </c>
+      <c r="Y335" s="19">
+        <v>21051758.242426377</v>
       </c>
     </row>
     <row r="336" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16888,9 +16875,9 @@
       <c r="T336" s="19"/>
       <c r="U336" s="19"/>
       <c r="V336" s="19"/>
-      <c r="W336" s="37"/>
-      <c r="X336" s="37"/>
-      <c r="Y336" s="37"/>
+      <c r="W336" s="19"/>
+      <c r="X336" s="19"/>
+      <c r="Y336" s="19"/>
     </row>
     <row r="337" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
@@ -16959,14 +16946,14 @@
       <c r="V337" s="19">
         <v>1320172.5541665182</v>
       </c>
-      <c r="W337" s="37">
+      <c r="W337" s="19">
         <v>639322.08928792004</v>
       </c>
-      <c r="X337" s="37">
-        <v>1133700.5595275369</v>
-      </c>
-      <c r="Y337" s="37">
-        <v>2229161.0870176707</v>
+      <c r="X337" s="19">
+        <v>1130110.6242379025</v>
+      </c>
+      <c r="Y337" s="19">
+        <v>2226469.1862269542</v>
       </c>
     </row>
     <row r="338" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16992,9 +16979,9 @@
       <c r="T338" s="19"/>
       <c r="U338" s="19"/>
       <c r="V338" s="19"/>
-      <c r="W338" s="37"/>
-      <c r="X338" s="37"/>
-      <c r="Y338" s="37"/>
+      <c r="W338" s="19"/>
+      <c r="X338" s="19"/>
+      <c r="Y338" s="19"/>
     </row>
     <row r="339" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
@@ -17063,14 +17050,14 @@
       <c r="V339" s="19">
         <v>18858015.83353984</v>
       </c>
-      <c r="W339" s="37">
+      <c r="W339" s="19">
         <v>19179406.309219666</v>
       </c>
-      <c r="X339" s="37">
-        <v>21077330.79849761</v>
-      </c>
-      <c r="Y339" s="37">
-        <v>23283268.528939292</v>
+      <c r="X339" s="19">
+        <v>21075715.315346412</v>
+      </c>
+      <c r="Y339" s="19">
+        <v>23278227.42865333</v>
       </c>
     </row>
     <row r="340" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17096,9 +17083,9 @@
       <c r="T340" s="15"/>
       <c r="U340" s="15"/>
       <c r="V340" s="15"/>
-      <c r="W340" s="38"/>
-      <c r="X340" s="38"/>
-      <c r="Y340" s="38"/>
+      <c r="W340" s="15"/>
+      <c r="X340" s="15"/>
+      <c r="Y340" s="15"/>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
@@ -17117,7 +17104,7 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.2">
@@ -17130,7 +17117,7 @@
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.2">
@@ -17166,9 +17153,9 @@
       <c r="T352" s="7"/>
       <c r="U352" s="7"/>
       <c r="V352" s="7"/>
-      <c r="W352" s="35"/>
-      <c r="X352" s="35"/>
-      <c r="Y352" s="39"/>
+      <c r="W352" s="7"/>
+      <c r="X352" s="7"/>
+      <c r="Y352" s="7"/>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
@@ -17237,13 +17224,13 @@
       <c r="V353" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W353" s="36" t="s">
+      <c r="W353" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X353" s="36" t="s">
+      <c r="X353" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y353" s="36"/>
+      <c r="Y353" s="9"/>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="18" t="s">
@@ -17312,13 +17299,13 @@
       <c r="V355" s="17">
         <v>6.8946280591658962</v>
       </c>
-      <c r="W355" s="40">
-        <v>7.6087209751645872</v>
-      </c>
-      <c r="X355" s="40">
-        <v>8.6281285777553194</v>
-      </c>
-      <c r="Y355" s="40"/>
+      <c r="W355" s="17">
+        <v>7.6543502080105981</v>
+      </c>
+      <c r="X355" s="17">
+        <v>8.6055878027270722</v>
+      </c>
+      <c r="Y355" s="17"/>
     </row>
     <row r="356" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="18" t="s">
@@ -17387,13 +17374,13 @@
       <c r="V356" s="17">
         <v>9.9928242723429577</v>
       </c>
-      <c r="W356" s="40">
-        <v>14.787685091426226</v>
-      </c>
-      <c r="X356" s="40">
-        <v>6.1621156109240189</v>
-      </c>
-      <c r="Y356" s="40"/>
+      <c r="W356" s="17">
+        <v>14.787659207089547</v>
+      </c>
+      <c r="X356" s="17">
+        <v>6.4660602018097961</v>
+      </c>
+      <c r="Y356" s="17"/>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="12" t="s">
@@ -17462,13 +17449,13 @@
       <c r="V357" s="17">
         <v>35.247783658170277</v>
       </c>
-      <c r="W357" s="40">
-        <v>51.183069815717573</v>
-      </c>
-      <c r="X357" s="40">
-        <v>-17.306061113752136</v>
-      </c>
-      <c r="Y357" s="40"/>
+      <c r="W357" s="17">
+        <v>51.182934479815287</v>
+      </c>
+      <c r="X357" s="17">
+        <v>-17.187955527765482</v>
+      </c>
+      <c r="Y357" s="17"/>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="12" t="s">
@@ -17537,13 +17524,13 @@
       <c r="V358" s="17">
         <v>8.0168506520120104</v>
       </c>
-      <c r="W358" s="40">
-        <v>10.889309455813859</v>
-      </c>
-      <c r="X358" s="40">
-        <v>3.3076885539108218</v>
-      </c>
-      <c r="Y358" s="40"/>
+      <c r="W358" s="17">
+        <v>10.843492332189868</v>
+      </c>
+      <c r="X358" s="17">
+        <v>3.9166818080934149</v>
+      </c>
+      <c r="Y358" s="17"/>
     </row>
     <row r="359" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A359" s="21" t="s">
@@ -17612,13 +17599,13 @@
       <c r="V359" s="17">
         <v>6.5312344929551358</v>
       </c>
-      <c r="W359" s="40">
-        <v>14.621704373270433</v>
-      </c>
-      <c r="X359" s="40">
-        <v>13.586517995850627</v>
-      </c>
-      <c r="Y359" s="40"/>
+      <c r="W359" s="17">
+        <v>14.615882348428983</v>
+      </c>
+      <c r="X359" s="17">
+        <v>13.169215019215159</v>
+      </c>
+      <c r="Y359" s="17"/>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="12" t="s">
@@ -17687,13 +17674,13 @@
       <c r="V360" s="17">
         <v>14.159439285048947</v>
       </c>
-      <c r="W360" s="40">
-        <v>19.767704449022361</v>
-      </c>
-      <c r="X360" s="40">
-        <v>13.5214190044628</v>
-      </c>
-      <c r="Y360" s="40"/>
+      <c r="W360" s="17">
+        <v>19.886867838084271</v>
+      </c>
+      <c r="X360" s="17">
+        <v>13.464073399002658</v>
+      </c>
+      <c r="Y360" s="17"/>
     </row>
     <row r="361" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="18" t="s">
@@ -17762,13 +17749,13 @@
       <c r="V361" s="17">
         <v>7.4696296571646172</v>
       </c>
-      <c r="W361" s="40">
-        <v>13.807234050123228</v>
-      </c>
-      <c r="X361" s="40">
-        <v>12.509235258244587</v>
-      </c>
-      <c r="Y361" s="40"/>
+      <c r="W361" s="17">
+        <v>13.831464849151388</v>
+      </c>
+      <c r="X361" s="17">
+        <v>12.552963077640584</v>
+      </c>
+      <c r="Y361" s="17"/>
     </row>
     <row r="362" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A362" s="21" t="s">
@@ -17837,13 +17824,13 @@
       <c r="V362" s="17">
         <v>5.5894812729012813</v>
       </c>
-      <c r="W362" s="40">
-        <v>13.838224700466554</v>
-      </c>
-      <c r="X362" s="40">
-        <v>11.247611345065621</v>
-      </c>
-      <c r="Y362" s="40"/>
+      <c r="W362" s="17">
+        <v>13.839099431941065</v>
+      </c>
+      <c r="X362" s="17">
+        <v>11.447524768062877</v>
+      </c>
+      <c r="Y362" s="17"/>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="12" t="s">
@@ -17912,13 +17899,13 @@
       <c r="V363" s="17">
         <v>9.828419774340432</v>
       </c>
-      <c r="W363" s="40">
-        <v>33.264601632747627</v>
-      </c>
-      <c r="X363" s="40">
-        <v>21.242945754575217</v>
-      </c>
-      <c r="Y363" s="40"/>
+      <c r="W363" s="17">
+        <v>33.39697267644371</v>
+      </c>
+      <c r="X363" s="17">
+        <v>21.066608879316547</v>
+      </c>
+      <c r="Y363" s="17"/>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="12" t="s">
@@ -17987,13 +17974,13 @@
       <c r="V364" s="17">
         <v>12.716246685124389</v>
       </c>
-      <c r="W364" s="40">
-        <v>38.531282654798616</v>
-      </c>
-      <c r="X364" s="40">
-        <v>28.958735188833685</v>
-      </c>
-      <c r="Y364" s="40"/>
+      <c r="W364" s="17">
+        <v>38.906707784980057</v>
+      </c>
+      <c r="X364" s="17">
+        <v>29.030291861075625</v>
+      </c>
+      <c r="Y364" s="17"/>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="12" t="s">
@@ -18062,13 +18049,13 @@
       <c r="V365" s="17">
         <v>7.9242943103903514</v>
       </c>
-      <c r="W365" s="40">
-        <v>8.6935583965727687</v>
-      </c>
-      <c r="X365" s="40">
-        <v>5.0815438307058685</v>
-      </c>
-      <c r="Y365" s="40"/>
+      <c r="W365" s="17">
+        <v>8.7476806720131037</v>
+      </c>
+      <c r="X365" s="17">
+        <v>5.3726581741439219</v>
+      </c>
+      <c r="Y365" s="17"/>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="12" t="s">
@@ -18137,13 +18124,13 @@
       <c r="V366" s="17">
         <v>7.6300055473042363</v>
       </c>
-      <c r="W366" s="40">
-        <v>13.305049611362122</v>
-      </c>
-      <c r="X366" s="40">
-        <v>15.423706005304894</v>
-      </c>
-      <c r="Y366" s="40"/>
+      <c r="W366" s="17">
+        <v>13.321783717274457</v>
+      </c>
+      <c r="X366" s="17">
+        <v>15.314897969566843</v>
+      </c>
+      <c r="Y366" s="17"/>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="12" t="s">
@@ -18212,13 +18199,13 @@
       <c r="V367" s="17">
         <v>5.3262062599454367</v>
       </c>
-      <c r="W367" s="40">
-        <v>9.6656438888440732</v>
-      </c>
-      <c r="X367" s="40">
-        <v>9.3863485901501491</v>
-      </c>
-      <c r="Y367" s="40"/>
+      <c r="W367" s="17">
+        <v>9.448591772494396</v>
+      </c>
+      <c r="X367" s="17">
+        <v>9.8882363186435214</v>
+      </c>
+      <c r="Y367" s="17"/>
     </row>
     <row r="368" spans="1:25" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="21" t="s">
@@ -18287,13 +18274,13 @@
       <c r="V368" s="17">
         <v>7.4660630487812085</v>
       </c>
-      <c r="W368" s="40">
-        <v>10.479582170067019</v>
-      </c>
-      <c r="X368" s="40">
-        <v>9.9632783654318757</v>
-      </c>
-      <c r="Y368" s="40"/>
+      <c r="W368" s="17">
+        <v>10.502560593240531</v>
+      </c>
+      <c r="X368" s="17">
+        <v>10.09779018369143</v>
+      </c>
+      <c r="Y368" s="17"/>
     </row>
     <row r="369" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="21" t="s">
@@ -18362,13 +18349,13 @@
       <c r="V369" s="17">
         <v>8.0464607239202337</v>
       </c>
-      <c r="W369" s="40">
-        <v>8.4673039160677206</v>
-      </c>
-      <c r="X369" s="40">
-        <v>6.9337228360707428</v>
-      </c>
-      <c r="Y369" s="40"/>
+      <c r="W369" s="17">
+        <v>9.018879548854585</v>
+      </c>
+      <c r="X369" s="17">
+        <v>6.1423983199961611</v>
+      </c>
+      <c r="Y369" s="17"/>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="12" t="s">
@@ -18437,13 +18424,13 @@
       <c r="V370" s="17">
         <v>10.699010776433028</v>
       </c>
-      <c r="W370" s="40">
-        <v>10.985959676745665</v>
-      </c>
-      <c r="X370" s="40">
-        <v>10.888706810349504</v>
-      </c>
-      <c r="Y370" s="40"/>
+      <c r="W370" s="17">
+        <v>10.536161971565633</v>
+      </c>
+      <c r="X370" s="17">
+        <v>10.933146272040602</v>
+      </c>
+      <c r="Y370" s="17"/>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="12" t="s">
@@ -18512,13 +18499,13 @@
       <c r="V371" s="17">
         <v>18.597265753287886</v>
       </c>
-      <c r="W371" s="40">
-        <v>6.7306387627875637</v>
-      </c>
-      <c r="X371" s="40">
-        <v>11.876365416295556</v>
-      </c>
-      <c r="Y371" s="40"/>
+      <c r="W371" s="17">
+        <v>6.6953226851189811</v>
+      </c>
+      <c r="X371" s="17">
+        <v>11.921894573114969</v>
+      </c>
+      <c r="Y371" s="17"/>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="21" t="s">
@@ -18587,13 +18574,13 @@
       <c r="V372" s="17">
         <v>3.3473510231710719</v>
       </c>
-      <c r="W372" s="40">
-        <v>30.071270996376001</v>
-      </c>
-      <c r="X372" s="40">
-        <v>27.326994259135432</v>
-      </c>
-      <c r="Y372" s="40"/>
+      <c r="W372" s="17">
+        <v>30.263065841746851</v>
+      </c>
+      <c r="X372" s="17">
+        <v>27.202719082941272</v>
+      </c>
+      <c r="Y372" s="17"/>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="21"/>
@@ -18618,9 +18605,9 @@
       <c r="T373" s="17"/>
       <c r="U373" s="17"/>
       <c r="V373" s="17"/>
-      <c r="W373" s="40"/>
-      <c r="X373" s="40"/>
-      <c r="Y373" s="40"/>
+      <c r="W373" s="17"/>
+      <c r="X373" s="17"/>
+      <c r="Y373" s="17"/>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
@@ -18689,13 +18676,13 @@
       <c r="V374" s="17">
         <v>8.1276491471909793</v>
       </c>
-      <c r="W374" s="40">
-        <v>13.466346036099978</v>
-      </c>
-      <c r="X374" s="40">
-        <v>10.283590568449668</v>
-      </c>
-      <c r="Y374" s="40"/>
+      <c r="W374" s="17">
+        <v>13.485723769004565</v>
+      </c>
+      <c r="X374" s="17">
+        <v>10.397250453488255</v>
+      </c>
+      <c r="Y374" s="17"/>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B375" s="17"/>
@@ -18719,9 +18706,9 @@
       <c r="T375" s="17"/>
       <c r="U375" s="17"/>
       <c r="V375" s="17"/>
-      <c r="W375" s="40"/>
-      <c r="X375" s="40"/>
-      <c r="Y375" s="40"/>
+      <c r="W375" s="17"/>
+      <c r="X375" s="17"/>
+      <c r="Y375" s="17"/>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
@@ -18790,13 +18777,13 @@
       <c r="V376" s="17">
         <v>-49.252136704238957</v>
       </c>
-      <c r="W376" s="40">
-        <v>88.05769131242613</v>
-      </c>
-      <c r="X376" s="40">
-        <v>105.96459419132538</v>
-      </c>
-      <c r="Y376" s="40"/>
+      <c r="W376" s="17">
+        <v>87.485798796793659</v>
+      </c>
+      <c r="X376" s="17">
+        <v>106.33167521820081</v>
+      </c>
+      <c r="Y376" s="17"/>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B377" s="17"/>
@@ -18820,9 +18807,9 @@
       <c r="T377" s="17"/>
       <c r="U377" s="17"/>
       <c r="V377" s="17"/>
-      <c r="W377" s="40"/>
-      <c r="X377" s="40"/>
-      <c r="Y377" s="40"/>
+      <c r="W377" s="17"/>
+      <c r="X377" s="17"/>
+      <c r="Y377" s="17"/>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
@@ -18891,13 +18878,13 @@
       <c r="V378" s="17">
         <v>4.0855507408739129</v>
       </c>
-      <c r="W378" s="40">
-        <v>16.028255133756701</v>
-      </c>
-      <c r="X378" s="40">
-        <v>15.609923841600775</v>
-      </c>
-      <c r="Y378" s="40"/>
+      <c r="W378" s="17">
+        <v>16.027325140298515</v>
+      </c>
+      <c r="X378" s="17">
+        <v>15.721493214556247</v>
+      </c>
+      <c r="Y378" s="17"/>
     </row>
     <row r="379" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="15"/>
@@ -18922,9 +18909,9 @@
       <c r="T379" s="15"/>
       <c r="U379" s="15"/>
       <c r="V379" s="15"/>
-      <c r="W379" s="38"/>
-      <c r="X379" s="38"/>
-      <c r="Y379" s="38"/>
+      <c r="W379" s="15"/>
+      <c r="X379" s="15"/>
+      <c r="Y379" s="15"/>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
@@ -18943,7 +18930,7 @@
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.2">
@@ -18956,7 +18943,7 @@
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.2">
@@ -18992,9 +18979,9 @@
       <c r="T391" s="7"/>
       <c r="U391" s="7"/>
       <c r="V391" s="7"/>
-      <c r="W391" s="35"/>
-      <c r="X391" s="35"/>
-      <c r="Y391" s="39"/>
+      <c r="W391" s="7"/>
+      <c r="X391" s="7"/>
+      <c r="Y391" s="7"/>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
@@ -19063,13 +19050,13 @@
       <c r="V392" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W392" s="36" t="s">
+      <c r="W392" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X392" s="36" t="s">
+      <c r="X392" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y392" s="36"/>
+      <c r="Y392" s="9"/>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="18" t="s">
@@ -19138,13 +19125,13 @@
       <c r="V394" s="17">
         <v>-0.2909612687144687</v>
       </c>
-      <c r="W394" s="40">
-        <v>0.46691025982745771</v>
-      </c>
-      <c r="X394" s="40">
-        <v>1.2069476953128202</v>
-      </c>
-      <c r="Y394" s="40"/>
+      <c r="W394" s="17">
+        <v>0.4801875159407416</v>
+      </c>
+      <c r="X394" s="17">
+        <v>1.186970199201582</v>
+      </c>
+      <c r="Y394" s="17"/>
     </row>
     <row r="395" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="18" t="s">
@@ -19213,13 +19200,13 @@
       <c r="V395" s="17">
         <v>8.5294081090508342</v>
       </c>
-      <c r="W395" s="40">
-        <v>6.5400950439712773</v>
-      </c>
-      <c r="X395" s="40">
-        <v>3.6048105441285543</v>
-      </c>
-      <c r="Y395" s="40"/>
+      <c r="W395" s="17">
+        <v>6.522882996592557</v>
+      </c>
+      <c r="X395" s="17">
+        <v>3.5908636239536378</v>
+      </c>
+      <c r="Y395" s="17"/>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="12" t="s">
@@ -19288,13 +19275,13 @@
       <c r="V396" s="17">
         <v>5.0948590347841076</v>
       </c>
-      <c r="W396" s="40">
-        <v>5.319403053813204</v>
-      </c>
-      <c r="X396" s="40">
-        <v>1.9062741502379907</v>
-      </c>
-      <c r="Y396" s="40"/>
+      <c r="W396" s="17">
+        <v>5.3184608258656851</v>
+      </c>
+      <c r="X396" s="17">
+        <v>1.9526659634709631</v>
+      </c>
+      <c r="Y396" s="17"/>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="12" t="s">
@@ -19363,13 +19350,13 @@
       <c r="V397" s="17">
         <v>8.8823603584839788</v>
       </c>
-      <c r="W397" s="40">
-        <v>4.8918928148852387</v>
-      </c>
-      <c r="X397" s="40">
-        <v>1.2974470435709975</v>
-      </c>
-      <c r="Y397" s="40"/>
+      <c r="W397" s="17">
+        <v>4.8568516813804194</v>
+      </c>
+      <c r="X397" s="17">
+        <v>1.3431534562055987</v>
+      </c>
+      <c r="Y397" s="17"/>
     </row>
     <row r="398" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A398" s="21" t="s">
@@ -19438,13 +19425,13 @@
       <c r="V398" s="17">
         <v>4.4768777343428212</v>
       </c>
-      <c r="W398" s="40">
-        <v>5.1438913256673544</v>
-      </c>
-      <c r="X398" s="40">
-        <v>6.2548059341188207</v>
-      </c>
-      <c r="Y398" s="40"/>
+      <c r="W398" s="17">
+        <v>5.1382489065533719</v>
+      </c>
+      <c r="X398" s="17">
+        <v>5.8243404270486394</v>
+      </c>
+      <c r="Y398" s="17"/>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="12" t="s">
@@ -19513,13 +19500,13 @@
       <c r="V399" s="17">
         <v>10.050542854806309</v>
       </c>
-      <c r="W399" s="40">
-        <v>12.124707064843477</v>
-      </c>
-      <c r="X399" s="40">
-        <v>8.7682665146287491</v>
-      </c>
-      <c r="Y399" s="40"/>
+      <c r="W399" s="17">
+        <v>12.151163095022284</v>
+      </c>
+      <c r="X399" s="17">
+        <v>8.7784808930162654</v>
+      </c>
+      <c r="Y399" s="17"/>
     </row>
     <row r="400" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="18" t="s">
@@ -19588,13 +19575,13 @@
       <c r="V400" s="17">
         <v>5.3665446534042758</v>
       </c>
-      <c r="W400" s="40">
-        <v>9.204965963781973</v>
-      </c>
-      <c r="X400" s="40">
-        <v>7.1515463022651602</v>
-      </c>
-      <c r="Y400" s="40"/>
+      <c r="W400" s="17">
+        <v>9.2289937899219012</v>
+      </c>
+      <c r="X400" s="17">
+        <v>7.1245739746917565</v>
+      </c>
+      <c r="Y400" s="17"/>
     </row>
     <row r="401" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A401" s="21" t="s">
@@ -19663,13 +19650,13 @@
       <c r="V401" s="17">
         <v>4.2230356952304788</v>
       </c>
-      <c r="W401" s="40">
-        <v>8.6999412342677402</v>
-      </c>
-      <c r="X401" s="40">
-        <v>5.4648350505999161</v>
-      </c>
-      <c r="Y401" s="40"/>
+      <c r="W401" s="17">
+        <v>8.6974947226424462</v>
+      </c>
+      <c r="X401" s="17">
+        <v>5.4607128649586798</v>
+      </c>
+      <c r="Y401" s="17"/>
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="12" t="s">
@@ -19738,13 +19725,13 @@
       <c r="V402" s="17">
         <v>6.3394295014840765</v>
       </c>
-      <c r="W402" s="40">
-        <v>23.868600667826897</v>
-      </c>
-      <c r="X402" s="40">
-        <v>13.142589775587794</v>
-      </c>
-      <c r="Y402" s="40"/>
+      <c r="W402" s="17">
+        <v>24.01659371988913</v>
+      </c>
+      <c r="X402" s="17">
+        <v>12.987166657486711</v>
+      </c>
+      <c r="Y402" s="17"/>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="12" t="s">
@@ -19813,13 +19800,13 @@
       <c r="V403" s="17">
         <v>7.1581354222540909</v>
       </c>
-      <c r="W403" s="40">
-        <v>32.11552355826646</v>
-      </c>
-      <c r="X403" s="40">
-        <v>23.439683083183454</v>
-      </c>
-      <c r="Y403" s="40"/>
+      <c r="W403" s="17">
+        <v>32.495417487119539</v>
+      </c>
+      <c r="X403" s="17">
+        <v>23.181037405762268</v>
+      </c>
+      <c r="Y403" s="17"/>
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="12" t="s">
@@ -19888,13 +19875,13 @@
       <c r="V404" s="17">
         <v>9.1913193198984686</v>
       </c>
-      <c r="W404" s="40">
-        <v>7.9653785405362498</v>
-      </c>
-      <c r="X404" s="40">
-        <v>4.0156276593061477</v>
-      </c>
-      <c r="Y404" s="40"/>
+      <c r="W404" s="17">
+        <v>7.9973142303746698</v>
+      </c>
+      <c r="X404" s="17">
+        <v>4.2812143051580165</v>
+      </c>
+      <c r="Y404" s="17"/>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="12" t="s">
@@ -19963,13 +19950,13 @@
       <c r="V405" s="17">
         <v>4.7625923810169439</v>
       </c>
-      <c r="W405" s="40">
-        <v>7.1441983425688704</v>
-      </c>
-      <c r="X405" s="40">
-        <v>8.8672009522479982</v>
-      </c>
-      <c r="Y405" s="40"/>
+      <c r="W405" s="17">
+        <v>7.1597432589147729</v>
+      </c>
+      <c r="X405" s="17">
+        <v>8.7612920700364896</v>
+      </c>
+      <c r="Y405" s="17"/>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="12" t="s">
@@ -20038,13 +20025,13 @@
       <c r="V406" s="17">
         <v>2.2264156427042252</v>
       </c>
-      <c r="W406" s="40">
-        <v>5.3100398422748043</v>
-      </c>
-      <c r="X406" s="40">
-        <v>3.5511811113235581</v>
-      </c>
-      <c r="Y406" s="40"/>
+      <c r="W406" s="17">
+        <v>5.115710653317592</v>
+      </c>
+      <c r="X406" s="17">
+        <v>4.0011602002334286</v>
+      </c>
+      <c r="Y406" s="17"/>
     </row>
     <row r="407" spans="1:25" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21" t="s">
@@ -20113,13 +20100,13 @@
       <c r="V407" s="17">
         <v>6.3378919984716333</v>
       </c>
-      <c r="W407" s="40">
-        <v>9.1162278941793886</v>
-      </c>
-      <c r="X407" s="40">
-        <v>6.6615811748881271</v>
-      </c>
-      <c r="Y407" s="40"/>
+      <c r="W407" s="17">
+        <v>9.1373013961375733</v>
+      </c>
+      <c r="X407" s="17">
+        <v>6.7150529800702969</v>
+      </c>
+      <c r="Y407" s="17"/>
     </row>
     <row r="408" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A408" s="21" t="s">
@@ -20188,13 +20175,13 @@
       <c r="V408" s="17">
         <v>5.3224676212297481</v>
       </c>
-      <c r="W408" s="40">
-        <v>4.025821020618082</v>
-      </c>
-      <c r="X408" s="40">
-        <v>2.7697105710410739</v>
-      </c>
-      <c r="Y408" s="40"/>
+      <c r="W408" s="17">
+        <v>4.5548109188092099</v>
+      </c>
+      <c r="X408" s="17">
+        <v>2.1119135141235432</v>
+      </c>
+      <c r="Y408" s="17"/>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="12" t="s">
@@ -20263,13 +20250,13 @@
       <c r="V409" s="17">
         <v>8.2239698404766415</v>
       </c>
-      <c r="W409" s="40">
-        <v>7.4050708276282649</v>
-      </c>
-      <c r="X409" s="40">
-        <v>6.9502317233458797</v>
-      </c>
-      <c r="Y409" s="40"/>
+      <c r="W409" s="17">
+        <v>6.9870790254736193</v>
+      </c>
+      <c r="X409" s="17">
+        <v>6.9666932341706911</v>
+      </c>
+      <c r="Y409" s="17"/>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="12" t="s">
@@ -20338,13 +20325,13 @@
       <c r="V410" s="17">
         <v>14.522457605927457</v>
       </c>
-      <c r="W410" s="40">
-        <v>3.6620345376806824</v>
-      </c>
-      <c r="X410" s="40">
-        <v>7.3699313342488182</v>
-      </c>
-      <c r="Y410" s="40"/>
+      <c r="W410" s="17">
+        <v>3.6276953447339935</v>
+      </c>
+      <c r="X410" s="17">
+        <v>7.393447033156562</v>
+      </c>
+      <c r="Y410" s="17"/>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="21" t="s">
@@ -20413,13 +20400,13 @@
       <c r="V411" s="17">
         <v>1.9868056601105337</v>
       </c>
-      <c r="W411" s="40">
-        <v>28.448569085436702</v>
-      </c>
-      <c r="X411" s="40">
-        <v>20.910339717637953</v>
-      </c>
-      <c r="Y411" s="40"/>
+      <c r="W411" s="17">
+        <v>28.636100231183576</v>
+      </c>
+      <c r="X411" s="17">
+        <v>20.802995411689835</v>
+      </c>
+      <c r="Y411" s="17"/>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="21"/>
@@ -20444,9 +20431,9 @@
       <c r="T412" s="17"/>
       <c r="U412" s="17"/>
       <c r="V412" s="17"/>
-      <c r="W412" s="40"/>
-      <c r="X412" s="40"/>
-      <c r="Y412" s="40"/>
+      <c r="W412" s="17"/>
+      <c r="X412" s="17"/>
+      <c r="Y412" s="17"/>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
@@ -20515,13 +20502,13 @@
       <c r="V413" s="17">
         <v>5.7147331321929471</v>
       </c>
-      <c r="W413" s="40">
-        <v>7.5703324881848602</v>
-      </c>
-      <c r="X413" s="40">
-        <v>5.5680795805252501</v>
-      </c>
-      <c r="Y413" s="40"/>
+      <c r="W413" s="17">
+        <v>7.5809821277173199</v>
+      </c>
+      <c r="X413" s="17">
+        <v>5.5458511709648945</v>
+      </c>
+      <c r="Y413" s="17"/>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B414" s="17"/>
@@ -20545,9 +20532,9 @@
       <c r="T414" s="17"/>
       <c r="U414" s="17"/>
       <c r="V414" s="17"/>
-      <c r="W414" s="40"/>
-      <c r="X414" s="40"/>
-      <c r="Y414" s="40"/>
+      <c r="W414" s="17"/>
+      <c r="X414" s="17"/>
+      <c r="Y414" s="17"/>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
@@ -20616,13 +20603,13 @@
       <c r="V415" s="17">
         <v>-51.572838923957818</v>
       </c>
-      <c r="W415" s="40">
-        <v>77.32854511413143</v>
-      </c>
-      <c r="X415" s="40">
-        <v>96.626972464992065</v>
-      </c>
-      <c r="Y415" s="40"/>
+      <c r="W415" s="17">
+        <v>76.76702294091308</v>
+      </c>
+      <c r="X415" s="17">
+        <v>97.013384218769602</v>
+      </c>
+      <c r="Y415" s="17"/>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B416" s="17"/>
@@ -20646,9 +20633,9 @@
       <c r="T416" s="17"/>
       <c r="U416" s="17"/>
       <c r="V416" s="17"/>
-      <c r="W416" s="40"/>
-      <c r="X416" s="40"/>
-      <c r="Y416" s="40"/>
+      <c r="W416" s="17"/>
+      <c r="X416" s="17"/>
+      <c r="Y416" s="17"/>
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
@@ -20717,13 +20704,13 @@
       <c r="V417" s="17">
         <v>1.704264534067363</v>
       </c>
-      <c r="W417" s="40">
-        <v>9.8956373241104956</v>
-      </c>
-      <c r="X417" s="40">
-        <v>10.465925460537548</v>
-      </c>
-      <c r="Y417" s="40"/>
+      <c r="W417" s="17">
+        <v>9.8872143149455951</v>
+      </c>
+      <c r="X417" s="17">
+        <v>10.450473829009937</v>
+      </c>
+      <c r="Y417" s="17"/>
     </row>
     <row r="418" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="15"/>
@@ -20748,9 +20735,9 @@
       <c r="T418" s="15"/>
       <c r="U418" s="15"/>
       <c r="V418" s="15"/>
-      <c r="W418" s="38"/>
-      <c r="X418" s="38"/>
-      <c r="Y418" s="38"/>
+      <c r="W418" s="15"/>
+      <c r="X418" s="15"/>
+      <c r="Y418" s="15"/>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
@@ -20764,7 +20751,7 @@
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.2">
@@ -20795,13 +20782,13 @@
       <c r="T425" s="3"/>
       <c r="U425" s="3"/>
       <c r="V425" s="3"/>
-      <c r="W425" s="34"/>
-      <c r="X425" s="34"/>
-      <c r="Y425" s="34"/>
+      <c r="W425" s="3"/>
+      <c r="X425" s="3"/>
+      <c r="Y425" s="3"/>
     </row>
     <row r="426" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -20824,9 +20811,9 @@
       <c r="T426" s="3"/>
       <c r="U426" s="3"/>
       <c r="V426" s="3"/>
-      <c r="W426" s="34"/>
-      <c r="X426" s="34"/>
-      <c r="Y426" s="34"/>
+      <c r="W426" s="3"/>
+      <c r="X426" s="3"/>
+      <c r="Y426" s="3"/>
     </row>
     <row r="427" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
@@ -20853,9 +20840,9 @@
       <c r="T427" s="3"/>
       <c r="U427" s="3"/>
       <c r="V427" s="3"/>
-      <c r="W427" s="34"/>
-      <c r="X427" s="34"/>
-      <c r="Y427" s="34"/>
+      <c r="W427" s="3"/>
+      <c r="X427" s="3"/>
+      <c r="Y427" s="3"/>
     </row>
     <row r="428" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
@@ -20880,9 +20867,9 @@
       <c r="T428" s="3"/>
       <c r="U428" s="3"/>
       <c r="V428" s="3"/>
-      <c r="W428" s="34"/>
-      <c r="X428" s="34"/>
-      <c r="Y428" s="34"/>
+      <c r="W428" s="3"/>
+      <c r="X428" s="3"/>
+      <c r="Y428" s="3"/>
     </row>
     <row r="429" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
@@ -20909,9 +20896,9 @@
       <c r="T429" s="7"/>
       <c r="U429" s="7"/>
       <c r="V429" s="7"/>
-      <c r="W429" s="35"/>
-      <c r="X429" s="35"/>
-      <c r="Y429" s="35"/>
+      <c r="W429" s="7"/>
+      <c r="X429" s="7"/>
+      <c r="Y429" s="7"/>
     </row>
     <row r="430" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
@@ -20980,13 +20967,13 @@
       <c r="V430" s="9">
         <v>2020</v>
       </c>
-      <c r="W430" s="36">
+      <c r="W430" s="9">
         <v>2021</v>
       </c>
-      <c r="X430" s="36">
+      <c r="X430" s="9">
         <v>2022</v>
       </c>
-      <c r="Y430" s="36">
+      <c r="Y430" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -21057,14 +21044,14 @@
       <c r="V432" s="17">
         <v>102.69789337826805</v>
       </c>
-      <c r="W432" s="40">
+      <c r="W432" s="17">
         <v>110.09887623844212</v>
       </c>
-      <c r="X432" s="40">
-        <v>117.92538679831441</v>
-      </c>
-      <c r="Y432" s="40">
-        <v>126.57247720061508</v>
+      <c r="X432" s="17">
+        <v>117.95980155989756</v>
+      </c>
+      <c r="Y432" s="17">
+        <v>126.60813502257429</v>
       </c>
     </row>
     <row r="433" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21134,14 +21121,14 @@
       <c r="V433" s="17">
         <v>99.66603011725465</v>
       </c>
-      <c r="W433" s="40">
+      <c r="W433" s="17">
         <v>101.00993203237611</v>
       </c>
-      <c r="X433" s="40">
-        <v>108.82941548393951</v>
-      </c>
-      <c r="Y433" s="40">
-        <v>111.51568086265884</v>
+      <c r="X433" s="17">
+        <v>108.84697567784151</v>
+      </c>
+      <c r="Y433" s="17">
+        <v>111.86805727742146</v>
       </c>
     </row>
     <row r="434" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21211,14 +21198,14 @@
       <c r="V434" s="17">
         <v>99.685285993147815</v>
       </c>
-      <c r="W434" s="40">
+      <c r="W434" s="17">
         <v>128.28614185059013</v>
       </c>
-      <c r="X434" s="40">
-        <v>184.151183708068</v>
-      </c>
-      <c r="Y434" s="40">
-        <v>149.43325971210197</v>
+      <c r="X434" s="17">
+        <v>184.15266636049074</v>
+      </c>
+      <c r="Y434" s="17">
+        <v>149.57979423303684</v>
       </c>
     </row>
     <row r="435" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21288,14 +21275,14 @@
       <c r="V435" s="17">
         <v>97.049243713635093</v>
       </c>
-      <c r="W435" s="40">
+      <c r="W435" s="17">
         <v>96.277795866955771</v>
       </c>
-      <c r="X435" s="40">
-        <v>101.78268322849328</v>
-      </c>
-      <c r="Y435" s="40">
-        <v>103.80255422061886</v>
+      <c r="X435" s="17">
+        <v>101.77462852276398</v>
+      </c>
+      <c r="Y435" s="17">
+        <v>104.359113838976</v>
       </c>
     </row>
     <row r="436" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -21365,14 +21352,14 @@
       <c r="V436" s="17">
         <v>103.70635230946618</v>
       </c>
-      <c r="W436" s="40">
+      <c r="W436" s="17">
         <v>105.74555802079794</v>
       </c>
-      <c r="X436" s="40">
-        <v>115.27760612078038</v>
-      </c>
-      <c r="Y436" s="40">
-        <v>123.2319024729598</v>
+      <c r="X436" s="17">
+        <v>115.27793703082392</v>
+      </c>
+      <c r="Y436" s="17">
+        <v>123.27895066642273</v>
       </c>
     </row>
     <row r="437" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21442,14 +21429,14 @@
       <c r="V437" s="17">
         <v>105.1582437522016</v>
       </c>
-      <c r="W437" s="40">
+      <c r="W437" s="17">
         <v>109.08447910875108</v>
       </c>
-      <c r="X437" s="40">
-        <v>116.52023890075249</v>
-      </c>
-      <c r="Y437" s="40">
-        <v>121.61215110450803</v>
+      <c r="X437" s="17">
+        <v>116.60865718366809</v>
+      </c>
+      <c r="Y437" s="17">
+        <v>121.63153161386259</v>
       </c>
     </row>
     <row r="438" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21519,14 +21506,14 @@
       <c r="V438" s="17">
         <v>103.59684211272433</v>
       </c>
-      <c r="W438" s="40">
+      <c r="W438" s="17">
         <v>105.66460437826011</v>
       </c>
-      <c r="X438" s="40">
-        <v>110.11766960559804</v>
-      </c>
-      <c r="Y438" s="40">
-        <v>115.62366781713887</v>
+      <c r="X438" s="17">
+        <v>110.11688638473176</v>
+      </c>
+      <c r="Y438" s="17">
+        <v>115.69690676588868</v>
       </c>
     </row>
     <row r="439" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -21596,14 +21583,14 @@
       <c r="V439" s="17">
         <v>101.27716066805826</v>
       </c>
-      <c r="W439" s="40">
+      <c r="W439" s="17">
         <v>102.60498351826391</v>
       </c>
-      <c r="X439" s="40">
-        <v>107.45515624490096</v>
-      </c>
-      <c r="Y439" s="40">
-        <v>113.34706448097789</v>
+      <c r="X439" s="17">
+        <v>107.45840049720294</v>
+      </c>
+      <c r="Y439" s="17">
+        <v>113.55861747571865</v>
       </c>
     </row>
     <row r="440" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21673,14 +21660,14 @@
       <c r="V440" s="17">
         <v>106.96792621799769</v>
       </c>
-      <c r="W440" s="40">
+      <c r="W440" s="17">
         <v>110.47753743024329</v>
       </c>
-      <c r="X440" s="40">
-        <v>118.85776488659697</v>
-      </c>
-      <c r="Y440" s="40">
-        <v>127.36729439584605</v>
+      <c r="X440" s="17">
+        <v>118.83384795448907</v>
+      </c>
+      <c r="Y440" s="17">
+        <v>127.33137238092702</v>
       </c>
     </row>
     <row r="441" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21750,14 +21737,14 @@
       <c r="V441" s="17">
         <v>109.14649241036483</v>
       </c>
-      <c r="W441" s="40">
+      <c r="W441" s="17">
         <v>114.80773638757988</v>
       </c>
-      <c r="X441" s="40">
-        <v>120.38299930326619</v>
-      </c>
-      <c r="Y441" s="40">
-        <v>125.76538549540712</v>
+      <c r="X441" s="17">
+        <v>120.36314155087599</v>
+      </c>
+      <c r="Y441" s="17">
+        <v>126.07858815531445</v>
       </c>
     </row>
     <row r="442" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21827,14 +21814,14 @@
       <c r="V442" s="17">
         <v>101.34218352910518</v>
       </c>
-      <c r="W442" s="40">
+      <c r="W442" s="17">
         <v>100.16623765859731</v>
       </c>
-      <c r="X442" s="40">
-        <v>100.8418156772542</v>
-      </c>
-      <c r="Y442" s="40">
-        <v>101.87520772133981</v>
+      <c r="X442" s="17">
+        <v>100.86219370028056</v>
+      </c>
+      <c r="Y442" s="17">
+        <v>101.91785289700314</v>
       </c>
     </row>
     <row r="443" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21904,14 +21891,14 @@
       <c r="V443" s="17">
         <v>103.05241097740559</v>
       </c>
-      <c r="W443" s="40">
+      <c r="W443" s="17">
         <v>105.87301548268132</v>
       </c>
-      <c r="X443" s="40">
-        <v>111.96077302678995</v>
-      </c>
-      <c r="Y443" s="40">
-        <v>118.7035878293519</v>
+      <c r="X443" s="17">
+        <v>111.96106482856804</v>
+      </c>
+      <c r="Y443" s="17">
+        <v>118.70747875040439</v>
       </c>
     </row>
     <row r="444" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21981,14 +21968,14 @@
       <c r="V444" s="17">
         <v>104.88108788107814</v>
       </c>
-      <c r="W444" s="40">
+      <c r="W444" s="17">
         <v>108.06137557967183</v>
       </c>
-      <c r="X444" s="40">
-        <v>112.53077437068548</v>
-      </c>
-      <c r="Y444" s="40">
-        <v>118.87194699593128</v>
+      <c r="X444" s="17">
+        <v>112.51567733010819</v>
+      </c>
+      <c r="Y444" s="17">
+        <v>118.88472509535927</v>
       </c>
     </row>
     <row r="445" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22058,14 +22045,14 @@
       <c r="V445" s="17">
         <v>106.43625297179943</v>
       </c>
-      <c r="W445" s="40">
+      <c r="W445" s="17">
         <v>107.5654675636021</v>
       </c>
-      <c r="X445" s="40">
-        <v>108.90944584227672</v>
-      </c>
-      <c r="Y445" s="40">
-        <v>112.28072542954935</v>
+      <c r="X445" s="17">
+        <v>108.91106381715841</v>
+      </c>
+      <c r="Y445" s="17">
+        <v>112.36341188963759</v>
       </c>
     </row>
     <row r="446" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -22135,14 +22122,14 @@
       <c r="V446" s="17">
         <v>104.3242857614226</v>
       </c>
-      <c r="W446" s="40">
+      <c r="W446" s="17">
         <v>107.02246252537022</v>
       </c>
-      <c r="X446" s="40">
-        <v>111.59188992398809</v>
-      </c>
-      <c r="Y446" s="40">
-        <v>116.11335831909579</v>
+      <c r="X446" s="17">
+        <v>111.59188992398808</v>
+      </c>
+      <c r="Y446" s="17">
+        <v>115.99656124311906</v>
       </c>
     </row>
     <row r="447" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22212,14 +22199,14 @@
       <c r="V447" s="17">
         <v>104.63688286209695</v>
       </c>
-      <c r="W447" s="40">
+      <c r="W447" s="17">
         <v>107.02988848623276</v>
       </c>
-      <c r="X447" s="40">
-        <v>110.59826874285694</v>
-      </c>
-      <c r="Y447" s="40">
-        <v>114.67108391203054</v>
+      <c r="X447" s="17">
+        <v>110.58039155079607</v>
+      </c>
+      <c r="Y447" s="17">
+        <v>114.68084484830328</v>
       </c>
     </row>
     <row r="448" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22289,14 +22276,14 @@
       <c r="V448" s="17">
         <v>105.98152592570402</v>
       </c>
-      <c r="W448" s="40">
+      <c r="W448" s="17">
         <v>109.7524403327085</v>
       </c>
-      <c r="X448" s="40">
-        <v>113.00133279003643</v>
-      </c>
-      <c r="Y448" s="40">
-        <v>117.74412298347012</v>
+      <c r="X448" s="17">
+        <v>113.00137475625782</v>
+      </c>
+      <c r="Y448" s="17">
+        <v>117.76629116097016</v>
       </c>
     </row>
     <row r="449" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22366,14 +22353,14 @@
       <c r="V449" s="17">
         <v>105.10095133025533</v>
       </c>
-      <c r="W449" s="40">
+      <c r="W449" s="17">
         <v>106.50304065994945</v>
       </c>
-      <c r="X449" s="40">
-        <v>107.84850280740861</v>
-      </c>
-      <c r="Y449" s="40">
-        <v>113.57197184197547</v>
+      <c r="X449" s="17">
+        <v>107.85007142551797</v>
+      </c>
+      <c r="Y449" s="17">
+        <v>113.56359411339376</v>
       </c>
     </row>
     <row r="450" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22399,9 +22386,9 @@
       <c r="T450" s="17"/>
       <c r="U450" s="17"/>
       <c r="V450" s="17"/>
-      <c r="W450" s="40"/>
-      <c r="X450" s="40"/>
-      <c r="Y450" s="40"/>
+      <c r="W450" s="17"/>
+      <c r="X450" s="17"/>
+      <c r="Y450" s="17"/>
     </row>
     <row r="451" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
@@ -22470,14 +22457,14 @@
       <c r="V451" s="17">
         <v>102.35907166034491</v>
       </c>
-      <c r="W451" s="40">
+      <c r="W451" s="17">
         <v>104.69539542498735</v>
       </c>
-      <c r="X451" s="40">
-        <v>110.43383143751764</v>
-      </c>
-      <c r="Y451" s="40">
-        <v>115.36668564545072</v>
+      <c r="X451" s="17">
+        <v>110.44175736359696</v>
+      </c>
+      <c r="Y451" s="17">
+        <v>115.51819624290907</v>
       </c>
     </row>
     <row r="452" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22503,9 +22490,9 @@
       <c r="T452" s="17"/>
       <c r="U452" s="17"/>
       <c r="V452" s="17"/>
-      <c r="W452" s="40"/>
-      <c r="X452" s="40"/>
-      <c r="Y452" s="40"/>
+      <c r="W452" s="17"/>
+      <c r="X452" s="17"/>
+      <c r="Y452" s="17"/>
     </row>
     <row r="453" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
@@ -22574,14 +22561,14 @@
       <c r="V453" s="17">
         <v>103.04917608820941</v>
       </c>
-      <c r="W453" s="40">
+      <c r="W453" s="17">
         <v>107.98744722313285</v>
       </c>
-      <c r="X453" s="40">
-        <v>114.52115620998504</v>
-      </c>
-      <c r="Y453" s="40">
-        <v>119.95965339552026</v>
+      <c r="X453" s="17">
+        <v>114.53557606965646</v>
+      </c>
+      <c r="Y453" s="17">
+        <v>119.95285181382323</v>
       </c>
     </row>
     <row r="454" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22607,9 +22594,9 @@
       <c r="T454" s="17"/>
       <c r="U454" s="17"/>
       <c r="V454" s="17"/>
-      <c r="W454" s="40"/>
-      <c r="X454" s="40"/>
-      <c r="Y454" s="40"/>
+      <c r="W454" s="17"/>
+      <c r="X454" s="17"/>
+      <c r="Y454" s="17"/>
     </row>
     <row r="455" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
@@ -22678,14 +22665,14 @@
       <c r="V455" s="17">
         <v>102.40738304862762</v>
       </c>
-      <c r="W455" s="40">
+      <c r="W455" s="17">
         <v>104.80513195174433</v>
       </c>
-      <c r="X455" s="40">
-        <v>110.65367912249336</v>
-      </c>
-      <c r="Y455" s="40">
-        <v>115.8064205121279</v>
+      <c r="X455" s="17">
+        <v>110.66127389929686</v>
+      </c>
+      <c r="Y455" s="17">
+        <v>115.94235328022783</v>
       </c>
     </row>
     <row r="456" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22711,9 +22698,9 @@
       <c r="T456" s="15"/>
       <c r="U456" s="15"/>
       <c r="V456" s="15"/>
-      <c r="W456" s="38"/>
-      <c r="X456" s="38"/>
-      <c r="Y456" s="38"/>
+      <c r="W456" s="15"/>
+      <c r="X456" s="15"/>
+      <c r="Y456" s="15"/>
     </row>
     <row r="457" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
@@ -22740,9 +22727,9 @@
       <c r="T457" s="3"/>
       <c r="U457" s="3"/>
       <c r="V457" s="3"/>
-      <c r="W457" s="34"/>
-      <c r="X457" s="34"/>
-      <c r="Y457" s="34"/>
+      <c r="W457" s="3"/>
+      <c r="X457" s="3"/>
+      <c r="Y457" s="3"/>
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
@@ -22756,7 +22743,7 @@
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.2">
@@ -22769,7 +22756,7 @@
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.2">
@@ -22805,9 +22792,9 @@
       <c r="T468" s="7"/>
       <c r="U468" s="7"/>
       <c r="V468" s="7"/>
-      <c r="W468" s="35"/>
-      <c r="X468" s="35"/>
-      <c r="Y468" s="35"/>
+      <c r="W468" s="7"/>
+      <c r="X468" s="7"/>
+      <c r="Y468" s="7"/>
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
@@ -22876,13 +22863,13 @@
       <c r="V469" s="9">
         <v>2020</v>
       </c>
-      <c r="W469" s="36">
+      <c r="W469" s="9">
         <v>2021</v>
       </c>
-      <c r="X469" s="36">
+      <c r="X469" s="9">
         <v>2022</v>
       </c>
-      <c r="Y469" s="36">
+      <c r="Y469" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -22953,14 +22940,14 @@
       <c r="V471" s="17">
         <v>10.185311031910887</v>
       </c>
-      <c r="W471" s="40">
+      <c r="W471" s="17">
         <v>10.069164020582223</v>
       </c>
-      <c r="X471" s="40">
-        <v>9.5493500883448501</v>
-      </c>
-      <c r="Y471" s="40">
-        <v>9.4060052260166991</v>
+      <c r="X471" s="17">
+        <v>9.5517680442350059</v>
+      </c>
+      <c r="Y471" s="17">
+        <v>9.3967501793580155</v>
       </c>
     </row>
     <row r="472" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23030,14 +23017,14 @@
       <c r="V472" s="17">
         <v>28.399917585046559</v>
       </c>
-      <c r="W472" s="40">
+      <c r="W472" s="17">
         <v>28.88980911837572</v>
       </c>
-      <c r="X472" s="40">
-        <v>29.226236917653626</v>
-      </c>
-      <c r="Y472" s="40">
-        <v>28.134005490131699</v>
+      <c r="X472" s="17">
+        <v>29.221239936645727</v>
+      </c>
+      <c r="Y472" s="17">
+        <v>28.180686362086394</v>
       </c>
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.2">
@@ -23107,14 +23094,14 @@
       <c r="V473" s="17">
         <v>0.76350028475133092</v>
       </c>
-      <c r="W473" s="40">
+      <c r="W473" s="17">
         <v>0.95499830200166702</v>
       </c>
-      <c r="X473" s="40">
-        <v>1.2724440330481301</v>
-      </c>
-      <c r="Y473" s="40">
-        <v>0.95411664203790914</v>
+      <c r="X473" s="17">
+        <v>1.2722256238479055</v>
+      </c>
+      <c r="Y473" s="17">
+        <v>0.95433178369960137</v>
       </c>
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.2">
@@ -23184,14 +23171,14 @@
       <c r="V474" s="17">
         <v>17.6581790476138</v>
       </c>
-      <c r="W474" s="40">
+      <c r="W474" s="17">
         <v>17.640084696340029</v>
       </c>
-      <c r="X474" s="40">
-        <v>17.23944481385584</v>
-      </c>
-      <c r="Y474" s="40">
-        <v>16.148977254841551</v>
+      <c r="X474" s="17">
+        <v>17.229379413025146</v>
+      </c>
+      <c r="Y474" s="17">
+        <v>16.217975817872169</v>
       </c>
     </row>
     <row r="475" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
@@ -23261,14 +23248,14 @@
       <c r="V475" s="17">
         <v>3.4038873775634011</v>
       </c>
-      <c r="W475" s="40">
+      <c r="W475" s="17">
         <v>3.3536318163469221</v>
       </c>
-      <c r="X475" s="40">
-        <v>3.3877797960270275</v>
-      </c>
-      <c r="Y475" s="40">
-        <v>3.4892417700942162</v>
+      <c r="X475" s="17">
+        <v>3.387029283830937</v>
+      </c>
+      <c r="Y475" s="17">
+        <v>3.4720742022441389</v>
       </c>
     </row>
     <row r="476" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23338,14 +23325,14 @@
       <c r="V476" s="17">
         <v>6.574350875118026</v>
       </c>
-      <c r="W476" s="40">
+      <c r="W476" s="17">
         <v>6.9410943036871027</v>
       </c>
-      <c r="X476" s="40">
-        <v>7.3265682747226268</v>
-      </c>
-      <c r="Y476" s="40">
-        <v>7.5416698231580206</v>
+      <c r="X476" s="17">
+        <v>7.3326056159417341</v>
+      </c>
+      <c r="Y476" s="17">
+        <v>7.5363045582704871</v>
       </c>
     </row>
     <row r="477" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23415,14 +23402,14 @@
       <c r="V477" s="17">
         <v>61.414771383042556</v>
       </c>
-      <c r="W477" s="40">
+      <c r="W477" s="17">
         <v>61.041026861042056</v>
       </c>
-      <c r="X477" s="40">
-        <v>61.224412994001518</v>
-      </c>
-      <c r="Y477" s="40">
-        <v>62.459989283851606</v>
+      <c r="X477" s="17">
+        <v>61.226992019119251</v>
+      </c>
+      <c r="Y477" s="17">
+        <v>62.42256345855558</v>
       </c>
     </row>
     <row r="478" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -23492,14 +23479,14 @@
       <c r="V478" s="17">
         <v>18.479553716673756</v>
       </c>
-      <c r="W478" s="40">
+      <c r="W478" s="17">
         <v>18.045768186841119</v>
       </c>
-      <c r="X478" s="40">
-        <v>18.104912033499019</v>
-      </c>
-      <c r="Y478" s="40">
-        <v>18.263172308387919</v>
+      <c r="X478" s="17">
+        <v>18.101959706659095</v>
+      </c>
+      <c r="Y478" s="17">
+        <v>18.274174351908606</v>
       </c>
     </row>
     <row r="479" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23569,14 +23556,14 @@
       <c r="V479" s="17">
         <v>3.0696172067775183</v>
       </c>
-      <c r="W479" s="40">
+      <c r="W479" s="17">
         <v>3.1179000911558972</v>
       </c>
-      <c r="X479" s="40">
-        <v>3.6619290925822412</v>
-      </c>
-      <c r="Y479" s="40">
-        <v>4.0258307517969572</v>
+      <c r="X479" s="17">
+        <v>3.6649405709778011</v>
+      </c>
+      <c r="Y479" s="17">
+        <v>4.0191392887945678</v>
       </c>
     </row>
     <row r="480" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23646,14 +23633,14 @@
       <c r="V480" s="17">
         <v>1.4094209082023603</v>
       </c>
-      <c r="W480" s="40">
+      <c r="W480" s="17">
         <v>1.4692323011281929</v>
       </c>
-      <c r="X480" s="40">
-        <v>1.7937885752344063</v>
-      </c>
-      <c r="Y480" s="40">
-        <v>2.0975442009646286</v>
+      <c r="X480" s="17">
+        <v>1.7983426914250169</v>
+      </c>
+      <c r="Y480" s="17">
+        <v>2.1018701225585672</v>
       </c>
     </row>
     <row r="481" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23723,14 +23710,14 @@
       <c r="V481" s="17">
         <v>3.3035509279698858</v>
       </c>
-      <c r="W481" s="40">
+      <c r="W481" s="17">
         <v>3.297337965188226</v>
       </c>
-      <c r="X481" s="40">
-        <v>3.1586405061320648</v>
-      </c>
-      <c r="Y481" s="40">
-        <v>3.0096482992594455</v>
+      <c r="X481" s="17">
+        <v>3.1596736946037804</v>
+      </c>
+      <c r="Y481" s="17">
+        <v>3.0158651125427411</v>
       </c>
     </row>
     <row r="482" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23800,14 +23787,14 @@
       <c r="V482" s="17">
         <v>10.160550631022117</v>
       </c>
-      <c r="W482" s="40">
+      <c r="W482" s="17">
         <v>10.113788003398811</v>
       </c>
-      <c r="X482" s="40">
-        <v>10.099410895978908</v>
-      </c>
-      <c r="Y482" s="40">
-        <v>10.570125873447338</v>
+      <c r="X482" s="17">
+        <v>10.099177752228901</v>
+      </c>
+      <c r="Y482" s="17">
+        <v>10.549045807671177</v>
       </c>
     </row>
     <row r="483" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23877,14 +23864,14 @@
       <c r="V483" s="17">
         <v>6.025166477928507</v>
       </c>
-      <c r="W483" s="40">
+      <c r="W483" s="17">
         <v>5.8690624665383586</v>
       </c>
-      <c r="X483" s="40">
-        <v>5.6724706214827814</v>
-      </c>
-      <c r="Y483" s="40">
-        <v>5.6263207025689059</v>
+      <c r="X483" s="17">
+        <v>5.6602769110846403</v>
+      </c>
+      <c r="Y483" s="17">
+        <v>5.6341787886853778</v>
       </c>
     </row>
     <row r="484" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23954,14 +23941,14 @@
       <c r="V484" s="17">
         <v>6.3368150213289347</v>
       </c>
-      <c r="W484" s="40">
+      <c r="W484" s="17">
         <v>6.2980428038677134</v>
       </c>
-      <c r="X484" s="40">
-        <v>6.1322600204216311</v>
-      </c>
-      <c r="Y484" s="40">
-        <v>6.1144492318311015</v>
+      <c r="X484" s="17">
+        <v>6.1324881530454993</v>
+      </c>
+      <c r="Y484" s="17">
+        <v>6.1158533496487397</v>
       </c>
     </row>
     <row r="485" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -24031,14 +24018,14 @@
       <c r="V485" s="17">
         <v>5.295302556960654</v>
       </c>
-      <c r="W485" s="40">
+      <c r="W485" s="17">
         <v>5.2913265409394796</v>
       </c>
-      <c r="X485" s="40">
-        <v>5.0582039881026644</v>
-      </c>
-      <c r="Y485" s="40">
-        <v>4.9045608736901114</v>
+      <c r="X485" s="17">
+        <v>5.0830577773333125</v>
+      </c>
+      <c r="Y485" s="17">
+        <v>4.8871501877900192</v>
       </c>
     </row>
     <row r="486" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24108,14 +24095,14 @@
       <c r="V486" s="17">
         <v>4.007969096422598</v>
       </c>
-      <c r="W486" s="40">
+      <c r="W486" s="17">
         <v>4.103281794210929</v>
       </c>
-      <c r="X486" s="40">
-        <v>4.0135836189677647</v>
-      </c>
-      <c r="Y486" s="40">
-        <v>4.0356057949192561</v>
+      <c r="X486" s="17">
+        <v>3.9966350476213228</v>
+      </c>
+      <c r="Y486" s="17">
+        <v>4.016035712053653</v>
       </c>
     </row>
     <row r="487" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24185,14 +24172,14 @@
       <c r="V487" s="17">
         <v>1.8118751376795961</v>
       </c>
-      <c r="W487" s="40">
+      <c r="W487" s="17">
         <v>1.9873125783271925</v>
       </c>
-      <c r="X487" s="40">
-        <v>1.8693396616358864</v>
-      </c>
-      <c r="Y487" s="40">
-        <v>1.8963376690437641</v>
+      <c r="X487" s="17">
+        <v>1.8684020313639444</v>
+      </c>
+      <c r="Y487" s="17">
+        <v>1.8942056465673669</v>
       </c>
     </row>
     <row r="488" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24262,14 +24249,14 @@
       <c r="V488" s="17">
         <v>1.5149497020766169</v>
       </c>
-      <c r="W488" s="40">
+      <c r="W488" s="17">
         <v>1.447974129446131</v>
       </c>
-      <c r="X488" s="40">
-        <v>1.6598739799641378</v>
-      </c>
-      <c r="Y488" s="40">
-        <v>1.916393577942183</v>
+      <c r="X488" s="17">
+        <v>1.662037682775946</v>
+      </c>
+      <c r="Y488" s="17">
+        <v>1.9150450903347767</v>
       </c>
     </row>
     <row r="489" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24295,9 +24282,9 @@
       <c r="T489" s="17"/>
       <c r="U489" s="17"/>
       <c r="V489" s="17"/>
-      <c r="W489" s="40"/>
-      <c r="X489" s="40"/>
-      <c r="Y489" s="40"/>
+      <c r="W489" s="17"/>
+      <c r="X489" s="17"/>
+      <c r="Y489" s="17"/>
     </row>
     <row r="490" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="14" t="s">
@@ -24366,13 +24353,13 @@
       <c r="V490" s="17">
         <v>100</v>
       </c>
-      <c r="W490" s="40">
+      <c r="W490" s="17">
         <v>100</v>
       </c>
-      <c r="X490" s="40">
+      <c r="X490" s="17">
         <v>100</v>
       </c>
-      <c r="Y490" s="40">
+      <c r="Y490" s="17">
         <v>100</v>
       </c>
     </row>
@@ -24443,14 +24430,14 @@
       <c r="V491" s="17">
         <v>92.955535915064161</v>
       </c>
-      <c r="W491" s="40">
+      <c r="W491" s="17">
         <v>96.56540703460162</v>
       </c>
-      <c r="X491" s="40">
-        <v>94.433238499310974</v>
-      </c>
-      <c r="Y491" s="40">
-        <v>90.082548838798431</v>
+      <c r="X491" s="17">
+        <v>94.450122806149963</v>
+      </c>
+      <c r="Y491" s="17">
+        <v>90.104556838553435</v>
       </c>
     </row>
     <row r="492" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24520,14 +24507,14 @@
       <c r="V492" s="17">
         <v>7.0444640849358446</v>
       </c>
-      <c r="W492" s="40">
+      <c r="W492" s="17">
         <v>3.43459296539839</v>
       </c>
-      <c r="X492" s="40">
-        <v>5.5667615006890259</v>
-      </c>
-      <c r="Y492" s="40">
-        <v>9.917451161201571</v>
+      <c r="X492" s="17">
+        <v>5.5498771938500324</v>
+      </c>
+      <c r="Y492" s="17">
+        <v>9.8954431614465559</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.2">
@@ -24552,9 +24539,9 @@
       <c r="T493" s="17"/>
       <c r="U493" s="17"/>
       <c r="V493" s="17"/>
-      <c r="W493" s="40"/>
-      <c r="X493" s="40"/>
-      <c r="Y493" s="40"/>
+      <c r="W493" s="17"/>
+      <c r="X493" s="17"/>
+      <c r="Y493" s="17"/>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
@@ -24623,13 +24610,13 @@
       <c r="V494" s="17">
         <v>100</v>
       </c>
-      <c r="W494" s="40">
+      <c r="W494" s="17">
         <v>100</v>
       </c>
-      <c r="X494" s="40">
+      <c r="X494" s="17">
         <v>100</v>
       </c>
-      <c r="Y494" s="40">
+      <c r="Y494" s="17">
         <v>100</v>
       </c>
     </row>
@@ -24656,9 +24643,9 @@
       <c r="T495" s="15"/>
       <c r="U495" s="15"/>
       <c r="V495" s="15"/>
-      <c r="W495" s="38"/>
-      <c r="X495" s="38"/>
-      <c r="Y495" s="38"/>
+      <c r="W495" s="15"/>
+      <c r="X495" s="15"/>
+      <c r="Y495" s="15"/>
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
@@ -24677,7 +24664,7 @@
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.2">
@@ -24690,7 +24677,7 @@
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.2">
@@ -24726,9 +24713,9 @@
       <c r="T507" s="7"/>
       <c r="U507" s="7"/>
       <c r="V507" s="7"/>
-      <c r="W507" s="35"/>
-      <c r="X507" s="35"/>
-      <c r="Y507" s="35"/>
+      <c r="W507" s="7"/>
+      <c r="X507" s="7"/>
+      <c r="Y507" s="7"/>
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
@@ -24797,13 +24784,13 @@
       <c r="V508" s="9">
         <v>2020</v>
       </c>
-      <c r="W508" s="36">
+      <c r="W508" s="9">
         <v>2021</v>
       </c>
-      <c r="X508" s="36">
+      <c r="X508" s="9">
         <v>2022</v>
       </c>
-      <c r="Y508" s="36">
+      <c r="Y508" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -24874,14 +24861,14 @@
       <c r="V510" s="17">
         <v>10.151707571626629</v>
       </c>
-      <c r="W510" s="40">
+      <c r="W510" s="17">
         <v>9.5749851837800009</v>
       </c>
-      <c r="X510" s="40">
-        <v>8.9426996732920028</v>
-      </c>
-      <c r="Y510" s="40">
-        <v>8.5732670489604814</v>
+      <c r="X510" s="17">
+        <v>8.9429961290592548</v>
+      </c>
+      <c r="Y510" s="17">
+        <v>8.5736641730890817</v>
       </c>
     </row>
     <row r="511" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24951,14 +24938,14 @@
       <c r="V511" s="17">
         <v>29.167301996634841</v>
       </c>
-      <c r="W511" s="40">
+      <c r="W511" s="17">
         <v>29.943886987581429</v>
       </c>
-      <c r="X511" s="40">
-        <v>29.657104257749346</v>
-      </c>
-      <c r="Y511" s="40">
-        <v>29.105565622872366</v>
+      <c r="X511" s="17">
+        <v>29.64937767768831</v>
+      </c>
+      <c r="Y511" s="17">
+        <v>29.100193001138379</v>
       </c>
     </row>
     <row r="512" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25028,14 +25015,14 @@
       <c r="V512" s="17">
         <v>0.78397909562026213</v>
       </c>
-      <c r="W512" s="40">
+      <c r="W512" s="17">
         <v>0.7793821173194484</v>
       </c>
-      <c r="X512" s="40">
-        <v>0.76307339996292323</v>
-      </c>
-      <c r="Y512" s="40">
-        <v>0.73660492264672262</v>
+      <c r="X512" s="17">
+        <v>0.76299103584908157</v>
+      </c>
+      <c r="Y512" s="17">
+        <v>0.73701589733773898</v>
       </c>
     </row>
     <row r="513" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25105,14 +25092,14 @@
       <c r="V513" s="17">
         <v>18.624306026116493</v>
       </c>
-      <c r="W513" s="40">
+      <c r="W513" s="17">
         <v>19.182363139738783</v>
       </c>
-      <c r="X513" s="40">
-        <v>18.704733283321264</v>
-      </c>
-      <c r="Y513" s="40">
-        <v>17.948055290577528</v>
+      <c r="X513" s="17">
+        <v>18.696633613681687</v>
+      </c>
+      <c r="Y513" s="17">
+        <v>17.952158122791641</v>
       </c>
     </row>
     <row r="514" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -25182,14 +25169,14 @@
       <c r="V514" s="17">
         <v>3.3596664451571154</v>
       </c>
-      <c r="W514" s="40">
+      <c r="W514" s="17">
         <v>3.3203267890761294</v>
       </c>
-      <c r="X514" s="40">
-        <v>3.245430882298963</v>
-      </c>
-      <c r="Y514" s="40">
-        <v>3.2665425945181967</v>
+      <c r="X514" s="17">
+        <v>3.2449354662569334</v>
+      </c>
+      <c r="Y514" s="17">
+        <v>3.2534974291764787</v>
       </c>
     </row>
     <row r="515" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25259,14 +25246,14 @@
       <c r="V515" s="17">
         <v>6.3993504297409745</v>
       </c>
-      <c r="W515" s="40">
+      <c r="W515" s="17">
         <v>6.6618149414470667</v>
       </c>
-      <c r="X515" s="40">
-        <v>6.9438666921661936</v>
-      </c>
-      <c r="Y515" s="40">
-        <v>7.1543628151299208</v>
+      <c r="X515" s="17">
+        <v>6.9448175619006056</v>
+      </c>
+      <c r="Y515" s="17">
+        <v>7.157521551832521</v>
       </c>
     </row>
     <row r="516" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -25336,14 +25323,14 @@
       <c r="V516" s="17">
         <v>60.680990431738536</v>
       </c>
-      <c r="W516" s="40">
+      <c r="W516" s="17">
         <v>60.481127828638584</v>
       </c>
-      <c r="X516" s="40">
-        <v>61.400196068958643</v>
-      </c>
-      <c r="Y516" s="40">
-        <v>62.321167328167171</v>
+      <c r="X516" s="17">
+        <v>61.407626193252426</v>
+      </c>
+      <c r="Y516" s="17">
+        <v>62.326142825772543</v>
       </c>
     </row>
     <row r="517" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -25413,14 +25400,14 @@
       <c r="V517" s="17">
         <v>18.676964783164355</v>
       </c>
-      <c r="W517" s="40">
+      <c r="W517" s="17">
         <v>18.413421758726635</v>
       </c>
-      <c r="X517" s="40">
-        <v>18.606783271913876</v>
-      </c>
-      <c r="Y517" s="40">
-        <v>18.588586023276179</v>
+      <c r="X517" s="17">
+        <v>18.604522610407649</v>
+      </c>
+      <c r="Y517" s="17">
+        <v>18.589515317164654</v>
       </c>
     </row>
     <row r="518" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25490,14 +25477,14 @@
       <c r="V518" s="17">
         <v>2.9373586900995949</v>
       </c>
-      <c r="W518" s="40">
+      <c r="W518" s="17">
         <v>2.9547163209107739</v>
       </c>
-      <c r="X518" s="40">
-        <v>3.4023932768061966</v>
-      </c>
-      <c r="Y518" s="40">
-        <v>3.6465150100534407</v>
+      <c r="X518" s="17">
+        <v>3.4061211031973695</v>
+      </c>
+      <c r="Y518" s="17">
+        <v>3.6462633866977936</v>
       </c>
     </row>
     <row r="519" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25567,14 +25554,14 @@
       <c r="V519" s="17">
         <v>1.3217741821685316</v>
       </c>
-      <c r="W519" s="40">
+      <c r="W519" s="17">
         <v>1.3398213533144878</v>
       </c>
-      <c r="X519" s="40">
-        <v>1.6455392065198919</v>
-      </c>
-      <c r="Y519" s="40">
-        <v>1.9241122786441234</v>
+      <c r="X519" s="17">
+        <v>1.6501075381038373</v>
+      </c>
+      <c r="Y519" s="17">
+        <v>1.9258166580650531</v>
       </c>
     </row>
     <row r="520" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25644,14 +25631,14 @@
       <c r="V520" s="17">
         <v>3.3366994315111955</v>
       </c>
-      <c r="W520" s="40">
+      <c r="W520" s="17">
         <v>3.4464317536995401</v>
       </c>
-      <c r="X520" s="40">
-        <v>3.4590885822832678</v>
-      </c>
-      <c r="Y520" s="40">
-        <v>3.4082202825418051</v>
+      <c r="X520" s="17">
+        <v>3.4597692428198696</v>
+      </c>
+      <c r="Y520" s="17">
+        <v>3.4183147310307942</v>
       </c>
     </row>
     <row r="521" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25721,14 +25708,14 @@
       <c r="V521" s="17">
         <v>10.092190180561449</v>
       </c>
-      <c r="W521" s="40">
+      <c r="W521" s="17">
         <v>10.001292864219412</v>
       </c>
-      <c r="X521" s="40">
-        <v>9.961673274959356</v>
-      </c>
-      <c r="Y521" s="40">
-        <v>10.272986783077776</v>
+      <c r="X521" s="17">
+        <v>9.962132287606666</v>
+      </c>
+      <c r="Y521" s="17">
+        <v>10.265627377599786</v>
       </c>
     </row>
     <row r="522" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25798,14 +25785,14 @@
       <c r="V522" s="17">
         <v>5.880282706250016</v>
       </c>
-      <c r="W522" s="40">
+      <c r="W522" s="17">
         <v>5.6862483233442758</v>
       </c>
-      <c r="X522" s="40">
-        <v>5.5667675615879135</v>
-      </c>
-      <c r="Y522" s="40">
-        <v>5.4604133964086179</v>
+      <c r="X522" s="17">
+        <v>5.5559451274573668</v>
+      </c>
+      <c r="Y522" s="17">
+        <v>5.4746324261332653</v>
       </c>
     </row>
     <row r="523" spans="1:25" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -25875,14 +25862,14 @@
       <c r="V523" s="17">
         <v>6.0940749486776351</v>
       </c>
-      <c r="W523" s="40">
+      <c r="W523" s="17">
         <v>6.1299978207647881</v>
       </c>
-      <c r="X523" s="40">
-        <v>6.2180921424116757</v>
-      </c>
-      <c r="Y523" s="40">
-        <v>6.2825007562525297</v>
+      <c r="X523" s="17">
+        <v>6.2186773767155268</v>
+      </c>
+      <c r="Y523" s="17">
+        <v>6.2875658148533855</v>
       </c>
     </row>
     <row r="524" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -25952,14 +25939,14 @@
       <c r="V524" s="17">
         <v>5.1955520225720448</v>
       </c>
-      <c r="W524" s="40">
+      <c r="W524" s="17">
         <v>5.1762733864871224</v>
       </c>
-      <c r="X524" s="40">
-        <v>5.0057118575480963</v>
-      </c>
-      <c r="Y524" s="40">
-        <v>4.8730218532567404</v>
+      <c r="X524" s="17">
+        <v>5.0306687528258642</v>
+      </c>
+      <c r="Y524" s="17">
+        <v>4.8669957834218707</v>
       </c>
     </row>
     <row r="525" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26029,14 +26016,14 @@
       <c r="V525" s="17">
         <v>3.9207207318460338</v>
       </c>
-      <c r="W525" s="40">
+      <c r="W525" s="17">
         <v>4.0137826551162252</v>
       </c>
-      <c r="X525" s="40">
-        <v>4.0076162301238085</v>
-      </c>
-      <c r="Y525" s="40">
-        <v>4.0600860238538656</v>
+      <c r="X525" s="17">
+        <v>3.9916244825149052</v>
+      </c>
+      <c r="Y525" s="17">
+        <v>4.0453591191904161</v>
       </c>
     </row>
     <row r="526" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26106,14 +26093,14 @@
       <c r="V526" s="17">
         <v>1.7499451478681007</v>
       </c>
-      <c r="W526" s="40">
+      <c r="W526" s="17">
         <v>1.8957435077551499</v>
       </c>
-      <c r="X526" s="40">
-        <v>1.826866427107892</v>
-      </c>
-      <c r="Y526" s="40">
-        <v>1.8580476562122088</v>
+      <c r="X526" s="17">
+        <v>1.8260804724778021</v>
+      </c>
+      <c r="Y526" s="17">
+        <v>1.8580462834267706</v>
       </c>
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.2">
@@ -26183,14 +26170,14 @@
       <c r="V527" s="17">
         <v>1.4754276070195671</v>
       </c>
-      <c r="W527" s="40">
+      <c r="W527" s="17">
         <v>1.4233980843001641</v>
       </c>
-      <c r="X527" s="40">
-        <v>1.6996642376966682</v>
-      </c>
-      <c r="Y527" s="40">
-        <v>1.9466772645898862</v>
+      <c r="X527" s="17">
+        <v>1.7019771991255723</v>
+      </c>
+      <c r="Y527" s="17">
+        <v>1.9480059281887512</v>
       </c>
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.2">
@@ -26216,9 +26203,9 @@
       <c r="T528" s="17"/>
       <c r="U528" s="17"/>
       <c r="V528" s="17"/>
-      <c r="W528" s="40"/>
-      <c r="X528" s="40"/>
-      <c r="Y528" s="40"/>
+      <c r="W528" s="17"/>
+      <c r="X528" s="17"/>
+      <c r="Y528" s="17"/>
     </row>
     <row r="529" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A529" s="14" t="s">
@@ -26287,13 +26274,13 @@
       <c r="V529" s="17">
         <v>100</v>
       </c>
-      <c r="W529" s="40">
+      <c r="W529" s="17">
         <v>100</v>
       </c>
-      <c r="X529" s="40">
+      <c r="X529" s="17">
         <v>100</v>
       </c>
-      <c r="Y529" s="40">
+      <c r="Y529" s="17">
         <v>100</v>
       </c>
     </row>
@@ -26364,14 +26351,14 @@
       <c r="V530" s="17">
         <v>92.99940902680477</v>
       </c>
-      <c r="W530" s="40">
+      <c r="W530" s="17">
         <v>96.66662211029653</v>
       </c>
-      <c r="X530" s="40">
-        <v>94.621232781485077</v>
-      </c>
-      <c r="Y530" s="40">
-        <v>90.4259099866198</v>
+      <c r="X530" s="17">
+        <v>94.637854007189944</v>
+      </c>
+      <c r="Y530" s="17">
+        <v>90.435400663340999</v>
       </c>
     </row>
     <row r="531" spans="1:25" x14ac:dyDescent="0.2">
@@ -26441,14 +26428,14 @@
       <c r="V531" s="17">
         <v>7.0005909731952354</v>
       </c>
-      <c r="W531" s="40">
+      <c r="W531" s="17">
         <v>3.3333778897034665</v>
       </c>
-      <c r="X531" s="40">
-        <v>5.3787672185149127</v>
-      </c>
-      <c r="Y531" s="40">
-        <v>9.5740900133801965</v>
+      <c r="X531" s="17">
+        <v>5.3621459928100537</v>
+      </c>
+      <c r="Y531" s="17">
+        <v>9.5645993366590183</v>
       </c>
     </row>
     <row r="532" spans="1:25" x14ac:dyDescent="0.2">
@@ -26473,9 +26460,9 @@
       <c r="T532" s="17"/>
       <c r="U532" s="17"/>
       <c r="V532" s="17"/>
-      <c r="W532" s="40"/>
-      <c r="X532" s="40"/>
-      <c r="Y532" s="40"/>
+      <c r="W532" s="17"/>
+      <c r="X532" s="17"/>
+      <c r="Y532" s="17"/>
     </row>
     <row r="533" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
@@ -26544,13 +26531,13 @@
       <c r="V533" s="17">
         <v>100</v>
       </c>
-      <c r="W533" s="40">
+      <c r="W533" s="17">
         <v>100</v>
       </c>
-      <c r="X533" s="40">
+      <c r="X533" s="17">
         <v>100</v>
       </c>
-      <c r="Y533" s="40">
+      <c r="Y533" s="17">
         <v>100</v>
       </c>
     </row>
@@ -26577,9 +26564,9 @@
       <c r="T534" s="15"/>
       <c r="U534" s="15"/>
       <c r="V534" s="15"/>
-      <c r="W534" s="38"/>
-      <c r="X534" s="38"/>
-      <c r="Y534" s="38"/>
+      <c r="W534" s="15"/>
+      <c r="X534" s="15"/>
+      <c r="Y534" s="15"/>
     </row>
     <row r="535" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
@@ -26608,9 +26595,9 @@
       <c r="T536" s="22"/>
       <c r="U536" s="22"/>
       <c r="V536" s="22"/>
-      <c r="W536" s="41"/>
-      <c r="X536" s="41"/>
-      <c r="Y536" s="41"/>
+      <c r="W536" s="22"/>
+      <c r="X536" s="22"/>
+      <c r="Y536" s="22"/>
     </row>
     <row r="537" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B537" s="22"/>
@@ -26634,9 +26621,9 @@
       <c r="T537" s="22"/>
       <c r="U537" s="22"/>
       <c r="V537" s="22"/>
-      <c r="W537" s="41"/>
-      <c r="X537" s="41"/>
-      <c r="Y537" s="41"/>
+      <c r="W537" s="22"/>
+      <c r="X537" s="22"/>
+      <c r="Y537" s="22"/>
     </row>
     <row r="538" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
@@ -26650,7 +26637,7 @@
     </row>
     <row r="540" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="541" spans="1:25" x14ac:dyDescent="0.2">
@@ -26663,7 +26650,7 @@
     </row>
     <row r="543" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -26948,10 +26935,10 @@
         <v>1117657.8504454875</v>
       </c>
       <c r="X549" s="26">
-        <v>1735462.27965805</v>
+        <v>1733060.4721519602</v>
       </c>
       <c r="Y549" s="26">
-        <v>3353557.3938095379</v>
+        <v>3357316.1796637094</v>
       </c>
     </row>
     <row r="550" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -27102,10 +27089,10 @@
         <v>175917.32703029475</v>
       </c>
       <c r="X551" s="28">
-        <v>266227.14897898887</v>
+        <v>263825.34147289896</v>
       </c>
       <c r="Y551" s="28">
-        <v>473655.96626373578</v>
+        <v>477414.75211790728</v>
       </c>
     </row>
     <row r="552" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -27206,10 +27193,10 @@
         <v>427270.24668986473</v>
       </c>
       <c r="X553" s="26">
-        <v>437135.29092804505</v>
+        <v>438681.75845668814</v>
       </c>
       <c r="Y553" s="26">
-        <v>679463.48019532824</v>
+        <v>686602.89602845511</v>
       </c>
     </row>
     <row r="554" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -27360,10 +27347,10 @@
         <v>384666.54984403844</v>
       </c>
       <c r="X555" s="28">
-        <v>415767.4849880992</v>
+        <v>417313.95251674228</v>
       </c>
       <c r="Y555" s="28">
-        <v>619160.99017421622</v>
+        <v>626300.40600734309</v>
       </c>
     </row>
     <row r="556" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -27464,10 +27451,10 @@
         <v>690387.60375562287</v>
       </c>
       <c r="X557" s="29">
-        <v>1298326.988730005</v>
+        <v>1294378.7136952721</v>
       </c>
       <c r="Y557" s="29">
-        <v>2674093.9136142097</v>
+        <v>2670713.283635254</v>
       </c>
     </row>
     <row r="558" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27640,7 +27627,7 @@
     </row>
     <row r="564" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -27725,7 +27712,7 @@
     </row>
     <row r="567" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -28010,10 +27997,10 @@
         <v>1037503.8392732077</v>
       </c>
       <c r="X573" s="26">
-        <v>1518443.1862386074</v>
+        <v>1516163.6214434525</v>
       </c>
       <c r="Y573" s="26">
-        <v>2799794.9507378419</v>
+        <v>2803186.7427657847</v>
       </c>
     </row>
     <row r="574" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -28087,10 +28074,10 @@
         <v>873983.91027083388</v>
       </c>
       <c r="X574" s="28">
-        <v>1286299.7677883483</v>
+        <v>1286208.8336921311</v>
       </c>
       <c r="Y574" s="28">
-        <v>2402934.0519061661</v>
+        <v>2403240.8531802315</v>
       </c>
     </row>
     <row r="575" spans="1:25" x14ac:dyDescent="0.2">
@@ -28164,10 +28151,10 @@
         <v>163519.9290023738</v>
       </c>
       <c r="X575" s="28">
-        <v>232143.4184502592</v>
+        <v>229954.78775132151</v>
       </c>
       <c r="Y575" s="28">
-        <v>396860.89883167588</v>
+        <v>399945.88958555309</v>
       </c>
     </row>
     <row r="576" spans="1:25" x14ac:dyDescent="0.2">
@@ -28268,10 +28255,10 @@
         <v>398181.74998528766</v>
       </c>
       <c r="X577" s="26">
-        <v>384742.62671107065</v>
+        <v>386052.99720555008</v>
       </c>
       <c r="Y577" s="26">
-        <v>570633.86372017115</v>
+        <v>576717.55653883051</v>
       </c>
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.2">
@@ -28345,10 +28332,10 @@
         <v>39656.234020403877</v>
       </c>
       <c r="X578" s="28">
-        <v>18687.828079557265</v>
+        <v>18688.512015532004</v>
       </c>
       <c r="Y578" s="28">
-        <v>50486.043652458167</v>
+        <v>50492.283354382598</v>
       </c>
     </row>
     <row r="579" spans="1:25" x14ac:dyDescent="0.2">
@@ -28422,10 +28409,10 @@
         <v>358525.51596488379</v>
       </c>
       <c r="X579" s="28">
-        <v>366054.79863151337</v>
+        <v>367364.48519001808</v>
       </c>
       <c r="Y579" s="28">
-        <v>520147.82006771298</v>
+        <v>526225.2731844479</v>
       </c>
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.2">
@@ -28526,10 +28513,10 @@
         <v>639322.08928792004</v>
       </c>
       <c r="X581" s="29">
-        <v>1133700.5595275369</v>
+        <v>1130110.6242379025</v>
       </c>
       <c r="Y581" s="29">
-        <v>2229161.0870176707</v>
+        <v>2226469.1862269542</v>
       </c>
     </row>
     <row r="582" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28563,15 +28550,9 @@
       <c r="A583" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W583" s="3"/>
-      <c r="X583" s="3"/>
-      <c r="Y583" s="3"/>
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
-      <c r="W584" s="3"/>
-      <c r="X584" s="3"/>
-      <c r="Y584" s="3"/>
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
@@ -28588,7 +28569,7 @@
     </row>
     <row r="588" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.2">
@@ -28601,7 +28582,7 @@
     </row>
     <row r="591" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.2">
@@ -28637,9 +28618,9 @@
       <c r="T594" s="7"/>
       <c r="U594" s="7"/>
       <c r="V594" s="7"/>
-      <c r="W594" s="35"/>
-      <c r="X594" s="35"/>
-      <c r="Y594" s="39"/>
+      <c r="W594" s="7"/>
+      <c r="X594" s="7"/>
+      <c r="Y594" s="7"/>
     </row>
     <row r="595" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A595" s="24"/>
@@ -28706,13 +28687,13 @@
       <c r="V595" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W595" s="36" t="s">
+      <c r="W595" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X595" s="36" t="s">
+      <c r="X595" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y595" s="36"/>
+      <c r="Y595" s="9"/>
     </row>
     <row r="596" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A596" s="25"/>
@@ -28784,13 +28765,13 @@
       <c r="V597" s="17">
         <v>-41.3892733297658</v>
       </c>
-      <c r="W597" s="40">
-        <v>55.276704670066238</v>
-      </c>
-      <c r="X597" s="40">
-        <v>93.237123797949209</v>
-      </c>
-      <c r="Y597" s="40"/>
+      <c r="W597" s="17">
+        <v>55.061808178699692</v>
+      </c>
+      <c r="X597" s="17">
+        <v>93.721813728455373</v>
+      </c>
+      <c r="Y597" s="17"/>
     </row>
     <row r="598" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A598" s="27" t="s">
@@ -28859,13 +28840,13 @@
       <c r="V598" s="17">
         <v>-45.89436453112932</v>
       </c>
-      <c r="W598" s="40">
+      <c r="W598" s="17">
         <v>56.012733247468788</v>
       </c>
-      <c r="X598" s="40">
+      <c r="X598" s="17">
         <v>96.013651417030133</v>
       </c>
-      <c r="Y598" s="40"/>
+      <c r="Y598" s="17"/>
     </row>
     <row r="599" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A599" s="27" t="s">
@@ -28934,13 +28915,13 @@
       <c r="V599" s="17">
         <v>5.7463221068789352</v>
       </c>
-      <c r="W599" s="40">
-        <v>51.336513277706786</v>
-      </c>
-      <c r="X599" s="40">
-        <v>77.914224030216246</v>
-      </c>
-      <c r="Y599" s="40"/>
+      <c r="W599" s="17">
+        <v>49.97120859360578</v>
+      </c>
+      <c r="X599" s="17">
+        <v>80.958640838885827</v>
+      </c>
+      <c r="Y599" s="17"/>
     </row>
     <row r="600" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
@@ -28964,9 +28945,9 @@
       <c r="S600" s="29"/>
       <c r="T600" s="29"/>
       <c r="V600" s="29"/>
-      <c r="W600" s="40"/>
-      <c r="X600" s="40"/>
-      <c r="Y600" s="40"/>
+      <c r="W600" s="29"/>
+      <c r="X600" s="29"/>
+      <c r="Y600" s="29"/>
     </row>
     <row r="601" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
@@ -29035,13 +29016,13 @@
       <c r="V601" s="17">
         <v>-21.815535478628007</v>
       </c>
-      <c r="W601" s="40">
-        <v>2.3088535451758077</v>
-      </c>
-      <c r="X601" s="40">
-        <v>55.435512596756183</v>
-      </c>
-      <c r="Y601" s="40"/>
+      <c r="W601" s="17">
+        <v>2.6707948553006844</v>
+      </c>
+      <c r="X601" s="17">
+        <v>56.515032319549874</v>
+      </c>
+      <c r="Y601" s="17"/>
     </row>
     <row r="602" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A602" s="27" t="s">
@@ -29110,13 +29091,13 @@
       <c r="V602" s="17">
         <v>-77.924242874109481</v>
       </c>
-      <c r="W602" s="40">
+      <c r="W602" s="17">
         <v>-49.84518358284393</v>
       </c>
-      <c r="X602" s="40">
+      <c r="X602" s="17">
         <v>182.21189480376194</v>
       </c>
-      <c r="Y602" s="40"/>
+      <c r="Y602" s="17"/>
     </row>
     <row r="603" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A603" s="27" t="s">
@@ -29185,13 +29166,13 @@
       <c r="V603" s="17">
         <v>8.8161482300684213</v>
       </c>
-      <c r="W603" s="40">
-        <v>8.0851675708923665</v>
-      </c>
-      <c r="X603" s="40">
-        <v>48.920012393931898</v>
-      </c>
-      <c r="Y603" s="40"/>
+      <c r="W603" s="17">
+        <v>8.4871956467076757</v>
+      </c>
+      <c r="X603" s="17">
+        <v>50.078951885083796</v>
+      </c>
+      <c r="Y603" s="17"/>
     </row>
     <row r="604" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
@@ -29215,9 +29196,9 @@
       <c r="S604" s="29"/>
       <c r="T604" s="29"/>
       <c r="V604" s="29"/>
-      <c r="W604" s="40"/>
-      <c r="X604" s="40"/>
-      <c r="Y604" s="40"/>
+      <c r="W604" s="29"/>
+      <c r="X604" s="29"/>
+      <c r="Y604" s="29"/>
     </row>
     <row r="605" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A605" s="30" t="s">
@@ -29286,13 +29267,13 @@
       <c r="V605" s="17">
         <v>-49.252136704238957</v>
       </c>
-      <c r="W605" s="40">
-        <v>88.05769131242613</v>
-      </c>
-      <c r="X605" s="40">
-        <v>105.96459419132538</v>
-      </c>
-      <c r="Y605" s="40"/>
+      <c r="W605" s="17">
+        <v>87.485798796793659</v>
+      </c>
+      <c r="X605" s="17">
+        <v>106.33167521820081</v>
+      </c>
+      <c r="Y605" s="17"/>
     </row>
     <row r="606" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="15"/>
@@ -29317,9 +29298,9 @@
       <c r="T606" s="15"/>
       <c r="U606" s="15"/>
       <c r="V606" s="15"/>
-      <c r="W606" s="38"/>
-      <c r="X606" s="38"/>
-      <c r="Y606" s="38"/>
+      <c r="W606" s="15"/>
+      <c r="X606" s="15"/>
+      <c r="Y606" s="15"/>
     </row>
     <row r="607" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
@@ -29344,7 +29325,7 @@
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.2">
@@ -29357,7 +29338,7 @@
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.2">
@@ -29393,9 +29374,9 @@
       <c r="T618" s="7"/>
       <c r="U618" s="7"/>
       <c r="V618" s="7"/>
-      <c r="W618" s="35"/>
-      <c r="X618" s="35"/>
-      <c r="Y618" s="39"/>
+      <c r="W618" s="7"/>
+      <c r="X618" s="7"/>
+      <c r="Y618" s="7"/>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A619" s="24"/>
@@ -29462,13 +29443,13 @@
       <c r="V619" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W619" s="36" t="s">
+      <c r="W619" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X619" s="36" t="s">
+      <c r="X619" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y619" s="36"/>
+      <c r="Y619" s="9"/>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A620" s="25"/>
@@ -29540,13 +29521,13 @@
       <c r="V621" s="17">
         <v>-43.846690688351174</v>
       </c>
-      <c r="W621" s="40">
-        <v>46.355428169047286</v>
-      </c>
-      <c r="X621" s="40">
-        <v>84.385887869359067</v>
-      </c>
-      <c r="Y621" s="40"/>
+      <c r="W621" s="17">
+        <v>46.135711893418687</v>
+      </c>
+      <c r="X621" s="17">
+        <v>84.886822445787971</v>
+      </c>
+      <c r="Y621" s="17"/>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A622" s="27" t="s">
@@ -29615,13 +29596,13 @@
       <c r="V622" s="17">
         <v>-48.165112426598277</v>
       </c>
-      <c r="W622" s="40">
-        <v>47.176595892908864</v>
-      </c>
-      <c r="X622" s="40">
-        <v>86.809802200131656</v>
-      </c>
-      <c r="Y622" s="40"/>
+      <c r="W622" s="17">
+        <v>47.166191342533438</v>
+      </c>
+      <c r="X622" s="17">
+        <v>86.846862673272142</v>
+      </c>
+      <c r="Y622" s="17"/>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A623" s="27" t="s">
@@ -29690,13 +29671,13 @@
       <c r="V623" s="17">
         <v>1.2286625857113762</v>
       </c>
-      <c r="W623" s="40">
-        <v>41.966437893260832</v>
-      </c>
-      <c r="X623" s="40">
-        <v>70.95505075312326</v>
-      </c>
-      <c r="Y623" s="40"/>
+      <c r="W623" s="17">
+        <v>40.627988988414558</v>
+      </c>
+      <c r="X623" s="17">
+        <v>73.923706262669299</v>
+      </c>
+      <c r="Y623" s="17"/>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
@@ -29720,9 +29701,9 @@
       <c r="S624" s="29"/>
       <c r="T624" s="29"/>
       <c r="V624" s="29"/>
-      <c r="W624" s="40"/>
-      <c r="X624" s="40"/>
-      <c r="Y624" s="40"/>
+      <c r="W624" s="29"/>
+      <c r="X624" s="29"/>
+      <c r="Y624" s="29"/>
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
@@ -29791,13 +29772,13 @@
       <c r="V625" s="17">
         <v>-24.5088231620377</v>
       </c>
-      <c r="W625" s="40">
-        <v>-3.3751228615358571</v>
-      </c>
-      <c r="X625" s="40">
-        <v>48.315737353609848</v>
-      </c>
-      <c r="Y625" s="40"/>
+      <c r="W625" s="17">
+        <v>-3.0460343248242054</v>
+      </c>
+      <c r="X625" s="17">
+        <v>49.388182636427757</v>
+      </c>
+      <c r="Y625" s="17"/>
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A626" s="27" t="s">
@@ -29866,13 +29847,13 @@
       <c r="V626" s="17">
         <v>-78.632528646026955</v>
       </c>
-      <c r="W626" s="40">
-        <v>-52.875434238304052</v>
-      </c>
-      <c r="X626" s="40">
-        <v>170.15468805433397</v>
-      </c>
-      <c r="Y626" s="40"/>
+      <c r="W626" s="17">
+        <v>-52.873709576364682</v>
+      </c>
+      <c r="X626" s="17">
+        <v>170.17818921280895</v>
+      </c>
+      <c r="Y626" s="17"/>
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A627" s="27" t="s">
@@ -29941,13 +29922,13 @@
       <c r="V627" s="17">
         <v>4.8740096267829927</v>
       </c>
-      <c r="W627" s="40">
-        <v>2.1000688462483197</v>
-      </c>
-      <c r="X627" s="40">
-        <v>42.095615741761208</v>
-      </c>
-      <c r="Y627" s="40"/>
+      <c r="W627" s="17">
+        <v>2.4653668516022833</v>
+      </c>
+      <c r="X627" s="17">
+        <v>43.243371201835032</v>
+      </c>
+      <c r="Y627" s="17"/>
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
@@ -29971,9 +29952,9 @@
       <c r="S628" s="29"/>
       <c r="T628" s="29"/>
       <c r="V628" s="29"/>
-      <c r="W628" s="40"/>
-      <c r="X628" s="40"/>
-      <c r="Y628" s="40"/>
+      <c r="W628" s="29"/>
+      <c r="X628" s="29"/>
+      <c r="Y628" s="29"/>
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A629" s="30" t="s">
@@ -30042,13 +30023,13 @@
       <c r="V629" s="17">
         <v>-51.572838923957818</v>
       </c>
-      <c r="W629" s="40">
-        <v>77.32854511413143</v>
-      </c>
-      <c r="X629" s="40">
-        <v>96.626972464992065</v>
-      </c>
-      <c r="Y629" s="40"/>
+      <c r="W629" s="17">
+        <v>76.76702294091308</v>
+      </c>
+      <c r="X629" s="17">
+        <v>97.013384218769602</v>
+      </c>
+      <c r="Y629" s="17"/>
     </row>
     <row r="630" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="15"/>
@@ -30073,9 +30054,9 @@
       <c r="T630" s="15"/>
       <c r="U630" s="15"/>
       <c r="V630" s="15"/>
-      <c r="W630" s="38"/>
-      <c r="X630" s="38"/>
-      <c r="Y630" s="38"/>
+      <c r="W630" s="15"/>
+      <c r="X630" s="15"/>
+      <c r="Y630" s="15"/>
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
@@ -30098,7 +30079,7 @@
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.2">
@@ -30111,7 +30092,7 @@
     </row>
     <row r="639" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -30134,9 +30115,9 @@
       <c r="T639" s="3"/>
       <c r="U639" s="3"/>
       <c r="V639" s="3"/>
-      <c r="W639" s="34"/>
-      <c r="X639" s="34"/>
-      <c r="Y639" s="34"/>
+      <c r="W639" s="3"/>
+      <c r="X639" s="3"/>
+      <c r="Y639" s="3"/>
     </row>
     <row r="640" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
@@ -30163,9 +30144,9 @@
       <c r="T640" s="3"/>
       <c r="U640" s="3"/>
       <c r="V640" s="3"/>
-      <c r="W640" s="34"/>
-      <c r="X640" s="34"/>
-      <c r="Y640" s="34"/>
+      <c r="W640" s="3"/>
+      <c r="X640" s="3"/>
+      <c r="Y640" s="3"/>
     </row>
     <row r="641" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
@@ -30190,9 +30171,9 @@
       <c r="T641" s="3"/>
       <c r="U641" s="3"/>
       <c r="V641" s="3"/>
-      <c r="W641" s="34"/>
-      <c r="X641" s="34"/>
-      <c r="Y641" s="34"/>
+      <c r="W641" s="3"/>
+      <c r="X641" s="3"/>
+      <c r="Y641" s="3"/>
     </row>
     <row r="642" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A642" s="23"/>
@@ -30219,9 +30200,9 @@
       <c r="T642" s="7"/>
       <c r="U642" s="7"/>
       <c r="V642" s="7"/>
-      <c r="W642" s="35"/>
-      <c r="X642" s="35"/>
-      <c r="Y642" s="35"/>
+      <c r="W642" s="7"/>
+      <c r="X642" s="7"/>
+      <c r="Y642" s="7"/>
     </row>
     <row r="643" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A643" s="24"/>
@@ -30288,13 +30269,13 @@
       <c r="V643" s="9">
         <v>2020</v>
       </c>
-      <c r="W643" s="36">
+      <c r="W643" s="9">
         <v>2021</v>
       </c>
-      <c r="X643" s="36">
+      <c r="X643" s="9">
         <v>2022</v>
       </c>
-      <c r="Y643" s="36">
+      <c r="Y643" s="9">
         <v>2023</v>
       </c>
     </row>
@@ -30321,9 +30302,9 @@
       <c r="T644" s="3"/>
       <c r="U644" s="3"/>
       <c r="V644" s="3"/>
-      <c r="W644" s="34"/>
-      <c r="X644" s="34"/>
-      <c r="Y644" s="34"/>
+      <c r="W644" s="3"/>
+      <c r="X644" s="3"/>
+      <c r="Y644" s="3"/>
     </row>
     <row r="645" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
@@ -30392,14 +30373,14 @@
       <c r="V645" s="31">
         <v>103.20896203623211</v>
       </c>
-      <c r="W645" s="40">
+      <c r="W645" s="31">
         <v>107.72565923499901</v>
       </c>
-      <c r="X645" s="40">
-        <v>114.29221029711547</v>
-      </c>
-      <c r="Y645" s="40">
-        <v>119.77867853950379</v>
+      <c r="X645" s="31">
+        <v>114.30563612270375</v>
+      </c>
+      <c r="Y645" s="31">
+        <v>119.76783881159443</v>
       </c>
     </row>
     <row r="646" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30469,14 +30450,14 @@
       <c r="V646" s="31">
         <v>103.23036903648652</v>
       </c>
-      <c r="W646" s="40">
+      <c r="W646" s="31">
         <v>107.75261562004755</v>
       </c>
-      <c r="X646" s="40">
-        <v>114.22182973765518</v>
-      </c>
-      <c r="Y646" s="40">
-        <v>119.8493743622</v>
+      <c r="X646" s="31">
+        <v>114.22990514390601</v>
+      </c>
+      <c r="Y646" s="31">
+        <v>119.83407421419294</v>
       </c>
     </row>
     <row r="647" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30546,14 +30527,14 @@
       <c r="V647" s="31">
         <v>102.98551741745837</v>
       </c>
-      <c r="W647" s="40">
+      <c r="W647" s="31">
         <v>107.58158232061182</v>
       </c>
-      <c r="X647" s="40">
-        <v>114.68218688096587</v>
-      </c>
-      <c r="Y647" s="40">
-        <v>119.35062578806274</v>
+      <c r="X647" s="31">
+        <v>114.72922310198032</v>
+      </c>
+      <c r="Y647" s="31">
+        <v>119.36983590771038</v>
       </c>
     </row>
     <row r="648" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30579,9 +30560,9 @@
       <c r="T648" s="29"/>
       <c r="U648" s="29"/>
       <c r="V648" s="29"/>
-      <c r="W648" s="40"/>
-      <c r="X648" s="40"/>
-      <c r="Y648" s="40"/>
+      <c r="W648" s="29"/>
+      <c r="X648" s="29"/>
+      <c r="Y648" s="29"/>
     </row>
     <row r="649" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
@@ -30650,14 +30631,14 @@
       <c r="V649" s="31">
         <v>103.60889216974789</v>
       </c>
-      <c r="W649" s="40">
+      <c r="W649" s="31">
         <v>107.30533147379353</v>
       </c>
-      <c r="X649" s="40">
-        <v>113.61758759741474</v>
-      </c>
-      <c r="Y649" s="40">
-        <v>119.07170663964051</v>
+      <c r="X649" s="31">
+        <v>113.63252238218382</v>
+      </c>
+      <c r="Y649" s="31">
+        <v>119.05357973651805</v>
       </c>
     </row>
     <row r="650" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30727,14 +30708,14 @@
       <c r="V650" s="31">
         <v>103.98563302270468</v>
       </c>
-      <c r="W650" s="40">
+      <c r="W650" s="31">
         <v>107.43253336639549</v>
       </c>
-      <c r="X650" s="40">
-        <v>114.34076688301866</v>
-      </c>
-      <c r="Y650" s="40">
-        <v>119.44388123622738</v>
+      <c r="X650" s="31">
+        <v>114.33658239985674</v>
+      </c>
+      <c r="Y650" s="31">
+        <v>119.42912067944329</v>
       </c>
     </row>
     <row r="651" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30804,14 +30785,14 @@
       <c r="V651" s="31">
         <v>103.40436601271266</v>
       </c>
-      <c r="W651" s="40">
+      <c r="W651" s="31">
         <v>107.29126176941757</v>
       </c>
-      <c r="X651" s="40">
-        <v>113.58066785148984</v>
-      </c>
-      <c r="Y651" s="40">
-        <v>119.03558301823003</v>
+      <c r="X651" s="31">
+        <v>113.59670554460048</v>
+      </c>
+      <c r="Y651" s="31">
+        <v>119.01754589195068</v>
       </c>
     </row>
     <row r="652" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -30837,9 +30818,9 @@
       <c r="T652" s="29"/>
       <c r="U652" s="29"/>
       <c r="V652" s="29"/>
-      <c r="W652" s="40"/>
-      <c r="X652" s="40"/>
-      <c r="Y652" s="40"/>
+      <c r="W652" s="29"/>
+      <c r="X652" s="29"/>
+      <c r="Y652" s="29"/>
     </row>
     <row r="653" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="30" t="s">
@@ -30908,14 +30889,14 @@
       <c r="V653" s="31">
         <v>103.04917608820941</v>
       </c>
-      <c r="W653" s="40">
+      <c r="W653" s="31">
         <v>107.98744722313285</v>
       </c>
-      <c r="X653" s="40">
-        <v>114.52115620998504</v>
-      </c>
-      <c r="Y653" s="40">
-        <v>119.95965339552026</v>
+      <c r="X653" s="31">
+        <v>114.53557606965646</v>
+      </c>
+      <c r="Y653" s="31">
+        <v>119.95285181382323</v>
       </c>
     </row>
     <row r="654" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30941,9 +30922,9 @@
       <c r="T654" s="15"/>
       <c r="U654" s="15"/>
       <c r="V654" s="15"/>
-      <c r="W654" s="38"/>
-      <c r="X654" s="38"/>
-      <c r="Y654" s="38"/>
+      <c r="W654" s="15"/>
+      <c r="X654" s="15"/>
+      <c r="Y654" s="15"/>
     </row>
     <row r="655" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
@@ -30953,44 +30934,44 @@
     <row r="656" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
     </row>
-    <row r="657" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
     </row>
-    <row r="658" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A658" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="660" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="661" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="661" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
     </row>
-    <row r="662" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="663" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="664" spans="1:25" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="664" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
     </row>
-    <row r="665" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
     </row>
-    <row r="666" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A666" s="23"/>
       <c r="B666" s="7" t="s">
         <v>46</v>
@@ -31015,11 +30996,11 @@
       <c r="T666" s="7"/>
       <c r="U666" s="7"/>
       <c r="V666" s="7"/>
-      <c r="W666" s="35"/>
-      <c r="X666" s="35"/>
-      <c r="Y666" s="35"/>
-    </row>
-    <row r="667" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W666" s="7"/>
+      <c r="X666" s="7"/>
+      <c r="Y666" s="7"/>
+    </row>
+    <row r="667" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A667" s="24"/>
       <c r="B667" s="9">
         <v>2000</v>
@@ -31084,25 +31065,25 @@
       <c r="V667" s="9">
         <v>2020</v>
       </c>
-      <c r="W667" s="36">
+      <c r="W667" s="9">
         <v>2021</v>
       </c>
-      <c r="X667" s="36">
+      <c r="X667" s="9">
         <v>2022</v>
       </c>
-      <c r="Y667" s="36">
+      <c r="Y667" s="9">
         <v>2023</v>
       </c>
     </row>
-    <row r="668" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A668" s="25"/>
     </row>
-    <row r="669" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="670" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A670" s="27" t="s">
         <v>89</v>
       </c>
@@ -31167,19 +31148,24 @@
         <v>181920.02725074501</v>
       </c>
       <c r="V670" s="32">
-        <v>165038.5871443169</v>
-      </c>
-      <c r="W670" s="42">
-        <v>176142.02879631563</v>
-      </c>
-      <c r="X670" s="42">
-        <v>197401.36289283898</v>
-      </c>
-      <c r="Y670" s="42">
-        <v>215154.8197574933</v>
-      </c>
-    </row>
-    <row r="671" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164387.60321743926</v>
+      </c>
+      <c r="W670" s="32">
+        <v>176329.14318407213</v>
+      </c>
+      <c r="X670" s="32">
+        <v>198560.54011445673</v>
+      </c>
+      <c r="Y670" s="32">
+        <v>217300.34704783425</v>
+      </c>
+      <c r="AA670" s="32"/>
+      <c r="AB670" s="32"/>
+      <c r="AC670" s="32"/>
+      <c r="AD670" s="32"/>
+      <c r="AE670" s="32"/>
+    </row>
+    <row r="671" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A671" s="27" t="s">
         <v>90</v>
       </c>
@@ -31244,19 +31230,24 @@
         <v>200134.50090062243</v>
       </c>
       <c r="V671" s="32">
-        <v>177545.73250496548</v>
-      </c>
-      <c r="W671" s="42">
-        <v>182406.96560539518</v>
-      </c>
-      <c r="X671" s="42">
-        <v>209038.01037627162</v>
-      </c>
-      <c r="Y671" s="42">
-        <v>238841.84287737028</v>
-      </c>
-    </row>
-    <row r="672" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>176845.41496016376</v>
+      </c>
+      <c r="W671" s="32">
+        <v>182600.73518966202</v>
+      </c>
+      <c r="X671" s="32">
+        <v>210227.93217747705</v>
+      </c>
+      <c r="Y671" s="32">
+        <v>241164.65878322479</v>
+      </c>
+      <c r="AA671" s="32"/>
+      <c r="AB671" s="32"/>
+      <c r="AC671" s="32"/>
+      <c r="AD671" s="32"/>
+      <c r="AE671" s="32"/>
+    </row>
+    <row r="672" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A672" s="27" t="s">
         <v>91</v>
       </c>
@@ -31321,19 +31312,24 @@
         <v>133177.17439403216</v>
       </c>
       <c r="V672" s="32">
-        <v>123892.89631123577</v>
-      </c>
-      <c r="W672" s="42">
-        <v>132565.56203469928</v>
-      </c>
-      <c r="X672" s="42">
-        <v>149900.70228336955</v>
-      </c>
-      <c r="Y672" s="42">
-        <v>164862.29872270458</v>
-      </c>
-    </row>
-    <row r="673" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>123404.20887426446</v>
+      </c>
+      <c r="W672" s="32">
+        <v>132706.38546081304</v>
+      </c>
+      <c r="X672" s="32">
+        <v>150757.77436586237</v>
+      </c>
+      <c r="Y672" s="32">
+        <v>166275.79274663492</v>
+      </c>
+      <c r="AA672" s="32"/>
+      <c r="AB672" s="32"/>
+      <c r="AC672" s="32"/>
+      <c r="AD672" s="32"/>
+      <c r="AE672" s="32"/>
+    </row>
+    <row r="673" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="32"/>
       <c r="C673" s="32"/>
@@ -31356,11 +31352,16 @@
       <c r="T673" s="32"/>
       <c r="U673" s="32"/>
       <c r="V673" s="32"/>
-      <c r="W673" s="42"/>
-      <c r="X673" s="42"/>
-      <c r="Y673" s="42"/>
-    </row>
-    <row r="674" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W673" s="32"/>
+      <c r="X673" s="32"/>
+      <c r="Y673" s="32"/>
+      <c r="AA673" s="32"/>
+      <c r="AB673" s="32"/>
+      <c r="AC673" s="32"/>
+      <c r="AD673" s="32"/>
+      <c r="AE673" s="32"/>
+    </row>
+    <row r="674" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
         <v>92</v>
       </c>
@@ -31385,11 +31386,16 @@
       <c r="T674" s="32"/>
       <c r="U674" s="32"/>
       <c r="V674" s="32"/>
-      <c r="W674" s="42"/>
-      <c r="X674" s="42"/>
-      <c r="Y674" s="42"/>
-    </row>
-    <row r="675" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W674" s="32"/>
+      <c r="X674" s="32"/>
+      <c r="Y674" s="32"/>
+      <c r="AA674" s="32"/>
+      <c r="AB674" s="32"/>
+      <c r="AC674" s="32"/>
+      <c r="AD674" s="32"/>
+      <c r="AE674" s="32"/>
+    </row>
+    <row r="675" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A675" s="27" t="s">
         <v>89</v>
       </c>
@@ -31454,19 +31460,24 @@
         <v>180660.68444113579</v>
       </c>
       <c r="V675" s="32">
-        <v>161234.93938276384</v>
-      </c>
-      <c r="W675" s="42">
-        <v>168242.38361324943</v>
-      </c>
-      <c r="X675" s="42">
-        <v>178750.80518647647</v>
-      </c>
-      <c r="Y675" s="42">
-        <v>186496.49034619515</v>
-      </c>
-    </row>
-    <row r="676" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160598.95869603215</v>
+      </c>
+      <c r="W675" s="32">
+        <v>168421.10626575671</v>
+      </c>
+      <c r="X675" s="32">
+        <v>179787.55939273463</v>
+      </c>
+      <c r="Y675" s="32">
+        <v>188109.19328319491</v>
+      </c>
+      <c r="AA675" s="32"/>
+      <c r="AB675" s="32"/>
+      <c r="AC675" s="32"/>
+      <c r="AD675" s="32"/>
+      <c r="AE675" s="32"/>
+    </row>
+    <row r="676" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A676" s="27" t="s">
         <v>90</v>
       </c>
@@ -31531,19 +31542,24 @@
         <v>198521.76064255164</v>
       </c>
       <c r="V676" s="32">
-        <v>173372.00426326567</v>
-      </c>
-      <c r="W676" s="42">
-        <v>174043.92533886727</v>
-      </c>
-      <c r="X676" s="42">
-        <v>188911.9386124225</v>
-      </c>
-      <c r="Y676" s="42">
-        <v>206242.31525432342</v>
-      </c>
-    </row>
-    <row r="677" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>172688.14971689068</v>
+      </c>
+      <c r="W676" s="32">
+        <v>174228.81092667993</v>
+      </c>
+      <c r="X676" s="32">
+        <v>189974.25636793874</v>
+      </c>
+      <c r="Y676" s="32">
+        <v>208003.9364047923</v>
+      </c>
+      <c r="AA676" s="32"/>
+      <c r="AB676" s="32"/>
+      <c r="AC676" s="32"/>
+      <c r="AD676" s="32"/>
+      <c r="AE676" s="32"/>
+    </row>
+    <row r="677" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A677" s="27" t="s">
         <v>91</v>
       </c>
@@ -31608,19 +31624,24 @@
         <v>130745.61880348179</v>
       </c>
       <c r="V677" s="32">
-        <v>118701.1323213415</v>
-      </c>
-      <c r="W677" s="42">
-        <v>122098.74236900336</v>
-      </c>
-      <c r="X677" s="42">
-        <v>130589.9681963375</v>
-      </c>
-      <c r="Y677" s="42">
-        <v>136270.54012840384</v>
-      </c>
-    </row>
-    <row r="678" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118232.9234583088</v>
+      </c>
+      <c r="W677" s="32">
+        <v>122228.44696920777</v>
+      </c>
+      <c r="X677" s="32">
+        <v>131335.56908060942</v>
+      </c>
+      <c r="Y677" s="32">
+        <v>137440.23506178253</v>
+      </c>
+      <c r="AA677" s="32"/>
+      <c r="AB677" s="32"/>
+      <c r="AC677" s="32"/>
+      <c r="AD677" s="32"/>
+      <c r="AE677" s="32"/>
+    </row>
+    <row r="678" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -31647,7 +31668,7 @@
       <c r="X678" s="3"/>
       <c r="Y678" s="3"/>
     </row>
-    <row r="679" spans="1:25" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A679"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -31670,11 +31691,11 @@
       <c r="T679" s="1"/>
       <c r="U679" s="1"/>
       <c r="V679" s="1"/>
-      <c r="W679"/>
-      <c r="X679"/>
-      <c r="Y679"/>
-    </row>
-    <row r="680" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W679" s="1"/>
+      <c r="X679" s="1"/>
+      <c r="Y679" s="1"/>
+    </row>
+    <row r="680" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A680" s="15"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15"/>
@@ -31697,13 +31718,13 @@
       <c r="T680" s="15"/>
       <c r="U680" s="15"/>
       <c r="V680" s="15"/>
-      <c r="W680" s="38"/>
-      <c r="X680" s="38"/>
-      <c r="Y680" s="38"/>
-    </row>
-    <row r="681" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="3" t="s">
-        <v>0</v>
+      <c r="W680" s="15"/>
+      <c r="X680" s="15"/>
+      <c r="Y680" s="15"/>
+    </row>
+    <row r="681" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -31726,12 +31747,14 @@
       <c r="T681" s="3"/>
       <c r="U681" s="3"/>
       <c r="V681" s="3"/>
-      <c r="W681" s="34"/>
-      <c r="X681" s="34"/>
-      <c r="Y681" s="34"/>
-    </row>
-    <row r="682" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="2"/>
+      <c r="W681" s="3"/>
+      <c r="X681" s="3"/>
+      <c r="Y681" s="3"/>
+    </row>
+    <row r="682" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B682" s="33"/>
       <c r="C682" s="33"/>
       <c r="D682" s="33"/>
@@ -31753,11 +31776,11 @@
       <c r="T682" s="3"/>
       <c r="U682" s="3"/>
       <c r="V682" s="3"/>
-      <c r="W682" s="34"/>
-      <c r="X682" s="34"/>
-      <c r="Y682" s="34"/>
-    </row>
-    <row r="683" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W682" s="3"/>
+      <c r="X682" s="3"/>
+      <c r="Y682" s="3"/>
+    </row>
+    <row r="683" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -31780,11 +31803,11 @@
       <c r="T683" s="3"/>
       <c r="U683" s="3"/>
       <c r="V683" s="3"/>
-      <c r="W683" s="34"/>
-      <c r="X683" s="34"/>
-      <c r="Y683" s="34"/>
-    </row>
-    <row r="684" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W683" s="3"/>
+      <c r="X683" s="3"/>
+      <c r="Y683" s="3"/>
+    </row>
+    <row r="684" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
         <v>25</v>
       </c>
@@ -31809,11 +31832,11 @@
       <c r="T684" s="3"/>
       <c r="U684" s="3"/>
       <c r="V684" s="3"/>
-      <c r="W684" s="34"/>
-      <c r="X684" s="34"/>
-      <c r="Y684" s="34"/>
-    </row>
-    <row r="685" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W684" s="3"/>
+      <c r="X684" s="3"/>
+      <c r="Y684" s="3"/>
+    </row>
+    <row r="685" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
         <v>18</v>
       </c>
@@ -31838,13 +31861,13 @@
       <c r="T685" s="3"/>
       <c r="U685" s="3"/>
       <c r="V685" s="3"/>
-      <c r="W685" s="34"/>
-      <c r="X685" s="34"/>
-      <c r="Y685" s="34"/>
-    </row>
-    <row r="686" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W685" s="3"/>
+      <c r="X685" s="3"/>
+      <c r="Y685" s="3"/>
+    </row>
+    <row r="686" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -31867,21 +31890,21 @@
       <c r="T686" s="3"/>
       <c r="U686" s="3"/>
       <c r="V686" s="3"/>
-      <c r="W686" s="34"/>
-      <c r="X686" s="34"/>
-      <c r="Y686" s="34"/>
-    </row>
-    <row r="687" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W686" s="3"/>
+      <c r="X686" s="3"/>
+      <c r="Y686" s="3"/>
+    </row>
+    <row r="687" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
     </row>
-    <row r="688" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A688" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="689" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="690" spans="1:25" x14ac:dyDescent="0.2">
@@ -31917,9 +31940,9 @@
       <c r="T692" s="7"/>
       <c r="U692" s="7"/>
       <c r="V692" s="7"/>
-      <c r="W692" s="35"/>
-      <c r="X692" s="35"/>
-      <c r="Y692" s="39"/>
+      <c r="W692" s="7"/>
+      <c r="X692" s="7"/>
+      <c r="Y692" s="7"/>
     </row>
     <row r="693" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A693" s="24"/>
@@ -31986,13 +32009,13 @@
       <c r="V693" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W693" s="36" t="s">
+      <c r="W693" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X693" s="36" t="s">
+      <c r="X693" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y693" s="36"/>
+      <c r="Y693" s="9"/>
     </row>
     <row r="694" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A694" s="25"/>
@@ -32064,18 +32087,18 @@
         <v>5.3314252716889001</v>
       </c>
       <c r="U696" s="17">
-        <v>-9.2795940950250611</v>
+        <v>-9.6374348103743301</v>
       </c>
       <c r="V696" s="17">
-        <v>6.7277852071584903</v>
+        <v>7.2642582122433623</v>
       </c>
       <c r="W696" s="17">
-        <v>12.069427292169379</v>
+        <v>12.60789710024109</v>
       </c>
       <c r="X696" s="17">
-        <v>8.9935837344202696</v>
-      </c>
-      <c r="Y696" s="40"/>
+        <v>9.4378303577212819</v>
+      </c>
+      <c r="Y696" s="17"/>
     </row>
     <row r="697" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A697" s="27" t="s">
@@ -32139,18 +32162,18 @@
         <v>4.7145003024565</v>
       </c>
       <c r="U697" s="17">
-        <v>-11.286793778186947</v>
+        <v>-11.63671722549374</v>
       </c>
       <c r="V697" s="17">
-        <v>2.7380174289988872</v>
+        <v>3.254435649798836</v>
       </c>
       <c r="W697" s="17">
-        <v>14.599795946656968</v>
+        <v>15.129838858052508</v>
       </c>
       <c r="X697" s="17">
-        <v>14.257613937030555</v>
-      </c>
-      <c r="Y697" s="40"/>
+        <v>14.715802170203801</v>
+      </c>
+      <c r="Y697" s="17"/>
     </row>
     <row r="698" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A698" s="27" t="s">
@@ -32214,32 +32237,26 @@
         <v>6.2949909718759329</v>
       </c>
       <c r="U698" s="17">
-        <v>-6.9713733791399761</v>
+        <v>-7.3383187203329783</v>
       </c>
       <c r="V698" s="17">
-        <v>7.0001315504616173</v>
+        <v>7.5379735192229163</v>
       </c>
       <c r="W698" s="17">
-        <v>13.076654285320927</v>
+        <v>13.60250212705833</v>
       </c>
       <c r="X698" s="17">
-        <v>9.9810048995313565</v>
-      </c>
-      <c r="Y698" s="40"/>
+        <v>10.293345365468909</v>
+      </c>
+      <c r="Y698" s="17"/>
     </row>
     <row r="699" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
-      <c r="W699" s="17"/>
-      <c r="X699" s="17"/>
-      <c r="Y699" s="40"/>
     </row>
     <row r="700" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="W700" s="17"/>
-      <c r="X700" s="17"/>
-      <c r="Y700" s="40"/>
     </row>
     <row r="701" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A701" s="27" t="s">
@@ -32303,18 +32320,18 @@
         <v>4.6022676575084631</v>
       </c>
       <c r="U701" s="17">
-        <v>-10.752613452375897</v>
+        <v>-11.104643939085889</v>
       </c>
       <c r="V701" s="17">
-        <v>4.3461077712506579</v>
+        <v>4.8706091454364042</v>
       </c>
       <c r="W701" s="17">
-        <v>6.2460013627621151</v>
+        <v>6.7488293949586478</v>
       </c>
       <c r="X701" s="17">
-        <v>4.3332309197926264</v>
-      </c>
-      <c r="Y701" s="40"/>
+        <v>4.628592722749076</v>
+      </c>
+      <c r="Y701" s="17"/>
     </row>
     <row r="702" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A702" s="27" t="s">
@@ -32378,18 +32395,18 @@
         <v>3.8706813233121409</v>
       </c>
       <c r="U702" s="17">
-        <v>-12.66851366715882</v>
+        <v>-13.012987010615774</v>
       </c>
       <c r="V702" s="17">
-        <v>0.38756030909192418</v>
+        <v>0.89216382960559315</v>
       </c>
       <c r="W702" s="17">
-        <v>8.5426786626461535</v>
+        <v>9.0372225796139389</v>
       </c>
       <c r="X702" s="17">
-        <v>9.173785822745927</v>
-      </c>
-      <c r="Y702" s="40"/>
+        <v>9.4905911893314681</v>
+      </c>
+      <c r="Y702" s="17"/>
     </row>
     <row r="703" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A703" s="27" t="s">
@@ -32453,18 +32470,18 @@
         <v>4.3542516468287005</v>
       </c>
       <c r="U703" s="17">
-        <v>-9.2121530284267834</v>
+        <v>-9.5702597606580611</v>
       </c>
       <c r="V703" s="17">
-        <v>2.8623231987914295</v>
+        <v>3.3793662492900012</v>
       </c>
       <c r="W703" s="17">
-        <v>6.9543925372074682</v>
+        <v>7.4509022549357411</v>
       </c>
       <c r="X703" s="17">
-        <v>4.3499297920999567</v>
-      </c>
-      <c r="Y703" s="40"/>
+        <v>4.6481437008326907</v>
+      </c>
+      <c r="Y703" s="17"/>
     </row>
     <row r="704" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A704" s="15"/>
@@ -32489,9 +32506,9 @@
       <c r="T704" s="15"/>
       <c r="U704" s="15"/>
       <c r="V704" s="15"/>
-      <c r="W704" s="38"/>
-      <c r="X704" s="38"/>
-      <c r="Y704" s="38"/>
+      <c r="W704" s="15"/>
+      <c r="X704" s="15"/>
+      <c r="Y704" s="15"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
@@ -32501,22 +32518,12 @@
     <row r="706" spans="1:1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="U88:U103 U106 U108 U110">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126:U141 U144 U146 U148">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W88:Y110 W126:Y148 W163:Y185 W201:Y223 W239:Y261 W355:Y378 W394:Y417 W432:Y455 W471:Y494 W510:Y533 W597:Y605 W621:Y629 W645:Y653">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W696:Y703">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDFB91-1A98-400B-AA69-ADF5A93D0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E13F8-B0E9-4D46-9682-26548A178CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <definedName name="PAD_Cons">#REF!</definedName>
     <definedName name="PAD_Curr" localSheetId="0">Summary!#REF!</definedName>
     <definedName name="PAD_Curr">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$Y$706</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$Z$706</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$A:$A</definedName>
     <definedName name="PROD_GR_Cons" localSheetId="0">Summary!$A$387:$A$419</definedName>
     <definedName name="PROD_GR_Cons">#REF!</definedName>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="115">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -376,10 +376,6 @@
     <t>07. Professional and business services</t>
   </si>
   <si>
-    <t>08. Public administration and defense; 
-      compulsory social activities</t>
-  </si>
-  <si>
     <t>09. Education</t>
   </si>
   <si>
@@ -518,19 +514,23 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2023</t>
-  </si>
-  <si>
-    <t>As of April 2024</t>
-  </si>
-  <si>
     <t>Note: Population for 2000 to 2019 are based on the 2000, 2010 and 2015-based population projections. Population for 2020 onwards are based on 2020-based population projections.</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>08. Public administration and defense; 
+      compulsory social security</t>
+  </si>
+  <si>
+    <t>2023 - 2024</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2024</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +712,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -721,7 +724,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{86872052-F4BE-4C30-BD75-CD271D7C7ACD}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1019,10 +1029,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE706"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A653" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A648" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight" activeCell="AD686" sqref="AD686"/>
+      <selection pane="topRight" activeCell="A686" sqref="A686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,47 +1044,48 @@
     <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.28515625" style="3"/>
+    <col min="15" max="23" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="13.85546875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>46</v>
@@ -1102,10 +1113,11 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="9">
         <v>2000</v>
@@ -1179,8 +1191,11 @@
       <c r="Y10" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1250,14 +1265,17 @@
       <c r="W12" s="10">
         <v>14608546.502977364</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="34">
         <v>16725044.723724842</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="34">
         <v>18608329.180382833</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="34">
+        <v>20127321.452065796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1327,14 +1345,17 @@
       <c r="W13" s="10">
         <v>3024017.4249472991</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="34">
         <v>3313862.1286355802</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="34">
         <v>3465202.2571282908</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="34">
+        <v>3842718.9585372061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1404,14 +1425,17 @@
       <c r="W14" s="10">
         <v>4103546.9873818695</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="34">
         <v>5437869.8263739794</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="34">
         <v>5671386.7256698404</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="34">
+        <v>6266536.669193686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -1481,14 +1505,17 @@
       <c r="W15" s="10">
         <v>4324545.0722124446</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="34">
         <v>5142714.0733687067</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="34">
         <v>5744028.6600849489</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="34">
+        <v>6225214.2277846169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1558,14 +1585,17 @@
       <c r="W16" s="10">
         <v>2681782.9878097195</v>
       </c>
-      <c r="X16" s="10">
+      <c r="X16" s="34">
         <v>3235413.1045834022</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="34">
         <v>3644960.2536660829</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="34">
+        <v>4070543.7382409712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
@@ -1635,14 +1665,17 @@
       <c r="W17" s="10">
         <v>1071207.9001196469</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="34">
         <v>1313676.57204714</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="34">
         <v>1482058.4833376138</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="34">
+        <v>1520000.3257147651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
@@ -1712,14 +1745,17 @@
       <c r="W18" s="10">
         <v>427222.98622018914</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="34">
         <v>437247.2149429986</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="34">
         <v>451684.48688995198</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="34">
+        <v>461564.38328687183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
@@ -1789,14 +1825,17 @@
       <c r="W19" s="10">
         <v>144331.19806288916</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="34">
         <v>156377.18179516704</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="34">
         <v>165325.43619129996</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="34">
+        <v>173105.78054200881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1866,14 +1905,17 @@
       <c r="W20" s="10">
         <v>-222040.41898328852</v>
       </c>
-      <c r="X20" s="10">
+      <c r="X20" s="34">
         <v>294024.87281235412</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="34">
         <v>-74141.299978609823</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="34">
+        <v>39909.024153087703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -1943,14 +1985,17 @@
       <c r="W21" s="10">
         <v>1042.334152713604</v>
       </c>
-      <c r="X21" s="10">
+      <c r="X21" s="34">
         <v>1130.8801929189103</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="34">
         <v>1499.3655635017042</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="34">
+        <v>1413.4172559822598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -2020,14 +2065,17 @@
       <c r="W22" s="10">
         <v>4998628.2199455341</v>
       </c>
-      <c r="X22" s="10">
+      <c r="X22" s="34">
         <v>6253255.257619489</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="34">
         <v>6481807.7288937625</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="34">
+        <v>6833311.3290328607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
@@ -2097,14 +2145,17 @@
       <c r="W23" s="10">
         <v>2917951.4169858913</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="34">
         <v>3571498.5245334646</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="34">
         <v>3318729.4860827397</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="34">
+        <v>3347985.1098073083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -2174,14 +2225,17 @@
       <c r="W24" s="10">
         <v>2080676.8029596431</v>
       </c>
-      <c r="X24" s="10">
+      <c r="X24" s="34">
         <v>2681756.7330860244</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Y24" s="34">
         <v>3163078.2428110228</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z24" s="34">
+        <v>3485326.2192255519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2251,14 +2305,17 @@
       <c r="W25" s="10">
         <v>7324124.6490688436</v>
       </c>
-      <c r="X25" s="10">
+      <c r="X25" s="34">
         <v>9701755.5986976214</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="34">
         <v>9908114.4930058438</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="34">
+        <v>10591088.90787939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
@@ -2328,14 +2385,17 @@
       <c r="W26" s="10">
         <v>6296809.2296851315</v>
       </c>
-      <c r="X26" s="10">
+      <c r="X26" s="34">
         <v>8197099.4009328969</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="34">
         <v>7922602.8373487489</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="34">
+        <v>8288683.1900549363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
@@ -2405,14 +2465,17 @@
       <c r="W27" s="10">
         <v>1027315.4193837126</v>
       </c>
-      <c r="X27" s="10">
+      <c r="X27" s="34">
         <v>1504656.197764725</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="Y27" s="34">
         <v>1985511.6556570944</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z27" s="34">
+        <v>2302405.7178244544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2482,14 +2545,17 @@
       <c r="W28" s="10">
         <v>0</v>
       </c>
-      <c r="X28" s="10">
+      <c r="X28" s="34">
         <v>0</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="34">
+        <v>-42018.204123422503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2512,10 +2578,11 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
@@ -2585,14 +2652,17 @@
       <c r="W30" s="10">
         <v>19410614.486183222</v>
       </c>
-      <c r="X30" s="10">
+      <c r="X30" s="34">
         <v>22028276.337656274</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y30" s="34">
         <v>24318611.399068885</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="34">
+        <v>26436781.296826735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2615,10 +2685,11 @@
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -2688,14 +2759,17 @@
       <c r="W32" s="10">
         <v>690387.60375562287</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X32" s="34">
         <v>1294378.7136952721</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Y32" s="34">
         <v>2670713.283635254</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="34">
+        <v>3440796.9071392077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2718,10 +2792,11 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -2791,14 +2866,17 @@
       <c r="W34" s="10">
         <v>20101002.089938845</v>
       </c>
-      <c r="X34" s="10">
+      <c r="X34" s="34">
         <v>23322655.051351547</v>
       </c>
-      <c r="Y34" s="10">
+      <c r="Y34" s="34">
         <v>26989324.68270414</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z34" s="34">
+        <v>29877578.203965943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2824,49 +2902,50 @@
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="15"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>46</v>
@@ -2894,10 +2973,11 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="9">
         <v>2000</v>
@@ -2971,8 +3051,11 @@
       <c r="Y48" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -3042,14 +3125,17 @@
       <c r="W50" s="10">
         <v>13455117.064156942</v>
       </c>
-      <c r="X50" s="10">
+      <c r="X50" s="34">
         <v>14570348.202131875</v>
       </c>
-      <c r="Y50" s="10">
+      <c r="Y50" s="34">
         <v>15381271.647616927</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="34">
+        <v>16116167.177558165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -3119,14 +3205,17 @@
       <c r="W51" s="10">
         <v>2842704.7559254342</v>
       </c>
-      <c r="X51" s="10">
+      <c r="X51" s="34">
         <v>2988608.7660827152</v>
       </c>
-      <c r="Y51" s="10">
+      <c r="Y51" s="34">
         <v>3005102.527909623</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z51" s="34">
+        <v>3222414.4103666609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
@@ -3196,14 +3285,17 @@
       <c r="W52" s="10">
         <v>4051797.6976451259</v>
       </c>
-      <c r="X52" s="10">
+      <c r="X52" s="34">
         <v>4606648.2312439373</v>
       </c>
-      <c r="Y52" s="10">
+      <c r="Y52" s="34">
         <v>4878673.7830315512</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="34">
+        <v>5242418.7718375251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>1</v>
       </c>
@@ -3273,14 +3365,17 @@
       <c r="W53" s="10">
         <v>4132142.1709895888</v>
       </c>
-      <c r="X53" s="10">
+      <c r="X53" s="34">
         <v>4535176.0436172327</v>
       </c>
-      <c r="Y53" s="10">
+      <c r="Y53" s="34">
         <v>4905932.7571878359</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="34">
+        <v>5210385.3038473688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>2</v>
       </c>
@@ -3350,14 +3445,17 @@
       <c r="W54" s="10">
         <v>2490376.6568596968</v>
       </c>
-      <c r="X54" s="10">
+      <c r="X54" s="34">
         <v>2792474.3334920201</v>
       </c>
-      <c r="Y54" s="10">
+      <c r="Y54" s="34">
         <v>3047156.3773942003</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="34">
+        <v>3363560.9919770556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
@@ -3427,14 +3525,17 @@
       <c r="W55" s="10">
         <v>1121002.9288967871</v>
       </c>
-      <c r="X55" s="10">
+      <c r="X55" s="34">
         <v>1214725.4868574869</v>
       </c>
-      <c r="Y55" s="10">
+      <c r="Y55" s="34">
         <v>1322416.5794645459</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="34">
+        <v>1311689.6420920955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>4</v>
       </c>
@@ -3504,14 +3605,17 @@
       <c r="W56" s="10">
         <v>376350.12557621382</v>
       </c>
-      <c r="X56" s="10">
+      <c r="X56" s="34">
         <v>378240.624893634</v>
       </c>
-      <c r="Y56" s="10">
+      <c r="Y56" s="34">
         <v>381690.898016122</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="34">
+        <v>375652.41792739247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>5</v>
       </c>
@@ -3581,14 +3685,17 @@
       <c r="W57" s="10">
         <v>144412.45965689089</v>
       </c>
-      <c r="X57" s="10">
+      <c r="X57" s="34">
         <v>149735.59837409202</v>
       </c>
-      <c r="Y57" s="10">
+      <c r="Y57" s="34">
         <v>154668.90231296723</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="34">
+        <v>159482.25185082442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>6</v>
       </c>
@@ -3658,14 +3765,17 @@
       <c r="W58" s="10">
         <v>-81106.70183858597</v>
       </c>
-      <c r="X58" s="10">
+      <c r="X58" s="34">
         <v>70707.734345274788</v>
       </c>
-      <c r="Y58" s="10">
+      <c r="Y58" s="34">
         <v>-28248.96935975839</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="34">
+        <v>31172.121835943184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
@@ -3735,14 +3845,17 @@
       <c r="W59" s="10">
         <v>762.22849412329833</v>
       </c>
-      <c r="X59" s="10">
+      <c r="X59" s="34">
         <v>764.4532814292038</v>
       </c>
-      <c r="Y59" s="10">
+      <c r="Y59" s="34">
         <v>989.99520347367593</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z59" s="34">
+        <v>861.34615421292779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -3812,14 +3925,17 @@
       <c r="W60" s="10">
         <v>5129673.6108313287</v>
       </c>
-      <c r="X60" s="10">
+      <c r="X60" s="34">
         <v>5691851.2968486836</v>
       </c>
-      <c r="Y60" s="10">
+      <c r="Y60" s="34">
         <v>5773779.8780201282</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="34">
+        <v>5972103.7705827625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>7</v>
       </c>
@@ -3889,14 +4005,17 @@
       <c r="W61" s="10">
         <v>3182306.3531660088</v>
       </c>
-      <c r="X61" s="10">
+      <c r="X61" s="34">
         <v>3343765.1208960977</v>
       </c>
-      <c r="Y61" s="10">
+      <c r="Y61" s="34">
         <v>3101252.6735432711</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="34">
+        <v>3078927.2937011481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
@@ -3966,14 +4085,17 @@
       <c r="W62" s="10">
         <v>1947367.2576653198</v>
       </c>
-      <c r="X62" s="10">
+      <c r="X62" s="34">
         <v>2348086.1759525859</v>
       </c>
-      <c r="Y62" s="10">
+      <c r="Y62" s="34">
         <v>2672527.2044768566</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z62" s="34">
+        <v>2893176.4768816144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -4043,14 +4165,17 @@
       <c r="W63" s="10">
         <v>6939208.90862709</v>
       </c>
-      <c r="X63" s="10">
+      <c r="X63" s="34">
         <v>7911851.8051987011</v>
       </c>
-      <c r="Y63" s="10">
+      <c r="Y63" s="34">
         <v>7987069.5941518527</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="34">
+        <v>8329470.3458126914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>9</v>
       </c>
@@ -4120,14 +4245,17 @@
       <c r="W64" s="10">
         <v>5923051.0510839047</v>
       </c>
-      <c r="X64" s="10">
+      <c r="X64" s="34">
         <v>6442284.8087853184</v>
       </c>
-      <c r="Y64" s="10">
+      <c r="Y64" s="34">
         <v>6147060.3809311297</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="34">
+        <v>6270567.9713612627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>10</v>
       </c>
@@ -4197,14 +4325,17 @@
       <c r="W65" s="10">
         <v>1016157.8575431851</v>
       </c>
-      <c r="X65" s="10">
+      <c r="X65" s="34">
         <v>1469566.9964133829</v>
       </c>
-      <c r="Y65" s="10">
+      <c r="Y65" s="34">
         <v>1840009.213220723</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z65" s="34">
+        <v>2058902.3744514291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4274,14 +4405,17 @@
       <c r="W66" s="10">
         <v>0</v>
       </c>
-      <c r="X66" s="10">
+      <c r="X66" s="34">
         <v>0</v>
       </c>
-      <c r="Y66" s="10">
+      <c r="Y66" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="34">
+        <v>16100.51610615477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -4304,10 +4438,11 @@
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>28</v>
       </c>
@@ -4377,14 +4512,17 @@
       <c r="W68" s="10">
         <v>18540084.219931744</v>
       </c>
-      <c r="X68" s="10">
+      <c r="X68" s="34">
         <v>19945604.69110851</v>
       </c>
-      <c r="Y68" s="10">
+      <c r="Y68" s="34">
         <v>21051758.242426377</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="34">
+        <v>22239734.300638575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4407,10 +4545,11 @@
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
@@ -4480,14 +4619,17 @@
       <c r="W70" s="10">
         <v>639322.08928792004</v>
       </c>
-      <c r="X70" s="10">
+      <c r="X70" s="34">
         <v>1130110.6242379025</v>
       </c>
-      <c r="Y70" s="10">
+      <c r="Y70" s="34">
         <v>2226469.1862269542</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="34">
+        <v>2807179.1847193055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4510,10 +4652,11 @@
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>27</v>
       </c>
@@ -4583,14 +4726,17 @@
       <c r="W72" s="10">
         <v>19179406.309219666</v>
       </c>
-      <c r="X72" s="10">
+      <c r="X72" s="34">
         <v>21075715.315346412</v>
       </c>
-      <c r="Y72" s="10">
+      <c r="Y72" s="34">
         <v>23278227.42865333</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z72" s="34">
+        <v>25046913.485357881</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4616,49 +4762,50 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="15"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
         <v>46</v>
@@ -4686,83 +4833,87 @@
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="6"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="I86" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="J86" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="K86" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K86" s="9" t="s">
+      <c r="L86" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="M86" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M86" s="9" t="s">
+      <c r="N86" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="O86" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O86" s="9" t="s">
+      <c r="P86" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P86" s="9" t="s">
+      <c r="Q86" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q86" s="9" t="s">
+      <c r="R86" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R86" s="9" t="s">
+      <c r="S86" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S86" s="9" t="s">
+      <c r="T86" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T86" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U86" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V86" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V86" s="9" t="s">
+      <c r="W86" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W86" s="9" t="s">
+      <c r="X86" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X86" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y86" s="9"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z86" s="9"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -4835,9 +4986,12 @@
       <c r="X88" s="17">
         <v>11.260265594306659</v>
       </c>
-      <c r="Y88" s="17"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y88" s="17">
+        <v>8.1629696946908297</v>
+      </c>
+      <c r="Z88" s="17"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>13</v>
       </c>
@@ -4910,9 +5064,12 @@
       <c r="X89" s="17">
         <v>4.566880655201615</v>
       </c>
-      <c r="Y89" s="17"/>
-    </row>
-    <row r="90" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89" s="17">
+        <v>10.894506969465439</v>
+      </c>
+      <c r="Z89" s="17"/>
+    </row>
+    <row r="90" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>14</v>
       </c>
@@ -4985,9 +5142,12 @@
       <c r="X90" s="17">
         <v>4.2942715944263909</v>
       </c>
-      <c r="Y90" s="17"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y90" s="17">
+        <v>10.49390514722046</v>
+      </c>
+      <c r="Z90" s="17"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>1</v>
       </c>
@@ -5060,9 +5220,12 @@
       <c r="X91" s="17">
         <v>11.692553350965397</v>
       </c>
-      <c r="Y91" s="17"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="17">
+        <v>8.3771442688545363</v>
+      </c>
+      <c r="Z91" s="17"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>2</v>
       </c>
@@ -5135,9 +5298,12 @@
       <c r="X92" s="17">
         <v>12.658264519683797</v>
       </c>
-      <c r="Y92" s="17"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y92" s="17">
+        <v>11.675943081871438</v>
+      </c>
+      <c r="Z92" s="17"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>3</v>
       </c>
@@ -5210,9 +5376,12 @@
       <c r="X93" s="17">
         <v>12.817607839963173</v>
       </c>
-      <c r="Y93" s="17"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y93" s="17">
+        <v>2.5600772711550377</v>
+      </c>
+      <c r="Z93" s="17"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>4</v>
       </c>
@@ -5285,9 +5454,12 @@
       <c r="X94" s="17">
         <v>3.3018556673563921</v>
       </c>
-      <c r="Y94" s="17"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="17">
+        <v>2.187344636285232</v>
+      </c>
+      <c r="Z94" s="17"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>5</v>
       </c>
@@ -5360,9 +5532,12 @@
       <c r="X95" s="17">
         <v>5.7222251311920473</v>
       </c>
-      <c r="Y95" s="17"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y95" s="17">
+        <v>4.7060782236232086</v>
+      </c>
+      <c r="Z95" s="17"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>6</v>
       </c>
@@ -5390,8 +5565,9 @@
       <c r="W96" s="17"/>
       <c r="X96" s="17"/>
       <c r="Y96" s="17"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="17"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>19</v>
       </c>
@@ -5464,9 +5640,12 @@
       <c r="X97" s="17">
         <v>32.583944160494809</v>
       </c>
-      <c r="Y97" s="17"/>
-    </row>
-    <row r="98" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y97" s="17">
+        <v>-5.7323116931347897</v>
+      </c>
+      <c r="Z97" s="17"/>
+    </row>
+    <row r="98" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>15</v>
       </c>
@@ -5539,9 +5718,12 @@
       <c r="X98" s="17">
         <v>3.6549358991188683</v>
       </c>
-      <c r="Y98" s="17"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y98" s="17">
+        <v>5.4229254374857732</v>
+      </c>
+      <c r="Z98" s="17"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
         <v>7</v>
       </c>
@@ -5614,9 +5796,12 @@
       <c r="X99" s="17">
         <v>-7.0773944526196715</v>
       </c>
-      <c r="Y99" s="17"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y99" s="17">
+        <v>0.8815308342320094</v>
+      </c>
+      <c r="Z99" s="17"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>8</v>
       </c>
@@ -5689,9 +5874,12 @@
       <c r="X100" s="17">
         <v>17.947992962475709</v>
       </c>
-      <c r="Y100" s="17"/>
-    </row>
-    <row r="101" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y100" s="17">
+        <v>10.187796560104928</v>
+      </c>
+      <c r="Z100" s="17"/>
+    </row>
+    <row r="101" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5764,9 +5952,12 @@
       <c r="X101" s="17">
         <v>2.1270263119792929</v>
       </c>
-      <c r="Y101" s="17"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y101" s="17">
+        <v>6.8930815782928079</v>
+      </c>
+      <c r="Z101" s="17"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>9</v>
       </c>
@@ -5839,9 +6030,12 @@
       <c r="X102" s="17">
         <v>-3.3487036103637848</v>
       </c>
-      <c r="Y102" s="17"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y102" s="17">
+        <v>4.6207081210787351</v>
+      </c>
+      <c r="Z102" s="17"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>10</v>
       </c>
@@ -5914,9 +6108,12 @@
       <c r="X103" s="17">
         <v>31.957829210866549</v>
       </c>
-      <c r="Y103" s="17"/>
-    </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y103" s="17">
+        <v>15.960322431977133</v>
+      </c>
+      <c r="Z103" s="17"/>
+    </row>
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -5940,8 +6137,9 @@
       <c r="W104" s="17"/>
       <c r="X104" s="17"/>
       <c r="Y104" s="17"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z104" s="17"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -5965,8 +6163,9 @@
       <c r="W105" s="17"/>
       <c r="X105" s="17"/>
       <c r="Y105" s="17"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z105" s="17"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>28</v>
       </c>
@@ -6039,9 +6238,12 @@
       <c r="X106" s="17">
         <v>10.397250453488255</v>
       </c>
-      <c r="Y106" s="17"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y106" s="17">
+        <v>8.7100774916735162</v>
+      </c>
+      <c r="Z106" s="17"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -6065,8 +6267,9 @@
       <c r="W107" s="17"/>
       <c r="X107" s="17"/>
       <c r="Y107" s="17"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z107" s="17"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
@@ -6139,9 +6342,12 @@
       <c r="X108" s="17">
         <v>106.33167521820081</v>
       </c>
-      <c r="Y108" s="17"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y108" s="17">
+        <v>28.834380246753796</v>
+      </c>
+      <c r="Z108" s="17"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -6165,8 +6371,9 @@
       <c r="W109" s="17"/>
       <c r="X109" s="17"/>
       <c r="Y109" s="17"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z109" s="17"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>27</v>
       </c>
@@ -6239,9 +6446,12 @@
       <c r="X110" s="17">
         <v>15.721493214556247</v>
       </c>
-      <c r="Y110" s="17"/>
-    </row>
-    <row r="111" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y110" s="17">
+        <v>10.701466432439915</v>
+      </c>
+      <c r="Z110" s="17"/>
+    </row>
+    <row r="111" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -6267,54 +6477,55 @@
       <c r="W111" s="15"/>
       <c r="X111" s="15"/>
       <c r="Y111" s="15"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z111" s="15"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
         <v>46</v>
@@ -6342,83 +6553,87 @@
       <c r="W123" s="7"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z123" s="6"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="D124" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="F124" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="G124" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="H124" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="I124" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="J124" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J124" s="9" t="s">
+      <c r="K124" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K124" s="9" t="s">
+      <c r="L124" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L124" s="9" t="s">
+      <c r="M124" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M124" s="9" t="s">
+      <c r="N124" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N124" s="9" t="s">
+      <c r="O124" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O124" s="9" t="s">
+      <c r="P124" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P124" s="9" t="s">
+      <c r="Q124" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q124" s="9" t="s">
+      <c r="R124" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R124" s="9" t="s">
+      <c r="S124" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S124" s="9" t="s">
+      <c r="T124" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T124" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U124" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V124" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V124" s="9" t="s">
+      <c r="W124" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W124" s="9" t="s">
+      <c r="X124" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X124" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y124" s="9"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y124" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z124" s="9"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -6491,9 +6706,12 @@
       <c r="X126" s="17">
         <v>5.5655735486568574</v>
       </c>
-      <c r="Y126" s="17"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y126" s="17">
+        <v>4.7778593784545649</v>
+      </c>
+      <c r="Z126" s="17"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>13</v>
       </c>
@@ -6566,9 +6784,12 @@
       <c r="X127" s="17">
         <v>0.55188762122672586</v>
       </c>
-      <c r="Y127" s="17"/>
-    </row>
-    <row r="128" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y127" s="17">
+        <v>7.23142989095291</v>
+      </c>
+      <c r="Z127" s="17"/>
+    </row>
+    <row r="128" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>14</v>
       </c>
@@ -6641,9 +6862,12 @@
       <c r="X128" s="17">
         <v>5.9050645530656993</v>
       </c>
-      <c r="Y128" s="17"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y128" s="17">
+        <v>7.4558169900826385</v>
+      </c>
+      <c r="Z128" s="17"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>1</v>
       </c>
@@ -6716,9 +6940,12 @@
       <c r="X129" s="17">
         <v>8.1751338868620849</v>
       </c>
-      <c r="Y129" s="17"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y129" s="17">
+        <v>6.2058034980905461</v>
+      </c>
+      <c r="Z129" s="17"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>2</v>
       </c>
@@ -6791,9 +7018,12 @@
       <c r="X130" s="17">
         <v>9.1203002601530727</v>
       </c>
-      <c r="Y130" s="17"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y130" s="17">
+        <v>10.383602788821463</v>
+      </c>
+      <c r="Z130" s="17"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>3</v>
       </c>
@@ -6866,9 +7096,12 @@
       <c r="X131" s="17">
         <v>8.8654674469420769</v>
       </c>
-      <c r="Y131" s="17"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y131" s="17">
+        <v>-0.81116174275385333</v>
+      </c>
+      <c r="Z131" s="17"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>4</v>
       </c>
@@ -6941,9 +7174,12 @@
       <c r="X132" s="17">
         <v>0.91218999108259879</v>
       </c>
-      <c r="Y132" s="17"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y132" s="17">
+        <v>-1.5820340804863662</v>
+      </c>
+      <c r="Z132" s="17"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>5</v>
       </c>
@@ -7016,9 +7252,12 @@
       <c r="X133" s="17">
         <v>3.2946767451718983</v>
       </c>
-      <c r="Y133" s="17"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y133" s="17">
+        <v>3.1120344593365843</v>
+      </c>
+      <c r="Z133" s="17"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>6</v>
       </c>
@@ -7046,8 +7285,9 @@
       <c r="W134" s="17"/>
       <c r="X134" s="17"/>
       <c r="Y134" s="17"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z134" s="17"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>19</v>
       </c>
@@ -7120,9 +7360,12 @@
       <c r="X135" s="17">
         <v>29.50368943708429</v>
       </c>
-      <c r="Y135" s="17"/>
-    </row>
-    <row r="136" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y135" s="17">
+        <v>-12.994916420740907</v>
+      </c>
+      <c r="Z135" s="17"/>
+    </row>
+    <row r="136" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>15</v>
       </c>
@@ -7195,9 +7438,12 @@
       <c r="X136" s="17">
         <v>1.4394012931575446</v>
       </c>
-      <c r="Y136" s="17"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y136" s="17">
+        <v>3.4349056727573242</v>
+      </c>
+      <c r="Z136" s="17"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>7</v>
       </c>
@@ -7270,9 +7516,12 @@
       <c r="X137" s="17">
         <v>-7.2526759082837629</v>
       </c>
-      <c r="Y137" s="17"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y137" s="17">
+        <v>-0.71988264718255834</v>
+      </c>
+      <c r="Z137" s="17"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>8</v>
       </c>
@@ -7345,9 +7594,12 @@
       <c r="X138" s="17">
         <v>13.817253891571909</v>
       </c>
-      <c r="Y138" s="17"/>
-    </row>
-    <row r="139" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y138" s="17">
+        <v>8.2562030438881635</v>
+      </c>
+      <c r="Z138" s="17"/>
+    </row>
+    <row r="139" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>16</v>
       </c>
@@ -7420,9 +7672,12 @@
       <c r="X139" s="17">
         <v>0.95069764708848936</v>
       </c>
-      <c r="Y139" s="17"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y139" s="17">
+        <v>4.286938377393696</v>
+      </c>
+      <c r="Z139" s="17"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>9</v>
       </c>
@@ -7495,9 +7750,12 @@
       <c r="X140" s="17">
         <v>-4.5826044115837874</v>
       </c>
-      <c r="Y140" s="17"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y140" s="17">
+        <v>2.0092138807236637</v>
+      </c>
+      <c r="Z140" s="17"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>10</v>
       </c>
@@ -7570,9 +7828,12 @@
       <c r="X141" s="17">
         <v>25.20757595342296</v>
       </c>
-      <c r="Y141" s="17"/>
-    </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y141" s="17">
+        <v>11.896307891174047</v>
+      </c>
+      <c r="Z141" s="17"/>
+    </row>
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -7596,8 +7857,9 @@
       <c r="W142" s="17"/>
       <c r="X142" s="17"/>
       <c r="Y142" s="17"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z142" s="17"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -7621,8 +7883,9 @@
       <c r="W143" s="17"/>
       <c r="X143" s="17"/>
       <c r="Y143" s="17"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z143" s="17"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>28</v>
       </c>
@@ -7695,9 +7958,12 @@
       <c r="X144" s="17">
         <v>5.5458511709648945</v>
       </c>
-      <c r="Y144" s="17"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y144" s="17">
+        <v>5.6431203728058534</v>
+      </c>
+      <c r="Z144" s="17"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -7721,8 +7987,9 @@
       <c r="W145" s="17"/>
       <c r="X145" s="17"/>
       <c r="Y145" s="17"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z145" s="17"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>11</v>
       </c>
@@ -7795,9 +8062,12 @@
       <c r="X146" s="17">
         <v>97.013384218769602</v>
       </c>
-      <c r="Y146" s="17"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y146" s="17">
+        <v>26.082103542445196</v>
+      </c>
+      <c r="Z146" s="17"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -7821,8 +8091,9 @@
       <c r="W147" s="17"/>
       <c r="X147" s="17"/>
       <c r="Y147" s="17"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z147" s="17"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>27</v>
       </c>
@@ -7895,9 +8166,12 @@
       <c r="X148" s="17">
         <v>10.450473829009937</v>
       </c>
-      <c r="Y148" s="17"/>
-    </row>
-    <row r="149" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y148" s="17">
+        <v>7.5980272214690245</v>
+      </c>
+      <c r="Z148" s="17"/>
+    </row>
+    <row r="149" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -7923,49 +8197,50 @@
       <c r="W149" s="15"/>
       <c r="X149" s="15"/>
       <c r="Y149" s="15"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z149" s="15"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
         <v>46</v>
@@ -7993,10 +8268,11 @@
       <c r="W160" s="7"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z160" s="7"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B161" s="9">
         <v>2000</v>
@@ -8070,8 +8346,11 @@
       <c r="Y161" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z161" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
@@ -8147,8 +8426,11 @@
       <c r="Y163" s="17">
         <v>120.98043391143077</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z163" s="17">
+        <v>124.88900884630422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>13</v>
       </c>
@@ -8224,8 +8506,11 @@
       <c r="Y164" s="17">
         <v>115.31061669096255</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z164" s="17">
+        <v>119.24968266573647</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>14</v>
       </c>
@@ -8301,8 +8586,11 @@
       <c r="Y165" s="17">
         <v>116.24853347226069</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z165" s="17">
+        <v>119.53521727141985</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
@@ -8378,8 +8666,11 @@
       <c r="Y166" s="17">
         <v>117.0833141092118</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z166" s="17">
+        <v>119.47704180702135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>2</v>
       </c>
@@ -8455,8 +8746,11 @@
       <c r="Y167" s="17">
         <v>119.61841803416402</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z167" s="17">
+        <v>121.0188769566019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>3</v>
       </c>
@@ -8532,8 +8826,11 @@
       <c r="Y168" s="17">
         <v>112.07198294033094</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z168" s="17">
+        <v>115.88109541601793</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>4</v>
       </c>
@@ -8609,8 +8906,11 @@
       <c r="Y169" s="17">
         <v>118.33776734987104</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z169" s="17">
+        <v>122.87006851532757</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>5</v>
       </c>
@@ -8686,8 +8986,11 @@
       <c r="Y170" s="17">
         <v>106.8899007615439</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z170" s="17">
+        <v>108.54234783687873</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>6</v>
       </c>
@@ -8715,8 +9018,9 @@
       <c r="W171" s="17"/>
       <c r="X171" s="17"/>
       <c r="Y171" s="17"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z171" s="17"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>19</v>
       </c>
@@ -8792,8 +9096,11 @@
       <c r="Y172" s="17">
         <v>151.45180080072706</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z172" s="17">
+        <v>164.09398812186004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>15</v>
       </c>
@@ -8869,8 +9176,11 @@
       <c r="Y173" s="17">
         <v>112.26281337064796</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z173" s="17">
+        <v>114.42050559623918</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
         <v>7</v>
       </c>
@@ -8946,8 +9256,11 @@
       <c r="Y174" s="17">
         <v>107.0125473617406</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z174" s="17">
+        <v>108.73868690100599</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
         <v>8</v>
       </c>
@@ -9023,8 +9336,11 @@
       <c r="Y175" s="17">
         <v>118.35532441025948</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z175" s="17">
+        <v>120.4671145046147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>16</v>
       </c>
@@ -9100,8 +9416,11 @@
       <c r="Y176" s="17">
         <v>124.05193639805748</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z176" s="17">
+        <v>127.1520092895659</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>9</v>
       </c>
@@ -9177,8 +9496,11 @@
       <c r="Y177" s="17">
         <v>128.8844154179053</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z177" s="17">
+        <v>132.18393019437386</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
@@ -9254,8 +9576,11 @@
       <c r="Y178" s="17">
         <v>107.90770184143187</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z178" s="17">
+        <v>111.82685232649285</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -9280,8 +9605,9 @@
       <c r="W179" s="17"/>
       <c r="X179" s="17"/>
       <c r="Y179" s="17"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z179" s="17"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -9306,8 +9632,9 @@
       <c r="W180" s="17"/>
       <c r="X180" s="17"/>
       <c r="Y180" s="17"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z180" s="17"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
         <v>28</v>
       </c>
@@ -9383,8 +9710,11 @@
       <c r="Y181" s="17">
         <v>115.51819624290907</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z181" s="17">
+        <v>118.87183965173382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
@@ -9409,8 +9739,9 @@
       <c r="W182" s="17"/>
       <c r="X182" s="17"/>
       <c r="Y182" s="17"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z182" s="17"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>11</v>
       </c>
@@ -9486,8 +9817,11 @@
       <c r="Y183" s="17">
         <v>119.95285181382323</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z183" s="17">
+        <v>122.57133160109474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
@@ -9512,8 +9846,9 @@
       <c r="W184" s="17"/>
       <c r="X184" s="17"/>
       <c r="Y184" s="17"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z184" s="17"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>27</v>
       </c>
@@ -9589,8 +9924,11 @@
       <c r="Y185" s="17">
         <v>115.94235328022783</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z185" s="17">
+        <v>119.28646705883345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -9616,49 +9954,50 @@
       <c r="W186" s="15"/>
       <c r="X186" s="15"/>
       <c r="Y186" s="15"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z186" s="15"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
       <c r="B198" s="7" t="s">
         <v>46</v>
@@ -9686,10 +10025,11 @@
       <c r="W198" s="7"/>
       <c r="X198" s="7"/>
       <c r="Y198" s="7"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z198" s="7"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B199" s="9">
         <v>2000</v>
@@ -9763,8 +10103,11 @@
       <c r="Y199" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z199" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
@@ -9840,8 +10183,11 @@
       <c r="Y201" s="17">
         <v>76.518880436961595</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z201" s="17">
+        <v>76.133782044343363</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>13</v>
       </c>
@@ -9917,8 +10263,11 @@
       <c r="Y202" s="17">
         <v>14.249178130544768</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z202" s="17">
+        <v>14.53550231925721</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>14</v>
       </c>
@@ -9994,8 +10343,11 @@
       <c r="Y203" s="17">
         <v>23.321178304970928</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z203" s="17">
+        <v>23.703856376592533</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
         <v>1</v>
       </c>
@@ -10071,8 +10423,11 @@
       <c r="Y204" s="17">
         <v>23.619887524930299</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z204" s="17">
+        <v>23.547549748546139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>2</v>
       </c>
@@ -10148,8 +10503,11 @@
       <c r="Y205" s="17">
         <v>14.988356834410544</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z205" s="17">
+        <v>15.397274322232137</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>3</v>
       </c>
@@ -10225,8 +10583,11 @@
       <c r="Y206" s="17">
         <v>6.0943384431660395</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z206" s="17">
+        <v>5.7495665173778701</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>4</v>
       </c>
@@ -10302,8 +10663,11 @@
       <c r="Y207" s="17">
         <v>1.8573613413932266</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z207" s="17">
+        <v>1.7459174704534639</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>5</v>
       </c>
@@ -10379,8 +10743,11 @@
       <c r="Y208" s="17">
         <v>0.67983090596048568</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z208" s="17">
+        <v>0.65479143848266841</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
         <v>6</v>
       </c>
@@ -10456,8 +10823,11 @@
       <c r="Y209" s="17">
         <v>-0.30487472644695723</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z209" s="17">
+        <v>0.15096022358016054</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
         <v>19</v>
       </c>
@@ -10533,8 +10903,11 @@
       <c r="Y210" s="17">
         <v>6.1655064875912775E-3</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z210" s="17">
+        <v>5.3464044662347582E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>15</v>
       </c>
@@ -10610,8 +10983,11 @@
       <c r="Y211" s="17">
         <v>26.65369178579801</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z211" s="17">
+        <v>25.847743158706987</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
         <v>7</v>
       </c>
@@ -10687,8 +11063,11 @@
       <c r="Y212" s="17">
         <v>13.646870833298516</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z212" s="17">
+        <v>12.664117738906342</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
         <v>8</v>
       </c>
@@ -10764,8 +11143,11 @@
       <c r="Y213" s="17">
         <v>13.006820952499499</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z213" s="17">
+        <v>13.183625419800645</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>16</v>
       </c>
@@ -10841,8 +11223,11 @@
       <c r="Y214" s="17">
         <v>40.742928658275311</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z214" s="17">
+        <v>40.061945472729171</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
@@ -10918,8 +11303,11 @@
       <c r="Y215" s="17">
         <v>32.57835205858872</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z215" s="17">
+        <v>31.352845480663127</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
         <v>10</v>
       </c>
@@ -10995,8 +11383,11 @@
       <c r="Y216" s="17">
         <v>8.164576599686594</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z216" s="17">
+        <v>8.7090999920660437</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
@@ -11021,8 +11412,9 @@
       <c r="W217" s="17"/>
       <c r="X217" s="17"/>
       <c r="Y217" s="17"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z217" s="17"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -11047,8 +11439,9 @@
       <c r="W218" s="17"/>
       <c r="X218" s="17"/>
       <c r="Y218" s="17"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z218" s="17"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
         <v>28</v>
       </c>
@@ -11124,8 +11517,11 @@
       <c r="Y219" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z219" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>49</v>
       </c>
@@ -11201,8 +11597,11 @@
       <c r="Y220" s="17">
         <v>90.104556838553435</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z220" s="17">
+        <v>88.483682031890794</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>11</v>
       </c>
@@ -11278,8 +11677,11 @@
       <c r="Y221" s="17">
         <v>9.8954431614465559</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z221" s="17">
+        <v>11.516317968109199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
       <c r="D222" s="17"/>
@@ -11304,8 +11706,9 @@
       <c r="W222" s="17"/>
       <c r="X222" s="17"/>
       <c r="Y222" s="17"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z222" s="17"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>27</v>
       </c>
@@ -11381,8 +11784,11 @@
       <c r="Y223" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z223" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -11408,49 +11814,50 @@
       <c r="W224" s="15"/>
       <c r="X224" s="15"/>
       <c r="Y224" s="15"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z224" s="15"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A233" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A231" s="2"/>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A233" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="7" t="s">
         <v>46</v>
@@ -11478,10 +11885,11 @@
       <c r="W236" s="7"/>
       <c r="X236" s="7"/>
       <c r="Y236" s="7"/>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z236" s="7"/>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B237" s="9">
         <v>2000</v>
@@ -11555,8 +11963,11 @@
       <c r="Y237" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z237" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -11632,8 +12043,11 @@
       <c r="Y239" s="17">
         <v>73.064071278466841</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z239" s="17">
+        <v>72.46564621545599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>13</v>
       </c>
@@ -11709,8 +12123,11 @@
       <c r="Y240" s="17">
         <v>14.274829177229151</v>
       </c>
-    </row>
-    <row r="241" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z240" s="17">
+        <v>14.489446532075407</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>14</v>
       </c>
@@ -11786,8 +12203,11 @@
       <c r="Y241" s="17">
         <v>23.174661835130625</v>
       </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z241" s="17">
+        <v>23.572308468123193</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
         <v>1</v>
       </c>
@@ -11863,8 +12283,11 @@
       <c r="Y242" s="17">
         <v>23.304147333882693</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z242" s="17">
+        <v>23.428271369670821</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>2</v>
       </c>
@@ -11940,8 +12363,11 @@
       <c r="Y243" s="17">
         <v>14.474593249190725</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z243" s="17">
+        <v>15.124106010027633</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>3</v>
       </c>
@@ -12017,8 +12443,11 @@
       <c r="Y244" s="17">
         <v>6.2817393408947266</v>
       </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z244" s="17">
+        <v>5.8979555437154332</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>4</v>
       </c>
@@ -12094,8 +12523,11 @@
       <c r="Y245" s="17">
         <v>1.8131069795723116</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z245" s="17">
+        <v>1.6891047925721228</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>5</v>
       </c>
@@ -12171,8 +12603,11 @@
       <c r="Y246" s="17">
         <v>0.73470776422492512</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z246" s="17">
+        <v>0.71710502335563053</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
         <v>6</v>
       </c>
@@ -12248,8 +12683,11 @@
       <c r="Y247" s="17">
         <v>-0.13418817105179942</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z247" s="17">
+        <v>0.14016409285540848</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
         <v>19</v>
       </c>
@@ -12325,8 +12763,11 @@
       <c r="Y248" s="17">
         <v>4.7026722997345772E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z248" s="17">
+        <v>3.8730055969607323E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -12402,8 +12843,11 @@
       <c r="Y249" s="17">
         <v>27.42659217121361</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z249" s="17">
+        <v>26.853305394081456</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
         <v>7</v>
       </c>
@@ -12479,8 +12923,11 @@
       <c r="Y250" s="17">
         <v>14.731561315829683</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z250" s="17">
+        <v>13.844262939835311</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
         <v>8</v>
       </c>
@@ -12556,8 +13003,11 @@
       <c r="Y251" s="17">
         <v>12.695030855383923</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z251" s="17">
+        <v>13.009042454246146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>16</v>
       </c>
@@ -12633,8 +13083,11 @@
       <c r="Y252" s="17">
         <v>37.940154462040226</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z252" s="17">
+        <v>37.453101881588239</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
         <v>9</v>
       </c>
@@ -12710,8 +13163,11 @@
       <c r="Y253" s="17">
         <v>29.199748116728486</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z253" s="17">
+        <v>28.195336718484153</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
         <v>10</v>
       </c>
@@ -12787,8 +13243,11 @@
       <c r="Y254" s="17">
         <v>8.7404063453117438</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z254" s="17">
+        <v>9.2577651631040894</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
@@ -12813,8 +13272,9 @@
       <c r="W255" s="17"/>
       <c r="X255" s="17"/>
       <c r="Y255" s="17"/>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z255" s="17"/>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
@@ -12839,8 +13299,9 @@
       <c r="W256" s="17"/>
       <c r="X256" s="17"/>
       <c r="Y256" s="17"/>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z256" s="17"/>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>28</v>
       </c>
@@ -12916,8 +13377,11 @@
       <c r="Y257" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z257" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>49</v>
       </c>
@@ -12993,8 +13457,11 @@
       <c r="Y258" s="17">
         <v>90.435400663340999</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z258" s="17">
+        <v>88.792314923911292</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>11</v>
       </c>
@@ -13070,8 +13537,11 @@
       <c r="Y259" s="17">
         <v>9.5645993366590183</v>
       </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z259" s="17">
+        <v>11.20768507608871</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
@@ -13096,8 +13566,9 @@
       <c r="W260" s="17"/>
       <c r="X260" s="17"/>
       <c r="Y260" s="17"/>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z260" s="17"/>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -13173,8 +13644,11 @@
       <c r="Y261" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="262" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z261" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -13200,49 +13674,50 @@
       <c r="W262" s="15"/>
       <c r="X262" s="15"/>
       <c r="Y262" s="15"/>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z262" s="15"/>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
       <c r="B274" s="7" t="s">
         <v>46</v>
@@ -13270,8 +13745,9 @@
       <c r="W274" s="7"/>
       <c r="X274" s="7"/>
       <c r="Y274" s="7"/>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z274" s="7"/>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
         <v>33</v>
       </c>
@@ -13347,8 +13823,11 @@
       <c r="Y275" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="277" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z275" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18" t="s">
         <v>50</v>
       </c>
@@ -13418,14 +13897,17 @@
       <c r="W277" s="19">
         <v>1954486.610016682</v>
       </c>
-      <c r="X277" s="19">
+      <c r="X277" s="34">
         <v>2104089.8599160332</v>
       </c>
-      <c r="Y277" s="19">
+      <c r="Y277" s="34">
         <v>2285159.1602593842</v>
       </c>
-    </row>
-    <row r="278" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z277" s="34">
+        <v>2400667.1117872689</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18" t="s">
         <v>33</v>
       </c>
@@ -13495,14 +13977,17 @@
       <c r="W278" s="19">
         <v>5607689.4737621192</v>
       </c>
-      <c r="X278" s="19">
+      <c r="X278" s="34">
         <v>6436935.4825338954</v>
       </c>
-      <c r="Y278" s="19">
+      <c r="Y278" s="34">
         <v>6853151.6059861928</v>
       </c>
-    </row>
-    <row r="279" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z278" s="34">
+        <v>7317591.012561202</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
         <v>51</v>
       </c>
@@ -13572,14 +14057,17 @@
       <c r="W279" s="19">
         <v>185371.03875113939</v>
       </c>
-      <c r="X279" s="19">
+      <c r="X279" s="34">
         <v>280249.3760596881</v>
       </c>
-      <c r="Y279" s="19">
+      <c r="Y279" s="34">
         <v>232080.23793570866</v>
       </c>
-    </row>
-    <row r="280" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z279" s="34">
+        <v>234680.35357777996</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
         <v>52</v>
       </c>
@@ -13649,14 +14137,17 @@
       <c r="W280" s="19">
         <v>3424048.8354427675</v>
       </c>
-      <c r="X280" s="19">
+      <c r="X280" s="34">
         <v>3795335.3083644402</v>
       </c>
-      <c r="Y280" s="19">
+      <c r="Y280" s="34">
         <v>3943986.5159432963</v>
       </c>
-    </row>
-    <row r="281" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z280" s="34">
+        <v>4139084.7328958297</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A281" s="21" t="s">
         <v>53</v>
       </c>
@@ -13726,14 +14217,17 @@
       <c r="W281" s="19">
         <v>650960.54315708519</v>
       </c>
-      <c r="X281" s="19">
+      <c r="X281" s="34">
         <v>746104.17027961905</v>
       </c>
-      <c r="Y281" s="19">
+      <c r="Y281" s="34">
         <v>844360.23273107316</v>
       </c>
-    </row>
-    <row r="282" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z281" s="34">
+        <v>897233.40863924136</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>54</v>
       </c>
@@ -13803,14 +14297,17 @@
       <c r="W282" s="19">
         <v>1347309.0564111271</v>
       </c>
-      <c r="X282" s="19">
+      <c r="X282" s="34">
         <v>1615246.627830148</v>
       </c>
-      <c r="Y282" s="19">
+      <c r="Y282" s="34">
         <v>1832724.6193761146</v>
       </c>
-    </row>
-    <row r="283" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z282" s="34">
+        <v>2046592.5174483522</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18" t="s">
         <v>55</v>
       </c>
@@ -13880,14 +14377,17 @@
       <c r="W283" s="19">
         <v>11848438.402404422</v>
       </c>
-      <c r="X283" s="19">
+      <c r="X283" s="34">
         <v>13487250.995206343</v>
       </c>
-      <c r="Y283" s="19">
+      <c r="Y283" s="34">
         <v>15180300.632823305</v>
       </c>
-    </row>
-    <row r="284" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z283" s="34">
+        <v>16718523.172478262</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A284" s="21" t="s">
         <v>56</v>
       </c>
@@ -13957,14 +14457,17 @@
       <c r="W284" s="19">
         <v>3502794.4938180256</v>
       </c>
-      <c r="X284" s="19">
+      <c r="X284" s="34">
         <v>3987549.7067140583</v>
       </c>
-      <c r="Y284" s="19">
+      <c r="Y284" s="34">
         <v>4444025.4470289685</v>
       </c>
-    </row>
-    <row r="285" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z284" s="34">
+        <v>4876250.7750580246</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
         <v>57</v>
       </c>
@@ -14034,14 +14537,17 @@
       <c r="W285" s="19">
         <v>605203.56675862649</v>
       </c>
-      <c r="X285" s="19">
+      <c r="X285" s="34">
         <v>807323.23658586771</v>
       </c>
-      <c r="Y285" s="19">
+      <c r="Y285" s="34">
         <v>977398.86522925191</v>
       </c>
-    </row>
-    <row r="286" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z285" s="34">
+        <v>1074646.0969263024</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
         <v>58</v>
       </c>
@@ -14111,14 +14617,17 @@
       <c r="W286" s="19">
         <v>285187.01787847211</v>
       </c>
-      <c r="X286" s="19">
+      <c r="X286" s="34">
         <v>396143.89756514801</v>
       </c>
-      <c r="Y286" s="19">
+      <c r="Y286" s="34">
         <v>511145.62721815088</v>
       </c>
-    </row>
-    <row r="287" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z286" s="34">
+        <v>586465.82678368455</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
         <v>59</v>
       </c>
@@ -14188,14 +14697,17 @@
       <c r="W287" s="19">
         <v>640033.56072924484</v>
       </c>
-      <c r="X287" s="19">
+      <c r="X287" s="34">
         <v>696021.65281555429</v>
       </c>
-      <c r="Y287" s="19">
+      <c r="Y287" s="34">
         <v>733416.51703936071</v>
       </c>
-    </row>
-    <row r="288" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z287" s="34">
+        <v>769429.92212410597</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
         <v>60</v>
       </c>
@@ -14265,14 +14777,17 @@
       <c r="W288" s="19">
         <v>1963148.3992895908</v>
       </c>
-      <c r="X288" s="19">
+      <c r="X288" s="34">
         <v>2224674.7830920857</v>
       </c>
-      <c r="Y288" s="19">
+      <c r="Y288" s="34">
         <v>2565381.4562773211</v>
       </c>
-    </row>
-    <row r="289" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z288" s="34">
+        <v>2889091.4758404046</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
         <v>61</v>
       </c>
@@ -14342,14 +14857,17 @@
       <c r="W289" s="19">
         <v>1139221.0893330369</v>
       </c>
-      <c r="X289" s="19">
+      <c r="X289" s="34">
         <v>1246861.4394502793</v>
       </c>
-      <c r="Y289" s="19">
+      <c r="Y289" s="34">
         <v>1370154.0451491633</v>
       </c>
-    </row>
-    <row r="290" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z289" s="34">
+        <v>1486037.0065598858</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="21" t="s">
         <v>62</v>
       </c>
@@ -14419,16 +14937,19 @@
       <c r="W290" s="19">
         <v>1222488.8088335665</v>
       </c>
-      <c r="X290" s="19">
+      <c r="X290" s="34">
         <v>1350881.4367268961</v>
       </c>
-      <c r="Y290" s="19">
+      <c r="Y290" s="34">
         <v>1487290.6098380145</v>
       </c>
-    </row>
-    <row r="291" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z290" s="34">
+        <v>1647121.6060593692</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A291" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B291" s="19">
         <v>184538.73610142048</v>
@@ -14496,16 +15017,19 @@
       <c r="W291" s="19">
         <v>1027078.9960668562</v>
       </c>
-      <c r="X291" s="19">
+      <c r="X291" s="34">
         <v>1119710.013593711</v>
       </c>
-      <c r="Y291" s="19">
+      <c r="Y291" s="34">
         <v>1188487.0626575199</v>
       </c>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z291" s="34">
+        <v>1278416.7472609507</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B292" s="19">
         <v>176032.11692975028</v>
@@ -14573,16 +15097,19 @@
       <c r="W292" s="19">
         <v>796472.21035602549</v>
       </c>
-      <c r="X292" s="19">
+      <c r="X292" s="34">
         <v>880389.81249764538</v>
       </c>
-      <c r="Y292" s="19">
+      <c r="Y292" s="34">
         <v>976644.11846215697</v>
       </c>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z292" s="34">
+        <v>1054903.7952812007</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B293" s="19">
         <v>46021.823431817866</v>
@@ -14650,16 +15177,19 @@
       <c r="W293" s="19">
         <v>385749.58321451931</v>
       </c>
-      <c r="X293" s="19">
+      <c r="X293" s="34">
         <v>411576.76256723295</v>
       </c>
-      <c r="Y293" s="19">
+      <c r="Y293" s="34">
         <v>460644.51028793817</v>
       </c>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z293" s="34">
+        <v>527897.82224012085</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B294" s="19">
         <v>72635.95969131458</v>
@@ -14727,14 +15257,17 @@
       <c r="W294" s="19">
         <v>281060.67612645612</v>
       </c>
-      <c r="X294" s="19">
+      <c r="X294" s="34">
         <v>366118.25359786442</v>
       </c>
-      <c r="Y294" s="19">
+      <c r="Y294" s="34">
         <v>465712.37363546202</v>
       </c>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z294" s="34">
+        <v>528262.09834421135</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -14758,10 +15291,11 @@
       <c r="U295" s="19"/>
       <c r="V295" s="19"/>
       <c r="W295" s="19"/>
-      <c r="X295" s="19"/>
-      <c r="Y295" s="19"/>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X295" s="34"/>
+      <c r="Y295" s="34"/>
+      <c r="Z295" s="34"/>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>28</v>
       </c>
@@ -14831,14 +15365,17 @@
       <c r="W296" s="19">
         <v>19410614.486183222</v>
       </c>
-      <c r="X296" s="19">
+      <c r="X296" s="34">
         <v>22028276.337656274</v>
       </c>
-      <c r="Y296" s="19">
+      <c r="Y296" s="34">
         <v>24318611.399068885</v>
       </c>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z296" s="34">
+        <v>26436781.296826735</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
@@ -14861,10 +15398,11 @@
       <c r="U297" s="19"/>
       <c r="V297" s="19"/>
       <c r="W297" s="19"/>
-      <c r="X297" s="19"/>
-      <c r="Y297" s="19"/>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X297" s="34"/>
+      <c r="Y297" s="34"/>
+      <c r="Z297" s="34"/>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>11</v>
       </c>
@@ -14934,14 +15472,17 @@
       <c r="W298" s="19">
         <v>690387.60375562287</v>
       </c>
-      <c r="X298" s="19">
+      <c r="X298" s="34">
         <v>1294378.7136952721</v>
       </c>
-      <c r="Y298" s="19">
+      <c r="Y298" s="34">
         <v>2670713.283635254</v>
       </c>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z298" s="34">
+        <v>3440796.9071392077</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
@@ -14964,10 +15505,11 @@
       <c r="U299" s="19"/>
       <c r="V299" s="19"/>
       <c r="W299" s="19"/>
-      <c r="X299" s="19"/>
-      <c r="Y299" s="19"/>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X299" s="34"/>
+      <c r="Y299" s="34"/>
+      <c r="Z299" s="34"/>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>27</v>
       </c>
@@ -15037,14 +15579,17 @@
       <c r="W300" s="19">
         <v>20101002.089938845</v>
       </c>
-      <c r="X300" s="19">
+      <c r="X300" s="34">
         <v>23322655.051351547</v>
       </c>
-      <c r="Y300" s="19">
+      <c r="Y300" s="34">
         <v>26989324.68270414</v>
       </c>
-    </row>
-    <row r="301" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z300" s="34">
+        <v>29877578.203965943</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -15070,25 +15615,26 @@
       <c r="W301" s="15"/>
       <c r="X301" s="15"/>
       <c r="Y301" s="15"/>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z301" s="15"/>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -15114,8 +15660,9 @@
       <c r="W307" s="3"/>
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
-    </row>
-    <row r="308" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z307" s="3"/>
+    </row>
+    <row r="308" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -15141,8 +15688,9 @@
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
-    </row>
-    <row r="309" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z308" s="3"/>
+    </row>
+    <row r="309" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>35</v>
       </c>
@@ -15170,10 +15718,11 @@
       <c r="W309" s="3"/>
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
-    </row>
-    <row r="310" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z309" s="3"/>
+    </row>
+    <row r="310" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -15199,8 +15748,9 @@
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
-    </row>
-    <row r="311" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z310" s="3"/>
+    </row>
+    <row r="311" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>30</v>
       </c>
@@ -15228,8 +15778,9 @@
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
-    </row>
-    <row r="312" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z311" s="3"/>
+    </row>
+    <row r="312" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -15255,8 +15806,9 @@
       <c r="W312" s="3"/>
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
-    </row>
-    <row r="313" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z312" s="3"/>
+    </row>
+    <row r="313" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
       <c r="B313" s="7" t="s">
         <v>46</v>
@@ -15284,8 +15836,9 @@
       <c r="W313" s="7"/>
       <c r="X313" s="7"/>
       <c r="Y313" s="7"/>
-    </row>
-    <row r="314" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z313" s="7"/>
+    </row>
+    <row r="314" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
         <v>33</v>
       </c>
@@ -15361,8 +15914,11 @@
       <c r="Y314" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="316" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z314" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18" t="s">
         <v>50</v>
       </c>
@@ -15432,14 +15988,17 @@
       <c r="W316" s="19">
         <v>1775210.3171187984</v>
       </c>
-      <c r="X316" s="19">
+      <c r="X316" s="34">
         <v>1783734.6554432951</v>
       </c>
-      <c r="Y316" s="19">
+      <c r="Y316" s="34">
         <v>1804907.0542362379</v>
       </c>
-    </row>
-    <row r="317" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z316" s="34">
+        <v>1776758.4153877925</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18" t="s">
         <v>33</v>
       </c>
@@ -15509,14 +16068,17 @@
       <c r="W317" s="19">
         <v>5551621.8662187792</v>
       </c>
-      <c r="X317" s="19">
+      <c r="X317" s="34">
         <v>5913747.6649654787</v>
       </c>
-      <c r="Y317" s="19">
+      <c r="Y317" s="34">
         <v>6126102.2786791325</v>
       </c>
-    </row>
-    <row r="318" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z317" s="34">
+        <v>6469567.5000389153</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
         <v>51</v>
       </c>
@@ -15586,14 +16148,17 @@
       <c r="W318" s="19">
         <v>144498.10094611297</v>
       </c>
-      <c r="X318" s="19">
+      <c r="X318" s="34">
         <v>152183.17583905184</v>
       </c>
-      <c r="Y318" s="19">
+      <c r="Y318" s="34">
         <v>155154.80491579018</v>
       </c>
-    </row>
-    <row r="319" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z318" s="34">
+        <v>157172.94082142363</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
         <v>52</v>
       </c>
@@ -15663,14 +16228,17 @@
       <c r="W319" s="19">
         <v>3556426.2814807137</v>
       </c>
-      <c r="X319" s="19">
+      <c r="X319" s="34">
         <v>3729156.6311298651</v>
       </c>
-      <c r="Y319" s="19">
+      <c r="Y319" s="34">
         <v>3779244.9273082055</v>
       </c>
-    </row>
-    <row r="320" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z319" s="34">
+        <v>3915787.4375607553</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A320" s="21" t="s">
         <v>53</v>
       </c>
@@ -15740,14 +16308,17 @@
       <c r="W320" s="19">
         <v>615591.38307166984</v>
       </c>
-      <c r="X320" s="19">
+      <c r="X320" s="34">
         <v>647222.00058118661</v>
       </c>
-      <c r="Y320" s="19">
+      <c r="Y320" s="34">
         <v>684918.4132137897</v>
       </c>
-    </row>
-    <row r="321" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z320" s="34">
+        <v>734819.4834286765</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
         <v>54</v>
       </c>
@@ -15817,14 +16388,17 @@
       <c r="W321" s="19">
         <v>1235106.1007202829</v>
       </c>
-      <c r="X321" s="19">
+      <c r="X321" s="34">
         <v>1385185.8574153748</v>
       </c>
-      <c r="Y321" s="19">
+      <c r="Y321" s="34">
         <v>1506784.133241347</v>
       </c>
-    </row>
-    <row r="322" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z321" s="34">
+        <v>1661787.6382280597</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18" t="s">
         <v>55</v>
       </c>
@@ -15894,14 +16468,17 @@
       <c r="W322" s="19">
         <v>11213252.036594167</v>
       </c>
-      <c r="X322" s="19">
+      <c r="X322" s="34">
         <v>12248122.370699735</v>
       </c>
-      <c r="Y322" s="19">
+      <c r="Y322" s="34">
         <v>13120748.909511007</v>
       </c>
-    </row>
-    <row r="323" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z322" s="34">
+        <v>13993408.385211866</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A323" s="21" t="s">
         <v>56</v>
       </c>
@@ -15971,14 +16548,17 @@
       <c r="W323" s="19">
         <v>3413863.9018391548</v>
       </c>
-      <c r="X323" s="19">
+      <c r="X323" s="34">
         <v>3710784.5345398113</v>
       </c>
-      <c r="Y323" s="19">
+      <c r="Y323" s="34">
         <v>3913419.823008324</v>
       </c>
-    </row>
-    <row r="324" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z323" s="34">
+        <v>4133900.1825048542</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
         <v>57</v>
       </c>
@@ -16048,14 +16628,17 @@
       <c r="W324" s="19">
         <v>547806.8943569262</v>
       </c>
-      <c r="X324" s="19">
+      <c r="X324" s="34">
         <v>679371.4505441715</v>
       </c>
-      <c r="Y324" s="19">
+      <c r="Y324" s="34">
         <v>767602.55304972793</v>
       </c>
-    </row>
-    <row r="325" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z324" s="34">
+        <v>835169.23450105253</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="12" t="s">
         <v>58</v>
       </c>
@@ -16125,14 +16708,17 @@
       <c r="W325" s="19">
         <v>248404.00730113528</v>
       </c>
-      <c r="X325" s="19">
+      <c r="X325" s="34">
         <v>329123.92652837408</v>
       </c>
-      <c r="Y325" s="19">
+      <c r="Y325" s="34">
         <v>405418.26704823005</v>
       </c>
-    </row>
-    <row r="326" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z325" s="34">
+        <v>447001.62442701793</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="12" t="s">
         <v>59</v>
       </c>
@@ -16202,14 +16788,17 @@
       <c r="W326" s="19">
         <v>638971.34971836535</v>
       </c>
-      <c r="X326" s="19">
+      <c r="X326" s="34">
         <v>690071.89639740926</v>
       </c>
-      <c r="Y326" s="19">
+      <c r="Y326" s="34">
         <v>719615.35314185033</v>
       </c>
-    </row>
-    <row r="327" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z326" s="34">
+        <v>751674.2651936902</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="12" t="s">
         <v>60</v>
       </c>
@@ -16279,14 +16868,17 @@
       <c r="W327" s="19">
         <v>1854248.1201083027</v>
       </c>
-      <c r="X327" s="19">
+      <c r="X327" s="34">
         <v>1987007.5248913108</v>
       </c>
-      <c r="Y327" s="19">
+      <c r="Y327" s="34">
         <v>2161095.0576006416</v>
       </c>
-    </row>
-    <row r="328" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z327" s="34">
+        <v>2355052.3297553388</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="12" t="s">
         <v>61</v>
       </c>
@@ -16356,14 +16948,17 @@
       <c r="W328" s="19">
         <v>1054235.2281024854</v>
       </c>
-      <c r="X328" s="19">
+      <c r="X328" s="34">
         <v>1108166.8519775514</v>
       </c>
-      <c r="Y328" s="19">
+      <c r="Y328" s="34">
         <v>1152506.3830110568</v>
       </c>
-    </row>
-    <row r="329" spans="1:25" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z328" s="34">
+        <v>1210531.0375849996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="21" t="s">
         <v>62</v>
       </c>
@@ -16433,16 +17028,19 @@
       <c r="W329" s="19">
         <v>1136506.7586497723</v>
       </c>
-      <c r="X329" s="19">
+      <c r="X329" s="34">
         <v>1240352.8065750757</v>
       </c>
-      <c r="Y329" s="19">
+      <c r="Y329" s="34">
         <v>1323643.1546763808</v>
       </c>
-    </row>
-    <row r="330" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z329" s="34">
+        <v>1427743.4137340244</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A330" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B330" s="19">
         <v>330372.48927295045</v>
@@ -16510,16 +17108,19 @@
       <c r="W330" s="19">
         <v>959685.44530862558</v>
       </c>
-      <c r="X330" s="19">
+      <c r="X330" s="34">
         <v>1003397.3027577655</v>
       </c>
-      <c r="Y330" s="19">
+      <c r="Y330" s="34">
         <v>1024588.1859950579</v>
       </c>
-    </row>
-    <row r="331" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z330" s="34">
+        <v>1066782.7101193867</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B331" s="19">
         <v>355852.10643168085</v>
@@ -16587,16 +17188,19 @@
       <c r="W331" s="19">
         <v>744158.68466356071</v>
       </c>
-      <c r="X331" s="19">
+      <c r="X331" s="34">
         <v>796153.64003592869</v>
       </c>
-      <c r="Y331" s="19">
+      <c r="Y331" s="34">
         <v>851619.2218099155</v>
       </c>
-    </row>
-    <row r="332" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z331" s="34">
+        <v>884685.54936954263</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B332" s="19">
         <v>119268.98835383351</v>
@@ -16664,16 +17268,19 @@
       <c r="W332" s="19">
         <v>351472.44293169305</v>
       </c>
-      <c r="X332" s="19">
+      <c r="X332" s="34">
         <v>364222.79238194891</v>
       </c>
-      <c r="Y332" s="19">
+      <c r="Y332" s="34">
         <v>391151.41161939211</v>
       </c>
-    </row>
-    <row r="333" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z332" s="34">
+        <v>433044.10625398211</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B333" s="19">
         <v>138658.89489482809</v>
@@ -16741,14 +17348,17 @@
       <c r="W333" s="19">
         <v>263899.20361414546</v>
       </c>
-      <c r="X333" s="19">
+      <c r="X333" s="34">
         <v>339469.64407038735</v>
       </c>
-      <c r="Y333" s="19">
+      <c r="Y333" s="34">
         <v>410089.49855042988</v>
       </c>
-    </row>
-    <row r="334" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z333" s="34">
+        <v>447823.9317679769</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="21"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -16772,10 +17382,11 @@
       <c r="U334" s="19"/>
       <c r="V334" s="19"/>
       <c r="W334" s="19"/>
-      <c r="X334" s="19"/>
-      <c r="Y334" s="19"/>
-    </row>
-    <row r="335" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X334" s="34"/>
+      <c r="Y334" s="34"/>
+      <c r="Z334" s="34"/>
+    </row>
+    <row r="335" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>28</v>
       </c>
@@ -16845,14 +17456,17 @@
       <c r="W335" s="19">
         <v>18540084.219931744</v>
       </c>
-      <c r="X335" s="19">
+      <c r="X335" s="34">
         <v>19945604.69110851</v>
       </c>
-      <c r="Y335" s="19">
+      <c r="Y335" s="34">
         <v>21051758.242426377</v>
       </c>
-    </row>
-    <row r="336" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z335" s="34">
+        <v>22239734.300638575</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -16876,10 +17490,11 @@
       <c r="U336" s="19"/>
       <c r="V336" s="19"/>
       <c r="W336" s="19"/>
-      <c r="X336" s="19"/>
-      <c r="Y336" s="19"/>
-    </row>
-    <row r="337" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X336" s="34"/>
+      <c r="Y336" s="34"/>
+      <c r="Z336" s="34"/>
+    </row>
+    <row r="337" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>11</v>
       </c>
@@ -16949,14 +17564,17 @@
       <c r="W337" s="19">
         <v>639322.08928792004</v>
       </c>
-      <c r="X337" s="19">
+      <c r="X337" s="34">
         <v>1130110.6242379025</v>
       </c>
-      <c r="Y337" s="19">
+      <c r="Y337" s="34">
         <v>2226469.1862269542</v>
       </c>
-    </row>
-    <row r="338" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z337" s="34">
+        <v>2807179.1847193055</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -16980,10 +17598,11 @@
       <c r="U338" s="19"/>
       <c r="V338" s="19"/>
       <c r="W338" s="19"/>
-      <c r="X338" s="19"/>
-      <c r="Y338" s="19"/>
-    </row>
-    <row r="339" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X338" s="34"/>
+      <c r="Y338" s="34"/>
+      <c r="Z338" s="34"/>
+    </row>
+    <row r="339" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>27</v>
       </c>
@@ -17053,14 +17672,17 @@
       <c r="W339" s="19">
         <v>19179406.309219666</v>
       </c>
-      <c r="X339" s="19">
+      <c r="X339" s="34">
         <v>21075715.315346412</v>
       </c>
-      <c r="Y339" s="19">
+      <c r="Y339" s="34">
         <v>23278227.42865333</v>
       </c>
-    </row>
-    <row r="340" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z339" s="34">
+        <v>25046913.485357881</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -17086,49 +17708,50 @@
       <c r="W340" s="15"/>
       <c r="X340" s="15"/>
       <c r="Y340" s="15"/>
-    </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z340" s="15"/>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="7" t="s">
         <v>46</v>
@@ -17156,83 +17779,87 @@
       <c r="W352" s="7"/>
       <c r="X352" s="7"/>
       <c r="Y352" s="7"/>
-    </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z352" s="6"/>
+    </row>
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B353" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C353" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C353" s="9" t="s">
+      <c r="D353" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D353" s="9" t="s">
+      <c r="E353" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E353" s="9" t="s">
+      <c r="F353" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F353" s="9" t="s">
+      <c r="G353" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G353" s="9" t="s">
+      <c r="H353" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H353" s="9" t="s">
+      <c r="I353" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I353" s="9" t="s">
+      <c r="J353" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J353" s="9" t="s">
+      <c r="K353" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K353" s="9" t="s">
+      <c r="L353" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L353" s="9" t="s">
+      <c r="M353" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M353" s="9" t="s">
+      <c r="N353" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N353" s="9" t="s">
+      <c r="O353" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O353" s="9" t="s">
+      <c r="P353" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P353" s="9" t="s">
+      <c r="Q353" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q353" s="9" t="s">
+      <c r="R353" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R353" s="9" t="s">
+      <c r="S353" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S353" s="9" t="s">
+      <c r="T353" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T353" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U353" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V353" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V353" s="9" t="s">
+      <c r="W353" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W353" s="9" t="s">
+      <c r="X353" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X353" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y353" s="9"/>
-    </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y353" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z353" s="9"/>
+    </row>
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="18" t="s">
         <v>50</v>
       </c>
@@ -17305,9 +17932,12 @@
       <c r="X355" s="17">
         <v>8.6055878027270722</v>
       </c>
-      <c r="Y355" s="17"/>
-    </row>
-    <row r="356" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y355" s="17">
+        <v>5.0547005012453212</v>
+      </c>
+      <c r="Z355" s="17"/>
+    </row>
+    <row r="356" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="18" t="s">
         <v>33</v>
       </c>
@@ -17380,9 +18010,12 @@
       <c r="X356" s="17">
         <v>6.4660602018097961</v>
       </c>
-      <c r="Y356" s="17"/>
-    </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y356" s="17">
+        <v>6.7770192938577907</v>
+      </c>
+      <c r="Z356" s="17"/>
+    </row>
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="12" t="s">
         <v>51</v>
       </c>
@@ -17455,9 +18088,12 @@
       <c r="X357" s="17">
         <v>-17.187955527765482</v>
       </c>
-      <c r="Y357" s="17"/>
-    </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y357" s="17">
+        <v>1.1203520235926163</v>
+      </c>
+      <c r="Z357" s="17"/>
+    </row>
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="12" t="s">
         <v>52</v>
       </c>
@@ -17530,9 +18166,12 @@
       <c r="X358" s="17">
         <v>3.9166818080934149</v>
       </c>
-      <c r="Y358" s="17"/>
-    </row>
-    <row r="359" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Y358" s="17">
+        <v>4.9467262670362118</v>
+      </c>
+      <c r="Z358" s="17"/>
+    </row>
+    <row r="359" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A359" s="21" t="s">
         <v>53</v>
       </c>
@@ -17605,9 +18244,12 @@
       <c r="X359" s="17">
         <v>13.169215019215159</v>
       </c>
-      <c r="Y359" s="17"/>
-    </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y359" s="17">
+        <v>6.2619216133794566</v>
+      </c>
+      <c r="Z359" s="17"/>
+    </row>
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="12" t="s">
         <v>54</v>
       </c>
@@ -17680,9 +18322,12 @@
       <c r="X360" s="17">
         <v>13.464073399002658</v>
       </c>
-      <c r="Y360" s="17"/>
-    </row>
-    <row r="361" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y360" s="17">
+        <v>11.669396253597625</v>
+      </c>
+      <c r="Z360" s="17"/>
+    </row>
+    <row r="361" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="18" t="s">
         <v>55</v>
       </c>
@@ -17755,9 +18400,12 @@
       <c r="X361" s="17">
         <v>12.552963077640584</v>
       </c>
-      <c r="Y361" s="17"/>
-    </row>
-    <row r="362" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Y361" s="17">
+        <v>10.133017631607146</v>
+      </c>
+      <c r="Z361" s="17"/>
+    </row>
+    <row r="362" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A362" s="21" t="s">
         <v>56</v>
       </c>
@@ -17830,9 +18478,12 @@
       <c r="X362" s="17">
         <v>11.447524768062877</v>
       </c>
-      <c r="Y362" s="17"/>
-    </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y362" s="17">
+        <v>9.7259867924027787</v>
+      </c>
+      <c r="Z362" s="17"/>
+    </row>
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="12" t="s">
         <v>57</v>
       </c>
@@ -17905,9 +18556,12 @@
       <c r="X363" s="17">
         <v>21.066608879316547</v>
       </c>
-      <c r="Y363" s="17"/>
-    </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y363" s="17">
+        <v>9.9495953143183584</v>
+      </c>
+      <c r="Z363" s="17"/>
+    </row>
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="12" t="s">
         <v>58</v>
       </c>
@@ -17980,9 +18634,12 @@
       <c r="X364" s="17">
         <v>29.030291861075625</v>
       </c>
-      <c r="Y364" s="17"/>
-    </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y364" s="17">
+        <v>14.73556566950495</v>
+      </c>
+      <c r="Z364" s="17"/>
+    </row>
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="12" t="s">
         <v>59</v>
       </c>
@@ -18055,9 +18712,12 @@
       <c r="X365" s="17">
         <v>5.3726581741439219</v>
       </c>
-      <c r="Y365" s="17"/>
-    </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y365" s="17">
+        <v>4.9103618814208687</v>
+      </c>
+      <c r="Z365" s="17"/>
+    </row>
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="12" t="s">
         <v>60</v>
       </c>
@@ -18130,9 +18790,12 @@
       <c r="X366" s="17">
         <v>15.314897969566843</v>
       </c>
-      <c r="Y366" s="17"/>
-    </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y366" s="17">
+        <v>12.618397110924235</v>
+      </c>
+      <c r="Z366" s="17"/>
+    </row>
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="12" t="s">
         <v>61</v>
       </c>
@@ -18205,9 +18868,12 @@
       <c r="X367" s="17">
         <v>9.8882363186435214</v>
       </c>
-      <c r="Y367" s="17"/>
-    </row>
-    <row r="368" spans="1:25" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y367" s="17">
+        <v>8.4576593282331629</v>
+      </c>
+      <c r="Z367" s="17"/>
+    </row>
+    <row r="368" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="21" t="s">
         <v>62</v>
       </c>
@@ -18280,11 +18946,14 @@
       <c r="X368" s="17">
         <v>10.09779018369143</v>
       </c>
-      <c r="Y368" s="17"/>
-    </row>
-    <row r="369" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Y368" s="17">
+        <v>10.746453663064699</v>
+      </c>
+      <c r="Z368" s="17"/>
+    </row>
+    <row r="369" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B369" s="17">
         <v>7.0131342798242429</v>
@@ -18355,11 +19024,14 @@
       <c r="X369" s="17">
         <v>6.1423983199961611</v>
       </c>
-      <c r="Y369" s="17"/>
-    </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y369" s="17">
+        <v>7.5667365198190026</v>
+      </c>
+      <c r="Z369" s="17"/>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B370" s="17">
         <v>8.0293910333789427</v>
@@ -18430,11 +19102,14 @@
       <c r="X370" s="17">
         <v>10.933146272040602</v>
       </c>
-      <c r="Y370" s="17"/>
-    </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y370" s="17">
+        <v>8.013121191194287</v>
+      </c>
+      <c r="Z370" s="17"/>
+    </row>
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B371" s="17">
         <v>13.239024740175282</v>
@@ -18505,11 +19180,14 @@
       <c r="X371" s="17">
         <v>11.921894573114969</v>
       </c>
-      <c r="Y371" s="17"/>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y371" s="17">
+        <v>14.599829250140033</v>
+      </c>
+      <c r="Z371" s="17"/>
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B372" s="17">
         <v>7.9971050281150582</v>
@@ -18580,9 +19258,12 @@
       <c r="X372" s="17">
         <v>27.202719082941272</v>
       </c>
-      <c r="Y372" s="17"/>
-    </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y372" s="17">
+        <v>13.430977626914057</v>
+      </c>
+      <c r="Z372" s="17"/>
+    </row>
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="21"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -18608,8 +19289,9 @@
       <c r="W373" s="17"/>
       <c r="X373" s="17"/>
       <c r="Y373" s="17"/>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z373" s="17"/>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>28</v>
       </c>
@@ -18682,9 +19364,12 @@
       <c r="X374" s="17">
         <v>10.397250453488255</v>
       </c>
-      <c r="Y374" s="17"/>
-    </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y374" s="17">
+        <v>8.7100774916735162</v>
+      </c>
+      <c r="Z374" s="17"/>
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
       <c r="D375" s="17"/>
@@ -18709,8 +19394,9 @@
       <c r="W375" s="17"/>
       <c r="X375" s="17"/>
       <c r="Y375" s="17"/>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z375" s="17"/>
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>11</v>
       </c>
@@ -18783,9 +19469,12 @@
       <c r="X376" s="17">
         <v>106.33167521820081</v>
       </c>
-      <c r="Y376" s="17"/>
-    </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y376" s="17">
+        <v>28.834380246753796</v>
+      </c>
+      <c r="Z376" s="17"/>
+    </row>
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
       <c r="D377" s="17"/>
@@ -18810,8 +19499,9 @@
       <c r="W377" s="17"/>
       <c r="X377" s="17"/>
       <c r="Y377" s="17"/>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z377" s="17"/>
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>27</v>
       </c>
@@ -18884,9 +19574,12 @@
       <c r="X378" s="17">
         <v>15.721493214556247</v>
       </c>
-      <c r="Y378" s="17"/>
-    </row>
-    <row r="379" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y378" s="17">
+        <v>10.701466432439915</v>
+      </c>
+      <c r="Z378" s="17"/>
+    </row>
+    <row r="379" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -18912,49 +19605,50 @@
       <c r="W379" s="15"/>
       <c r="X379" s="15"/>
       <c r="Y379" s="15"/>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z379" s="15"/>
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="7" t="s">
         <v>46</v>
@@ -18982,83 +19676,87 @@
       <c r="W391" s="7"/>
       <c r="X391" s="7"/>
       <c r="Y391" s="7"/>
-    </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z391" s="6"/>
+    </row>
+    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B392" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C392" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="D392" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D392" s="9" t="s">
+      <c r="E392" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E392" s="9" t="s">
+      <c r="F392" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F392" s="9" t="s">
+      <c r="G392" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G392" s="9" t="s">
+      <c r="H392" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H392" s="9" t="s">
+      <c r="I392" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I392" s="9" t="s">
+      <c r="J392" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J392" s="9" t="s">
+      <c r="K392" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K392" s="9" t="s">
+      <c r="L392" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L392" s="9" t="s">
+      <c r="M392" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M392" s="9" t="s">
+      <c r="N392" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N392" s="9" t="s">
+      <c r="O392" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O392" s="9" t="s">
+      <c r="P392" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P392" s="9" t="s">
+      <c r="Q392" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q392" s="9" t="s">
+      <c r="R392" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R392" s="9" t="s">
+      <c r="S392" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S392" s="9" t="s">
+      <c r="T392" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T392" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U392" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V392" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V392" s="9" t="s">
+      <c r="W392" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W392" s="9" t="s">
+      <c r="X392" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X392" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y392" s="9"/>
-    </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y392" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z392" s="9"/>
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" s="18" t="s">
         <v>50</v>
       </c>
@@ -19131,9 +19829,12 @@
       <c r="X394" s="17">
         <v>1.186970199201582</v>
       </c>
-      <c r="Y394" s="17"/>
-    </row>
-    <row r="395" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y394" s="17">
+        <v>-1.5595616839315198</v>
+      </c>
+      <c r="Z394" s="17"/>
+    </row>
+    <row r="395" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="18" t="s">
         <v>33</v>
       </c>
@@ -19206,9 +19907,12 @@
       <c r="X395" s="17">
         <v>3.5908636239536378</v>
       </c>
-      <c r="Y395" s="17"/>
-    </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y395" s="17">
+        <v>5.6065864677962622</v>
+      </c>
+      <c r="Z395" s="17"/>
+    </row>
+    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" s="12" t="s">
         <v>51</v>
       </c>
@@ -19281,9 +19985,12 @@
       <c r="X396" s="17">
         <v>1.9526659634709631</v>
       </c>
-      <c r="Y396" s="17"/>
-    </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y396" s="17">
+        <v>1.3007240779483169</v>
+      </c>
+      <c r="Z396" s="17"/>
+    </row>
+    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397" s="12" t="s">
         <v>52</v>
       </c>
@@ -19356,9 +20063,12 @@
       <c r="X397" s="17">
         <v>1.3431534562055987</v>
       </c>
-      <c r="Y397" s="17"/>
-    </row>
-    <row r="398" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Y397" s="17">
+        <v>3.6129574261227759</v>
+      </c>
+      <c r="Z397" s="17"/>
+    </row>
+    <row r="398" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A398" s="21" t="s">
         <v>53</v>
       </c>
@@ -19431,9 +20141,12 @@
       <c r="X398" s="17">
         <v>5.8243404270486394</v>
       </c>
-      <c r="Y398" s="17"/>
-    </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y398" s="17">
+        <v>7.2856955298865103</v>
+      </c>
+      <c r="Z398" s="17"/>
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" s="12" t="s">
         <v>54</v>
       </c>
@@ -19506,9 +20219,12 @@
       <c r="X399" s="17">
         <v>8.7784808930162654</v>
       </c>
-      <c r="Y399" s="17"/>
-    </row>
-    <row r="400" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y399" s="17">
+        <v>10.287041226885904</v>
+      </c>
+      <c r="Z399" s="17"/>
+    </row>
+    <row r="400" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="18" t="s">
         <v>55</v>
       </c>
@@ -19581,9 +20297,12 @@
       <c r="X400" s="17">
         <v>7.1245739746917565</v>
       </c>
-      <c r="Y400" s="17"/>
-    </row>
-    <row r="401" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Y400" s="17">
+        <v>6.6509883065309054</v>
+      </c>
+      <c r="Z400" s="17"/>
+    </row>
+    <row r="401" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A401" s="21" t="s">
         <v>56</v>
       </c>
@@ -19656,9 +20375,12 @@
       <c r="X401" s="17">
         <v>5.4607128649586798</v>
       </c>
-      <c r="Y401" s="17"/>
-    </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y401" s="17">
+        <v>5.6339562190657659</v>
+      </c>
+      <c r="Z401" s="17"/>
+    </row>
+    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402" s="12" t="s">
         <v>57</v>
       </c>
@@ -19731,9 +20453,12 @@
       <c r="X402" s="17">
         <v>12.987166657486711</v>
       </c>
-      <c r="Y402" s="17"/>
-    </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y402" s="17">
+        <v>8.8023002506802897</v>
+      </c>
+      <c r="Z402" s="17"/>
+    </row>
+    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" s="12" t="s">
         <v>58</v>
       </c>
@@ -19806,9 +20531,12 @@
       <c r="X403" s="17">
         <v>23.181037405762268</v>
       </c>
-      <c r="Y403" s="17"/>
-    </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y403" s="17">
+        <v>10.256902749239202</v>
+      </c>
+      <c r="Z403" s="17"/>
+    </row>
+    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404" s="12" t="s">
         <v>59</v>
       </c>
@@ -19881,9 +20609,12 @@
       <c r="X404" s="17">
         <v>4.2812143051580165</v>
       </c>
-      <c r="Y404" s="17"/>
-    </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y404" s="17">
+        <v>4.4550066798700385</v>
+      </c>
+      <c r="Z404" s="17"/>
+    </row>
+    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" s="12" t="s">
         <v>60</v>
       </c>
@@ -19956,9 +20687,12 @@
       <c r="X405" s="17">
         <v>8.7612920700364896</v>
       </c>
-      <c r="Y405" s="17"/>
-    </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y405" s="17">
+        <v>8.9749532984466924</v>
+      </c>
+      <c r="Z405" s="17"/>
+    </row>
+    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406" s="12" t="s">
         <v>61</v>
       </c>
@@ -20031,9 +20765,12 @@
       <c r="X406" s="17">
         <v>4.0011602002334286</v>
       </c>
-      <c r="Y406" s="17"/>
-    </row>
-    <row r="407" spans="1:25" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y406" s="17">
+        <v>5.0346493025354562</v>
+      </c>
+      <c r="Z406" s="17"/>
+    </row>
+    <row r="407" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21" t="s">
         <v>62</v>
       </c>
@@ -20106,11 +20843,14 @@
       <c r="X407" s="17">
         <v>6.7150529800702969</v>
       </c>
-      <c r="Y407" s="17"/>
-    </row>
-    <row r="408" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Y407" s="17">
+        <v>7.8646770234002616</v>
+      </c>
+      <c r="Z407" s="17"/>
+    </row>
+    <row r="408" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A408" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B408" s="17">
         <v>2.2679987412374913</v>
@@ -20181,11 +20921,14 @@
       <c r="X408" s="17">
         <v>2.1119135141235432</v>
       </c>
-      <c r="Y408" s="17"/>
-    </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y408" s="17">
+        <v>4.1181935045786418</v>
+      </c>
+      <c r="Z408" s="17"/>
+    </row>
+    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B409" s="17">
         <v>2.825522295312723</v>
@@ -20256,11 +20999,14 @@
       <c r="X409" s="17">
         <v>6.9666932341706911</v>
       </c>
-      <c r="Y409" s="17"/>
-    </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y409" s="17">
+        <v>3.8827596551135173</v>
+      </c>
+      <c r="Z409" s="17"/>
+    </row>
+    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B410" s="17">
         <v>7.6773340343747236</v>
@@ -20331,11 +21077,14 @@
       <c r="X410" s="17">
         <v>7.393447033156562</v>
       </c>
-      <c r="Y410" s="17"/>
-    </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y410" s="17">
+        <v>10.71009675285373</v>
+      </c>
+      <c r="Z410" s="17"/>
+    </row>
+    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B411" s="17">
         <v>3.2835244945456594</v>
@@ -20406,9 +21155,12 @@
       <c r="X411" s="17">
         <v>20.802995411689835</v>
       </c>
-      <c r="Y411" s="17"/>
-    </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y411" s="17">
+        <v>9.201511706817513</v>
+      </c>
+      <c r="Z411" s="17"/>
+    </row>
+    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412" s="21"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -20434,8 +21186,9 @@
       <c r="W412" s="17"/>
       <c r="X412" s="17"/>
       <c r="Y412" s="17"/>
-    </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z412" s="17"/>
+    </row>
+    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>28</v>
       </c>
@@ -20508,9 +21261,12 @@
       <c r="X413" s="17">
         <v>5.5458511709648945</v>
       </c>
-      <c r="Y413" s="17"/>
-    </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y413" s="17">
+        <v>5.6431203728058534</v>
+      </c>
+      <c r="Z413" s="17"/>
+    </row>
+    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="D414" s="17"/>
@@ -20535,8 +21291,9 @@
       <c r="W414" s="17"/>
       <c r="X414" s="17"/>
       <c r="Y414" s="17"/>
-    </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z414" s="17"/>
+    </row>
+    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>11</v>
       </c>
@@ -20609,9 +21366,12 @@
       <c r="X415" s="17">
         <v>97.013384218769602</v>
       </c>
-      <c r="Y415" s="17"/>
-    </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y415" s="17">
+        <v>26.082103542445196</v>
+      </c>
+      <c r="Z415" s="17"/>
+    </row>
+    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
       <c r="D416" s="17"/>
@@ -20636,8 +21396,9 @@
       <c r="W416" s="17"/>
       <c r="X416" s="17"/>
       <c r="Y416" s="17"/>
-    </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z416" s="17"/>
+    </row>
+    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>27</v>
       </c>
@@ -20710,9 +21471,12 @@
       <c r="X417" s="17">
         <v>10.450473829009937</v>
       </c>
-      <c r="Y417" s="17"/>
-    </row>
-    <row r="418" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y417" s="17">
+        <v>7.5980272214690245</v>
+      </c>
+      <c r="Z417" s="17"/>
+    </row>
+    <row r="418" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -20738,26 +21502,27 @@
       <c r="W418" s="15"/>
       <c r="X418" s="15"/>
       <c r="Y418" s="15"/>
-    </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z418" s="15"/>
+    </row>
+    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
     </row>
-    <row r="425" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>38</v>
       </c>
@@ -20785,10 +21550,11 @@
       <c r="W425" s="3"/>
       <c r="X425" s="3"/>
       <c r="Y425" s="3"/>
-    </row>
-    <row r="426" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z425" s="3"/>
+    </row>
+    <row r="426" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -20814,8 +21580,9 @@
       <c r="W426" s="3"/>
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
-    </row>
-    <row r="427" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z426" s="3"/>
+    </row>
+    <row r="427" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>31</v>
       </c>
@@ -20843,8 +21610,9 @@
       <c r="W427" s="3"/>
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
-    </row>
-    <row r="428" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z427" s="3"/>
+    </row>
+    <row r="428" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -20870,8 +21638,9 @@
       <c r="W428" s="3"/>
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
-    </row>
-    <row r="429" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z428" s="3"/>
+    </row>
+    <row r="429" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
       <c r="B429" s="7" t="s">
         <v>46</v>
@@ -20899,8 +21668,9 @@
       <c r="W429" s="7"/>
       <c r="X429" s="7"/>
       <c r="Y429" s="7"/>
-    </row>
-    <row r="430" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z429" s="7"/>
+    </row>
+    <row r="430" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
         <v>33</v>
       </c>
@@ -20976,8 +21746,11 @@
       <c r="Y430" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="432" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z430" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="432" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="18" t="s">
         <v>50</v>
       </c>
@@ -21053,8 +21826,11 @@
       <c r="Y432" s="17">
         <v>126.60813502257429</v>
       </c>
-    </row>
-    <row r="433" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z432" s="17">
+        <v>135.114998808845</v>
+      </c>
+    </row>
+    <row r="433" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="18" t="s">
         <v>33</v>
       </c>
@@ -21130,8 +21906,11 @@
       <c r="Y433" s="17">
         <v>111.86805727742146</v>
       </c>
-    </row>
-    <row r="434" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z433" s="17">
+        <v>113.10788568968768</v>
+      </c>
+    </row>
+    <row r="434" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="12" t="s">
         <v>51</v>
       </c>
@@ -21207,8 +21986,11 @@
       <c r="Y434" s="17">
         <v>149.57979423303684</v>
       </c>
-    </row>
-    <row r="435" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z434" s="17">
+        <v>149.31345837984827</v>
+      </c>
+    </row>
+    <row r="435" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="12" t="s">
         <v>52</v>
       </c>
@@ -21284,8 +22066,11 @@
       <c r="Y435" s="17">
         <v>104.359113838976</v>
       </c>
-    </row>
-    <row r="436" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z435" s="17">
+        <v>105.70248765786357</v>
+      </c>
+    </row>
+    <row r="436" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A436" s="21" t="s">
         <v>53</v>
       </c>
@@ -21361,8 +22146,11 @@
       <c r="Y436" s="17">
         <v>123.27895066642273</v>
       </c>
-    </row>
-    <row r="437" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z436" s="17">
+        <v>122.10256108789326</v>
+      </c>
+    </row>
+    <row r="437" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="12" t="s">
         <v>54</v>
       </c>
@@ -21438,8 +22226,11 @@
       <c r="Y437" s="17">
         <v>121.63153161386259</v>
       </c>
-    </row>
-    <row r="438" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z437" s="17">
+        <v>123.15608025767987</v>
+      </c>
+    </row>
+    <row r="438" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="18" t="s">
         <v>55</v>
       </c>
@@ -21515,8 +22306,11 @@
       <c r="Y438" s="17">
         <v>115.69690676588868</v>
       </c>
-    </row>
-    <row r="439" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z438" s="17">
+        <v>119.47427468883333</v>
+      </c>
+    </row>
+    <row r="439" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A439" s="21" t="s">
         <v>56</v>
       </c>
@@ -21592,8 +22386,11 @@
       <c r="Y439" s="17">
         <v>113.55861747571865</v>
       </c>
-    </row>
-    <row r="440" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z439" s="17">
+        <v>117.95763225476233</v>
+      </c>
+    </row>
+    <row r="440" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="12" t="s">
         <v>57</v>
       </c>
@@ -21669,8 +22466,11 @@
       <c r="Y440" s="17">
         <v>127.33137238092702</v>
       </c>
-    </row>
-    <row r="441" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z440" s="17">
+        <v>128.67405221988551</v>
+      </c>
+    </row>
+    <row r="441" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="12" t="s">
         <v>58</v>
       </c>
@@ -21746,8 +22546,11 @@
       <c r="Y441" s="17">
         <v>126.07858815531445</v>
       </c>
-    </row>
-    <row r="442" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z441" s="17">
+        <v>131.1999318873699</v>
+      </c>
+    </row>
+    <row r="442" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="12" t="s">
         <v>59</v>
       </c>
@@ -21823,8 +22626,11 @@
       <c r="Y442" s="17">
         <v>101.91785289700314</v>
       </c>
-    </row>
-    <row r="443" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z442" s="17">
+        <v>102.36214777498608</v>
+      </c>
+    </row>
+    <row r="443" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="12" t="s">
         <v>60</v>
       </c>
@@ -21900,8 +22706,11 @@
       <c r="Y443" s="17">
         <v>118.70747875040439</v>
       </c>
-    </row>
-    <row r="444" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z443" s="17">
+        <v>122.67631760609522</v>
+      </c>
+    </row>
+    <row r="444" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="12" t="s">
         <v>61</v>
       </c>
@@ -21977,8 +22786,11 @@
       <c r="Y444" s="17">
         <v>118.88472509535927</v>
       </c>
-    </row>
-    <row r="445" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z444" s="17">
+        <v>122.75909996694662</v>
+      </c>
+    </row>
+    <row r="445" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="21" t="s">
         <v>62</v>
       </c>
@@ -22054,10 +22866,13 @@
       <c r="Y445" s="17">
         <v>112.36341188963759</v>
       </c>
-    </row>
-    <row r="446" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z445" s="17">
+        <v>115.36537939625984</v>
+      </c>
+    </row>
+    <row r="446" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A446" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B446" s="17">
         <v>55.857779353097534</v>
@@ -22131,10 +22946,13 @@
       <c r="Y446" s="17">
         <v>115.99656124311906</v>
       </c>
-    </row>
-    <row r="447" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z446" s="17">
+        <v>119.83853273342606</v>
+      </c>
+    </row>
+    <row r="447" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B447" s="17">
         <v>49.467774322012126</v>
@@ -22208,10 +23026,13 @@
       <c r="Y447" s="17">
         <v>114.68084484830328</v>
       </c>
-    </row>
-    <row r="448" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z447" s="17">
+        <v>119.24053648586907</v>
+      </c>
+    </row>
+    <row r="448" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B448" s="17">
         <v>38.586579853671275</v>
@@ -22285,10 +23106,13 @@
       <c r="Y448" s="17">
         <v>117.76629116097016</v>
       </c>
-    </row>
-    <row r="449" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z448" s="17">
+        <v>121.90393879428684</v>
+      </c>
+    </row>
+    <row r="449" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B449" s="17">
         <v>52.384637672475684</v>
@@ -22362,8 +23186,11 @@
       <c r="Y449" s="17">
         <v>113.56359411339376</v>
       </c>
-    </row>
-    <row r="450" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z449" s="17">
+        <v>117.9620071349627</v>
+      </c>
+    </row>
+    <row r="450" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="21"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -22389,8 +23216,9 @@
       <c r="W450" s="17"/>
       <c r="X450" s="17"/>
       <c r="Y450" s="17"/>
-    </row>
-    <row r="451" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z450" s="17"/>
+    </row>
+    <row r="451" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>28</v>
       </c>
@@ -22466,8 +23294,11 @@
       <c r="Y451" s="17">
         <v>115.51819624290907</v>
       </c>
-    </row>
-    <row r="452" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z451" s="17">
+        <v>118.87183965173382</v>
+      </c>
+    </row>
+    <row r="452" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -22493,8 +23324,9 @@
       <c r="W452" s="17"/>
       <c r="X452" s="17"/>
       <c r="Y452" s="17"/>
-    </row>
-    <row r="453" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z452" s="17"/>
+    </row>
+    <row r="453" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>11</v>
       </c>
@@ -22570,8 +23402,11 @@
       <c r="Y453" s="17">
         <v>119.95285181382323</v>
       </c>
-    </row>
-    <row r="454" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z453" s="17">
+        <v>122.57133160109474</v>
+      </c>
+    </row>
+    <row r="454" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -22597,8 +23432,9 @@
       <c r="W454" s="17"/>
       <c r="X454" s="17"/>
       <c r="Y454" s="17"/>
-    </row>
-    <row r="455" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z454" s="17"/>
+    </row>
+    <row r="455" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>27</v>
       </c>
@@ -22674,8 +23510,11 @@
       <c r="Y455" s="17">
         <v>115.94235328022783</v>
       </c>
-    </row>
-    <row r="456" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z455" s="17">
+        <v>119.28646705883345</v>
+      </c>
+    </row>
+    <row r="456" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -22701,8 +23540,9 @@
       <c r="W456" s="15"/>
       <c r="X456" s="15"/>
       <c r="Y456" s="15"/>
-    </row>
-    <row r="457" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z456" s="15"/>
+    </row>
+    <row r="457" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>0</v>
       </c>
@@ -22730,44 +23570,45 @@
       <c r="W457" s="3"/>
       <c r="X457" s="3"/>
       <c r="Y457" s="3"/>
-    </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z457" s="3"/>
+    </row>
+    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A463" s="2"/>
+    </row>
+    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A464" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A465" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A463" s="2"/>
-    </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A464" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A465" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
       <c r="B468" s="7" t="s">
         <v>46</v>
@@ -22795,8 +23636,9 @@
       <c r="W468" s="7"/>
       <c r="X468" s="7"/>
       <c r="Y468" s="7"/>
-    </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z468" s="7"/>
+    </row>
+    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
         <v>33</v>
       </c>
@@ -22872,8 +23714,11 @@
       <c r="Y469" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z469" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="18" t="s">
         <v>50</v>
       </c>
@@ -22949,8 +23794,11 @@
       <c r="Y471" s="17">
         <v>9.3967501793580155</v>
       </c>
-    </row>
-    <row r="472" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z471" s="17">
+        <v>9.0807843997083957</v>
+      </c>
+    </row>
+    <row r="472" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="18" t="s">
         <v>33</v>
       </c>
@@ -23026,8 +23874,11 @@
       <c r="Y472" s="17">
         <v>28.180686362086394</v>
       </c>
-    </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z472" s="17">
+        <v>27.679583722393424</v>
+      </c>
+    </row>
+    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="12" t="s">
         <v>51</v>
       </c>
@@ -23103,8 +23954,11 @@
       <c r="Y473" s="17">
         <v>0.95433178369960137</v>
       </c>
-    </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z473" s="17">
+        <v>0.88770395663086699</v>
+      </c>
+    </row>
+    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474" s="12" t="s">
         <v>52</v>
       </c>
@@ -23180,8 +24034,11 @@
       <c r="Y474" s="17">
         <v>16.217975817872169</v>
       </c>
-    </row>
-    <row r="475" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z474" s="17">
+        <v>15.656538087685634</v>
+      </c>
+    </row>
+    <row r="475" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A475" s="21" t="s">
         <v>53</v>
       </c>
@@ -23257,8 +24114,11 @@
       <c r="Y475" s="17">
         <v>3.4720742022441389</v>
       </c>
-    </row>
-    <row r="476" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z475" s="17">
+        <v>3.3938829336494845</v>
+      </c>
+    </row>
+    <row r="476" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="12" t="s">
         <v>54</v>
       </c>
@@ -23334,8 +24194,11 @@
       <c r="Y476" s="17">
         <v>7.5363045582704871</v>
       </c>
-    </row>
-    <row r="477" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z476" s="17">
+        <v>7.741458744427443</v>
+      </c>
+    </row>
+    <row r="477" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="18" t="s">
         <v>55</v>
       </c>
@@ -23411,8 +24274,11 @@
       <c r="Y477" s="17">
         <v>62.42256345855558</v>
       </c>
-    </row>
-    <row r="478" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z477" s="17">
+        <v>63.239631877898169</v>
+      </c>
+    </row>
+    <row r="478" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A478" s="21" t="s">
         <v>56</v>
       </c>
@@ -23488,8 +24354,11 @@
       <c r="Y478" s="17">
         <v>18.274174351908606</v>
       </c>
-    </row>
-    <row r="479" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z478" s="17">
+        <v>18.444948801854828</v>
+      </c>
+    </row>
+    <row r="479" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="12" t="s">
         <v>57</v>
       </c>
@@ -23565,8 +24434,11 @@
       <c r="Y479" s="17">
         <v>4.0191392887945678</v>
       </c>
-    </row>
-    <row r="480" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z479" s="17">
+        <v>4.0649657190124522</v>
+      </c>
+    </row>
+    <row r="480" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="12" t="s">
         <v>58</v>
       </c>
@@ -23642,8 +24514,11 @@
       <c r="Y480" s="17">
         <v>2.1018701225585672</v>
       </c>
-    </row>
-    <row r="481" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z480" s="17">
+        <v>2.2183707623063755</v>
+      </c>
+    </row>
+    <row r="481" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="12" t="s">
         <v>59</v>
       </c>
@@ -23719,8 +24594,11 @@
       <c r="Y481" s="17">
         <v>3.0158651125427411</v>
       </c>
-    </row>
-    <row r="482" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z481" s="17">
+        <v>2.9104523485106046</v>
+      </c>
+    </row>
+    <row r="482" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="12" t="s">
         <v>60</v>
       </c>
@@ -23796,8 +24674,11 @@
       <c r="Y482" s="17">
         <v>10.549045807671177</v>
       </c>
-    </row>
-    <row r="483" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z482" s="17">
+        <v>10.928302668173862</v>
+      </c>
+    </row>
+    <row r="483" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="12" t="s">
         <v>61</v>
       </c>
@@ -23873,8 +24754,11 @@
       <c r="Y483" s="17">
         <v>5.6341787886853778</v>
       </c>
-    </row>
-    <row r="484" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z483" s="17">
+        <v>5.6210965694914536</v>
+      </c>
+    </row>
+    <row r="484" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21" t="s">
         <v>62</v>
       </c>
@@ -23950,10 +24834,13 @@
       <c r="Y484" s="17">
         <v>6.1158533496487397</v>
       </c>
-    </row>
-    <row r="485" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z484" s="17">
+        <v>6.2304165834933798</v>
+      </c>
+    </row>
+    <row r="485" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A485" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B485" s="17">
         <v>4.9908297765025669</v>
@@ -24027,10 +24914,13 @@
       <c r="Y485" s="17">
         <v>4.8871501877900192</v>
       </c>
-    </row>
-    <row r="486" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z485" s="17">
+        <v>4.8357503619943394</v>
+      </c>
+    </row>
+    <row r="486" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B486" s="17">
         <v>4.7607691986734961</v>
@@ -24104,10 +24994,13 @@
       <c r="Y486" s="17">
         <v>4.016035712053653</v>
       </c>
-    </row>
-    <row r="487" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z486" s="17">
+        <v>3.9902883162551377</v>
+      </c>
+    </row>
+    <row r="487" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B487" s="17">
         <v>1.244655141813839</v>
@@ -24181,10 +25074,13 @@
       <c r="Y487" s="17">
         <v>1.8942056465673669</v>
       </c>
-    </row>
-    <row r="488" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z487" s="17">
+        <v>1.9968309164152505</v>
+      </c>
+    </row>
+    <row r="488" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B488" s="17">
         <v>1.964431523325376</v>
@@ -24258,8 +25154,11 @@
       <c r="Y488" s="17">
         <v>1.9150450903347767</v>
       </c>
-    </row>
-    <row r="489" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z488" s="17">
+        <v>1.9982088303904826</v>
+      </c>
+    </row>
+    <row r="489" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="21"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -24285,8 +25184,9 @@
       <c r="W489" s="17"/>
       <c r="X489" s="17"/>
       <c r="Y489" s="17"/>
-    </row>
-    <row r="490" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z489" s="17"/>
+    </row>
+    <row r="490" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="14" t="s">
         <v>28</v>
       </c>
@@ -24362,8 +25262,11 @@
       <c r="Y490" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="491" spans="1:25" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z490" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="491" spans="1:26" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>49</v>
       </c>
@@ -24439,8 +25342,11 @@
       <c r="Y491" s="17">
         <v>90.104556838553435</v>
       </c>
-    </row>
-    <row r="492" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z491" s="17">
+        <v>88.483682031890794</v>
+      </c>
+    </row>
+    <row r="492" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>11</v>
       </c>
@@ -24516,8 +25422,11 @@
       <c r="Y492" s="17">
         <v>9.8954431614465559</v>
       </c>
-    </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z492" s="17">
+        <v>11.516317968109199</v>
+      </c>
+    </row>
+    <row r="493" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
       <c r="D493" s="17"/>
@@ -24542,8 +25451,9 @@
       <c r="W493" s="17"/>
       <c r="X493" s="17"/>
       <c r="Y493" s="17"/>
-    </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z493" s="17"/>
+    </row>
+    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>27</v>
       </c>
@@ -24619,8 +25529,11 @@
       <c r="Y494" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="495" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z494" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="495" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -24646,49 +25559,50 @@
       <c r="W495" s="15"/>
       <c r="X495" s="15"/>
       <c r="Y495" s="15"/>
-    </row>
-    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z495" s="15"/>
+    </row>
+    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A502" s="2"/>
+    </row>
+    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A503" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A504" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="502" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A502" s="2"/>
-    </row>
-    <row r="503" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A503" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="504" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A504" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="505" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
       <c r="B507" s="7" t="s">
         <v>46</v>
@@ -24716,8 +25630,9 @@
       <c r="W507" s="7"/>
       <c r="X507" s="7"/>
       <c r="Y507" s="7"/>
-    </row>
-    <row r="508" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z507" s="7"/>
+    </row>
+    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
         <v>33</v>
       </c>
@@ -24793,8 +25708,11 @@
       <c r="Y508" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="510" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z508" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="510" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="18" t="s">
         <v>50</v>
       </c>
@@ -24870,8 +25788,11 @@
       <c r="Y510" s="17">
         <v>8.5736641730890817</v>
       </c>
-    </row>
-    <row r="511" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z510" s="17">
+        <v>7.9891170972162922</v>
+      </c>
+    </row>
+    <row r="511" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="18" t="s">
         <v>33</v>
       </c>
@@ -24947,8 +25868,11 @@
       <c r="Y511" s="17">
         <v>29.100193001138379</v>
       </c>
-    </row>
-    <row r="512" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z511" s="17">
+        <v>29.090129461902574</v>
+      </c>
+    </row>
+    <row r="512" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="12" t="s">
         <v>51</v>
       </c>
@@ -25024,8 +25948,11 @@
       <c r="Y512" s="17">
         <v>0.73701589733773898</v>
       </c>
-    </row>
-    <row r="513" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z512" s="17">
+        <v>0.70672130654416443</v>
+      </c>
+    </row>
+    <row r="513" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="12" t="s">
         <v>52</v>
       </c>
@@ -25101,8 +26028,11 @@
       <c r="Y513" s="17">
         <v>17.952158122791641</v>
       </c>
-    </row>
-    <row r="514" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z513" s="17">
+        <v>17.607168254021456</v>
+      </c>
+    </row>
+    <row r="514" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A514" s="21" t="s">
         <v>53</v>
       </c>
@@ -25178,8 +26108,11 @@
       <c r="Y514" s="17">
         <v>3.2534974291764787</v>
       </c>
-    </row>
-    <row r="515" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z514" s="17">
+        <v>3.3040839134826236</v>
+      </c>
+    </row>
+    <row r="515" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="12" t="s">
         <v>54</v>
       </c>
@@ -25255,8 +26188,11 @@
       <c r="Y515" s="17">
         <v>7.157521551832521</v>
       </c>
-    </row>
-    <row r="516" spans="1:25" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z515" s="17">
+        <v>7.472155987854336</v>
+      </c>
+    </row>
+    <row r="516" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="18" t="s">
         <v>55</v>
       </c>
@@ -25332,8 +26268,11 @@
       <c r="Y516" s="17">
         <v>62.326142825772543</v>
       </c>
-    </row>
-    <row r="517" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z516" s="17">
+        <v>62.920753440881128</v>
+      </c>
+    </row>
+    <row r="517" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A517" s="21" t="s">
         <v>56</v>
       </c>
@@ -25409,8 +26348,11 @@
       <c r="Y517" s="17">
         <v>18.589515317164654</v>
       </c>
-    </row>
-    <row r="518" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z517" s="17">
+        <v>18.587902744801031</v>
+      </c>
+    </row>
+    <row r="518" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A518" s="12" t="s">
         <v>57</v>
       </c>
@@ -25486,8 +26428,11 @@
       <c r="Y518" s="17">
         <v>3.6462633866977936</v>
       </c>
-    </row>
-    <row r="519" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z518" s="17">
+        <v>3.7553022136468246</v>
+      </c>
+    </row>
+    <row r="519" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="12" t="s">
         <v>58</v>
       </c>
@@ -25563,8 +26508,11 @@
       <c r="Y519" s="17">
         <v>1.9258166580650531</v>
       </c>
-    </row>
-    <row r="520" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z519" s="17">
+        <v>2.0099234027907564</v>
+      </c>
+    </row>
+    <row r="520" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520" s="12" t="s">
         <v>59</v>
       </c>
@@ -25640,8 +26588,11 @@
       <c r="Y520" s="17">
         <v>3.4183147310307942</v>
       </c>
-    </row>
-    <row r="521" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z520" s="17">
+        <v>3.3798707081320982</v>
+      </c>
+    </row>
+    <row r="521" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="12" t="s">
         <v>60</v>
       </c>
@@ -25717,8 +26668,11 @@
       <c r="Y521" s="17">
         <v>10.265627377599786</v>
       </c>
-    </row>
-    <row r="522" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z521" s="17">
+        <v>10.589390583176696</v>
+      </c>
+    </row>
+    <row r="522" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="12" t="s">
         <v>61</v>
       </c>
@@ -25794,8 +26748,11 @@
       <c r="Y522" s="17">
         <v>5.4746324261332653</v>
       </c>
-    </row>
-    <row r="523" spans="1:25" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z522" s="17">
+        <v>5.4431002691891033</v>
+      </c>
+    </row>
+    <row r="523" spans="1:26" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="21" t="s">
         <v>62</v>
       </c>
@@ -25871,10 +26828,13 @@
       <c r="Y523" s="17">
         <v>6.2875658148533855</v>
       </c>
-    </row>
-    <row r="524" spans="1:25" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z523" s="17">
+        <v>6.4197862907608076</v>
+      </c>
+    </row>
+    <row r="524" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A524" s="21" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B524" s="17">
         <v>4.7294826628002617</v>
@@ -25948,10 +26908,13 @@
       <c r="Y524" s="17">
         <v>4.8669957834218707</v>
       </c>
-    </row>
-    <row r="525" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z524" s="17">
+        <v>4.7967421539238257</v>
+      </c>
+    </row>
+    <row r="525" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B525" s="17">
         <v>5.0942388441402979</v>
@@ -26025,10 +26988,13 @@
       <c r="Y525" s="17">
         <v>4.0453591191904161</v>
       </c>
-    </row>
-    <row r="526" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z525" s="17">
+        <v>3.9779501742704739</v>
+      </c>
+    </row>
+    <row r="526" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B526" s="17">
         <v>1.7074079438955465</v>
@@ -26102,10 +27068,13 @@
       <c r="Y526" s="17">
         <v>1.8580462834267706</v>
       </c>
-    </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z526" s="17">
+        <v>1.9471640281311635</v>
+      </c>
+    </row>
+    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A527" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B527" s="17">
         <v>1.984986222343502</v>
@@ -26179,8 +27148,11 @@
       <c r="Y527" s="17">
         <v>1.9480059281887512</v>
       </c>
-    </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z527" s="17">
+        <v>2.0136208720583428</v>
+      </c>
+    </row>
+    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -26206,8 +27178,9 @@
       <c r="W528" s="17"/>
       <c r="X528" s="17"/>
       <c r="Y528" s="17"/>
-    </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z528" s="17"/>
+    </row>
+    <row r="529" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A529" s="14" t="s">
         <v>28</v>
       </c>
@@ -26283,8 +27256,11 @@
       <c r="Y529" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="530" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z529" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>49</v>
       </c>
@@ -26360,8 +27336,11 @@
       <c r="Y530" s="17">
         <v>90.435400663340999</v>
       </c>
-    </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z530" s="17">
+        <v>88.792314923911292</v>
+      </c>
+    </row>
+    <row r="531" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>11</v>
       </c>
@@ -26437,8 +27416,11 @@
       <c r="Y531" s="17">
         <v>9.5645993366590183</v>
       </c>
-    </row>
-    <row r="532" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z531" s="17">
+        <v>11.20768507608871</v>
+      </c>
+    </row>
+    <row r="532" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
       <c r="D532" s="17"/>
@@ -26463,8 +27445,9 @@
       <c r="W532" s="17"/>
       <c r="X532" s="17"/>
       <c r="Y532" s="17"/>
-    </row>
-    <row r="533" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z532" s="17"/>
+    </row>
+    <row r="533" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>27</v>
       </c>
@@ -26540,8 +27523,11 @@
       <c r="Y533" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="534" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z533" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -26567,13 +27553,14 @@
       <c r="W534" s="15"/>
       <c r="X534" s="15"/>
       <c r="Y534" s="15"/>
-    </row>
-    <row r="535" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z534" s="15"/>
+    </row>
+    <row r="535" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B536" s="22"/>
       <c r="C536" s="22"/>
       <c r="D536" s="22"/>
@@ -26598,8 +27585,9 @@
       <c r="W536" s="22"/>
       <c r="X536" s="22"/>
       <c r="Y536" s="22"/>
-    </row>
-    <row r="537" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z536" s="22"/>
+    </row>
+    <row r="537" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B537" s="22"/>
       <c r="C537" s="22"/>
       <c r="D537" s="22"/>
@@ -26624,33 +27612,34 @@
       <c r="W537" s="22"/>
       <c r="X537" s="22"/>
       <c r="Y537" s="22"/>
-    </row>
-    <row r="538" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z537" s="22"/>
+    </row>
+    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="541" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="543" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -26676,8 +27665,9 @@
       <c r="W543" s="3"/>
       <c r="X543" s="3"/>
       <c r="Y543" s="3"/>
-    </row>
-    <row r="544" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z543" s="3"/>
+    </row>
+    <row r="544" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>29</v>
       </c>
@@ -26705,8 +27695,9 @@
       <c r="W544" s="3"/>
       <c r="X544" s="3"/>
       <c r="Y544" s="3"/>
-    </row>
-    <row r="545" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z544" s="3"/>
+    </row>
+    <row r="545" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -26732,8 +27723,9 @@
       <c r="W545" s="3"/>
       <c r="X545" s="3"/>
       <c r="Y545" s="3"/>
-    </row>
-    <row r="546" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z545" s="3"/>
+    </row>
+    <row r="546" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="23"/>
       <c r="B546" s="7" t="s">
         <v>46</v>
@@ -26761,8 +27753,9 @@
       <c r="W546" s="7"/>
       <c r="X546" s="7"/>
       <c r="Y546" s="7"/>
-    </row>
-    <row r="547" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z546" s="7"/>
+    </row>
+    <row r="547" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="24"/>
       <c r="B547" s="9">
         <v>2000</v>
@@ -26836,8 +27829,11 @@
       <c r="Y547" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="548" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z547" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="548" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="25"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -26863,8 +27859,9 @@
       <c r="W548" s="3"/>
       <c r="X548" s="3"/>
       <c r="Y548" s="3"/>
-    </row>
-    <row r="549" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z548" s="3"/>
+    </row>
+    <row r="549" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>20</v>
       </c>
@@ -26934,14 +27931,17 @@
       <c r="W549" s="26">
         <v>1117657.8504454875</v>
       </c>
-      <c r="X549" s="26">
+      <c r="X549" s="34">
         <v>1733060.4721519602</v>
       </c>
-      <c r="Y549" s="26">
+      <c r="Y549" s="34">
         <v>3357316.1796637094</v>
       </c>
-    </row>
-    <row r="550" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z549" s="34">
+        <v>4198419.9929762008</v>
+      </c>
+    </row>
+    <row r="550" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="27" t="s">
         <v>21</v>
       </c>
@@ -27011,14 +28011,17 @@
       <c r="W550" s="28">
         <v>941740.52341519285</v>
       </c>
-      <c r="X550" s="28">
+      <c r="X550" s="34">
         <v>1469235.1306790612</v>
       </c>
-      <c r="Y550" s="28">
+      <c r="Y550" s="34">
         <v>2879901.4275458022</v>
       </c>
-    </row>
-    <row r="551" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z550" s="34">
+        <v>3659967.0427601235</v>
+      </c>
+    </row>
+    <row r="551" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="27" t="s">
         <v>22</v>
       </c>
@@ -27088,14 +28091,17 @@
       <c r="W551" s="28">
         <v>175917.32703029475</v>
       </c>
-      <c r="X551" s="28">
+      <c r="X551" s="34">
         <v>263825.34147289896</v>
       </c>
-      <c r="Y551" s="28">
+      <c r="Y551" s="34">
         <v>477414.75211790728</v>
       </c>
-    </row>
-    <row r="552" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z551" s="34">
+        <v>538452.95021607762</v>
+      </c>
+    </row>
+    <row r="552" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29"/>
@@ -27119,10 +28125,11 @@
       <c r="U552" s="29"/>
       <c r="V552" s="29"/>
       <c r="W552" s="29"/>
-      <c r="X552" s="29"/>
-      <c r="Y552" s="29"/>
-    </row>
-    <row r="553" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X552" s="34"/>
+      <c r="Y552" s="34"/>
+      <c r="Z552" s="34"/>
+    </row>
+    <row r="553" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>23</v>
       </c>
@@ -27192,14 +28199,17 @@
       <c r="W553" s="26">
         <v>427270.24668986473</v>
       </c>
-      <c r="X553" s="26">
+      <c r="X553" s="34">
         <v>438681.75845668814</v>
       </c>
-      <c r="Y553" s="26">
+      <c r="Y553" s="34">
         <v>686602.89602845511</v>
       </c>
-    </row>
-    <row r="554" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z553" s="34">
+        <v>757623.08583699306</v>
+      </c>
+    </row>
+    <row r="554" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="27" t="s">
         <v>21</v>
       </c>
@@ -27269,14 +28279,17 @@
       <c r="W554" s="28">
         <v>42603.696845826271</v>
       </c>
-      <c r="X554" s="28">
+      <c r="X554" s="34">
         <v>21367.805939945876</v>
       </c>
-      <c r="Y554" s="28">
+      <c r="Y554" s="34">
         <v>60302.490021112048</v>
       </c>
-    </row>
-    <row r="555" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z554" s="34">
+        <v>53567.0472724836</v>
+      </c>
+    </row>
+    <row r="555" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="27" t="s">
         <v>24</v>
       </c>
@@ -27346,14 +28359,17 @@
       <c r="W555" s="28">
         <v>384666.54984403844</v>
       </c>
-      <c r="X555" s="28">
+      <c r="X555" s="34">
         <v>417313.95251674228</v>
       </c>
-      <c r="Y555" s="28">
+      <c r="Y555" s="34">
         <v>626300.40600734309</v>
       </c>
-    </row>
-    <row r="556" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z555" s="34">
+        <v>704056.03856450948</v>
+      </c>
+    </row>
+    <row r="556" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29"/>
@@ -27377,10 +28393,11 @@
       <c r="U556" s="29"/>
       <c r="V556" s="29"/>
       <c r="W556" s="29"/>
-      <c r="X556" s="29"/>
-      <c r="Y556" s="29"/>
-    </row>
-    <row r="557" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X556" s="34"/>
+      <c r="Y556" s="34"/>
+      <c r="Z556" s="34"/>
+    </row>
+    <row r="557" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="30" t="s">
         <v>32</v>
       </c>
@@ -27450,14 +28467,17 @@
       <c r="W557" s="29">
         <v>690387.60375562287</v>
       </c>
-      <c r="X557" s="29">
+      <c r="X557" s="34">
         <v>1294378.7136952721</v>
       </c>
-      <c r="Y557" s="29">
+      <c r="Y557" s="34">
         <v>2670713.283635254</v>
       </c>
-    </row>
-    <row r="558" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z557" s="34">
+        <v>3440796.9071392077</v>
+      </c>
+    </row>
+    <row r="558" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -27483,8 +28503,9 @@
       <c r="W558" s="15"/>
       <c r="X558" s="15"/>
       <c r="Y558" s="15"/>
-    </row>
-    <row r="559" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z558" s="15"/>
+    </row>
+    <row r="559" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>0</v>
       </c>
@@ -27512,8 +28533,9 @@
       <c r="W559" s="3"/>
       <c r="X559" s="3"/>
       <c r="Y559" s="3"/>
-    </row>
-    <row r="560" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z559" s="3"/>
+    </row>
+    <row r="560" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -27539,8 +28561,9 @@
       <c r="W560" s="3"/>
       <c r="X560" s="3"/>
       <c r="Y560" s="3"/>
-    </row>
-    <row r="561" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z560" s="3"/>
+    </row>
+    <row r="561" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -27566,8 +28589,9 @@
       <c r="W561" s="3"/>
       <c r="X561" s="3"/>
       <c r="Y561" s="3"/>
-    </row>
-    <row r="562" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z561" s="3"/>
+    </row>
+    <row r="562" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>25</v>
       </c>
@@ -27595,8 +28619,9 @@
       <c r="W562" s="3"/>
       <c r="X562" s="3"/>
       <c r="Y562" s="3"/>
-    </row>
-    <row r="563" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z562" s="3"/>
+    </row>
+    <row r="563" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>26</v>
       </c>
@@ -27624,10 +28649,11 @@
       <c r="W563" s="3"/>
       <c r="X563" s="3"/>
       <c r="Y563" s="3"/>
-    </row>
-    <row r="564" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z563" s="3"/>
+    </row>
+    <row r="564" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -27653,8 +28679,9 @@
       <c r="W564" s="3"/>
       <c r="X564" s="3"/>
       <c r="Y564" s="3"/>
-    </row>
-    <row r="565" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z564" s="3"/>
+    </row>
+    <row r="565" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -27680,8 +28707,9 @@
       <c r="W565" s="3"/>
       <c r="X565" s="3"/>
       <c r="Y565" s="3"/>
-    </row>
-    <row r="566" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z565" s="3"/>
+    </row>
+    <row r="566" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>40</v>
       </c>
@@ -27709,10 +28737,11 @@
       <c r="W566" s="3"/>
       <c r="X566" s="3"/>
       <c r="Y566" s="3"/>
-    </row>
-    <row r="567" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z566" s="3"/>
+    </row>
+    <row r="567" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -27738,8 +28767,9 @@
       <c r="W567" s="3"/>
       <c r="X567" s="3"/>
       <c r="Y567" s="3"/>
-    </row>
-    <row r="568" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z567" s="3"/>
+    </row>
+    <row r="568" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>30</v>
       </c>
@@ -27767,8 +28797,9 @@
       <c r="W568" s="3"/>
       <c r="X568" s="3"/>
       <c r="Y568" s="3"/>
-    </row>
-    <row r="569" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z568" s="3"/>
+    </row>
+    <row r="569" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -27794,8 +28825,9 @@
       <c r="W569" s="3"/>
       <c r="X569" s="3"/>
       <c r="Y569" s="3"/>
-    </row>
-    <row r="570" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z569" s="3"/>
+    </row>
+    <row r="570" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="23"/>
       <c r="B570" s="7" t="s">
         <v>46</v>
@@ -27823,8 +28855,9 @@
       <c r="W570" s="7"/>
       <c r="X570" s="7"/>
       <c r="Y570" s="7"/>
-    </row>
-    <row r="571" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z570" s="7"/>
+    </row>
+    <row r="571" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="24"/>
       <c r="B571" s="9">
         <v>2000</v>
@@ -27898,8 +28931,11 @@
       <c r="Y571" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="572" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z571" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="572" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="25"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -27925,8 +28961,9 @@
       <c r="W572" s="3"/>
       <c r="X572" s="3"/>
       <c r="Y572" s="3"/>
-    </row>
-    <row r="573" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z572" s="3"/>
+    </row>
+    <row r="573" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>20</v>
       </c>
@@ -27996,14 +29033,17 @@
       <c r="W573" s="26">
         <v>1037503.8392732077</v>
       </c>
-      <c r="X573" s="26">
+      <c r="X573" s="34">
         <v>1516163.6214434525</v>
       </c>
-      <c r="Y573" s="26">
+      <c r="Y573" s="34">
         <v>2803186.7427657847</v>
       </c>
-    </row>
-    <row r="574" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z573" s="34">
+        <v>3422742.6642764611</v>
+      </c>
+    </row>
+    <row r="574" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="27" t="s">
         <v>21</v>
       </c>
@@ -28073,14 +29113,17 @@
       <c r="W574" s="28">
         <v>873983.91027083388</v>
       </c>
-      <c r="X574" s="28">
+      <c r="X574" s="34">
         <v>1286208.8336921311</v>
       </c>
-      <c r="Y574" s="28">
+      <c r="Y574" s="34">
         <v>2403240.8531802315</v>
       </c>
-    </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z574" s="34">
+        <v>2982604.5405376302</v>
+      </c>
+    </row>
+    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A575" s="27" t="s">
         <v>22</v>
       </c>
@@ -28150,14 +29193,17 @@
       <c r="W575" s="28">
         <v>163519.9290023738</v>
       </c>
-      <c r="X575" s="28">
+      <c r="X575" s="34">
         <v>229954.78775132151</v>
       </c>
-      <c r="Y575" s="28">
+      <c r="Y575" s="34">
         <v>399945.88958555309</v>
       </c>
-    </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z575" s="34">
+        <v>440138.12373883068</v>
+      </c>
+    </row>
+    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29"/>
@@ -28181,10 +29227,11 @@
       <c r="U576" s="29"/>
       <c r="V576" s="29"/>
       <c r="W576" s="29"/>
-      <c r="X576" s="29"/>
-      <c r="Y576" s="29"/>
-    </row>
-    <row r="577" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X576" s="34"/>
+      <c r="Y576" s="34"/>
+      <c r="Z576" s="34"/>
+    </row>
+    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
         <v>23</v>
       </c>
@@ -28254,14 +29301,17 @@
       <c r="W577" s="26">
         <v>398181.74998528766</v>
       </c>
-      <c r="X577" s="26">
+      <c r="X577" s="34">
         <v>386052.99720555008</v>
       </c>
-      <c r="Y577" s="26">
+      <c r="Y577" s="34">
         <v>576717.55653883051</v>
       </c>
-    </row>
-    <row r="578" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z577" s="34">
+        <v>615563.4795571554</v>
+      </c>
+    </row>
+    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A578" s="27" t="s">
         <v>21</v>
       </c>
@@ -28331,14 +29381,17 @@
       <c r="W578" s="28">
         <v>39656.234020403877</v>
       </c>
-      <c r="X578" s="28">
+      <c r="X578" s="34">
         <v>18688.512015532004</v>
       </c>
-      <c r="Y578" s="28">
+      <c r="Y578" s="34">
         <v>50492.283354382598</v>
       </c>
-    </row>
-    <row r="579" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z578" s="34">
+        <v>43408.874985549613</v>
+      </c>
+    </row>
+    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A579" s="27" t="s">
         <v>24</v>
       </c>
@@ -28408,14 +29461,17 @@
       <c r="W579" s="28">
         <v>358525.51596488379</v>
       </c>
-      <c r="X579" s="28">
+      <c r="X579" s="34">
         <v>367364.48519001808</v>
       </c>
-      <c r="Y579" s="28">
+      <c r="Y579" s="34">
         <v>526225.2731844479</v>
       </c>
-    </row>
-    <row r="580" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z579" s="34">
+        <v>572154.6045716058</v>
+      </c>
+    </row>
+    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29"/>
@@ -28439,10 +29495,11 @@
       <c r="U580" s="29"/>
       <c r="V580" s="29"/>
       <c r="W580" s="29"/>
-      <c r="X580" s="29"/>
-      <c r="Y580" s="29"/>
-    </row>
-    <row r="581" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X580" s="34"/>
+      <c r="Y580" s="34"/>
+      <c r="Z580" s="34"/>
+    </row>
+    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="30" t="s">
         <v>32</v>
       </c>
@@ -28512,14 +29569,17 @@
       <c r="W581" s="29">
         <v>639322.08928792004</v>
       </c>
-      <c r="X581" s="29">
+      <c r="X581" s="34">
         <v>1130110.6242379025</v>
       </c>
-      <c r="Y581" s="29">
+      <c r="Y581" s="34">
         <v>2226469.1862269542</v>
       </c>
-    </row>
-    <row r="582" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z581" s="34">
+        <v>2807179.1847193055</v>
+      </c>
+    </row>
+    <row r="582" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -28545,55 +29605,56 @@
       <c r="W582" s="15"/>
       <c r="X582" s="15"/>
       <c r="Y582" s="15"/>
-    </row>
-    <row r="583" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z582" s="15"/>
+    </row>
+    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
     </row>
-    <row r="585" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
     </row>
-    <row r="586" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
     </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="592" spans="1:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="593" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
     </row>
-    <row r="594" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A594" s="23"/>
       <c r="B594" s="7" t="s">
         <v>46</v>
@@ -28621,84 +29682,88 @@
       <c r="W594" s="7"/>
       <c r="X594" s="7"/>
       <c r="Y594" s="7"/>
-    </row>
-    <row r="595" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z594" s="6"/>
+    </row>
+    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="24"/>
       <c r="B595" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C595" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C595" s="9" t="s">
+      <c r="D595" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D595" s="9" t="s">
+      <c r="E595" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E595" s="9" t="s">
+      <c r="F595" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F595" s="9" t="s">
+      <c r="G595" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G595" s="9" t="s">
+      <c r="H595" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H595" s="9" t="s">
+      <c r="I595" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I595" s="9" t="s">
+      <c r="J595" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J595" s="9" t="s">
+      <c r="K595" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K595" s="9" t="s">
+      <c r="L595" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L595" s="9" t="s">
+      <c r="M595" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M595" s="9" t="s">
+      <c r="N595" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N595" s="9" t="s">
+      <c r="O595" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O595" s="9" t="s">
+      <c r="P595" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P595" s="9" t="s">
+      <c r="Q595" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q595" s="9" t="s">
+      <c r="R595" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R595" s="9" t="s">
+      <c r="S595" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S595" s="9" t="s">
+      <c r="T595" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T595" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U595" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V595" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V595" s="9" t="s">
+      <c r="W595" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W595" s="9" t="s">
+      <c r="X595" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X595" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y595" s="9"/>
-    </row>
-    <row r="596" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y595" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z595" s="9"/>
+    </row>
+    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A596" s="25"/>
     </row>
-    <row r="597" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
         <v>20</v>
       </c>
@@ -28771,9 +29836,12 @@
       <c r="X597" s="17">
         <v>93.721813728455373</v>
       </c>
-      <c r="Y597" s="17"/>
-    </row>
-    <row r="598" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y597" s="17">
+        <v>25.052862712404462</v>
+      </c>
+      <c r="Z597" s="17"/>
+    </row>
+    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" s="27" t="s">
         <v>21</v>
       </c>
@@ -28846,9 +29914,12 @@
       <c r="X598" s="17">
         <v>96.013651417030133</v>
       </c>
-      <c r="Y598" s="17"/>
-    </row>
-    <row r="599" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y598" s="17">
+        <v>27.086538718065725</v>
+      </c>
+      <c r="Z598" s="17"/>
+    </row>
+    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" s="27" t="s">
         <v>22</v>
       </c>
@@ -28921,9 +29992,12 @@
       <c r="X599" s="17">
         <v>80.958640838885827</v>
       </c>
-      <c r="Y599" s="17"/>
-    </row>
-    <row r="600" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y599" s="17">
+        <v>12.785151239544376</v>
+      </c>
+      <c r="Z599" s="17"/>
+    </row>
+    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29"/>
@@ -28946,10 +30020,11 @@
       <c r="T600" s="29"/>
       <c r="V600" s="29"/>
       <c r="W600" s="29"/>
-      <c r="X600" s="29"/>
-      <c r="Y600" s="29"/>
-    </row>
-    <row r="601" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X600" s="17"/>
+      <c r="Y600" s="17"/>
+      <c r="Z600" s="17"/>
+    </row>
+    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
         <v>23</v>
       </c>
@@ -29022,9 +30097,12 @@
       <c r="X601" s="17">
         <v>56.515032319549874</v>
       </c>
-      <c r="Y601" s="17"/>
-    </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y601" s="17">
+        <v>10.343706707231064</v>
+      </c>
+      <c r="Z601" s="17"/>
+    </row>
+    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" s="27" t="s">
         <v>21</v>
       </c>
@@ -29097,9 +30175,12 @@
       <c r="X602" s="17">
         <v>182.21189480376194</v>
       </c>
-      <c r="Y602" s="17"/>
-    </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y602" s="17">
+        <v>-11.169427243004975</v>
+      </c>
+      <c r="Z602" s="17"/>
+    </row>
+    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A603" s="27" t="s">
         <v>24</v>
       </c>
@@ -29172,9 +30253,12 @@
       <c r="X603" s="17">
         <v>50.078951885083796</v>
       </c>
-      <c r="Y603" s="17"/>
-    </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y603" s="17">
+        <v>12.415069798989521</v>
+      </c>
+      <c r="Z603" s="17"/>
+    </row>
+    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29"/>
@@ -29197,10 +30281,11 @@
       <c r="T604" s="29"/>
       <c r="V604" s="29"/>
       <c r="W604" s="29"/>
-      <c r="X604" s="29"/>
-      <c r="Y604" s="29"/>
-    </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X604" s="17"/>
+      <c r="Y604" s="17"/>
+      <c r="Z604" s="17"/>
+    </row>
+    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="30" t="s">
         <v>32</v>
       </c>
@@ -29273,9 +30358,12 @@
       <c r="X605" s="17">
         <v>106.33167521820081</v>
       </c>
-      <c r="Y605" s="17"/>
-    </row>
-    <row r="606" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y605" s="17">
+        <v>28.834380246753796</v>
+      </c>
+      <c r="Z605" s="17"/>
+    </row>
+    <row r="606" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -29301,55 +30389,56 @@
       <c r="W606" s="15"/>
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
-    </row>
-    <row r="607" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z606" s="15"/>
+    </row>
+    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
     </row>
-    <row r="609" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
     </row>
-    <row r="610" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="613" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
     </row>
-    <row r="614" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="616" spans="1:25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
     </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618" s="23"/>
       <c r="B618" s="7" t="s">
         <v>46</v>
@@ -29377,84 +30466,88 @@
       <c r="W618" s="7"/>
       <c r="X618" s="7"/>
       <c r="Y618" s="7"/>
-    </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z618" s="6"/>
+    </row>
+    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="24"/>
       <c r="B619" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C619" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C619" s="9" t="s">
+      <c r="D619" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D619" s="9" t="s">
+      <c r="E619" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E619" s="9" t="s">
+      <c r="F619" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F619" s="9" t="s">
+      <c r="G619" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G619" s="9" t="s">
+      <c r="H619" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H619" s="9" t="s">
+      <c r="I619" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I619" s="9" t="s">
+      <c r="J619" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J619" s="9" t="s">
+      <c r="K619" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K619" s="9" t="s">
+      <c r="L619" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L619" s="9" t="s">
+      <c r="M619" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M619" s="9" t="s">
+      <c r="N619" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N619" s="9" t="s">
+      <c r="O619" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O619" s="9" t="s">
+      <c r="P619" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P619" s="9" t="s">
+      <c r="Q619" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q619" s="9" t="s">
+      <c r="R619" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R619" s="9" t="s">
+      <c r="S619" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S619" s="9" t="s">
+      <c r="T619" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T619" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U619" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V619" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V619" s="9" t="s">
+      <c r="W619" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W619" s="9" t="s">
+      <c r="X619" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X619" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y619" s="9"/>
-    </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y619" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z619" s="9"/>
+    </row>
+    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620" s="25"/>
     </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
         <v>20</v>
       </c>
@@ -29527,9 +30620,12 @@
       <c r="X621" s="17">
         <v>84.886822445787971</v>
       </c>
-      <c r="Y621" s="17"/>
-    </row>
-    <row r="622" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y621" s="17">
+        <v>22.101842594310611</v>
+      </c>
+      <c r="Z621" s="17"/>
+    </row>
+    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622" s="27" t="s">
         <v>21</v>
       </c>
@@ -29602,9 +30698,12 @@
       <c r="X622" s="17">
         <v>86.846862673272142</v>
       </c>
-      <c r="Y622" s="17"/>
-    </row>
-    <row r="623" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y622" s="17">
+        <v>24.107599810094825</v>
+      </c>
+      <c r="Z622" s="17"/>
+    </row>
+    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623" s="27" t="s">
         <v>22</v>
       </c>
@@ -29677,9 +30776,12 @@
       <c r="X623" s="17">
         <v>73.923706262669299</v>
       </c>
-      <c r="Y623" s="17"/>
-    </row>
-    <row r="624" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y623" s="17">
+        <v>10.049417983749521</v>
+      </c>
+      <c r="Z623" s="17"/>
+    </row>
+    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29"/>
@@ -29702,10 +30804,11 @@
       <c r="T624" s="29"/>
       <c r="V624" s="29"/>
       <c r="W624" s="29"/>
-      <c r="X624" s="29"/>
-      <c r="Y624" s="29"/>
-    </row>
-    <row r="625" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X624" s="17"/>
+      <c r="Y624" s="17"/>
+      <c r="Z624" s="17"/>
+    </row>
+    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>23</v>
       </c>
@@ -29778,9 +30881,12 @@
       <c r="X625" s="17">
         <v>49.388182636427757</v>
       </c>
-      <c r="Y625" s="17"/>
-    </row>
-    <row r="626" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y625" s="17">
+        <v>6.7356928149471713</v>
+      </c>
+      <c r="Z625" s="17"/>
+    </row>
+    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626" s="27" t="s">
         <v>21</v>
       </c>
@@ -29853,9 +30959,12 @@
       <c r="X626" s="17">
         <v>170.17818921280895</v>
       </c>
-      <c r="Y626" s="17"/>
-    </row>
-    <row r="627" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y626" s="17">
+        <v>-14.028694878220762</v>
+      </c>
+      <c r="Z626" s="17"/>
+    </row>
+    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627" s="27" t="s">
         <v>24</v>
       </c>
@@ -29928,9 +31037,12 @@
       <c r="X627" s="17">
         <v>43.243371201835032</v>
       </c>
-      <c r="Y627" s="17"/>
-    </row>
-    <row r="628" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y627" s="17">
+        <v>8.7280740260187457</v>
+      </c>
+      <c r="Z627" s="17"/>
+    </row>
+    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
@@ -29953,10 +31065,11 @@
       <c r="T628" s="29"/>
       <c r="V628" s="29"/>
       <c r="W628" s="29"/>
-      <c r="X628" s="29"/>
-      <c r="Y628" s="29"/>
-    </row>
-    <row r="629" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X628" s="17"/>
+      <c r="Y628" s="17"/>
+      <c r="Z628" s="17"/>
+    </row>
+    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="30" t="s">
         <v>32</v>
       </c>
@@ -30029,9 +31142,12 @@
       <c r="X629" s="17">
         <v>97.013384218769602</v>
       </c>
-      <c r="Y629" s="17"/>
-    </row>
-    <row r="630" spans="1:25" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y629" s="17">
+        <v>26.082103542445196</v>
+      </c>
+      <c r="Z629" s="17"/>
+    </row>
+    <row r="630" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -30057,42 +31173,43 @@
       <c r="W630" s="15"/>
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
-    </row>
-    <row r="631" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z630" s="15"/>
+    </row>
+    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
     </row>
-    <row r="633" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
     </row>
-    <row r="634" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="635" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
     </row>
-    <row r="636" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="637" spans="1:25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
     </row>
-    <row r="638" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="639" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -30118,8 +31235,9 @@
       <c r="W639" s="3"/>
       <c r="X639" s="3"/>
       <c r="Y639" s="3"/>
-    </row>
-    <row r="640" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z639" s="3"/>
+    </row>
+    <row r="640" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
         <v>31</v>
       </c>
@@ -30147,8 +31265,9 @@
       <c r="W640" s="3"/>
       <c r="X640" s="3"/>
       <c r="Y640" s="3"/>
-    </row>
-    <row r="641" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z640" s="3"/>
+    </row>
+    <row r="641" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -30174,8 +31293,9 @@
       <c r="W641" s="3"/>
       <c r="X641" s="3"/>
       <c r="Y641" s="3"/>
-    </row>
-    <row r="642" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z641" s="3"/>
+    </row>
+    <row r="642" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A642" s="23"/>
       <c r="B642" s="7" t="s">
         <v>46</v>
@@ -30203,8 +31323,9 @@
       <c r="W642" s="7"/>
       <c r="X642" s="7"/>
       <c r="Y642" s="7"/>
-    </row>
-    <row r="643" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z642" s="7"/>
+    </row>
+    <row r="643" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A643" s="24"/>
       <c r="B643" s="9">
         <v>2000</v>
@@ -30278,8 +31399,11 @@
       <c r="Y643" s="9">
         <v>2023</v>
       </c>
-    </row>
-    <row r="644" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z643" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="644" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A644" s="25"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -30305,8 +31429,9 @@
       <c r="W644" s="3"/>
       <c r="X644" s="3"/>
       <c r="Y644" s="3"/>
-    </row>
-    <row r="645" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z644" s="3"/>
+    </row>
+    <row r="645" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
         <v>20</v>
       </c>
@@ -30376,14 +31501,17 @@
       <c r="W645" s="31">
         <v>107.72565923499901</v>
       </c>
-      <c r="X645" s="31">
+      <c r="X645" s="17">
         <v>114.30563612270375</v>
       </c>
-      <c r="Y645" s="31">
+      <c r="Y645" s="17">
         <v>119.76783881159443</v>
       </c>
-    </row>
-    <row r="646" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z645" s="17">
+        <v>122.66244952609404</v>
+      </c>
+    </row>
+    <row r="646" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A646" s="27" t="s">
         <v>21</v>
       </c>
@@ -30453,14 +31581,17 @@
       <c r="W646" s="31">
         <v>107.75261562004755</v>
       </c>
-      <c r="X646" s="31">
+      <c r="X646" s="17">
         <v>114.22990514390601</v>
       </c>
-      <c r="Y646" s="31">
+      <c r="Y646" s="17">
         <v>119.83407421419294</v>
       </c>
-    </row>
-    <row r="647" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z646" s="17">
+        <v>122.71043623169685</v>
+      </c>
+    </row>
+    <row r="647" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A647" s="27" t="s">
         <v>22</v>
       </c>
@@ -30530,14 +31661,17 @@
       <c r="W647" s="31">
         <v>107.58158232061182</v>
       </c>
-      <c r="X647" s="31">
+      <c r="X647" s="17">
         <v>114.72922310198032</v>
       </c>
-      <c r="Y647" s="31">
+      <c r="Y647" s="17">
         <v>119.36983590771038</v>
       </c>
-    </row>
-    <row r="648" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z647" s="17">
+        <v>122.33726668394328</v>
+      </c>
+    </row>
+    <row r="648" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29"/>
@@ -30561,10 +31695,11 @@
       <c r="U648" s="29"/>
       <c r="V648" s="29"/>
       <c r="W648" s="29"/>
-      <c r="X648" s="29"/>
-      <c r="Y648" s="29"/>
-    </row>
-    <row r="649" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X648" s="17"/>
+      <c r="Y648" s="17"/>
+      <c r="Z648" s="17"/>
+    </row>
+    <row r="649" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
         <v>23</v>
       </c>
@@ -30634,14 +31769,17 @@
       <c r="W649" s="31">
         <v>107.30533147379353</v>
       </c>
-      <c r="X649" s="31">
+      <c r="X649" s="17">
         <v>113.63252238218382</v>
       </c>
-      <c r="Y649" s="31">
+      <c r="Y649" s="17">
         <v>119.05357973651805</v>
       </c>
-    </row>
-    <row r="650" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z649" s="17">
+        <v>123.07797830729615</v>
+      </c>
+    </row>
+    <row r="650" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A650" s="27" t="s">
         <v>21</v>
       </c>
@@ -30711,14 +31849,17 @@
       <c r="W650" s="31">
         <v>107.43253336639549</v>
       </c>
-      <c r="X650" s="31">
+      <c r="X650" s="17">
         <v>114.33658239985674</v>
       </c>
-      <c r="Y650" s="31">
+      <c r="Y650" s="17">
         <v>119.42912067944329</v>
       </c>
-    </row>
-    <row r="651" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z650" s="17">
+        <v>123.40114156452002</v>
+      </c>
+    </row>
+    <row r="651" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A651" s="27" t="s">
         <v>24</v>
       </c>
@@ -30788,14 +31929,17 @@
       <c r="W651" s="31">
         <v>107.29126176941757</v>
       </c>
-      <c r="X651" s="31">
+      <c r="X651" s="17">
         <v>113.59670554460048</v>
       </c>
-      <c r="Y651" s="31">
+      <c r="Y651" s="17">
         <v>119.01754589195068</v>
       </c>
-    </row>
-    <row r="652" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z651" s="17">
+        <v>123.05346019047829</v>
+      </c>
+    </row>
+    <row r="652" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
@@ -30819,10 +31963,11 @@
       <c r="U652" s="29"/>
       <c r="V652" s="29"/>
       <c r="W652" s="29"/>
-      <c r="X652" s="29"/>
-      <c r="Y652" s="29"/>
-    </row>
-    <row r="653" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X652" s="17"/>
+      <c r="Y652" s="17"/>
+      <c r="Z652" s="17"/>
+    </row>
+    <row r="653" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="30" t="s">
         <v>32</v>
       </c>
@@ -30892,14 +32037,17 @@
       <c r="W653" s="31">
         <v>107.98744722313285</v>
       </c>
-      <c r="X653" s="31">
+      <c r="X653" s="17">
         <v>114.53557606965646</v>
       </c>
-      <c r="Y653" s="31">
+      <c r="Y653" s="17">
         <v>119.95285181382323</v>
       </c>
-    </row>
-    <row r="654" spans="1:25" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z653" s="17">
+        <v>122.57133160109474</v>
+      </c>
+    </row>
+    <row r="654" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -30925,13 +32073,14 @@
       <c r="W654" s="15"/>
       <c r="X654" s="15"/>
       <c r="Y654" s="15"/>
-    </row>
-    <row r="655" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z654" s="15"/>
+    </row>
+    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
     </row>
     <row r="657" spans="1:31" x14ac:dyDescent="0.2">
@@ -30944,7 +32093,7 @@
     </row>
     <row r="659" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="660" spans="1:31" x14ac:dyDescent="0.2">
@@ -30957,12 +32106,12 @@
     </row>
     <row r="662" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="663" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="664" spans="1:31" x14ac:dyDescent="0.2">
@@ -30999,6 +32148,7 @@
       <c r="W666" s="7"/>
       <c r="X666" s="7"/>
       <c r="Y666" s="7"/>
+      <c r="Z666" s="7"/>
     </row>
     <row r="667" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A667" s="24"/>
@@ -31074,18 +32224,21 @@
       <c r="Y667" s="9">
         <v>2023</v>
       </c>
+      <c r="Z667" s="9">
+        <v>2024</v>
+      </c>
     </row>
     <row r="668" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A668" s="25"/>
     </row>
     <row r="669" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="670" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A670" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B670" s="32">
         <v>48053.598349346044</v>
@@ -31153,11 +32306,14 @@
       <c r="W670" s="32">
         <v>176329.14318407213</v>
       </c>
-      <c r="X670" s="32">
-        <v>198560.54011445673</v>
-      </c>
-      <c r="Y670" s="32">
+      <c r="X670" s="34">
+        <v>198560.54011445676</v>
+      </c>
+      <c r="Y670" s="34">
         <v>217300.34704783425</v>
+      </c>
+      <c r="Z670" s="34">
+        <v>234192.51906550996</v>
       </c>
       <c r="AA670" s="32"/>
       <c r="AB670" s="32"/>
@@ -31167,7 +32323,7 @@
     </row>
     <row r="671" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A671" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B671" s="32">
         <v>52584.029001447307</v>
@@ -31235,11 +32391,14 @@
       <c r="W671" s="32">
         <v>182600.73518966202</v>
       </c>
-      <c r="X671" s="32">
-        <v>210227.93217747705</v>
-      </c>
-      <c r="Y671" s="32">
+      <c r="X671" s="34">
+        <v>210227.93217747708</v>
+      </c>
+      <c r="Y671" s="34">
         <v>241164.65878322479</v>
+      </c>
+      <c r="Z671" s="34">
+        <v>264673.11676869821</v>
       </c>
       <c r="AA671" s="32"/>
       <c r="AB671" s="32"/>
@@ -31249,7 +32408,7 @@
     </row>
     <row r="672" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A672" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B672" s="32">
         <v>34463.022355321693</v>
@@ -31317,11 +32476,14 @@
       <c r="W672" s="32">
         <v>132706.38546081304</v>
       </c>
-      <c r="X672" s="32">
+      <c r="X672" s="34">
         <v>150757.77436586237</v>
       </c>
-      <c r="Y672" s="32">
-        <v>166275.79274663492</v>
+      <c r="Y672" s="34">
+        <v>166275.79274663489</v>
+      </c>
+      <c r="Z672" s="34">
+        <v>178299.6220294926</v>
       </c>
       <c r="AA672" s="32"/>
       <c r="AB672" s="32"/>
@@ -31353,8 +32515,9 @@
       <c r="U673" s="32"/>
       <c r="V673" s="32"/>
       <c r="W673" s="32"/>
-      <c r="X673" s="32"/>
-      <c r="Y673" s="32"/>
+      <c r="X673" s="34"/>
+      <c r="Y673" s="34"/>
+      <c r="Z673" s="34"/>
       <c r="AA673" s="32"/>
       <c r="AB673" s="32"/>
       <c r="AC673" s="32"/>
@@ -31363,7 +32526,7 @@
     </row>
     <row r="674" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B674" s="32"/>
       <c r="C674" s="32"/>
@@ -31387,8 +32550,9 @@
       <c r="U674" s="32"/>
       <c r="V674" s="32"/>
       <c r="W674" s="32"/>
-      <c r="X674" s="32"/>
-      <c r="Y674" s="32"/>
+      <c r="X674" s="34"/>
+      <c r="Y674" s="34"/>
+      <c r="Z674" s="34"/>
       <c r="AA674" s="32"/>
       <c r="AB674" s="32"/>
       <c r="AC674" s="32"/>
@@ -31397,7 +32561,7 @@
     </row>
     <row r="675" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A675" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B675" s="32">
         <v>90782.338899727838</v>
@@ -31465,11 +32629,14 @@
       <c r="W675" s="32">
         <v>168421.10626575671</v>
       </c>
-      <c r="X675" s="32">
+      <c r="X675" s="34">
         <v>179787.55939273463</v>
       </c>
-      <c r="Y675" s="32">
-        <v>188109.19328319491</v>
+      <c r="Y675" s="34">
+        <v>188109.19328319494</v>
+      </c>
+      <c r="Z675" s="34">
+        <v>197012.61438507072</v>
       </c>
       <c r="AA675" s="32"/>
       <c r="AB675" s="32"/>
@@ -31479,7 +32646,7 @@
     </row>
     <row r="676" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A676" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B676" s="32">
         <v>99733.737695899326</v>
@@ -31547,11 +32714,14 @@
       <c r="W676" s="32">
         <v>174228.81092667993</v>
       </c>
-      <c r="X676" s="32">
+      <c r="X676" s="34">
         <v>189974.25636793874</v>
       </c>
-      <c r="Y676" s="32">
-        <v>208003.9364047923</v>
+      <c r="Y676" s="34">
+        <v>208003.93640479236</v>
+      </c>
+      <c r="Z676" s="34">
+        <v>221880.25456245459</v>
       </c>
       <c r="AA676" s="32"/>
       <c r="AB676" s="32"/>
@@ -31561,7 +32731,7 @@
     </row>
     <row r="677" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A677" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B677" s="32">
         <v>69612.15625479132</v>
@@ -31629,11 +32799,14 @@
       <c r="W677" s="32">
         <v>122228.44696920777</v>
       </c>
-      <c r="X677" s="32">
-        <v>131335.56908060942</v>
-      </c>
-      <c r="Y677" s="32">
+      <c r="X677" s="34">
+        <v>131335.56908060939</v>
+      </c>
+      <c r="Y677" s="34">
         <v>137440.23506178253</v>
+      </c>
+      <c r="Z677" s="34">
+        <v>142766.46414010591</v>
       </c>
       <c r="AA677" s="32"/>
       <c r="AB677" s="32"/>
@@ -31641,7 +32814,7 @@
       <c r="AD677" s="32"/>
       <c r="AE677" s="32"/>
     </row>
-    <row r="678" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -31665,8 +32838,9 @@
       <c r="U678" s="3"/>
       <c r="V678" s="3"/>
       <c r="W678" s="3"/>
-      <c r="X678" s="3"/>
-      <c r="Y678" s="3"/>
+      <c r="X678"/>
+      <c r="Y678"/>
+      <c r="Z678"/>
     </row>
     <row r="679" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A679"/>
@@ -31692,8 +32866,9 @@
       <c r="U679" s="1"/>
       <c r="V679" s="1"/>
       <c r="W679" s="1"/>
-      <c r="X679" s="1"/>
-      <c r="Y679" s="1"/>
+      <c r="X679"/>
+      <c r="Y679"/>
+      <c r="Z679"/>
     </row>
     <row r="680" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A680" s="15"/>
@@ -31721,10 +32896,11 @@
       <c r="W680" s="15"/>
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
+      <c r="Z680" s="15"/>
     </row>
     <row r="681" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -31750,6 +32926,7 @@
       <c r="W681" s="3"/>
       <c r="X681" s="3"/>
       <c r="Y681" s="3"/>
+      <c r="Z681" s="3"/>
     </row>
     <row r="682" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
@@ -31779,6 +32956,7 @@
       <c r="W682" s="3"/>
       <c r="X682" s="3"/>
       <c r="Y682" s="3"/>
+      <c r="Z682" s="3"/>
     </row>
     <row r="683" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
@@ -31806,6 +32984,7 @@
       <c r="W683" s="3"/>
       <c r="X683" s="3"/>
       <c r="Y683" s="3"/>
+      <c r="Z683" s="3"/>
     </row>
     <row r="684" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
@@ -31835,6 +33014,7 @@
       <c r="W684" s="3"/>
       <c r="X684" s="3"/>
       <c r="Y684" s="3"/>
+      <c r="Z684" s="3"/>
     </row>
     <row r="685" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
@@ -31864,6 +33044,7 @@
       <c r="W685" s="3"/>
       <c r="X685" s="3"/>
       <c r="Y685" s="3"/>
+      <c r="Z685" s="3"/>
     </row>
     <row r="686" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
@@ -31893,29 +33074,30 @@
       <c r="W686" s="3"/>
       <c r="X686" s="3"/>
       <c r="Y686" s="3"/>
+      <c r="Z686" s="3"/>
     </row>
     <row r="687" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
     </row>
     <row r="688" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A688" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A689" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A690" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="689" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A689" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="690" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A690" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="691" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
     </row>
-    <row r="692" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692" s="23"/>
       <c r="B692" s="7" t="s">
         <v>46</v>
@@ -31943,91 +33125,95 @@
       <c r="W692" s="7"/>
       <c r="X692" s="7"/>
       <c r="Y692" s="7"/>
-    </row>
-    <row r="693" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z692" s="6"/>
+    </row>
+    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="24"/>
       <c r="B693" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C693" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C693" s="9" t="s">
+      <c r="D693" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D693" s="9" t="s">
+      <c r="E693" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E693" s="9" t="s">
+      <c r="F693" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F693" s="9" t="s">
+      <c r="G693" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G693" s="9" t="s">
+      <c r="H693" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H693" s="9" t="s">
+      <c r="I693" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I693" s="9" t="s">
+      <c r="J693" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J693" s="9" t="s">
+      <c r="K693" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K693" s="9" t="s">
+      <c r="L693" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L693" s="9" t="s">
+      <c r="M693" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M693" s="9" t="s">
+      <c r="N693" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N693" s="9" t="s">
+      <c r="O693" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O693" s="9" t="s">
+      <c r="P693" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P693" s="9" t="s">
+      <c r="Q693" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q693" s="9" t="s">
+      <c r="R693" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="R693" s="9" t="s">
+      <c r="S693" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S693" s="9" t="s">
+      <c r="T693" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T693" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="U693" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="V693" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V693" s="9" t="s">
+      <c r="W693" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="W693" s="9" t="s">
+      <c r="X693" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X693" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y693" s="9"/>
-    </row>
-    <row r="694" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y693" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z693" s="9"/>
+    </row>
+    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694" s="25"/>
     </row>
-    <row r="695" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A696" s="27" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="696" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A696" s="27" t="s">
-        <v>89</v>
       </c>
       <c r="B696" s="17">
         <v>6.5323201695212845</v>
@@ -32096,13 +33282,16 @@
         <v>12.60789710024109</v>
       </c>
       <c r="X696" s="17">
-        <v>9.4378303577212819</v>
-      </c>
-      <c r="Y696" s="17"/>
-    </row>
-    <row r="697" spans="1:25" x14ac:dyDescent="0.2">
+        <v>9.4378303577212534</v>
+      </c>
+      <c r="Y696" s="17">
+        <v>7.7736516518113206</v>
+      </c>
+      <c r="Z696" s="17"/>
+    </row>
+    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B697" s="17">
         <v>6.6762215564114342</v>
@@ -32171,13 +33360,16 @@
         <v>15.129838858052508</v>
       </c>
       <c r="X697" s="17">
-        <v>14.715802170203801</v>
-      </c>
-      <c r="Y697" s="17"/>
-    </row>
-    <row r="698" spans="1:25" x14ac:dyDescent="0.2">
+        <v>14.715802170203787</v>
+      </c>
+      <c r="Y697" s="17">
+        <v>9.7478868189407706</v>
+      </c>
+      <c r="Z697" s="17"/>
+    </row>
+    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A698" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B698" s="17">
         <v>8.291942022591698</v>
@@ -32246,21 +33438,30 @@
         <v>13.60250212705833</v>
       </c>
       <c r="X698" s="17">
-        <v>10.293345365468909</v>
-      </c>
-      <c r="Y698" s="17"/>
-    </row>
-    <row r="699" spans="1:25" x14ac:dyDescent="0.2">
+        <v>10.29334536546888</v>
+      </c>
+      <c r="Y698" s="17">
+        <v>7.2312566274630257</v>
+      </c>
+      <c r="Z698" s="17"/>
+    </row>
+    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
-    </row>
-    <row r="700" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X699" s="17"/>
+      <c r="Y699" s="17"/>
+      <c r="Z699" s="17"/>
+    </row>
+    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="701" spans="1:25" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="X700" s="17"/>
+      <c r="Y700" s="17"/>
+      <c r="Z700" s="17"/>
+    </row>
+    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B701" s="17">
         <v>0.8648624577782158</v>
@@ -32329,13 +33530,16 @@
         <v>6.7488293949586478</v>
       </c>
       <c r="X701" s="17">
-        <v>4.628592722749076</v>
-      </c>
-      <c r="Y701" s="17"/>
-    </row>
-    <row r="702" spans="1:25" x14ac:dyDescent="0.2">
+        <v>4.6285927227490902</v>
+      </c>
+      <c r="Y701" s="17">
+        <v>4.7331132234838833</v>
+      </c>
+      <c r="Z701" s="17"/>
+    </row>
+    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A702" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B702" s="17">
         <v>0.9218842433492398</v>
@@ -32404,13 +33608,16 @@
         <v>9.0372225796139389</v>
       </c>
       <c r="X702" s="17">
-        <v>9.4905911893314681</v>
-      </c>
-      <c r="Y702" s="17"/>
-    </row>
-    <row r="703" spans="1:25" x14ac:dyDescent="0.2">
+        <v>9.4905911893314823</v>
+      </c>
+      <c r="Y702" s="17">
+        <v>6.6711805543226745</v>
+      </c>
+      <c r="Z702" s="17"/>
+    </row>
+    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A703" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B703" s="17">
         <v>1.7389852159012946</v>
@@ -32479,11 +33686,14 @@
         <v>7.4509022549357411</v>
       </c>
       <c r="X703" s="17">
-        <v>4.6481437008326907</v>
-      </c>
-      <c r="Y703" s="17"/>
-    </row>
-    <row r="704" spans="1:25" x14ac:dyDescent="0.2">
+        <v>4.6481437008327049</v>
+      </c>
+      <c r="Y703" s="17">
+        <v>3.8753055653092616</v>
+      </c>
+      <c r="Z703" s="17"/>
+    </row>
+    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -32509,6 +33719,7 @@
       <c r="W704" s="15"/>
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
+      <c r="Z704" s="15"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
@@ -32518,12 +33729,17 @@
     <row r="706" spans="1:1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="U88:U103 U106 U108 U110">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126:U141 U144 U146 U148">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X88:Z110 X126:Z148 X163:Z185 X201:Z223 X239:Z261 X355:Z378 X394:Z417 X432:Z455 X471:Z494 X510:Z533 X597:Z605 X621:Z629 X645:Z653 X696:Z703">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32539,14 +33755,14 @@
     <brk id="265" max="16383" man="1"/>
     <brk id="304" max="16383" man="1"/>
     <brk id="343" max="16383" man="1"/>
-    <brk id="382" max="24" man="1"/>
-    <brk id="421" max="24" man="1"/>
-    <brk id="459" max="24" man="1"/>
-    <brk id="498" max="24" man="1"/>
-    <brk id="537" max="24" man="1"/>
-    <brk id="585" max="24" man="1"/>
-    <brk id="633" max="24" man="1"/>
-    <brk id="657" max="24" man="1"/>
+    <brk id="382" max="25" man="1"/>
+    <brk id="421" max="25" man="1"/>
+    <brk id="459" max="25" man="1"/>
+    <brk id="498" max="25" man="1"/>
+    <brk id="537" max="25" man="1"/>
+    <brk id="585" max="25" man="1"/>
+    <brk id="633" max="25" man="1"/>
+    <brk id="657" max="25" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="705" man="1"/>

--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E13F8-B0E9-4D46-9682-26548A178CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B564205C-1B77-4618-B047-E8A2A4123665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="7500" windowHeight="10800" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,9 +712,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -724,14 +721,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{86872052-F4BE-4C30-BD75-CD271D7C7ACD}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1029,10 +1019,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE706"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A648" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight" activeCell="A686" sqref="A686"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,8 +1034,7 @@
     <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15" max="26" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
@@ -1265,14 +1254,14 @@
       <c r="W12" s="10">
         <v>14608546.502977364</v>
       </c>
-      <c r="X12" s="34">
+      <c r="X12" s="10">
         <v>16725044.723724842</v>
       </c>
-      <c r="Y12" s="34">
-        <v>18608329.180382833</v>
-      </c>
-      <c r="Z12" s="34">
-        <v>20127321.452065796</v>
+      <c r="Y12" s="10">
+        <v>18604457.545030706</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>20137692.097452112</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -1345,14 +1334,14 @@
       <c r="W13" s="10">
         <v>3024017.4249472991</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="10">
         <v>3313862.1286355802</v>
       </c>
-      <c r="Y13" s="34">
-        <v>3465202.2571282908</v>
-      </c>
-      <c r="Z13" s="34">
-        <v>3842718.9585372061</v>
+      <c r="Y13" s="10">
+        <v>3457698.6327807661</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>3836985.3236564845</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,14 +1414,14 @@
       <c r="W14" s="10">
         <v>4103546.9873818695</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14" s="10">
         <v>5437869.8263739794</v>
       </c>
-      <c r="Y14" s="34">
-        <v>5671386.7256698404</v>
-      </c>
-      <c r="Z14" s="34">
-        <v>6266536.669193686</v>
+      <c r="Y14" s="10">
+        <v>5690869.4646749832</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>6263728.6234394033</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1505,14 +1494,14 @@
       <c r="W15" s="10">
         <v>4324545.0722124446</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="10">
         <v>5142714.0733687067</v>
       </c>
-      <c r="Y15" s="34">
-        <v>5744028.6600849489</v>
-      </c>
-      <c r="Z15" s="34">
-        <v>6225214.2277846169</v>
+      <c r="Y15" s="10">
+        <v>5746390.4500633581</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>6233543.3915037503</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1585,14 +1574,14 @@
       <c r="W16" s="10">
         <v>2681782.9878097195</v>
       </c>
-      <c r="X16" s="34">
+      <c r="X16" s="10">
         <v>3235413.1045834022</v>
       </c>
-      <c r="Y16" s="34">
-        <v>3644960.2536660829</v>
-      </c>
-      <c r="Z16" s="34">
-        <v>4070543.7382409712</v>
+      <c r="Y16" s="10">
+        <v>3646794.002796323</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>4074288.9311771928</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -1665,14 +1654,14 @@
       <c r="W17" s="10">
         <v>1071207.9001196469</v>
       </c>
-      <c r="X17" s="34">
+      <c r="X17" s="10">
         <v>1313676.57204714</v>
       </c>
-      <c r="Y17" s="34">
-        <v>1482058.4833376138</v>
-      </c>
-      <c r="Z17" s="34">
-        <v>1520000.3257147651</v>
+      <c r="Y17" s="10">
+        <v>1482610.1403385988</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>1524556.4654702898</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -1745,14 +1734,14 @@
       <c r="W18" s="10">
         <v>427222.98622018914</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18" s="10">
         <v>437247.2149429986</v>
       </c>
-      <c r="Y18" s="34">
-        <v>451684.48688995198</v>
-      </c>
-      <c r="Z18" s="34">
-        <v>461564.38328687183</v>
+      <c r="Y18" s="10">
+        <v>452384.43256828899</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>461893.73822990002</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -1825,14 +1814,14 @@
       <c r="W19" s="10">
         <v>144331.19806288916</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="10">
         <v>156377.18179516704</v>
       </c>
-      <c r="Y19" s="34">
-        <v>165325.43619129996</v>
-      </c>
-      <c r="Z19" s="34">
-        <v>173105.78054200881</v>
+      <c r="Y19" s="10">
+        <v>164601.87436014725</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>172804.25662636745</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -1905,14 +1894,14 @@
       <c r="W20" s="10">
         <v>-222040.41898328852</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X20" s="10">
         <v>294024.87281235412</v>
       </c>
-      <c r="Y20" s="34">
-        <v>-74141.299978609823</v>
-      </c>
-      <c r="Z20" s="34">
-        <v>39909.024153087703</v>
+      <c r="Y20" s="10">
+        <v>-57020.35095187671</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>28739.651859489386</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -1985,14 +1974,14 @@
       <c r="W21" s="10">
         <v>1042.334152713604</v>
       </c>
-      <c r="X21" s="34">
+      <c r="X21" s="10">
         <v>1130.8801929189103</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="10">
         <v>1499.3655635017042</v>
       </c>
-      <c r="Z21" s="34">
-        <v>1413.4172559822598</v>
+      <c r="Z21" s="10">
+        <v>1445.5800761636169</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2065,14 +2054,14 @@
       <c r="W22" s="10">
         <v>4998628.2199455341</v>
       </c>
-      <c r="X22" s="34">
+      <c r="X22" s="10">
         <v>6253255.257619489</v>
       </c>
-      <c r="Y22" s="34">
-        <v>6481807.7288937625</v>
-      </c>
-      <c r="Z22" s="34">
-        <v>6833311.3290328607</v>
+      <c r="Y22" s="10">
+        <v>6476367.199111307</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>6816139.4793562237</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2145,14 +2134,14 @@
       <c r="W23" s="10">
         <v>2917951.4169858913</v>
       </c>
-      <c r="X23" s="34">
+      <c r="X23" s="10">
         <v>3571498.5245334646</v>
       </c>
-      <c r="Y23" s="34">
-        <v>3318729.4860827397</v>
-      </c>
-      <c r="Z23" s="34">
-        <v>3347985.1098073083</v>
+      <c r="Y23" s="10">
+        <v>3311159.9508674266</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>3340545.3092117803</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -2225,14 +2214,14 @@
       <c r="W24" s="10">
         <v>2080676.8029596431</v>
       </c>
-      <c r="X24" s="34">
+      <c r="X24" s="10">
         <v>2681756.7330860244</v>
       </c>
-      <c r="Y24" s="34">
-        <v>3163078.2428110228</v>
-      </c>
-      <c r="Z24" s="34">
-        <v>3485326.2192255519</v>
+      <c r="Y24" s="10">
+        <v>3165207.24824388</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>3475594.1701444434</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,14 +2294,14 @@
       <c r="W25" s="10">
         <v>7324124.6490688436</v>
       </c>
-      <c r="X25" s="34">
+      <c r="X25" s="10">
         <v>9701755.5986976214</v>
       </c>
-      <c r="Y25" s="34">
-        <v>9908114.4930058438</v>
-      </c>
-      <c r="Z25" s="34">
-        <v>10591088.90787939</v>
+      <c r="Y25" s="10">
+        <v>9915829.6467580795</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>10608176.029042769</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -2385,14 +2374,14 @@
       <c r="W26" s="10">
         <v>6296809.2296851315</v>
       </c>
-      <c r="X26" s="34">
+      <c r="X26" s="10">
         <v>8197099.4009328969</v>
       </c>
-      <c r="Y26" s="34">
-        <v>7922602.8373487489</v>
-      </c>
-      <c r="Z26" s="34">
-        <v>8288683.1900549363</v>
+      <c r="Y26" s="10">
+        <v>7922614.0034071272</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>8294485.2824645787</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -2465,14 +2454,14 @@
       <c r="W27" s="10">
         <v>1027315.4193837126</v>
       </c>
-      <c r="X27" s="34">
+      <c r="X27" s="10">
         <v>1504656.197764725</v>
       </c>
-      <c r="Y27" s="34">
-        <v>1985511.6556570944</v>
-      </c>
-      <c r="Z27" s="34">
-        <v>2302405.7178244544</v>
+      <c r="Y27" s="10">
+        <v>1993215.6433509516</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>2313690.7465781909</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,14 +2534,14 @@
       <c r="W28" s="10">
         <v>0</v>
       </c>
-      <c r="X28" s="34">
+      <c r="X28" s="10">
         <v>0</v>
       </c>
-      <c r="Y28" s="34">
+      <c r="Y28" s="10">
         <v>0</v>
       </c>
-      <c r="Z28" s="34">
-        <v>-42018.204123422503</v>
+      <c r="Z28" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -2578,9 +2567,9 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
@@ -2652,14 +2641,14 @@
       <c r="W30" s="10">
         <v>19410614.486183222</v>
       </c>
-      <c r="X30" s="34">
+      <c r="X30" s="10">
         <v>22028276.337656274</v>
       </c>
-      <c r="Y30" s="34">
-        <v>24318611.399068885</v>
-      </c>
-      <c r="Z30" s="34">
-        <v>26436781.296826735</v>
+      <c r="Y30" s="10">
+        <v>24313563.194839686</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>26446369.494861454</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -2685,9 +2674,9 @@
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -2759,14 +2748,14 @@
       <c r="W32" s="10">
         <v>690387.60375562287</v>
       </c>
-      <c r="X32" s="34">
+      <c r="X32" s="10">
         <v>1294378.7136952721</v>
       </c>
-      <c r="Y32" s="34">
-        <v>2670713.283635254</v>
-      </c>
-      <c r="Z32" s="34">
-        <v>3440796.9071392077</v>
+      <c r="Y32" s="10">
+        <v>2664589.75636453</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>3445971.4094762588</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -2792,9 +2781,9 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -2866,14 +2855,14 @@
       <c r="W34" s="10">
         <v>20101002.089938845</v>
       </c>
-      <c r="X34" s="34">
+      <c r="X34" s="10">
         <v>23322655.051351547</v>
       </c>
-      <c r="Y34" s="34">
-        <v>26989324.68270414</v>
-      </c>
-      <c r="Z34" s="34">
-        <v>29877578.203965943</v>
+      <c r="Y34" s="10">
+        <v>26978152.951204218</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>29892340.904337712</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3125,14 +3114,14 @@
       <c r="W50" s="10">
         <v>13455117.064156942</v>
       </c>
-      <c r="X50" s="34">
+      <c r="X50" s="10">
         <v>14570348.202131875</v>
       </c>
-      <c r="Y50" s="34">
-        <v>15381271.647616927</v>
-      </c>
-      <c r="Z50" s="34">
-        <v>16116167.177558165</v>
+      <c r="Y50" s="10">
+        <v>15377201.309192125</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>16124126.063919485</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
@@ -3205,14 +3194,14 @@
       <c r="W51" s="10">
         <v>2842704.7559254342</v>
       </c>
-      <c r="X51" s="34">
+      <c r="X51" s="10">
         <v>2988608.7660827152</v>
       </c>
-      <c r="Y51" s="34">
-        <v>3005102.527909623</v>
-      </c>
-      <c r="Z51" s="34">
-        <v>3222414.4103666609</v>
+      <c r="Y51" s="10">
+        <v>2998595.2135244827</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>3216778.0924026472</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3285,14 +3274,14 @@
       <c r="W52" s="10">
         <v>4051797.6976451259</v>
       </c>
-      <c r="X52" s="34">
+      <c r="X52" s="10">
         <v>4606648.2312439373</v>
       </c>
-      <c r="Y52" s="34">
-        <v>4878673.7830315512</v>
-      </c>
-      <c r="Z52" s="34">
-        <v>5242418.7718375251</v>
+      <c r="Y52" s="10">
+        <v>4896652.3239453826</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>5273221.5408021314</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
@@ -3365,14 +3354,14 @@
       <c r="W53" s="10">
         <v>4132142.1709895888</v>
       </c>
-      <c r="X53" s="34">
+      <c r="X53" s="10">
         <v>4535176.0436172327</v>
       </c>
-      <c r="Y53" s="34">
-        <v>4905932.7571878359</v>
-      </c>
-      <c r="Z53" s="34">
-        <v>5210385.3038473688</v>
+      <c r="Y53" s="10">
+        <v>4907486.3036714299</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>5217526.67726136</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
@@ -3445,14 +3434,14 @@
       <c r="W54" s="10">
         <v>2490376.6568596968</v>
       </c>
-      <c r="X54" s="34">
+      <c r="X54" s="10">
         <v>2792474.3334920201</v>
       </c>
-      <c r="Y54" s="34">
-        <v>3047156.3773942003</v>
-      </c>
-      <c r="Z54" s="34">
-        <v>3363560.9919770556</v>
+      <c r="Y54" s="10">
+        <v>3048414.6748275645</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>3365736.4399651662</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
@@ -3525,14 +3514,14 @@
       <c r="W55" s="10">
         <v>1121002.9288967871</v>
       </c>
-      <c r="X55" s="34">
+      <c r="X55" s="10">
         <v>1214725.4868574869</v>
       </c>
-      <c r="Y55" s="34">
-        <v>1322416.5794645459</v>
-      </c>
-      <c r="Z55" s="34">
-        <v>1311689.6420920955</v>
+      <c r="Y55" s="10">
+        <v>1322848.1374592897</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>1316649.1863404962</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
@@ -3605,14 +3594,14 @@
       <c r="W56" s="10">
         <v>376350.12557621382</v>
       </c>
-      <c r="X56" s="34">
+      <c r="X56" s="10">
         <v>378240.624893634</v>
       </c>
-      <c r="Y56" s="34">
-        <v>381690.898016122</v>
-      </c>
-      <c r="Z56" s="34">
-        <v>375652.41792739247</v>
+      <c r="Y56" s="10">
+        <v>382188.76173232601</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>375875.86539837962</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
@@ -3685,14 +3674,14 @@
       <c r="W57" s="10">
         <v>144412.45965689089</v>
       </c>
-      <c r="X57" s="34">
+      <c r="X57" s="10">
         <v>149735.59837409202</v>
       </c>
-      <c r="Y57" s="34">
-        <v>154668.90231296723</v>
-      </c>
-      <c r="Z57" s="34">
-        <v>159482.25185082442</v>
+      <c r="Y57" s="10">
+        <v>154034.72965225036</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>159265.18555731769</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
@@ -3765,14 +3754,14 @@
       <c r="W58" s="10">
         <v>-81106.70183858597</v>
       </c>
-      <c r="X58" s="34">
+      <c r="X58" s="10">
         <v>70707.734345274788</v>
       </c>
-      <c r="Y58" s="34">
-        <v>-28248.96935975839</v>
-      </c>
-      <c r="Z58" s="34">
-        <v>31172.121835943184</v>
+      <c r="Y58" s="10">
+        <v>-11823.974929520984</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>54762.933690281861</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
@@ -3845,14 +3834,14 @@
       <c r="W59" s="10">
         <v>762.22849412329833</v>
       </c>
-      <c r="X59" s="34">
+      <c r="X59" s="10">
         <v>764.4532814292038</v>
       </c>
-      <c r="Y59" s="34">
+      <c r="Y59" s="10">
         <v>989.99520347367593</v>
       </c>
-      <c r="Z59" s="34">
-        <v>861.34615421292779</v>
+      <c r="Z59" s="10">
+        <v>931.92985049005642</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,14 +3914,14 @@
       <c r="W60" s="10">
         <v>5129673.6108313287</v>
       </c>
-      <c r="X60" s="34">
+      <c r="X60" s="10">
         <v>5691851.2968486836</v>
       </c>
-      <c r="Y60" s="34">
-        <v>5773779.8780201282</v>
-      </c>
-      <c r="Z60" s="34">
-        <v>5972103.7705827625</v>
+      <c r="Y60" s="10">
+        <v>5767848.2458162624</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>5958550.7922368944</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
@@ -4005,14 +3994,14 @@
       <c r="W61" s="10">
         <v>3182306.3531660088</v>
       </c>
-      <c r="X61" s="34">
+      <c r="X61" s="10">
         <v>3343765.1208960977</v>
       </c>
-      <c r="Y61" s="34">
-        <v>3101252.6735432711</v>
-      </c>
-      <c r="Z61" s="34">
-        <v>3078927.2937011481</v>
+      <c r="Y61" s="10">
+        <v>3093829.7218533233</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>3072373.511525074</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
@@ -4085,14 +4074,14 @@
       <c r="W62" s="10">
         <v>1947367.2576653198</v>
       </c>
-      <c r="X62" s="34">
+      <c r="X62" s="10">
         <v>2348086.1759525859</v>
       </c>
-      <c r="Y62" s="34">
-        <v>2672527.2044768566</v>
-      </c>
-      <c r="Z62" s="34">
-        <v>2893176.4768816144</v>
+      <c r="Y62" s="10">
+        <v>2674018.5239629392</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>2886177.2807118208</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4165,14 +4154,14 @@
       <c r="W63" s="10">
         <v>6939208.90862709</v>
       </c>
-      <c r="X63" s="34">
+      <c r="X63" s="10">
         <v>7911851.8051987011</v>
       </c>
-      <c r="Y63" s="34">
-        <v>7987069.5941518527</v>
-      </c>
-      <c r="Z63" s="34">
-        <v>8329470.3458126914</v>
+      <c r="Y63" s="10">
+        <v>7993904.5153918462</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>8328319.8523899373</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
@@ -4245,14 +4234,14 @@
       <c r="W64" s="10">
         <v>5923051.0510839047</v>
       </c>
-      <c r="X64" s="34">
+      <c r="X64" s="10">
         <v>6442284.8087853184</v>
       </c>
-      <c r="Y64" s="34">
-        <v>6147060.3809311297</v>
-      </c>
-      <c r="Z64" s="34">
-        <v>6270567.9713612627</v>
+      <c r="Y64" s="10">
+        <v>6147066.6267299727</v>
+      </c>
+      <c r="Z64" s="10">
+        <v>6260663.0037397994</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
@@ -4325,14 +4314,14 @@
       <c r="W65" s="10">
         <v>1016157.8575431851</v>
       </c>
-      <c r="X65" s="34">
+      <c r="X65" s="10">
         <v>1469566.9964133829</v>
       </c>
-      <c r="Y65" s="34">
-        <v>1840009.213220723</v>
-      </c>
-      <c r="Z65" s="34">
-        <v>2058902.3744514291</v>
+      <c r="Y65" s="10">
+        <v>1846837.8886618735</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>2067656.8486501384</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4405,14 +4394,14 @@
       <c r="W66" s="10">
         <v>0</v>
       </c>
-      <c r="X66" s="34">
+      <c r="X66" s="10">
         <v>0</v>
       </c>
-      <c r="Y66" s="34">
+      <c r="Y66" s="10">
         <v>0</v>
       </c>
-      <c r="Z66" s="34">
-        <v>16100.51610615477</v>
+      <c r="Z66" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
@@ -4438,9 +4427,9 @@
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -4512,14 +4501,14 @@
       <c r="W68" s="10">
         <v>18540084.219931744</v>
       </c>
-      <c r="X68" s="34">
+      <c r="X68" s="10">
         <v>19945604.69110851</v>
       </c>
-      <c r="Y68" s="34">
-        <v>21051758.242426377</v>
-      </c>
-      <c r="Z68" s="34">
-        <v>22239734.300638575</v>
+      <c r="Y68" s="10">
+        <v>21046392.577086408</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>22244356.636971224</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
@@ -4545,9 +4534,9 @@
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -4619,14 +4608,14 @@
       <c r="W70" s="10">
         <v>639322.08928792004</v>
       </c>
-      <c r="X70" s="34">
+      <c r="X70" s="10">
         <v>1130110.6242379025</v>
       </c>
-      <c r="Y70" s="34">
-        <v>2226469.1862269542</v>
-      </c>
-      <c r="Z70" s="34">
-        <v>2807179.1847193055</v>
+      <c r="Y70" s="10">
+        <v>2221265.1887374562</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>2811383.7339642756</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
@@ -4652,9 +4641,9 @@
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
@@ -4726,14 +4715,14 @@
       <c r="W72" s="10">
         <v>19179406.309219666</v>
       </c>
-      <c r="X72" s="34">
+      <c r="X72" s="10">
         <v>21075715.315346412</v>
       </c>
-      <c r="Y72" s="34">
-        <v>23278227.42865333</v>
-      </c>
-      <c r="Z72" s="34">
-        <v>25046913.485357881</v>
+      <c r="Y72" s="10">
+        <v>23267657.765823863</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>25055740.3709355</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4833,7 +4822,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
-      <c r="Z85" s="6"/>
+      <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
@@ -4984,10 +4973,10 @@
         <v>14.488082166943258</v>
       </c>
       <c r="X88" s="17">
-        <v>11.260265594306659</v>
+        <v>11.237116864864788</v>
       </c>
       <c r="Y88" s="17">
-        <v>8.1629696946908297</v>
+        <v>8.2412214852829067</v>
       </c>
       <c r="Z88" s="17"/>
     </row>
@@ -5062,10 +5051,10 @@
         <v>9.5847564004474037</v>
       </c>
       <c r="X89" s="17">
-        <v>4.566880655201615</v>
+        <v>4.3404492571454085</v>
       </c>
       <c r="Y89" s="17">
-        <v>10.894506969465439</v>
+        <v>10.969339180687541</v>
       </c>
       <c r="Z89" s="17"/>
     </row>
@@ -5140,10 +5129,10 @@
         <v>32.516328997695467</v>
       </c>
       <c r="X90" s="17">
-        <v>4.2942715944263909</v>
+        <v>4.6525504725019431</v>
       </c>
       <c r="Y90" s="17">
-        <v>10.49390514722046</v>
+        <v>10.066285342166736</v>
       </c>
       <c r="Z90" s="17"/>
     </row>
@@ -5218,10 +5207,10 @@
         <v>18.919192365769135</v>
       </c>
       <c r="X91" s="17">
-        <v>11.692553350965397</v>
+        <v>11.738478322579908</v>
       </c>
       <c r="Y91" s="17">
-        <v>8.3771442688545363</v>
+        <v>8.4775468300282597</v>
       </c>
       <c r="Z91" s="17"/>
     </row>
@@ -5296,10 +5285,10 @@
         <v>20.644105779261679</v>
       </c>
       <c r="X92" s="17">
-        <v>12.658264519683797</v>
+        <v>12.714941953784646</v>
       </c>
       <c r="Y92" s="17">
-        <v>11.675943081871438</v>
+        <v>11.722486327801107</v>
       </c>
       <c r="Z92" s="17"/>
     </row>
@@ -5374,10 +5363,10 @@
         <v>22.635071296655937</v>
       </c>
       <c r="X93" s="17">
-        <v>12.817607839963173</v>
+        <v>12.859601205204171</v>
       </c>
       <c r="Y93" s="17">
-        <v>2.5600772711550377</v>
+        <v>2.8292215188890708</v>
       </c>
       <c r="Z93" s="17"/>
     </row>
@@ -5452,10 +5441,10 @@
         <v>2.3463692371746561</v>
       </c>
       <c r="X94" s="17">
-        <v>3.3018556673563921</v>
+        <v>3.4619357443508818</v>
       </c>
       <c r="Y94" s="17">
-        <v>2.187344636285232</v>
+        <v>2.1020408698912547</v>
       </c>
       <c r="Z94" s="17"/>
     </row>
@@ -5530,10 +5519,10 @@
         <v>8.3460706305708641</v>
       </c>
       <c r="X95" s="17">
-        <v>5.7222251311920473</v>
+        <v>5.2595221825607865</v>
       </c>
       <c r="Y95" s="17">
-        <v>4.7060782236232086</v>
+        <v>4.9831645587908042</v>
       </c>
       <c r="Z95" s="17"/>
     </row>
@@ -5641,7 +5630,7 @@
         <v>32.583944160494809</v>
       </c>
       <c r="Y97" s="17">
-        <v>-5.7323116931347897</v>
+        <v>-3.5872163965453296</v>
       </c>
       <c r="Z97" s="17"/>
     </row>
@@ -5716,10 +5705,10 @@
         <v>25.099426932127898</v>
       </c>
       <c r="X98" s="17">
-        <v>3.6549358991188683</v>
+        <v>3.5679327374323861</v>
       </c>
       <c r="Y98" s="17">
-        <v>5.4229254374857732</v>
+        <v>5.2463405764197688</v>
       </c>
       <c r="Z98" s="17"/>
     </row>
@@ -5794,10 +5783,10 @@
         <v>22.397463636411644</v>
       </c>
       <c r="X99" s="17">
-        <v>-7.0773944526196715</v>
+        <v>-7.2893372873518274</v>
       </c>
       <c r="Y99" s="17">
-        <v>0.8815308342320094</v>
+        <v>0.88746417510444076</v>
       </c>
       <c r="Z99" s="17"/>
     </row>
@@ -5872,10 +5861,10 @@
         <v>28.888673592716543</v>
       </c>
       <c r="X100" s="17">
-        <v>17.947992962475709</v>
+        <v>18.027381424769516</v>
       </c>
       <c r="Y100" s="17">
-        <v>10.187796560104928</v>
+        <v>9.8062116492615843</v>
       </c>
       <c r="Z100" s="17"/>
     </row>
@@ -5950,10 +5939,10 @@
         <v>32.463004980821296</v>
       </c>
       <c r="X101" s="17">
-        <v>2.1270263119792929</v>
+        <v>2.2065495866459059</v>
       </c>
       <c r="Y101" s="17">
-        <v>6.8930815782928079</v>
+        <v>6.9822335291031266</v>
       </c>
       <c r="Z101" s="17"/>
     </row>
@@ -6028,10 +6017,10 @@
         <v>30.178620662179213</v>
       </c>
       <c r="X102" s="17">
-        <v>-3.3487036103637848</v>
+        <v>-3.3485673907349565</v>
       </c>
       <c r="Y102" s="17">
-        <v>4.6207081210787351</v>
+        <v>4.6937952410344366</v>
       </c>
       <c r="Z102" s="17"/>
     </row>
@@ -6106,10 +6095,10 @@
         <v>46.464870416076252</v>
       </c>
       <c r="X103" s="17">
-        <v>31.957829210866549</v>
+        <v>32.469839044428682</v>
       </c>
       <c r="Y103" s="17">
-        <v>15.960322431977133</v>
+        <v>16.078295607216049</v>
       </c>
       <c r="Z103" s="17"/>
     </row>
@@ -6236,10 +6225,10 @@
         <v>13.485723769004565</v>
       </c>
       <c r="X106" s="17">
-        <v>10.397250453488255</v>
+        <v>10.374333525482541</v>
       </c>
       <c r="Y106" s="17">
-        <v>8.7100774916735162</v>
+        <v>8.772084465490579</v>
       </c>
       <c r="Z106" s="17"/>
     </row>
@@ -6340,10 +6329,10 @@
         <v>87.485798796793659</v>
       </c>
       <c r="X108" s="17">
-        <v>106.33167521820081</v>
+        <v>105.8585890027112</v>
       </c>
       <c r="Y108" s="17">
-        <v>28.834380246753796</v>
+        <v>29.324651243042297</v>
       </c>
       <c r="Z108" s="17"/>
     </row>
@@ -6444,10 +6433,10 @@
         <v>16.027325140298515</v>
       </c>
       <c r="X110" s="17">
-        <v>15.721493214556247</v>
+        <v>15.673592443930758</v>
       </c>
       <c r="Y110" s="17">
-        <v>10.701466432439915</v>
+        <v>10.8020291767358</v>
       </c>
       <c r="Z110" s="17"/>
     </row>
@@ -6553,7 +6542,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
-      <c r="Z123" s="6"/>
+      <c r="Z123" s="7"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
@@ -6704,10 +6693,10 @@
         <v>8.2885279455932448</v>
       </c>
       <c r="X126" s="17">
-        <v>5.5655735486568574</v>
+        <v>5.537637782343424</v>
       </c>
       <c r="Y126" s="17">
-        <v>4.7778593784545649</v>
+        <v>4.8573517359161258</v>
       </c>
       <c r="Z126" s="17"/>
     </row>
@@ -6782,10 +6771,10 @@
         <v>5.1325769886286565</v>
       </c>
       <c r="X127" s="17">
-        <v>0.55188762122672586</v>
+        <v>0.33415037642605228</v>
       </c>
       <c r="Y127" s="17">
-        <v>7.23142989095291</v>
+        <v>7.2761697842409774</v>
       </c>
       <c r="Z127" s="17"/>
     </row>
@@ -6860,10 +6849,10 @@
         <v>13.693934766814394</v>
       </c>
       <c r="X128" s="17">
-        <v>5.9050645530656993</v>
+        <v>6.2953383489222006</v>
       </c>
       <c r="Y128" s="17">
-        <v>7.4558169900826385</v>
+        <v>7.6903400924600618</v>
       </c>
       <c r="Z128" s="17"/>
     </row>
@@ -6938,10 +6927,10 @@
         <v>9.7536303435349367</v>
       </c>
       <c r="X129" s="17">
-        <v>8.1751338868620849</v>
+        <v>8.2093893704122678</v>
       </c>
       <c r="Y129" s="17">
-        <v>6.2058034980905461</v>
+        <v>6.3177022696523863</v>
       </c>
       <c r="Z129" s="17"/>
     </row>
@@ -7016,10 +7005,10 @@
         <v>12.130601842906003</v>
       </c>
       <c r="X130" s="17">
-        <v>9.1203002601530727</v>
+        <v>9.1653605644957992</v>
       </c>
       <c r="Y130" s="17">
-        <v>10.383602788821463</v>
+        <v>10.409402885962393</v>
       </c>
       <c r="Z130" s="17"/>
     </row>
@@ -7094,10 +7083,10 @@
         <v>8.3605988481167515</v>
       </c>
       <c r="X131" s="17">
-        <v>8.8654674469420769</v>
+        <v>8.9009946503648223</v>
       </c>
       <c r="Y131" s="17">
-        <v>-0.81116174275385333</v>
+        <v>-0.4686064063785409</v>
       </c>
       <c r="Z131" s="17"/>
     </row>
@@ -7172,10 +7161,10 @@
         <v>0.50232461448649701</v>
       </c>
       <c r="X132" s="17">
-        <v>0.91218999108259879</v>
+        <v>1.0438161791326053</v>
       </c>
       <c r="Y132" s="17">
-        <v>-1.5820340804863662</v>
+        <v>-1.6517744544167812</v>
       </c>
       <c r="Z132" s="17"/>
     </row>
@@ -7250,10 +7239,10 @@
         <v>3.6860660983466005</v>
       </c>
       <c r="X133" s="17">
-        <v>3.2946767451718983</v>
+        <v>2.871148427521959</v>
       </c>
       <c r="Y133" s="17">
-        <v>3.1120344593365843</v>
+        <v>3.3956341643703638</v>
       </c>
       <c r="Z133" s="17"/>
     </row>
@@ -7361,7 +7350,7 @@
         <v>29.50368943708429</v>
       </c>
       <c r="Y135" s="17">
-        <v>-12.994916420740907</v>
+        <v>-5.8652155868918214</v>
       </c>
       <c r="Z135" s="17"/>
     </row>
@@ -7436,10 +7425,10 @@
         <v>10.959326629092232</v>
       </c>
       <c r="X136" s="17">
-        <v>1.4394012931575446</v>
+        <v>1.3351885881076129</v>
       </c>
       <c r="Y136" s="17">
-        <v>3.4349056727573242</v>
+        <v>3.3063031184802583</v>
       </c>
       <c r="Z136" s="17"/>
     </row>
@@ -7514,10 +7503,10 @@
         <v>5.0736399897344029</v>
       </c>
       <c r="X137" s="17">
-        <v>-7.2526759082837629</v>
+        <v>-7.4746697212929263</v>
       </c>
       <c r="Y137" s="17">
-        <v>-0.71988264718255834</v>
+        <v>-0.69351620021919302</v>
       </c>
       <c r="Z137" s="17"/>
     </row>
@@ -7592,10 +7581,10 @@
         <v>20.577470259394431</v>
       </c>
       <c r="X138" s="17">
-        <v>13.817253891571909</v>
+        <v>13.880766019080511</v>
       </c>
       <c r="Y138" s="17">
-        <v>8.2562030438881635</v>
+        <v>7.934079545360035</v>
       </c>
       <c r="Z138" s="17"/>
     </row>
@@ -7670,10 +7659,10 @@
         <v>14.01662508477564</v>
       </c>
       <c r="X139" s="17">
-        <v>0.95069764708848936</v>
+        <v>1.0370860351457907</v>
       </c>
       <c r="Y139" s="17">
-        <v>4.286938377393696</v>
+        <v>4.1833791778997522</v>
       </c>
       <c r="Z139" s="17"/>
     </row>
@@ -7748,10 +7737,10 @@
         <v>8.7663225122193609</v>
       </c>
       <c r="X140" s="17">
-        <v>-4.5826044115837874</v>
+        <v>-4.5825074615260348</v>
       </c>
       <c r="Y140" s="17">
-        <v>2.0092138807236637</v>
+        <v>1.8479769930565482</v>
       </c>
       <c r="Z140" s="17"/>
     </row>
@@ -7826,10 +7815,10 @@
         <v>44.619951073982492</v>
       </c>
       <c r="X141" s="17">
-        <v>25.20757595342296</v>
+        <v>25.672248571807614</v>
       </c>
       <c r="Y141" s="17">
-        <v>11.896307891174047</v>
+        <v>11.956596804945292</v>
       </c>
       <c r="Z141" s="17"/>
     </row>
@@ -7956,10 +7945,10 @@
         <v>7.5809821277173199</v>
       </c>
       <c r="X144" s="17">
-        <v>5.5458511709648945</v>
+        <v>5.5189496785154546</v>
       </c>
       <c r="Y144" s="17">
-        <v>5.6431203728058534</v>
+        <v>5.6920161281656618</v>
       </c>
       <c r="Z144" s="17"/>
     </row>
@@ -8060,10 +8049,10 @@
         <v>76.76702294091308</v>
       </c>
       <c r="X146" s="17">
-        <v>97.013384218769602</v>
+        <v>96.552898547908171</v>
       </c>
       <c r="Y146" s="17">
-        <v>26.082103542445196</v>
+        <v>26.566775917567796</v>
       </c>
       <c r="Z146" s="17"/>
     </row>
@@ -8164,10 +8153,10 @@
         <v>9.8872143149455951</v>
       </c>
       <c r="X148" s="17">
-        <v>10.450473829009937</v>
+        <v>10.400322919912355</v>
       </c>
       <c r="Y148" s="17">
-        <v>7.5980272214690245</v>
+        <v>7.6848414357289414</v>
       </c>
       <c r="Z148" s="17"/>
     </row>
@@ -8424,10 +8413,10 @@
         <v>114.78822943488545</v>
       </c>
       <c r="Y163" s="17">
-        <v>120.98043391143077</v>
+        <v>120.98727961576078</v>
       </c>
       <c r="Z163" s="17">
-        <v>124.88900884630422</v>
+        <v>124.89168105993463</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
@@ -8507,7 +8496,7 @@
         <v>115.31061669096255</v>
       </c>
       <c r="Z164" s="17">
-        <v>119.24968266573647</v>
+        <v>119.28038594638019</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8584,10 +8573,10 @@
         <v>118.04395633016647</v>
       </c>
       <c r="Y165" s="17">
-        <v>116.24853347226069</v>
+        <v>116.21959428987346</v>
       </c>
       <c r="Z165" s="17">
-        <v>119.53521727141985</v>
+        <v>118.78371835837191</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
@@ -8664,10 +8653,10 @@
         <v>113.39612892440014</v>
       </c>
       <c r="Y166" s="17">
-        <v>117.0833141092118</v>
+        <v>117.09437570440737</v>
       </c>
       <c r="Z166" s="17">
-        <v>119.47704180702135</v>
+        <v>119.47314843008508</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
@@ -8744,10 +8733,10 @@
         <v>115.86187438784737</v>
       </c>
       <c r="Y167" s="17">
-        <v>119.61841803416402</v>
+        <v>119.62919719911812</v>
       </c>
       <c r="Z167" s="17">
-        <v>121.0188769566019</v>
+        <v>121.05193035314909</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
@@ -8824,10 +8813,10 @@
         <v>108.1459627101133</v>
       </c>
       <c r="Y168" s="17">
-        <v>112.07198294033094</v>
+        <v>112.07712346983033</v>
       </c>
       <c r="Z168" s="17">
-        <v>115.88109541601793</v>
+        <v>115.79063590261673</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.2">
@@ -8904,10 +8893,10 @@
         <v>115.60027827945716</v>
       </c>
       <c r="Y169" s="17">
-        <v>118.33776734987104</v>
+        <v>118.36675430166783</v>
       </c>
       <c r="Z169" s="17">
-        <v>122.87006851532757</v>
+        <v>122.88464909561367</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
@@ -8984,10 +8973,10 @@
         <v>104.43554070855083</v>
       </c>
       <c r="Y170" s="17">
-        <v>106.8899007615439</v>
+        <v>106.86023517667304</v>
       </c>
       <c r="Z170" s="17">
-        <v>108.54234783687873</v>
+        <v>108.50096084820574</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
@@ -9097,7 +9086,7 @@
         <v>151.45180080072706</v>
       </c>
       <c r="Z172" s="17">
-        <v>164.09398812186004</v>
+        <v>155.11683367621038</v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9174,10 +9163,10 @@
         <v>109.86329282849726</v>
       </c>
       <c r="Y173" s="17">
-        <v>112.26281337064796</v>
+        <v>112.28393888152262</v>
       </c>
       <c r="Z173" s="17">
-        <v>114.42050559623918</v>
+        <v>114.39257156684207</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.2">
@@ -9254,10 +9243,10 @@
         <v>106.81068781458958</v>
       </c>
       <c r="Y174" s="17">
-        <v>107.0125473617406</v>
+        <v>107.02463446772741</v>
       </c>
       <c r="Z174" s="17">
-        <v>108.73868690100599</v>
+        <v>108.72848944572466</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
@@ -9334,10 +9323,10 @@
         <v>114.21031990012347</v>
       </c>
       <c r="Y175" s="17">
-        <v>118.35532441025948</v>
+        <v>118.36893498976183</v>
       </c>
       <c r="Z175" s="17">
-        <v>120.4671145046147</v>
+        <v>120.42206115929422</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9414,10 +9403,10 @@
         <v>122.62307026937505</v>
       </c>
       <c r="Y176" s="17">
-        <v>124.05193639805748</v>
+        <v>124.04238288893328</v>
       </c>
       <c r="Z176" s="17">
-        <v>127.1520092895659</v>
+        <v>127.37474325026785</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
@@ -9494,10 +9483,10 @@
         <v>127.23900982698785</v>
       </c>
       <c r="Y177" s="17">
-        <v>128.8844154179053</v>
+        <v>128.88446611195565</v>
       </c>
       <c r="Z177" s="17">
-        <v>132.18393019437386</v>
+        <v>132.48573318049347</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.2">
@@ -9574,10 +9563,10 @@
         <v>102.38772382865025</v>
       </c>
       <c r="Y178" s="17">
-        <v>107.90770184143187</v>
+        <v>107.92585833265183</v>
       </c>
       <c r="Z178" s="17">
-        <v>111.82685232649285</v>
+        <v>111.89916489714795</v>
       </c>
     </row>
     <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -9708,10 +9697,10 @@
         <v>110.44175736359696</v>
       </c>
       <c r="Y181" s="17">
-        <v>115.51819624290907</v>
+        <v>115.52366091142055</v>
       </c>
       <c r="Z181" s="17">
-        <v>118.87183965173382</v>
+        <v>118.89024225994595</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
@@ -9815,10 +9804,10 @@
         <v>114.53557606965646</v>
       </c>
       <c r="Y183" s="17">
-        <v>119.95285181382323</v>
+        <v>119.95820084314448</v>
       </c>
       <c r="Z183" s="17">
-        <v>122.57133160109474</v>
+        <v>122.57207608643179</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.2">
@@ -9922,10 +9911,10 @@
         <v>110.66127389929686</v>
       </c>
       <c r="Y185" s="17">
-        <v>115.94235328022783</v>
+        <v>115.94700774235396</v>
       </c>
       <c r="Z185" s="17">
-        <v>119.28646705883345</v>
+        <v>119.30336306889832</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10181,10 +10170,10 @@
         <v>75.925344622330641</v>
       </c>
       <c r="Y201" s="17">
-        <v>76.518880436961595</v>
+        <v>76.518844218519632</v>
       </c>
       <c r="Z201" s="17">
-        <v>76.133782044343363</v>
+        <v>76.145393421070054</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.2">
@@ -10261,10 +10250,10 @@
         <v>15.04367422053215</v>
       </c>
       <c r="Y202" s="17">
-        <v>14.249178130544768</v>
+        <v>14.221274788364333</v>
       </c>
       <c r="Z202" s="17">
-        <v>14.53550231925721</v>
+        <v>14.508552201851424</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10341,10 +10330,10 @@
         <v>24.68586167624111</v>
       </c>
       <c r="Y203" s="17">
-        <v>23.321178304970928</v>
+        <v>23.406151616159718</v>
       </c>
       <c r="Z203" s="17">
-        <v>23.703856376592533</v>
+        <v>23.684644596138043</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
@@ -10421,10 +10410,10 @@
         <v>23.34596676807384</v>
       </c>
       <c r="Y204" s="17">
-        <v>23.619887524930299</v>
+        <v>23.634505580337862</v>
       </c>
       <c r="Z204" s="17">
-        <v>23.547549748546139</v>
+        <v>23.570507069845377</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
@@ -10501,10 +10490,10 @@
         <v>14.687545475596833</v>
       </c>
       <c r="Y205" s="17">
-        <v>14.988356834410544</v>
+        <v>14.999010937114798</v>
       </c>
       <c r="Z205" s="17">
-        <v>15.397274322232137</v>
+        <v>15.405853464948486</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
@@ -10581,10 +10570,10 @@
         <v>5.9635922117132392</v>
       </c>
       <c r="Y206" s="17">
-        <v>6.0943384431660395</v>
+        <v>6.0978727324231441</v>
       </c>
       <c r="Z206" s="17">
-        <v>5.7495665173778701</v>
+        <v>5.7647098433171031</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
@@ -10661,10 +10650,10 @@
         <v>1.9849361259171496</v>
       </c>
       <c r="Y207" s="17">
-        <v>1.8573613413932266</v>
+        <v>1.8606258117868264</v>
       </c>
       <c r="Z207" s="17">
-        <v>1.7459174704534639</v>
+        <v>1.7465298528769564</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
@@ -10741,10 +10730,10 @@
         <v>0.70989295484662052</v>
       </c>
       <c r="Y208" s="17">
-        <v>0.67983090596048568</v>
+        <v>0.67699609901309066</v>
       </c>
       <c r="Z208" s="17">
-        <v>0.65479143848266841</v>
+        <v>0.65341390870283134</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
@@ -10821,10 +10810,10 @@
         <v>1.3347611420224141</v>
       </c>
       <c r="Y209" s="17">
-        <v>-0.30487472644695723</v>
+        <v>-0.23452075080454979</v>
       </c>
       <c r="Z209" s="17">
-        <v>0.15096022358016054</v>
+        <v>0.10867144492204693</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
@@ -10901,10 +10890,10 @@
         <v>5.1337661448604818E-3</v>
       </c>
       <c r="Y210" s="17">
-        <v>6.1655064875912775E-3</v>
+        <v>6.1667866264041868E-3</v>
       </c>
       <c r="Z210" s="17">
-        <v>5.3464044662347582E-3</v>
+        <v>5.4660813706187313E-3</v>
       </c>
     </row>
     <row r="211" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10981,10 +10970,10 @@
         <v>28.387401545938712</v>
       </c>
       <c r="Y211" s="17">
-        <v>26.65369178579801</v>
+        <v>26.636849347058483</v>
       </c>
       <c r="Z211" s="17">
-        <v>25.847743158706987</v>
+        <v>25.773441154864766</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
@@ -11061,10 +11050,10 @@
         <v>16.213245511307484</v>
       </c>
       <c r="Y212" s="17">
-        <v>13.646870833298516</v>
+        <v>13.618571347741362</v>
       </c>
       <c r="Z212" s="17">
-        <v>12.664117738906342</v>
+        <v>12.631394679185929</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
@@ -11141,10 +11130,10 @@
         <v>12.174156034631228</v>
       </c>
       <c r="Y213" s="17">
-        <v>13.006820952499499</v>
+        <v>13.018277999317121</v>
       </c>
       <c r="Z213" s="17">
-        <v>13.183625419800645</v>
+        <v>13.142046475678839</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11221,10 +11210,10 @@
         <v>44.042282065042642</v>
       </c>
       <c r="Y214" s="17">
-        <v>40.742928658275311</v>
+        <v>40.783119970102192</v>
       </c>
       <c r="Z214" s="17">
-        <v>40.061945472729171</v>
+        <v>40.112031373924289</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.2">
@@ -11301,10 +11290,10 @@
         <v>37.211714958016714</v>
       </c>
       <c r="Y215" s="17">
-        <v>32.57835205858872</v>
+        <v>32.58516219905038</v>
       </c>
       <c r="Z215" s="17">
-        <v>31.352845480663127</v>
+        <v>31.363417515875675</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.2">
@@ -11381,10 +11370,10 @@
         <v>6.8305671070259271</v>
       </c>
       <c r="Y216" s="17">
-        <v>8.164576599686594</v>
+        <v>8.1979577710518043</v>
       </c>
       <c r="Z216" s="17">
-        <v>8.7090999920660437</v>
+        <v>8.7486138580486159</v>
       </c>
     </row>
     <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -11595,10 +11584,10 @@
         <v>94.450122806149963</v>
       </c>
       <c r="Y220" s="17">
-        <v>90.104556838553435</v>
+        <v>90.123157203593536</v>
       </c>
       <c r="Z220" s="17">
-        <v>88.483682031890794</v>
+        <v>88.472059045144206</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.2">
@@ -11675,10 +11664,10 @@
         <v>5.5498771938500324</v>
       </c>
       <c r="Y221" s="17">
-        <v>9.8954431614465559</v>
+        <v>9.8768427964064571</v>
       </c>
       <c r="Z221" s="17">
-        <v>11.516317968109199</v>
+        <v>11.527940954855797</v>
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.2">
@@ -12041,10 +12030,10 @@
         <v>73.050421021465169</v>
       </c>
       <c r="Y239" s="17">
-        <v>73.064071278466841</v>
+        <v>73.063358734140337</v>
       </c>
       <c r="Z239" s="17">
-        <v>72.46564621545599</v>
+        <v>72.486367338313514</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
@@ -12121,10 +12110,10 @@
         <v>14.983796241660189</v>
       </c>
       <c r="Y240" s="17">
-        <v>14.274829177229151</v>
+        <v>14.247549562432415</v>
       </c>
       <c r="Z240" s="17">
-        <v>14.489446532075407</v>
+        <v>14.461097459012153</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12201,10 +12190,10 @@
         <v>23.096057013992265</v>
       </c>
       <c r="Y241" s="17">
-        <v>23.174661835130625</v>
+        <v>23.265993476128813</v>
       </c>
       <c r="Z241" s="17">
-        <v>23.572308468123193</v>
+        <v>23.705884718813468</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
@@ -12281,10 +12270,10 @@
         <v>22.737721487275614</v>
       </c>
       <c r="Y242" s="17">
-        <v>23.304147333882693</v>
+        <v>23.317470135068657</v>
       </c>
       <c r="Z242" s="17">
-        <v>23.428271369670821</v>
+        <v>23.455507221052066</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
@@ -12361,10 +12350,10 @@
         <v>14.000449606508388</v>
       </c>
       <c r="Y243" s="17">
-        <v>14.474593249190725</v>
+        <v>14.484262154011274</v>
       </c>
       <c r="Z243" s="17">
-        <v>15.124106010027633</v>
+        <v>15.130743023473853</v>
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
@@ -12441,10 +12430,10 @@
         <v>6.0901913262073002</v>
       </c>
       <c r="Y244" s="17">
-        <v>6.2817393408947266</v>
+        <v>6.2853913449257739</v>
       </c>
       <c r="Z244" s="17">
-        <v>5.8979555437154332</v>
+        <v>5.9190257008924227</v>
       </c>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.2">
@@ -12521,10 +12510,10 @@
         <v>1.8963607809907552</v>
       </c>
       <c r="Y245" s="17">
-        <v>1.8131069795723116</v>
+        <v>1.8159347751995365</v>
       </c>
       <c r="Z245" s="17">
-        <v>1.6891047925721228</v>
+        <v>1.6897583127832758</v>
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
@@ -12601,10 +12590,10 @@
         <v>0.7507197735691723</v>
       </c>
       <c r="Y246" s="17">
-        <v>0.73470776422492512</v>
+        <v>0.7318818609320763</v>
       </c>
       <c r="Z246" s="17">
-        <v>0.71710502335563053</v>
+        <v>0.71598018390251417</v>
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
@@ -12681,10 +12670,10 @@
         <v>0.35450283629052054</v>
       </c>
       <c r="Y247" s="17">
-        <v>-0.13418817105179942</v>
+        <v>-5.6180530160755249E-2</v>
       </c>
       <c r="Z247" s="17">
-        <v>0.14016409285540848</v>
+        <v>0.24618798639140299</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
@@ -12761,10 +12750,10 @@
         <v>3.8326904261267499E-3</v>
       </c>
       <c r="Y248" s="17">
-        <v>4.7026722997345772E-3</v>
+        <v>4.7038712209117577E-3</v>
       </c>
       <c r="Z248" s="17">
-        <v>3.8730055969607323E-3</v>
+        <v>4.189511370003585E-3</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12841,10 +12830,10 @@
         <v>28.536870077376182</v>
       </c>
       <c r="Y249" s="17">
-        <v>27.42659217121361</v>
+        <v>27.405400829098969</v>
       </c>
       <c r="Z249" s="17">
-        <v>26.853305394081456</v>
+        <v>26.78679761110055</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
@@ -12921,10 +12910,10 @@
         <v>16.764420897134819</v>
       </c>
       <c r="Y250" s="17">
-        <v>14.731561315829683</v>
+        <v>14.700047575951958</v>
       </c>
       <c r="Z250" s="17">
-        <v>13.844262939835311</v>
+        <v>13.811923453963315</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
@@ -13001,10 +12990,10 @@
         <v>11.77244918024136</v>
       </c>
       <c r="Y251" s="17">
-        <v>12.695030855383923</v>
+        <v>12.705353253147011</v>
       </c>
       <c r="Z251" s="17">
-        <v>13.009042454246146</v>
+        <v>12.974874157137236</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13081,10 +13070,10 @@
         <v>39.667144354493807</v>
       </c>
       <c r="Y252" s="17">
-        <v>37.940154462040226</v>
+        <v>37.982302601800541</v>
       </c>
       <c r="Z252" s="17">
-        <v>37.453101881588239</v>
+        <v>37.440147127239712</v>
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
@@ -13161,10 +13150,10 @@
         <v>32.299270483673055</v>
       </c>
       <c r="Y253" s="17">
-        <v>29.199748116728486</v>
+        <v>29.207222112840359</v>
       </c>
       <c r="Z253" s="17">
-        <v>28.195336718484153</v>
+        <v>28.144949777213458</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
@@ -13241,10 +13230,10 @@
         <v>7.3678738708207572</v>
       </c>
       <c r="Y254" s="17">
-        <v>8.7404063453117438</v>
+        <v>8.7750804889601817</v>
       </c>
       <c r="Z254" s="17">
-        <v>9.2577651631040894</v>
+        <v>9.2951973500262532</v>
       </c>
     </row>
     <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -13455,10 +13444,10 @@
         <v>94.637854007189944</v>
       </c>
       <c r="Y258" s="17">
-        <v>90.435400663340999</v>
+        <v>90.453421607394844</v>
       </c>
       <c r="Z258" s="17">
-        <v>88.792314923911292</v>
+        <v>88.779482496452331</v>
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
@@ -13535,10 +13524,10 @@
         <v>5.3621459928100537</v>
       </c>
       <c r="Y259" s="17">
-        <v>9.5645993366590183</v>
+        <v>9.5465783926051557</v>
       </c>
       <c r="Z259" s="17">
-        <v>11.20768507608871</v>
+        <v>11.220517503547661</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
@@ -13897,14 +13886,14 @@
       <c r="W277" s="19">
         <v>1954486.610016682</v>
       </c>
-      <c r="X277" s="34">
+      <c r="X277" s="19">
         <v>2104089.8599160332</v>
       </c>
-      <c r="Y277" s="34">
-        <v>2285159.1602593842</v>
-      </c>
-      <c r="Z277" s="34">
-        <v>2400667.1117872689</v>
+      <c r="Y277" s="19">
+        <v>2285564.0565247671</v>
+      </c>
+      <c r="Z277" s="19">
+        <v>2401998.5929831276</v>
       </c>
     </row>
     <row r="278" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13977,14 +13966,14 @@
       <c r="W278" s="19">
         <v>5607689.4737621192</v>
       </c>
-      <c r="X278" s="34">
+      <c r="X278" s="19">
         <v>6436935.4825338954</v>
       </c>
-      <c r="Y278" s="34">
-        <v>6853151.6059861928</v>
-      </c>
-      <c r="Z278" s="34">
-        <v>7317591.012561202</v>
+      <c r="Y278" s="19">
+        <v>6855846.7681841524</v>
+      </c>
+      <c r="Z278" s="19">
+        <v>7324051.7478946885</v>
       </c>
     </row>
     <row r="279" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14057,14 +14046,14 @@
       <c r="W279" s="19">
         <v>185371.03875113939</v>
       </c>
-      <c r="X279" s="34">
+      <c r="X279" s="19">
         <v>280249.3760596881</v>
       </c>
-      <c r="Y279" s="34">
-        <v>232080.23793570866</v>
-      </c>
-      <c r="Z279" s="34">
-        <v>234680.35357777996</v>
+      <c r="Y279" s="19">
+        <v>232171.30359314871</v>
+      </c>
+      <c r="Z279" s="19">
+        <v>233872.61368184019</v>
       </c>
     </row>
     <row r="280" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14137,14 +14126,14 @@
       <c r="W280" s="19">
         <v>3424048.8354427675</v>
       </c>
-      <c r="X280" s="34">
+      <c r="X280" s="19">
         <v>3795335.3083644402</v>
       </c>
-      <c r="Y280" s="34">
-        <v>3943986.5159432963</v>
-      </c>
-      <c r="Z280" s="34">
-        <v>4139084.7328958297</v>
+      <c r="Y280" s="19">
+        <v>3946170.6404435532</v>
+      </c>
+      <c r="Z280" s="19">
+        <v>4146037.8349306379</v>
       </c>
     </row>
     <row r="281" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14217,14 +14206,14 @@
       <c r="W281" s="19">
         <v>650960.54315708519</v>
       </c>
-      <c r="X281" s="34">
+      <c r="X281" s="19">
         <v>746104.17027961905</v>
       </c>
-      <c r="Y281" s="34">
-        <v>844360.23273107316</v>
-      </c>
-      <c r="Z281" s="34">
-        <v>897233.40863924136</v>
+      <c r="Y281" s="19">
+        <v>844195.92131620797</v>
+      </c>
+      <c r="Z281" s="19">
+        <v>897048.77380630164</v>
       </c>
     </row>
     <row r="282" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14297,14 +14286,14 @@
       <c r="W282" s="19">
         <v>1347309.0564111271</v>
       </c>
-      <c r="X282" s="34">
+      <c r="X282" s="19">
         <v>1615246.627830148</v>
       </c>
-      <c r="Y282" s="34">
-        <v>1832724.6193761146</v>
-      </c>
-      <c r="Z282" s="34">
-        <v>2046592.5174483522</v>
+      <c r="Y282" s="19">
+        <v>1833308.9028312422</v>
+      </c>
+      <c r="Z282" s="19">
+        <v>2047092.5254759088</v>
       </c>
     </row>
     <row r="283" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14377,14 +14366,14 @@
       <c r="W283" s="19">
         <v>11848438.402404422</v>
       </c>
-      <c r="X283" s="34">
+      <c r="X283" s="19">
         <v>13487250.995206343</v>
       </c>
-      <c r="Y283" s="34">
-        <v>15180300.632823305</v>
-      </c>
-      <c r="Z283" s="34">
-        <v>16718523.172478262</v>
+      <c r="Y283" s="19">
+        <v>15172152.370130764</v>
+      </c>
+      <c r="Z283" s="19">
+        <v>16720319.15398364</v>
       </c>
     </row>
     <row r="284" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -14457,14 +14446,14 @@
       <c r="W284" s="19">
         <v>3502794.4938180256</v>
       </c>
-      <c r="X284" s="34">
+      <c r="X284" s="19">
         <v>3987549.7067140583</v>
       </c>
-      <c r="Y284" s="34">
-        <v>4444025.4470289685</v>
-      </c>
-      <c r="Z284" s="34">
-        <v>4876250.7750580246</v>
+      <c r="Y284" s="19">
+        <v>4445382.9981920309</v>
+      </c>
+      <c r="Z284" s="19">
+        <v>4876755.8901737509</v>
       </c>
     </row>
     <row r="285" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14537,14 +14526,14 @@
       <c r="W285" s="19">
         <v>605203.56675862649</v>
       </c>
-      <c r="X285" s="34">
+      <c r="X285" s="19">
         <v>807323.23658586771</v>
       </c>
-      <c r="Y285" s="34">
-        <v>977398.86522925191</v>
-      </c>
-      <c r="Z285" s="34">
-        <v>1074646.0969263024</v>
+      <c r="Y285" s="19">
+        <v>977711.79854265298</v>
+      </c>
+      <c r="Z285" s="19">
+        <v>1075531.1339689519</v>
       </c>
     </row>
     <row r="286" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14617,14 +14606,14 @@
       <c r="W286" s="19">
         <v>285187.01787847211</v>
       </c>
-      <c r="X286" s="34">
+      <c r="X286" s="19">
         <v>396143.89756514801</v>
       </c>
-      <c r="Y286" s="34">
-        <v>511145.62721815088</v>
-      </c>
-      <c r="Z286" s="34">
-        <v>586465.82678368455</v>
+      <c r="Y286" s="19">
+        <v>510209.38983641169</v>
+      </c>
+      <c r="Z286" s="19">
+        <v>585956.89769128908</v>
       </c>
     </row>
     <row r="287" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14697,14 +14686,14 @@
       <c r="W287" s="19">
         <v>640033.56072924484</v>
       </c>
-      <c r="X287" s="34">
+      <c r="X287" s="19">
         <v>696021.65281555429</v>
       </c>
-      <c r="Y287" s="34">
-        <v>733416.51703936071</v>
-      </c>
-      <c r="Z287" s="34">
-        <v>769429.92212410597</v>
+      <c r="Y287" s="19">
+        <v>732460.79381006211</v>
+      </c>
+      <c r="Z287" s="19">
+        <v>768822.7439384195</v>
       </c>
     </row>
     <row r="288" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14777,14 +14766,14 @@
       <c r="W288" s="19">
         <v>1963148.3992895908</v>
       </c>
-      <c r="X288" s="34">
+      <c r="X288" s="19">
         <v>2224674.7830920857</v>
       </c>
-      <c r="Y288" s="34">
-        <v>2565381.4562773211</v>
-      </c>
-      <c r="Z288" s="34">
-        <v>2889091.4758404046</v>
+      <c r="Y288" s="19">
+        <v>2565066.2652639332</v>
+      </c>
+      <c r="Z288" s="19">
+        <v>2887280.4914728408</v>
       </c>
     </row>
     <row r="289" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14857,14 +14846,14 @@
       <c r="W289" s="19">
         <v>1139221.0893330369</v>
       </c>
-      <c r="X289" s="34">
+      <c r="X289" s="19">
         <v>1246861.4394502793</v>
       </c>
-      <c r="Y289" s="34">
-        <v>1370154.0451491633</v>
-      </c>
-      <c r="Z289" s="34">
-        <v>1486037.0065598858</v>
+      <c r="Y289" s="19">
+        <v>1369415.7123239238</v>
+      </c>
+      <c r="Z289" s="19">
+        <v>1485877.2251138589</v>
       </c>
     </row>
     <row r="290" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -14937,14 +14926,14 @@
       <c r="W290" s="19">
         <v>1222488.8088335665</v>
       </c>
-      <c r="X290" s="34">
+      <c r="X290" s="19">
         <v>1350881.4367268961</v>
       </c>
-      <c r="Y290" s="34">
-        <v>1487290.6098380145</v>
-      </c>
-      <c r="Z290" s="34">
-        <v>1647121.6060593692</v>
+      <c r="Y290" s="19">
+        <v>1488722.4337391451</v>
+      </c>
+      <c r="Z290" s="19">
+        <v>1649935.9039141701</v>
       </c>
     </row>
     <row r="291" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
@@ -15017,14 +15006,14 @@
       <c r="W291" s="19">
         <v>1027078.9960668562</v>
       </c>
-      <c r="X291" s="34">
+      <c r="X291" s="19">
         <v>1119710.013593711</v>
       </c>
-      <c r="Y291" s="34">
-        <v>1188487.0626575199</v>
-      </c>
-      <c r="Z291" s="34">
-        <v>1278416.7472609507</v>
+      <c r="Y291" s="19">
+        <v>1189234.9066548729</v>
+      </c>
+      <c r="Z291" s="19">
+        <v>1281324.9454119611</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.2">
@@ -15097,14 +15086,14 @@
       <c r="W292" s="19">
         <v>796472.21035602549</v>
       </c>
-      <c r="X292" s="34">
+      <c r="X292" s="19">
         <v>880389.81249764538</v>
       </c>
-      <c r="Y292" s="34">
-        <v>976644.11846215697</v>
-      </c>
-      <c r="Z292" s="34">
-        <v>1054903.7952812007</v>
+      <c r="Y292" s="19">
+        <v>969550.13854501233</v>
+      </c>
+      <c r="Z292" s="19">
+        <v>1053080.4177905039</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.2">
@@ -15177,14 +15166,14 @@
       <c r="W293" s="19">
         <v>385749.58321451931</v>
       </c>
-      <c r="X293" s="34">
+      <c r="X293" s="19">
         <v>411576.76256723295</v>
       </c>
-      <c r="Y293" s="34">
-        <v>460644.51028793817</v>
-      </c>
-      <c r="Z293" s="34">
-        <v>527897.82224012085</v>
+      <c r="Y293" s="19">
+        <v>459895.87424198515</v>
+      </c>
+      <c r="Z293" s="19">
+        <v>528285.01684113487</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.2">
@@ -15257,14 +15246,14 @@
       <c r="W294" s="19">
         <v>281060.67612645612</v>
       </c>
-      <c r="X294" s="34">
+      <c r="X294" s="19">
         <v>366118.25359786442</v>
       </c>
-      <c r="Y294" s="34">
-        <v>465712.37363546202</v>
-      </c>
-      <c r="Z294" s="34">
-        <v>528262.09834421135</v>
+      <c r="Y294" s="19">
+        <v>464502.05898073327</v>
+      </c>
+      <c r="Z294" s="19">
+        <v>527468.48766675824</v>
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.2">
@@ -15291,9 +15280,9 @@
       <c r="U295" s="19"/>
       <c r="V295" s="19"/>
       <c r="W295" s="19"/>
-      <c r="X295" s="34"/>
-      <c r="Y295" s="34"/>
-      <c r="Z295" s="34"/>
+      <c r="X295" s="19"/>
+      <c r="Y295" s="19"/>
+      <c r="Z295" s="19"/>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
@@ -15365,14 +15354,14 @@
       <c r="W296" s="19">
         <v>19410614.486183222</v>
       </c>
-      <c r="X296" s="34">
+      <c r="X296" s="19">
         <v>22028276.337656274</v>
       </c>
-      <c r="Y296" s="34">
-        <v>24318611.399068885</v>
-      </c>
-      <c r="Z296" s="34">
-        <v>26436781.296826735</v>
+      <c r="Y296" s="19">
+        <v>24313563.194839686</v>
+      </c>
+      <c r="Z296" s="19">
+        <v>26446369.494861454</v>
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.2">
@@ -15398,9 +15387,9 @@
       <c r="U297" s="19"/>
       <c r="V297" s="19"/>
       <c r="W297" s="19"/>
-      <c r="X297" s="34"/>
-      <c r="Y297" s="34"/>
-      <c r="Z297" s="34"/>
+      <c r="X297" s="19"/>
+      <c r="Y297" s="19"/>
+      <c r="Z297" s="19"/>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
@@ -15472,14 +15461,14 @@
       <c r="W298" s="19">
         <v>690387.60375562287</v>
       </c>
-      <c r="X298" s="34">
+      <c r="X298" s="19">
         <v>1294378.7136952721</v>
       </c>
-      <c r="Y298" s="34">
-        <v>2670713.283635254</v>
-      </c>
-      <c r="Z298" s="34">
-        <v>3440796.9071392077</v>
+      <c r="Y298" s="19">
+        <v>2664589.75636453</v>
+      </c>
+      <c r="Z298" s="19">
+        <v>3445971.4094762588</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.2">
@@ -15505,9 +15494,9 @@
       <c r="U299" s="19"/>
       <c r="V299" s="19"/>
       <c r="W299" s="19"/>
-      <c r="X299" s="34"/>
-      <c r="Y299" s="34"/>
-      <c r="Z299" s="34"/>
+      <c r="X299" s="19"/>
+      <c r="Y299" s="19"/>
+      <c r="Z299" s="19"/>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
@@ -15579,14 +15568,14 @@
       <c r="W300" s="19">
         <v>20101002.089938845</v>
       </c>
-      <c r="X300" s="34">
+      <c r="X300" s="19">
         <v>23322655.051351547</v>
       </c>
-      <c r="Y300" s="34">
-        <v>26989324.68270414</v>
-      </c>
-      <c r="Z300" s="34">
-        <v>29877578.203965943</v>
+      <c r="Y300" s="19">
+        <v>26978152.951204218</v>
+      </c>
+      <c r="Z300" s="19">
+        <v>29892340.904337712</v>
       </c>
     </row>
     <row r="301" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15988,14 +15977,14 @@
       <c r="W316" s="19">
         <v>1775210.3171187984</v>
       </c>
-      <c r="X316" s="34">
+      <c r="X316" s="19">
         <v>1783734.6554432951</v>
       </c>
-      <c r="Y316" s="34">
-        <v>1804907.0542362379</v>
-      </c>
-      <c r="Z316" s="34">
-        <v>1776758.4153877925</v>
+      <c r="Y316" s="19">
+        <v>1805216.771038763</v>
+      </c>
+      <c r="Z316" s="19">
+        <v>1778234.5329187955</v>
       </c>
     </row>
     <row r="317" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16068,14 +16057,14 @@
       <c r="W317" s="19">
         <v>5551621.8662187792</v>
       </c>
-      <c r="X317" s="34">
+      <c r="X317" s="19">
         <v>5913747.6649654787</v>
       </c>
-      <c r="Y317" s="34">
-        <v>6126102.2786791325</v>
-      </c>
-      <c r="Z317" s="34">
-        <v>6469567.5000389153</v>
+      <c r="Y317" s="19">
+        <v>6128235.4957260517</v>
+      </c>
+      <c r="Z317" s="19">
+        <v>6473862.2736754324</v>
       </c>
     </row>
     <row r="318" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16148,14 +16137,14 @@
       <c r="W318" s="19">
         <v>144498.10094611297</v>
       </c>
-      <c r="X318" s="34">
+      <c r="X318" s="19">
         <v>152183.17583905184</v>
       </c>
-      <c r="Y318" s="34">
-        <v>155154.80491579018</v>
-      </c>
-      <c r="Z318" s="34">
-        <v>157172.94082142363</v>
+      <c r="Y318" s="19">
+        <v>155251.06421158148</v>
+      </c>
+      <c r="Z318" s="19">
+        <v>157093.49212779169</v>
       </c>
     </row>
     <row r="319" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16228,14 +16217,14 @@
       <c r="W319" s="19">
         <v>3556426.2814807137</v>
       </c>
-      <c r="X319" s="34">
+      <c r="X319" s="19">
         <v>3729156.6311298651</v>
       </c>
-      <c r="Y319" s="34">
-        <v>3779244.9273082055</v>
-      </c>
-      <c r="Z319" s="34">
-        <v>3915787.4375607553</v>
+      <c r="Y319" s="19">
+        <v>3780867.9541197675</v>
+      </c>
+      <c r="Z319" s="19">
+        <v>3920747.8123008469</v>
       </c>
     </row>
     <row r="320" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -16308,14 +16297,14 @@
       <c r="W320" s="19">
         <v>615591.38307166984</v>
       </c>
-      <c r="X320" s="34">
+      <c r="X320" s="19">
         <v>647222.00058118661</v>
       </c>
-      <c r="Y320" s="34">
-        <v>684918.4132137897</v>
-      </c>
-      <c r="Z320" s="34">
-        <v>734819.4834286765</v>
+      <c r="Y320" s="19">
+        <v>684752.72877578484</v>
+      </c>
+      <c r="Z320" s="19">
+        <v>734556.85213866213</v>
       </c>
     </row>
     <row r="321" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16388,14 +16377,14 @@
       <c r="W321" s="19">
         <v>1235106.1007202829</v>
       </c>
-      <c r="X321" s="34">
+      <c r="X321" s="19">
         <v>1385185.8574153748</v>
       </c>
-      <c r="Y321" s="34">
-        <v>1506784.133241347</v>
-      </c>
-      <c r="Z321" s="34">
-        <v>1661787.6382280597</v>
+      <c r="Y321" s="19">
+        <v>1507363.7486189185</v>
+      </c>
+      <c r="Z321" s="19">
+        <v>1661464.1171081318</v>
       </c>
     </row>
     <row r="322" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16468,14 +16457,14 @@
       <c r="W322" s="19">
         <v>11213252.036594167</v>
       </c>
-      <c r="X322" s="34">
+      <c r="X322" s="19">
         <v>12248122.370699735</v>
       </c>
-      <c r="Y322" s="34">
-        <v>13120748.909511007</v>
-      </c>
-      <c r="Z322" s="34">
-        <v>13993408.385211866</v>
+      <c r="Y322" s="19">
+        <v>13112940.310321594</v>
+      </c>
+      <c r="Z322" s="19">
+        <v>13992259.830376996</v>
       </c>
     </row>
     <row r="323" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -16548,14 +16537,14 @@
       <c r="W323" s="19">
         <v>3413863.9018391548</v>
       </c>
-      <c r="X323" s="34">
+      <c r="X323" s="19">
         <v>3710784.5345398113</v>
       </c>
-      <c r="Y323" s="34">
-        <v>3913419.823008324</v>
-      </c>
-      <c r="Z323" s="34">
-        <v>4133900.1825048542</v>
+      <c r="Y323" s="19">
+        <v>3914599.666261645</v>
+      </c>
+      <c r="Z323" s="19">
+        <v>4134470.2170929383</v>
       </c>
     </row>
     <row r="324" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16628,14 +16617,14 @@
       <c r="W324" s="19">
         <v>547806.8943569262</v>
       </c>
-      <c r="X324" s="34">
+      <c r="X324" s="19">
         <v>679371.4505441715</v>
       </c>
-      <c r="Y324" s="34">
-        <v>767602.55304972793</v>
-      </c>
-      <c r="Z324" s="34">
-        <v>835169.23450105253</v>
+      <c r="Y324" s="19">
+        <v>767806.39153391437</v>
+      </c>
+      <c r="Z324" s="19">
+        <v>835891.37094878301</v>
       </c>
     </row>
     <row r="325" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16708,14 +16697,14 @@
       <c r="W325" s="19">
         <v>248404.00730113528</v>
       </c>
-      <c r="X325" s="34">
+      <c r="X325" s="19">
         <v>329123.92652837408</v>
       </c>
-      <c r="Y325" s="34">
-        <v>405418.26704823005</v>
-      </c>
-      <c r="Z325" s="34">
-        <v>447001.62442701793</v>
+      <c r="Y325" s="19">
+        <v>404673.6269512155</v>
+      </c>
+      <c r="Z325" s="19">
+        <v>446663.65576604172</v>
       </c>
     </row>
     <row r="326" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16788,14 +16777,14 @@
       <c r="W326" s="19">
         <v>638971.34971836535</v>
       </c>
-      <c r="X326" s="34">
+      <c r="X326" s="19">
         <v>690071.89639740926</v>
       </c>
-      <c r="Y326" s="34">
-        <v>719615.35314185033</v>
-      </c>
-      <c r="Z326" s="34">
-        <v>751674.2651936902</v>
+      <c r="Y326" s="19">
+        <v>718702.50477352284</v>
+      </c>
+      <c r="Z326" s="19">
+        <v>751073.54546915332</v>
       </c>
     </row>
     <row r="327" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16868,14 +16857,14 @@
       <c r="W327" s="19">
         <v>1854248.1201083027</v>
       </c>
-      <c r="X327" s="34">
+      <c r="X327" s="19">
         <v>1987007.5248913108</v>
       </c>
-      <c r="Y327" s="34">
-        <v>2161095.0576006416</v>
-      </c>
-      <c r="Z327" s="34">
-        <v>2355052.3297553388</v>
+      <c r="Y327" s="19">
+        <v>2160827.4177113292</v>
+      </c>
+      <c r="Z327" s="19">
+        <v>2353588.3561875867</v>
       </c>
     </row>
     <row r="328" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -16948,14 +16937,14 @@
       <c r="W328" s="19">
         <v>1054235.2281024854</v>
       </c>
-      <c r="X328" s="34">
+      <c r="X328" s="19">
         <v>1108166.8519775514</v>
       </c>
-      <c r="Y328" s="34">
-        <v>1152506.3830110568</v>
-      </c>
-      <c r="Z328" s="34">
-        <v>1210531.0375849996</v>
+      <c r="Y328" s="19">
+        <v>1151913.85692623</v>
+      </c>
+      <c r="Z328" s="19">
+        <v>1210451.6113743482</v>
       </c>
     </row>
     <row r="329" spans="1:26" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -17028,14 +17017,14 @@
       <c r="W329" s="19">
         <v>1136506.7586497723</v>
       </c>
-      <c r="X329" s="34">
+      <c r="X329" s="19">
         <v>1240352.8065750757</v>
       </c>
-      <c r="Y329" s="34">
-        <v>1323643.1546763808</v>
-      </c>
-      <c r="Z329" s="34">
-        <v>1427743.4137340244</v>
+      <c r="Y329" s="19">
+        <v>1324885.9574571911</v>
+      </c>
+      <c r="Z329" s="19">
+        <v>1429310.0054726002</v>
       </c>
     </row>
     <row r="330" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -17108,14 +17097,14 @@
       <c r="W330" s="19">
         <v>959685.44530862558</v>
       </c>
-      <c r="X330" s="34">
+      <c r="X330" s="19">
         <v>1003397.3027577655</v>
       </c>
-      <c r="Y330" s="34">
-        <v>1024588.1859950579</v>
-      </c>
-      <c r="Z330" s="34">
-        <v>1066782.7101193867</v>
+      <c r="Y330" s="19">
+        <v>1025232.8982083669</v>
+      </c>
+      <c r="Z330" s="19">
+        <v>1068402.9013361617</v>
       </c>
     </row>
     <row r="331" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -17188,14 +17177,14 @@
       <c r="W331" s="19">
         <v>744158.68466356071</v>
       </c>
-      <c r="X331" s="34">
+      <c r="X331" s="19">
         <v>796153.64003592869</v>
       </c>
-      <c r="Y331" s="34">
-        <v>851619.2218099155</v>
-      </c>
-      <c r="Z331" s="34">
-        <v>884685.54936954263</v>
+      <c r="Y331" s="19">
+        <v>844717.69514988584</v>
+      </c>
+      <c r="Z331" s="19">
+        <v>882051.02288188133</v>
       </c>
     </row>
     <row r="332" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -17268,14 +17257,14 @@
       <c r="W332" s="19">
         <v>351472.44293169305</v>
       </c>
-      <c r="X332" s="34">
+      <c r="X332" s="19">
         <v>364222.79238194891</v>
       </c>
-      <c r="Y332" s="34">
-        <v>391151.41161939211</v>
-      </c>
-      <c r="Z332" s="34">
-        <v>433044.10625398211</v>
+      <c r="Y332" s="19">
+        <v>390509.6467165919</v>
+      </c>
+      <c r="Z332" s="19">
+        <v>433180.77630706487</v>
       </c>
     </row>
     <row r="333" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -17348,14 +17337,14 @@
       <c r="W333" s="19">
         <v>263899.20361414546</v>
       </c>
-      <c r="X333" s="34">
+      <c r="X333" s="19">
         <v>339469.64407038735</v>
       </c>
-      <c r="Y333" s="34">
-        <v>410089.49855042988</v>
-      </c>
-      <c r="Z333" s="34">
-        <v>447823.9317679769</v>
+      <c r="Y333" s="19">
+        <v>409070.64863170183</v>
+      </c>
+      <c r="Z333" s="19">
+        <v>447176.36754043569</v>
       </c>
     </row>
     <row r="334" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -17382,9 +17371,9 @@
       <c r="U334" s="19"/>
       <c r="V334" s="19"/>
       <c r="W334" s="19"/>
-      <c r="X334" s="34"/>
-      <c r="Y334" s="34"/>
-      <c r="Z334" s="34"/>
+      <c r="X334" s="19"/>
+      <c r="Y334" s="19"/>
+      <c r="Z334" s="19"/>
     </row>
     <row r="335" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
@@ -17456,14 +17445,14 @@
       <c r="W335" s="19">
         <v>18540084.219931744</v>
       </c>
-      <c r="X335" s="34">
+      <c r="X335" s="19">
         <v>19945604.69110851</v>
       </c>
-      <c r="Y335" s="34">
-        <v>21051758.242426377</v>
-      </c>
-      <c r="Z335" s="34">
-        <v>22239734.300638575</v>
+      <c r="Y335" s="19">
+        <v>21046392.577086408</v>
+      </c>
+      <c r="Z335" s="19">
+        <v>22244356.636971224</v>
       </c>
     </row>
     <row r="336" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -17490,9 +17479,9 @@
       <c r="U336" s="19"/>
       <c r="V336" s="19"/>
       <c r="W336" s="19"/>
-      <c r="X336" s="34"/>
-      <c r="Y336" s="34"/>
-      <c r="Z336" s="34"/>
+      <c r="X336" s="19"/>
+      <c r="Y336" s="19"/>
+      <c r="Z336" s="19"/>
     </row>
     <row r="337" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
@@ -17564,14 +17553,14 @@
       <c r="W337" s="19">
         <v>639322.08928792004</v>
       </c>
-      <c r="X337" s="34">
+      <c r="X337" s="19">
         <v>1130110.6242379025</v>
       </c>
-      <c r="Y337" s="34">
-        <v>2226469.1862269542</v>
-      </c>
-      <c r="Z337" s="34">
-        <v>2807179.1847193055</v>
+      <c r="Y337" s="19">
+        <v>2221265.1887374562</v>
+      </c>
+      <c r="Z337" s="19">
+        <v>2811383.7339642756</v>
       </c>
     </row>
     <row r="338" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -17598,9 +17587,9 @@
       <c r="U338" s="19"/>
       <c r="V338" s="19"/>
       <c r="W338" s="19"/>
-      <c r="X338" s="34"/>
-      <c r="Y338" s="34"/>
-      <c r="Z338" s="34"/>
+      <c r="X338" s="19"/>
+      <c r="Y338" s="19"/>
+      <c r="Z338" s="19"/>
     </row>
     <row r="339" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
@@ -17672,14 +17661,14 @@
       <c r="W339" s="19">
         <v>19179406.309219666</v>
       </c>
-      <c r="X339" s="34">
+      <c r="X339" s="19">
         <v>21075715.315346412</v>
       </c>
-      <c r="Y339" s="34">
-        <v>23278227.42865333</v>
-      </c>
-      <c r="Z339" s="34">
-        <v>25046913.485357881</v>
+      <c r="Y339" s="19">
+        <v>23267657.765823863</v>
+      </c>
+      <c r="Z339" s="19">
+        <v>25055740.3709355</v>
       </c>
     </row>
     <row r="340" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17779,7 +17768,7 @@
       <c r="W352" s="7"/>
       <c r="X352" s="7"/>
       <c r="Y352" s="7"/>
-      <c r="Z352" s="6"/>
+      <c r="Z352" s="7"/>
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
@@ -17930,10 +17919,10 @@
         <v>7.6543502080105981</v>
       </c>
       <c r="X355" s="17">
-        <v>8.6055878027270722</v>
+        <v>8.6248310999405646</v>
       </c>
       <c r="Y355" s="17">
-        <v>5.0547005012453212</v>
+        <v>5.0943457973083923</v>
       </c>
       <c r="Z355" s="17"/>
     </row>
@@ -18008,10 +17997,10 @@
         <v>14.787659207089547</v>
       </c>
       <c r="X356" s="17">
-        <v>6.4660602018097961</v>
+        <v>6.5079304707486898</v>
       </c>
       <c r="Y356" s="17">
-        <v>6.7770192938577907</v>
+        <v>6.829280109983344</v>
       </c>
       <c r="Z356" s="17"/>
     </row>
@@ -18086,10 +18075,10 @@
         <v>51.182934479815287</v>
       </c>
       <c r="X357" s="17">
-        <v>-17.187955527765482</v>
+        <v>-17.155461019224404</v>
       </c>
       <c r="Y357" s="17">
-        <v>1.1203520235926163</v>
+        <v>0.73278224412815973</v>
       </c>
       <c r="Z357" s="17"/>
     </row>
@@ -18164,10 +18153,10 @@
         <v>10.843492332189868</v>
       </c>
       <c r="X358" s="17">
-        <v>3.9166818080934149</v>
+        <v>3.9742294112114678</v>
       </c>
       <c r="Y358" s="17">
-        <v>4.9467262670362118</v>
+        <v>5.0648391237490813</v>
       </c>
       <c r="Z358" s="17"/>
     </row>
@@ -18242,10 +18231,10 @@
         <v>14.615882348428983</v>
       </c>
       <c r="X359" s="17">
-        <v>13.169215019215159</v>
+        <v>13.147192435585353</v>
       </c>
       <c r="Y359" s="17">
-        <v>6.2619216133794566</v>
+        <v>6.2607329833682854</v>
       </c>
       <c r="Z359" s="17"/>
     </row>
@@ -18320,10 +18309,10 @@
         <v>19.886867838084271</v>
       </c>
       <c r="X360" s="17">
-        <v>13.464073399002658</v>
+        <v>13.500246417107803</v>
       </c>
       <c r="Y360" s="17">
-        <v>11.669396253597625</v>
+        <v>11.661080263915878</v>
       </c>
       <c r="Z360" s="17"/>
     </row>
@@ -18398,10 +18387,10 @@
         <v>13.831464849151388</v>
       </c>
       <c r="X361" s="17">
-        <v>12.552963077640584</v>
+        <v>12.492548522477051</v>
       </c>
       <c r="Y361" s="17">
-        <v>10.133017631607146</v>
+        <v>10.20400234643526</v>
       </c>
       <c r="Z361" s="17"/>
     </row>
@@ -18476,10 +18465,10 @@
         <v>13.839099431941065</v>
       </c>
       <c r="X362" s="17">
-        <v>11.447524768062877</v>
+        <v>11.48156951390709</v>
       </c>
       <c r="Y362" s="17">
-        <v>9.7259867924027787</v>
+        <v>9.7038408649414976</v>
       </c>
       <c r="Z362" s="17"/>
     </row>
@@ -18554,10 +18543,10 @@
         <v>33.39697267644371</v>
       </c>
       <c r="X363" s="17">
-        <v>21.066608879316547</v>
+        <v>21.105370715867238</v>
       </c>
       <c r="Y363" s="17">
-        <v>9.9495953143183584</v>
+        <v>10.00492533404072</v>
       </c>
       <c r="Z363" s="17"/>
     </row>
@@ -18632,10 +18621,10 @@
         <v>38.906707784980057</v>
       </c>
       <c r="X364" s="17">
-        <v>29.030291861075625</v>
+        <v>28.793954159676275</v>
       </c>
       <c r="Y364" s="17">
-        <v>14.73556566950495</v>
+        <v>14.846357076878618</v>
       </c>
       <c r="Z364" s="17"/>
     </row>
@@ -18710,10 +18699,10 @@
         <v>8.7476806720131037</v>
       </c>
       <c r="X365" s="17">
-        <v>5.3726581741439219</v>
+        <v>5.2353458900457781</v>
       </c>
       <c r="Y365" s="17">
-        <v>4.9103618814208687</v>
+        <v>4.9643544658837442</v>
       </c>
       <c r="Z365" s="17"/>
     </row>
@@ -18788,10 +18777,10 @@
         <v>13.321783717274457</v>
       </c>
       <c r="X366" s="17">
-        <v>15.314897969566843</v>
+        <v>15.300730010466324</v>
       </c>
       <c r="Y366" s="17">
-        <v>12.618397110924235</v>
+        <v>12.561633614395262</v>
       </c>
       <c r="Z366" s="17"/>
     </row>
@@ -18866,10 +18855,10 @@
         <v>9.448591772494396</v>
       </c>
       <c r="X367" s="17">
-        <v>9.8882363186435214</v>
+        <v>9.829021011963988</v>
       </c>
       <c r="Y367" s="17">
-        <v>8.4576593282331629</v>
+        <v>8.5044673974346239</v>
       </c>
       <c r="Z367" s="17"/>
     </row>
@@ -18944,10 +18933,10 @@
         <v>10.502560593240531</v>
       </c>
       <c r="X368" s="17">
-        <v>10.09779018369143</v>
+        <v>10.20378200963583</v>
       </c>
       <c r="Y368" s="17">
-        <v>10.746453663064699</v>
+        <v>10.828981045856452</v>
       </c>
       <c r="Z368" s="17"/>
     </row>
@@ -19022,10 +19011,10 @@
         <v>9.018879548854585</v>
       </c>
       <c r="X369" s="17">
-        <v>6.1423983199961611</v>
+        <v>6.2091873982641062</v>
       </c>
       <c r="Y369" s="17">
-        <v>7.5667365198190026</v>
+        <v>7.7436373791047544</v>
       </c>
       <c r="Z369" s="17"/>
     </row>
@@ -19100,10 +19089,10 @@
         <v>10.536161971565633</v>
       </c>
       <c r="X370" s="17">
-        <v>10.933146272040602</v>
+        <v>10.127369124640495</v>
       </c>
       <c r="Y370" s="17">
-        <v>8.013121191194287</v>
+        <v>8.6153645824695673</v>
       </c>
       <c r="Z370" s="17"/>
     </row>
@@ -19178,10 +19167,10 @@
         <v>6.6953226851189811</v>
       </c>
       <c r="X371" s="17">
-        <v>11.921894573114969</v>
+        <v>11.739999939102262</v>
       </c>
       <c r="Y371" s="17">
-        <v>14.599829250140033</v>
+        <v>14.870571020423014</v>
       </c>
       <c r="Z371" s="17"/>
     </row>
@@ -19256,10 +19245,10 @@
         <v>30.263065841746851</v>
       </c>
       <c r="X372" s="17">
-        <v>27.202719082941272</v>
+        <v>26.872138828382845</v>
       </c>
       <c r="Y372" s="17">
-        <v>13.430977626914057</v>
+        <v>13.555683439637178</v>
       </c>
       <c r="Z372" s="17"/>
     </row>
@@ -19362,10 +19351,10 @@
         <v>13.485723769004565</v>
       </c>
       <c r="X374" s="17">
-        <v>10.397250453488255</v>
+        <v>10.374333525482541</v>
       </c>
       <c r="Y374" s="17">
-        <v>8.7100774916735162</v>
+        <v>8.772084465490579</v>
       </c>
       <c r="Z374" s="17"/>
     </row>
@@ -19467,10 +19456,10 @@
         <v>87.485798796793659</v>
       </c>
       <c r="X376" s="17">
-        <v>106.33167521820081</v>
+        <v>105.8585890027112</v>
       </c>
       <c r="Y376" s="17">
-        <v>28.834380246753796</v>
+        <v>29.324651243042297</v>
       </c>
       <c r="Z376" s="17"/>
     </row>
@@ -19572,10 +19561,10 @@
         <v>16.027325140298515</v>
       </c>
       <c r="X378" s="17">
-        <v>15.721493214556247</v>
+        <v>15.673592443930758</v>
       </c>
       <c r="Y378" s="17">
-        <v>10.701466432439915</v>
+        <v>10.8020291767358</v>
       </c>
       <c r="Z378" s="17"/>
     </row>
@@ -19676,7 +19665,7 @@
       <c r="W391" s="7"/>
       <c r="X391" s="7"/>
       <c r="Y391" s="7"/>
-      <c r="Z391" s="6"/>
+      <c r="Z391" s="7"/>
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
@@ -19827,10 +19816,10 @@
         <v>0.4801875159407416</v>
       </c>
       <c r="X394" s="17">
-        <v>1.186970199201582</v>
+        <v>1.2043335890746079</v>
       </c>
       <c r="Y394" s="17">
-        <v>-1.5595616839315198</v>
+        <v>-1.494681334277729</v>
       </c>
       <c r="Z394" s="17"/>
     </row>
@@ -19905,10 +19894,10 @@
         <v>6.522882996592557</v>
       </c>
       <c r="X395" s="17">
-        <v>3.5908636239536378</v>
+        <v>3.6269357928687498</v>
       </c>
       <c r="Y395" s="17">
-        <v>5.6065864677962622</v>
+        <v>5.6399069224808187</v>
       </c>
       <c r="Z395" s="17"/>
     </row>
@@ -19983,10 +19972,10 @@
         <v>5.3184608258656851</v>
       </c>
       <c r="X396" s="17">
-        <v>1.9526659634709631</v>
+        <v>2.0159182219815222</v>
       </c>
       <c r="Y396" s="17">
-        <v>1.3007240779483169</v>
+        <v>1.1867409254594747</v>
       </c>
       <c r="Z396" s="17"/>
     </row>
@@ -20061,10 +20050,10 @@
         <v>4.8568516813804194</v>
       </c>
       <c r="X397" s="17">
-        <v>1.3431534562055987</v>
+        <v>1.3866760800078026</v>
       </c>
       <c r="Y397" s="17">
-        <v>3.6129574261227759</v>
+        <v>3.6996758384185711</v>
       </c>
       <c r="Z397" s="17"/>
     </row>
@@ -20139,10 +20128,10 @@
         <v>5.1382489065533719</v>
       </c>
       <c r="X398" s="17">
-        <v>5.8243404270486394</v>
+        <v>5.798741105972411</v>
       </c>
       <c r="Y398" s="17">
-        <v>7.2856955298865103</v>
+        <v>7.2733004586806231</v>
       </c>
       <c r="Z398" s="17"/>
     </row>
@@ -20217,10 +20206,10 @@
         <v>12.151163095022284</v>
       </c>
       <c r="X399" s="17">
-        <v>8.7784808930162654</v>
+        <v>8.8203247636036366</v>
       </c>
       <c r="Y399" s="17">
-        <v>10.287041226885904</v>
+        <v>10.223170660061555</v>
       </c>
       <c r="Z399" s="17"/>
     </row>
@@ -20295,10 +20284,10 @@
         <v>9.2289937899219012</v>
       </c>
       <c r="X400" s="17">
-        <v>7.1245739746917565</v>
+        <v>7.0608205359761627</v>
       </c>
       <c r="Y400" s="17">
-        <v>6.6509883065309054</v>
+        <v>6.705738753064125</v>
       </c>
       <c r="Z400" s="17"/>
     </row>
@@ -20373,10 +20362,10 @@
         <v>8.6974947226424462</v>
       </c>
       <c r="X401" s="17">
-        <v>5.4607128649586798</v>
+        <v>5.492507846379425</v>
       </c>
       <c r="Y401" s="17">
-        <v>5.6339562190657659</v>
+        <v>5.6166803652048571</v>
       </c>
       <c r="Z401" s="17"/>
     </row>
@@ -20451,10 +20440,10 @@
         <v>24.01659371988913</v>
       </c>
       <c r="X402" s="17">
-        <v>12.987166657486711</v>
+        <v>13.017170638964458</v>
       </c>
       <c r="Y402" s="17">
-        <v>8.8023002506802897</v>
+        <v>8.8674671330684305</v>
       </c>
       <c r="Z402" s="17"/>
     </row>
@@ -20529,10 +20518,10 @@
         <v>32.495417487119539</v>
       </c>
       <c r="X403" s="17">
-        <v>23.181037405762268</v>
+        <v>22.954788252481606</v>
       </c>
       <c r="Y403" s="17">
-        <v>10.256902749239202</v>
+        <v>10.376270163977907</v>
       </c>
       <c r="Z403" s="17"/>
     </row>
@@ -20607,10 +20596,10 @@
         <v>7.9973142303746698</v>
       </c>
       <c r="X404" s="17">
-        <v>4.2812143051580165</v>
+        <v>4.1489312237728484</v>
       </c>
       <c r="Y404" s="17">
-        <v>4.4550066798700385</v>
+        <v>4.5040945983388667</v>
       </c>
       <c r="Z404" s="17"/>
     </row>
@@ -20685,10 +20674,10 @@
         <v>7.1597432589147729</v>
       </c>
       <c r="X405" s="17">
-        <v>8.7612920700364896</v>
+        <v>8.747822574528314</v>
       </c>
       <c r="Y405" s="17">
-        <v>8.9749532984466924</v>
+        <v>8.9207003250830041</v>
       </c>
       <c r="Z405" s="17"/>
     </row>
@@ -20763,10 +20752,10 @@
         <v>5.115710653317592</v>
       </c>
       <c r="X406" s="17">
-        <v>4.0011602002334286</v>
+        <v>3.9476911685826934</v>
       </c>
       <c r="Y406" s="17">
-        <v>5.0346493025354562</v>
+        <v>5.0817822961449934</v>
       </c>
       <c r="Z406" s="17"/>
     </row>
@@ -20841,10 +20830,10 @@
         <v>9.1373013961375733</v>
       </c>
       <c r="X407" s="17">
-        <v>6.7150529800702969</v>
+        <v>6.8152505024383032</v>
       </c>
       <c r="Y407" s="17">
-        <v>7.8646770234002616</v>
+        <v>7.8817386075875362</v>
       </c>
       <c r="Z407" s="17"/>
     </row>
@@ -20919,10 +20908,10 @@
         <v>4.5548109188092099</v>
       </c>
       <c r="X408" s="17">
-        <v>2.1119135141235432</v>
+        <v>2.1761664487823396</v>
       </c>
       <c r="Y408" s="17">
-        <v>4.1181935045786418</v>
+        <v>4.2107508648265224</v>
       </c>
       <c r="Z408" s="17"/>
     </row>
@@ -20997,10 +20986,10 @@
         <v>6.9870790254736193</v>
       </c>
       <c r="X409" s="17">
-        <v>6.9666932341706911</v>
+        <v>6.0998345886813468</v>
       </c>
       <c r="Y409" s="17">
-        <v>3.8827596551135173</v>
+        <v>4.4196218389116524</v>
       </c>
       <c r="Z409" s="17"/>
     </row>
@@ -21075,10 +21064,10 @@
         <v>3.6276953447339935</v>
       </c>
       <c r="X410" s="17">
-        <v>7.393447033156562</v>
+        <v>7.2172458408579701</v>
       </c>
       <c r="Y410" s="17">
-        <v>10.71009675285373</v>
+        <v>10.927035977024417</v>
       </c>
       <c r="Z410" s="17"/>
     </row>
@@ -21153,10 +21142,10 @@
         <v>28.636100231183576</v>
       </c>
       <c r="X411" s="17">
-        <v>20.802995411689835</v>
+        <v>20.50286550713885</v>
       </c>
       <c r="Y411" s="17">
-        <v>9.201511706817513</v>
+        <v>9.3151926289978206</v>
       </c>
       <c r="Z411" s="17"/>
     </row>
@@ -21259,10 +21248,10 @@
         <v>7.5809821277173199</v>
       </c>
       <c r="X413" s="17">
-        <v>5.5458511709648945</v>
+        <v>5.5189496785154546</v>
       </c>
       <c r="Y413" s="17">
-        <v>5.6431203728058534</v>
+        <v>5.6920161281656618</v>
       </c>
       <c r="Z413" s="17"/>
     </row>
@@ -21364,10 +21353,10 @@
         <v>76.76702294091308</v>
       </c>
       <c r="X415" s="17">
-        <v>97.013384218769602</v>
+        <v>96.552898547908171</v>
       </c>
       <c r="Y415" s="17">
-        <v>26.082103542445196</v>
+        <v>26.566775917567796</v>
       </c>
       <c r="Z415" s="17"/>
     </row>
@@ -21469,10 +21458,10 @@
         <v>9.8872143149455951</v>
       </c>
       <c r="X417" s="17">
-        <v>10.450473829009937</v>
+        <v>10.400322919912355</v>
       </c>
       <c r="Y417" s="17">
-        <v>7.5980272214690245</v>
+        <v>7.6848414357289414</v>
       </c>
       <c r="Z417" s="17"/>
     </row>
@@ -21824,10 +21813,10 @@
         <v>117.95980155989756</v>
       </c>
       <c r="Y432" s="17">
-        <v>126.60813502257429</v>
+        <v>126.60884239456745</v>
       </c>
       <c r="Z432" s="17">
-        <v>135.114998808845</v>
+        <v>135.07771604460325</v>
       </c>
     </row>
     <row r="433" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21904,10 +21893,10 @@
         <v>108.84697567784151</v>
       </c>
       <c r="Y433" s="17">
-        <v>111.86805727742146</v>
+        <v>111.87309581959686</v>
       </c>
       <c r="Z433" s="17">
-        <v>113.10788568968768</v>
+        <v>113.13264691583522</v>
       </c>
     </row>
     <row r="434" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -21984,10 +21973,10 @@
         <v>184.15266636049074</v>
       </c>
       <c r="Y434" s="17">
-        <v>149.57979423303684</v>
+        <v>149.5457082836725</v>
       </c>
       <c r="Z434" s="17">
-        <v>149.31345837984827</v>
+        <v>148.87479456602225</v>
       </c>
     </row>
     <row r="435" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22064,10 +22053,10 @@
         <v>101.77462852276398</v>
       </c>
       <c r="Y435" s="17">
-        <v>104.359113838976</v>
+        <v>104.37208303304182</v>
       </c>
       <c r="Z435" s="17">
-        <v>105.70248765786357</v>
+        <v>105.74609828061301</v>
       </c>
     </row>
     <row r="436" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -22144,10 +22133,10 @@
         <v>115.27793703082392</v>
       </c>
       <c r="Y436" s="17">
-        <v>123.27895066642273</v>
+        <v>123.28478381173873</v>
       </c>
       <c r="Z436" s="17">
-        <v>122.10256108789326</v>
+        <v>122.1210817371786</v>
       </c>
     </row>
     <row r="437" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22224,10 +22213,10 @@
         <v>116.60865718366809</v>
       </c>
       <c r="Y437" s="17">
-        <v>121.63153161386259</v>
+        <v>121.62352348668077</v>
       </c>
       <c r="Z437" s="17">
-        <v>123.15608025767987</v>
+        <v>123.2101556932198</v>
       </c>
     </row>
     <row r="438" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -22304,10 +22293,10 @@
         <v>110.11688638473176</v>
       </c>
       <c r="Y438" s="17">
-        <v>115.69690676588868</v>
+        <v>115.70366379375876</v>
       </c>
       <c r="Z438" s="17">
-        <v>119.47427468883333</v>
+        <v>119.4969172719625</v>
       </c>
     </row>
     <row r="439" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -22384,10 +22373,10 @@
         <v>107.45840049720294</v>
       </c>
       <c r="Y439" s="17">
-        <v>113.55861747571865</v>
+        <v>113.55907058657857</v>
       </c>
       <c r="Z439" s="17">
-        <v>117.95763225476233</v>
+        <v>117.95358616956575</v>
       </c>
     </row>
     <row r="440" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22464,10 +22453,10 @@
         <v>118.83384795448907</v>
       </c>
       <c r="Y440" s="17">
-        <v>127.33137238092702</v>
+        <v>127.33832504173247</v>
       </c>
       <c r="Z440" s="17">
-        <v>128.67405221988551</v>
+        <v>128.6687686162096</v>
       </c>
     </row>
     <row r="441" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22544,10 +22533,10 @@
         <v>120.36314155087599</v>
       </c>
       <c r="Y441" s="17">
-        <v>126.07858815531445</v>
+        <v>126.07922924957964</v>
       </c>
       <c r="Z441" s="17">
-        <v>131.1999318873699</v>
+        <v>131.18526437669416</v>
       </c>
     </row>
     <row r="442" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22624,10 +22613,10 @@
         <v>100.86219370028056</v>
       </c>
       <c r="Y442" s="17">
-        <v>101.91785289700314</v>
+        <v>101.91432323460106</v>
       </c>
       <c r="Z442" s="17">
-        <v>102.36214777498608</v>
+        <v>102.3631771583939</v>
       </c>
     </row>
     <row r="443" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22704,10 +22693,10 @@
         <v>111.96106482856804</v>
       </c>
       <c r="Y443" s="17">
-        <v>118.70747875040439</v>
+        <v>118.70759525907717</v>
       </c>
       <c r="Z443" s="17">
-        <v>122.67631760609522</v>
+        <v>122.67567877289063</v>
       </c>
     </row>
     <row r="444" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22784,10 +22773,10 @@
         <v>112.51567733010819</v>
       </c>
       <c r="Y444" s="17">
-        <v>118.88472509535927</v>
+        <v>118.88178131462681</v>
       </c>
       <c r="Z444" s="17">
-        <v>122.75909996694662</v>
+        <v>122.75395490008825</v>
       </c>
     </row>
     <row r="445" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -22864,10 +22853,10 @@
         <v>108.91106381715841</v>
       </c>
       <c r="Y445" s="17">
-        <v>112.36341188963759</v>
+        <v>112.36608142457784</v>
       </c>
       <c r="Z445" s="17">
-        <v>115.36537939625984</v>
+        <v>115.43583250637219</v>
       </c>
     </row>
     <row r="446" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -22944,10 +22933,10 @@
         <v>111.59188992398808</v>
       </c>
       <c r="Y446" s="17">
-        <v>115.99656124311906</v>
+        <v>115.99656124311907</v>
       </c>
       <c r="Z446" s="17">
-        <v>119.83853273342606</v>
+        <v>119.92900279562286</v>
       </c>
     </row>
     <row r="447" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23024,10 +23013,10 @@
         <v>110.58039155079607</v>
       </c>
       <c r="Y447" s="17">
-        <v>114.68084484830328</v>
+        <v>114.77800738777898</v>
       </c>
       <c r="Z447" s="17">
-        <v>119.24053648586907</v>
+        <v>119.38996616656334</v>
       </c>
     </row>
     <row r="448" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23104,10 +23093,10 @@
         <v>113.00137475625782</v>
       </c>
       <c r="Y448" s="17">
-        <v>117.76629116097016</v>
+        <v>117.768121250984</v>
       </c>
       <c r="Z448" s="17">
-        <v>121.90393879428684</v>
+        <v>121.95486174267675</v>
       </c>
     </row>
     <row r="449" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23184,10 +23173,10 @@
         <v>107.85007142551797</v>
       </c>
       <c r="Y449" s="17">
-        <v>113.56359411339376</v>
+        <v>113.55057140727247</v>
       </c>
       <c r="Z449" s="17">
-        <v>117.9620071349627</v>
+        <v>117.95535854632617</v>
       </c>
     </row>
     <row r="450" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23292,10 +23281,10 @@
         <v>110.44175736359696</v>
       </c>
       <c r="Y451" s="17">
-        <v>115.51819624290907</v>
+        <v>115.52366091142055</v>
       </c>
       <c r="Z451" s="17">
-        <v>118.87183965173382</v>
+        <v>118.89024225994595</v>
       </c>
     </row>
     <row r="452" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23400,10 +23389,10 @@
         <v>114.53557606965646</v>
       </c>
       <c r="Y453" s="17">
-        <v>119.95285181382323</v>
+        <v>119.95820084314448</v>
       </c>
       <c r="Z453" s="17">
-        <v>122.57133160109474</v>
+        <v>122.57207608643179</v>
       </c>
     </row>
     <row r="454" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -23508,10 +23497,10 @@
         <v>110.66127389929686</v>
       </c>
       <c r="Y455" s="17">
-        <v>115.94235328022783</v>
+        <v>115.94700774235396</v>
       </c>
       <c r="Z455" s="17">
-        <v>119.28646705883345</v>
+        <v>119.30336306889832</v>
       </c>
     </row>
     <row r="456" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23792,10 +23781,10 @@
         <v>9.5517680442350059</v>
       </c>
       <c r="Y471" s="17">
-        <v>9.3967501793580155</v>
+        <v>9.4003665287935068</v>
       </c>
       <c r="Z471" s="17">
-        <v>9.0807843997083957</v>
+        <v>9.0825267848195104</v>
       </c>
     </row>
     <row r="472" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -23872,10 +23861,10 @@
         <v>29.221239936645727</v>
       </c>
       <c r="Y472" s="17">
-        <v>28.180686362086394</v>
+        <v>28.197622509066207</v>
       </c>
       <c r="Z472" s="17">
-        <v>27.679583722393424</v>
+        <v>27.693977993152352</v>
       </c>
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.2">
@@ -23952,10 +23941,10 @@
         <v>1.2722256238479055</v>
       </c>
       <c r="Y473" s="17">
-        <v>0.95433178369960137</v>
+        <v>0.95490447752398855</v>
       </c>
       <c r="Z473" s="17">
-        <v>0.88770395663086699</v>
+        <v>0.88432786105965056</v>
       </c>
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.2">
@@ -24032,10 +24021,10 @@
         <v>17.229379413025146</v>
       </c>
       <c r="Y474" s="17">
-        <v>16.217975817872169</v>
+        <v>16.23032629491793</v>
       </c>
       <c r="Z474" s="17">
-        <v>15.656538087685634</v>
+        <v>15.677153099355341</v>
       </c>
     </row>
     <row r="475" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
@@ -24112,10 +24101,10 @@
         <v>3.387029283830937</v>
       </c>
       <c r="Y475" s="17">
-        <v>3.4720742022441389</v>
+        <v>3.4721193045673377</v>
       </c>
       <c r="Z475" s="17">
-        <v>3.3938829336494845</v>
+        <v>3.3919543246970019</v>
       </c>
     </row>
     <row r="476" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24192,10 +24181,10 @@
         <v>7.3326056159417341</v>
       </c>
       <c r="Y476" s="17">
-        <v>7.5363045582704871</v>
+        <v>7.5402724320569519</v>
       </c>
       <c r="Z476" s="17">
-        <v>7.741458744427443</v>
+        <v>7.740542708040361</v>
       </c>
     </row>
     <row r="477" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24272,10 +24261,10 @@
         <v>61.226992019119251</v>
       </c>
       <c r="Y477" s="17">
-        <v>62.42256345855558</v>
+        <v>62.402010962140274</v>
       </c>
       <c r="Z477" s="17">
-        <v>63.239631877898169</v>
+        <v>63.223495222028149</v>
       </c>
     </row>
     <row r="478" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -24352,10 +24341,10 @@
         <v>18.101959706659095</v>
       </c>
       <c r="Y478" s="17">
-        <v>18.274174351908606</v>
+        <v>18.283552116851055</v>
       </c>
       <c r="Z478" s="17">
-        <v>18.444948801854828</v>
+        <v>18.440171499234733</v>
       </c>
     </row>
     <row r="479" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24432,10 +24421,10 @@
         <v>3.6649405709778011</v>
       </c>
       <c r="Y479" s="17">
-        <v>4.0191392887945678</v>
+        <v>4.0212608522561704</v>
       </c>
       <c r="Z479" s="17">
-        <v>4.0649657190124522</v>
+        <v>4.0668384905456616</v>
       </c>
     </row>
     <row r="480" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24512,10 +24501,10 @@
         <v>1.7983426914250169</v>
       </c>
       <c r="Y480" s="17">
-        <v>2.1018701225585672</v>
+        <v>2.0984558525946482</v>
       </c>
       <c r="Z480" s="17">
-        <v>2.2183707623063755</v>
+        <v>2.2156421046947141</v>
       </c>
     </row>
     <row r="481" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24592,10 +24581,10 @@
         <v>3.1596736946037804</v>
       </c>
       <c r="Y481" s="17">
-        <v>3.0158651125427411</v>
+        <v>3.0125604706327853</v>
       </c>
       <c r="Z481" s="17">
-        <v>2.9104523485106046</v>
+        <v>2.9071012718316678</v>
       </c>
     </row>
     <row r="482" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24672,10 +24661,10 @@
         <v>10.099177752228901</v>
       </c>
       <c r="Y482" s="17">
-        <v>10.549045807671177</v>
+        <v>10.549939738196592</v>
       </c>
       <c r="Z482" s="17">
-        <v>10.928302668173862</v>
+        <v>10.917492822725029</v>
       </c>
     </row>
     <row r="483" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24752,10 +24741,10 @@
         <v>5.6602769110846403</v>
       </c>
       <c r="Y483" s="17">
-        <v>5.6341787886853778</v>
+        <v>5.6323118966559731</v>
       </c>
       <c r="Z483" s="17">
-        <v>5.6210965694914536</v>
+        <v>5.6184544551665807</v>
       </c>
     </row>
     <row r="484" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24832,10 +24821,10 @@
         <v>6.1324881530454993</v>
       </c>
       <c r="Y484" s="17">
-        <v>6.1158533496487397</v>
+        <v>6.1230121714743628</v>
       </c>
       <c r="Z484" s="17">
-        <v>6.2304165834933798</v>
+        <v>6.2387992583812073</v>
       </c>
     </row>
     <row r="485" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -24912,10 +24901,10 @@
         <v>5.0830577773333125</v>
       </c>
       <c r="Y485" s="17">
-        <v>4.8871501877900192</v>
+        <v>4.8912407331035554</v>
       </c>
       <c r="Z485" s="17">
-        <v>4.8357503619943394</v>
+        <v>4.8449937359489867</v>
       </c>
     </row>
     <row r="486" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -24992,10 +24981,10 @@
         <v>3.9966350476213228</v>
       </c>
       <c r="Y486" s="17">
-        <v>4.016035712053653</v>
+        <v>3.987692510453547</v>
       </c>
       <c r="Z486" s="17">
-        <v>3.9902883162551377</v>
+        <v>3.9819470040873406</v>
       </c>
     </row>
     <row r="487" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25072,10 +25061,10 @@
         <v>1.8684020313639444</v>
       </c>
       <c r="Y487" s="17">
-        <v>1.8942056465673669</v>
+        <v>1.8915198506963122</v>
       </c>
       <c r="Z487" s="17">
-        <v>1.9968309164152505</v>
+        <v>1.9975710350102345</v>
       </c>
     </row>
     <row r="488" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25152,10 +25141,10 @@
         <v>1.662037682775946</v>
       </c>
       <c r="Y488" s="17">
-        <v>1.9150450903347767</v>
+        <v>1.9104647692252663</v>
       </c>
       <c r="Z488" s="17">
-        <v>1.9982088303904826</v>
+        <v>1.9944835444019857</v>
       </c>
     </row>
     <row r="489" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25340,10 +25329,10 @@
         <v>94.450122806149963</v>
       </c>
       <c r="Y491" s="17">
-        <v>90.104556838553435</v>
+        <v>90.123157203593536</v>
       </c>
       <c r="Z491" s="17">
-        <v>88.483682031890794</v>
+        <v>88.472059045144206</v>
       </c>
     </row>
     <row r="492" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25420,10 +25409,10 @@
         <v>5.5498771938500324</v>
       </c>
       <c r="Y492" s="17">
-        <v>9.8954431614465559</v>
+        <v>9.8768427964064571</v>
       </c>
       <c r="Z492" s="17">
-        <v>11.516317968109199</v>
+        <v>11.527940954855797</v>
       </c>
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.2">
@@ -25786,10 +25775,10 @@
         <v>8.9429961290592548</v>
       </c>
       <c r="Y510" s="17">
-        <v>8.5736641730890817</v>
+        <v>8.5773215738840456</v>
       </c>
       <c r="Z510" s="17">
-        <v>7.9891170972162922</v>
+        <v>7.9940928925913797</v>
       </c>
     </row>
     <row r="511" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -25866,10 +25855,10 @@
         <v>29.64937767768831</v>
       </c>
       <c r="Y511" s="17">
-        <v>29.100193001138379</v>
+        <v>29.117747724605188</v>
       </c>
       <c r="Z511" s="17">
-        <v>29.090129461902574</v>
+        <v>29.103391836990927</v>
       </c>
     </row>
     <row r="512" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -25946,10 +25935,10 @@
         <v>0.76299103584908157</v>
       </c>
       <c r="Y512" s="17">
-        <v>0.73701589733773898</v>
+        <v>0.73766116279996674</v>
       </c>
       <c r="Z512" s="17">
-        <v>0.70672130654416443</v>
+        <v>0.70621728778927462</v>
       </c>
     </row>
     <row r="513" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26026,10 +26015,10 @@
         <v>18.696633613681687</v>
       </c>
       <c r="Y513" s="17">
-        <v>17.952158122791641</v>
+        <v>17.964446592315625</v>
       </c>
       <c r="Z513" s="17">
-        <v>17.607168254021456</v>
+        <v>17.625808991860747</v>
       </c>
     </row>
     <row r="514" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -26106,10 +26095,10 @@
         <v>3.2449354662569334</v>
       </c>
       <c r="Y514" s="17">
-        <v>3.2534974291764787</v>
+        <v>3.2535396565836545</v>
       </c>
       <c r="Z514" s="17">
-        <v>3.3040839134826236</v>
+        <v>3.3022166661264194</v>
       </c>
     </row>
     <row r="515" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26186,10 +26175,10 @@
         <v>6.9448175619006056</v>
       </c>
       <c r="Y515" s="17">
-        <v>7.157521551832521</v>
+        <v>7.1621003129059417</v>
       </c>
       <c r="Z515" s="17">
-        <v>7.472155987854336</v>
+        <v>7.469148891214485</v>
       </c>
     </row>
     <row r="516" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -26266,10 +26255,10 @@
         <v>61.407626193252426</v>
       </c>
       <c r="Y516" s="17">
-        <v>62.326142825772543</v>
+        <v>62.304930701510777</v>
       </c>
       <c r="Z516" s="17">
-        <v>62.920753440881128</v>
+        <v>62.902515270417695</v>
       </c>
     </row>
     <row r="517" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -26346,10 +26335,10 @@
         <v>18.604522610407649</v>
       </c>
       <c r="Y517" s="17">
-        <v>18.589515317164654</v>
+        <v>18.599860531555137</v>
       </c>
       <c r="Z517" s="17">
-        <v>18.587902744801031</v>
+        <v>18.586602816020509</v>
       </c>
     </row>
     <row r="518" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26426,10 +26415,10 @@
         <v>3.4061211031973695</v>
       </c>
       <c r="Y518" s="17">
-        <v>3.6462633866977936</v>
+        <v>3.6481615018900642</v>
       </c>
       <c r="Z518" s="17">
-        <v>3.7553022136468246</v>
+        <v>3.7577682492263684</v>
       </c>
     </row>
     <row r="519" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26506,10 +26495,10 @@
         <v>1.6501075381038373</v>
       </c>
       <c r="Y519" s="17">
-        <v>1.9258166580650531</v>
+        <v>1.9227695457500451</v>
       </c>
       <c r="Z519" s="17">
-        <v>2.0099234027907564</v>
+        <v>2.0079863987779469</v>
       </c>
     </row>
     <row r="520" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26586,10 +26575,10 @@
         <v>3.4597692428198696</v>
       </c>
       <c r="Y520" s="17">
-        <v>3.4183147310307942</v>
+        <v>3.4148488969838344</v>
       </c>
       <c r="Z520" s="17">
-        <v>3.3798707081320982</v>
+        <v>3.3764678283427259</v>
       </c>
     </row>
     <row r="521" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26666,10 +26655,10 @@
         <v>9.962132287606666</v>
       </c>
       <c r="Y521" s="17">
-        <v>10.265627377599786</v>
+        <v>10.266972878116231</v>
       </c>
       <c r="Z521" s="17">
-        <v>10.589390583176696</v>
+        <v>10.580608801586134</v>
       </c>
     </row>
     <row r="522" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26746,10 +26735,10 @@
         <v>5.5559451274573668</v>
       </c>
       <c r="Y522" s="17">
-        <v>5.4746324261332653</v>
+        <v>5.4732128211859905</v>
       </c>
       <c r="Z522" s="17">
-        <v>5.4431002691891033</v>
+        <v>5.4416121406834375</v>
       </c>
     </row>
     <row r="523" spans="1:26" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26826,10 +26815,10 @@
         <v>6.2186773767155268</v>
       </c>
       <c r="Y523" s="17">
-        <v>6.2875658148533855</v>
+        <v>6.2950738593540194</v>
       </c>
       <c r="Z523" s="17">
-        <v>6.4197862907608076</v>
+        <v>6.4254949189989876</v>
       </c>
     </row>
     <row r="524" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -26906,10 +26895,10 @@
         <v>5.0306687528258642</v>
       </c>
       <c r="Y524" s="17">
-        <v>4.8669957834218707</v>
+        <v>4.871299888820646</v>
       </c>
       <c r="Z524" s="17">
-        <v>4.7967421539238257</v>
+        <v>4.8030290053901723</v>
       </c>
     </row>
     <row r="525" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -26986,10 +26975,10 @@
         <v>3.9916244825149052</v>
       </c>
       <c r="Y525" s="17">
-        <v>4.0453591191904161</v>
+        <v>4.0135984922639212</v>
       </c>
       <c r="Z525" s="17">
-        <v>3.9779501742704739</v>
+        <v>3.9652799911320828</v>
       </c>
     </row>
     <row r="526" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -27066,10 +27055,10 @@
         <v>1.8260804724778021</v>
       </c>
       <c r="Y526" s="17">
-        <v>1.8580462834267706</v>
+        <v>1.8554706954470996</v>
       </c>
       <c r="Z526" s="17">
-        <v>1.9471640281311635</v>
+        <v>1.9473738142963277</v>
       </c>
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.2">
@@ -27146,10 +27135,10 @@
         <v>1.7019771991255723</v>
       </c>
       <c r="Y527" s="17">
-        <v>1.9480059281887512</v>
+        <v>1.9436615901437879</v>
       </c>
       <c r="Z527" s="17">
-        <v>2.0136208720583428</v>
+        <v>2.0102913059629981</v>
       </c>
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.2">
@@ -27334,10 +27323,10 @@
         <v>94.637854007189944</v>
       </c>
       <c r="Y530" s="17">
-        <v>90.435400663340999</v>
+        <v>90.453421607394844</v>
       </c>
       <c r="Z530" s="17">
-        <v>88.792314923911292</v>
+        <v>88.779482496452331</v>
       </c>
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.2">
@@ -27414,10 +27403,10 @@
         <v>5.3621459928100537</v>
       </c>
       <c r="Y531" s="17">
-        <v>9.5645993366590183</v>
+        <v>9.5465783926051557</v>
       </c>
       <c r="Z531" s="17">
-        <v>11.20768507608871</v>
+        <v>11.220517503547661</v>
       </c>
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.2">
@@ -27931,14 +27920,14 @@
       <c r="W549" s="26">
         <v>1117657.8504454875</v>
       </c>
-      <c r="X549" s="34">
+      <c r="X549" s="26">
         <v>1733060.4721519602</v>
       </c>
-      <c r="Y549" s="34">
-        <v>3357316.1796637094</v>
-      </c>
-      <c r="Z549" s="34">
-        <v>4198419.9929762008</v>
+      <c r="Y549" s="26">
+        <v>3346292.5779508958</v>
+      </c>
+      <c r="Z549" s="26">
+        <v>4196134.0389063889</v>
       </c>
     </row>
     <row r="550" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -28011,13 +28000,13 @@
       <c r="W550" s="28">
         <v>941740.52341519285</v>
       </c>
-      <c r="X550" s="34">
+      <c r="X550" s="28">
         <v>1469235.1306790612</v>
       </c>
-      <c r="Y550" s="34">
+      <c r="Y550" s="28">
         <v>2879901.4275458022</v>
       </c>
-      <c r="Z550" s="34">
+      <c r="Z550" s="28">
         <v>3659967.0427601235</v>
       </c>
     </row>
@@ -28091,14 +28080,14 @@
       <c r="W551" s="28">
         <v>175917.32703029475</v>
       </c>
-      <c r="X551" s="34">
+      <c r="X551" s="28">
         <v>263825.34147289896</v>
       </c>
-      <c r="Y551" s="34">
-        <v>477414.75211790728</v>
-      </c>
-      <c r="Z551" s="34">
-        <v>538452.95021607762</v>
+      <c r="Y551" s="28">
+        <v>466391.15040509333</v>
+      </c>
+      <c r="Z551" s="28">
+        <v>536166.99614626518</v>
       </c>
     </row>
     <row r="552" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -28125,9 +28114,9 @@
       <c r="U552" s="29"/>
       <c r="V552" s="29"/>
       <c r="W552" s="29"/>
-      <c r="X552" s="34"/>
-      <c r="Y552" s="34"/>
-      <c r="Z552" s="34"/>
+      <c r="X552" s="29"/>
+      <c r="Y552" s="29"/>
+      <c r="Z552" s="29"/>
     </row>
     <row r="553" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
@@ -28199,14 +28188,14 @@
       <c r="W553" s="26">
         <v>427270.24668986473</v>
       </c>
-      <c r="X553" s="34">
+      <c r="X553" s="26">
         <v>438681.75845668814</v>
       </c>
-      <c r="Y553" s="34">
-        <v>686602.89602845511</v>
-      </c>
-      <c r="Z553" s="34">
-        <v>757623.08583699306</v>
+      <c r="Y553" s="26">
+        <v>681702.8215863657</v>
+      </c>
+      <c r="Z553" s="26">
+        <v>750162.62943013012</v>
       </c>
     </row>
     <row r="554" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -28279,13 +28268,13 @@
       <c r="W554" s="28">
         <v>42603.696845826271</v>
       </c>
-      <c r="X554" s="34">
+      <c r="X554" s="28">
         <v>21367.805939945876</v>
       </c>
-      <c r="Y554" s="34">
+      <c r="Y554" s="28">
         <v>60302.490021112048</v>
       </c>
-      <c r="Z554" s="34">
+      <c r="Z554" s="28">
         <v>53567.0472724836</v>
       </c>
     </row>
@@ -28359,14 +28348,14 @@
       <c r="W555" s="28">
         <v>384666.54984403844</v>
       </c>
-      <c r="X555" s="34">
+      <c r="X555" s="28">
         <v>417313.95251674228</v>
       </c>
-      <c r="Y555" s="34">
-        <v>626300.40600734309</v>
-      </c>
-      <c r="Z555" s="34">
-        <v>704056.03856450948</v>
+      <c r="Y555" s="28">
+        <v>621400.33156525367</v>
+      </c>
+      <c r="Z555" s="28">
+        <v>696595.58215764654</v>
       </c>
     </row>
     <row r="556" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -28393,9 +28382,9 @@
       <c r="U556" s="29"/>
       <c r="V556" s="29"/>
       <c r="W556" s="29"/>
-      <c r="X556" s="34"/>
-      <c r="Y556" s="34"/>
-      <c r="Z556" s="34"/>
+      <c r="X556" s="29"/>
+      <c r="Y556" s="29"/>
+      <c r="Z556" s="29"/>
     </row>
     <row r="557" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="30" t="s">
@@ -28467,14 +28456,14 @@
       <c r="W557" s="29">
         <v>690387.60375562287</v>
       </c>
-      <c r="X557" s="34">
+      <c r="X557" s="29">
         <v>1294378.7136952721</v>
       </c>
-      <c r="Y557" s="34">
-        <v>2670713.283635254</v>
-      </c>
-      <c r="Z557" s="34">
-        <v>3440796.9071392077</v>
+      <c r="Y557" s="29">
+        <v>2664589.75636453</v>
+      </c>
+      <c r="Z557" s="29">
+        <v>3445971.4094762588</v>
       </c>
     </row>
     <row r="558" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29033,14 +29022,14 @@
       <c r="W573" s="26">
         <v>1037503.8392732077</v>
       </c>
-      <c r="X573" s="34">
+      <c r="X573" s="26">
         <v>1516163.6214434525</v>
       </c>
-      <c r="Y573" s="34">
-        <v>2803186.7427657847</v>
-      </c>
-      <c r="Z573" s="34">
-        <v>3422742.6642764611</v>
+      <c r="Y573" s="26">
+        <v>2793911.957433078</v>
+      </c>
+      <c r="Z573" s="26">
+        <v>3420902.8854596354</v>
       </c>
     </row>
     <row r="574" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -29113,13 +29102,13 @@
       <c r="W574" s="28">
         <v>873983.91027083388</v>
       </c>
-      <c r="X574" s="34">
+      <c r="X574" s="28">
         <v>1286208.8336921311</v>
       </c>
-      <c r="Y574" s="34">
-        <v>2403240.8531802315</v>
-      </c>
-      <c r="Z574" s="34">
+      <c r="Y574" s="28">
+        <v>2403093.7282977123</v>
+      </c>
+      <c r="Z574" s="28">
         <v>2982604.5405376302</v>
       </c>
     </row>
@@ -29193,14 +29182,14 @@
       <c r="W575" s="28">
         <v>163519.9290023738</v>
       </c>
-      <c r="X575" s="34">
+      <c r="X575" s="28">
         <v>229954.78775132151</v>
       </c>
-      <c r="Y575" s="34">
-        <v>399945.88958555309</v>
-      </c>
-      <c r="Z575" s="34">
-        <v>440138.12373883068</v>
+      <c r="Y575" s="28">
+        <v>390818.22913536581</v>
+      </c>
+      <c r="Z575" s="28">
+        <v>438298.3449220052</v>
       </c>
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.2">
@@ -29227,9 +29216,9 @@
       <c r="U576" s="29"/>
       <c r="V576" s="29"/>
       <c r="W576" s="29"/>
-      <c r="X576" s="34"/>
-      <c r="Y576" s="34"/>
-      <c r="Z576" s="34"/>
+      <c r="X576" s="29"/>
+      <c r="Y576" s="29"/>
+      <c r="Z576" s="29"/>
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
@@ -29301,14 +29290,14 @@
       <c r="W577" s="26">
         <v>398181.74998528766</v>
       </c>
-      <c r="X577" s="34">
+      <c r="X577" s="26">
         <v>386052.99720555008</v>
       </c>
-      <c r="Y577" s="34">
-        <v>576717.55653883051</v>
-      </c>
-      <c r="Z577" s="34">
-        <v>615563.4795571554</v>
+      <c r="Y577" s="26">
+        <v>572646.76869562163</v>
+      </c>
+      <c r="Z577" s="26">
+        <v>609519.15149536007</v>
       </c>
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.2">
@@ -29381,13 +29370,13 @@
       <c r="W578" s="28">
         <v>39656.234020403877</v>
       </c>
-      <c r="X578" s="34">
+      <c r="X578" s="28">
         <v>18688.512015532004</v>
       </c>
-      <c r="Y578" s="34">
-        <v>50492.283354382598</v>
-      </c>
-      <c r="Z578" s="34">
+      <c r="Y578" s="28">
+        <v>50489.246309532267</v>
+      </c>
+      <c r="Z578" s="28">
         <v>43408.874985549613</v>
       </c>
     </row>
@@ -29461,14 +29450,14 @@
       <c r="W579" s="28">
         <v>358525.51596488379</v>
       </c>
-      <c r="X579" s="34">
+      <c r="X579" s="28">
         <v>367364.48519001808</v>
       </c>
-      <c r="Y579" s="34">
-        <v>526225.2731844479</v>
-      </c>
-      <c r="Z579" s="34">
-        <v>572154.6045716058</v>
+      <c r="Y579" s="28">
+        <v>522157.52238608932</v>
+      </c>
+      <c r="Z579" s="28">
+        <v>566110.27650981047</v>
       </c>
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.2">
@@ -29495,9 +29484,9 @@
       <c r="U580" s="29"/>
       <c r="V580" s="29"/>
       <c r="W580" s="29"/>
-      <c r="X580" s="34"/>
-      <c r="Y580" s="34"/>
-      <c r="Z580" s="34"/>
+      <c r="X580" s="29"/>
+      <c r="Y580" s="29"/>
+      <c r="Z580" s="29"/>
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="30" t="s">
@@ -29569,14 +29558,14 @@
       <c r="W581" s="29">
         <v>639322.08928792004</v>
       </c>
-      <c r="X581" s="34">
+      <c r="X581" s="29">
         <v>1130110.6242379025</v>
       </c>
-      <c r="Y581" s="34">
-        <v>2226469.1862269542</v>
-      </c>
-      <c r="Z581" s="34">
-        <v>2807179.1847193055</v>
+      <c r="Y581" s="29">
+        <v>2221265.1887374562</v>
+      </c>
+      <c r="Z581" s="29">
+        <v>2811383.7339642756</v>
       </c>
     </row>
     <row r="582" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29682,7 +29671,7 @@
       <c r="W594" s="7"/>
       <c r="X594" s="7"/>
       <c r="Y594" s="7"/>
-      <c r="Z594" s="6"/>
+      <c r="Z594" s="7"/>
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="24"/>
@@ -29834,10 +29823,10 @@
         <v>55.061808178699692</v>
       </c>
       <c r="X597" s="17">
-        <v>93.721813728455373</v>
+        <v>93.085736575352598</v>
       </c>
       <c r="Y597" s="17">
-        <v>25.052862712404462</v>
+        <v>25.396507960935509</v>
       </c>
       <c r="Z597" s="17"/>
     </row>
@@ -29990,10 +29979,10 @@
         <v>49.97120859360578</v>
       </c>
       <c r="X599" s="17">
-        <v>80.958640838885827</v>
+        <v>76.780269780491352</v>
       </c>
       <c r="Y599" s="17">
-        <v>12.785151239544376</v>
+        <v>14.960799680818695</v>
       </c>
       <c r="Z599" s="17"/>
     </row>
@@ -30020,9 +30009,9 @@
       <c r="T600" s="29"/>
       <c r="V600" s="29"/>
       <c r="W600" s="29"/>
-      <c r="X600" s="17"/>
-      <c r="Y600" s="17"/>
-      <c r="Z600" s="17"/>
+      <c r="X600" s="29"/>
+      <c r="Y600" s="29"/>
+      <c r="Z600" s="29"/>
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
@@ -30095,10 +30084,10 @@
         <v>2.6707948553006844</v>
       </c>
       <c r="X601" s="17">
-        <v>56.515032319549874</v>
+        <v>55.398032501885183</v>
       </c>
       <c r="Y601" s="17">
-        <v>10.343706707231064</v>
+        <v>10.042470953025258</v>
       </c>
       <c r="Z601" s="17"/>
     </row>
@@ -30251,10 +30240,10 @@
         <v>8.4871956467076757</v>
       </c>
       <c r="X603" s="17">
-        <v>50.078951885083796</v>
+        <v>48.904758112616349</v>
       </c>
       <c r="Y603" s="17">
-        <v>12.415069798989521</v>
+        <v>12.10093506113563</v>
       </c>
       <c r="Z603" s="17"/>
     </row>
@@ -30281,9 +30270,9 @@
       <c r="T604" s="29"/>
       <c r="V604" s="29"/>
       <c r="W604" s="29"/>
-      <c r="X604" s="17"/>
-      <c r="Y604" s="17"/>
-      <c r="Z604" s="17"/>
+      <c r="X604" s="29"/>
+      <c r="Y604" s="29"/>
+      <c r="Z604" s="29"/>
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="30" t="s">
@@ -30356,10 +30345,10 @@
         <v>87.485798796793659</v>
       </c>
       <c r="X605" s="17">
-        <v>106.33167521820081</v>
+        <v>105.8585890027112</v>
       </c>
       <c r="Y605" s="17">
-        <v>28.834380246753796</v>
+        <v>29.324651243042297</v>
       </c>
       <c r="Z605" s="17"/>
     </row>
@@ -30466,7 +30455,7 @@
       <c r="W618" s="7"/>
       <c r="X618" s="7"/>
       <c r="Y618" s="7"/>
-      <c r="Z618" s="6"/>
+      <c r="Z618" s="7"/>
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="24"/>
@@ -30618,10 +30607,10 @@
         <v>46.135711893418687</v>
       </c>
       <c r="X621" s="17">
-        <v>84.886822445787971</v>
+        <v>84.275095241577844</v>
       </c>
       <c r="Y621" s="17">
-        <v>22.101842594310611</v>
+        <v>22.441327342419498</v>
       </c>
       <c r="Z621" s="17"/>
     </row>
@@ -30696,10 +30685,10 @@
         <v>47.166191342533438</v>
       </c>
       <c r="X622" s="17">
-        <v>86.846862673272142</v>
+        <v>86.835424026711394</v>
       </c>
       <c r="Y622" s="17">
-        <v>24.107599810094825</v>
+        <v>24.115198063890247</v>
       </c>
       <c r="Z622" s="17"/>
     </row>
@@ -30774,10 +30763,10 @@
         <v>40.627988988414558</v>
       </c>
       <c r="X623" s="17">
-        <v>73.923706262669299</v>
+        <v>69.954377970162454</v>
       </c>
       <c r="Y623" s="17">
-        <v>10.049417983749521</v>
+        <v>12.148899986493205</v>
       </c>
       <c r="Z623" s="17"/>
     </row>
@@ -30804,9 +30793,9 @@
       <c r="T624" s="29"/>
       <c r="V624" s="29"/>
       <c r="W624" s="29"/>
-      <c r="X624" s="17"/>
-      <c r="Y624" s="17"/>
-      <c r="Z624" s="17"/>
+      <c r="X624" s="29"/>
+      <c r="Y624" s="29"/>
+      <c r="Z624" s="29"/>
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
@@ -30879,10 +30868,10 @@
         <v>-3.0460343248242054</v>
       </c>
       <c r="X625" s="17">
-        <v>49.388182636427757</v>
+        <v>48.333719163102757</v>
       </c>
       <c r="Y625" s="17">
-        <v>6.7356928149471713</v>
+        <v>6.4389401661562715</v>
       </c>
       <c r="Z625" s="17"/>
     </row>
@@ -30957,10 +30946,10 @@
         <v>-52.873709576364682</v>
       </c>
       <c r="X626" s="17">
-        <v>170.17818921280895</v>
+        <v>170.16193834785088</v>
       </c>
       <c r="Y626" s="17">
-        <v>-14.028694878220762</v>
+        <v>-14.023523505530903</v>
       </c>
       <c r="Z626" s="17"/>
     </row>
@@ -31035,10 +31024,10 @@
         <v>2.4653668516022833</v>
       </c>
       <c r="X627" s="17">
-        <v>43.243371201835032</v>
+        <v>42.136091929519296</v>
       </c>
       <c r="Y627" s="17">
-        <v>8.7280740260187457</v>
+        <v>8.4175277075146653</v>
       </c>
       <c r="Z627" s="17"/>
     </row>
@@ -31065,9 +31054,9 @@
       <c r="T628" s="29"/>
       <c r="V628" s="29"/>
       <c r="W628" s="29"/>
-      <c r="X628" s="17"/>
-      <c r="Y628" s="17"/>
-      <c r="Z628" s="17"/>
+      <c r="X628" s="29"/>
+      <c r="Y628" s="29"/>
+      <c r="Z628" s="29"/>
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="30" t="s">
@@ -31140,10 +31129,10 @@
         <v>76.76702294091308</v>
       </c>
       <c r="X629" s="17">
-        <v>97.013384218769602</v>
+        <v>96.552898547908171</v>
       </c>
       <c r="Y629" s="17">
-        <v>26.082103542445196</v>
+        <v>26.566775917567796</v>
       </c>
       <c r="Z629" s="17"/>
     </row>
@@ -31501,14 +31490,14 @@
       <c r="W645" s="31">
         <v>107.72565923499901</v>
       </c>
-      <c r="X645" s="17">
+      <c r="X645" s="31">
         <v>114.30563612270375</v>
       </c>
-      <c r="Y645" s="17">
-        <v>119.76783881159443</v>
-      </c>
-      <c r="Z645" s="17">
-        <v>122.66244952609404</v>
+      <c r="Y645" s="31">
+        <v>119.77086711870908</v>
+      </c>
+      <c r="Z645" s="31">
+        <v>122.66159488893508</v>
       </c>
     </row>
     <row r="646" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31581,13 +31570,13 @@
       <c r="W646" s="31">
         <v>107.75261562004755</v>
       </c>
-      <c r="X646" s="17">
+      <c r="X646" s="31">
         <v>114.22990514390601</v>
       </c>
-      <c r="Y646" s="17">
-        <v>119.83407421419294</v>
-      </c>
-      <c r="Z646" s="17">
+      <c r="Y646" s="31">
+        <v>119.84141082944141</v>
+      </c>
+      <c r="Z646" s="31">
         <v>122.71043623169685</v>
       </c>
     </row>
@@ -31661,14 +31650,14 @@
       <c r="W647" s="31">
         <v>107.58158232061182</v>
       </c>
-      <c r="X647" s="17">
+      <c r="X647" s="31">
         <v>114.72922310198032</v>
       </c>
-      <c r="Y647" s="17">
-        <v>119.36983590771038</v>
-      </c>
-      <c r="Z647" s="17">
-        <v>122.33726668394328</v>
+      <c r="Y647" s="31">
+        <v>119.33710242659939</v>
+      </c>
+      <c r="Z647" s="31">
+        <v>122.32923130058262</v>
       </c>
     </row>
     <row r="648" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31695,9 +31684,9 @@
       <c r="U648" s="29"/>
       <c r="V648" s="29"/>
       <c r="W648" s="29"/>
-      <c r="X648" s="17"/>
-      <c r="Y648" s="17"/>
-      <c r="Z648" s="17"/>
+      <c r="X648" s="29"/>
+      <c r="Y648" s="29"/>
+      <c r="Z648" s="29"/>
     </row>
     <row r="649" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
@@ -31769,14 +31758,14 @@
       <c r="W649" s="31">
         <v>107.30533147379353</v>
       </c>
-      <c r="X649" s="17">
+      <c r="X649" s="31">
         <v>113.63252238218382</v>
       </c>
-      <c r="Y649" s="17">
-        <v>119.05357973651805</v>
-      </c>
-      <c r="Z649" s="17">
-        <v>123.07797830729615</v>
+      <c r="Y649" s="31">
+        <v>119.04420994798461</v>
+      </c>
+      <c r="Z649" s="31">
+        <v>123.07449693577688</v>
       </c>
     </row>
     <row r="650" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31849,13 +31838,13 @@
       <c r="W650" s="31">
         <v>107.43253336639549</v>
       </c>
-      <c r="X650" s="17">
+      <c r="X650" s="31">
         <v>114.33658239985674</v>
       </c>
-      <c r="Y650" s="17">
-        <v>119.42912067944329</v>
-      </c>
-      <c r="Z650" s="17">
+      <c r="Y650" s="31">
+        <v>119.43630461706269</v>
+      </c>
+      <c r="Z650" s="31">
         <v>123.40114156452002</v>
       </c>
     </row>
@@ -31929,14 +31918,14 @@
       <c r="W651" s="31">
         <v>107.29126176941757</v>
       </c>
-      <c r="X651" s="17">
+      <c r="X651" s="31">
         <v>113.59670554460048</v>
       </c>
-      <c r="Y651" s="17">
-        <v>119.01754589195068</v>
-      </c>
-      <c r="Z651" s="17">
-        <v>123.05346019047829</v>
+      <c r="Y651" s="31">
+        <v>119.0062969361539</v>
+      </c>
+      <c r="Z651" s="31">
+        <v>123.04945009165098</v>
       </c>
     </row>
     <row r="652" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31963,9 +31952,9 @@
       <c r="U652" s="29"/>
       <c r="V652" s="29"/>
       <c r="W652" s="29"/>
-      <c r="X652" s="17"/>
-      <c r="Y652" s="17"/>
-      <c r="Z652" s="17"/>
+      <c r="X652" s="29"/>
+      <c r="Y652" s="29"/>
+      <c r="Z652" s="29"/>
     </row>
     <row r="653" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="30" t="s">
@@ -32037,14 +32026,14 @@
       <c r="W653" s="31">
         <v>107.98744722313285</v>
       </c>
-      <c r="X653" s="17">
+      <c r="X653" s="31">
         <v>114.53557606965646</v>
       </c>
-      <c r="Y653" s="17">
-        <v>119.95285181382323</v>
-      </c>
-      <c r="Z653" s="17">
-        <v>122.57133160109474</v>
+      <c r="Y653" s="31">
+        <v>119.95820084314448</v>
+      </c>
+      <c r="Z653" s="31">
+        <v>122.57207608643179</v>
       </c>
     </row>
     <row r="654" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32306,14 +32295,14 @@
       <c r="W670" s="32">
         <v>176329.14318407213</v>
       </c>
-      <c r="X670" s="34">
+      <c r="X670" s="32">
         <v>198560.54011445676</v>
       </c>
-      <c r="Y670" s="34">
-        <v>217300.34704783425</v>
-      </c>
-      <c r="Z670" s="34">
-        <v>234192.51906550996</v>
+      <c r="Y670" s="32">
+        <v>217255.23852938425</v>
+      </c>
+      <c r="Z670" s="32">
+        <v>234277.45694905327</v>
       </c>
       <c r="AA670" s="32"/>
       <c r="AB670" s="32"/>
@@ -32391,14 +32380,14 @@
       <c r="W671" s="32">
         <v>182600.73518966202</v>
       </c>
-      <c r="X671" s="34">
+      <c r="X671" s="32">
         <v>210227.93217747708</v>
       </c>
-      <c r="Y671" s="34">
-        <v>241164.65878322479</v>
-      </c>
-      <c r="Z671" s="34">
-        <v>264673.11676869821</v>
+      <c r="Y671" s="32">
+        <v>241064.8331356078</v>
+      </c>
+      <c r="Z671" s="32">
+        <v>264803.89342979988</v>
       </c>
       <c r="AA671" s="32"/>
       <c r="AB671" s="32"/>
@@ -32476,14 +32465,14 @@
       <c r="W672" s="32">
         <v>132706.38546081304</v>
       </c>
-      <c r="X672" s="34">
+      <c r="X672" s="32">
         <v>150757.77436586237</v>
       </c>
-      <c r="Y672" s="34">
-        <v>166275.79274663489</v>
-      </c>
-      <c r="Z672" s="34">
-        <v>178299.6220294926</v>
+      <c r="Y672" s="32">
+        <v>166241.19752687277</v>
+      </c>
+      <c r="Z672" s="32">
+        <v>178391.49129073464</v>
       </c>
       <c r="AA672" s="32"/>
       <c r="AB672" s="32"/>
@@ -32515,9 +32504,9 @@
       <c r="U673" s="32"/>
       <c r="V673" s="32"/>
       <c r="W673" s="32"/>
-      <c r="X673" s="34"/>
-      <c r="Y673" s="34"/>
-      <c r="Z673" s="34"/>
+      <c r="X673" s="32"/>
+      <c r="Y673" s="32"/>
+      <c r="Z673" s="32"/>
       <c r="AA673" s="32"/>
       <c r="AB673" s="32"/>
       <c r="AC673" s="32"/>
@@ -32550,9 +32539,9 @@
       <c r="U674" s="32"/>
       <c r="V674" s="32"/>
       <c r="W674" s="32"/>
-      <c r="X674" s="34"/>
-      <c r="Y674" s="34"/>
-      <c r="Z674" s="34"/>
+      <c r="X674" s="32"/>
+      <c r="Y674" s="32"/>
+      <c r="Z674" s="32"/>
       <c r="AA674" s="32"/>
       <c r="AB674" s="32"/>
       <c r="AC674" s="32"/>
@@ -32629,14 +32618,14 @@
       <c r="W675" s="32">
         <v>168421.10626575671</v>
       </c>
-      <c r="X675" s="34">
+      <c r="X675" s="32">
         <v>179787.55939273463</v>
       </c>
-      <c r="Y675" s="34">
-        <v>188109.19328319494</v>
-      </c>
-      <c r="Z675" s="34">
-        <v>197012.61438507072</v>
+      <c r="Y675" s="32">
+        <v>188061.24807278041</v>
+      </c>
+      <c r="Z675" s="32">
+        <v>197053.56175220883</v>
       </c>
       <c r="AA675" s="32"/>
       <c r="AB675" s="32"/>
@@ -32714,14 +32703,14 @@
       <c r="W676" s="32">
         <v>174228.81092667993</v>
       </c>
-      <c r="X676" s="34">
+      <c r="X676" s="32">
         <v>189974.25636793874</v>
       </c>
-      <c r="Y676" s="34">
-        <v>208003.93640479236</v>
-      </c>
-      <c r="Z676" s="34">
-        <v>221880.25456245459</v>
+      <c r="Y676" s="32">
+        <v>207909.49057631427</v>
+      </c>
+      <c r="Z676" s="32">
+        <v>221958.44829359438</v>
       </c>
       <c r="AA676" s="32"/>
       <c r="AB676" s="32"/>
@@ -32799,14 +32788,14 @@
       <c r="W677" s="32">
         <v>122228.44696920777</v>
       </c>
-      <c r="X677" s="34">
+      <c r="X677" s="32">
         <v>131335.56908060939</v>
       </c>
-      <c r="Y677" s="34">
-        <v>137440.23506178253</v>
-      </c>
-      <c r="Z677" s="34">
-        <v>142766.46414010591</v>
+      <c r="Y677" s="32">
+        <v>137403.86431931713</v>
+      </c>
+      <c r="Z677" s="32">
+        <v>142836.96862493656</v>
       </c>
       <c r="AA677" s="32"/>
       <c r="AB677" s="32"/>
@@ -32814,7 +32803,7 @@
       <c r="AD677" s="32"/>
       <c r="AE677" s="32"/>
     </row>
-    <row r="678" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -32838,9 +32827,9 @@
       <c r="U678" s="3"/>
       <c r="V678" s="3"/>
       <c r="W678" s="3"/>
-      <c r="X678"/>
-      <c r="Y678"/>
-      <c r="Z678"/>
+      <c r="X678" s="3"/>
+      <c r="Y678" s="3"/>
+      <c r="Z678" s="3"/>
     </row>
     <row r="679" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A679"/>
@@ -32866,9 +32855,9 @@
       <c r="U679" s="1"/>
       <c r="V679" s="1"/>
       <c r="W679" s="1"/>
-      <c r="X679"/>
-      <c r="Y679"/>
-      <c r="Z679"/>
+      <c r="X679" s="1"/>
+      <c r="Y679" s="1"/>
+      <c r="Z679" s="1"/>
     </row>
     <row r="680" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A680" s="15"/>
@@ -33125,7 +33114,7 @@
       <c r="W692" s="7"/>
       <c r="X692" s="7"/>
       <c r="Y692" s="7"/>
-      <c r="Z692" s="6"/>
+      <c r="Z692" s="7"/>
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="24"/>
@@ -33282,10 +33271,10 @@
         <v>12.60789710024109</v>
       </c>
       <c r="X696" s="17">
-        <v>9.4378303577212534</v>
+        <v>9.4151125919335499</v>
       </c>
       <c r="Y696" s="17">
-        <v>7.7736516518113206</v>
+        <v>7.8351244991345652</v>
       </c>
       <c r="Z696" s="17"/>
     </row>
@@ -33360,10 +33349,10 @@
         <v>15.129838858052508</v>
       </c>
       <c r="X697" s="17">
-        <v>14.715802170203787</v>
+        <v>14.668317686775239</v>
       </c>
       <c r="Y697" s="17">
-        <v>9.7478868189407706</v>
+        <v>9.8475833183175183</v>
       </c>
       <c r="Z697" s="17"/>
     </row>
@@ -33438,26 +33427,20 @@
         <v>13.60250212705833</v>
       </c>
       <c r="X698" s="17">
-        <v>10.29334536546888</v>
+        <v>10.270397812742232</v>
       </c>
       <c r="Y698" s="17">
-        <v>7.2312566274630257</v>
+        <v>7.3088343591231535</v>
       </c>
       <c r="Z698" s="17"/>
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
-      <c r="X699" s="17"/>
-      <c r="Y699" s="17"/>
-      <c r="Z699" s="17"/>
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="X700" s="17"/>
-      <c r="Y700" s="17"/>
-      <c r="Z700" s="17"/>
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="27" t="s">
@@ -33530,10 +33513,10 @@
         <v>6.7488293949586478</v>
       </c>
       <c r="X701" s="17">
-        <v>4.6285927227490902</v>
+        <v>4.6019250208366316</v>
       </c>
       <c r="Y701" s="17">
-        <v>4.7331132234838833</v>
+        <v>4.7815877920518517</v>
       </c>
       <c r="Z701" s="17"/>
     </row>
@@ -33608,10 +33591,10 @@
         <v>9.0372225796139389</v>
       </c>
       <c r="X702" s="17">
-        <v>9.4905911893314823</v>
+        <v>9.4408761225199385</v>
       </c>
       <c r="Y702" s="17">
-        <v>6.6711805543226745</v>
+        <v>6.7572469531511672</v>
       </c>
       <c r="Z702" s="17"/>
     </row>
@@ -33686,10 +33669,10 @@
         <v>7.4509022549357411</v>
       </c>
       <c r="X703" s="17">
-        <v>4.6481437008327049</v>
+        <v>4.6204507135330743</v>
       </c>
       <c r="Y703" s="17">
-        <v>3.8753055653092616</v>
+        <v>3.9541131776274341</v>
       </c>
       <c r="Z703" s="17"/>
     </row>
@@ -33729,17 +33712,12 @@
     <row r="706" spans="1:1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="U88:U103 U106 U108 U110">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126:U141 U144 U146 U148">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X88:Z110 X126:Z148 X163:Z185 X201:Z223 X239:Z261 X355:Z378 X394:Z417 X432:Z455 X471:Z494 X510:Z533 X597:Z605 X621:Z629 X645:Z653 X696:Z703">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-01Summary_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B564205C-1B77-4618-B047-E8A2A4123665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E089E-6C84-4EF4-9A12-2ED6DFF5B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="7500" windowHeight="10800" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <definedName name="PAD_Cons">#REF!</definedName>
     <definedName name="PAD_Curr" localSheetId="0">Summary!#REF!</definedName>
     <definedName name="PAD_Curr">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$Z$706</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$AA$706</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$A:$A</definedName>
     <definedName name="PROD_GR_Cons" localSheetId="0">Summary!$A$387:$A$419</definedName>
     <definedName name="PROD_GR_Cons">#REF!</definedName>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="116">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -524,13 +524,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +715,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -721,7 +727,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{86872052-F4BE-4C30-BD75-CD271D7C7ACD}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1019,10 +1039,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE706"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="E672" sqref="E672"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,47 +1054,48 @@
     <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.28515625" style="3"/>
+    <col min="15" max="25" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.85546875" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>46</v>
@@ -1103,8 +1124,9 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -1183,8 +1205,11 @@
       <c r="Z10" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1260,11 +1285,14 @@
       <c r="Y12" s="10">
         <v>18604457.545030706</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="34">
         <v>20137692.097452112</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="34">
+        <v>21408281.332644951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1340,11 +1368,14 @@
       <c r="Y13" s="10">
         <v>3457698.6327807661</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="34">
         <v>3836985.3236564845</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="34">
+        <v>4257273.9921447216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1420,11 +1451,14 @@
       <c r="Y14" s="10">
         <v>5690869.4646749832</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="34">
         <v>6263728.6234394033</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="34">
+        <v>6249891.4984492268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -1500,11 +1534,14 @@
       <c r="Y15" s="10">
         <v>5746390.4500633581</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="34">
         <v>6233543.3915037503</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="34">
+        <v>6355358.9958005026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1580,11 +1617,14 @@
       <c r="Y16" s="10">
         <v>3646794.002796323</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="34">
         <v>4074288.9311771928</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="34">
+        <v>4064411.6784383515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
@@ -1660,11 +1700,14 @@
       <c r="Y17" s="10">
         <v>1482610.1403385988</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="34">
         <v>1524556.4654702898</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="34">
+        <v>1629549.4549287658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
@@ -1740,11 +1783,14 @@
       <c r="Y18" s="10">
         <v>452384.43256828899</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="34">
         <v>461893.73822990002</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="34">
+        <v>478533.95054011559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>5</v>
       </c>
@@ -1820,11 +1866,14 @@
       <c r="Y19" s="10">
         <v>164601.87436014725</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="34">
         <v>172804.25662636745</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="34">
+        <v>182863.91189326928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1900,11 +1949,14 @@
       <c r="Y20" s="10">
         <v>-57020.35095187671</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="34">
         <v>28739.651859489386</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="34">
+        <v>-107121.04405529672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -1980,11 +2032,14 @@
       <c r="Y21" s="10">
         <v>1499.3655635017042</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="34">
         <v>1445.5800761636169</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="34">
+        <v>1653.5467040210515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -2060,11 +2115,14 @@
       <c r="Y22" s="10">
         <v>6476367.199111307</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="34">
         <v>6816139.4793562237</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="34">
+        <v>7461638.2629789859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
@@ -2140,11 +2198,14 @@
       <c r="Y23" s="10">
         <v>3311159.9508674266</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="34">
         <v>3340545.3092117803</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="34">
+        <v>3876523.2874450609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -2220,11 +2281,14 @@
       <c r="Y24" s="10">
         <v>3165207.24824388</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="34">
         <v>3475594.1701444434</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="34">
+        <v>3585114.9755339255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2300,11 +2364,14 @@
       <c r="Y25" s="10">
         <v>9915829.6467580795</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="34">
         <v>10608176.029042769</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="34">
+        <v>11211082.460867601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
@@ -2380,11 +2447,14 @@
       <c r="Y26" s="10">
         <v>7922614.0034071272</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="34">
         <v>8294485.2824645787</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="34">
+        <v>8718030.398625005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
@@ -2460,11 +2530,14 @@
       <c r="Y27" s="10">
         <v>1993215.6433509516</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="34">
         <v>2313690.7465781909</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA27" s="34">
+        <v>2493052.062242595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2540,11 +2613,14 @@
       <c r="Y28" s="10">
         <v>0</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="34">
+        <v>-151738.19009159505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2569,9 +2645,10 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
@@ -2647,11 +2724,14 @@
       <c r="Y30" s="10">
         <v>24313563.194839686</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="34">
         <v>26446369.494861454</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="34">
+        <v>28014264.435258694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2676,9 +2756,10 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -2754,11 +2835,14 @@
       <c r="Y32" s="10">
         <v>2664589.75636453</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="34">
         <v>3445971.4094762588</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="34">
+        <v>4184441.43374315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2783,9 +2867,10 @@
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -2861,11 +2946,14 @@
       <c r="Y34" s="10">
         <v>26978152.951204218</v>
       </c>
-      <c r="Z34" s="10">
+      <c r="Z34" s="34">
         <v>29892340.904337712</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA34" s="34">
+        <v>32198705.869001843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2892,49 +2980,50 @@
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="15"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>46</v>
@@ -2963,8 +3052,9 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="7"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>95</v>
       </c>
@@ -3043,8 +3133,11 @@
       <c r="Z48" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -3120,11 +3213,14 @@
       <c r="Y50" s="10">
         <v>15377201.309192125</v>
       </c>
-      <c r="Z50" s="10">
+      <c r="Z50" s="34">
         <v>16124126.063919485</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="34">
+        <v>16859582.877291299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -3200,11 +3296,14 @@
       <c r="Y51" s="10">
         <v>2998595.2135244827</v>
       </c>
-      <c r="Z51" s="10">
+      <c r="Z51" s="34">
         <v>3216778.0924026472</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA51" s="34">
+        <v>3509164.2729177997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
@@ -3280,11 +3379,14 @@
       <c r="Y52" s="10">
         <v>4896652.3239453826</v>
       </c>
-      <c r="Z52" s="10">
+      <c r="Z52" s="34">
         <v>5273221.5408021314</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="34">
+        <v>5160176.1657118769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>1</v>
       </c>
@@ -3360,11 +3462,14 @@
       <c r="Y53" s="10">
         <v>4907486.3036714299</v>
       </c>
-      <c r="Z53" s="10">
+      <c r="Z53" s="34">
         <v>5217526.67726136</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="34">
+        <v>5243482.1407221146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>2</v>
       </c>
@@ -3440,11 +3545,14 @@
       <c r="Y54" s="10">
         <v>3048414.6748275645</v>
       </c>
-      <c r="Z54" s="10">
+      <c r="Z54" s="34">
         <v>3365736.4399651662</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="34">
+        <v>3330604.3689011442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
@@ -3520,11 +3628,14 @@
       <c r="Y55" s="10">
         <v>1322848.1374592897</v>
       </c>
-      <c r="Z55" s="10">
+      <c r="Z55" s="34">
         <v>1316649.1863404962</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="34">
+        <v>1377830.8538421988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>4</v>
       </c>
@@ -3600,11 +3711,14 @@
       <c r="Y56" s="10">
         <v>382188.76173232601</v>
       </c>
-      <c r="Z56" s="10">
+      <c r="Z56" s="34">
         <v>375875.86539837962</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="34">
+        <v>368846.31148028735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>5</v>
       </c>
@@ -3680,11 +3794,14 @@
       <c r="Y57" s="10">
         <v>154034.72965225036</v>
       </c>
-      <c r="Z57" s="10">
+      <c r="Z57" s="34">
         <v>159265.18555731769</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="34">
+        <v>166200.60649848319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>6</v>
       </c>
@@ -3760,11 +3877,14 @@
       <c r="Y58" s="10">
         <v>-11823.974929520984</v>
       </c>
-      <c r="Z58" s="10">
+      <c r="Z58" s="34">
         <v>54762.933690281861</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="34">
+        <v>-84271.430648598558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>19</v>
       </c>
@@ -3840,11 +3960,14 @@
       <c r="Y59" s="10">
         <v>989.99520347367593</v>
       </c>
-      <c r="Z59" s="10">
+      <c r="Z59" s="34">
         <v>931.92985049005642</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="34">
+        <v>965.455638361105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -3920,11 +4043,14 @@
       <c r="Y60" s="10">
         <v>5767848.2458162624</v>
       </c>
-      <c r="Z60" s="10">
+      <c r="Z60" s="34">
         <v>5958550.7922368944</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="34">
+        <v>6438403.8674985897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>7</v>
       </c>
@@ -4000,11 +4126,14 @@
       <c r="Y61" s="10">
         <v>3093829.7218533233</v>
       </c>
-      <c r="Z61" s="10">
+      <c r="Z61" s="34">
         <v>3072373.511525074</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="34">
+        <v>3506891.1444042283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
@@ -4080,11 +4209,14 @@
       <c r="Y62" s="10">
         <v>2674018.5239629392</v>
       </c>
-      <c r="Z62" s="10">
+      <c r="Z62" s="34">
         <v>2886177.2807118208</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA62" s="34">
+        <v>2931512.7230943618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -4160,11 +4292,14 @@
       <c r="Y63" s="10">
         <v>7993904.5153918462</v>
       </c>
-      <c r="Z63" s="10">
+      <c r="Z63" s="34">
         <v>8328319.8523899373</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="34">
+        <v>8751301.0708487127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>9</v>
       </c>
@@ -4240,11 +4375,14 @@
       <c r="Y64" s="10">
         <v>6147066.6267299727</v>
       </c>
-      <c r="Z64" s="10">
+      <c r="Z64" s="34">
         <v>6260663.0037397994</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="34">
+        <v>6556852.6383551182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>10</v>
       </c>
@@ -4320,11 +4458,14 @@
       <c r="Y65" s="10">
         <v>1846837.8886618735</v>
       </c>
-      <c r="Z65" s="10">
+      <c r="Z65" s="34">
         <v>2067656.8486501384</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="34">
+        <v>2194448.4324935949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
@@ -4400,11 +4541,14 @@
       <c r="Y66" s="10">
         <v>0</v>
       </c>
-      <c r="Z66" s="10">
+      <c r="Z66" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="34">
+        <v>7836.1457437649369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -4429,9 +4573,10 @@
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>28</v>
       </c>
@@ -4507,11 +4652,14 @@
       <c r="Y68" s="10">
         <v>21046392.577086408</v>
       </c>
-      <c r="Z68" s="10">
+      <c r="Z68" s="34">
         <v>22244356.636971224</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="34">
+        <v>23223862.258314617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4536,9 +4684,10 @@
       <c r="W69" s="10"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
@@ -4614,11 +4763,14 @@
       <c r="Y70" s="10">
         <v>2221265.1887374562</v>
       </c>
-      <c r="Z70" s="10">
+      <c r="Z70" s="34">
         <v>2811383.7339642756</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="34">
+        <v>3348836.8323219134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4643,9 +4795,10 @@
       <c r="W71" s="10"/>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
-      <c r="Z71" s="10"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>27</v>
       </c>
@@ -4721,11 +4874,14 @@
       <c r="Y72" s="10">
         <v>23267657.765823863</v>
       </c>
-      <c r="Z72" s="10">
+      <c r="Z72" s="34">
         <v>25055740.3709355</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="34">
+        <v>26572699.090636529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4752,49 +4908,50 @@
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="15"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
         <v>46</v>
@@ -4823,8 +4980,9 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>95</v>
       </c>
@@ -4900,9 +5058,12 @@
       <c r="Y86" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z86" s="9"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z86" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA86" s="9"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -4978,9 +5139,12 @@
       <c r="Y88" s="17">
         <v>8.2412214852829067</v>
       </c>
-      <c r="Z88" s="17"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z88" s="17">
+        <v>6.3095077084508517</v>
+      </c>
+      <c r="AA88" s="17"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>13</v>
       </c>
@@ -5056,9 +5220,12 @@
       <c r="Y89" s="17">
         <v>10.969339180687541</v>
       </c>
-      <c r="Z89" s="17"/>
-    </row>
-    <row r="90" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z89" s="17">
+        <v>10.953616785995933</v>
+      </c>
+      <c r="AA89" s="17"/>
+    </row>
+    <row r="90" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>14</v>
       </c>
@@ -5134,9 +5301,12 @@
       <c r="Y90" s="17">
         <v>10.066285342166736</v>
       </c>
-      <c r="Z90" s="17"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z90" s="17">
+        <v>-0.22090875614240701</v>
+      </c>
+      <c r="AA90" s="17"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>1</v>
       </c>
@@ -5212,9 +5382,12 @@
       <c r="Y91" s="17">
         <v>8.4775468300282597</v>
       </c>
-      <c r="Z91" s="17"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="17">
+        <v>1.9541951767398444</v>
+      </c>
+      <c r="AA91" s="17"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>2</v>
       </c>
@@ -5290,9 +5463,12 @@
       <c r="Y92" s="17">
         <v>11.722486327801107</v>
       </c>
-      <c r="Z92" s="17"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z92" s="17">
+        <v>-0.24242887300552241</v>
+      </c>
+      <c r="AA92" s="17"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>3</v>
       </c>
@@ -5368,9 +5544,12 @@
       <c r="Y93" s="17">
         <v>2.8292215188890708</v>
       </c>
-      <c r="Z93" s="17"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z93" s="17">
+        <v>6.8867891636987082</v>
+      </c>
+      <c r="AA93" s="17"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>4</v>
       </c>
@@ -5446,9 +5625,12 @@
       <c r="Y94" s="17">
         <v>2.1020408698912547</v>
       </c>
-      <c r="Z94" s="17"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z94" s="17">
+        <v>3.6026061695456804</v>
+      </c>
+      <c r="AA94" s="17"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>5</v>
       </c>
@@ -5524,9 +5706,12 @@
       <c r="Y95" s="17">
         <v>4.9831645587908042</v>
       </c>
-      <c r="Z95" s="17"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z95" s="17">
+        <v>5.8214163605081524</v>
+      </c>
+      <c r="AA95" s="17"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>6</v>
       </c>
@@ -5555,8 +5740,9 @@
       <c r="X96" s="17"/>
       <c r="Y96" s="17"/>
       <c r="Z96" s="17"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="17"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>19</v>
       </c>
@@ -5632,9 +5818,12 @@
       <c r="Y97" s="17">
         <v>-3.5872163965453296</v>
       </c>
-      <c r="Z97" s="17"/>
-    </row>
-    <row r="98" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z97" s="17">
+        <v>14.386378955177022</v>
+      </c>
+      <c r="AA97" s="17"/>
+    </row>
+    <row r="98" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>15</v>
       </c>
@@ -5710,9 +5899,12 @@
       <c r="Y98" s="17">
         <v>5.2463405764197688</v>
       </c>
-      <c r="Z98" s="17"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z98" s="17">
+        <v>9.4701522112004852</v>
+      </c>
+      <c r="AA98" s="17"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
         <v>7</v>
       </c>
@@ -5788,9 +5980,12 @@
       <c r="Y99" s="17">
         <v>0.88746417510444076</v>
       </c>
-      <c r="Z99" s="17"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z99" s="17">
+        <v>16.044625311780237</v>
+      </c>
+      <c r="AA99" s="17"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>8</v>
       </c>
@@ -5866,9 +6061,12 @@
       <c r="Y100" s="17">
         <v>9.8062116492615843</v>
       </c>
-      <c r="Z100" s="17"/>
-    </row>
-    <row r="101" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z100" s="17">
+        <v>3.1511390578989875</v>
+      </c>
+      <c r="AA100" s="17"/>
+    </row>
+    <row r="101" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>16</v>
       </c>
@@ -5944,9 +6142,12 @@
       <c r="Y101" s="17">
         <v>6.9822335291031266</v>
       </c>
-      <c r="Z101" s="17"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z101" s="17">
+        <v>5.68341277684506</v>
+      </c>
+      <c r="AA101" s="17"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>9</v>
       </c>
@@ -6022,9 +6223,12 @@
       <c r="Y102" s="17">
         <v>4.6937952410344366</v>
       </c>
-      <c r="Z102" s="17"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z102" s="17">
+        <v>5.1063459845524903</v>
+      </c>
+      <c r="AA102" s="17"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>10</v>
       </c>
@@ -6100,9 +6304,12 @@
       <c r="Y103" s="17">
         <v>16.078295607216049</v>
       </c>
-      <c r="Z103" s="17"/>
-    </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z103" s="17">
+        <v>7.7521732724941046</v>
+      </c>
+      <c r="AA103" s="17"/>
+    </row>
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -6127,8 +6334,9 @@
       <c r="X104" s="17"/>
       <c r="Y104" s="17"/>
       <c r="Z104" s="17"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA104" s="17"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -6153,8 +6361,9 @@
       <c r="X105" s="17"/>
       <c r="Y105" s="17"/>
       <c r="Z105" s="17"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA105" s="17"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>28</v>
       </c>
@@ -6230,9 +6439,12 @@
       <c r="Y106" s="17">
         <v>8.772084465490579</v>
       </c>
-      <c r="Z106" s="17"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z106" s="17">
+        <v>5.9285829032294401</v>
+      </c>
+      <c r="AA106" s="17"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -6257,8 +6469,9 @@
       <c r="X107" s="17"/>
       <c r="Y107" s="17"/>
       <c r="Z107" s="17"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA107" s="17"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
@@ -6334,9 +6547,12 @@
       <c r="Y108" s="17">
         <v>29.324651243042297</v>
       </c>
-      <c r="Z108" s="17"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z108" s="17">
+        <v>21.429952153292191</v>
+      </c>
+      <c r="AA108" s="17"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -6361,8 +6577,9 @@
       <c r="X109" s="17"/>
       <c r="Y109" s="17"/>
       <c r="Z109" s="17"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA109" s="17"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>27</v>
       </c>
@@ -6438,9 +6655,12 @@
       <c r="Y110" s="17">
         <v>10.8020291767358</v>
       </c>
-      <c r="Z110" s="17"/>
-    </row>
-    <row r="111" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z110" s="17">
+        <v>7.715571597570829</v>
+      </c>
+      <c r="AA110" s="17"/>
+    </row>
+    <row r="111" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -6467,54 +6687,57 @@
       <c r="X111" s="15"/>
       <c r="Y111" s="15"/>
       <c r="Z111" s="15"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA111" s="15"/>
+    </row>
+    <row r="112" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z112"/>
+      <c r="AA112"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
         <v>46</v>
@@ -6543,8 +6766,9 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA123" s="6"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>95</v>
       </c>
@@ -6620,9 +6844,12 @@
       <c r="Y124" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z124" s="9"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z124" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA124" s="9"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -6698,9 +6925,12 @@
       <c r="Y126" s="17">
         <v>4.8573517359161258</v>
       </c>
-      <c r="Z126" s="17"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z126" s="17">
+        <v>4.5612196931251106</v>
+      </c>
+      <c r="AA126" s="17"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>13</v>
       </c>
@@ -6776,9 +7006,12 @@
       <c r="Y127" s="17">
         <v>7.2761697842409774</v>
       </c>
-      <c r="Z127" s="17"/>
-    </row>
-    <row r="128" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z127" s="17">
+        <v>9.0894109607904596</v>
+      </c>
+      <c r="AA127" s="17"/>
+    </row>
+    <row r="128" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>14</v>
       </c>
@@ -6854,9 +7087,12 @@
       <c r="Y128" s="17">
         <v>7.6903400924600618</v>
       </c>
-      <c r="Z128" s="17"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z128" s="17">
+        <v>-2.143763052918473</v>
+      </c>
+      <c r="AA128" s="17"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>1</v>
       </c>
@@ -6932,9 +7168,12 @@
       <c r="Y129" s="17">
         <v>6.3177022696523863</v>
       </c>
-      <c r="Z129" s="17"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z129" s="17">
+        <v>0.49746680882097394</v>
+      </c>
+      <c r="AA129" s="17"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>2</v>
       </c>
@@ -7010,9 +7249,12 @@
       <c r="Y130" s="17">
         <v>10.409402885962393</v>
       </c>
-      <c r="Z130" s="17"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z130" s="17">
+        <v>-1.043815274626354</v>
+      </c>
+      <c r="AA130" s="17"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>3</v>
       </c>
@@ -7088,9 +7330,12 @@
       <c r="Y131" s="17">
         <v>-0.4686064063785409</v>
       </c>
-      <c r="Z131" s="17"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z131" s="17">
+        <v>4.6467706156224864</v>
+      </c>
+      <c r="AA131" s="17"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>4</v>
       </c>
@@ -7166,9 +7411,12 @@
       <c r="Y132" s="17">
         <v>-1.6517744544167812</v>
       </c>
-      <c r="Z132" s="17"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z132" s="17">
+        <v>-1.8701796431228388</v>
+      </c>
+      <c r="AA132" s="17"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>5</v>
       </c>
@@ -7244,9 +7492,12 @@
       <c r="Y133" s="17">
         <v>3.3956341643703638</v>
       </c>
-      <c r="Z133" s="17"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z133" s="17">
+        <v>4.3546371524299872</v>
+      </c>
+      <c r="AA133" s="17"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>6</v>
       </c>
@@ -7275,8 +7526,9 @@
       <c r="X134" s="17"/>
       <c r="Y134" s="17"/>
       <c r="Z134" s="17"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA134" s="17"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>19</v>
       </c>
@@ -7352,9 +7604,12 @@
       <c r="Y135" s="17">
         <v>-5.8652155868918214</v>
       </c>
-      <c r="Z135" s="17"/>
-    </row>
-    <row r="136" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z135" s="17">
+        <v>3.5974583122773538</v>
+      </c>
+      <c r="AA135" s="17"/>
+    </row>
+    <row r="136" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>15</v>
       </c>
@@ -7430,9 +7685,12 @@
       <c r="Y136" s="17">
         <v>3.3063031184802583</v>
       </c>
-      <c r="Z136" s="17"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z136" s="17">
+        <v>8.0531842723716096</v>
+      </c>
+      <c r="AA136" s="17"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>7</v>
       </c>
@@ -7508,9 +7766,12 @@
       <c r="Y137" s="17">
         <v>-0.69351620021919302</v>
       </c>
-      <c r="Z137" s="17"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z137" s="17">
+        <v>14.142734639821413</v>
+      </c>
+      <c r="AA137" s="17"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>8</v>
       </c>
@@ -7586,9 +7847,12 @@
       <c r="Y138" s="17">
         <v>7.934079545360035</v>
       </c>
-      <c r="Z138" s="17"/>
-    </row>
-    <row r="139" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z138" s="17">
+        <v>1.5707781599389392</v>
+      </c>
+      <c r="AA138" s="17"/>
+    </row>
+    <row r="139" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>16</v>
       </c>
@@ -7664,9 +7928,12 @@
       <c r="Y139" s="17">
         <v>4.1833791778997522</v>
       </c>
-      <c r="Z139" s="17"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z139" s="17">
+        <v>5.0788301356772934</v>
+      </c>
+      <c r="AA139" s="17"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>9</v>
       </c>
@@ -7742,9 +8009,12 @@
       <c r="Y140" s="17">
         <v>1.8479769930565482</v>
       </c>
-      <c r="Z140" s="17"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z140" s="17">
+        <v>4.7309627500855811</v>
+      </c>
+      <c r="AA140" s="17"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>10</v>
       </c>
@@ -7820,9 +8090,12 @@
       <c r="Y141" s="17">
         <v>11.956596804945292</v>
       </c>
-      <c r="Z141" s="17"/>
-    </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z141" s="17">
+        <v>6.1321386054089118</v>
+      </c>
+      <c r="AA141" s="17"/>
+    </row>
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -7847,8 +8120,9 @@
       <c r="X142" s="17"/>
       <c r="Y142" s="17"/>
       <c r="Z142" s="17"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA142" s="17"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -7873,8 +8147,9 @@
       <c r="X143" s="17"/>
       <c r="Y143" s="17"/>
       <c r="Z143" s="17"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA143" s="17"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>28</v>
       </c>
@@ -7950,9 +8225,12 @@
       <c r="Y144" s="17">
         <v>5.6920161281656618</v>
       </c>
-      <c r="Z144" s="17"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z144" s="17">
+        <v>4.403389306011249</v>
+      </c>
+      <c r="AA144" s="17"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -7977,8 +8255,9 @@
       <c r="X145" s="17"/>
       <c r="Y145" s="17"/>
       <c r="Z145" s="17"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA145" s="17"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>11</v>
       </c>
@@ -8054,9 +8333,12 @@
       <c r="Y146" s="17">
         <v>26.566775917567796</v>
       </c>
-      <c r="Z146" s="17"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z146" s="17">
+        <v>19.117030943327904</v>
+      </c>
+      <c r="AA146" s="17"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -8081,8 +8363,9 @@
       <c r="X147" s="17"/>
       <c r="Y147" s="17"/>
       <c r="Z147" s="17"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA147" s="17"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>27</v>
       </c>
@@ -8158,9 +8441,12 @@
       <c r="Y148" s="17">
         <v>7.6848414357289414</v>
       </c>
-      <c r="Z148" s="17"/>
-    </row>
-    <row r="149" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z148" s="17">
+        <v>6.0543360413356311</v>
+      </c>
+      <c r="AA148" s="17"/>
+    </row>
+    <row r="149" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -8187,49 +8473,52 @@
       <c r="X149" s="15"/>
       <c r="Y149" s="15"/>
       <c r="Z149" s="15"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA149" s="15"/>
+    </row>
+    <row r="150" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z150"/>
+      <c r="AA150"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
         <v>46</v>
@@ -8258,8 +8547,9 @@
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA160" s="7"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>95</v>
       </c>
@@ -8338,8 +8628,11 @@
       <c r="Z161" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA161" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
@@ -8418,8 +8711,11 @@
       <c r="Z163" s="17">
         <v>124.89168105993463</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA163" s="17">
+        <v>126.9798991378395</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>13</v>
       </c>
@@ -8498,8 +8794,11 @@
       <c r="Z164" s="17">
         <v>119.28038594638019</v>
       </c>
-    </row>
-    <row r="165" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA164" s="17">
+        <v>121.3187431833986</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>14</v>
       </c>
@@ -8578,8 +8877,11 @@
       <c r="Z165" s="17">
         <v>118.78371835837191</v>
       </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA165" s="17">
+        <v>121.11779322532135</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>1</v>
       </c>
@@ -8658,8 +8960,11 @@
       <c r="Z166" s="17">
         <v>119.47314843008508</v>
       </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA166" s="17">
+        <v>121.20493262374808</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>2</v>
       </c>
@@ -8738,8 +9043,11 @@
       <c r="Z167" s="17">
         <v>121.05193035314909</v>
       </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA167" s="17">
+        <v>122.03225685971553</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>3</v>
       </c>
@@ -8818,8 +9126,11 @@
       <c r="Z168" s="17">
         <v>115.79063590261673</v>
       </c>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA168" s="17">
+        <v>118.26919468268751</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>4</v>
       </c>
@@ -8898,8 +9209,11 @@
       <c r="Z169" s="17">
         <v>122.88464909561367</v>
       </c>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA169" s="17">
+        <v>129.73803333416021</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>5</v>
       </c>
@@ -8978,8 +9292,11 @@
       <c r="Z170" s="17">
         <v>108.50096084820574</v>
       </c>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA170" s="17">
+        <v>110.02601960717764</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>6</v>
       </c>
@@ -9008,8 +9325,9 @@
       <c r="X171" s="17"/>
       <c r="Y171" s="17"/>
       <c r="Z171" s="17"/>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA171" s="17"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>19</v>
       </c>
@@ -9088,8 +9406,11 @@
       <c r="Z172" s="17">
         <v>155.11683367621038</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA172" s="17">
+        <v>171.27112197801293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>15</v>
       </c>
@@ -9168,8 +9489,11 @@
       <c r="Z173" s="17">
         <v>114.39257156684207</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA173" s="17">
+        <v>115.89267179472445</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
         <v>7</v>
       </c>
@@ -9248,8 +9572,11 @@
       <c r="Z174" s="17">
         <v>108.72848944572466</v>
       </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA174" s="17">
+        <v>110.54016585689112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
         <v>8</v>
       </c>
@@ -9328,8 +9655,11 @@
       <c r="Z175" s="17">
         <v>120.42206115929422</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA175" s="17">
+        <v>122.29573309679014</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>16</v>
       </c>
@@ -9408,8 +9738,11 @@
       <c r="Z176" s="17">
         <v>127.37474325026785</v>
       </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA176" s="17">
+        <v>128.10760788715882</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>9</v>
       </c>
@@ -9488,8 +9821,11 @@
       <c r="Z177" s="17">
         <v>132.48573318049347</v>
       </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA177" s="17">
+        <v>132.96059679041451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>10</v>
       </c>
@@ -9568,8 +9904,11 @@
       <c r="Z178" s="17">
         <v>111.89916489714795</v>
       </c>
-    </row>
-    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA178" s="17">
+        <v>113.607229284932</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -9595,8 +9934,9 @@
       <c r="X179" s="17"/>
       <c r="Y179" s="17"/>
       <c r="Z179" s="17"/>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA179" s="17"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -9622,8 +9962,9 @@
       <c r="X180" s="17"/>
       <c r="Y180" s="17"/>
       <c r="Z180" s="17"/>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA180" s="17"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
         <v>28</v>
       </c>
@@ -9702,8 +10043,11 @@
       <c r="Z181" s="17">
         <v>118.89024225994595</v>
       </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA181" s="17">
+        <v>120.62706936366287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
@@ -9729,8 +10073,9 @@
       <c r="X182" s="17"/>
       <c r="Y182" s="17"/>
       <c r="Z182" s="17"/>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA182" s="17"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>11</v>
       </c>
@@ -9809,8 +10154,11 @@
       <c r="Z183" s="17">
         <v>122.57207608643179</v>
       </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA183" s="17">
+        <v>124.9520846568649</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
@@ -9836,8 +10184,9 @@
       <c r="X184" s="17"/>
       <c r="Y184" s="17"/>
       <c r="Z184" s="17"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA184" s="17"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>27</v>
       </c>
@@ -9916,8 +10265,11 @@
       <c r="Z185" s="17">
         <v>119.30336306889832</v>
       </c>
-    </row>
-    <row r="186" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA185" s="17">
+        <v>121.1721314390218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -9944,49 +10296,50 @@
       <c r="X186" s="15"/>
       <c r="Y186" s="15"/>
       <c r="Z186" s="15"/>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA186" s="15"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
       <c r="B198" s="7" t="s">
         <v>46</v>
@@ -10015,8 +10368,9 @@
       <c r="X198" s="7"/>
       <c r="Y198" s="7"/>
       <c r="Z198" s="7"/>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA198" s="7"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>95</v>
       </c>
@@ -10095,8 +10449,11 @@
       <c r="Z199" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA199" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
@@ -10175,8 +10532,11 @@
       <c r="Z201" s="17">
         <v>76.145393421070054</v>
       </c>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA201" s="17">
+        <v>76.419216296468349</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>13</v>
       </c>
@@ -10255,8 +10615,11 @@
       <c r="Z202" s="17">
         <v>14.508552201851424</v>
       </c>
-    </row>
-    <row r="203" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA202" s="17">
+        <v>15.19680804749785</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>14</v>
       </c>
@@ -10335,8 +10698,11 @@
       <c r="Z203" s="17">
         <v>23.684644596138043</v>
       </c>
-    </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA203" s="17">
+        <v>22.309675532951445</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
         <v>1</v>
       </c>
@@ -10415,8 +10781,11 @@
       <c r="Z204" s="17">
         <v>23.570507069845377</v>
       </c>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA204" s="17">
+        <v>22.686153371928842</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>2</v>
       </c>
@@ -10495,8 +10864,11 @@
       <c r="Z205" s="17">
         <v>15.405853464948486</v>
       </c>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA205" s="17">
+        <v>14.508364793340395</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>3</v>
       </c>
@@ -10575,8 +10947,11 @@
       <c r="Z206" s="17">
         <v>5.7647098433171031</v>
       </c>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA206" s="17">
+        <v>5.8168561187629049</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>4</v>
       </c>
@@ -10655,8 +11030,11 @@
       <c r="Z207" s="17">
         <v>1.7465298528769564</v>
       </c>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA207" s="17">
+        <v>1.7081796013099448</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>5</v>
       </c>
@@ -10735,8 +11113,11 @@
       <c r="Z208" s="17">
         <v>0.65341390870283134</v>
       </c>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA208" s="17">
+        <v>0.65275285851559661</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
         <v>6</v>
       </c>
@@ -10815,8 +11196,11 @@
       <c r="Z209" s="17">
         <v>0.10867144492204693</v>
       </c>
-    </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA209" s="17">
+        <v>-0.38238035591780306</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
         <v>19</v>
       </c>
@@ -10895,8 +11279,11 @@
       <c r="Z210" s="17">
         <v>5.4660813706187313E-3</v>
       </c>
-    </row>
-    <row r="211" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA210" s="17">
+        <v>5.902516940405193E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>15</v>
       </c>
@@ -10975,8 +11362,11 @@
       <c r="Z211" s="17">
         <v>25.773441154864766</v>
       </c>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA211" s="17">
+        <v>26.635138967231935</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
         <v>7</v>
       </c>
@@ -11055,8 +11445,11 @@
       <c r="Z212" s="17">
         <v>12.631394679185929</v>
       </c>
-    </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA212" s="17">
+        <v>13.837676503710291</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
         <v>8</v>
       </c>
@@ -11135,8 +11528,11 @@
       <c r="Z213" s="17">
         <v>13.142046475678839</v>
       </c>
-    </row>
-    <row r="214" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA213" s="17">
+        <v>12.797462463521644</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>16</v>
       </c>
@@ -11215,8 +11611,11 @@
       <c r="Z214" s="17">
         <v>40.112031373924289</v>
       </c>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA214" s="17">
+        <v>40.019192675133588</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
         <v>9</v>
       </c>
@@ -11295,8 +11694,11 @@
       <c r="Z215" s="17">
         <v>31.363417515875675</v>
       </c>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA215" s="17">
+        <v>31.119968967139862</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
         <v>10</v>
       </c>
@@ -11375,8 +11777,11 @@
       <c r="Z216" s="17">
         <v>8.7486138580486159</v>
       </c>
-    </row>
-    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA216" s="17">
+        <v>8.8992237079937215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
@@ -11402,8 +11807,9 @@
       <c r="X217" s="17"/>
       <c r="Y217" s="17"/>
       <c r="Z217" s="17"/>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA217" s="17"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
@@ -11429,8 +11835,9 @@
       <c r="X218" s="17"/>
       <c r="Y218" s="17"/>
       <c r="Z218" s="17"/>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA218" s="17"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
         <v>28</v>
       </c>
@@ -11509,8 +11916,11 @@
       <c r="Z219" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="220" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA219" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>49</v>
       </c>
@@ -11589,8 +11999,11 @@
       <c r="Z220" s="17">
         <v>88.472059045144206</v>
       </c>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA220" s="17">
+        <v>87.004317966171513</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>11</v>
       </c>
@@ -11669,8 +12082,11 @@
       <c r="Z221" s="17">
         <v>11.527940954855797</v>
       </c>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA221" s="17">
+        <v>12.995682033828485</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
       <c r="D222" s="17"/>
@@ -11696,8 +12112,9 @@
       <c r="X222" s="17"/>
       <c r="Y222" s="17"/>
       <c r="Z222" s="17"/>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA222" s="17"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>27</v>
       </c>
@@ -11776,8 +12193,11 @@
       <c r="Z223" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="224" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA223" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -11804,49 +12224,50 @@
       <c r="X224" s="15"/>
       <c r="Y224" s="15"/>
       <c r="Z224" s="15"/>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA224" s="15"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="7" t="s">
         <v>46</v>
@@ -11875,8 +12296,9 @@
       <c r="X236" s="7"/>
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA236" s="7"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>95</v>
       </c>
@@ -11955,8 +12377,11 @@
       <c r="Z237" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA237" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
@@ -12035,8 +12460,11 @@
       <c r="Z239" s="17">
         <v>72.486367338313514</v>
       </c>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA239" s="17">
+        <v>72.595947606670052</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>13</v>
       </c>
@@ -12115,8 +12543,11 @@
       <c r="Z240" s="17">
         <v>14.461097459012153</v>
       </c>
-    </row>
-    <row r="241" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA240" s="17">
+        <v>15.11016657731617</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>14</v>
       </c>
@@ -12195,8 +12626,11 @@
       <c r="Z241" s="17">
         <v>23.705884718813468</v>
       </c>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA241" s="17">
+        <v>22.219285097010204</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
         <v>1</v>
       </c>
@@ -12275,8 +12709,11 @@
       <c r="Z242" s="17">
         <v>23.455507221052066</v>
       </c>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA242" s="17">
+        <v>22.577993627415875</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>2</v>
       </c>
@@ -12355,8 +12792,11 @@
       <c r="Z243" s="17">
         <v>15.130743023473853</v>
       </c>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA243" s="17">
+        <v>14.341302630266506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>3</v>
       </c>
@@ -12435,8 +12875,11 @@
       <c r="Z244" s="17">
         <v>5.9190257008924227</v>
       </c>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA244" s="17">
+        <v>5.9328239141140582</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>4</v>
       </c>
@@ -12515,8 +12958,11 @@
       <c r="Z245" s="17">
         <v>1.6897583127832758</v>
       </c>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA245" s="17">
+        <v>1.5882212328753924</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>5</v>
       </c>
@@ -12595,8 +13041,11 @@
       <c r="Z246" s="17">
         <v>0.71598018390251417</v>
       </c>
-    </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA246" s="17">
+        <v>0.71564585015991455</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
         <v>6</v>
       </c>
@@ -12675,8 +13124,11 @@
       <c r="Z247" s="17">
         <v>0.24618798639140299</v>
       </c>
-    </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA247" s="17">
+        <v>-0.362865701282859</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
         <v>19</v>
       </c>
@@ -12755,8 +13207,11 @@
       <c r="Z248" s="17">
         <v>4.189511370003585E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA248" s="17">
+        <v>4.1571708771888372E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -12835,8 +13290,11 @@
       <c r="Z249" s="17">
         <v>26.78679761110055</v>
       </c>
-    </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA249" s="17">
+        <v>27.723226205380673</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
         <v>7</v>
       </c>
@@ -12915,8 +13373,11 @@
       <c r="Z250" s="17">
         <v>13.811923453963315</v>
       </c>
-    </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA250" s="17">
+        <v>15.100378676887347</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
         <v>8</v>
       </c>
@@ -12995,8 +13456,11 @@
       <c r="Z251" s="17">
         <v>12.974874157137236</v>
       </c>
-    </row>
-    <row r="252" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA251" s="17">
+        <v>12.622847528493331</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>16</v>
       </c>
@@ -13075,8 +13539,11 @@
       <c r="Z252" s="17">
         <v>37.440147127239712</v>
       </c>
-    </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA252" s="17">
+        <v>37.682367271686552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
         <v>9</v>
       </c>
@@ -13155,8 +13622,11 @@
       <c r="Z253" s="17">
         <v>28.144949777213458</v>
       </c>
-    </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA253" s="17">
+        <v>28.233256662584754</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
         <v>10</v>
       </c>
@@ -13235,8 +13705,11 @@
       <c r="Z254" s="17">
         <v>9.2951973500262532</v>
       </c>
-    </row>
-    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA254" s="17">
+        <v>9.4491106091017976</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
@@ -13262,8 +13735,9 @@
       <c r="X255" s="17"/>
       <c r="Y255" s="17"/>
       <c r="Z255" s="17"/>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA255" s="17"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
@@ -13289,8 +13763,9 @@
       <c r="X256" s="17"/>
       <c r="Y256" s="17"/>
       <c r="Z256" s="17"/>
-    </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA256" s="17"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>28</v>
       </c>
@@ -13369,8 +13844,11 @@
       <c r="Z257" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="258" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA257" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>49</v>
       </c>
@@ -13449,8 +13927,11 @@
       <c r="Z258" s="17">
         <v>88.779482496452331</v>
       </c>
-    </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA258" s="17">
+        <v>87.397453224832745</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>11</v>
       </c>
@@ -13529,8 +14010,11 @@
       <c r="Z259" s="17">
         <v>11.220517503547661</v>
       </c>
-    </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA259" s="17">
+        <v>12.602546775167259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
@@ -13556,8 +14040,9 @@
       <c r="X260" s="17"/>
       <c r="Y260" s="17"/>
       <c r="Z260" s="17"/>
-    </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA260" s="17"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -13636,8 +14121,11 @@
       <c r="Z261" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="262" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA261" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -13664,49 +14152,50 @@
       <c r="X262" s="15"/>
       <c r="Y262" s="15"/>
       <c r="Z262" s="15"/>
-    </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA262" s="15"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
       <c r="B274" s="7" t="s">
         <v>46</v>
@@ -13735,8 +14224,9 @@
       <c r="X274" s="7"/>
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
-    </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA274" s="7"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
         <v>33</v>
       </c>
@@ -13815,8 +14305,11 @@
       <c r="Z275" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="277" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA275" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18" t="s">
         <v>50</v>
       </c>
@@ -13892,11 +14385,14 @@
       <c r="Y277" s="19">
         <v>2285564.0565247671</v>
       </c>
-      <c r="Z277" s="19">
+      <c r="Z277" s="34">
         <v>2401998.5929831276</v>
       </c>
-    </row>
-    <row r="278" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA277" s="34">
+        <v>2407377.1641075332</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18" t="s">
         <v>33</v>
       </c>
@@ -13972,11 +14468,14 @@
       <c r="Y278" s="19">
         <v>6855846.7681841524</v>
       </c>
-      <c r="Z278" s="19">
+      <c r="Z278" s="34">
         <v>7324051.7478946885</v>
       </c>
-    </row>
-    <row r="279" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA278" s="34">
+        <v>7549475.326033894</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
         <v>51</v>
       </c>
@@ -14052,11 +14551,14 @@
       <c r="Y279" s="19">
         <v>232171.30359314871</v>
       </c>
-      <c r="Z279" s="19">
+      <c r="Z279" s="34">
         <v>233872.61368184019</v>
       </c>
-    </row>
-    <row r="280" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA279" s="34">
+        <v>264887.92098058393</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
         <v>52</v>
       </c>
@@ -14132,11 +14634,14 @@
       <c r="Y280" s="19">
         <v>3946170.6404435532</v>
       </c>
-      <c r="Z280" s="19">
+      <c r="Z280" s="34">
         <v>4146037.8349306379</v>
       </c>
-    </row>
-    <row r="281" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA280" s="34">
+        <v>4293383.3733605752</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A281" s="21" t="s">
         <v>53</v>
       </c>
@@ -14212,11 +14717,14 @@
       <c r="Y281" s="19">
         <v>844195.92131620797</v>
       </c>
-      <c r="Z281" s="19">
+      <c r="Z281" s="34">
         <v>897048.77380630164</v>
       </c>
-    </row>
-    <row r="282" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA281" s="34">
+        <v>926652.24657055549</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>54</v>
       </c>
@@ -14292,11 +14800,14 @@
       <c r="Y282" s="19">
         <v>1833308.9028312422</v>
       </c>
-      <c r="Z282" s="19">
+      <c r="Z282" s="34">
         <v>2047092.5254759088</v>
       </c>
-    </row>
-    <row r="283" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA282" s="34">
+        <v>2064551.7851221794</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18" t="s">
         <v>55</v>
       </c>
@@ -14372,11 +14883,14 @@
       <c r="Y283" s="19">
         <v>15172152.370130764</v>
       </c>
-      <c r="Z283" s="19">
+      <c r="Z283" s="34">
         <v>16720319.15398364</v>
       </c>
-    </row>
-    <row r="284" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA283" s="34">
+        <v>18057411.945117269</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A284" s="21" t="s">
         <v>56</v>
       </c>
@@ -14452,11 +14966,14 @@
       <c r="Y284" s="19">
         <v>4445382.9981920309</v>
       </c>
-      <c r="Z284" s="19">
+      <c r="Z284" s="34">
         <v>4876755.8901737509</v>
       </c>
-    </row>
-    <row r="285" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA284" s="34">
+        <v>5197556.9511272814</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
         <v>57</v>
       </c>
@@ -14532,11 +15049,14 @@
       <c r="Y285" s="19">
         <v>977711.79854265298</v>
       </c>
-      <c r="Z285" s="19">
+      <c r="Z285" s="34">
         <v>1075531.1339689519</v>
       </c>
-    </row>
-    <row r="286" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA285" s="34">
+        <v>1158738.2946387168</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
         <v>58</v>
       </c>
@@ -14612,11 +15132,14 @@
       <c r="Y286" s="19">
         <v>510209.38983641169</v>
       </c>
-      <c r="Z286" s="19">
+      <c r="Z286" s="34">
         <v>585956.89769128908</v>
       </c>
-    </row>
-    <row r="287" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA286" s="34">
+        <v>634736.27854461607</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
         <v>59</v>
       </c>
@@ -14692,11 +15215,14 @@
       <c r="Y287" s="19">
         <v>732460.79381006211</v>
       </c>
-      <c r="Z287" s="19">
+      <c r="Z287" s="34">
         <v>768822.7439384195</v>
       </c>
-    </row>
-    <row r="288" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA287" s="34">
+        <v>800356.41899804748</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
         <v>60</v>
       </c>
@@ -14772,11 +15298,14 @@
       <c r="Y288" s="19">
         <v>2565066.2652639332</v>
       </c>
-      <c r="Z288" s="19">
+      <c r="Z288" s="34">
         <v>2887280.4914728408</v>
       </c>
-    </row>
-    <row r="289" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA288" s="34">
+        <v>3105469.5993550923</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
         <v>61</v>
       </c>
@@ -14852,11 +15381,14 @@
       <c r="Y289" s="19">
         <v>1369415.7123239238</v>
       </c>
-      <c r="Z289" s="19">
+      <c r="Z289" s="34">
         <v>1485877.2251138589</v>
       </c>
-    </row>
-    <row r="290" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA289" s="34">
+        <v>1582139.9696477321</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="21" t="s">
         <v>62</v>
       </c>
@@ -14932,11 +15464,14 @@
       <c r="Y290" s="19">
         <v>1488722.4337391451</v>
       </c>
-      <c r="Z290" s="19">
+      <c r="Z290" s="34">
         <v>1649935.9039141701</v>
       </c>
-    </row>
-    <row r="291" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA290" s="34">
+        <v>1773019.7135083699</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A291" s="21" t="s">
         <v>110</v>
       </c>
@@ -15012,11 +15547,14 @@
       <c r="Y291" s="19">
         <v>1189234.9066548729</v>
       </c>
-      <c r="Z291" s="19">
+      <c r="Z291" s="34">
         <v>1281324.9454119611</v>
       </c>
-    </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA291" s="34">
+        <v>1431992.2981140874</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
         <v>63</v>
       </c>
@@ -15092,11 +15630,14 @@
       <c r="Y292" s="19">
         <v>969550.13854501233</v>
       </c>
-      <c r="Z292" s="19">
+      <c r="Z292" s="34">
         <v>1053080.4177905039</v>
       </c>
-    </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA292" s="34">
+        <v>1187271.3264641063</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>64</v>
       </c>
@@ -15172,11 +15713,14 @@
       <c r="Y293" s="19">
         <v>459895.87424198515</v>
       </c>
-      <c r="Z293" s="19">
+      <c r="Z293" s="34">
         <v>528285.01684113487</v>
       </c>
-    </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA293" s="34">
+        <v>610786.32336186944</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="21" t="s">
         <v>65</v>
       </c>
@@ -15252,11 +15796,14 @@
       <c r="Y294" s="19">
         <v>464502.05898073327</v>
       </c>
-      <c r="Z294" s="19">
+      <c r="Z294" s="34">
         <v>527468.48766675824</v>
       </c>
-    </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA294" s="34">
+        <v>575344.77135734935</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -15282,9 +15829,10 @@
       <c r="W295" s="19"/>
       <c r="X295" s="19"/>
       <c r="Y295" s="19"/>
-      <c r="Z295" s="19"/>
-    </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z295" s="34"/>
+      <c r="AA295" s="34"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>28</v>
       </c>
@@ -15360,11 +15908,14 @@
       <c r="Y296" s="19">
         <v>24313563.194839686</v>
       </c>
-      <c r="Z296" s="19">
+      <c r="Z296" s="34">
         <v>26446369.494861454</v>
       </c>
-    </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA296" s="34">
+        <v>28014264.435258694</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
@@ -15389,9 +15940,10 @@
       <c r="W297" s="19"/>
       <c r="X297" s="19"/>
       <c r="Y297" s="19"/>
-      <c r="Z297" s="19"/>
-    </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z297" s="34"/>
+      <c r="AA297" s="34"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>11</v>
       </c>
@@ -15467,11 +16019,14 @@
       <c r="Y298" s="19">
         <v>2664589.75636453</v>
       </c>
-      <c r="Z298" s="19">
+      <c r="Z298" s="34">
         <v>3445971.4094762588</v>
       </c>
-    </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA298" s="34">
+        <v>4184441.43374315</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
@@ -15496,9 +16051,10 @@
       <c r="W299" s="19"/>
       <c r="X299" s="19"/>
       <c r="Y299" s="19"/>
-      <c r="Z299" s="19"/>
-    </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z299" s="34"/>
+      <c r="AA299" s="34"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>27</v>
       </c>
@@ -15574,11 +16130,14 @@
       <c r="Y300" s="19">
         <v>26978152.951204218</v>
       </c>
-      <c r="Z300" s="19">
+      <c r="Z300" s="34">
         <v>29892340.904337712</v>
       </c>
-    </row>
-    <row r="301" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA300" s="34">
+        <v>32198705.869001843</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -15605,25 +16164,26 @@
       <c r="X301" s="15"/>
       <c r="Y301" s="15"/>
       <c r="Z301" s="15"/>
-    </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA301" s="15"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -15650,8 +16210,9 @@
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
-    </row>
-    <row r="308" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA307" s="3"/>
+    </row>
+    <row r="308" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -15678,8 +16239,9 @@
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
-    </row>
-    <row r="309" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA308" s="3"/>
+    </row>
+    <row r="309" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>35</v>
       </c>
@@ -15708,10 +16270,11 @@
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
-    </row>
-    <row r="310" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA309" s="3"/>
+    </row>
+    <row r="310" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -15738,8 +16301,9 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
-    </row>
-    <row r="311" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA310" s="3"/>
+    </row>
+    <row r="311" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>30</v>
       </c>
@@ -15768,8 +16332,9 @@
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
-    </row>
-    <row r="312" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA311" s="3"/>
+    </row>
+    <row r="312" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -15796,8 +16361,9 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
-    </row>
-    <row r="313" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA312" s="3"/>
+    </row>
+    <row r="313" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
       <c r="B313" s="7" t="s">
         <v>46</v>
@@ -15826,8 +16392,9 @@
       <c r="X313" s="7"/>
       <c r="Y313" s="7"/>
       <c r="Z313" s="7"/>
-    </row>
-    <row r="314" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA313" s="7"/>
+    </row>
+    <row r="314" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
         <v>33</v>
       </c>
@@ -15906,8 +16473,11 @@
       <c r="Z314" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="316" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA314" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18" t="s">
         <v>50</v>
       </c>
@@ -15983,11 +16553,14 @@
       <c r="Y316" s="19">
         <v>1805216.771038763</v>
       </c>
-      <c r="Z316" s="19">
+      <c r="Z316" s="34">
         <v>1778234.5329187955</v>
       </c>
-    </row>
-    <row r="317" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA316" s="34">
+        <v>1833110.7044894483</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18" t="s">
         <v>33</v>
       </c>
@@ -16063,11 +16636,14 @@
       <c r="Y317" s="19">
         <v>6128235.4957260517</v>
       </c>
-      <c r="Z317" s="19">
+      <c r="Z317" s="34">
         <v>6473862.2736754324</v>
       </c>
-    </row>
-    <row r="318" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA317" s="34">
+        <v>6572519.1983347684</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
         <v>51</v>
       </c>
@@ -16143,11 +16719,14 @@
       <c r="Y318" s="19">
         <v>155251.06421158148</v>
       </c>
-      <c r="Z318" s="19">
+      <c r="Z318" s="34">
         <v>157093.49212779169</v>
       </c>
-    </row>
-    <row r="319" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA318" s="34">
+        <v>160970.86750500789</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
         <v>52</v>
       </c>
@@ -16223,11 +16802,14 @@
       <c r="Y319" s="19">
         <v>3780867.9541197675</v>
       </c>
-      <c r="Z319" s="19">
+      <c r="Z319" s="34">
         <v>3920747.8123008469</v>
       </c>
-    </row>
-    <row r="320" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA319" s="34">
+        <v>4017791.9215538353</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A320" s="21" t="s">
         <v>53</v>
       </c>
@@ -16303,11 +16885,14 @@
       <c r="Y320" s="19">
         <v>684752.72877578484</v>
       </c>
-      <c r="Z320" s="19">
+      <c r="Z320" s="34">
         <v>734556.85213866213</v>
       </c>
-    </row>
-    <row r="321" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA320" s="34">
+        <v>736242.2116152395</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
         <v>54</v>
       </c>
@@ -16383,11 +16968,14 @@
       <c r="Y321" s="19">
         <v>1507363.7486189185</v>
       </c>
-      <c r="Z321" s="19">
+      <c r="Z321" s="34">
         <v>1661464.1171081318</v>
       </c>
-    </row>
-    <row r="322" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA321" s="34">
+        <v>1657514.1976606855</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18" t="s">
         <v>55</v>
       </c>
@@ -16463,11 +17051,14 @@
       <c r="Y322" s="19">
         <v>13112940.310321594</v>
       </c>
-      <c r="Z322" s="19">
+      <c r="Z322" s="34">
         <v>13992259.830376996</v>
       </c>
-    </row>
-    <row r="323" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA322" s="34">
+        <v>14818232.355490401</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A323" s="21" t="s">
         <v>56</v>
       </c>
@@ -16543,11 +17134,14 @@
       <c r="Y323" s="19">
         <v>3914599.666261645</v>
       </c>
-      <c r="Z323" s="19">
+      <c r="Z323" s="34">
         <v>4134470.2170929383</v>
       </c>
-    </row>
-    <row r="324" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA323" s="34">
+        <v>4350304.2183173802</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
         <v>57</v>
       </c>
@@ -16623,11 +17217,14 @@
       <c r="Y324" s="19">
         <v>767806.39153391437</v>
       </c>
-      <c r="Z324" s="19">
+      <c r="Z324" s="34">
         <v>835891.37094878301</v>
       </c>
-    </row>
-    <row r="325" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA324" s="34">
+        <v>893039.18487065181</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="12" t="s">
         <v>58</v>
       </c>
@@ -16703,11 +17300,14 @@
       <c r="Y325" s="19">
         <v>404673.6269512155</v>
       </c>
-      <c r="Z325" s="19">
+      <c r="Z325" s="34">
         <v>446663.65576604172</v>
       </c>
-    </row>
-    <row r="326" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA325" s="34">
+        <v>472959.42557478201</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="12" t="s">
         <v>59</v>
       </c>
@@ -16783,11 +17383,14 @@
       <c r="Y326" s="19">
         <v>718702.50477352284</v>
       </c>
-      <c r="Z326" s="19">
+      <c r="Z326" s="34">
         <v>751073.54546915332</v>
       </c>
-    </row>
-    <row r="327" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA326" s="34">
+        <v>777902.52568063606</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="12" t="s">
         <v>60</v>
       </c>
@@ -16863,11 +17466,14 @@
       <c r="Y327" s="19">
         <v>2160827.4177113292</v>
       </c>
-      <c r="Z327" s="19">
+      <c r="Z327" s="34">
         <v>2353588.3561875867</v>
       </c>
-    </row>
-    <row r="328" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA327" s="34">
+        <v>2490676.8577941461</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="12" t="s">
         <v>61</v>
       </c>
@@ -16943,11 +17549,14 @@
       <c r="Y328" s="19">
         <v>1151913.85692623</v>
       </c>
-      <c r="Z328" s="19">
+      <c r="Z328" s="34">
         <v>1210451.6113743482</v>
       </c>
-    </row>
-    <row r="329" spans="1:26" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA328" s="34">
+        <v>1265175.3023398805</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="21" t="s">
         <v>62</v>
       </c>
@@ -17023,11 +17632,14 @@
       <c r="Y329" s="19">
         <v>1324885.9574571911</v>
       </c>
-      <c r="Z329" s="19">
+      <c r="Z329" s="34">
         <v>1429310.0054726002</v>
       </c>
-    </row>
-    <row r="330" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA329" s="34">
+        <v>1498587.7215126525</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A330" s="21" t="s">
         <v>110</v>
       </c>
@@ -17103,11 +17715,14 @@
       <c r="Y330" s="19">
         <v>1025232.8982083669</v>
       </c>
-      <c r="Z330" s="19">
+      <c r="Z330" s="34">
         <v>1068402.9013361617</v>
       </c>
-    </row>
-    <row r="331" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA330" s="34">
+        <v>1153373.9669523542</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="12" t="s">
         <v>63</v>
       </c>
@@ -17183,11 +17798,14 @@
       <c r="Y331" s="19">
         <v>844717.69514988584</v>
       </c>
-      <c r="Z331" s="19">
+      <c r="Z331" s="34">
         <v>882051.02288188133</v>
       </c>
-    </row>
-    <row r="332" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA331" s="34">
+        <v>955739.83334811137</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="12" t="s">
         <v>64</v>
       </c>
@@ -17263,11 +17881,14 @@
       <c r="Y332" s="19">
         <v>390509.6467165919</v>
       </c>
-      <c r="Z332" s="19">
+      <c r="Z332" s="34">
         <v>433180.77630706487</v>
       </c>
-    </row>
-    <row r="333" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA332" s="34">
+        <v>483519.82658905757</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="21" t="s">
         <v>65</v>
       </c>
@@ -17343,11 +17964,14 @@
       <c r="Y333" s="19">
         <v>409070.64863170183</v>
       </c>
-      <c r="Z333" s="19">
+      <c r="Z333" s="34">
         <v>447176.36754043569</v>
       </c>
-    </row>
-    <row r="334" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA333" s="34">
+        <v>476953.49251074949</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="21"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -17373,9 +17997,10 @@
       <c r="W334" s="19"/>
       <c r="X334" s="19"/>
       <c r="Y334" s="19"/>
-      <c r="Z334" s="19"/>
-    </row>
-    <row r="335" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z334" s="34"/>
+      <c r="AA334" s="34"/>
+    </row>
+    <row r="335" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>28</v>
       </c>
@@ -17451,11 +18076,14 @@
       <c r="Y335" s="19">
         <v>21046392.577086408</v>
       </c>
-      <c r="Z335" s="19">
+      <c r="Z335" s="34">
         <v>22244356.636971224</v>
       </c>
-    </row>
-    <row r="336" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA335" s="34">
+        <v>23223862.258314617</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -17481,9 +18109,10 @@
       <c r="W336" s="19"/>
       <c r="X336" s="19"/>
       <c r="Y336" s="19"/>
-      <c r="Z336" s="19"/>
-    </row>
-    <row r="337" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z336" s="34"/>
+      <c r="AA336" s="34"/>
+    </row>
+    <row r="337" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>11</v>
       </c>
@@ -17559,11 +18188,14 @@
       <c r="Y337" s="19">
         <v>2221265.1887374562</v>
       </c>
-      <c r="Z337" s="19">
+      <c r="Z337" s="34">
         <v>2811383.7339642756</v>
       </c>
-    </row>
-    <row r="338" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA337" s="34">
+        <v>3348836.8323219134</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -17589,9 +18221,10 @@
       <c r="W338" s="19"/>
       <c r="X338" s="19"/>
       <c r="Y338" s="19"/>
-      <c r="Z338" s="19"/>
-    </row>
-    <row r="339" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z338" s="34"/>
+      <c r="AA338" s="34"/>
+    </row>
+    <row r="339" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>27</v>
       </c>
@@ -17667,11 +18300,14 @@
       <c r="Y339" s="19">
         <v>23267657.765823863</v>
       </c>
-      <c r="Z339" s="19">
+      <c r="Z339" s="34">
         <v>25055740.3709355</v>
       </c>
-    </row>
-    <row r="340" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA339" s="34">
+        <v>26572699.090636529</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -17698,49 +18334,50 @@
       <c r="X340" s="15"/>
       <c r="Y340" s="15"/>
       <c r="Z340" s="15"/>
-    </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA340" s="15"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="7" t="s">
         <v>46</v>
@@ -17769,8 +18406,9 @@
       <c r="X352" s="7"/>
       <c r="Y352" s="7"/>
       <c r="Z352" s="7"/>
-    </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA352" s="6"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
         <v>33</v>
       </c>
@@ -17846,9 +18484,12 @@
       <c r="Y353" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z353" s="9"/>
-    </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z353" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA353" s="9"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="18" t="s">
         <v>50</v>
       </c>
@@ -17924,9 +18565,12 @@
       <c r="Y355" s="17">
         <v>5.0943457973083923</v>
       </c>
-      <c r="Z355" s="17"/>
-    </row>
-    <row r="356" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z355" s="17">
+        <v>0.223920660907865</v>
+      </c>
+      <c r="AA355" s="17"/>
+    </row>
+    <row r="356" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="18" t="s">
         <v>33</v>
       </c>
@@ -18002,9 +18646,12 @@
       <c r="Y356" s="17">
         <v>6.829280109983344</v>
       </c>
-      <c r="Z356" s="17"/>
-    </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z356" s="17">
+        <v>3.0778534327533009</v>
+      </c>
+      <c r="AA356" s="17"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="12" t="s">
         <v>51</v>
       </c>
@@ -18080,9 +18727,12 @@
       <c r="Y357" s="17">
         <v>0.73278224412815973</v>
       </c>
-      <c r="Z357" s="17"/>
-    </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z357" s="17">
+        <v>13.261624270782264</v>
+      </c>
+      <c r="AA357" s="17"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="12" t="s">
         <v>52</v>
       </c>
@@ -18158,9 +18808,12 @@
       <c r="Y358" s="17">
         <v>5.0648391237490813</v>
       </c>
-      <c r="Z358" s="17"/>
-    </row>
-    <row r="359" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z358" s="17">
+        <v>3.5538879358152826</v>
+      </c>
+      <c r="AA358" s="17"/>
+    </row>
+    <row r="359" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A359" s="21" t="s">
         <v>53</v>
       </c>
@@ -18236,9 +18889,12 @@
       <c r="Y359" s="17">
         <v>6.2607329833682854</v>
       </c>
-      <c r="Z359" s="17"/>
-    </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z359" s="17">
+        <v>3.3000962298451526</v>
+      </c>
+      <c r="AA359" s="17"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="12" t="s">
         <v>54</v>
       </c>
@@ -18314,9 +18970,12 @@
       <c r="Y360" s="17">
         <v>11.661080263915878</v>
       </c>
-      <c r="Z360" s="17"/>
-    </row>
-    <row r="361" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z360" s="17">
+        <v>0.85288082629347173</v>
+      </c>
+      <c r="AA360" s="17"/>
+    </row>
+    <row r="361" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="18" t="s">
         <v>55</v>
       </c>
@@ -18392,9 +19051,12 @@
       <c r="Y361" s="17">
         <v>10.20400234643526</v>
       </c>
-      <c r="Z361" s="17"/>
-    </row>
-    <row r="362" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z361" s="17">
+        <v>7.9968138097116679</v>
+      </c>
+      <c r="AA361" s="17"/>
+    </row>
+    <row r="362" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A362" s="21" t="s">
         <v>56</v>
       </c>
@@ -18470,9 +19132,12 @@
       <c r="Y362" s="17">
         <v>9.7038408649414976</v>
       </c>
-      <c r="Z362" s="17"/>
-    </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z362" s="17">
+        <v>6.578165243003383</v>
+      </c>
+      <c r="AA362" s="17"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="12" t="s">
         <v>57</v>
       </c>
@@ -18548,9 +19213,12 @@
       <c r="Y363" s="17">
         <v>10.00492533404072</v>
       </c>
-      <c r="Z363" s="17"/>
-    </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z363" s="17">
+        <v>7.7363786172058013</v>
+      </c>
+      <c r="AA363" s="17"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="12" t="s">
         <v>58</v>
       </c>
@@ -18626,9 +19294,12 @@
       <c r="Y364" s="17">
         <v>14.846357076878618</v>
       </c>
-      <c r="Z364" s="17"/>
-    </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z364" s="17">
+        <v>8.3247387385524689</v>
+      </c>
+      <c r="AA364" s="17"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="12" t="s">
         <v>59</v>
       </c>
@@ -18704,9 +19375,12 @@
       <c r="Y365" s="17">
         <v>4.9643544658837442</v>
       </c>
-      <c r="Z365" s="17"/>
-    </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z365" s="17">
+        <v>4.1015533565112321</v>
+      </c>
+      <c r="AA365" s="17"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="12" t="s">
         <v>60</v>
       </c>
@@ -18782,9 +19456,12 @@
       <c r="Y366" s="17">
         <v>12.561633614395262</v>
       </c>
-      <c r="Z366" s="17"/>
-    </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z366" s="17">
+        <v>7.5569072186315367</v>
+      </c>
+      <c r="AA366" s="17"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="12" t="s">
         <v>61</v>
       </c>
@@ -18860,9 +19537,12 @@
       <c r="Y367" s="17">
         <v>8.5044673974346239</v>
       </c>
-      <c r="Z367" s="17"/>
-    </row>
-    <row r="368" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z367" s="17">
+        <v>6.4785126864365736</v>
+      </c>
+      <c r="AA367" s="17"/>
+    </row>
+    <row r="368" spans="1:27" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="21" t="s">
         <v>62</v>
       </c>
@@ -18938,9 +19618,12 @@
       <c r="Y368" s="17">
         <v>10.828981045856452</v>
       </c>
-      <c r="Z368" s="17"/>
-    </row>
-    <row r="369" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z368" s="17">
+        <v>7.4599146125740958</v>
+      </c>
+      <c r="AA368" s="17"/>
+    </row>
+    <row r="369" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="21" t="s">
         <v>110</v>
       </c>
@@ -19016,9 +19699,12 @@
       <c r="Y369" s="17">
         <v>7.7436373791047544</v>
       </c>
-      <c r="Z369" s="17"/>
-    </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z369" s="17">
+        <v>11.758715323667161</v>
+      </c>
+      <c r="AA369" s="17"/>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="12" t="s">
         <v>63</v>
       </c>
@@ -19094,9 +19780,12 @@
       <c r="Y370" s="17">
         <v>8.6153645824695673</v>
       </c>
-      <c r="Z370" s="17"/>
-    </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z370" s="17">
+        <v>12.74270287497626</v>
+      </c>
+      <c r="AA370" s="17"/>
+    </row>
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="12" t="s">
         <v>64</v>
       </c>
@@ -19172,9 +19861,12 @@
       <c r="Y371" s="17">
         <v>14.870571020423014</v>
       </c>
-      <c r="Z371" s="17"/>
-    </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z371" s="17">
+        <v>15.616817416865004</v>
+      </c>
+      <c r="AA371" s="17"/>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="21" t="s">
         <v>65</v>
       </c>
@@ -19250,9 +19942,12 @@
       <c r="Y372" s="17">
         <v>13.555683439637178</v>
       </c>
-      <c r="Z372" s="17"/>
-    </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z372" s="17">
+        <v>9.0766149656390667</v>
+      </c>
+      <c r="AA372" s="17"/>
+    </row>
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="21"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -19279,8 +19974,9 @@
       <c r="X373" s="17"/>
       <c r="Y373" s="17"/>
       <c r="Z373" s="17"/>
-    </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA373" s="17"/>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>28</v>
       </c>
@@ -19356,9 +20052,12 @@
       <c r="Y374" s="17">
         <v>8.772084465490579</v>
       </c>
-      <c r="Z374" s="17"/>
-    </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z374" s="17">
+        <v>5.9285829032294401</v>
+      </c>
+      <c r="AA374" s="17"/>
+    </row>
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
       <c r="D375" s="17"/>
@@ -19384,8 +20083,9 @@
       <c r="X375" s="17"/>
       <c r="Y375" s="17"/>
       <c r="Z375" s="17"/>
-    </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA375" s="17"/>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>11</v>
       </c>
@@ -19461,9 +20161,12 @@
       <c r="Y376" s="17">
         <v>29.324651243042297</v>
       </c>
-      <c r="Z376" s="17"/>
-    </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z376" s="17">
+        <v>21.429952153292191</v>
+      </c>
+      <c r="AA376" s="17"/>
+    </row>
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
       <c r="D377" s="17"/>
@@ -19489,8 +20192,9 @@
       <c r="X377" s="17"/>
       <c r="Y377" s="17"/>
       <c r="Z377" s="17"/>
-    </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA377" s="17"/>
+    </row>
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>27</v>
       </c>
@@ -19566,9 +20270,12 @@
       <c r="Y378" s="17">
         <v>10.8020291767358</v>
       </c>
-      <c r="Z378" s="17"/>
-    </row>
-    <row r="379" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z378" s="17">
+        <v>7.715571597570829</v>
+      </c>
+      <c r="AA378" s="17"/>
+    </row>
+    <row r="379" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -19595,49 +20302,50 @@
       <c r="X379" s="15"/>
       <c r="Y379" s="15"/>
       <c r="Z379" s="15"/>
-    </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA379" s="15"/>
+    </row>
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="7" t="s">
         <v>46</v>
@@ -19666,8 +20374,9 @@
       <c r="X391" s="7"/>
       <c r="Y391" s="7"/>
       <c r="Z391" s="7"/>
-    </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA391" s="6"/>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
         <v>33</v>
       </c>
@@ -19743,9 +20452,12 @@
       <c r="Y392" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z392" s="9"/>
-    </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z392" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA392" s="9"/>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="18" t="s">
         <v>50</v>
       </c>
@@ -19821,9 +20533,12 @@
       <c r="Y394" s="17">
         <v>-1.494681334277729</v>
       </c>
-      <c r="Z394" s="17"/>
-    </row>
-    <row r="395" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z394" s="17">
+        <v>3.0859917831299413</v>
+      </c>
+      <c r="AA394" s="17"/>
+    </row>
+    <row r="395" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="18" t="s">
         <v>33</v>
       </c>
@@ -19899,9 +20614,12 @@
       <c r="Y395" s="17">
         <v>5.6399069224808187</v>
       </c>
-      <c r="Z395" s="17"/>
-    </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z395" s="17">
+        <v>1.5239268382415645</v>
+      </c>
+      <c r="AA395" s="17"/>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="12" t="s">
         <v>51</v>
       </c>
@@ -19977,9 +20695,12 @@
       <c r="Y396" s="17">
         <v>1.1867409254594747</v>
       </c>
-      <c r="Z396" s="17"/>
-    </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z396" s="17">
+        <v>2.468196056181668</v>
+      </c>
+      <c r="AA396" s="17"/>
+    </row>
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="12" t="s">
         <v>52</v>
       </c>
@@ -20055,9 +20776,12 @@
       <c r="Y397" s="17">
         <v>3.6996758384185711</v>
       </c>
-      <c r="Z397" s="17"/>
-    </row>
-    <row r="398" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z397" s="17">
+        <v>2.4751428528130504</v>
+      </c>
+      <c r="AA397" s="17"/>
+    </row>
+    <row r="398" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A398" s="21" t="s">
         <v>53</v>
       </c>
@@ -20133,9 +20857,12 @@
       <c r="Y398" s="17">
         <v>7.2733004586806231</v>
       </c>
-      <c r="Z398" s="17"/>
-    </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z398" s="17">
+        <v>0.22943894290420985</v>
+      </c>
+      <c r="AA398" s="17"/>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="12" t="s">
         <v>54</v>
       </c>
@@ -20211,9 +20938,12 @@
       <c r="Y399" s="17">
         <v>10.223170660061555</v>
       </c>
-      <c r="Z399" s="17"/>
-    </row>
-    <row r="400" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z399" s="17">
+        <v>-0.23773727080674689</v>
+      </c>
+      <c r="AA399" s="17"/>
+    </row>
+    <row r="400" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="18" t="s">
         <v>55</v>
       </c>
@@ -20289,9 +21019,12 @@
       <c r="Y400" s="17">
         <v>6.705738753064125</v>
       </c>
-      <c r="Z400" s="17"/>
-    </row>
-    <row r="401" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z400" s="17">
+        <v>5.9030673752943841</v>
+      </c>
+      <c r="AA400" s="17"/>
+    </row>
+    <row r="401" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A401" s="21" t="s">
         <v>56</v>
       </c>
@@ -20367,9 +21100,12 @@
       <c r="Y401" s="17">
         <v>5.6166803652048571</v>
       </c>
-      <c r="Z401" s="17"/>
-    </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z401" s="17">
+        <v>5.220354480536102</v>
+      </c>
+      <c r="AA401" s="17"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="12" t="s">
         <v>57</v>
       </c>
@@ -20445,9 +21181,12 @@
       <c r="Y402" s="17">
         <v>8.8674671330684305</v>
       </c>
-      <c r="Z402" s="17"/>
-    </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z402" s="17">
+        <v>6.8367512703239015</v>
+      </c>
+      <c r="AA402" s="17"/>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="12" t="s">
         <v>58</v>
       </c>
@@ -20523,9 +21262,12 @@
       <c r="Y403" s="17">
         <v>10.376270163977907</v>
       </c>
-      <c r="Z403" s="17"/>
-    </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z403" s="17">
+        <v>5.8871523279954801</v>
+      </c>
+      <c r="AA403" s="17"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="12" t="s">
         <v>59</v>
       </c>
@@ -20601,9 +21343,12 @@
       <c r="Y404" s="17">
         <v>4.5040945983388667</v>
       </c>
-      <c r="Z404" s="17"/>
-    </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z404" s="17">
+        <v>3.5720843016410839</v>
+      </c>
+      <c r="AA404" s="17"/>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="12" t="s">
         <v>60</v>
       </c>
@@ -20679,9 +21424,12 @@
       <c r="Y405" s="17">
         <v>8.9207003250830041</v>
       </c>
-      <c r="Z405" s="17"/>
-    </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z405" s="17">
+        <v>5.8246592377190183</v>
+      </c>
+      <c r="AA405" s="17"/>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="12" t="s">
         <v>61</v>
       </c>
@@ -20757,9 +21505,12 @@
       <c r="Y406" s="17">
         <v>5.0817822961449934</v>
       </c>
-      <c r="Z406" s="17"/>
-    </row>
-    <row r="407" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z406" s="17">
+        <v>4.5209317292245146</v>
+      </c>
+      <c r="AA406" s="17"/>
+    </row>
+    <row r="407" spans="1:27" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21" t="s">
         <v>62</v>
       </c>
@@ -20835,9 +21586,12 @@
       <c r="Y407" s="17">
         <v>7.8817386075875362</v>
       </c>
-      <c r="Z407" s="17"/>
-    </row>
-    <row r="408" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z407" s="17">
+        <v>4.8469342392342298</v>
+      </c>
+      <c r="AA407" s="17"/>
+    </row>
+    <row r="408" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A408" s="21" t="s">
         <v>110</v>
       </c>
@@ -20913,9 +21667,12 @@
       <c r="Y408" s="17">
         <v>4.2107508648265224</v>
       </c>
-      <c r="Z408" s="17"/>
-    </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z408" s="17">
+        <v>7.9530919945955247</v>
+      </c>
+      <c r="AA408" s="17"/>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="12" t="s">
         <v>63</v>
       </c>
@@ -20991,9 +21748,12 @@
       <c r="Y409" s="17">
         <v>4.4196218389116524</v>
       </c>
-      <c r="Z409" s="17"/>
-    </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z409" s="17">
+        <v>8.3542571296465695</v>
+      </c>
+      <c r="AA409" s="17"/>
+    </row>
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="12" t="s">
         <v>64</v>
       </c>
@@ -21069,9 +21829,12 @@
       <c r="Y410" s="17">
         <v>10.927035977024417</v>
       </c>
-      <c r="Z410" s="17"/>
-    </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z410" s="17">
+        <v>11.620795066471118</v>
+      </c>
+      <c r="AA410" s="17"/>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="21" t="s">
         <v>65</v>
       </c>
@@ -21147,9 +21910,12 @@
       <c r="Y411" s="17">
         <v>9.3151926289978206</v>
       </c>
-      <c r="Z411" s="17"/>
-    </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z411" s="17">
+        <v>6.658921877758047</v>
+      </c>
+      <c r="AA411" s="17"/>
+    </row>
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="21"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -21176,8 +21942,9 @@
       <c r="X412" s="17"/>
       <c r="Y412" s="17"/>
       <c r="Z412" s="17"/>
-    </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA412" s="17"/>
+    </row>
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>28</v>
       </c>
@@ -21253,9 +22020,12 @@
       <c r="Y413" s="17">
         <v>5.6920161281656618</v>
       </c>
-      <c r="Z413" s="17"/>
-    </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z413" s="17">
+        <v>4.403389306011249</v>
+      </c>
+      <c r="AA413" s="17"/>
+    </row>
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="D414" s="17"/>
@@ -21281,8 +22051,9 @@
       <c r="X414" s="17"/>
       <c r="Y414" s="17"/>
       <c r="Z414" s="17"/>
-    </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA414" s="17"/>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>11</v>
       </c>
@@ -21358,9 +22129,12 @@
       <c r="Y415" s="17">
         <v>26.566775917567796</v>
       </c>
-      <c r="Z415" s="17"/>
-    </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z415" s="17">
+        <v>19.117030943327904</v>
+      </c>
+      <c r="AA415" s="17"/>
+    </row>
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
       <c r="D416" s="17"/>
@@ -21386,8 +22160,9 @@
       <c r="X416" s="17"/>
       <c r="Y416" s="17"/>
       <c r="Z416" s="17"/>
-    </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA416" s="17"/>
+    </row>
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>27</v>
       </c>
@@ -21463,9 +22238,12 @@
       <c r="Y417" s="17">
         <v>7.6848414357289414</v>
       </c>
-      <c r="Z417" s="17"/>
-    </row>
-    <row r="418" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z417" s="17">
+        <v>6.0543360413356311</v>
+      </c>
+      <c r="AA417" s="17"/>
+    </row>
+    <row r="418" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -21492,26 +22270,27 @@
       <c r="X418" s="15"/>
       <c r="Y418" s="15"/>
       <c r="Z418" s="15"/>
-    </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA418" s="15"/>
+    </row>
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
     </row>
-    <row r="425" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>38</v>
       </c>
@@ -21540,10 +22319,11 @@
       <c r="X425" s="3"/>
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
-    </row>
-    <row r="426" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA425" s="3"/>
+    </row>
+    <row r="426" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -21570,8 +22350,9 @@
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
-    </row>
-    <row r="427" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA426" s="3"/>
+    </row>
+    <row r="427" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>31</v>
       </c>
@@ -21600,8 +22381,9 @@
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
-    </row>
-    <row r="428" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA427" s="3"/>
+    </row>
+    <row r="428" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -21628,8 +22410,9 @@
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
-    </row>
-    <row r="429" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA428" s="3"/>
+    </row>
+    <row r="429" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
       <c r="B429" s="7" t="s">
         <v>46</v>
@@ -21658,8 +22441,9 @@
       <c r="X429" s="7"/>
       <c r="Y429" s="7"/>
       <c r="Z429" s="7"/>
-    </row>
-    <row r="430" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA429" s="7"/>
+    </row>
+    <row r="430" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
         <v>33</v>
       </c>
@@ -21738,8 +22522,11 @@
       <c r="Z430" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="432" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA430" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="432" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="18" t="s">
         <v>50</v>
       </c>
@@ -21818,8 +22605,11 @@
       <c r="Z432" s="17">
         <v>135.07771604460325</v>
       </c>
-    </row>
-    <row r="433" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA432" s="17">
+        <v>131.32742928245719</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="18" t="s">
         <v>33</v>
       </c>
@@ -21898,8 +22688,11 @@
       <c r="Z433" s="17">
         <v>113.13264691583522</v>
       </c>
-    </row>
-    <row r="434" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA433" s="17">
+        <v>114.86425673654404</v>
+      </c>
+    </row>
+    <row r="434" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="12" t="s">
         <v>51</v>
       </c>
@@ -21978,8 +22771,11 @@
       <c r="Z434" s="17">
         <v>148.87479456602225</v>
       </c>
-    </row>
-    <row r="435" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA434" s="17">
+        <v>164.55643501600881</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="12" t="s">
         <v>52</v>
       </c>
@@ -22058,8 +22854,11 @@
       <c r="Z435" s="17">
         <v>105.74609828061301</v>
       </c>
-    </row>
-    <row r="436" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA435" s="17">
+        <v>106.85927636840282</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A436" s="21" t="s">
         <v>53</v>
       </c>
@@ -22138,8 +22937,11 @@
       <c r="Z436" s="17">
         <v>122.1210817371786</v>
       </c>
-    </row>
-    <row r="437" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA436" s="17">
+        <v>125.86241755109042</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="12" t="s">
         <v>54</v>
       </c>
@@ -22218,8 +23020,11 @@
       <c r="Z437" s="17">
         <v>123.2101556932198</v>
       </c>
-    </row>
-    <row r="438" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA437" s="17">
+        <v>124.55711016146722</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="18" t="s">
         <v>55</v>
       </c>
@@ -22298,8 +23103,11 @@
       <c r="Z438" s="17">
         <v>119.4969172719625</v>
       </c>
-    </row>
-    <row r="439" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA438" s="17">
+        <v>121.85941961172378</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A439" s="21" t="s">
         <v>56</v>
       </c>
@@ -22378,8 +23186,11 @@
       <c r="Z439" s="17">
         <v>117.95358616956575</v>
       </c>
-    </row>
-    <row r="440" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA439" s="17">
+        <v>119.47571227875193</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="12" t="s">
         <v>57</v>
       </c>
@@ -22458,8 +23269,11 @@
       <c r="Z440" s="17">
         <v>128.6687686162096</v>
       </c>
-    </row>
-    <row r="441" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA440" s="17">
+        <v>129.75223419860899</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="12" t="s">
         <v>58</v>
       </c>
@@ -22538,8 +23352,11 @@
       <c r="Z441" s="17">
         <v>131.18526437669416</v>
       </c>
-    </row>
-    <row r="442" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA441" s="17">
+        <v>134.2052286563966</v>
+      </c>
+    </row>
+    <row r="442" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="12" t="s">
         <v>59</v>
       </c>
@@ -22618,8 +23435,11 @@
       <c r="Z442" s="17">
         <v>102.3631771583939</v>
       </c>
-    </row>
-    <row r="443" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA442" s="17">
+        <v>102.88646618003523</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="12" t="s">
         <v>60</v>
       </c>
@@ -22698,8 +23518,11 @@
       <c r="Z443" s="17">
         <v>122.67567877289063</v>
       </c>
-    </row>
-    <row r="444" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA443" s="17">
+        <v>124.68376175082921</v>
+      </c>
+    </row>
+    <row r="444" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="12" t="s">
         <v>61</v>
       </c>
@@ -22778,8 +23601,11 @@
       <c r="Z444" s="17">
         <v>122.75395490008825</v>
       </c>
-    </row>
-    <row r="445" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA444" s="17">
+        <v>125.05302361827968</v>
+      </c>
+    </row>
+    <row r="445" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="21" t="s">
         <v>62</v>
       </c>
@@ -22858,8 +23684,11 @@
       <c r="Z445" s="17">
         <v>115.43583250637219</v>
       </c>
-    </row>
-    <row r="446" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA445" s="17">
+        <v>118.31270789531825</v>
+      </c>
+    </row>
+    <row r="446" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A446" s="21" t="s">
         <v>110</v>
       </c>
@@ -22938,8 +23767,11 @@
       <c r="Z446" s="17">
         <v>119.92900279562286</v>
       </c>
-    </row>
-    <row r="447" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA446" s="17">
+        <v>124.15680769160649</v>
+      </c>
+    </row>
+    <row r="447" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="12" t="s">
         <v>63</v>
       </c>
@@ -23018,8 +23850,11 @@
       <c r="Z447" s="17">
         <v>119.38996616656334</v>
       </c>
-    </row>
-    <row r="448" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA447" s="17">
+        <v>124.22536814280332</v>
+      </c>
+    </row>
+    <row r="448" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="12" t="s">
         <v>64</v>
       </c>
@@ -23098,8 +23933,11 @@
       <c r="Z448" s="17">
         <v>121.95486174267675</v>
       </c>
-    </row>
-    <row r="449" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA448" s="17">
+        <v>126.32084348445454</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="21" t="s">
         <v>65</v>
       </c>
@@ -23178,8 +24016,11 @@
       <c r="Z449" s="17">
         <v>117.95535854632617</v>
       </c>
-    </row>
-    <row r="450" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA449" s="17">
+        <v>120.62911382169663</v>
+      </c>
+    </row>
+    <row r="450" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="21"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -23206,8 +24047,9 @@
       <c r="X450" s="17"/>
       <c r="Y450" s="17"/>
       <c r="Z450" s="17"/>
-    </row>
-    <row r="451" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA450" s="17"/>
+    </row>
+    <row r="451" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>28</v>
       </c>
@@ -23286,8 +24128,11 @@
       <c r="Z451" s="17">
         <v>118.89024225994595</v>
       </c>
-    </row>
-    <row r="452" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA451" s="17">
+        <v>120.62706936366287</v>
+      </c>
+    </row>
+    <row r="452" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -23314,8 +24159,9 @@
       <c r="X452" s="17"/>
       <c r="Y452" s="17"/>
       <c r="Z452" s="17"/>
-    </row>
-    <row r="453" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA452" s="17"/>
+    </row>
+    <row r="453" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>11</v>
       </c>
@@ -23394,8 +24240,11 @@
       <c r="Z453" s="17">
         <v>122.57207608643179</v>
       </c>
-    </row>
-    <row r="454" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA453" s="17">
+        <v>124.9520846568649</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -23422,8 +24271,9 @@
       <c r="X454" s="17"/>
       <c r="Y454" s="17"/>
       <c r="Z454" s="17"/>
-    </row>
-    <row r="455" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA454" s="17"/>
+    </row>
+    <row r="455" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>27</v>
       </c>
@@ -23502,8 +24352,11 @@
       <c r="Z455" s="17">
         <v>119.30336306889832</v>
       </c>
-    </row>
-    <row r="456" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA455" s="17">
+        <v>121.1721314390218</v>
+      </c>
+    </row>
+    <row r="456" spans="1:27" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -23530,8 +24383,9 @@
       <c r="X456" s="15"/>
       <c r="Y456" s="15"/>
       <c r="Z456" s="15"/>
-    </row>
-    <row r="457" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA456" s="15"/>
+    </row>
+    <row r="457" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>0</v>
       </c>
@@ -23560,44 +24414,45 @@
       <c r="X457" s="3"/>
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
-    </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA457" s="3"/>
+    </row>
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
     </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
       <c r="B468" s="7" t="s">
         <v>46</v>
@@ -23626,8 +24481,9 @@
       <c r="X468" s="7"/>
       <c r="Y468" s="7"/>
       <c r="Z468" s="7"/>
-    </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA468" s="7"/>
+    </row>
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
         <v>33</v>
       </c>
@@ -23706,8 +24562,11 @@
       <c r="Z469" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA469" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="18" t="s">
         <v>50</v>
       </c>
@@ -23786,8 +24645,11 @@
       <c r="Z471" s="17">
         <v>9.0825267848195104</v>
       </c>
-    </row>
-    <row r="472" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA471" s="17">
+        <v>8.5933977301849591</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="18" t="s">
         <v>33</v>
       </c>
@@ -23866,8 +24728,11 @@
       <c r="Z472" s="17">
         <v>27.693977993152352</v>
       </c>
-    </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA472" s="17">
+        <v>26.948683030678254</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="12" t="s">
         <v>51</v>
       </c>
@@ -23946,8 +24811,11 @@
       <c r="Z473" s="17">
         <v>0.88432786105965056</v>
       </c>
-    </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA473" s="17">
+        <v>0.94554658607133213</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="12" t="s">
         <v>52</v>
       </c>
@@ -24026,8 +24894,11 @@
       <c r="Z474" s="17">
         <v>15.677153099355341</v>
       </c>
-    </row>
-    <row r="475" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA474" s="17">
+        <v>15.32570445775093</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A475" s="21" t="s">
         <v>53</v>
       </c>
@@ -24106,8 +24977,11 @@
       <c r="Z475" s="17">
         <v>3.3919543246970019</v>
       </c>
-    </row>
-    <row r="476" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA475" s="17">
+        <v>3.3077871764652613</v>
+      </c>
+    </row>
+    <row r="476" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="12" t="s">
         <v>54</v>
       </c>
@@ -24186,8 +25060,11 @@
       <c r="Z476" s="17">
         <v>7.740542708040361</v>
       </c>
-    </row>
-    <row r="477" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA476" s="17">
+        <v>7.3696448103907342</v>
+      </c>
+    </row>
+    <row r="477" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="18" t="s">
         <v>55</v>
       </c>
@@ -24266,8 +25143,11 @@
       <c r="Z477" s="17">
         <v>63.223495222028149</v>
       </c>
-    </row>
-    <row r="478" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA477" s="17">
+        <v>64.457919239136785</v>
+      </c>
+    </row>
+    <row r="478" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A478" s="21" t="s">
         <v>56</v>
       </c>
@@ -24346,8 +25226,11 @@
       <c r="Z478" s="17">
         <v>18.440171499234733</v>
       </c>
-    </row>
-    <row r="479" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA478" s="17">
+        <v>18.553251552040205</v>
+      </c>
+    </row>
+    <row r="479" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="12" t="s">
         <v>57</v>
       </c>
@@ -24426,8 +25309,11 @@
       <c r="Z479" s="17">
         <v>4.0668384905456616</v>
       </c>
-    </row>
-    <row r="480" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA479" s="17">
+        <v>4.1362438671790764</v>
+      </c>
+    </row>
+    <row r="480" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="12" t="s">
         <v>58</v>
       </c>
@@ -24506,8 +25392,11 @@
       <c r="Z480" s="17">
         <v>2.2156421046947141</v>
       </c>
-    </row>
-    <row r="481" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA480" s="17">
+        <v>2.2657610019049379</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="12" t="s">
         <v>59</v>
       </c>
@@ -24586,8 +25475,11 @@
       <c r="Z481" s="17">
         <v>2.9071012718316678</v>
       </c>
-    </row>
-    <row r="482" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA481" s="17">
+        <v>2.8569603205098635</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="12" t="s">
         <v>60</v>
       </c>
@@ -24666,8 +25558,11 @@
       <c r="Z482" s="17">
         <v>10.917492822725029</v>
       </c>
-    </row>
-    <row r="483" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA482" s="17">
+        <v>11.085315506076807</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="12" t="s">
         <v>61</v>
       </c>
@@ -24746,8 +25641,11 @@
       <c r="Z483" s="17">
         <v>5.6184544551665807</v>
       </c>
-    </row>
-    <row r="484" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA483" s="17">
+        <v>5.6476227434208628</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21" t="s">
         <v>62</v>
       </c>
@@ -24826,8 +25724,11 @@
       <c r="Z484" s="17">
         <v>6.2387992583812073</v>
       </c>
-    </row>
-    <row r="485" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA484" s="17">
+        <v>6.3289889963230692</v>
+      </c>
+    </row>
+    <row r="485" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A485" s="21" t="s">
         <v>110</v>
       </c>
@@ -24906,8 +25807,11 @@
       <c r="Z485" s="17">
         <v>4.8449937359489867</v>
       </c>
-    </row>
-    <row r="486" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA485" s="17">
+        <v>5.1116541054413158</v>
+      </c>
+    </row>
+    <row r="486" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="12" t="s">
         <v>63</v>
       </c>
@@ -24986,8 +25890,11 @@
       <c r="Z486" s="17">
         <v>3.9819470040873406</v>
       </c>
-    </row>
-    <row r="487" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA486" s="17">
+        <v>4.2380956644708796</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="12" t="s">
         <v>64</v>
       </c>
@@ -25066,8 +25973,11 @@
       <c r="Z487" s="17">
         <v>1.9975710350102345</v>
       </c>
-    </row>
-    <row r="488" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA487" s="17">
+        <v>2.180269001077662</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="21" t="s">
         <v>65</v>
       </c>
@@ -25146,8 +26056,11 @@
       <c r="Z488" s="17">
         <v>1.9944835444019857</v>
       </c>
-    </row>
-    <row r="489" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA488" s="17">
+        <v>2.053756480692106</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="21"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -25174,8 +26087,9 @@
       <c r="X489" s="17"/>
       <c r="Y489" s="17"/>
       <c r="Z489" s="17"/>
-    </row>
-    <row r="490" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA489" s="17"/>
+    </row>
+    <row r="490" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="14" t="s">
         <v>28</v>
       </c>
@@ -25254,8 +26168,11 @@
       <c r="Z490" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="491" spans="1:26" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA490" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>49</v>
       </c>
@@ -25334,8 +26251,11 @@
       <c r="Z491" s="17">
         <v>88.472059045144206</v>
       </c>
-    </row>
-    <row r="492" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA491" s="17">
+        <v>87.004317966171513</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>11</v>
       </c>
@@ -25414,8 +26334,11 @@
       <c r="Z492" s="17">
         <v>11.527940954855797</v>
       </c>
-    </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA492" s="17">
+        <v>12.995682033828485</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
       <c r="D493" s="17"/>
@@ -25441,8 +26364,9 @@
       <c r="X493" s="17"/>
       <c r="Y493" s="17"/>
       <c r="Z493" s="17"/>
-    </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA493" s="17"/>
+    </row>
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>27</v>
       </c>
@@ -25521,8 +26445,11 @@
       <c r="Z494" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="495" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA494" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -25549,49 +26476,50 @@
       <c r="X495" s="15"/>
       <c r="Y495" s="15"/>
       <c r="Z495" s="15"/>
-    </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA495" s="15"/>
+    </row>
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="502" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A504" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="505" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
       <c r="B507" s="7" t="s">
         <v>46</v>
@@ -25620,8 +26548,9 @@
       <c r="X507" s="7"/>
       <c r="Y507" s="7"/>
       <c r="Z507" s="7"/>
-    </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA507" s="7"/>
+    </row>
+    <row r="508" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
         <v>33</v>
       </c>
@@ -25700,8 +26629,11 @@
       <c r="Z508" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="510" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA508" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="510" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="18" t="s">
         <v>50</v>
       </c>
@@ -25780,8 +26712,11 @@
       <c r="Z510" s="17">
         <v>7.9940928925913797</v>
       </c>
-    </row>
-    <row r="511" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA510" s="17">
+        <v>7.8932207059278321</v>
+      </c>
+    </row>
+    <row r="511" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="18" t="s">
         <v>33</v>
       </c>
@@ -25860,8 +26795,11 @@
       <c r="Z511" s="17">
         <v>29.103391836990927</v>
       </c>
-    </row>
-    <row r="512" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA511" s="17">
+        <v>28.300715553812211</v>
+      </c>
+    </row>
+    <row r="512" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="12" t="s">
         <v>51</v>
       </c>
@@ -25940,8 +26878,11 @@
       <c r="Z512" s="17">
         <v>0.70621728778927462</v>
       </c>
-    </row>
-    <row r="513" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA512" s="17">
+        <v>0.69312703337007187</v>
+      </c>
+    </row>
+    <row r="513" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="12" t="s">
         <v>52</v>
       </c>
@@ -26020,8 +26961,11 @@
       <c r="Z513" s="17">
         <v>17.625808991860747</v>
       </c>
-    </row>
-    <row r="514" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA513" s="17">
+        <v>17.300274505871151</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A514" s="21" t="s">
         <v>53</v>
       </c>
@@ -26100,8 +27044,11 @@
       <c r="Z514" s="17">
         <v>3.3022166661264194</v>
       </c>
-    </row>
-    <row r="515" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA514" s="17">
+        <v>3.170197116337313</v>
+      </c>
+    </row>
+    <row r="515" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="12" t="s">
         <v>54</v>
       </c>
@@ -26180,8 +27127,11 @@
       <c r="Z515" s="17">
         <v>7.469148891214485</v>
       </c>
-    </row>
-    <row r="516" spans="1:26" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA515" s="17">
+        <v>7.1371168982336766</v>
+      </c>
+    </row>
+    <row r="516" spans="1:27" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="18" t="s">
         <v>55</v>
       </c>
@@ -26260,8 +27210,11 @@
       <c r="Z516" s="17">
         <v>62.902515270417695</v>
       </c>
-    </row>
-    <row r="517" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA516" s="17">
+        <v>63.806063740259965</v>
+      </c>
+    </row>
+    <row r="517" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A517" s="21" t="s">
         <v>56</v>
       </c>
@@ -26340,8 +27293,11 @@
       <c r="Z517" s="17">
         <v>18.586602816020509</v>
       </c>
-    </row>
-    <row r="518" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA517" s="17">
+        <v>18.732044523558447</v>
+      </c>
+    </row>
+    <row r="518" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A518" s="12" t="s">
         <v>57</v>
       </c>
@@ -26420,8 +27376,11 @@
       <c r="Z518" s="17">
         <v>3.7577682492263684</v>
       </c>
-    </row>
-    <row r="519" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA518" s="17">
+        <v>3.8453517116900979</v>
+      </c>
+    </row>
+    <row r="519" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A519" s="12" t="s">
         <v>58</v>
       </c>
@@ -26500,8 +27459,11 @@
       <c r="Z519" s="17">
         <v>2.0079863987779469</v>
       </c>
-    </row>
-    <row r="520" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA519" s="17">
+        <v>2.03652355630663</v>
+      </c>
+    </row>
+    <row r="520" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A520" s="12" t="s">
         <v>59</v>
       </c>
@@ -26580,8 +27542,11 @@
       <c r="Z520" s="17">
         <v>3.3764678283427259</v>
       </c>
-    </row>
-    <row r="521" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA520" s="17">
+        <v>3.3495829290932475</v>
+      </c>
+    </row>
+    <row r="521" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="12" t="s">
         <v>60</v>
       </c>
@@ -26660,8 +27625,11 @@
       <c r="Z521" s="17">
         <v>10.580608801586134</v>
       </c>
-    </row>
-    <row r="522" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA521" s="17">
+        <v>10.724645324239438</v>
+      </c>
+    </row>
+    <row r="522" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="12" t="s">
         <v>61</v>
       </c>
@@ -26740,8 +27708,11 @@
       <c r="Z522" s="17">
         <v>5.4416121406834375</v>
       </c>
-    </row>
-    <row r="523" spans="1:26" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA522" s="17">
+        <v>5.4477385727988539</v>
+      </c>
+    </row>
+    <row r="523" spans="1:27" s="20" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="21" t="s">
         <v>62</v>
       </c>
@@ -26820,8 +27791,11 @@
       <c r="Z523" s="17">
         <v>6.4254949189989876</v>
       </c>
-    </row>
-    <row r="524" spans="1:26" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA523" s="17">
+        <v>6.4527928423108323</v>
+      </c>
+    </row>
+    <row r="524" spans="1:27" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A524" s="21" t="s">
         <v>110</v>
       </c>
@@ -26900,8 +27874,11 @@
       <c r="Z524" s="17">
         <v>4.8030290053901723</v>
       </c>
-    </row>
-    <row r="525" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA524" s="17">
+        <v>4.9663314143168531</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="12" t="s">
         <v>63</v>
       </c>
@@ -26980,8 +27957,11 @@
       <c r="Z525" s="17">
         <v>3.9652799911320828</v>
       </c>
-    </row>
-    <row r="526" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA525" s="17">
+        <v>4.1153354369639228</v>
+      </c>
+    </row>
+    <row r="526" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="12" t="s">
         <v>64</v>
       </c>
@@ -27060,8 +28040,11 @@
       <c r="Z526" s="17">
         <v>1.9473738142963277</v>
       </c>
-    </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA526" s="17">
+        <v>2.0819957559640954</v>
+      </c>
+    </row>
+    <row r="527" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A527" s="21" t="s">
         <v>65</v>
       </c>
@@ -27140,8 +28123,11 @@
       <c r="Z527" s="17">
         <v>2.0102913059629981</v>
       </c>
-    </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA527" s="17">
+        <v>2.0537216730175465</v>
+      </c>
+    </row>
+    <row r="528" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -27168,8 +28154,9 @@
       <c r="X528" s="17"/>
       <c r="Y528" s="17"/>
       <c r="Z528" s="17"/>
-    </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA528" s="17"/>
+    </row>
+    <row r="529" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A529" s="14" t="s">
         <v>28</v>
       </c>
@@ -27248,8 +28235,11 @@
       <c r="Z529" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="530" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA529" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>49</v>
       </c>
@@ -27328,8 +28318,11 @@
       <c r="Z530" s="17">
         <v>88.779482496452331</v>
       </c>
-    </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA530" s="17">
+        <v>87.397453224832745</v>
+      </c>
+    </row>
+    <row r="531" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>11</v>
       </c>
@@ -27408,8 +28401,11 @@
       <c r="Z531" s="17">
         <v>11.220517503547661</v>
       </c>
-    </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA531" s="17">
+        <v>12.602546775167259</v>
+      </c>
+    </row>
+    <row r="532" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
       <c r="D532" s="17"/>
@@ -27435,8 +28431,9 @@
       <c r="X532" s="17"/>
       <c r="Y532" s="17"/>
       <c r="Z532" s="17"/>
-    </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA532" s="17"/>
+    </row>
+    <row r="533" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>27</v>
       </c>
@@ -27515,8 +28512,11 @@
       <c r="Z533" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="534" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA533" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -27543,13 +28543,14 @@
       <c r="X534" s="15"/>
       <c r="Y534" s="15"/>
       <c r="Z534" s="15"/>
-    </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA534" s="15"/>
+    </row>
+    <row r="535" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B536" s="22"/>
       <c r="C536" s="22"/>
       <c r="D536" s="22"/>
@@ -27575,8 +28576,9 @@
       <c r="X536" s="22"/>
       <c r="Y536" s="22"/>
       <c r="Z536" s="22"/>
-    </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA536" s="22"/>
+    </row>
+    <row r="537" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B537" s="22"/>
       <c r="C537" s="22"/>
       <c r="D537" s="22"/>
@@ -27602,33 +28604,34 @@
       <c r="X537" s="22"/>
       <c r="Y537" s="22"/>
       <c r="Z537" s="22"/>
-    </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA537" s="22"/>
+    </row>
+    <row r="538" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="543" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -27655,8 +28658,9 @@
       <c r="X543" s="3"/>
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
-    </row>
-    <row r="544" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA543" s="3"/>
+    </row>
+    <row r="544" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>29</v>
       </c>
@@ -27685,8 +28689,9 @@
       <c r="X544" s="3"/>
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
-    </row>
-    <row r="545" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA544" s="3"/>
+    </row>
+    <row r="545" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -27713,8 +28718,9 @@
       <c r="X545" s="3"/>
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
-    </row>
-    <row r="546" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA545" s="3"/>
+    </row>
+    <row r="546" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="23"/>
       <c r="B546" s="7" t="s">
         <v>46</v>
@@ -27743,8 +28749,9 @@
       <c r="X546" s="7"/>
       <c r="Y546" s="7"/>
       <c r="Z546" s="7"/>
-    </row>
-    <row r="547" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA546" s="7"/>
+    </row>
+    <row r="547" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="24"/>
       <c r="B547" s="9">
         <v>2000</v>
@@ -27821,8 +28828,11 @@
       <c r="Z547" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="548" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA547" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="548" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="25"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -27849,8 +28859,9 @@
       <c r="X548" s="3"/>
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
-    </row>
-    <row r="549" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA548" s="3"/>
+    </row>
+    <row r="549" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>20</v>
       </c>
@@ -27926,11 +28937,14 @@
       <c r="Y549" s="26">
         <v>3346292.5779508958</v>
       </c>
-      <c r="Z549" s="26">
+      <c r="Z549" s="34">
         <v>4196134.0389063889</v>
       </c>
-    </row>
-    <row r="550" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA549" s="34">
+        <v>4910154.544203531</v>
+      </c>
+    </row>
+    <row r="550" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="27" t="s">
         <v>21</v>
       </c>
@@ -28009,8 +29023,11 @@
       <c r="Z550" s="28">
         <v>3659967.0427601235</v>
       </c>
-    </row>
-    <row r="551" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA550" s="28">
+        <v>4379637.3553943578</v>
+      </c>
+    </row>
+    <row r="551" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="27" t="s">
         <v>22</v>
       </c>
@@ -28089,8 +29106,11 @@
       <c r="Z551" s="28">
         <v>536166.99614626518</v>
       </c>
-    </row>
-    <row r="552" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA551" s="28">
+        <v>530517.18880917295</v>
+      </c>
+    </row>
+    <row r="552" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29"/>
@@ -28116,9 +29136,10 @@
       <c r="W552" s="29"/>
       <c r="X552" s="29"/>
       <c r="Y552" s="29"/>
-      <c r="Z552" s="29"/>
-    </row>
-    <row r="553" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z552" s="34"/>
+      <c r="AA552" s="34"/>
+    </row>
+    <row r="553" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>23</v>
       </c>
@@ -28194,11 +29215,14 @@
       <c r="Y553" s="26">
         <v>681702.8215863657</v>
       </c>
-      <c r="Z553" s="26">
+      <c r="Z553" s="34">
         <v>750162.62943013012</v>
       </c>
-    </row>
-    <row r="554" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA553" s="34">
+        <v>725713.11046038126</v>
+      </c>
+    </row>
+    <row r="554" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="27" t="s">
         <v>21</v>
       </c>
@@ -28277,8 +29301,11 @@
       <c r="Z554" s="28">
         <v>53567.0472724836</v>
       </c>
-    </row>
-    <row r="555" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA554" s="28">
+        <v>26324.913062562409</v>
+      </c>
+    </row>
+    <row r="555" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="27" t="s">
         <v>24</v>
       </c>
@@ -28357,8 +29384,11 @@
       <c r="Z555" s="28">
         <v>696595.58215764654</v>
       </c>
-    </row>
-    <row r="556" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA555" s="28">
+        <v>699388.19739781879</v>
+      </c>
+    </row>
+    <row r="556" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29"/>
@@ -28384,9 +29414,10 @@
       <c r="W556" s="29"/>
       <c r="X556" s="29"/>
       <c r="Y556" s="29"/>
-      <c r="Z556" s="29"/>
-    </row>
-    <row r="557" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z556" s="34"/>
+      <c r="AA556" s="34"/>
+    </row>
+    <row r="557" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="30" t="s">
         <v>32</v>
       </c>
@@ -28462,11 +29493,14 @@
       <c r="Y557" s="29">
         <v>2664589.75636453</v>
       </c>
-      <c r="Z557" s="29">
+      <c r="Z557" s="34">
         <v>3445971.4094762588</v>
       </c>
-    </row>
-    <row r="558" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA557" s="34">
+        <v>4184441.43374315</v>
+      </c>
+    </row>
+    <row r="558" spans="1:27" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -28493,8 +29527,9 @@
       <c r="X558" s="15"/>
       <c r="Y558" s="15"/>
       <c r="Z558" s="15"/>
-    </row>
-    <row r="559" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA558" s="15"/>
+    </row>
+    <row r="559" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>0</v>
       </c>
@@ -28523,8 +29558,9 @@
       <c r="X559" s="3"/>
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
-    </row>
-    <row r="560" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA559" s="3"/>
+    </row>
+    <row r="560" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -28551,8 +29587,9 @@
       <c r="X560" s="3"/>
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
-    </row>
-    <row r="561" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA560" s="3"/>
+    </row>
+    <row r="561" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -28579,8 +29616,9 @@
       <c r="X561" s="3"/>
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
-    </row>
-    <row r="562" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA561" s="3"/>
+    </row>
+    <row r="562" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>25</v>
       </c>
@@ -28609,8 +29647,9 @@
       <c r="X562" s="3"/>
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
-    </row>
-    <row r="563" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA562" s="3"/>
+    </row>
+    <row r="563" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>26</v>
       </c>
@@ -28639,10 +29678,11 @@
       <c r="X563" s="3"/>
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
-    </row>
-    <row r="564" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA563" s="3"/>
+    </row>
+    <row r="564" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -28669,8 +29709,9 @@
       <c r="X564" s="3"/>
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
-    </row>
-    <row r="565" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA564" s="3"/>
+    </row>
+    <row r="565" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -28697,8 +29738,9 @@
       <c r="X565" s="3"/>
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
-    </row>
-    <row r="566" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA565" s="3"/>
+    </row>
+    <row r="566" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>40</v>
       </c>
@@ -28727,10 +29769,11 @@
       <c r="X566" s="3"/>
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
-    </row>
-    <row r="567" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA566" s="3"/>
+    </row>
+    <row r="567" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -28757,8 +29800,9 @@
       <c r="X567" s="3"/>
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
-    </row>
-    <row r="568" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA567" s="3"/>
+    </row>
+    <row r="568" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>30</v>
       </c>
@@ -28787,8 +29831,9 @@
       <c r="X568" s="3"/>
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
-    </row>
-    <row r="569" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA568" s="3"/>
+    </row>
+    <row r="569" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -28815,8 +29860,9 @@
       <c r="X569" s="3"/>
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
-    </row>
-    <row r="570" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA569" s="3"/>
+    </row>
+    <row r="570" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="23"/>
       <c r="B570" s="7" t="s">
         <v>46</v>
@@ -28845,8 +29891,9 @@
       <c r="X570" s="7"/>
       <c r="Y570" s="7"/>
       <c r="Z570" s="7"/>
-    </row>
-    <row r="571" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA570" s="7"/>
+    </row>
+    <row r="571" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="24"/>
       <c r="B571" s="9">
         <v>2000</v>
@@ -28923,8 +29970,11 @@
       <c r="Z571" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="572" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA571" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="572" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="25"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -28951,8 +30001,9 @@
       <c r="X572" s="3"/>
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
-    </row>
-    <row r="573" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA572" s="3"/>
+    </row>
+    <row r="573" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>20</v>
       </c>
@@ -29028,11 +30079,14 @@
       <c r="Y573" s="26">
         <v>2793911.957433078</v>
       </c>
-      <c r="Z573" s="26">
+      <c r="Z573" s="34">
         <v>3420902.8854596354</v>
       </c>
-    </row>
-    <row r="574" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA573" s="34">
+        <v>3929595.584033906</v>
+      </c>
+    </row>
+    <row r="574" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="27" t="s">
         <v>21</v>
       </c>
@@ -29111,8 +30165,11 @@
       <c r="Z574" s="28">
         <v>2982604.5405376302</v>
       </c>
-    </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA574" s="28">
+        <v>3503063.0639013429</v>
+      </c>
+    </row>
+    <row r="575" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A575" s="27" t="s">
         <v>22</v>
       </c>
@@ -29191,8 +30248,11 @@
       <c r="Z575" s="28">
         <v>438298.3449220052</v>
       </c>
-    </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA575" s="28">
+        <v>426532.52013256314</v>
+      </c>
+    </row>
+    <row r="576" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29"/>
@@ -29218,9 +30278,10 @@
       <c r="W576" s="29"/>
       <c r="X576" s="29"/>
       <c r="Y576" s="29"/>
-      <c r="Z576" s="29"/>
-    </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z576" s="34"/>
+      <c r="AA576" s="34"/>
+    </row>
+    <row r="577" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
         <v>23</v>
       </c>
@@ -29296,11 +30357,14 @@
       <c r="Y577" s="26">
         <v>572646.76869562163</v>
       </c>
-      <c r="Z577" s="26">
+      <c r="Z577" s="34">
         <v>609519.15149536007</v>
       </c>
-    </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA577" s="34">
+        <v>580758.75171199255</v>
+      </c>
+    </row>
+    <row r="578" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A578" s="27" t="s">
         <v>21</v>
       </c>
@@ -29379,8 +30443,11 @@
       <c r="Z578" s="28">
         <v>43408.874985549613</v>
       </c>
-    </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA578" s="28">
+        <v>20976.224043559316</v>
+      </c>
+    </row>
+    <row r="579" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A579" s="27" t="s">
         <v>24</v>
       </c>
@@ -29459,8 +30526,11 @@
       <c r="Z579" s="28">
         <v>566110.27650981047</v>
       </c>
-    </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA579" s="28">
+        <v>559782.52766843326</v>
+      </c>
+    </row>
+    <row r="580" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29"/>
@@ -29486,9 +30556,10 @@
       <c r="W580" s="29"/>
       <c r="X580" s="29"/>
       <c r="Y580" s="29"/>
-      <c r="Z580" s="29"/>
-    </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z580" s="34"/>
+      <c r="AA580" s="34"/>
+    </row>
+    <row r="581" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A581" s="30" t="s">
         <v>32</v>
       </c>
@@ -29564,11 +30635,14 @@
       <c r="Y581" s="29">
         <v>2221265.1887374562</v>
       </c>
-      <c r="Z581" s="29">
+      <c r="Z581" s="34">
         <v>2811383.7339642756</v>
       </c>
-    </row>
-    <row r="582" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA581" s="34">
+        <v>3348836.8323219134</v>
+      </c>
+    </row>
+    <row r="582" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -29595,55 +30669,56 @@
       <c r="X582" s="15"/>
       <c r="Y582" s="15"/>
       <c r="Z582" s="15"/>
-    </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA582" s="15"/>
+    </row>
+    <row r="583" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
     </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
     </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="589" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
     </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
     </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A594" s="23"/>
       <c r="B594" s="7" t="s">
         <v>46</v>
@@ -29672,8 +30747,9 @@
       <c r="X594" s="7"/>
       <c r="Y594" s="7"/>
       <c r="Z594" s="7"/>
-    </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA594" s="6"/>
+    </row>
+    <row r="595" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A595" s="24"/>
       <c r="B595" s="9" t="s">
         <v>66</v>
@@ -29747,12 +30823,15 @@
       <c r="Y595" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z595" s="9"/>
-    </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z595" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA595" s="9"/>
+    </row>
+    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A596" s="25"/>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
         <v>20</v>
       </c>
@@ -29828,9 +30907,12 @@
       <c r="Y597" s="17">
         <v>25.396507960935509</v>
       </c>
-      <c r="Z597" s="17"/>
-    </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z597" s="17">
+        <v>17.016151025605296</v>
+      </c>
+      <c r="AA597" s="17"/>
+    </row>
+    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598" s="27" t="s">
         <v>21</v>
       </c>
@@ -29906,9 +30988,12 @@
       <c r="Y598" s="17">
         <v>27.086538718065725</v>
       </c>
-      <c r="Z598" s="17"/>
-    </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z598" s="17">
+        <v>19.663300358341559</v>
+      </c>
+      <c r="AA598" s="17"/>
+    </row>
+    <row r="599" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A599" s="27" t="s">
         <v>22</v>
       </c>
@@ -29984,9 +31069,12 @@
       <c r="Y599" s="17">
         <v>14.960799680818695</v>
       </c>
-      <c r="Z599" s="17"/>
-    </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z599" s="17">
+        <v>-1.0537402297606207</v>
+      </c>
+      <c r="AA599" s="17"/>
+    </row>
+    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29"/>
@@ -30011,9 +31099,10 @@
       <c r="W600" s="29"/>
       <c r="X600" s="29"/>
       <c r="Y600" s="29"/>
-      <c r="Z600" s="29"/>
-    </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z600" s="17"/>
+      <c r="AA600" s="17"/>
+    </row>
+    <row r="601" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
         <v>23</v>
       </c>
@@ -30089,9 +31178,12 @@
       <c r="Y601" s="17">
         <v>10.042470953025258</v>
       </c>
-      <c r="Z601" s="17"/>
-    </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z601" s="17">
+        <v>-3.2592291338642383</v>
+      </c>
+      <c r="AA601" s="17"/>
+    </row>
+    <row r="602" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A602" s="27" t="s">
         <v>21</v>
       </c>
@@ -30167,9 +31259,12 @@
       <c r="Y602" s="17">
         <v>-11.169427243004975</v>
       </c>
-      <c r="Z602" s="17"/>
-    </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z602" s="17">
+        <v>-50.856143089886103</v>
+      </c>
+      <c r="AA602" s="17"/>
+    </row>
+    <row r="603" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A603" s="27" t="s">
         <v>24</v>
       </c>
@@ -30245,9 +31340,12 @@
       <c r="Y603" s="17">
         <v>12.10093506113563</v>
       </c>
-      <c r="Z603" s="17"/>
-    </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z603" s="17">
+        <v>0.40089476759561649</v>
+      </c>
+      <c r="AA603" s="17"/>
+    </row>
+    <row r="604" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29"/>
@@ -30272,9 +31370,10 @@
       <c r="W604" s="29"/>
       <c r="X604" s="29"/>
       <c r="Y604" s="29"/>
-      <c r="Z604" s="29"/>
-    </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z604" s="17"/>
+      <c r="AA604" s="17"/>
+    </row>
+    <row r="605" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A605" s="30" t="s">
         <v>32</v>
       </c>
@@ -30350,9 +31449,12 @@
       <c r="Y605" s="17">
         <v>29.324651243042297</v>
       </c>
-      <c r="Z605" s="17"/>
-    </row>
-    <row r="606" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z605" s="17">
+        <v>21.429952153292191</v>
+      </c>
+      <c r="AA605" s="17"/>
+    </row>
+    <row r="606" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -30379,55 +31481,56 @@
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
       <c r="Z606" s="15"/>
-    </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA606" s="15"/>
+    </row>
+    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
     </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
     </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
     </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="616" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
     </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A618" s="23"/>
       <c r="B618" s="7" t="s">
         <v>46</v>
@@ -30456,8 +31559,9 @@
       <c r="X618" s="7"/>
       <c r="Y618" s="7"/>
       <c r="Z618" s="7"/>
-    </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA618" s="6"/>
+    </row>
+    <row r="619" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A619" s="24"/>
       <c r="B619" s="9" t="s">
         <v>66</v>
@@ -30531,12 +31635,15 @@
       <c r="Y619" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z619" s="9"/>
-    </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z619" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA619" s="9"/>
+    </row>
+    <row r="620" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A620" s="25"/>
     </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
         <v>20</v>
       </c>
@@ -30612,9 +31719,12 @@
       <c r="Y621" s="17">
         <v>22.441327342419498</v>
       </c>
-      <c r="Z621" s="17"/>
-    </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z621" s="17">
+        <v>14.870129775868278</v>
+      </c>
+      <c r="AA621" s="17"/>
+    </row>
+    <row r="622" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A622" s="27" t="s">
         <v>21</v>
       </c>
@@ -30690,9 +31800,12 @@
       <c r="Y622" s="17">
         <v>24.115198063890247</v>
       </c>
-      <c r="Z622" s="17"/>
-    </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z622" s="17">
+        <v>17.449799874236675</v>
+      </c>
+      <c r="AA622" s="17"/>
+    </row>
+    <row r="623" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A623" s="27" t="s">
         <v>22</v>
       </c>
@@ -30768,9 +31881,12 @@
       <c r="Y623" s="17">
         <v>12.148899986493205</v>
       </c>
-      <c r="Z623" s="17"/>
-    </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z623" s="17">
+        <v>-2.6844328585214612</v>
+      </c>
+      <c r="AA623" s="17"/>
+    </row>
+    <row r="624" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29"/>
@@ -30795,9 +31911,10 @@
       <c r="W624" s="29"/>
       <c r="X624" s="29"/>
       <c r="Y624" s="29"/>
-      <c r="Z624" s="29"/>
-    </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z624" s="17"/>
+      <c r="AA624" s="17"/>
+    </row>
+    <row r="625" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>23</v>
       </c>
@@ -30873,9 +31990,12 @@
       <c r="Y625" s="17">
         <v>6.4389401661562715</v>
       </c>
-      <c r="Z625" s="17"/>
-    </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z625" s="17">
+        <v>-4.7185391489026074</v>
+      </c>
+      <c r="AA625" s="17"/>
+    </row>
+    <row r="626" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A626" s="27" t="s">
         <v>21</v>
       </c>
@@ -30951,9 +32071,12 @@
       <c r="Y626" s="17">
         <v>-14.023523505530903</v>
       </c>
-      <c r="Z626" s="17"/>
-    </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z626" s="17">
+        <v>-51.677568122781125</v>
+      </c>
+      <c r="AA626" s="17"/>
+    </row>
+    <row r="627" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A627" s="27" t="s">
         <v>24</v>
       </c>
@@ -31029,9 +32152,12 @@
       <c r="Y627" s="17">
         <v>8.4175277075146653</v>
       </c>
-      <c r="Z627" s="17"/>
-    </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z627" s="17">
+        <v>-1.1177590487120597</v>
+      </c>
+      <c r="AA627" s="17"/>
+    </row>
+    <row r="628" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
@@ -31056,9 +32182,10 @@
       <c r="W628" s="29"/>
       <c r="X628" s="29"/>
       <c r="Y628" s="29"/>
-      <c r="Z628" s="29"/>
-    </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z628" s="17"/>
+      <c r="AA628" s="17"/>
+    </row>
+    <row r="629" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A629" s="30" t="s">
         <v>32</v>
       </c>
@@ -31134,9 +32261,12 @@
       <c r="Y629" s="17">
         <v>26.566775917567796</v>
       </c>
-      <c r="Z629" s="17"/>
-    </row>
-    <row r="630" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z629" s="17">
+        <v>19.117030943327904</v>
+      </c>
+      <c r="AA629" s="17"/>
+    </row>
+    <row r="630" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -31163,42 +32293,43 @@
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
-    </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA630" s="15"/>
+    </row>
+    <row r="631" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
     </row>
-    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
     </row>
-    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="635" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
     </row>
-    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="637" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
     </row>
-    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="639" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -31225,8 +32356,9 @@
       <c r="X639" s="3"/>
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
-    </row>
-    <row r="640" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA639" s="3"/>
+    </row>
+    <row r="640" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
         <v>31</v>
       </c>
@@ -31255,8 +32387,9 @@
       <c r="X640" s="3"/>
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
-    </row>
-    <row r="641" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA640" s="3"/>
+    </row>
+    <row r="641" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -31283,8 +32416,9 @@
       <c r="X641" s="3"/>
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
-    </row>
-    <row r="642" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA641" s="3"/>
+    </row>
+    <row r="642" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A642" s="23"/>
       <c r="B642" s="7" t="s">
         <v>46</v>
@@ -31313,8 +32447,9 @@
       <c r="X642" s="7"/>
       <c r="Y642" s="7"/>
       <c r="Z642" s="7"/>
-    </row>
-    <row r="643" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA642" s="7"/>
+    </row>
+    <row r="643" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A643" s="24"/>
       <c r="B643" s="9">
         <v>2000</v>
@@ -31391,8 +32526,11 @@
       <c r="Z643" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="644" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA643" s="9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="644" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A644" s="25"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -31419,8 +32557,9 @@
       <c r="X644" s="3"/>
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
-    </row>
-    <row r="645" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA644" s="3"/>
+    </row>
+    <row r="645" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
         <v>20</v>
       </c>
@@ -31496,11 +32635,14 @@
       <c r="Y645" s="31">
         <v>119.77086711870908</v>
       </c>
-      <c r="Z645" s="31">
+      <c r="Z645" s="17">
         <v>122.66159488893508</v>
       </c>
-    </row>
-    <row r="646" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA645" s="17">
+        <v>124.95317747591312</v>
+      </c>
+    </row>
+    <row r="646" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A646" s="27" t="s">
         <v>21</v>
       </c>
@@ -31576,11 +32718,14 @@
       <c r="Y646" s="31">
         <v>119.84141082944141</v>
       </c>
-      <c r="Z646" s="31">
+      <c r="Z646" s="17">
         <v>122.71043623169685</v>
       </c>
-    </row>
-    <row r="647" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA646" s="17">
+        <v>125.02308052989429</v>
+      </c>
+    </row>
+    <row r="647" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A647" s="27" t="s">
         <v>22</v>
       </c>
@@ -31656,11 +32801,14 @@
       <c r="Y647" s="31">
         <v>119.33710242659939</v>
       </c>
-      <c r="Z647" s="31">
+      <c r="Z647" s="17">
         <v>122.32923130058262</v>
       </c>
-    </row>
-    <row r="648" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA647" s="17">
+        <v>124.37907164600068</v>
+      </c>
+    </row>
+    <row r="648" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29"/>
@@ -31686,9 +32834,10 @@
       <c r="W648" s="29"/>
       <c r="X648" s="29"/>
       <c r="Y648" s="29"/>
-      <c r="Z648" s="29"/>
-    </row>
-    <row r="649" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z648" s="17"/>
+      <c r="AA648" s="17"/>
+    </row>
+    <row r="649" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
         <v>23</v>
       </c>
@@ -31764,11 +32913,14 @@
       <c r="Y649" s="31">
         <v>119.04420994798461</v>
       </c>
-      <c r="Z649" s="31">
+      <c r="Z649" s="17">
         <v>123.07449693577688</v>
       </c>
-    </row>
-    <row r="650" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA649" s="17">
+        <v>124.95947901277154</v>
+      </c>
+    </row>
+    <row r="650" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A650" s="27" t="s">
         <v>21</v>
       </c>
@@ -31844,11 +32996,14 @@
       <c r="Y650" s="31">
         <v>119.43630461706269</v>
       </c>
-      <c r="Z650" s="31">
+      <c r="Z650" s="17">
         <v>123.40114156452002</v>
       </c>
-    </row>
-    <row r="651" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA650" s="17">
+        <v>125.49881717460676</v>
+      </c>
+    </row>
+    <row r="651" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A651" s="27" t="s">
         <v>24</v>
       </c>
@@ -31924,11 +33079,14 @@
       <c r="Y651" s="31">
         <v>119.0062969361539</v>
       </c>
-      <c r="Z651" s="31">
+      <c r="Z651" s="17">
         <v>123.04945009165098</v>
       </c>
-    </row>
-    <row r="652" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA651" s="17">
+        <v>124.93926888194622</v>
+      </c>
+    </row>
+    <row r="652" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
@@ -31954,9 +33112,10 @@
       <c r="W652" s="29"/>
       <c r="X652" s="29"/>
       <c r="Y652" s="29"/>
-      <c r="Z652" s="29"/>
-    </row>
-    <row r="653" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z652" s="17"/>
+      <c r="AA652" s="17"/>
+    </row>
+    <row r="653" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="30" t="s">
         <v>32</v>
       </c>
@@ -32032,11 +33191,14 @@
       <c r="Y653" s="31">
         <v>119.95820084314448</v>
       </c>
-      <c r="Z653" s="31">
+      <c r="Z653" s="17">
         <v>122.57207608643179</v>
       </c>
-    </row>
-    <row r="654" spans="1:26" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA653" s="17">
+        <v>124.9520846568649</v>
+      </c>
+    </row>
+    <row r="654" spans="1:27" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -32063,13 +33225,14 @@
       <c r="X654" s="15"/>
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
-    </row>
-    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA654" s="15"/>
+    </row>
+    <row r="655" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
     </row>
     <row r="657" spans="1:31" x14ac:dyDescent="0.2">
@@ -32087,7 +33250,7 @@
     </row>
     <row r="660" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="661" spans="1:31" x14ac:dyDescent="0.2">
@@ -32100,7 +33263,7 @@
     </row>
     <row r="663" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="664" spans="1:31" x14ac:dyDescent="0.2">
@@ -32138,6 +33301,7 @@
       <c r="X666" s="7"/>
       <c r="Y666" s="7"/>
       <c r="Z666" s="7"/>
+      <c r="AA666" s="7"/>
     </row>
     <row r="667" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A667" s="24"/>
@@ -32216,6 +33380,9 @@
       <c r="Z667" s="9">
         <v>2024</v>
       </c>
+      <c r="AA667" s="9">
+        <v>2025</v>
+      </c>
     </row>
     <row r="668" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A668" s="25"/>
@@ -32301,10 +33468,12 @@
       <c r="Y670" s="32">
         <v>217255.23852938425</v>
       </c>
-      <c r="Z670" s="32">
+      <c r="Z670" s="34">
         <v>234277.45694905327</v>
       </c>
-      <c r="AA670" s="32"/>
+      <c r="AA670" s="34">
+        <v>246034.65364822451</v>
+      </c>
       <c r="AB670" s="32"/>
       <c r="AC670" s="32"/>
       <c r="AD670" s="32"/>
@@ -32386,10 +33555,12 @@
       <c r="Y671" s="32">
         <v>241064.8331356078</v>
       </c>
-      <c r="Z671" s="32">
+      <c r="Z671" s="34">
         <v>264803.89342979988</v>
       </c>
-      <c r="AA671" s="32"/>
+      <c r="AA671" s="34">
+        <v>282784.41737097024</v>
+      </c>
       <c r="AB671" s="32"/>
       <c r="AC671" s="32"/>
       <c r="AD671" s="32"/>
@@ -32471,10 +33642,12 @@
       <c r="Y672" s="32">
         <v>166241.19752687277</v>
       </c>
-      <c r="Z672" s="32">
+      <c r="Z672" s="34">
         <v>178391.49129073464</v>
       </c>
-      <c r="AA672" s="32"/>
+      <c r="AA672" s="34">
+        <v>188017.75413570346</v>
+      </c>
       <c r="AB672" s="32"/>
       <c r="AC672" s="32"/>
       <c r="AD672" s="32"/>
@@ -32506,8 +33679,8 @@
       <c r="W673" s="32"/>
       <c r="X673" s="32"/>
       <c r="Y673" s="32"/>
-      <c r="Z673" s="32"/>
-      <c r="AA673" s="32"/>
+      <c r="Z673" s="34"/>
+      <c r="AA673" s="34"/>
       <c r="AB673" s="32"/>
       <c r="AC673" s="32"/>
       <c r="AD673" s="32"/>
@@ -32541,8 +33714,8 @@
       <c r="W674" s="32"/>
       <c r="X674" s="32"/>
       <c r="Y674" s="32"/>
-      <c r="Z674" s="32"/>
-      <c r="AA674" s="32"/>
+      <c r="Z674" s="34"/>
+      <c r="AA674" s="34"/>
       <c r="AB674" s="32"/>
       <c r="AC674" s="32"/>
       <c r="AD674" s="32"/>
@@ -32624,10 +33797,12 @@
       <c r="Y675" s="32">
         <v>188061.24807278041</v>
       </c>
-      <c r="Z675" s="32">
+      <c r="Z675" s="34">
         <v>197053.56175220883</v>
       </c>
-      <c r="AA675" s="32"/>
+      <c r="AA675" s="34">
+        <v>203963.05319039678</v>
+      </c>
       <c r="AB675" s="32"/>
       <c r="AC675" s="32"/>
       <c r="AD675" s="32"/>
@@ -32709,10 +33884,12 @@
       <c r="Y676" s="32">
         <v>207909.49057631427</v>
       </c>
-      <c r="Z676" s="32">
+      <c r="Z676" s="34">
         <v>221958.44829359438</v>
       </c>
-      <c r="AA676" s="32"/>
+      <c r="AA676" s="34">
+        <v>233374.13810639916</v>
+      </c>
       <c r="AB676" s="32"/>
       <c r="AC676" s="32"/>
       <c r="AD676" s="32"/>
@@ -32794,10 +33971,12 @@
       <c r="Y677" s="32">
         <v>137403.86431931713</v>
       </c>
-      <c r="Z677" s="32">
+      <c r="Z677" s="34">
         <v>142836.96862493656</v>
       </c>
-      <c r="AA677" s="32"/>
+      <c r="AA677" s="34">
+        <v>148068.91123106502</v>
+      </c>
       <c r="AB677" s="32"/>
       <c r="AC677" s="32"/>
       <c r="AD677" s="32"/>
@@ -32830,6 +34009,7 @@
       <c r="X678" s="3"/>
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
+      <c r="AA678" s="3"/>
     </row>
     <row r="679" spans="1:31" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A679"/>
@@ -32857,7 +34037,8 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
-      <c r="Z679" s="1"/>
+      <c r="Z679"/>
+      <c r="AA679"/>
     </row>
     <row r="680" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A680" s="15"/>
@@ -32886,6 +34067,7 @@
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
+      <c r="AA680" s="15"/>
     </row>
     <row r="681" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="s">
@@ -32916,6 +34098,7 @@
       <c r="X681" s="3"/>
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
+      <c r="AA681" s="3"/>
     </row>
     <row r="682" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
@@ -32946,6 +34129,7 @@
       <c r="X682" s="3"/>
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
+      <c r="AA682" s="3"/>
     </row>
     <row r="683" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
@@ -32974,6 +34158,7 @@
       <c r="X683" s="3"/>
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
+      <c r="AA683" s="3"/>
     </row>
     <row r="684" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
@@ -33004,6 +34189,7 @@
       <c r="X684" s="3"/>
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
+      <c r="AA684" s="3"/>
     </row>
     <row r="685" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
@@ -33034,10 +34220,11 @@
       <c r="X685" s="3"/>
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
+      <c r="AA685" s="3"/>
     </row>
     <row r="686" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -33064,6 +34251,7 @@
       <c r="X686" s="3"/>
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
+      <c r="AA686" s="3"/>
     </row>
     <row r="687" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
@@ -33073,20 +34261,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="690" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A692" s="23"/>
       <c r="B692" s="7" t="s">
         <v>46</v>
@@ -33115,8 +34303,9 @@
       <c r="X692" s="7"/>
       <c r="Y692" s="7"/>
       <c r="Z692" s="7"/>
-    </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA692" s="6"/>
+    </row>
+    <row r="693" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A693" s="24"/>
       <c r="B693" s="9" t="s">
         <v>66</v>
@@ -33190,17 +34379,20 @@
       <c r="Y693" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Z693" s="9"/>
-    </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z693" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA693" s="9"/>
+    </row>
+    <row r="694" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A694" s="25"/>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A696" s="27" t="s">
         <v>88</v>
       </c>
@@ -33276,9 +34468,12 @@
       <c r="Y696" s="17">
         <v>7.8351244991345652</v>
       </c>
-      <c r="Z696" s="17"/>
-    </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z696" s="17">
+        <v>5.0184925396932272</v>
+      </c>
+      <c r="AA696" s="17"/>
+    </row>
+    <row r="697" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A697" s="27" t="s">
         <v>89</v>
       </c>
@@ -33354,9 +34549,12 @@
       <c r="Y697" s="17">
         <v>9.8475833183175183</v>
       </c>
-      <c r="Z697" s="17"/>
-    </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z697" s="17">
+        <v>6.7901282372711904</v>
+      </c>
+      <c r="AA697" s="17"/>
+    </row>
+    <row r="698" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A698" s="27" t="s">
         <v>90</v>
       </c>
@@ -33432,17 +34630,24 @@
       <c r="Y698" s="17">
         <v>7.3088343591231535</v>
       </c>
-      <c r="Z698" s="17"/>
-    </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z698" s="17">
+        <v>5.3961446116734209</v>
+      </c>
+      <c r="AA698" s="17"/>
+    </row>
+    <row r="699" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
-    </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z699" s="17"/>
+      <c r="AA699" s="17"/>
+    </row>
+    <row r="700" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z700" s="17"/>
+      <c r="AA700" s="17"/>
+    </row>
+    <row r="701" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A701" s="27" t="s">
         <v>88</v>
       </c>
@@ -33518,9 +34723,12 @@
       <c r="Y701" s="17">
         <v>4.7815877920518517</v>
       </c>
-      <c r="Z701" s="17"/>
-    </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z701" s="17">
+        <v>3.5064027144439507</v>
+      </c>
+      <c r="AA701" s="17"/>
+    </row>
+    <row r="702" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A702" s="27" t="s">
         <v>89</v>
       </c>
@@ -33596,9 +34804,12 @@
       <c r="Y702" s="17">
         <v>6.7572469531511672</v>
       </c>
-      <c r="Z702" s="17"/>
-    </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z702" s="17">
+        <v>5.143165263844665</v>
+      </c>
+      <c r="AA702" s="17"/>
+    </row>
+    <row r="703" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A703" s="27" t="s">
         <v>90</v>
       </c>
@@ -33674,9 +34885,12 @@
       <c r="Y703" s="17">
         <v>3.9541131776274341</v>
       </c>
-      <c r="Z703" s="17"/>
-    </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z703" s="17">
+        <v>3.6628770944212334</v>
+      </c>
+      <c r="AA703" s="17"/>
+    </row>
+    <row r="704" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -33703,6 +34917,7 @@
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
       <c r="Z704" s="15"/>
+      <c r="AA704" s="15"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
@@ -33712,12 +34927,17 @@
     <row r="706" spans="1:1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="U88:U103 U106 U108 U110">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126:U141 U144 U146 U148">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z88:AA110 Z126:AA148 Z163:AA185 Z201:AA223 Z239:AA261 Z355:AA378 Z394:AA417 Z432:AA455 Z471:AA494 Z510:AA533 Z597:AA605 Z621:AA629 Z645:AA653 Z696:AA703">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33733,14 +34953,14 @@
     <brk id="265" max="16383" man="1"/>
     <brk id="304" max="16383" man="1"/>
     <brk id="343" max="16383" man="1"/>
-    <brk id="382" max="25" man="1"/>
-    <brk id="421" max="25" man="1"/>
-    <brk id="459" max="25" man="1"/>
-    <brk id="498" max="25" man="1"/>
-    <brk id="537" max="25" man="1"/>
-    <brk id="585" max="25" man="1"/>
-    <brk id="633" max="25" man="1"/>
-    <brk id="657" max="25" man="1"/>
+    <brk id="382" max="26" man="1"/>
+    <brk id="421" max="26" man="1"/>
+    <brk id="459" max="26" man="1"/>
+    <brk id="498" max="26" man="1"/>
+    <brk id="537" max="26" man="1"/>
+    <brk id="585" max="26" man="1"/>
+    <brk id="633" max="26" man="1"/>
+    <brk id="657" max="26" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="705" man="1"/>
